--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DDA572-0BE9-4FEA-AF23-DC70577E2D92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF36CEB-B780-48BB-A6D6-7100EAC0319C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2951,7 +2951,7 @@
   <dimension ref="A3:R51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
@@ -4539,8 +4539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4587,10 +4587,10 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -4637,8 +4637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4710,7 +4710,7 @@
         <v>0.12</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E10" si="1">F3</f>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF36CEB-B780-48BB-A6D6-7100EAC0319C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064FC27C-88C9-4DAF-AE9B-8325241AED56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="GlobalParams" sheetId="3" r:id="rId3"/>
     <sheet name="params_byTier" sheetId="19" r:id="rId4"/>
     <sheet name="returns" sheetId="2" r:id="rId5"/>
-    <sheet name="targeVals_raw" sheetId="23" r:id="rId6"/>
-    <sheet name="groupWgts" sheetId="24" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="25" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId9"/>
-    <sheet name="Note1" sheetId="29" r:id="rId10"/>
+    <sheet name="targetVals_pf.AL" sheetId="25" r:id="rId6"/>
+    <sheet name="targetVals_pf.NC" sheetId="30" r:id="rId7"/>
+    <sheet name="targeVals_raw" sheetId="23" r:id="rId8"/>
+    <sheet name="groupWgts" sheetId="24" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId10"/>
+    <sheet name="Note1" sheetId="29" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -235,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="309">
   <si>
     <t>nsim</t>
   </si>
@@ -564,9 +565,6 @@
     <t>B_adjust</t>
   </si>
   <si>
-    <t>cali_bfactor</t>
-  </si>
-  <si>
     <t>calib_qxm.post</t>
   </si>
   <si>
@@ -588,40 +586,16 @@
     <t>cola_assumed_override</t>
   </si>
   <si>
-    <t>Net position</t>
-  </si>
-  <si>
     <t>PERF B</t>
   </si>
   <si>
     <t>PERF C</t>
   </si>
   <si>
-    <t>LRF</t>
-  </si>
-  <si>
-    <t>JRF</t>
-  </si>
-  <si>
-    <t>JRFII</t>
-  </si>
-  <si>
-    <t>DCF</t>
-  </si>
-  <si>
-    <t>SCPF</t>
-  </si>
-  <si>
     <t>CalPERS total</t>
   </si>
   <si>
     <t>PERF A</t>
-  </si>
-  <si>
-    <t>2019 June 30</t>
-  </si>
-  <si>
-    <t>2018 June 30</t>
   </si>
   <si>
     <t>Misc</t>
@@ -996,18 +970,6 @@
     <t>All members</t>
   </si>
   <si>
-    <t>state members</t>
-  </si>
-  <si>
-    <t>of CalPERS</t>
-  </si>
-  <si>
-    <t>of PERF A</t>
-  </si>
-  <si>
-    <t>of PERF</t>
-  </si>
-  <si>
     <t>newBasisPolicyChg</t>
   </si>
   <si>
@@ -1120,13 +1082,421 @@
   </si>
   <si>
     <t>Parameters for SJ policies</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Actua ria I L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">iability </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Fire</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Police</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Tier 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Actives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Retirement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Termination</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Death</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Disability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Total Actives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Deferred Vested</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>In Pay Status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Service Retirees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Beneficiaries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Disabled Retirees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Total In Pay Status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Tier 1 Actuarial Liability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>COLA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Tier 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Actives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Tier 2 Actuarial Liability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Total Actuarial Liability</t>
+    </r>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>source: AV2019 ep 30</t>
+  </si>
+  <si>
+    <t>source: AV2019 ep29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Entry Age </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Norma</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>l Cost By Group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tier I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Retirement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Termination</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Death</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Disability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reciprocity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total Tier 1 Normal Cost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Expected Payroll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Normal Cost Rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>COLA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tier 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total Tier 2 Normal Cost</t>
+    </r>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>termination</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>disability</t>
+  </si>
+  <si>
+    <t>Serv Retirement</t>
+  </si>
+  <si>
+    <t>payroll</t>
+  </si>
+  <si>
+    <t>multiple of payroll</t>
+  </si>
+  <si>
+    <t>calib_qxmd.post</t>
+  </si>
+  <si>
+    <t>calib_Bx.servRet</t>
+  </si>
+  <si>
+    <t>calib_Bx.disbRet</t>
+  </si>
+  <si>
+    <t>sal_pre2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="10">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1135,8 +1505,9 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,8 +1618,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1327,8 +1734,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1369,6 +1782,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1381,7 +1823,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1472,6 +1914,202 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="6" fontId="17" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="6" fontId="17" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1900,13 +2538,13 @@
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
       <c r="K3" s="59" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="L3" s="59"/>
       <c r="M3" s="59"/>
@@ -1983,61 +2621,61 @@
         <v>74</v>
       </c>
       <c r="G4" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>115</v>
-      </c>
       <c r="K4" s="62" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L4" s="62" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="N4" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="U4" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="O4" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="R4" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="S4" s="60" t="s">
+      <c r="V4" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="W4" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="T4" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="U4" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="V4" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="W4" s="60" t="s">
-        <v>268</v>
-      </c>
       <c r="X4" s="60" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="Y4" s="60" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="Z4" s="10" t="s">
         <v>11</v>
@@ -2132,7 +2770,7 @@
     </row>
     <row r="5" spans="1:55">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -2141,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2159,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M5">
         <v>0.08</v>
@@ -2198,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AA5" t="s">
         <v>35</v>
@@ -2219,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="AG5" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="AH5" t="b">
         <v>0</v>
@@ -2374,15 +3012,15 @@
     </row>
     <row r="15" spans="1:55">
       <c r="B15" s="55" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:55">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2391,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2409,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L16" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="M16">
         <v>0.06</v>
@@ -2454,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AA16" t="s">
         <v>35</v>
@@ -2475,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="AG16" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="AH16" t="b">
         <v>0</v>
@@ -2540,10 +3178,10 @@
     </row>
     <row r="17" spans="1:55">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2552,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2570,10 +3208,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L17" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M17">
         <v>0.06</v>
@@ -2615,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AA17" t="s">
         <v>35</v>
@@ -2636,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="AG17" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="AH17" t="b">
         <v>0</v>
@@ -2701,10 +3339,10 @@
     </row>
     <row r="18" spans="1:55">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2713,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2731,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L18" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M18">
         <v>0.06</v>
@@ -2776,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="Z18" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AA18" t="s">
         <v>35</v>
@@ -2797,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="AG18" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="AH18" t="b">
         <v>0</v>
@@ -2880,6 +3518,167 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7ADC07-2090-47BB-AB7D-BDC407276AE7}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="24">
+        <v>80223070</v>
+      </c>
+      <c r="C2" s="47">
+        <f>B2/B$8</f>
+        <v>0.58887347116219513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="24">
+        <f>3589902866/1000</f>
+        <v>3589902.8659999999</v>
+      </c>
+      <c r="C3" s="47">
+        <f t="shared" ref="C3:C8" si="0">B3/B$8</f>
+        <v>2.6351504147579148E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="24">
+        <f>SUM(B2:B3)</f>
+        <v>83812972.865999997</v>
+      </c>
+      <c r="C4" s="47">
+        <f t="shared" si="0"/>
+        <v>0.61522497530977416</v>
+      </c>
+      <c r="D4" s="25">
+        <f>B4/SUM(B10:B12)</f>
+        <v>0.23676281938396723</v>
+      </c>
+      <c r="E4">
+        <f>B4/B14</f>
+        <v>0.22925971478816315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="46">
+        <f>10551342261/1000</f>
+        <v>10551342.261</v>
+      </c>
+      <c r="C5" s="47">
+        <f t="shared" si="0"/>
+        <v>7.7451605163644743E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="46">
+        <f>33326594392/1000</f>
+        <v>33326594.392000001</v>
+      </c>
+      <c r="C6" s="47">
+        <f t="shared" si="0"/>
+        <v>0.24463221516742734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="46">
+        <f>8540511923/1000</f>
+        <v>8540511.9230000004</v>
+      </c>
+      <c r="C7" s="47">
+        <f t="shared" si="0"/>
+        <v>6.2691204682133503E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="24">
+        <f>136231421398/1000</f>
+        <v>136231421.398</v>
+      </c>
+      <c r="C8" s="47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>B8/B10</f>
+        <v>0.52418721239263988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="24">
+        <v>259890776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="24">
+        <v>64796136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="24">
+        <v>29308589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="24">
+        <v>365580900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB32A6C4-ACA0-45DC-BC57-7EB18A5B54DD}">
   <dimension ref="B2:D6"/>
   <sheetViews>
@@ -2896,15 +3695,15 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -2915,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2926,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2937,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2948,13 +3747,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
-  <dimension ref="A3:R51"/>
+  <dimension ref="A3:U51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2973,12 +3772,15 @@
     <col min="13" max="13" width="23.42578125" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
     <col min="15" max="15" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="25.140625" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="21" customFormat="1" ht="18.75">
+    <row r="3" spans="1:21" s="21" customFormat="1" ht="18.75">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -3002,19 +3804,22 @@
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="15" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1">
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>70</v>
       </c>
@@ -3052,27 +3857,36 @@
         <v>103</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>108</v>
       </c>
       <c r="Q4" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="U4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -3081,7 +3895,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -3114,42 +3928,51 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.05</v>
+      </c>
+      <c r="S5">
+        <v>1.4</v>
+      </c>
+      <c r="T5">
+        <v>0.8</v>
+      </c>
+      <c r="U5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="O6" s="43"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:21">
       <c r="O7" s="43"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:21">
       <c r="O8" s="43"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:21">
       <c r="O9" s="43"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:21">
       <c r="O10" s="43"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:21">
       <c r="O11" s="43"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:21">
       <c r="O12" s="43"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:21">
       <c r="O13" s="43"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3190,19 +4013,19 @@
       <c r="P14">
         <v>0.02</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.05</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3243,19 +4066,19 @@
       <c r="P15">
         <v>0.02</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.05</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3296,22 +4119,22 @@
       <c r="P16">
         <v>0.02</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.05</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="O17" s="43"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3355,19 +4178,19 @@
       <c r="P18">
         <v>0.02</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.05</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3411,19 +4234,19 @@
       <c r="P19">
         <v>0.02</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.05</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3467,19 +4290,19 @@
       <c r="P20">
         <v>0.02</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.05</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3523,19 +4346,19 @@
       <c r="P22">
         <v>0.02</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.05</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3579,19 +4402,19 @@
       <c r="P23">
         <v>0.02</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.05</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3635,19 +4458,19 @@
       <c r="P24">
         <v>0.02</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.05</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3656,7 +4479,7 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
         <v>62</v>
@@ -3688,19 +4511,19 @@
       <c r="P27">
         <v>0.03</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.05</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -3709,7 +4532,7 @@
         <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F28" t="s">
         <v>62</v>
@@ -3741,19 +4564,19 @@
       <c r="P28">
         <v>0.03</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.05</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3762,7 +4585,7 @@
         <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -3794,22 +4617,22 @@
       <c r="P29">
         <v>0.03</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.05</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="O30" s="43"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3818,7 +4641,7 @@
         <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s">
         <v>62</v>
@@ -3853,19 +4676,19 @@
       <c r="P31">
         <v>0.03</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.05</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3874,7 +4697,7 @@
         <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
         <v>62</v>
@@ -3909,19 +4732,19 @@
       <c r="P32">
         <v>0.03</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.05</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -3930,7 +4753,7 @@
         <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F33" t="s">
         <v>62</v>
@@ -3965,19 +4788,19 @@
       <c r="P33">
         <v>0.03</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.05</v>
       </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -3986,7 +4809,7 @@
         <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F35" t="s">
         <v>62</v>
@@ -4021,19 +4844,19 @@
       <c r="P35">
         <v>0.03</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.05</v>
       </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -4042,7 +4865,7 @@
         <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F36" t="s">
         <v>62</v>
@@ -4077,19 +4900,19 @@
       <c r="P36">
         <v>0.03</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.05</v>
       </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -4098,7 +4921,7 @@
         <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
         <v>62</v>
@@ -4133,22 +4956,22 @@
       <c r="P37">
         <v>0.03</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.05</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="O38" s="43"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -4189,19 +5012,19 @@
       <c r="P40">
         <v>0.02</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>0.05</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -4210,7 +5033,7 @@
         <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
         <v>62</v>
@@ -4242,19 +5065,19 @@
       <c r="P41">
         <v>0.03</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>0.05</v>
       </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -4298,19 +5121,19 @@
       <c r="P43">
         <v>0.02</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>0.05</v>
       </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -4319,7 +5142,7 @@
         <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
         <v>62</v>
@@ -4354,19 +5177,19 @@
       <c r="P44">
         <v>0.03</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>0.05</v>
       </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="58" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -4375,7 +5198,7 @@
         <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
         <v>62</v>
@@ -4407,19 +5230,19 @@
       <c r="P49">
         <v>0.02</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>0.05</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="58" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -4428,7 +5251,7 @@
         <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F50" t="s">
         <v>62</v>
@@ -4460,19 +5283,19 @@
       <c r="P50">
         <v>0.02</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>0.05</v>
       </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="58" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -4481,7 +5304,7 @@
         <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F51" t="s">
         <v>62</v>
@@ -4513,10 +5336,10 @@
       <c r="P51">
         <v>0.02</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>0.05</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <v>0</v>
       </c>
     </row>
@@ -4540,7 +5363,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4590,7 +5413,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -4637,8 +5460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4710,7 +5533,7 @@
         <v>0.12</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E10" si="1">F3</f>
@@ -4885,6 +5708,925 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9FDD0-43C0-4547-B8AB-B7BD31607ED6}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="B3" s="65"/>
+      <c r="C3" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="65"/>
+      <c r="C4" s="68">
+        <v>43646</v>
+      </c>
+      <c r="D4" s="68">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.5">
+      <c r="B5" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B6" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="80">
+        <v>442147</v>
+      </c>
+      <c r="D6" s="83">
+        <v>733822</v>
+      </c>
+      <c r="E6" s="85">
+        <f>SUM(C6:D6)</f>
+        <v>1175969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B7" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="80">
+        <v>5389</v>
+      </c>
+      <c r="D7" s="80">
+        <v>5692</v>
+      </c>
+      <c r="E7" s="85">
+        <f t="shared" ref="E7:E38" si="0">SUM(C7:D7)</f>
+        <v>11081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B8" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="80">
+        <v>1436</v>
+      </c>
+      <c r="D8" s="80">
+        <v>1820</v>
+      </c>
+      <c r="E8" s="85">
+        <f t="shared" si="0"/>
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B9" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="81">
+        <v>159348</v>
+      </c>
+      <c r="D9" s="81">
+        <v>161821</v>
+      </c>
+      <c r="E9" s="85">
+        <f t="shared" si="0"/>
+        <v>321169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B10" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="90">
+        <v>608320</v>
+      </c>
+      <c r="D10" s="90">
+        <v>903155</v>
+      </c>
+      <c r="E10" s="91">
+        <f t="shared" si="0"/>
+        <v>1511475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B11" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="128">
+        <v>71385</v>
+      </c>
+      <c r="D11" s="128">
+        <v>96246</v>
+      </c>
+      <c r="E11" s="91">
+        <v>167631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B12" s="131" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="91"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B13" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="132">
+        <f>C6/C$11</f>
+        <v>6.1938362401064646</v>
+      </c>
+      <c r="D13" s="132">
+        <f t="shared" ref="D13:E13" si="1">D6/D$11</f>
+        <v>7.6244415352326333</v>
+      </c>
+      <c r="E13" s="132">
+        <f t="shared" si="1"/>
+        <v>7.0152239144311013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B14" s="130" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="132">
+        <f t="shared" ref="C14:E14" si="2">C7/C$11</f>
+        <v>7.5492050150591863E-2</v>
+      </c>
+      <c r="D14" s="132">
+        <f t="shared" si="2"/>
+        <v>5.9140120108887639E-2</v>
+      </c>
+      <c r="E14" s="132">
+        <f t="shared" si="2"/>
+        <v>6.6103525004324981E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B15" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="132">
+        <f t="shared" ref="C15:E15" si="3">C8/C$11</f>
+        <v>2.0116270925264412E-2</v>
+      </c>
+      <c r="D15" s="132">
+        <f t="shared" si="3"/>
+        <v>1.8909876774099704E-2</v>
+      </c>
+      <c r="E15" s="132">
+        <f t="shared" si="3"/>
+        <v>1.9423614963819343E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B16" s="130" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="132">
+        <f t="shared" ref="C16:E16" si="4">C9/C$11</f>
+        <v>2.2322336625341457</v>
+      </c>
+      <c r="D16" s="132">
+        <f t="shared" si="4"/>
+        <v>1.6813270161876857</v>
+      </c>
+      <c r="E16" s="132">
+        <f t="shared" si="4"/>
+        <v>1.9159284380574</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B17" s="133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="134">
+        <f t="shared" ref="C17:E17" si="5">C10/C$11</f>
+        <v>8.5216782237164672</v>
+      </c>
+      <c r="D17" s="134">
+        <f t="shared" si="5"/>
+        <v>9.3838185483033065</v>
+      </c>
+      <c r="E17" s="134">
+        <f t="shared" si="5"/>
+        <v>9.016679492456646</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B18" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="83">
+        <v>9069</v>
+      </c>
+      <c r="D18" s="83">
+        <v>95139</v>
+      </c>
+      <c r="E18" s="86">
+        <f t="shared" si="0"/>
+        <v>104208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B19" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B20" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="83">
+        <v>499249</v>
+      </c>
+      <c r="D20" s="80">
+        <v>1423962</v>
+      </c>
+      <c r="E20" s="85">
+        <f t="shared" si="0"/>
+        <v>1923211</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B21" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="80">
+        <v>86688</v>
+      </c>
+      <c r="D21" s="80">
+        <v>92287</v>
+      </c>
+      <c r="E21" s="85">
+        <f t="shared" si="0"/>
+        <v>178975</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B22" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="81">
+        <v>627487</v>
+      </c>
+      <c r="D22" s="81">
+        <v>612388</v>
+      </c>
+      <c r="E22" s="85">
+        <f t="shared" si="0"/>
+        <v>1239875</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B23" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="92">
+        <v>1213424</v>
+      </c>
+      <c r="D23" s="92">
+        <v>2128637</v>
+      </c>
+      <c r="E23" s="93">
+        <f t="shared" si="0"/>
+        <v>3342061</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B24" s="94" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="95">
+        <v>1830813</v>
+      </c>
+      <c r="D24" s="95">
+        <v>3126931</v>
+      </c>
+      <c r="E24" s="96">
+        <f t="shared" si="0"/>
+        <v>4957744</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B25" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="80">
+        <v>1054566</v>
+      </c>
+      <c r="D25" s="80">
+        <v>1792577</v>
+      </c>
+      <c r="E25" s="85">
+        <f t="shared" si="0"/>
+        <v>2847143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B26" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="80">
+        <v>776247</v>
+      </c>
+      <c r="D26" s="80">
+        <v>1334354</v>
+      </c>
+      <c r="E26" s="85">
+        <f t="shared" si="0"/>
+        <v>2110601</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="48" customHeight="1">
+      <c r="B27" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="85"/>
+    </row>
+    <row r="28" spans="2:5" ht="48" customHeight="1">
+      <c r="B28" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="85"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="79">
+        <v>3777</v>
+      </c>
+      <c r="D29" s="79">
+        <v>10770</v>
+      </c>
+      <c r="E29" s="85">
+        <f t="shared" si="0"/>
+        <v>14547</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="76">
+        <v>57</v>
+      </c>
+      <c r="D30" s="72">
+        <v>2818</v>
+      </c>
+      <c r="E30" s="85">
+        <f t="shared" si="0"/>
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="76">
+        <v>61</v>
+      </c>
+      <c r="D31" s="76">
+        <v>168</v>
+      </c>
+      <c r="E31" s="85">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="73">
+        <v>3867</v>
+      </c>
+      <c r="D32" s="73">
+        <v>8457</v>
+      </c>
+      <c r="E32" s="85">
+        <f t="shared" si="0"/>
+        <v>12324</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="87">
+        <v>7762</v>
+      </c>
+      <c r="D33" s="87">
+        <v>22213</v>
+      </c>
+      <c r="E33" s="86">
+        <f t="shared" si="0"/>
+        <v>29975</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" s="79">
+        <v>47</v>
+      </c>
+      <c r="D34" s="79">
+        <v>661</v>
+      </c>
+      <c r="E34" s="85">
+        <f t="shared" si="0"/>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" s="88">
+        <v>7809</v>
+      </c>
+      <c r="D35" s="88">
+        <v>22874</v>
+      </c>
+      <c r="E35" s="86">
+        <f t="shared" si="0"/>
+        <v>30683</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="72">
+        <v>6117</v>
+      </c>
+      <c r="D36" s="72">
+        <v>17854</v>
+      </c>
+      <c r="E36" s="85">
+        <f t="shared" si="0"/>
+        <v>23971</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" s="72">
+        <v>1692</v>
+      </c>
+      <c r="D37" s="72">
+        <v>5020</v>
+      </c>
+      <c r="E37" s="85">
+        <f t="shared" si="0"/>
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" s="78">
+        <v>1838622</v>
+      </c>
+      <c r="D38" s="78">
+        <v>3149805</v>
+      </c>
+      <c r="E38" s="86">
+        <f t="shared" si="0"/>
+        <v>4988427</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9EC4B5-9019-48D6-98E7-5EB690EA862C}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1"/>
+    <row r="4" spans="1:6">
+      <c r="C4" s="97" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1">
+      <c r="C6" s="98"/>
+      <c r="D6" s="118">
+        <v>43646</v>
+      </c>
+      <c r="E6" s="119">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1">
+      <c r="C7" s="98"/>
+      <c r="D7" s="118" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1">
+      <c r="C8" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="113">
+        <v>17717</v>
+      </c>
+      <c r="E8" s="114">
+        <v>17506</v>
+      </c>
+      <c r="F8" s="121">
+        <f>SUM(D8:E8)</f>
+        <v>35223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1">
+      <c r="C9" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="100">
+        <v>1258</v>
+      </c>
+      <c r="E9" s="101">
+        <v>5927</v>
+      </c>
+      <c r="F9" s="121">
+        <f t="shared" ref="F9:F14" si="0">SUM(D9:E9)</f>
+        <v>7185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1">
+      <c r="C10" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="102">
+        <v>279</v>
+      </c>
+      <c r="E10" s="103">
+        <v>314</v>
+      </c>
+      <c r="F10" s="121">
+        <f t="shared" si="0"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1">
+      <c r="C11" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="100">
+        <v>10678</v>
+      </c>
+      <c r="E11" s="101">
+        <v>12961</v>
+      </c>
+      <c r="F11" s="121">
+        <f t="shared" si="0"/>
+        <v>23639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1">
+      <c r="C12" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="104">
+        <v>182</v>
+      </c>
+      <c r="E12" s="105">
+        <v>1014</v>
+      </c>
+      <c r="F12" s="121">
+        <f t="shared" si="0"/>
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" customHeight="1">
+      <c r="C13" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="115">
+        <v>30114</v>
+      </c>
+      <c r="E13" s="116">
+        <v>37721</v>
+      </c>
+      <c r="F13" s="121">
+        <f t="shared" si="0"/>
+        <v>67835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" customHeight="1">
+      <c r="C14" s="108" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="117">
+        <v>71385</v>
+      </c>
+      <c r="E14" s="114">
+        <v>96246</v>
+      </c>
+      <c r="F14" s="121">
+        <f t="shared" si="0"/>
+        <v>167631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1">
+      <c r="C15" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="123">
+        <v>0.4219</v>
+      </c>
+      <c r="E15" s="123">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F15" s="124">
+        <f>F13/F14</f>
+        <v>0.40466858755242169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1">
+      <c r="C16" s="127" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="126">
+        <f>D8/D$14</f>
+        <v>0.24818939553127409</v>
+      </c>
+      <c r="E16" s="126">
+        <f t="shared" ref="E16:F16" si="1">E8/E$14</f>
+        <v>0.18188807846559857</v>
+      </c>
+      <c r="F16" s="126">
+        <f t="shared" si="1"/>
+        <v>0.21012223276124345</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="19.5" customHeight="1">
+      <c r="C17" s="125" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="126">
+        <f t="shared" ref="D17:F17" si="2">D9/D$14</f>
+        <v>1.762274987742523E-2</v>
+      </c>
+      <c r="E17" s="126">
+        <f t="shared" si="2"/>
+        <v>6.158178002202689E-2</v>
+      </c>
+      <c r="F17" s="126">
+        <f t="shared" si="2"/>
+        <v>4.2862000465307727E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="19.5" customHeight="1">
+      <c r="C18" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="126">
+        <f t="shared" ref="D18:F18" si="3">D10/D$14</f>
+        <v>3.9083841143097292E-3</v>
+      </c>
+      <c r="E18" s="126">
+        <f t="shared" si="3"/>
+        <v>3.2624732456413771E-3</v>
+      </c>
+      <c r="F18" s="126">
+        <f t="shared" si="3"/>
+        <v>3.5375318407693088E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="19.5" customHeight="1">
+      <c r="C19" s="125" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="126">
+        <f t="shared" ref="D19:F19" si="4">D11/D$14</f>
+        <v>0.14958324577992577</v>
+      </c>
+      <c r="E19" s="126">
+        <f t="shared" si="4"/>
+        <v>0.13466533674126718</v>
+      </c>
+      <c r="F19" s="126">
+        <f t="shared" si="4"/>
+        <v>0.14101806945016138</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="19.5" customHeight="1">
+      <c r="C20" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="110">
+        <v>0.28849999999999998</v>
+      </c>
+      <c r="E20" s="110">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="19.5" customHeight="1">
+      <c r="C21" s="111" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="112">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="E21" s="112">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="19.5" customHeight="1">
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+    </row>
+    <row r="23" spans="3:6" ht="19.5" customHeight="1">
+      <c r="C23" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="113">
+        <v>1608</v>
+      </c>
+      <c r="E24" s="114">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="102">
+        <v>131</v>
+      </c>
+      <c r="E25" s="100">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="102">
+        <v>47</v>
+      </c>
+      <c r="E26" s="103">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="25.5">
+      <c r="C27" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="106">
+        <v>1864</v>
+      </c>
+      <c r="E27" s="106">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="25.5">
+      <c r="C28" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" s="115">
+        <v>3650</v>
+      </c>
+      <c r="E28" s="115">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="108" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" s="117">
+        <v>12070</v>
+      </c>
+      <c r="E29" s="114">
+        <v>38475</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="108" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" s="109">
+        <v>0.3024</v>
+      </c>
+      <c r="E30" s="109">
+        <v>0.2732</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="110">
+        <v>0.2379</v>
+      </c>
+      <c r="E31" s="110">
+        <v>0.21640000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="99" t="s">
+        <v>294</v>
+      </c>
+      <c r="D32" s="110">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="E32" s="110">
+        <v>5.6800000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD963C7-C30C-4F41-9ED1-A3A9BFD95FFA}">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -4892,7 +6634,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4910,7 +6652,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4924,19 +6666,19 @@
         <v>78</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K3" s="57" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5495,7 +7237,7 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="33" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B26" s="27">
         <f>B24+B25</f>
@@ -5893,12 +7635,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E00125-AE25-4C2C-BBE6-6A6AFF0CBB38}">
   <dimension ref="A2:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5918,22 +7660,22 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="64" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="64"/>
@@ -5941,43 +7683,43 @@
     <row r="4" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -6026,7 +7768,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B6" s="24">
         <v>195158</v>
@@ -6044,7 +7786,7 @@
         <v>9158</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I6" s="24"/>
       <c r="M6" s="24">
@@ -6054,7 +7796,7 @@
         <v>534</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <f>148525+24916</f>
@@ -6072,7 +7814,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="H7" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M7" s="24">
         <v>98457</v>
@@ -6081,7 +7823,7 @@
         <v>96</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <f>10827+2402</f>
@@ -6094,7 +7836,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="48" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -6129,15 +7871,15 @@
         <v>9.5028270618054203E-2</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P9" s="48" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B10" s="49">
         <f>B6/SUM($B6:$C6)</f>
@@ -6197,7 +7939,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="H11" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="M11" s="23">
         <f>M6/SUM($M6:$N6)</f>
@@ -6208,7 +7950,7 @@
         <v>8.9594759881010102E-4</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" ref="Q11:R11" si="1">Q6/SUM($Q6:$R6)</f>
@@ -6221,7 +7963,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="H12" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M12" s="23">
         <f>M7/SUM($M7:$N7)</f>
@@ -6232,7 +7974,7 @@
         <v>9.7409515692064165E-4</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" ref="Q12:R12" si="2">Q7/SUM($Q7:$R7)</f>
@@ -6245,12 +7987,12 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -6264,7 +8006,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B17" s="49">
         <f>B16*I10</f>
@@ -6273,7 +8015,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B18" s="49">
         <f>B16*J10</f>
@@ -6282,7 +8024,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="54" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B19" s="49">
         <f>B16*Q10</f>
@@ -6291,7 +8033,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="54" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B20" s="49">
         <f>B16*R10</f>
@@ -6303,7 +8045,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B22" s="49">
         <f>1-B16</f>
@@ -6312,7 +8054,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B23" s="49">
         <f>B22*I10</f>
@@ -6321,7 +8063,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B24" s="49">
         <f>B22*J10</f>
@@ -6330,17 +8072,17 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B29" s="4">
         <f>D9*K10</f>
@@ -6349,7 +8091,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B30" s="4">
         <f>D9*L10</f>
@@ -6358,7 +8100,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B31" s="4">
         <f>E9*K10</f>
@@ -6367,7 +8109,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B32" s="4">
         <f>E9*L10</f>
@@ -6376,7 +8118,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B33" s="4">
         <f>F9*K10</f>
@@ -6385,7 +8127,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B34" s="4">
         <f>F9*L10</f>
@@ -6401,394 +8143,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9FDD0-43C0-4547-B8AB-B7BD31607ED6}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="24">
-        <v>259890776</v>
-      </c>
-      <c r="C3" s="24">
-        <v>273275278</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25">
-        <f t="shared" ref="E3:E10" si="0">B3/$B$11</f>
-        <v>0.71089812405407393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="24">
-        <v>64796136</v>
-      </c>
-      <c r="C4" s="24">
-        <v>68156741</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25">
-        <f t="shared" si="0"/>
-        <v>0.17724157908687244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="24">
-        <v>29308589</v>
-      </c>
-      <c r="C5" s="24">
-        <v>31179414</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25">
-        <f t="shared" si="0"/>
-        <v>8.016991314371183E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="24">
-        <v>113876</v>
-      </c>
-      <c r="C6" s="24">
-        <v>114404</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25">
-        <f t="shared" si="0"/>
-        <v>3.1149329737959505E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="24">
-        <v>39631</v>
-      </c>
-      <c r="C7" s="24">
-        <v>10169</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>1.0840555401007E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="24">
-        <v>1525514</v>
-      </c>
-      <c r="C8" s="24">
-        <v>1710089</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
-        <v>4.1728492927283678E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="24">
-        <v>1495746</v>
-      </c>
-      <c r="C9" s="24">
-        <v>1684986</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25">
-        <f t="shared" si="0"/>
-        <v>4.0914227192941424E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="24">
-        <v>116135</v>
-      </c>
-      <c r="C10" s="24">
-        <v>114051</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25">
-        <f t="shared" si="0"/>
-        <v>3.176725042254669E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="24">
-        <v>365580900</v>
-      </c>
-      <c r="C11" s="24">
-        <v>386062132</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25">
-        <f>B11/$B$11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13">
-        <f>SUM(B3:B5)/B11</f>
-        <v>0.96830961628465817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16">
-        <f>B3/SUM(B3:B5)</f>
-        <v>0.73416406498341347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="F17">
-        <v>136231421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18">
-        <v>136231421</v>
-      </c>
-      <c r="E18" s="25">
-        <f>B18/$B$11</f>
-        <v>0.37264370485438381</v>
-      </c>
-      <c r="F18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="E19" s="25">
-        <f>B18/B3</f>
-        <v>0.52418721086122733</v>
-      </c>
-      <c r="F19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="E20" s="25">
-        <f>B18/SUM(B3:B5)</f>
-        <v>0.38483941353819634</v>
-      </c>
-      <c r="F20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7ADC07-2090-47BB-AB7D-BDC407276AE7}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="24">
-        <v>80223070</v>
-      </c>
-      <c r="C2" s="47">
-        <f>B2/B$8</f>
-        <v>0.58887347116219513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="24">
-        <f>3589902866/1000</f>
-        <v>3589902.8659999999</v>
-      </c>
-      <c r="C3" s="47">
-        <f t="shared" ref="C3:C8" si="0">B3/B$8</f>
-        <v>2.6351504147579148E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="24">
-        <f>SUM(B2:B3)</f>
-        <v>83812972.865999997</v>
-      </c>
-      <c r="C4" s="47">
-        <f t="shared" si="0"/>
-        <v>0.61522497530977416</v>
-      </c>
-      <c r="D4" s="25">
-        <f>B4/SUM(B10:B12)</f>
-        <v>0.23676281938396723</v>
-      </c>
-      <c r="E4">
-        <f>B4/B14</f>
-        <v>0.22925971478816315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="46">
-        <f>10551342261/1000</f>
-        <v>10551342.261</v>
-      </c>
-      <c r="C5" s="47">
-        <f t="shared" si="0"/>
-        <v>7.7451605163644743E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="46">
-        <f>33326594392/1000</f>
-        <v>33326594.392000001</v>
-      </c>
-      <c r="C6" s="47">
-        <f t="shared" si="0"/>
-        <v>0.24463221516742734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="46">
-        <f>8540511923/1000</f>
-        <v>8540511.9230000004</v>
-      </c>
-      <c r="C7" s="47">
-        <f t="shared" si="0"/>
-        <v>6.2691204682133503E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="24">
-        <f>136231421398/1000</f>
-        <v>136231421.398</v>
-      </c>
-      <c r="C8" s="47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f>B8/B10</f>
-        <v>0.52418721239263988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="24">
-        <v>259890776</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="24">
-        <v>64796136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="24">
-        <v>29308589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="24">
-        <v>365580900</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064FC27C-88C9-4DAF-AE9B-8325241AED56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F343AB71-9EF7-44DF-A8FD-3BC38EBF0F5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
+    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +78,7 @@
     See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</t>
       </text>
     </comment>
-    <comment ref="W4" authorId="2" shapeId="0" xr:uid="{2BAAEFE0-093F-4A47-AC11-22B6E01FEF48}">
+    <comment ref="X4" authorId="2" shapeId="0" xr:uid="{2BAAEFE0-093F-4A47-AC11-22B6E01FEF48}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,7 +86,7 @@
     COLA when risk-sharing is not triggered</t>
       </text>
     </comment>
-    <comment ref="AC4" authorId="3" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+    <comment ref="AD4" authorId="3" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,7 +94,7 @@
     The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</t>
       </text>
     </comment>
-    <comment ref="AG4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
+    <comment ref="AH4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
+    <comment ref="AR4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="316">
   <si>
     <t>nsim</t>
   </si>
@@ -1489,6 +1489,27 @@
   </si>
   <si>
     <t>sal_pre2019</t>
+  </si>
+  <si>
+    <t>Dev_pf.t2</t>
+  </si>
+  <si>
+    <t>"pf.t2"</t>
+  </si>
+  <si>
+    <t>Dev_pf</t>
+  </si>
+  <si>
+    <t>val_tierName</t>
+  </si>
+  <si>
+    <t>pf.t1</t>
+  </si>
+  <si>
+    <t>"pf.t1","pf.t2"</t>
+  </si>
+  <si>
+    <t>pf.t2</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1844,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2109,6 +2130,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2430,13 +2460,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H4" dT="2020-11-29T15:06:08.38" personId="{00000000-0000-0000-0000-000000000000}" id="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
+  <threadedComment ref="I4" dT="2020-11-29T15:06:08.38" personId="{00000000-0000-0000-0000-000000000000}" id="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
     <text>See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</text>
   </threadedComment>
-  <threadedComment ref="W4" dT="2021-03-13T00:37:48.89" personId="{00000000-0000-0000-0000-000000000000}" id="{2BAAEFE0-093F-4A47-AC11-22B6E01FEF48}">
+  <threadedComment ref="X4" dT="2021-03-13T00:37:48.89" personId="{00000000-0000-0000-0000-000000000000}" id="{2BAAEFE0-093F-4A47-AC11-22B6E01FEF48}">
     <text>COLA when risk-sharing is not triggered</text>
   </threadedComment>
-  <threadedComment ref="AC4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+  <threadedComment ref="AD4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
     <text>The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</text>
   </threadedComment>
 </ThreadedComments>
@@ -2471,64 +2501,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:BC18"/>
+  <dimension ref="A2:BD18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="21" width="12.5703125" customWidth="1"/>
-    <col min="22" max="25" width="17.42578125" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.85546875" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" customWidth="1"/>
-    <col min="35" max="35" width="12.5703125" customWidth="1"/>
-    <col min="36" max="36" width="14.85546875" customWidth="1"/>
-    <col min="42" max="42" width="17.42578125" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" customWidth="1"/>
-    <col min="44" max="44" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="12.42578125" customWidth="1"/>
-    <col min="48" max="48" width="23" customWidth="1"/>
-    <col min="49" max="49" width="16.5703125" customWidth="1"/>
-    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" customWidth="1"/>
-    <col min="55" max="55" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="18" width="12.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="26" width="17.42578125" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" customWidth="1"/>
+    <col min="37" max="37" width="14.85546875" customWidth="1"/>
+    <col min="43" max="43" width="17.42578125" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" customWidth="1"/>
+    <col min="45" max="45" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12.42578125" customWidth="1"/>
+    <col min="49" max="49" width="23" customWidth="1"/>
+    <col min="50" max="50" width="16.5703125" customWidth="1"/>
+    <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.28515625" customWidth="1"/>
+    <col min="55" max="55" width="11.42578125" customWidth="1"/>
+    <col min="56" max="56" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:55">
-      <c r="AR2" s="23"/>
+    <row r="2" spans="1:56">
       <c r="AS2" s="23"/>
-    </row>
-    <row r="3" spans="1:55" s="21" customFormat="1" ht="18.75">
+      <c r="AT2" s="23"/>
+    </row>
+    <row r="3" spans="1:56" s="21" customFormat="1" ht="18.75">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -2537,16 +2568,16 @@
         <v>73</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="44"/>
+      <c r="L3" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="L3" s="59"/>
       <c r="M3" s="59"/>
       <c r="N3" s="59"/>
       <c r="O3" s="59"/>
@@ -2560,48 +2591,49 @@
       <c r="W3" s="59"/>
       <c r="X3" s="59"/>
       <c r="Y3" s="59"/>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="17"/>
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
       <c r="AH3" s="17"/>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AJ3" s="19"/>
       <c r="AK3" s="19"/>
       <c r="AL3" s="19"/>
       <c r="AM3" s="19"/>
       <c r="AN3" s="19"/>
       <c r="AO3" s="19"/>
-      <c r="AP3" s="15" t="s">
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AQ3" s="15"/>
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
       <c r="AT3" s="15"/>
       <c r="AU3" s="15"/>
       <c r="AV3" s="15"/>
-      <c r="AW3" s="20" t="s">
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AX3" s="20"/>
       <c r="AY3" s="20"/>
       <c r="AZ3" s="20"/>
       <c r="BA3" s="20"/>
       <c r="BB3" s="20"/>
       <c r="BC3" s="20"/>
-    </row>
-    <row r="4" spans="1:55" s="1" customFormat="1">
+      <c r="BD3" s="20"/>
+    </row>
+    <row r="4" spans="1:56" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>75</v>
       </c>
@@ -2618,162 +2650,165 @@
         <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="H4" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="I4" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="J4" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="K4" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="L4" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="M4" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="N4" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="O4" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="P4" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="Q4" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="R4" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="S4" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="S4" s="60" t="s">
+      <c r="T4" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="T4" s="60" t="s">
+      <c r="U4" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="U4" s="60" t="s">
+      <c r="V4" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="W4" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="W4" s="60" t="s">
+      <c r="X4" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="X4" s="60" t="s">
+      <c r="Y4" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="Y4" s="60" t="s">
+      <c r="Z4" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AM4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AO4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AP4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AR4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AS4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AT4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AU4" s="8" t="s">
+      <c r="AV4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AV4" s="8" t="s">
+      <c r="AW4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="AX4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AX4" s="12" t="s">
+      <c r="AY4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AY4" s="12" t="s">
+      <c r="AZ4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AZ4" s="12" t="s">
+      <c r="BA4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="BA4" s="12" t="s">
+      <c r="BB4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="BB4" s="12" t="s">
+      <c r="BC4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BC4" s="63" t="s">
+      <c r="BD4" s="63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:56">
       <c r="A5" t="s">
         <v>259</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -2781,241 +2816,673 @@
       <c r="E5" t="s">
         <v>259</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>72</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>247</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>245</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.08</v>
       </c>
-      <c r="N5" s="61">
+      <c r="O5" s="61">
         <v>0.125</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.09</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.58140000000000003</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.41860000000000003</v>
       </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="T5" t="b">
         <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
         <v>230</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>35</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>20</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>5</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>999</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
         <v>257</v>
       </c>
-      <c r="AH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>105</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>20</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AN5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AO5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AO5" s="38">
+      <c r="AP5" s="38">
         <v>123</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>31</v>
       </c>
       <c r="AQ5" t="s">
         <v>31</v>
       </c>
-      <c r="AR5" s="23">
-        <v>0.88300000000000001</v>
+      <c r="AR5" t="s">
+        <v>31</v>
       </c>
       <c r="AS5" s="23">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="AV5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="b">
-        <v>1</v>
+        <v>0.7</v>
+      </c>
+      <c r="AT5" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="AW5" s="43">
+        <v>0</v>
       </c>
       <c r="AX5" t="b">
         <v>1</v>
       </c>
       <c r="AY5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="s">
         <v>3</v>
       </c>
-      <c r="BB5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55">
-      <c r="N6" s="61"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="38"/>
-      <c r="AR6" s="23"/>
-      <c r="AS6" s="23"/>
-      <c r="AV6" s="43"/>
-      <c r="BC6" s="22"/>
-    </row>
-    <row r="7" spans="1:55">
-      <c r="N7" s="61"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="38"/>
-      <c r="AR7" s="23"/>
+      <c r="BC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56">
+      <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>247</v>
+      </c>
+      <c r="M6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N6">
+        <v>0.08</v>
+      </c>
+      <c r="O6" s="61">
+        <v>0.125</v>
+      </c>
+      <c r="P6">
+        <v>0.09</v>
+      </c>
+      <c r="Q6">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="R6">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="Y6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6">
+        <v>20</v>
+      </c>
+      <c r="AD6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AE6">
+        <v>5</v>
+      </c>
+      <c r="AF6">
+        <v>999</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL6">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AM6">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AP6" s="38">
+        <v>123</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="43">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56">
+      <c r="O7" s="61"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="38"/>
       <c r="AS7" s="23"/>
-      <c r="AV7" s="43"/>
-      <c r="BC7" s="22"/>
-    </row>
-    <row r="8" spans="1:55">
-      <c r="N8" s="61"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="38"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
-      <c r="AV8" s="43"/>
-      <c r="BC8" s="22"/>
-    </row>
-    <row r="9" spans="1:55">
-      <c r="N9" s="61"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="38"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AV9" s="43"/>
-      <c r="BC9" s="22"/>
-    </row>
-    <row r="10" spans="1:55">
-      <c r="N10" s="61"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="38"/>
-      <c r="AR10" s="23"/>
+      <c r="AT7" s="23"/>
+      <c r="AW7" s="43"/>
+      <c r="BD7" s="22"/>
+    </row>
+    <row r="8" spans="1:56">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>247</v>
+      </c>
+      <c r="M8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N8">
+        <v>0.08</v>
+      </c>
+      <c r="O8" s="61">
+        <v>0.125</v>
+      </c>
+      <c r="P8">
+        <v>0.09</v>
+      </c>
+      <c r="Q8">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="R8">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="Y8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC8">
+        <v>20</v>
+      </c>
+      <c r="AD8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AE8">
+        <v>5</v>
+      </c>
+      <c r="AF8">
+        <v>999</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL8">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AM8">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AO8" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AP8" s="38">
+        <v>123</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS8" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="AT8" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="AW8" s="43">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56">
+      <c r="A9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" t="s">
+        <v>245</v>
+      </c>
+      <c r="N9">
+        <v>0.08</v>
+      </c>
+      <c r="O9" s="61">
+        <v>0.125</v>
+      </c>
+      <c r="P9">
+        <v>0.09</v>
+      </c>
+      <c r="Q9">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="Y9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC9">
+        <v>20</v>
+      </c>
+      <c r="AD9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AE9">
+        <v>5</v>
+      </c>
+      <c r="AF9">
+        <v>999</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL9">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AM9">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AP9" s="38">
+        <v>123</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="43">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56">
+      <c r="O10" s="61"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="38"/>
       <c r="AS10" s="23"/>
-      <c r="AV10" s="43"/>
-      <c r="BC10" s="22"/>
-    </row>
-    <row r="11" spans="1:55">
-      <c r="N11" s="61"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="38"/>
-      <c r="AR11" s="23"/>
+      <c r="AT10" s="23"/>
+      <c r="AW10" s="43"/>
+      <c r="BD10" s="22"/>
+    </row>
+    <row r="11" spans="1:56">
+      <c r="O11" s="61"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="38"/>
       <c r="AS11" s="23"/>
-      <c r="AV11" s="43"/>
-      <c r="BC11" s="22"/>
-    </row>
-    <row r="12" spans="1:55">
-      <c r="N12" s="61"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="38"/>
-      <c r="AR12" s="23"/>
+      <c r="AT11" s="23"/>
+      <c r="AW11" s="43"/>
+      <c r="BD11" s="22"/>
+    </row>
+    <row r="12" spans="1:56">
+      <c r="O12" s="61"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="38"/>
       <c r="AS12" s="23"/>
-      <c r="AV12" s="43"/>
-      <c r="BC12" s="22"/>
-    </row>
-    <row r="13" spans="1:55">
-      <c r="N13" s="61"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="38"/>
-      <c r="AR13" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="AW12" s="43"/>
+      <c r="BD12" s="22"/>
+    </row>
+    <row r="13" spans="1:56">
+      <c r="O13" s="61"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="38"/>
       <c r="AS13" s="23"/>
-      <c r="AV13" s="43"/>
-      <c r="BC13" s="22"/>
-    </row>
-    <row r="14" spans="1:55">
-      <c r="N14" s="61"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="38"/>
-      <c r="AR14" s="23"/>
+      <c r="AT13" s="23"/>
+      <c r="AW13" s="43"/>
+      <c r="BD13" s="22"/>
+    </row>
+    <row r="14" spans="1:56">
+      <c r="O14" s="61"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="38"/>
       <c r="AS14" s="23"/>
-      <c r="AV14" s="43"/>
-      <c r="BC14" s="22"/>
-    </row>
-    <row r="15" spans="1:55">
+      <c r="AT14" s="23"/>
+      <c r="AW14" s="43"/>
+      <c r="BD14" s="22"/>
+    </row>
+    <row r="15" spans="1:56">
       <c r="B15" s="55" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:56">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -3031,152 +3498,152 @@
       <c r="E16" t="s">
         <v>229</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>72</v>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>236</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>237</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.06</v>
       </c>
-      <c r="N16" s="61">
+      <c r="O16" s="61">
         <v>0.125</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.09</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.58140000000000003</v>
-      </c>
-      <c r="Q16">
-        <v>0.41860000000000003</v>
       </c>
       <c r="R16">
         <v>0.41860000000000003</v>
       </c>
-      <c r="S16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16">
+      <c r="S16">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="T16" t="b">
         <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="W16">
-        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X16">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="s">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
         <v>230</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>35</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>20</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>2.75E-2</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>3</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>999</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="s">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="s">
         <v>257</v>
       </c>
-      <c r="AH16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>105</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>20</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AM16" s="3">
+      <c r="AN16" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN16" s="5">
+      <c r="AO16" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AO16" s="38">
+      <c r="AP16" s="38">
         <v>123</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>31</v>
       </c>
       <c r="AQ16" t="s">
         <v>31</v>
       </c>
-      <c r="AR16" s="23">
+      <c r="AR16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS16" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="AS16" s="23">
+      <c r="AT16" s="23">
         <v>0.89900000000000002</v>
       </c>
-      <c r="AV16" s="43">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="b">
-        <v>1</v>
+      <c r="AW16" s="43">
+        <v>0</v>
       </c>
       <c r="AX16" t="b">
         <v>1</v>
       </c>
       <c r="AY16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="s">
         <v>3</v>
       </c>
-      <c r="BB16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC16" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:55">
+      <c r="BC16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -3192,152 +3659,152 @@
       <c r="E17" t="s">
         <v>229</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>72</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>236</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>245</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.06</v>
       </c>
-      <c r="N17" s="61">
+      <c r="O17" s="61">
         <v>0.125</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.09</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.58140000000000003</v>
-      </c>
-      <c r="Q17">
-        <v>0.41860000000000003</v>
       </c>
       <c r="R17">
         <v>0.41860000000000003</v>
       </c>
-      <c r="S17" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17">
+      <c r="S17">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="T17" t="b">
         <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
-        <v>1.9099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="X17">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="Y17">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="s">
         <v>230</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>35</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>20</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>2.75E-2</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>3</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>999</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="s">
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="s">
         <v>257</v>
       </c>
-      <c r="AH17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="s">
+      <c r="AI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>105</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>20</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AM17" s="3">
+      <c r="AN17" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN17" s="5">
+      <c r="AO17" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AO17" s="38">
+      <c r="AP17" s="38">
         <v>123</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>31</v>
       </c>
       <c r="AQ17" t="s">
         <v>31</v>
       </c>
-      <c r="AR17" s="23">
+      <c r="AR17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS17" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="AS17" s="23">
+      <c r="AT17" s="23">
         <v>0.89900000000000002</v>
       </c>
-      <c r="AV17" s="43">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="b">
-        <v>1</v>
+      <c r="AW17" s="43">
+        <v>0</v>
       </c>
       <c r="AX17" t="b">
         <v>1</v>
       </c>
       <c r="AY17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="s">
         <v>3</v>
       </c>
-      <c r="BB17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC17" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:55">
+      <c r="BC17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56">
       <c r="A18" t="s">
         <v>254</v>
       </c>
@@ -3353,161 +3820,161 @@
       <c r="E18" t="s">
         <v>229</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>72</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>252</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>245</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.06</v>
       </c>
-      <c r="N18" s="61">
+      <c r="O18" s="61">
         <v>0.125</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.09</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.58140000000000003</v>
-      </c>
-      <c r="Q18">
-        <v>0.41860000000000003</v>
       </c>
       <c r="R18">
         <v>0.41860000000000003</v>
       </c>
-      <c r="S18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18">
+      <c r="S18">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="T18" t="b">
         <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1.9099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="X18">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="Y18">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="s">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="s">
         <v>230</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>35</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>20</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>2.75E-2</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>3</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>999</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="s">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="s">
         <v>257</v>
       </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="s">
+      <c r="AI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>105</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>20</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AN18" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN18" s="5">
+      <c r="AO18" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AO18" s="38">
+      <c r="AP18" s="38">
         <v>123</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>31</v>
       </c>
       <c r="AQ18" t="s">
         <v>31</v>
       </c>
-      <c r="AR18" s="23">
+      <c r="AR18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS18" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="AS18" s="23">
+      <c r="AT18" s="23">
         <v>0.89900000000000002</v>
       </c>
-      <c r="AV18" s="43">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="b">
-        <v>1</v>
+      <c r="AW18" s="43">
+        <v>0</v>
       </c>
       <c r="AX18" t="b">
         <v>1</v>
       </c>
       <c r="AY18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="s">
         <v>3</v>
       </c>
-      <c r="BB18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="22" t="b">
+      <c r="BC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="22" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX5:AY14 C5:C14 AX16:AY18 C16:C18" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C18 AY16:AZ18 C5:C14 AY5:AZ14" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI5:AI14 AI16:AI18" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ16:AJ18 AJ5:AJ14" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D14 D16:D18" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D18 D5:D14" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3749,17 +4216,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
   <dimension ref="A3:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
@@ -3889,7 +4356,7 @@
         <v>259</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
@@ -3927,9 +4394,6 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>1.2</v>
-      </c>
       <c r="R5">
         <v>1.05</v>
       </c>
@@ -3944,10 +4408,116 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="O6" s="43"/>
+      <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2018</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="43">
+        <v>0.11</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="O7" s="43"/>
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2018</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="43">
+        <v>0.11</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="O8" s="43"/>
@@ -5345,10 +5915,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:C44 C5:C38 C49:C51" xr:uid="{CE4DB086-8939-4E0F-A217-D1528E507A37}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:C44 C49:C51 C5:C38" xr:uid="{CE4DB086-8939-4E0F-A217-D1528E507A37}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D33 D5:D16 D18:D20 D35:D38 D27:D29 D22:D24 D40:D41 D43:D44 D49:D51" xr:uid="{B6635BCF-58EB-45FF-9851-3E5464D67D97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D33 D49:D51 D18:D20 D35:D38 D27:D29 D22:D24 D40:D41 D43:D44 D5:D16" xr:uid="{B6635BCF-58EB-45FF-9851-3E5464D67D97}">
       <formula1>"singleTier,multiTier"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5709,10 +6279,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9FDD0-43C0-4547-B8AB-B7BD31607ED6}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5781,7 +6351,7 @@
         <v>5692</v>
       </c>
       <c r="E7" s="85">
-        <f t="shared" ref="E7:E38" si="0">SUM(C7:D7)</f>
+        <f t="shared" ref="E7:E43" si="0">SUM(C7:D7)</f>
         <v>11081</v>
       </c>
     </row>
@@ -6160,76 +6730,159 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="99" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="117">
+        <v>12070</v>
+      </c>
+      <c r="D34" s="114">
+        <v>38475</v>
+      </c>
+      <c r="E34" s="121">
+        <f t="shared" ref="E34" si="6">SUM(C34:D34)</f>
+        <v>50545</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="137">
+        <f>C29/C$34</f>
+        <v>0.31292460646230325</v>
+      </c>
+      <c r="D35" s="137">
+        <f t="shared" ref="D35:E35" si="7">D29/D$34</f>
+        <v>0.27992202729044835</v>
+      </c>
+      <c r="E35" s="137">
+        <f t="shared" si="7"/>
+        <v>0.28780294786823624</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="130" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="137">
+        <f t="shared" ref="C36:E36" si="8">C30/C$34</f>
+        <v>4.7224523612261803E-3</v>
+      </c>
+      <c r="D36" s="137">
+        <f t="shared" si="8"/>
+        <v>7.3242365172189738E-2</v>
+      </c>
+      <c r="E36" s="137">
+        <f t="shared" si="8"/>
+        <v>5.6880007913740233E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="137">
+        <f t="shared" ref="C37:E37" si="9">C31/C$34</f>
+        <v>5.0538525269262632E-3</v>
+      </c>
+      <c r="D37" s="137">
+        <f t="shared" si="9"/>
+        <v>4.3664717348927875E-3</v>
+      </c>
+      <c r="E37" s="137">
+        <f t="shared" si="9"/>
+        <v>4.5306162825205264E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="130" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="137">
+        <f t="shared" ref="C38:E38" si="10">C32/C$34</f>
+        <v>0.3203811101905551</v>
+      </c>
+      <c r="D38" s="137">
+        <f t="shared" si="10"/>
+        <v>0.21980506822612086</v>
+      </c>
+      <c r="E38" s="137">
+        <f t="shared" si="10"/>
+        <v>0.24382233653180335</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="C34" s="79">
+      <c r="C39" s="79">
         <v>47</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D39" s="79">
         <v>661</v>
       </c>
-      <c r="E34" s="85">
+      <c r="E39" s="85">
         <f t="shared" si="0"/>
         <v>708</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="75" t="s">
+    <row r="40" spans="2:5">
+      <c r="B40" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="88">
+      <c r="C40" s="88">
         <v>7809</v>
       </c>
-      <c r="D35" s="88">
+      <c r="D40" s="88">
         <v>22874</v>
       </c>
-      <c r="E35" s="86">
+      <c r="E40" s="86">
         <f t="shared" si="0"/>
         <v>30683</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="71" t="s">
+    <row r="41" spans="2:5">
+      <c r="B41" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C41" s="72">
         <v>6117</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D41" s="72">
         <v>17854</v>
       </c>
-      <c r="E36" s="85">
+      <c r="E41" s="85">
         <f t="shared" si="0"/>
         <v>23971</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="71" t="s">
+    <row r="42" spans="2:5">
+      <c r="B42" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C42" s="72">
         <v>1692</v>
       </c>
-      <c r="D37" s="72">
+      <c r="D42" s="72">
         <v>5020</v>
       </c>
-      <c r="E37" s="85">
+      <c r="E42" s="85">
         <f t="shared" si="0"/>
         <v>6712</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="77" t="s">
+    <row r="43" spans="2:5">
+      <c r="B43" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="78">
+      <c r="C43" s="78">
         <v>1838622</v>
       </c>
-      <c r="D38" s="78">
+      <c r="D43" s="78">
         <v>3149805</v>
       </c>
-      <c r="E38" s="86">
+      <c r="E43" s="86">
         <f t="shared" si="0"/>
         <v>4988427</v>
       </c>
@@ -6245,10 +6898,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9EC4B5-9019-48D6-98E7-5EB690EA862C}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6528,6 +7181,10 @@
       <c r="E24" s="114">
         <v>3813</v>
       </c>
+      <c r="F24" s="121">
+        <f>SUM(D24:E24)</f>
+        <v>5421</v>
+      </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="99" t="s">
@@ -6539,6 +7196,10 @@
       <c r="E25" s="100">
         <v>2012</v>
       </c>
+      <c r="F25" s="121">
+        <f t="shared" ref="F25:F29" si="5">SUM(D25:E25)</f>
+        <v>2143</v>
+      </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="99" t="s">
@@ -6550,6 +7211,10 @@
       <c r="E26" s="103">
         <v>121</v>
       </c>
+      <c r="F26" s="121">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
     </row>
     <row r="27" spans="3:6" ht="25.5">
       <c r="C27" s="99" t="s">
@@ -6561,6 +7226,10 @@
       <c r="E27" s="106">
         <v>4566</v>
       </c>
+      <c r="F27" s="121">
+        <f t="shared" si="5"/>
+        <v>6430</v>
+      </c>
     </row>
     <row r="28" spans="3:6" ht="25.5">
       <c r="C28" s="107" t="s">
@@ -6572,6 +7241,10 @@
       <c r="E28" s="115">
         <v>10513</v>
       </c>
+      <c r="F28" s="121">
+        <f t="shared" si="5"/>
+        <v>14163</v>
+      </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="108" t="s">
@@ -6583,6 +7256,10 @@
       <c r="E29" s="114">
         <v>38475</v>
       </c>
+      <c r="F29" s="121">
+        <f t="shared" si="5"/>
+        <v>50545</v>
+      </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="108" t="s">
@@ -6594,26 +7271,98 @@
       <c r="E30" s="109">
         <v>0.2732</v>
       </c>
+      <c r="F30" s="25">
+        <f>F28/F29</f>
+        <v>0.28020575724601837</v>
+      </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="135" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="109">
+        <f>D24/D$29</f>
+        <v>0.13322286661143332</v>
+      </c>
+      <c r="E31" s="109">
+        <f>E24/E$29</f>
+        <v>9.9103313840155943E-2</v>
+      </c>
+      <c r="F31" s="109">
+        <f>F24/F$29</f>
+        <v>0.10725096448709071</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="136" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32" s="109">
+        <f t="shared" ref="D32:F32" si="6">D25/D$29</f>
+        <v>1.0853355426677713E-2</v>
+      </c>
+      <c r="E32" s="109">
+        <f t="shared" si="6"/>
+        <v>5.2293697205977908E-2</v>
+      </c>
+      <c r="F32" s="109">
+        <f t="shared" si="6"/>
+        <v>4.2397863290137498E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="136" t="s">
+        <v>300</v>
+      </c>
+      <c r="D33" s="109">
+        <f t="shared" ref="D33:F33" si="7">D26/D$29</f>
+        <v>3.8939519469759734E-3</v>
+      </c>
+      <c r="E33" s="109">
+        <f t="shared" si="7"/>
+        <v>3.1448992852501625E-3</v>
+      </c>
+      <c r="F33" s="109">
+        <f t="shared" si="7"/>
+        <v>3.3237708972202987E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="136" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="109">
+        <f t="shared" ref="D34:F34" si="8">D27/D$29</f>
+        <v>0.1544324772162386</v>
+      </c>
+      <c r="E34" s="109">
+        <f t="shared" si="8"/>
+        <v>0.11867446393762184</v>
+      </c>
+      <c r="F34" s="109">
+        <f t="shared" si="8"/>
+        <v>0.12721337422099119</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="99" t="s">
         <v>286</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D35" s="110">
         <v>0.2379</v>
       </c>
-      <c r="E31" s="110">
+      <c r="E35" s="110">
         <v>0.21640000000000001</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
-      <c r="C32" s="99" t="s">
+    <row r="36" spans="3:6">
+      <c r="C36" s="99" t="s">
         <v>294</v>
       </c>
-      <c r="D32" s="110">
+      <c r="D36" s="110">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="E32" s="110">
+      <c r="E36" s="110">
         <v>5.6800000000000003E-2</v>
       </c>
     </row>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACEA6EE-EE86-4DC3-AAE7-106FAA6FC66C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9C5579-D726-422D-B184-3C1B5EED7D45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,11 +41,13 @@
   <authors>
     <author>Author</author>
     <author>tc={1E17415D-3C00-4D50-B13B-6BE374701D46}</author>
-    <author>tc={2BAAEFE0-093F-4A47-AC11-22B6E01FEF48}</author>
+    <author>tc={CF5CF5A7-948B-4FFE-B3FC-40A88109D95C}</author>
+    <author>tc={BF2AB719-F5FF-40BB-AB7B-C0DB3470AEB4}</author>
+    <author>tc={E8C448CD-53B7-490F-9996-9DCA6000100A}</author>
     <author>tc={8515E407-C037-4E97-A4C6-62FC0108B1A6}</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{CDE40F89-78CF-4C3B-B38C-D04825AF5F6F}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{CDE40F89-78CF-4C3B-B38C-D04825AF5F6F}">
       <text>
         <r>
           <rPr>
@@ -69,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,15 +79,33 @@
     See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</t>
       </text>
     </comment>
-    <comment ref="AA4" authorId="2" shapeId="0" xr:uid="{2BAAEFE0-093F-4A47-AC11-22B6E01FEF48}">
+    <comment ref="K4" authorId="2" shapeId="0" xr:uid="{CF5CF5A7-948B-4FFE-B3FC-40A88109D95C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    COLA when risk-sharing is not triggered</t>
+    fixedRate;
+sharedNC
+sharedADC</t>
       </text>
     </comment>
-    <comment ref="AE4" authorId="3" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+    <comment ref="O4" authorId="3" shapeId="0" xr:uid="{BF2AB719-F5FF-40BB-AB7B-C0DB3470AEB4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    For SJ P&amp;F tier 2. limit on the change in EEC rate for amortization payment (supplemental cost)</t>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="4" shapeId="0" xr:uid="{E8C448CD-53B7-490F-9996-9DCA6000100A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    EEC as a % of NC before SJ PF sharedADC policy is applied. Used in year 1</t>
+      </text>
+    </comment>
+    <comment ref="AB4" authorId="5" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +113,7 @@
     The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</t>
       </text>
     </comment>
-    <comment ref="AI4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
+    <comment ref="AF4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
       <text>
         <r>
           <rPr>
@@ -118,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
+    <comment ref="AP4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
       <text>
         <r>
           <rPr>
@@ -208,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="276">
   <si>
     <t>nsim</t>
   </si>
@@ -321,9 +341,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>calibration</t>
-  </si>
-  <si>
     <t>init_year</t>
   </si>
   <si>
@@ -753,12 +770,6 @@
     <t>cp</t>
   </si>
   <si>
-    <t>ERC_cap</t>
-  </si>
-  <si>
-    <t>EEC_cap</t>
-  </si>
-  <si>
     <t>ERC_share</t>
   </si>
   <si>
@@ -768,27 +779,18 @@
     <t>EEC_type</t>
   </si>
   <si>
+    <t>sharedADC</t>
+  </si>
+  <si>
     <t>cola_type</t>
   </si>
   <si>
-    <t>cola_assumed</t>
-  </si>
-  <si>
     <t>cola_max</t>
   </si>
   <si>
     <t>cola_min</t>
   </si>
   <si>
-    <t>use_Cfloors</t>
-  </si>
-  <si>
-    <t>ERC_floor</t>
-  </si>
-  <si>
-    <t>EEC_floor</t>
-  </si>
-  <si>
     <t>fixed</t>
   </si>
   <si>
@@ -796,9 +798,6 @@
   </si>
   <si>
     <t>fixedRate</t>
-  </si>
-  <si>
-    <t>EEC_sharedNC</t>
   </si>
   <si>
     <t>cola_default</t>
@@ -1011,16 +1010,6 @@
         <rFont val="Times New Roman"/>
       </rPr>
       <t>Tier 2 Actuarial Liability</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Total Actuarial Liability</t>
     </r>
   </si>
   <si>
@@ -1309,6 +1298,21 @@
   <si>
     <t>useContingentCOLA</t>
   </si>
+  <si>
+    <t>EEC_NCshare</t>
+  </si>
+  <si>
+    <t>EEC_ADCshare</t>
+  </si>
+  <si>
+    <t>EECrate_UALchgCap</t>
+  </si>
+  <si>
+    <t>EEC_floorNCshare</t>
+  </si>
+  <si>
+    <t>EEC_initSCshare</t>
+  </si>
 </sst>
 </file>
 
@@ -1323,7 +1327,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1630,7 +1634,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1644,10 +1648,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1708,10 +1709,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1746,12 +1744,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1921,6 +1913,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2337,13 +2366,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I4" dT="2020-11-29T15:06:08.38" personId="{00000000-0000-0000-0000-000000000000}" id="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
+  <threadedComment ref="H4" dT="2020-11-29T15:06:08.38" personId="{00000000-0000-0000-0000-000000000000}" id="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
     <text>See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</text>
   </threadedComment>
-  <threadedComment ref="AA4" dT="2021-03-13T00:37:48.89" personId="{00000000-0000-0000-0000-000000000000}" id="{2BAAEFE0-093F-4A47-AC11-22B6E01FEF48}">
-    <text>COLA when risk-sharing is not triggered</text>
+  <threadedComment ref="K4" dT="2021-04-24T13:50:24.61" personId="{00000000-0000-0000-0000-000000000000}" id="{CF5CF5A7-948B-4FFE-B3FC-40A88109D95C}">
+    <text>fixedRate;
+sharedNC
+sharedADC</text>
   </threadedComment>
-  <threadedComment ref="AE4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+  <threadedComment ref="O4" dT="2021-04-24T13:49:51.86" personId="{00000000-0000-0000-0000-000000000000}" id="{BF2AB719-F5FF-40BB-AB7B-C0DB3470AEB4}">
+    <text>For SJ P&amp;F tier 2. limit on the change in EEC rate for amortization payment (supplemental cost)</text>
+  </threadedComment>
+  <threadedComment ref="P4" dT="2021-04-24T15:11:25.51" personId="{00000000-0000-0000-0000-000000000000}" id="{E8C448CD-53B7-490F-9996-9DCA6000100A}">
+    <text>EEC as a % of NC before SJ PF sharedADC policy is applied. Used in year 1</text>
+  </threadedComment>
+  <threadedComment ref="AB4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
     <text>The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</text>
   </threadedComment>
 </ThreadedComments>
@@ -2365,1946 +2402,1942 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:BE18"/>
+  <dimension ref="A2:BB18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="21" width="12.5703125" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" customWidth="1"/>
-    <col min="23" max="25" width="12.5703125" customWidth="1"/>
-    <col min="26" max="27" width="17.42578125" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.85546875" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" customWidth="1"/>
-    <col min="44" max="44" width="17.42578125" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" customWidth="1"/>
-    <col min="46" max="47" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.42578125" customWidth="1"/>
-    <col min="50" max="50" width="23" customWidth="1"/>
-    <col min="51" max="51" width="16.5703125" customWidth="1"/>
-    <col min="52" max="52" width="12" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.28515625" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" customWidth="1"/>
-    <col min="57" max="57" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" customWidth="1"/>
+    <col min="23" max="24" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" customWidth="1"/>
+    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" customWidth="1"/>
+    <col min="41" max="41" width="17.42578125" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" customWidth="1"/>
+    <col min="43" max="44" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="12.42578125" customWidth="1"/>
+    <col min="47" max="47" width="23" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" customWidth="1"/>
+    <col min="49" max="49" width="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.28515625" customWidth="1"/>
+    <col min="53" max="53" width="11.42578125" customWidth="1"/>
+    <col min="54" max="54" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57">
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-    </row>
-    <row r="3" spans="1:57" s="21" customFormat="1" ht="18.75">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="19" t="s">
+    <row r="2" spans="1:54">
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+    </row>
+    <row r="3" spans="1:54" s="18" customFormat="1" ht="18.75">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+    </row>
+    <row r="4" spans="1:54" s="135" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="124" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="125" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="43" t="s">
+      <c r="G4" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="17" t="s">
+      <c r="I4" s="126" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="127" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="N4" s="128" t="s">
+        <v>272</v>
+      </c>
+      <c r="O4" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="P4" s="128" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q4" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="R4" s="127" t="s">
+        <v>184</v>
+      </c>
+      <c r="S4" s="129" t="s">
+        <v>270</v>
+      </c>
+      <c r="T4" s="128" t="s">
+        <v>185</v>
+      </c>
+      <c r="U4" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="V4" s="128" t="s">
+        <v>190</v>
+      </c>
+      <c r="W4" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="X4" s="128" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y4" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="19" t="s">
+      <c r="AE4" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI4" s="125" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ4" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="15" t="s">
+      <c r="AN4" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO4" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-    </row>
-    <row r="4" spans="1:57" s="1" customFormat="1">
-      <c r="A4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="P4" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="S4" s="53" t="s">
+      <c r="AP4" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ4" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR4" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS4" s="132" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT4" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU4" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV4" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW4" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX4" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY4" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ4" s="133" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA4" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB4" s="134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>189</v>
       </c>
-      <c r="T4" s="53" t="s">
+      <c r="L5">
+        <v>0.11</v>
+      </c>
+      <c r="M5" s="20">
+        <f>3/11</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N5" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="4">
+        <f>1/300</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P5" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>187</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.03</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.03</v>
+      </c>
+      <c r="W5">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="X5">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5">
+        <v>15</v>
+      </c>
+      <c r="AB5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5">
+        <v>1.2</v>
+      </c>
+      <c r="AE5">
+        <v>0.8</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AK5">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN5" s="34">
+        <v>123</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ5" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="AR5" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="AU5" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6">
+        <v>0.11</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" ref="M6:M18" si="0">3/11</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N6" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" ref="O6:O18" si="1">1/300</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P6" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.02</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0.02</v>
+      </c>
+      <c r="W6">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="X6">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6">
+        <v>15</v>
+      </c>
+      <c r="AB6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
+      <c r="AD6">
+        <v>1.2</v>
+      </c>
+      <c r="AE6">
+        <v>0.8</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ6">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AK6">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN6" s="34">
+        <v>123</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54">
+      <c r="M7" s="20"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="50"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="34"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AU7" s="39"/>
+      <c r="BB7" s="19"/>
+    </row>
+    <row r="8" spans="1:54">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8">
+        <v>0.11</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N8" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P8" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0.03</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0.03</v>
+      </c>
+      <c r="W8">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="X8">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8">
+        <v>15</v>
+      </c>
+      <c r="AB8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <v>1.2</v>
+      </c>
+      <c r="AE8">
+        <v>0.8</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ8">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AK8">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN8" s="34">
+        <v>123</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ8" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="AR8" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="AU8" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54">
+      <c r="A9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9">
+        <v>0.11</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N9" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P9" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>187</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0.02</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0.02</v>
+      </c>
+      <c r="W9">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="X9">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9">
+        <v>15</v>
+      </c>
+      <c r="AB9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AD9">
+        <v>1.2</v>
+      </c>
+      <c r="AE9">
+        <v>0.8</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ9">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AK9">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN9" s="34">
+        <v>123</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ9" s="20">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="20">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54">
+      <c r="M10" s="20"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="50"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="34"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AU10" s="39"/>
+      <c r="BB10" s="19"/>
+    </row>
+    <row r="11" spans="1:54">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>183</v>
       </c>
-      <c r="U4" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="V4" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="W4" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="X4" s="53" t="s">
+      <c r="L11">
+        <v>0.11</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N11" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P11" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0.03</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0.03</v>
+      </c>
+      <c r="W11">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="X11">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11">
+        <v>15</v>
+      </c>
+      <c r="AB11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>1.2</v>
+      </c>
+      <c r="AE11">
+        <v>0.8</v>
+      </c>
+      <c r="AF11" t="s">
         <v>191</v>
       </c>
-      <c r="Y4" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z4" s="53" t="s">
+      <c r="AG11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ11">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AK11">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN11" s="34">
+        <v>123</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ11" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AR11" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AU11" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12">
+        <v>0.11</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N12" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P12" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R12" t="s">
         <v>187</v>
       </c>
-      <c r="AA4" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="BC4" s="12" t="s">
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0.02</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0.02</v>
+      </c>
+      <c r="W12">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="X12">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA12">
         <v>15</v>
       </c>
-      <c r="BD4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE4" s="56" t="s">
+      <c r="AB12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC12">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:57">
-      <c r="A5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="AD12">
+        <v>1.2</v>
+      </c>
+      <c r="AE12">
+        <v>0.8</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ12">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AK12">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN12" s="34">
+        <v>123</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ12" s="20">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AR12" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AU12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54">
+      <c r="M13" s="20"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="50"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="34"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AU13" s="39"/>
+      <c r="BB13" s="19"/>
+    </row>
+    <row r="14" spans="1:54">
+      <c r="A14" t="s">
         <v>257</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>195</v>
-      </c>
-      <c r="M5">
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14">
         <v>0.11</v>
       </c>
-      <c r="N5" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="O5">
-        <v>0.09</v>
-      </c>
-      <c r="P5" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="M14" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N14" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P14" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R14" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>0.03</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0.03</v>
+      </c>
+      <c r="W14">
         <v>0.58140000000000003</v>
       </c>
-      <c r="U5">
+      <c r="X14">
         <v>0.41860000000000003</v>
       </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="Y14" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" t="s">
         <v>35</v>
       </c>
-      <c r="AD5">
+      <c r="AA14">
         <v>15</v>
       </c>
-      <c r="AE5">
+      <c r="AB14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF5">
+      <c r="AC14">
         <v>5</v>
       </c>
-      <c r="AG5">
+      <c r="AD14">
         <v>1.2</v>
       </c>
-      <c r="AH5">
+      <c r="AE14">
         <v>0.8</v>
       </c>
-      <c r="AI5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AF14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI14" t="s">
         <v>20</v>
       </c>
-      <c r="AM5">
+      <c r="AJ14">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN5">
+      <c r="AK14">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AL14" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AM14" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ5" s="37">
+      <c r="AN14" s="34">
         <v>123</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AO14" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AP14" t="s">
         <v>31</v>
       </c>
-      <c r="AT5" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="AU5" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="AX5" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="s">
+      <c r="AQ14" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AR14" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AU14" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>3</v>
       </c>
-      <c r="BD5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57">
-      <c r="A6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M6">
+      <c r="BA14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54">
+      <c r="A15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>189</v>
+      </c>
+      <c r="L15">
         <v>0.11</v>
       </c>
-      <c r="N6" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="O6">
-        <v>0.09</v>
-      </c>
-      <c r="P6" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="M15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N15" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P15" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R15" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>0.02</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0.02</v>
+      </c>
+      <c r="W15">
         <v>0.58140000000000003</v>
       </c>
-      <c r="U6">
+      <c r="X15">
         <v>0.41860000000000003</v>
       </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="Y15" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z15" t="s">
         <v>35</v>
       </c>
-      <c r="AD6">
+      <c r="AA15">
         <v>15</v>
       </c>
-      <c r="AE6">
+      <c r="AB15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF6">
+      <c r="AC15">
         <v>5</v>
       </c>
-      <c r="AG6">
+      <c r="AD15">
         <v>1.2</v>
       </c>
-      <c r="AH6">
+      <c r="AE15">
         <v>0.8</v>
       </c>
-      <c r="AI6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AF15" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI15" t="s">
         <v>20</v>
       </c>
-      <c r="AM6">
+      <c r="AJ15">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN6">
+      <c r="AK15">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AL15" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AM15" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ6" s="37">
+      <c r="AN15" s="34">
         <v>123</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AO15" t="s">
         <v>31</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AP15" t="s">
         <v>31</v>
       </c>
-      <c r="AT6" s="23">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="23">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="s">
+      <c r="AQ15" s="20">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AR15" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AU15" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>3</v>
       </c>
-      <c r="BD6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57">
-      <c r="N7" s="54"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="37"/>
-      <c r="AT7" s="23"/>
-      <c r="AU7" s="23"/>
-      <c r="AX7" s="42"/>
-      <c r="BE7" s="22"/>
-    </row>
-    <row r="8" spans="1:57">
-      <c r="A8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>195</v>
-      </c>
-      <c r="M8">
+      <c r="BA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54">
+      <c r="M16" s="20"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="50"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="34"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AU16" s="39"/>
+      <c r="BB16" s="19"/>
+    </row>
+    <row r="17" spans="1:54">
+      <c r="A17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17">
         <v>0.11</v>
       </c>
-      <c r="N8" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="O8">
-        <v>0.09</v>
-      </c>
-      <c r="P8" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="M17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N17" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P17" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R17" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17">
         <v>0.03</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0.03</v>
+      </c>
+      <c r="W17">
         <v>0.58140000000000003</v>
       </c>
-      <c r="U8">
+      <c r="X17">
         <v>0.41860000000000003</v>
       </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z17" t="s">
         <v>35</v>
       </c>
-      <c r="AD8">
+      <c r="AA17">
         <v>15</v>
       </c>
-      <c r="AE8">
+      <c r="AB17">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF8">
+      <c r="AC17">
         <v>5</v>
       </c>
-      <c r="AG8">
+      <c r="AD17">
         <v>1.2</v>
       </c>
-      <c r="AH8">
+      <c r="AE17">
         <v>0.8</v>
       </c>
-      <c r="AI8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AF17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI17" t="s">
         <v>20</v>
       </c>
-      <c r="AM8">
+      <c r="AJ17">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN8">
+      <c r="AK17">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AL17" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AM17" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ8" s="37">
+      <c r="AN17" s="34">
         <v>123</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AO17" t="s">
         <v>31</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AP17" t="s">
         <v>31</v>
       </c>
-      <c r="AT8" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="AU8" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="AX8" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="s">
+      <c r="AQ17" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AR17" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AU17" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="s">
         <v>3</v>
       </c>
-      <c r="BD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57">
-      <c r="A9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="BA17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>256</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>195</v>
-      </c>
-      <c r="M9">
+      <c r="E18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18">
         <v>0.11</v>
       </c>
-      <c r="N9" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="O9">
-        <v>0.09</v>
-      </c>
-      <c r="P9" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9">
+      <c r="M18" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N18" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P18" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>187</v>
+      </c>
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18">
         <v>0.02</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0.02</v>
+      </c>
+      <c r="W18">
         <v>0.58140000000000003</v>
       </c>
-      <c r="U9">
+      <c r="X18">
         <v>0.41860000000000003</v>
       </c>
-      <c r="W9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z18" t="s">
         <v>35</v>
       </c>
-      <c r="AD9">
+      <c r="AA18">
         <v>15</v>
       </c>
-      <c r="AE9">
+      <c r="AB18">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF9">
+      <c r="AC18">
         <v>5</v>
       </c>
-      <c r="AG9">
+      <c r="AD18">
         <v>1.2</v>
       </c>
-      <c r="AH9">
+      <c r="AE18">
         <v>0.8</v>
       </c>
-      <c r="AI9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AF18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI18" t="s">
         <v>20</v>
       </c>
-      <c r="AM9">
+      <c r="AJ18">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN9">
+      <c r="AK18">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AL18" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AM18" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ9" s="37">
+      <c r="AN18" s="34">
         <v>123</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AO18" t="s">
         <v>31</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AP18" t="s">
         <v>31</v>
       </c>
-      <c r="AT9" s="23">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="23">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="s">
+      <c r="AQ18" s="20">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AR18" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AU18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="s">
         <v>3</v>
       </c>
-      <c r="BD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57">
-      <c r="N10" s="54"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="37"/>
-      <c r="AT10" s="23"/>
-      <c r="AU10" s="23"/>
-      <c r="AX10" s="42"/>
-      <c r="BE10" s="22"/>
-    </row>
-    <row r="11" spans="1:57">
-      <c r="A11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>195</v>
-      </c>
-      <c r="M11">
-        <v>0.11</v>
-      </c>
-      <c r="N11" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="O11">
-        <v>0.09</v>
-      </c>
-      <c r="P11" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0.03</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="U11">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="W11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD11">
-        <v>15</v>
-      </c>
-      <c r="AE11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AF11">
-        <v>5</v>
-      </c>
-      <c r="AG11">
-        <v>1.2</v>
-      </c>
-      <c r="AH11">
-        <v>0.8</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM11">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN11">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AP11" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ11" s="37">
-        <v>123</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT11" s="23">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AU11" s="23">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AX11" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57">
-      <c r="A12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>269</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>195</v>
-      </c>
-      <c r="M12">
-        <v>0.11</v>
-      </c>
-      <c r="N12" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="O12">
-        <v>0.09</v>
-      </c>
-      <c r="P12" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0.02</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="U12">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="W12" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD12">
-        <v>15</v>
-      </c>
-      <c r="AE12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AF12">
-        <v>5</v>
-      </c>
-      <c r="AG12">
-        <v>1.2</v>
-      </c>
-      <c r="AH12">
-        <v>0.8</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM12">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN12">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AP12" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ12" s="37">
-        <v>123</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT12" s="23">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AU12" s="23">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AX12" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57">
-      <c r="N13" s="54"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="37"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23"/>
-      <c r="AX13" s="42"/>
-      <c r="BE13" s="22"/>
-    </row>
-    <row r="14" spans="1:57">
-      <c r="A14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" t="s">
-        <v>254</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M14">
-        <v>0.11</v>
-      </c>
-      <c r="N14" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="O14">
-        <v>0.09</v>
-      </c>
-      <c r="P14" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0.03</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="U14">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="W14" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD14">
-        <v>15</v>
-      </c>
-      <c r="AE14">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AF14">
-        <v>5</v>
-      </c>
-      <c r="AG14">
-        <v>1.2</v>
-      </c>
-      <c r="AH14">
-        <v>0.8</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM14">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN14">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO14" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AP14" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ14" s="37">
-        <v>123</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT14" s="23">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AU14" s="23">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AX14" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57">
-      <c r="A15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" t="s">
-        <v>256</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>269</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>195</v>
-      </c>
-      <c r="M15">
-        <v>0.11</v>
-      </c>
-      <c r="N15" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="O15">
-        <v>0.09</v>
-      </c>
-      <c r="P15" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0.02</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="U15">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD15">
-        <v>15</v>
-      </c>
-      <c r="AE15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AF15">
-        <v>5</v>
-      </c>
-      <c r="AG15">
-        <v>1.2</v>
-      </c>
-      <c r="AH15">
-        <v>0.8</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM15">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN15">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO15" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AP15" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ15" s="37">
-        <v>123</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT15" s="23">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AU15" s="23">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AX15" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE15" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57">
-      <c r="N16" s="54"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="37"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AX16" s="42"/>
-      <c r="BE16" s="22"/>
-    </row>
-    <row r="17" spans="1:57">
-      <c r="A17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" t="s">
-        <v>254</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>267</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>195</v>
-      </c>
-      <c r="M17">
-        <v>0.11</v>
-      </c>
-      <c r="N17" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="O17">
-        <v>0.09</v>
-      </c>
-      <c r="P17" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>0.03</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="U17">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="W17" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD17">
-        <v>15</v>
-      </c>
-      <c r="AE17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AF17">
-        <v>5</v>
-      </c>
-      <c r="AG17">
-        <v>1.2</v>
-      </c>
-      <c r="AH17">
-        <v>0.8</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM17">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN17">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO17" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AP17" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ17" s="37">
-        <v>123</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT17" s="23">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AU17" s="23">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AX17" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:57">
-      <c r="A18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>264</v>
-      </c>
-      <c r="F18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>269</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>195</v>
-      </c>
-      <c r="M18">
-        <v>0.11</v>
-      </c>
-      <c r="N18" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="O18">
-        <v>0.09</v>
-      </c>
-      <c r="P18" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>0.02</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="U18">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="W18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD18">
-        <v>15</v>
-      </c>
-      <c r="AE18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AF18">
-        <v>5</v>
-      </c>
-      <c r="AG18">
-        <v>1.2</v>
-      </c>
-      <c r="AH18">
-        <v>0.8</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM18">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN18">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO18" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AP18" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ18" s="37">
-        <v>123</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT18" s="23">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AU18" s="23">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AX18" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>1</v>
-      </c>
       <c r="BA18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="19" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ5:BA18 C5:C18" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:AX18 C5:C18" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK5:AK18" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH5:AH18" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D18" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K18" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
+      <formula1>"fixedRate, sharedNC, sharedADC"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4330,15 +4363,15 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>174</v>
+      <c r="B3" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -4349,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -4360,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -4371,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4388,7 +4421,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4416,126 +4449,126 @@
     <col min="24" max="24" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" s="21" customFormat="1" ht="18.75">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="E3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="18" t="s">
+    <row r="3" spans="1:23" s="18" customFormat="1" ht="18.75">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="E3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-    </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="130" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="130" t="s">
-        <v>259</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="130" t="s">
-        <v>260</v>
-      </c>
-      <c r="J4" s="130" t="s">
-        <v>261</v>
+      <c r="F4" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="J4" s="122" t="s">
+        <v>253</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="41" t="s">
+      <c r="N4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="38" t="s">
         <v>6</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F5">
         <v>0.5</v>
@@ -4547,7 +4580,7 @@
         <v>2021</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5">
         <v>3.2500000000000001E-2</v>
@@ -4564,7 +4597,7 @@
       <c r="P5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="Q5" s="39">
         <v>0.11</v>
       </c>
       <c r="R5">
@@ -4585,13 +4618,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F6">
         <v>0.5</v>
@@ -4603,7 +4636,7 @@
         <v>2021</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6">
         <v>3.2500000000000001E-2</v>
@@ -4620,7 +4653,7 @@
       <c r="P6" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="39">
         <v>0.11</v>
       </c>
       <c r="R6">
@@ -4641,13 +4674,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4659,7 +4692,7 @@
         <v>2021</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7">
         <v>3.2500000000000001E-2</v>
@@ -4676,7 +4709,7 @@
       <c r="P7" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="39">
         <v>0.11</v>
       </c>
       <c r="R7">
@@ -4697,13 +4730,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F8">
         <v>0.5</v>
@@ -4715,7 +4748,7 @@
         <v>2021</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8">
         <v>3.2500000000000001E-2</v>
@@ -4732,7 +4765,7 @@
       <c r="P8" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="39">
         <v>0.11</v>
       </c>
       <c r="R8">
@@ -4752,26 +4785,26 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="Q9" s="42"/>
+      <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="Q10" s="42"/>
+      <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="Q11" s="42"/>
+      <c r="Q11" s="39"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="Q12" s="42"/>
+      <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4783,7 +4816,7 @@
         <v>2020</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L13">
         <v>3.2500000000000001E-2</v>
@@ -4800,7 +4833,7 @@
       <c r="P13" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="39">
         <v>0.11</v>
       </c>
       <c r="R13">
@@ -4821,13 +4854,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F14">
         <v>0.5</v>
@@ -4839,7 +4872,7 @@
         <v>2020</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14">
         <v>3.2500000000000001E-2</v>
@@ -4856,7 +4889,7 @@
       <c r="P14" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="39">
         <v>0.11</v>
       </c>
       <c r="R14">
@@ -4877,13 +4910,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -4901,7 +4934,7 @@
         <v>0.02</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15">
         <v>3.2500000000000001E-2</v>
@@ -4918,7 +4951,7 @@
       <c r="P15" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="39">
         <v>0.11</v>
       </c>
       <c r="R15">
@@ -4938,56 +4971,56 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="Q16" s="42"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="Q17" s="42"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="Q18" s="42"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="Q19" s="42"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="Q20" s="42"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="Q21" s="42"/>
+      <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="Q22" s="42"/>
+      <c r="Q22" s="39"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="Q23" s="42"/>
+      <c r="Q23" s="39"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="Q24" s="42"/>
+      <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="Q25" s="42"/>
+      <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="Q26" s="42"/>
+      <c r="Q26" s="39"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="Q27" s="42"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4996,7 +5029,7 @@
         <v>2018</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L28">
         <v>2.75E-2</v>
@@ -5013,7 +5046,7 @@
       <c r="P28" t="b">
         <v>1</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="39">
         <v>0.11</v>
       </c>
       <c r="R28">
@@ -5028,19 +5061,19 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29">
         <v>0.25</v>
@@ -5049,7 +5082,7 @@
         <v>2018</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L29">
         <v>2.75E-2</v>
@@ -5066,7 +5099,7 @@
       <c r="P29" t="b">
         <v>1</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="39">
         <v>0.11</v>
       </c>
       <c r="R29">
@@ -5081,19 +5114,19 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30">
         <v>0.5</v>
@@ -5102,7 +5135,7 @@
         <v>2018</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L30">
         <v>2.75E-2</v>
@@ -5119,7 +5152,7 @@
       <c r="P30" t="b">
         <v>1</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="39">
         <v>0.11</v>
       </c>
       <c r="R30">
@@ -5133,23 +5166,23 @@
       </c>
     </row>
     <row r="31" spans="1:23">
-      <c r="Q31" s="42"/>
+      <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5164,7 +5197,7 @@
         <v>0.01</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L32">
         <v>2.75E-2</v>
@@ -5181,7 +5214,7 @@
       <c r="P32" t="b">
         <v>1</v>
       </c>
-      <c r="Q32" s="42">
+      <c r="Q32" s="39">
         <v>0.11</v>
       </c>
       <c r="R32">
@@ -5196,19 +5229,19 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33">
         <v>0.25</v>
@@ -5223,7 +5256,7 @@
         <v>0.01</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L33">
         <v>2.75E-2</v>
@@ -5240,7 +5273,7 @@
       <c r="P33" t="b">
         <v>1</v>
       </c>
-      <c r="Q33" s="42">
+      <c r="Q33" s="39">
         <v>0.11</v>
       </c>
       <c r="R33">
@@ -5255,19 +5288,19 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34">
         <v>0.5</v>
@@ -5282,7 +5315,7 @@
         <v>0.01</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L34">
         <v>2.75E-2</v>
@@ -5299,7 +5332,7 @@
       <c r="P34" t="b">
         <v>1</v>
       </c>
-      <c r="Q34" s="42">
+      <c r="Q34" s="39">
         <v>0.11</v>
       </c>
       <c r="R34">
@@ -5314,19 +5347,19 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5341,7 +5374,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L36">
         <v>2.75E-2</v>
@@ -5358,7 +5391,7 @@
       <c r="P36" t="b">
         <v>1</v>
       </c>
-      <c r="Q36" s="42">
+      <c r="Q36" s="39">
         <v>0.11</v>
       </c>
       <c r="R36">
@@ -5373,19 +5406,19 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37">
         <v>0.25</v>
@@ -5400,7 +5433,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L37">
         <v>2.75E-2</v>
@@ -5417,7 +5450,7 @@
       <c r="P37" t="b">
         <v>1</v>
       </c>
-      <c r="Q37" s="42">
+      <c r="Q37" s="39">
         <v>0.11</v>
       </c>
       <c r="R37">
@@ -5432,19 +5465,19 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38">
         <v>0.5</v>
@@ -5459,7 +5492,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L38">
         <v>2.75E-2</v>
@@ -5476,7 +5509,7 @@
       <c r="P38" t="b">
         <v>1</v>
       </c>
-      <c r="Q38" s="42">
+      <c r="Q38" s="39">
         <v>0.11</v>
       </c>
       <c r="R38">
@@ -5491,19 +5524,19 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5512,7 +5545,7 @@
         <v>2018</v>
       </c>
       <c r="K41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L41">
         <v>2.75E-2</v>
@@ -5529,7 +5562,7 @@
       <c r="P41" t="b">
         <v>1</v>
       </c>
-      <c r="Q41" s="42">
+      <c r="Q41" s="39">
         <v>0.11</v>
       </c>
       <c r="R41">
@@ -5544,19 +5577,19 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F42">
         <v>0.25</v>
@@ -5565,7 +5598,7 @@
         <v>2018</v>
       </c>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L42">
         <v>2.75E-2</v>
@@ -5582,7 +5615,7 @@
       <c r="P42" t="b">
         <v>1</v>
       </c>
-      <c r="Q42" s="42">
+      <c r="Q42" s="39">
         <v>0.11</v>
       </c>
       <c r="R42">
@@ -5597,19 +5630,19 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F43">
         <v>0.5</v>
@@ -5618,7 +5651,7 @@
         <v>2018</v>
       </c>
       <c r="K43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L43">
         <v>2.75E-2</v>
@@ -5635,7 +5668,7 @@
       <c r="P43" t="b">
         <v>1</v>
       </c>
-      <c r="Q43" s="42">
+      <c r="Q43" s="39">
         <v>0.11</v>
       </c>
       <c r="R43">
@@ -5649,23 +5682,23 @@
       </c>
     </row>
     <row r="44" spans="1:23">
-      <c r="Q44" s="42"/>
+      <c r="Q44" s="39"/>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -5680,7 +5713,7 @@
         <v>0.01</v>
       </c>
       <c r="K45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45">
         <v>2.75E-2</v>
@@ -5697,7 +5730,7 @@
       <c r="P45" t="b">
         <v>1</v>
       </c>
-      <c r="Q45" s="42">
+      <c r="Q45" s="39">
         <v>0.11</v>
       </c>
       <c r="R45">
@@ -5712,19 +5745,19 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46">
         <v>0.25</v>
@@ -5739,7 +5772,7 @@
         <v>0.01</v>
       </c>
       <c r="K46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L46">
         <v>2.75E-2</v>
@@ -5756,7 +5789,7 @@
       <c r="P46" t="b">
         <v>1</v>
       </c>
-      <c r="Q46" s="42">
+      <c r="Q46" s="39">
         <v>0.11</v>
       </c>
       <c r="R46">
@@ -5771,19 +5804,19 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47">
         <v>0.5</v>
@@ -5798,7 +5831,7 @@
         <v>0.01</v>
       </c>
       <c r="K47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L47">
         <v>2.75E-2</v>
@@ -5815,7 +5848,7 @@
       <c r="P47" t="b">
         <v>1</v>
       </c>
-      <c r="Q47" s="42">
+      <c r="Q47" s="39">
         <v>0.11</v>
       </c>
       <c r="R47">
@@ -5830,19 +5863,19 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5857,7 +5890,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L49">
         <v>2.75E-2</v>
@@ -5874,7 +5907,7 @@
       <c r="P49" t="b">
         <v>1</v>
       </c>
-      <c r="Q49" s="42">
+      <c r="Q49" s="39">
         <v>0.11</v>
       </c>
       <c r="R49">
@@ -5889,19 +5922,19 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50">
         <v>0.25</v>
@@ -5916,7 +5949,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L50">
         <v>2.75E-2</v>
@@ -5933,7 +5966,7 @@
       <c r="P50" t="b">
         <v>1</v>
       </c>
-      <c r="Q50" s="42">
+      <c r="Q50" s="39">
         <v>0.11</v>
       </c>
       <c r="R50">
@@ -5948,19 +5981,19 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F51">
         <v>0.5</v>
@@ -5975,7 +6008,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51">
         <v>2.75E-2</v>
@@ -5992,7 +6025,7 @@
       <c r="P51" t="b">
         <v>1</v>
       </c>
-      <c r="Q51" s="42">
+      <c r="Q51" s="39">
         <v>0.11</v>
       </c>
       <c r="R51">
@@ -6006,23 +6039,23 @@
       </c>
     </row>
     <row r="52" spans="1:23">
-      <c r="Q52" s="42"/>
+      <c r="Q52" s="39"/>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -6031,7 +6064,7 @@
         <v>2018</v>
       </c>
       <c r="K54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L54">
         <v>2.75E-2</v>
@@ -6048,7 +6081,7 @@
       <c r="P54" t="b">
         <v>1</v>
       </c>
-      <c r="Q54" s="42">
+      <c r="Q54" s="39">
         <v>0.11</v>
       </c>
       <c r="R54">
@@ -6063,19 +6096,19 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -6084,7 +6117,7 @@
         <v>2018</v>
       </c>
       <c r="K55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L55">
         <v>2.75E-2</v>
@@ -6101,7 +6134,7 @@
       <c r="P55" t="b">
         <v>1</v>
       </c>
-      <c r="Q55" s="42">
+      <c r="Q55" s="39">
         <v>0.11</v>
       </c>
       <c r="R55">
@@ -6116,19 +6149,19 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57">
         <v>0.5</v>
@@ -6143,7 +6176,7 @@
         <v>0.01</v>
       </c>
       <c r="K57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L57">
         <v>2.75E-2</v>
@@ -6160,7 +6193,7 @@
       <c r="P57" t="b">
         <v>1</v>
       </c>
-      <c r="Q57" s="42">
+      <c r="Q57" s="39">
         <v>0.11</v>
       </c>
       <c r="R57">
@@ -6175,19 +6208,19 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F58">
         <v>0.5</v>
@@ -6202,7 +6235,7 @@
         <v>0.01</v>
       </c>
       <c r="K58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L58">
         <v>2.75E-2</v>
@@ -6219,7 +6252,7 @@
       <c r="P58" t="b">
         <v>1</v>
       </c>
-      <c r="Q58" s="42">
+      <c r="Q58" s="39">
         <v>0.11</v>
       </c>
       <c r="R58">
@@ -6233,20 +6266,20 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="51" t="s">
-        <v>167</v>
+      <c r="A63" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -6255,7 +6288,7 @@
         <v>2018</v>
       </c>
       <c r="K63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L63">
         <v>2.75E-2</v>
@@ -6272,7 +6305,7 @@
       <c r="P63" t="b">
         <v>1</v>
       </c>
-      <c r="Q63" s="42">
+      <c r="Q63" s="39">
         <v>0.11</v>
       </c>
       <c r="R63">
@@ -6286,20 +6319,20 @@
       </c>
     </row>
     <row r="64" spans="1:23">
-      <c r="A64" s="51" t="s">
-        <v>168</v>
+      <c r="A64" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F64">
         <v>0.25</v>
@@ -6308,7 +6341,7 @@
         <v>2018</v>
       </c>
       <c r="K64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L64">
         <v>2.75E-2</v>
@@ -6325,7 +6358,7 @@
       <c r="P64" t="b">
         <v>1</v>
       </c>
-      <c r="Q64" s="42">
+      <c r="Q64" s="39">
         <v>0.11</v>
       </c>
       <c r="R64">
@@ -6339,20 +6372,20 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="51" t="s">
-        <v>169</v>
+      <c r="A65" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F65">
         <v>0.5</v>
@@ -6361,7 +6394,7 @@
         <v>2018</v>
       </c>
       <c r="K65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L65">
         <v>2.75E-2</v>
@@ -6378,7 +6411,7 @@
       <c r="P65" t="b">
         <v>1</v>
       </c>
-      <c r="Q65" s="42">
+      <c r="Q65" s="39">
         <v>0.11</v>
       </c>
       <c r="R65">
@@ -6423,7 +6456,7 @@
   <sheetData>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -6435,22 +6468,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6567,7 +6600,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6594,7 +6627,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4">
         <v>6.7500000000000004E-2</v>
@@ -6614,12 +6647,12 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4">
         <v>6.7500000000000004E-2</v>
@@ -6641,7 +6674,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4">
         <v>-0.24</v>
@@ -6663,7 +6696,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="4">
         <v>0.12</v>
@@ -6685,7 +6718,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4">
         <v>0.12</v>
@@ -6707,7 +6740,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="4">
         <v>0.12</v>
@@ -6729,7 +6762,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4">
         <v>7.0000000000000007E-2</v>
@@ -6757,10 +6790,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9FDD0-43C0-4547-B8AB-B7BD31607ED6}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6772,597 +6805,582 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="B3" s="57"/>
-      <c r="C3" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>203</v>
+      <c r="B3" s="51"/>
+      <c r="C3" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="57"/>
-      <c r="C4" s="60">
+      <c r="B4" s="51"/>
+      <c r="C4" s="54">
         <v>43646</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="54">
         <v>43646</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5">
-      <c r="B5" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B6" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="72">
+      <c r="B6" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="64">
         <v>442147</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="67">
         <v>733822</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="69">
         <f>SUM(C6:D6)</f>
         <v>1175969</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B7" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="72">
+      <c r="B7" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="64">
         <v>5389</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="64">
         <v>5692</v>
       </c>
-      <c r="E7" s="77">
-        <f t="shared" ref="E7:E43" si="0">SUM(C7:D7)</f>
+      <c r="E7" s="69">
+        <f t="shared" ref="E7:E42" si="0">SUM(C7:D7)</f>
         <v>11081</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B8" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="72">
+      <c r="B8" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="64">
         <v>1436</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="64">
         <v>1820</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="69">
         <f t="shared" si="0"/>
         <v>3256</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B9" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="73">
+      <c r="B9" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="65">
         <v>159348</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="65">
         <v>161821</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="69">
         <f t="shared" si="0"/>
         <v>321169</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B10" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="82">
+      <c r="B10" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="74">
         <v>608320</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="74">
         <v>903155</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="75">
         <f t="shared" si="0"/>
         <v>1511475</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B11" s="121" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="120">
+      <c r="B11" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="112">
         <v>71385</v>
       </c>
-      <c r="D11" s="120">
+      <c r="D11" s="112">
         <v>96246</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="75">
         <v>167631</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B12" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="83"/>
+      <c r="B12" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="75"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B13" s="122" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="124">
+      <c r="B13" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="116">
         <f>C6/C$11</f>
         <v>6.1938362401064646</v>
       </c>
-      <c r="D13" s="124">
+      <c r="D13" s="116">
         <f t="shared" ref="D13:E13" si="1">D6/D$11</f>
         <v>7.6244415352326333</v>
       </c>
-      <c r="E13" s="124">
+      <c r="E13" s="116">
         <f t="shared" si="1"/>
         <v>7.0152239144311013</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B14" s="122" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="124">
+      <c r="B14" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="116">
         <f t="shared" ref="C14:E14" si="2">C7/C$11</f>
         <v>7.5492050150591863E-2</v>
       </c>
-      <c r="D14" s="124">
+      <c r="D14" s="116">
         <f t="shared" si="2"/>
         <v>5.9140120108887639E-2</v>
       </c>
-      <c r="E14" s="124">
+      <c r="E14" s="116">
         <f t="shared" si="2"/>
         <v>6.6103525004324981E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B15" s="122" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="124">
+      <c r="B15" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="116">
         <f t="shared" ref="C15:E15" si="3">C8/C$11</f>
         <v>2.0116270925264412E-2</v>
       </c>
-      <c r="D15" s="124">
+      <c r="D15" s="116">
         <f t="shared" si="3"/>
         <v>1.8909876774099704E-2</v>
       </c>
-      <c r="E15" s="124">
+      <c r="E15" s="116">
         <f t="shared" si="3"/>
         <v>1.9423614963819343E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B16" s="122" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="124">
+      <c r="B16" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="116">
         <f t="shared" ref="C16:E16" si="4">C9/C$11</f>
         <v>2.2322336625341457</v>
       </c>
-      <c r="D16" s="124">
+      <c r="D16" s="116">
         <f t="shared" si="4"/>
         <v>1.6813270161876857</v>
       </c>
-      <c r="E16" s="124">
+      <c r="E16" s="116">
         <f t="shared" si="4"/>
         <v>1.9159284380574</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B17" s="125" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="126">
+      <c r="B17" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="118">
         <f t="shared" ref="C17:E17" si="5">C10/C$11</f>
         <v>8.5216782237164672</v>
       </c>
-      <c r="D17" s="126">
+      <c r="D17" s="118">
         <f t="shared" si="5"/>
         <v>9.3838185483033065</v>
       </c>
-      <c r="E17" s="126">
+      <c r="E17" s="118">
         <f t="shared" si="5"/>
         <v>9.016679492456646</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B18" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="75">
+      <c r="B18" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="67">
         <v>9069</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="67">
         <v>95139</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="70">
         <f t="shared" si="0"/>
         <v>104208</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B19" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="77">
+      <c r="B19" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B20" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="75">
+      <c r="B20" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="67">
         <v>499249</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="64">
         <v>1423962</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="69">
         <f t="shared" si="0"/>
         <v>1923211</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B21" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="72">
+      <c r="B21" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="64">
         <v>86688</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="64">
         <v>92287</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E21" s="69">
         <f t="shared" si="0"/>
         <v>178975</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B22" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="73">
+      <c r="B22" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="65">
         <v>627487</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="65">
         <v>612388</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="69">
         <f t="shared" si="0"/>
         <v>1239875</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B23" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="84">
+      <c r="B23" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="76">
         <v>1213424</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="76">
         <v>2128637</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="77">
         <f t="shared" si="0"/>
         <v>3342061</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B24" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="87">
+      <c r="B24" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="79">
         <v>1830813</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="79">
         <v>3126931</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="80">
         <f t="shared" si="0"/>
         <v>4957744</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B25" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="72">
+      <c r="B25" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="64">
         <v>1054566</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="64">
         <v>1792577</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="69">
         <f t="shared" si="0"/>
         <v>2847143</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B26" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="72">
+      <c r="B26" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="64">
         <v>776247</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="64">
         <v>1334354</v>
       </c>
-      <c r="E26" s="77">
+      <c r="E26" s="69">
         <f t="shared" si="0"/>
         <v>2110601</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="48" customHeight="1">
-      <c r="B27" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="77"/>
+      <c r="B27" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="69"/>
     </row>
     <row r="28" spans="2:5" ht="48" customHeight="1">
-      <c r="B28" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="77"/>
+      <c r="B28" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="71">
+      <c r="B29" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="63">
         <v>3777</v>
       </c>
-      <c r="D29" s="71">
+      <c r="D29" s="63">
         <v>10770</v>
       </c>
-      <c r="E29" s="77">
+      <c r="E29" s="69">
         <f t="shared" si="0"/>
         <v>14547</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="68">
+      <c r="B30" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="62">
         <v>57</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="58">
         <v>2818</v>
       </c>
-      <c r="E30" s="77">
+      <c r="E30" s="69">
         <f t="shared" si="0"/>
         <v>2875</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="68">
+      <c r="B31" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="62">
         <v>61</v>
       </c>
-      <c r="D31" s="68">
+      <c r="D31" s="62">
         <v>168</v>
       </c>
-      <c r="E31" s="77">
+      <c r="E31" s="69">
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="65">
+      <c r="B32" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="59">
         <v>3867</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="59">
         <v>8457</v>
       </c>
-      <c r="E32" s="77">
+      <c r="E32" s="69">
         <f t="shared" si="0"/>
         <v>12324</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="79">
+      <c r="B33" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="71">
         <v>7762</v>
       </c>
-      <c r="D33" s="79">
+      <c r="D33" s="71">
         <v>22213</v>
       </c>
-      <c r="E33" s="78">
+      <c r="E33" s="70">
         <f t="shared" si="0"/>
         <v>29975</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="91" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="109">
+      <c r="B34" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="101">
         <v>12070</v>
       </c>
-      <c r="D34" s="106">
+      <c r="D34" s="98">
         <v>38475</v>
       </c>
-      <c r="E34" s="113">
+      <c r="E34" s="105">
         <f t="shared" ref="E34" si="6">SUM(C34:D34)</f>
         <v>50545</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="122" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="129">
+      <c r="B35" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="121">
         <f>C29/C$34</f>
         <v>0.31292460646230325</v>
       </c>
-      <c r="D35" s="129">
+      <c r="D35" s="121">
         <f t="shared" ref="D35:E35" si="7">D29/D$34</f>
         <v>0.27992202729044835</v>
       </c>
-      <c r="E35" s="129">
+      <c r="E35" s="121">
         <f t="shared" si="7"/>
         <v>0.28780294786823624</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="122" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" s="129">
+      <c r="B36" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="121">
         <f t="shared" ref="C36:E36" si="8">C30/C$34</f>
         <v>4.7224523612261803E-3</v>
       </c>
-      <c r="D36" s="129">
+      <c r="D36" s="121">
         <f t="shared" si="8"/>
         <v>7.3242365172189738E-2</v>
       </c>
-      <c r="E36" s="129">
+      <c r="E36" s="121">
         <f t="shared" si="8"/>
         <v>5.6880007913740233E-2</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="122" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="129">
+      <c r="B37" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="121">
         <f t="shared" ref="C37:E37" si="9">C31/C$34</f>
         <v>5.0538525269262632E-3</v>
       </c>
-      <c r="D37" s="129">
+      <c r="D37" s="121">
         <f t="shared" si="9"/>
         <v>4.3664717348927875E-3</v>
       </c>
-      <c r="E37" s="129">
+      <c r="E37" s="121">
         <f t="shared" si="9"/>
         <v>4.5306162825205264E-3</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="122" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="129">
+      <c r="B38" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="121">
         <f t="shared" ref="C38:E38" si="10">C32/C$34</f>
         <v>0.3203811101905551</v>
       </c>
-      <c r="D38" s="129">
+      <c r="D38" s="121">
         <f t="shared" si="10"/>
         <v>0.21980506822612086</v>
       </c>
-      <c r="E38" s="129">
+      <c r="E38" s="121">
         <f t="shared" si="10"/>
         <v>0.24382233653180335</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="71">
+      <c r="B39" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="63">
         <v>47</v>
       </c>
-      <c r="D39" s="71">
+      <c r="D39" s="63">
         <v>661</v>
       </c>
-      <c r="E39" s="77">
+      <c r="E39" s="69">
         <f t="shared" si="0"/>
         <v>708</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="80">
+      <c r="B40" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="72">
         <v>7809</v>
       </c>
-      <c r="D40" s="80">
+      <c r="D40" s="72">
         <v>22874</v>
       </c>
-      <c r="E40" s="78">
+      <c r="E40" s="70">
         <f t="shared" si="0"/>
         <v>30683</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="C41" s="64">
+      <c r="B41" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="58">
         <v>6117</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="58">
         <v>17854</v>
       </c>
-      <c r="E41" s="77">
+      <c r="E41" s="69">
         <f t="shared" si="0"/>
         <v>23971</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="64">
+      <c r="B42" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="58">
         <v>1692</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="58">
         <v>5020</v>
       </c>
-      <c r="E42" s="77">
+      <c r="E42" s="69">
         <f t="shared" si="0"/>
         <v>6712</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="70">
-        <v>1838622</v>
-      </c>
-      <c r="D43" s="70">
-        <v>3149805</v>
-      </c>
-      <c r="E43" s="78">
-        <f t="shared" si="0"/>
-        <v>4988427</v>
       </c>
     </row>
   </sheetData>
@@ -7379,7 +7397,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7390,159 +7408,159 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="C4" s="89" t="s">
-        <v>225</v>
+      <c r="C4" s="81" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="90" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="C5" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C6" s="90"/>
-      <c r="D6" s="110">
+      <c r="C6" s="82"/>
+      <c r="D6" s="102">
         <v>43646</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="103">
         <v>43646</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C7" s="90"/>
-      <c r="D7" s="110" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="112" t="s">
-        <v>239</v>
+      <c r="C7" s="82"/>
+      <c r="D7" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C8" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="105">
+      <c r="C8" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="97">
         <v>17717</v>
       </c>
-      <c r="E8" s="106">
+      <c r="E8" s="98">
         <v>17506</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="105">
         <f>SUM(D8:E8)</f>
         <v>35223</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C9" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="92">
+      <c r="C9" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="84">
         <v>1258</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="85">
         <v>5927</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="105">
         <f t="shared" ref="F9:F14" si="0">SUM(D9:E9)</f>
         <v>7185</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C10" s="91" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="94">
+      <c r="C10" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="86">
         <v>279</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="87">
         <v>314</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="105">
         <f t="shared" si="0"/>
         <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C11" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="92">
+      <c r="C11" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="84">
         <v>10678</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="85">
         <v>12961</v>
       </c>
-      <c r="F11" s="113">
+      <c r="F11" s="105">
         <f t="shared" si="0"/>
         <v>23639</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C12" s="91" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" s="96">
+      <c r="C12" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="88">
         <v>182</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="89">
         <v>1014</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="105">
         <f t="shared" si="0"/>
         <v>1196</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.5" customHeight="1">
-      <c r="C13" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="D13" s="107">
+      <c r="C13" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="99">
         <v>30114</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="100">
         <v>37721</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="105">
         <f t="shared" si="0"/>
         <v>67835</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1">
-      <c r="C14" s="100" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="109">
+      <c r="C14" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="101">
         <v>71385</v>
       </c>
-      <c r="E14" s="106">
+      <c r="E14" s="98">
         <v>96246</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="105">
         <f t="shared" si="0"/>
         <v>167631</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C15" s="114" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="115">
+      <c r="C15" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="107">
         <v>0.4219</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="107">
         <v>0.39200000000000002</v>
       </c>
-      <c r="F15" s="116">
+      <c r="F15" s="108">
         <f>F13/F14</f>
         <v>0.40466858755242169</v>
       </c>
@@ -7556,299 +7574,299 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C16" s="119" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="118">
+      <c r="C16" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="110">
         <f>D8/D$14</f>
         <v>0.24818939553127409</v>
       </c>
-      <c r="E16" s="118">
+      <c r="E16" s="110">
         <f t="shared" ref="E16:F16" si="1">E8/E$14</f>
         <v>0.18188807846559857</v>
       </c>
-      <c r="F16" s="118">
+      <c r="F16" s="110">
         <f t="shared" si="1"/>
         <v>0.21012223276124345</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C17" s="117" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="118">
+      <c r="C17" s="109" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="110">
         <f t="shared" ref="D17:F17" si="2">D9/D$14</f>
         <v>1.762274987742523E-2</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="110">
         <f t="shared" si="2"/>
         <v>6.158178002202689E-2</v>
       </c>
-      <c r="F17" s="118">
+      <c r="F17" s="110">
         <f t="shared" si="2"/>
         <v>4.2862000465307727E-2</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C18" s="117" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="118">
+      <c r="C18" s="109" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="110">
         <f t="shared" ref="D18:F18" si="3">D10/D$14</f>
         <v>3.9083841143097292E-3</v>
       </c>
-      <c r="E18" s="118">
+      <c r="E18" s="110">
         <f t="shared" si="3"/>
         <v>3.2624732456413771E-3</v>
       </c>
-      <c r="F18" s="118">
+      <c r="F18" s="110">
         <f t="shared" si="3"/>
         <v>3.5375318407693088E-3</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C19" s="117" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="118">
+      <c r="C19" s="109" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="110">
         <f t="shared" ref="D19:F19" si="4">D11/D$14</f>
         <v>0.14958324577992577</v>
       </c>
-      <c r="E19" s="118">
+      <c r="E19" s="110">
         <f t="shared" si="4"/>
         <v>0.13466533674126718</v>
       </c>
-      <c r="F19" s="118">
+      <c r="F19" s="110">
         <f t="shared" si="4"/>
         <v>0.14101806945016138</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="94">
+        <v>0.28849999999999998</v>
+      </c>
+      <c r="E20" s="94">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="19.5" customHeight="1">
+      <c r="C21" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="D20" s="102">
-        <v>0.28849999999999998</v>
-      </c>
-      <c r="E20" s="102">
-        <v>0.27100000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C21" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="104">
+      <c r="D21" s="96">
         <v>0.13339999999999999</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="96">
         <v>0.121</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
     </row>
     <row r="23" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C23" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="C23" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="105">
+      <c r="C24" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="97">
         <v>1608</v>
       </c>
-      <c r="E24" s="106">
+      <c r="E24" s="98">
         <v>3813</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="105">
         <f>SUM(D24:E24)</f>
         <v>5421</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="94">
+      <c r="C25" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="86">
         <v>131</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="84">
         <v>2012</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="105">
         <f t="shared" ref="F25:F29" si="5">SUM(D25:E25)</f>
         <v>2143</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="91" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="94">
+      <c r="C26" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="86">
         <v>47</v>
       </c>
-      <c r="E26" s="95">
+      <c r="E26" s="87">
         <v>121</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="105">
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="25.5">
-      <c r="C27" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="98">
+      <c r="C27" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="90">
         <v>1864</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E27" s="90">
         <v>4566</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="105">
         <f t="shared" si="5"/>
         <v>6430</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="25.5">
-      <c r="C28" s="99" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="107">
+      <c r="C28" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="99">
         <v>3650</v>
       </c>
-      <c r="E28" s="107">
+      <c r="E28" s="99">
         <v>10513</v>
       </c>
-      <c r="F28" s="113">
+      <c r="F28" s="105">
         <f t="shared" si="5"/>
         <v>14163</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="100" t="s">
-        <v>233</v>
-      </c>
-      <c r="D29" s="109">
+      <c r="C29" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="101">
         <v>12070</v>
       </c>
-      <c r="E29" s="106">
+      <c r="E29" s="98">
         <v>38475</v>
       </c>
-      <c r="F29" s="113">
+      <c r="F29" s="105">
         <f t="shared" si="5"/>
         <v>50545</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="100" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="101">
+      <c r="C30" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="93">
         <v>0.3024</v>
       </c>
-      <c r="E30" s="101">
+      <c r="E30" s="93">
         <v>0.2732</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="21">
         <f>F28/F29</f>
         <v>0.28020575724601837</v>
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="127" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="101">
+      <c r="C31" s="119" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="93">
         <f>D24/D$29</f>
         <v>0.13322286661143332</v>
       </c>
-      <c r="E31" s="101">
+      <c r="E31" s="93">
         <f>E24/E$29</f>
         <v>9.9103313840155943E-2</v>
       </c>
-      <c r="F31" s="101">
+      <c r="F31" s="93">
         <f>F24/F$29</f>
         <v>0.10725096448709071</v>
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="128" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="101">
+      <c r="C32" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="93">
         <f t="shared" ref="D32:F32" si="6">D25/D$29</f>
         <v>1.0853355426677713E-2</v>
       </c>
-      <c r="E32" s="101">
+      <c r="E32" s="93">
         <f t="shared" si="6"/>
         <v>5.2293697205977908E-2</v>
       </c>
-      <c r="F32" s="101">
+      <c r="F32" s="93">
         <f t="shared" si="6"/>
         <v>4.2397863290137498E-2</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="128" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="101">
+      <c r="C33" s="120" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="93">
         <f t="shared" ref="D33:F33" si="7">D26/D$29</f>
         <v>3.8939519469759734E-3</v>
       </c>
-      <c r="E33" s="101">
+      <c r="E33" s="93">
         <f t="shared" si="7"/>
         <v>3.1448992852501625E-3</v>
       </c>
-      <c r="F33" s="101">
+      <c r="F33" s="93">
         <f t="shared" si="7"/>
         <v>3.3237708972202987E-3</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="128" t="s">
-        <v>242</v>
-      </c>
-      <c r="D34" s="101">
+      <c r="C34" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="93">
         <f t="shared" ref="D34:F34" si="8">D27/D$29</f>
         <v>0.1544324772162386</v>
       </c>
-      <c r="E34" s="101">
+      <c r="E34" s="93">
         <f t="shared" si="8"/>
         <v>0.11867446393762184</v>
       </c>
-      <c r="F34" s="101">
+      <c r="F34" s="93">
         <f t="shared" si="8"/>
         <v>0.12721337422099119</v>
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="94">
+        <v>0.2379</v>
+      </c>
+      <c r="E35" s="94">
+        <v>0.21640000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="D35" s="102">
-        <v>0.2379</v>
-      </c>
-      <c r="E35" s="102">
-        <v>0.21640000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="102">
+      <c r="D36" s="94">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="E36" s="102">
+      <c r="E36" s="94">
         <v>5.6800000000000003E-2</v>
       </c>
     </row>
@@ -7875,30 +7893,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="131">
+      <c r="B2" s="123">
         <v>43646</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B4">
         <v>3558486</v>
@@ -7910,18 +7928,18 @@
         <f>1830813+3126931</f>
         <v>4957744</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <f>B4/$D4</f>
         <v>0.7177631600179436</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <f>C4/$D4</f>
         <v>0.74141988775539847</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B5">
         <f>7790+22148</f>
@@ -7935,18 +7953,18 @@
         <f>7809+22874</f>
         <v>30683</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <f t="shared" ref="E5:E6" si="0">B5/$D5</f>
         <v>0.97571945376918812</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <f t="shared" ref="F5:F6" si="1">C5/$D5</f>
         <v>0.99507870807939247</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <f>SUM(B4:B5)</f>
@@ -7960,11 +7978,11 @@
         <f>SUM(D4:D5)</f>
         <v>4988427</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>0.71934980706342899</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <f t="shared" si="1"/>
         <v>0.74298010174349549</v>
       </c>
@@ -7988,992 +8006,992 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="20" style="26" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="25"/>
-    <col min="6" max="9" width="14.85546875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="25"/>
-    <col min="11" max="11" width="18.5703125" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="34.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="22"/>
+    <col min="6" max="9" width="14.85546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="22"/>
+    <col min="11" max="11" width="18.5703125" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="H3" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="28" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="26">
+      <c r="A5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="23">
         <v>174402</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="23">
         <v>11811</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="23">
         <f>SUM(B5:C5)</f>
         <v>186213</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <v>28335</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="23">
         <v>41289</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <v>7311</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <f t="shared" ref="I5:I6" si="0">SUM(F5:H5)</f>
         <v>76935</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="46">
         <f>SUM(D5,I5)</f>
         <v>263148</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="A6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="23">
         <v>37586</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="23">
         <v>8909</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="23">
         <f t="shared" ref="D6:D25" si="1">SUM(B6:C6)</f>
         <v>46495</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>5956</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <v>6173</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <v>265</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <f t="shared" si="0"/>
         <v>12394</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="46">
         <f t="shared" ref="K6:K12" si="2">SUM(D6,I6)</f>
         <v>58889</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="26">
+      <c r="A7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="23">
         <v>61005</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="23">
         <v>3566</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="23">
         <f t="shared" si="1"/>
         <v>64571</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>7103</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="23">
         <v>7078</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="23">
         <v>451</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <f>SUM(F7:H7)</f>
         <v>14632</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="46">
         <f t="shared" si="2"/>
         <v>79203</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="26">
+      <c r="A8" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="23">
         <v>195158</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <v>14642</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="23">
         <f t="shared" si="1"/>
         <v>209800</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="23">
         <v>25749</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="23">
         <v>39947</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="23">
         <v>9158</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <f t="shared" ref="I8:I25" si="3">SUM(F8:H8)</f>
         <v>74854</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="46">
         <f t="shared" si="2"/>
         <v>284654</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="A9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="23">
         <v>468151</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="23">
         <v>38928</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="23">
         <f t="shared" si="1"/>
         <v>507079</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="23">
         <v>67143</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="23">
         <v>94487</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="23">
         <v>17185</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="23">
         <f t="shared" si="3"/>
         <v>178815</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="46">
         <f t="shared" si="2"/>
         <v>685894</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="26">
+      <c r="A11" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="23">
         <v>12251583453</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="23">
         <v>699252899</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="23">
         <f t="shared" si="1"/>
         <v>12950836352</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="23">
         <v>2316124913</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="43">
         <v>3522647266</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="23">
         <v>871895121</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="23">
         <f t="shared" si="3"/>
         <v>6710667300</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="46">
         <f t="shared" si="2"/>
         <v>19661503652</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="26">
+      <c r="A12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="23">
         <v>12934685803</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="23">
         <v>738240618</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="23">
         <f t="shared" si="1"/>
         <v>13672926421</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="23">
         <v>2445263353</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="43">
         <v>3719056868</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="23">
         <v>920508723</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="23">
         <f t="shared" si="3"/>
         <v>7084828944</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="46">
         <f t="shared" si="2"/>
         <v>20757755365</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="A14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="26">
+      <c r="A15" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="23">
         <v>132446673597</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="23">
         <v>5746905539</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="23">
         <f t="shared" si="1"/>
         <v>138193579136</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="42">
         <v>17751712839</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="23">
         <v>57779361435</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="23">
         <v>15894543442</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="23">
         <f t="shared" si="3"/>
         <v>91425617716</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="46">
         <f t="shared" ref="K15:K18" si="4">SUM(D15,I15)</f>
         <v>229619196852</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="26">
+      <c r="A16" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="23">
         <v>115469058970</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="23">
         <v>4670036601</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="23">
         <f t="shared" si="1"/>
         <v>120139095571</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="42">
         <v>13590778296</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="23">
         <v>48792433542</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="23">
         <v>13383782393</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="23">
         <f t="shared" si="3"/>
         <v>75766994231</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="46">
         <f t="shared" si="4"/>
         <v>195906089802</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="26">
+      <c r="A17" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="23">
         <v>80223069956</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="23">
         <v>3589902866</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="23">
         <f t="shared" si="1"/>
         <v>83812972822</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="42">
         <v>10551342261</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="23">
         <v>33326594392</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="23">
         <v>8540511923</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="23">
         <f t="shared" si="3"/>
         <v>52418448576</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="46">
         <f t="shared" si="4"/>
         <v>136231421398</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="26">
+      <c r="A18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="23">
         <v>35245989014</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="23">
         <v>1080133735</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="23">
         <f t="shared" si="1"/>
         <v>36326122749</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="42">
         <v>3039436035</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="23">
         <v>15465839150</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="23">
         <v>4843270470</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="23">
         <f t="shared" si="3"/>
         <v>23348545655</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="46">
         <f t="shared" si="4"/>
         <v>59674668404</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="31">
+      <c r="A19" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="28">
         <v>0.69499999999999995</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="28">
         <v>0.76900000000000002</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="32">
         <f>D17/D16</f>
         <v>0.69763279325228544</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="32">
         <f>F17/F16</f>
         <v>0.77636041374506426</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="32">
         <f>G17/G16</f>
         <v>0.68302791996043455</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="32">
         <f>H17/H16</f>
         <v>0.63812393777911902</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="32">
         <f>I17/I16</f>
         <v>0.69183750930102272</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="32">
         <f>K17/K16</f>
         <v>0.69539145789540036</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="29"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="A20" s="26"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="26">
+      <c r="A22" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="23">
         <v>2174670866</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="23">
         <v>134810119</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="23">
         <f t="shared" si="1"/>
         <v>2309480985</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="43">
         <v>566958761</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="23">
         <v>1111774860</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="43">
         <v>274753444</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="23">
         <f t="shared" si="3"/>
         <v>1953487065</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="46">
         <f t="shared" ref="K22:K25" si="5">SUM(D22,I22)</f>
         <v>4262968050</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="26">
+      <c r="A23" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="23">
         <v>893164372</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="23">
         <v>58830395</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="23">
         <f t="shared" si="1"/>
         <v>951994767</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="43">
         <v>256385863</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="23">
         <v>426055155</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="43">
         <v>96865133</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="23">
         <f t="shared" si="3"/>
         <v>779306151</v>
       </c>
-      <c r="K23" s="49">
+      <c r="K23" s="46">
         <f t="shared" si="5"/>
         <v>1731300918</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="26">
+      <c r="A24" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="23">
         <v>1281506494</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="23">
         <v>75979724</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="23">
         <f t="shared" si="1"/>
         <v>1357486218</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="43">
         <v>310572898</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="23">
         <v>685719705</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="43">
         <v>177888311</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="23">
         <f t="shared" si="3"/>
         <v>1174180914</v>
       </c>
-      <c r="K24" s="49">
+      <c r="K24" s="46">
         <f t="shared" si="5"/>
         <v>2531667132</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="26">
+      <c r="A25" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="23">
         <v>2725165218</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="23">
         <v>77744321</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="23">
         <f t="shared" si="1"/>
         <v>2802909539</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="43">
         <v>215802566</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="23">
         <v>1069586142</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="43">
         <v>354215017</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="23">
         <f t="shared" si="3"/>
         <v>1639603725</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="46">
         <f t="shared" si="5"/>
         <v>4442513264</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
-      <c r="A26" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="26">
+      <c r="A26" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="23">
         <f>B24+B25</f>
         <v>4006671712</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="23">
         <f t="shared" ref="C26:K26" si="6">C24+C25</f>
         <v>153724045</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="23">
         <f t="shared" si="6"/>
         <v>4160395757</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23">
         <f t="shared" si="6"/>
         <v>526375464</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="23">
         <f t="shared" si="6"/>
         <v>1755305847</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="23">
         <f t="shared" si="6"/>
         <v>532103328</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="23">
         <f t="shared" si="6"/>
         <v>2813784639</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26">
+      <c r="J26" s="23"/>
+      <c r="K26" s="23">
         <f t="shared" si="6"/>
         <v>6974180396</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="25.5">
-      <c r="A28" s="32" t="s">
-        <v>97</v>
+      <c r="A28" s="29" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="33">
+      <c r="A29" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="30">
         <v>0.16813</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="33">
         <v>0.18260999999999999</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="32">
         <f>D22/$D$12</f>
         <v>0.16890904798938361</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="44">
         <v>0.23186000000000001</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="44">
         <v>0.29893999999999998</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="44">
         <v>0.29848000000000002</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="32">
         <f>I22/$I$12</f>
         <v>0.27572819053794789</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="32">
         <f>K22/$K$12</f>
         <v>0.20536748675571453</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="33">
+      <c r="A30" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="30">
         <v>6.905E-2</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="33">
         <v>7.9689999999999997E-2</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="32">
         <f t="shared" ref="D30:D32" si="7">D23/$D$12</f>
         <v>6.9626262709777217E-2</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="44">
         <v>0.10485</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="44">
         <v>0.11456</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="44">
         <v>0.10523</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="32">
         <f t="shared" ref="I30:I32" si="8">I23/$I$12</f>
         <v>0.10999646669803917</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="32">
         <f t="shared" ref="K30:K32" si="9">K23/$K$12</f>
         <v>8.3405015983528522E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="33">
+      <c r="A31" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="30">
         <v>9.9080000000000001E-2</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="33">
         <v>0.10292</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="32">
         <f t="shared" si="7"/>
         <v>9.9282785279606378E-2</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="44">
         <v>0.12701000000000001</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="44">
         <v>0.18437999999999999</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="44">
         <v>0.19325000000000001</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="32">
         <f t="shared" si="8"/>
         <v>0.1657317238399087</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="32">
         <f t="shared" si="9"/>
         <v>0.12196247077218601</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="33">
+      <c r="A32" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="30">
         <v>0.21068999999999999</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="33">
         <v>0.10531</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="32">
         <f t="shared" si="7"/>
         <v>0.20499704691565238</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="44">
         <v>8.8249999999999995E-2</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="44">
         <v>0.28760000000000002</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="44">
         <v>0.38479999999999998</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="32">
         <f t="shared" si="8"/>
         <v>0.23142460290287567</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="32">
         <f t="shared" si="9"/>
         <v>0.21401703536262867</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="34">
+      <c r="A33" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="31">
         <v>0.30976999999999999</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="33">
         <v>0.20823</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="32">
         <f>SUM(D24:D25)/D12</f>
         <v>0.30427983219525878</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="45">
         <v>0.21526000000000001</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="45">
         <v>0.47198000000000001</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="45">
         <v>0.57811000000000001</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="32">
         <f>SUM(I24:I25)/$I$12</f>
         <v>0.39715632674278439</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="32">
         <f>SUM(K24:K25)/$K$12</f>
         <v>0.3359795061348147</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="25.5">
-      <c r="A35" s="32" t="s">
-        <v>98</v>
+      <c r="A35" s="29" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="35">
+      <c r="A36" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="32">
         <f>B22/B$11</f>
         <v>0.17750120825953289</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="32">
         <f>C22/C$11</f>
         <v>0.19279164833323059</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="32">
         <f>D22/D$11</f>
         <v>0.1783267830917612</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="32">
         <f>F22/F$11</f>
         <v>0.24478764414551246</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="32">
         <f>G22/G$11</f>
         <v>0.31560777337278823</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="32">
         <f>H22/H$11</f>
         <v>0.31512212579521937</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="32">
         <f>I22/I$11</f>
         <v>0.29110176047618991</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="32">
         <f>K22/K$11</f>
         <v>0.21681800768917101</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="35">
+      <c r="A37" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="32">
         <f t="shared" ref="B37:C39" si="10">B23/B$11</f>
         <v>7.2901953892441071E-2</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="32">
         <f t="shared" si="10"/>
         <v>8.4133215728005153E-2</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="32">
         <f t="shared" ref="D37:F37" si="11">D23/D$11</f>
         <v>7.3508362018101112E-2</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="32">
         <f t="shared" si="11"/>
         <v>0.110696043016053</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="32">
         <f t="shared" ref="G37:H37" si="12">G23/G$11</f>
         <v>0.12094743606951874</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="32">
         <f t="shared" si="12"/>
         <v>0.11109723023670871</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="32">
         <f t="shared" ref="I37:K37" si="13">I23/I$11</f>
         <v>0.11612945720018038</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="32">
         <f t="shared" si="13"/>
         <v>8.8055366905973612E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="35">
+      <c r="A38" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="32">
         <f t="shared" si="10"/>
         <v>0.1045992543670918</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="32">
         <f t="shared" si="10"/>
         <v>0.10865843260522542</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="32">
         <f t="shared" ref="D38:F38" si="14">D24/D$11</f>
         <v>0.10481842107366009</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="32">
         <f t="shared" si="14"/>
         <v>0.13409160112945948</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="32">
         <f t="shared" ref="G38:H38" si="15">G24/G$11</f>
         <v>0.19466033730326945</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="32">
         <f t="shared" si="15"/>
         <v>0.20402489555851064</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="32">
         <f t="shared" ref="I38:K38" si="16">I24/I$11</f>
         <v>0.17497230327600952</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="32">
         <f t="shared" si="16"/>
         <v>0.12876264078319741</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="35">
+      <c r="A39" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="32">
         <f t="shared" si="10"/>
         <v>0.222433714666711</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="32">
         <f t="shared" si="10"/>
         <v>0.11118197881078788</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="32">
         <f t="shared" ref="D39:F39" si="17">D25/D$11</f>
         <v>0.21642691350718413</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="32">
         <f t="shared" si="17"/>
         <v>9.3173975543692972E-2</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="32">
         <f t="shared" ref="G39:H39" si="18">G25/G$11</f>
         <v>0.30363134916273504</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="32">
         <f t="shared" si="18"/>
         <v>0.40625874427848757</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="32">
         <f t="shared" ref="I39:K39" si="19">I25/I$11</f>
         <v>0.24432797093070013</v>
       </c>
-      <c r="K39" s="35">
+      <c r="K39" s="32">
         <f t="shared" si="19"/>
         <v>0.22594982269060079</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="35">
+      <c r="A40" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="32">
         <f>SUM(B24:B25)/B$11</f>
         <v>0.3270329690338028</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="32">
         <f t="shared" ref="C40:D40" si="20">SUM(C24:C25)/C$11</f>
         <v>0.21984041141601332</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="32">
         <f t="shared" si="20"/>
         <v>0.3212453345808442</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="32">
         <f t="shared" ref="F40:G40" si="21">SUM(F24:F25)/F$11</f>
         <v>0.22726557667315242</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="32">
         <f t="shared" si="21"/>
         <v>0.49829168646600452</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="32">
         <f t="shared" ref="H40:I40" si="22">SUM(H24:H25)/H$11</f>
         <v>0.61028363983699829</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="32">
         <f t="shared" si="22"/>
         <v>0.41930027420670968</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="32">
         <f t="shared" ref="K40" si="23">SUM(K24:K25)/K$11</f>
         <v>0.3547124634737982</v>
       </c>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9C5579-D726-422D-B184-3C1B5EED7D45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3783A74-53BC-459D-9422-89814910B92A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="targetVals_Funding" sheetId="31" r:id="rId8"/>
     <sheet name="targeVals_raw" sheetId="23" r:id="rId9"/>
     <sheet name="Note1" sheetId="29" r:id="rId10"/>
+    <sheet name="Notes on scenarios" sheetId="32" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,10 +103,10 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    EEC as a % of NC before SJ PF sharedADC policy is applied. Used in year 1</t>
+    EEC as a % of SC before SJ PF sharedADC policy is applied. Used in year 1</t>
       </text>
     </comment>
-    <comment ref="AB4" authorId="5" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+    <comment ref="Z4" authorId="5" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -113,7 +114,7 @@
     The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</t>
       </text>
     </comment>
-    <comment ref="AF4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
+    <comment ref="AD4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
       <text>
         <r>
           <rPr>
@@ -138,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
+    <comment ref="AN4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
       <text>
         <r>
           <rPr>
@@ -171,6 +172,7 @@
   <authors>
     <author>Author</author>
     <author>tc={6BDCD84A-4C3D-403D-98A0-9875F32B2E9E}</author>
+    <author>tc={EA1AD3E2-701C-4C93-81D1-7AF8E9FF30FB}</author>
     <author>tc={F5769092-1632-411C-A719-C700B72F16AC}</author>
     <author>tc={8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}</author>
   </authors>
@@ -207,7 +209,15 @@
     comma separated tier names</t>
       </text>
     </comment>
-    <comment ref="F4" authorId="2" shapeId="0" xr:uid="{F5769092-1632-411C-A719-C700B72F16AC}">
+    <comment ref="H4" authorId="2" shapeId="0" xr:uid="{EA1AD3E2-701C-4C93-81D1-7AF8E9FF30FB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Benefit factor for new services</t>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="3" shapeId="0" xr:uid="{F5769092-1632-411C-A719-C700B72F16AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -215,7 +225,7 @@
     x% reduction of benefit factor</t>
       </text>
     </comment>
-    <comment ref="G4" authorId="3" shapeId="0" xr:uid="{8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}">
+    <comment ref="M4" authorId="4" shapeId="0" xr:uid="{8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -228,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="243">
   <si>
     <t>nsim</t>
   </si>
@@ -419,9 +429,6 @@
     <t>Tiers</t>
   </si>
   <si>
-    <t>singleTier</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -434,9 +441,6 @@
     <t>tier_mode</t>
   </si>
   <si>
-    <t>"miscAll"</t>
-  </si>
-  <si>
     <t>val_name</t>
   </si>
   <si>
@@ -539,9 +543,6 @@
     <t>internal</t>
   </si>
   <si>
-    <t>California Rule</t>
-  </si>
-  <si>
     <t>AL_defrRet_pctALactive</t>
   </si>
   <si>
@@ -569,39 +570,12 @@
     <t>safety</t>
   </si>
   <si>
-    <t>COLA suspension</t>
-  </si>
-  <si>
-    <t>miscAll, 1%bfactor(new), 2%cola</t>
-  </si>
-  <si>
-    <t>miscAll, 1%bfactor(new), 1%cola</t>
-  </si>
-  <si>
-    <t>miscAll, 1%bfactor(new), 1.5%cola</t>
-  </si>
-  <si>
-    <t>miscAll, 2%bfactor, 1%cola</t>
-  </si>
-  <si>
-    <t>miscAll, 2%bfactor, 1.5%cola</t>
-  </si>
-  <si>
-    <t>"sftyAll"</t>
-  </si>
-  <si>
     <t>Calibration</t>
   </si>
   <si>
     <t>Initial terminated members</t>
   </si>
   <si>
-    <t>miscAll, 2%bfactor, 2%cola, current policy</t>
-  </si>
-  <si>
-    <t>sftyAll, 3%bfactor, 2%cola, current policy</t>
-  </si>
-  <si>
     <t>Values on June 30, 2018 (ep18-22)</t>
   </si>
   <si>
@@ -614,138 +588,6 @@
     <t>safety+poff+chp</t>
   </si>
   <si>
-    <t>sftyAll_bf100_cola2</t>
-  </si>
-  <si>
-    <t>sftyAll_bf75_cola2</t>
-  </si>
-  <si>
-    <t>sftyAll_bf100_cola1</t>
-  </si>
-  <si>
-    <t>sftyAll_bf75_cola1</t>
-  </si>
-  <si>
-    <t>sftyAll_bf100_cola1p5</t>
-  </si>
-  <si>
-    <t>sftyAll_bf75_cola1p5</t>
-  </si>
-  <si>
-    <t>miscAll_bf100_cola2</t>
-  </si>
-  <si>
-    <t>miscAll_bf50_cola2</t>
-  </si>
-  <si>
-    <t>miscAll_bf100_cola1</t>
-  </si>
-  <si>
-    <t>miscAll_bf50_cola1</t>
-  </si>
-  <si>
-    <t>miscAll_bf100_cola1p5</t>
-  </si>
-  <si>
-    <t>miscAll_bf50_cola1p5</t>
-  </si>
-  <si>
-    <t>sftyAll_bf50_cola2</t>
-  </si>
-  <si>
-    <t>sftyAll_bf50_cola1</t>
-  </si>
-  <si>
-    <t>sftyAll_bf50_cola1p5</t>
-  </si>
-  <si>
-    <t>sftyAll, 2.25%bfactor(new), 2%cola</t>
-  </si>
-  <si>
-    <t>sftyAll, 1.5%bfactor(new), 2%cola</t>
-  </si>
-  <si>
-    <t>sftyAll, 3%bfactor, 1%cola(cola suspension)</t>
-  </si>
-  <si>
-    <t>sftyAll, 2.25%bfactor(new), 1%cola(cola suspension)</t>
-  </si>
-  <si>
-    <t>sftyAll, 1.5%bfactor(new), 1%cola(cola suspension)</t>
-  </si>
-  <si>
-    <t>sftyAll, 3%bfactor, 1.5%cola(cola suspension)</t>
-  </si>
-  <si>
-    <t>sftyAll, 2.25%bfactor(new), 1.5%cola(cola suspension)</t>
-  </si>
-  <si>
-    <t>sftyAll, 1.5%bfactor(new), 1.5%cola(cola suspension)</t>
-  </si>
-  <si>
-    <t>miscAll_bf75_cola2</t>
-  </si>
-  <si>
-    <t>miscAll_bf75_cola1</t>
-  </si>
-  <si>
-    <t>miscAll_bf75_cola1p5</t>
-  </si>
-  <si>
-    <t>miscAll, 1.5%bfactor(new), 2%cola</t>
-  </si>
-  <si>
-    <t>miscAll, 1.5%bfactor(new), 1%cola</t>
-  </si>
-  <si>
-    <t>miscAll, 1.5%bfactor(new), 1.5%cola</t>
-  </si>
-  <si>
-    <t>miscAll_bf100_cola2_DR5</t>
-  </si>
-  <si>
-    <t>sftyAll_bf100_cola2_DR5</t>
-  </si>
-  <si>
-    <t>miscAll_bf50_cola1_DR5</t>
-  </si>
-  <si>
-    <t>sftyAll_bf50_cola1_DR5</t>
-  </si>
-  <si>
-    <t>miscAll, 2%bfactor, 2%cola, current policy, 5% discount</t>
-  </si>
-  <si>
-    <t>sftyAll, 3%bfactor, 2%cola, current policy, 5% discount</t>
-  </si>
-  <si>
-    <t>miscAll, 1%bfactor(new), 1%cola, 5% discount</t>
-  </si>
-  <si>
-    <t>sftyAll, 1.5%bfactor(new), 1%cola(cola suspension), 5% discount</t>
-  </si>
-  <si>
-    <t>"misc_classic","misc_pepra"</t>
-  </si>
-  <si>
-    <t>misc2t_bf100_cola2</t>
-  </si>
-  <si>
-    <t>misc2t_bf75_cola2</t>
-  </si>
-  <si>
-    <t>misc2t_bf50_cola2</t>
-  </si>
-  <si>
-    <t>Misc 2 tiers, 2%bfactor, 2%cola, current policy</t>
-  </si>
-  <si>
-    <t>Misc 2 tiers, 1.5%bfactor(new), 2%cola</t>
-  </si>
-  <si>
-    <t>Misc 2 tiers, 1%bfactor(new), 2%cola</t>
-  </si>
-  <si>
     <t>All members</t>
   </si>
   <si>
@@ -770,12 +612,6 @@
     <t>cp</t>
   </si>
   <si>
-    <t>ERC_share</t>
-  </si>
-  <si>
-    <t>EEC_share</t>
-  </si>
-  <si>
     <t>EEC_type</t>
   </si>
   <si>
@@ -798,6 +634,9 @@
   </si>
   <si>
     <t>fixedRate</t>
+  </si>
+  <si>
+    <t>sharedNC</t>
   </si>
   <si>
     <t>cola_default</t>
@@ -1313,6 +1152,78 @@
   <si>
     <t>EEC_initSCshare</t>
   </si>
+  <si>
+    <t>pf_pre99</t>
+  </si>
+  <si>
+    <t>pf_measureB</t>
+  </si>
+  <si>
+    <t>Pre99</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation </t>
+  </si>
+  <si>
+    <t>bfactor_newServ</t>
+  </si>
+  <si>
+    <t>policyChg_type</t>
+  </si>
+  <si>
+    <t>pre99</t>
+  </si>
+  <si>
+    <t>measureB</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>year_policyChg</t>
+  </si>
+  <si>
+    <t>ben_maxFAS</t>
+  </si>
+  <si>
+    <t>pf.t1_pre99_lowERC</t>
+  </si>
+  <si>
+    <t>pf.t2_pre99_lowERC</t>
+  </si>
+  <si>
+    <t>pf.t1_pre99_highERC</t>
+  </si>
+  <si>
+    <t>pf.t2_pre99_highERC</t>
+  </si>
+  <si>
+    <t>pf.t1_measureB_lowERC</t>
+  </si>
+  <si>
+    <t>pf.t2_measureB_lowERC</t>
+  </si>
+  <si>
+    <t>pre99 accrual</t>
+  </si>
+  <si>
+    <t>COLA assumption</t>
+  </si>
+  <si>
+    <t>California Rule accrual</t>
+  </si>
+  <si>
+    <t>pf.t1_measureB_highERC</t>
+  </si>
+  <si>
+    <t>pf.t2_measureB_highERC</t>
+  </si>
 </sst>
 </file>
 
@@ -1329,7 +1240,7 @@
     <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1465,8 +1376,29 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1551,6 +1483,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1634,7 +1584,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1707,7 +1657,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1950,6 +1899,77 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="24" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="22" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2378,9 +2398,9 @@
     <text>For SJ P&amp;F tier 2. limit on the change in EEC rate for amortization payment (supplemental cost)</text>
   </threadedComment>
   <threadedComment ref="P4" dT="2021-04-24T15:11:25.51" personId="{00000000-0000-0000-0000-000000000000}" id="{E8C448CD-53B7-490F-9996-9DCA6000100A}">
-    <text>EEC as a % of NC before SJ PF sharedADC policy is applied. Used in year 1</text>
+    <text>EEC as a % of SC before SJ PF sharedADC policy is applied. Used in year 1</text>
   </threadedComment>
-  <threadedComment ref="AB4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+  <threadedComment ref="Z4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
     <text>The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</text>
   </threadedComment>
 </ThreadedComments>
@@ -2391,10 +2411,13 @@
   <threadedComment ref="E4" dT="2020-06-24T14:51:37.17" personId="{00000000-0000-0000-0000-000000000000}" id="{6BDCD84A-4C3D-403D-98A0-9875F32B2E9E}">
     <text>comma separated tier names</text>
   </threadedComment>
-  <threadedComment ref="F4" dT="2020-08-13T20:45:58.44" personId="{00000000-0000-0000-0000-000000000000}" id="{F5769092-1632-411C-A719-C700B72F16AC}">
+  <threadedComment ref="H4" dT="2021-04-24T20:35:22.14" personId="{00000000-0000-0000-0000-000000000000}" id="{EA1AD3E2-701C-4C93-81D1-7AF8E9FF30FB}">
+    <text>Benefit factor for new services</text>
+  </threadedComment>
+  <threadedComment ref="L4" dT="2020-08-13T20:45:58.44" personId="{00000000-0000-0000-0000-000000000000}" id="{F5769092-1632-411C-A719-C700B72F16AC}">
     <text>x% reduction of benefit factor</text>
   </threadedComment>
-  <threadedComment ref="G4" dT="2020-08-13T20:45:58.44" personId="{00000000-0000-0000-0000-000000000000}" id="{8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}">
+  <threadedComment ref="M4" dT="2020-08-13T20:45:58.44" personId="{00000000-0000-0000-0000-000000000000}" id="{8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}">
     <text>x% reduction of benefit factor</text>
   </threadedComment>
 </ThreadedComments>
@@ -2402,27 +2425,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:BB18"/>
+  <dimension ref="A2:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
@@ -2431,295 +2454,286 @@
     <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" customWidth="1"/>
-    <col min="23" max="24" width="12.5703125" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" customWidth="1"/>
-    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" customWidth="1"/>
-    <col min="35" max="35" width="14.85546875" customWidth="1"/>
-    <col min="41" max="41" width="17.42578125" customWidth="1"/>
-    <col min="42" max="42" width="13.7109375" customWidth="1"/>
-    <col min="43" max="44" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="12.42578125" customWidth="1"/>
-    <col min="47" max="47" width="23" customWidth="1"/>
-    <col min="48" max="48" width="16.5703125" customWidth="1"/>
-    <col min="49" max="49" width="12" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.28515625" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" customWidth="1"/>
-    <col min="54" max="54" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" customWidth="1"/>
+    <col min="39" max="39" width="17.42578125" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" customWidth="1"/>
+    <col min="41" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="12.42578125" customWidth="1"/>
+    <col min="45" max="45" width="23" customWidth="1"/>
+    <col min="46" max="46" width="16.5703125" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.28515625" customWidth="1"/>
+    <col min="51" max="51" width="11.42578125" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:54">
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-    </row>
-    <row r="3" spans="1:54" s="18" customFormat="1" ht="18.75">
+    <row r="2" spans="1:52">
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+    </row>
+    <row r="3" spans="1:52" s="18" customFormat="1" ht="18.75">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="13" t="s">
+      <c r="K3" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="13" t="s">
         <v>48</v>
       </c>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="14" t="s">
+      <c r="AA3" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="16" t="s">
+      <c r="AF3" s="16" t="s">
         <v>44</v>
       </c>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
       <c r="AI3" s="16"/>
       <c r="AJ3" s="16"/>
       <c r="AK3" s="16"/>
       <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
       <c r="AP3" s="12"/>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="17" t="s">
+      <c r="AT3" s="17" t="s">
         <v>57</v>
       </c>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
       <c r="AW3" s="17"/>
       <c r="AX3" s="17"/>
       <c r="AY3" s="17"/>
       <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="17"/>
-    </row>
-    <row r="4" spans="1:54" s="135" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="124" t="s">
+    </row>
+    <row r="4" spans="1:52" s="134" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="125" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" s="127" t="s">
+        <v>215</v>
+      </c>
+      <c r="O4" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="P4" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="127" t="s">
+        <v>217</v>
+      </c>
+      <c r="R4" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="128" t="s">
+        <v>213</v>
+      </c>
+      <c r="T4" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="U4" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="V4" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="W4" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="129" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="130" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="130" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG4" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ4" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL4" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM4" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN4" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO4" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP4" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ4" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR4" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS4" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT4" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU4" s="132" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV4" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW4" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX4" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY4" s="132" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ4" s="133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="125" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="126" t="s">
-        <v>173</v>
-      </c>
-      <c r="J4" s="126" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="127" t="s">
-        <v>182</v>
-      </c>
-      <c r="L4" s="128" t="s">
-        <v>188</v>
-      </c>
-      <c r="M4" s="128" t="s">
-        <v>271</v>
-      </c>
-      <c r="N4" s="128" t="s">
-        <v>272</v>
-      </c>
-      <c r="O4" s="128" t="s">
-        <v>273</v>
-      </c>
-      <c r="P4" s="128" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q4" s="128" t="s">
-        <v>274</v>
-      </c>
-      <c r="R4" s="127" t="s">
-        <v>184</v>
-      </c>
-      <c r="S4" s="129" t="s">
-        <v>270</v>
-      </c>
-      <c r="T4" s="128" t="s">
-        <v>185</v>
-      </c>
-      <c r="U4" s="128" t="s">
-        <v>186</v>
-      </c>
-      <c r="V4" s="128" t="s">
-        <v>190</v>
-      </c>
-      <c r="W4" s="128" t="s">
-        <v>180</v>
-      </c>
-      <c r="X4" s="128" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y4" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA4" s="130" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="131" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE4" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH4" s="125" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI4" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ4" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK4" s="125" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL4" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM4" s="125" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN4" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO4" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP4" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ4" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR4" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS4" s="132" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT4" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU4" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV4" s="133" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW4" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX4" s="133" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY4" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="AZ4" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA4" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB4" s="134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54">
-      <c r="A5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
@@ -2730,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="L5">
         <v>0.11</v>
@@ -2739,21 +2753,21 @@
         <f>3/11</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="49">
         <v>0.5</v>
       </c>
       <c r="O5" s="4">
         <f>1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P5" s="136">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="50">
+      <c r="P5" s="135">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="49">
         <v>0.5</v>
       </c>
       <c r="R5" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -2762,120 +2776,114 @@
         <v>0.03</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="V5">
-        <v>0.03</v>
-      </c>
-      <c r="W5">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X5">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X5" t="s">
         <v>35</v>
       </c>
+      <c r="Y5">
+        <v>15</v>
+      </c>
+      <c r="Z5">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="AA5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AB5">
+        <v>1.2</v>
+      </c>
+      <c r="AC5">
+        <v>0.8</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH5">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI5">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC5">
-        <v>5</v>
-      </c>
-      <c r="AD5">
-        <v>1.2</v>
-      </c>
-      <c r="AE5">
-        <v>0.8</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ5">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AK5">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AM5" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN5" s="34">
+      <c r="AL5" s="34">
         <v>123</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AM5" t="s">
         <v>31</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AN5" t="s">
         <v>31</v>
       </c>
-      <c r="AQ5" s="20">
+      <c r="AO5" s="20">
         <v>0.7</v>
       </c>
-      <c r="AR5" s="20">
+      <c r="AP5" s="20">
         <v>0.7</v>
       </c>
-      <c r="AU5" s="39">
-        <v>0</v>
+      <c r="AS5" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="b">
+        <v>1</v>
       </c>
       <c r="AV5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
         <v>3</v>
       </c>
-      <c r="BA5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54">
+      <c r="AY5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -2887,30 +2895,30 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="L6">
         <v>0.11</v>
       </c>
       <c r="M6" s="20">
-        <f t="shared" ref="M6:M18" si="0">3/11</f>
+        <f t="shared" ref="M6:M44" si="0">3/11</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="49">
         <v>0.5</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" ref="O6:O18" si="1">1/300</f>
+        <f t="shared" ref="O6:O44" si="1">1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P6" s="136">
+      <c r="P6" s="135">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="49">
         <v>0.5</v>
       </c>
       <c r="R6" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -2919,134 +2927,128 @@
         <v>0.02</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V6">
-        <v>0.02</v>
-      </c>
-      <c r="W6">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X6">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>123</v>
+      </c>
+      <c r="X6" t="s">
         <v>35</v>
       </c>
+      <c r="Y6">
+        <v>15</v>
+      </c>
+      <c r="Z6">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="AA6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AB6">
+        <v>1.2</v>
+      </c>
+      <c r="AC6">
+        <v>0.8</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH6">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI6">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK6" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC6">
-        <v>5</v>
-      </c>
-      <c r="AD6">
-        <v>1.2</v>
-      </c>
-      <c r="AE6">
-        <v>0.8</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ6">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AK6">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AM6" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN6" s="34">
+      <c r="AL6" s="34">
         <v>123</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AM6" t="s">
         <v>31</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AN6" t="s">
         <v>31</v>
       </c>
-      <c r="AQ6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="39">
-        <v>0</v>
+      <c r="AO6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="b">
+        <v>1</v>
       </c>
       <c r="AV6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="s">
         <v>3</v>
       </c>
-      <c r="BA6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54">
+      <c r="AY6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
       <c r="M7" s="20"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="50"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="34"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AU7" s="39"/>
-      <c r="BB7" s="19"/>
-    </row>
-    <row r="8" spans="1:54">
+      <c r="P7" s="135"/>
+      <c r="Q7" s="49"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="34"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AS7" s="39"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="8" spans="1:52">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -3058,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="L8">
         <v>0.11</v>
@@ -3067,21 +3069,21 @@
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="49">
         <v>0.5</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P8" s="136">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="50">
+      <c r="P8" s="135">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="49">
         <v>0.5</v>
       </c>
       <c r="R8" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -3090,120 +3092,114 @@
         <v>0.03</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="V8">
-        <v>0.03</v>
-      </c>
-      <c r="W8">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X8">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>123</v>
+      </c>
+      <c r="X8" t="s">
         <v>35</v>
       </c>
+      <c r="Y8">
+        <v>15</v>
+      </c>
+      <c r="Z8">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="AA8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AB8">
+        <v>1.2</v>
+      </c>
+      <c r="AC8">
+        <v>0.8</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH8">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI8">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK8" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC8">
-        <v>5</v>
-      </c>
-      <c r="AD8">
-        <v>1.2</v>
-      </c>
-      <c r="AE8">
-        <v>0.8</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AL8" s="34">
+        <v>123</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO8" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="AP8" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="AS8" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" t="s">
         <v>191</v>
       </c>
-      <c r="AG8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ8">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AK8">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AM8" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN8" s="34">
-        <v>123</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="AR8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="AU8" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:54">
-      <c r="A9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" t="s">
-        <v>248</v>
-      </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -3215,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="L9">
         <v>0.11</v>
@@ -3224,21 +3220,21 @@
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N9" s="50">
+      <c r="N9" s="49">
         <v>0.5</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P9" s="136">
+      <c r="P9" s="135">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="49">
         <v>0.5</v>
       </c>
       <c r="R9" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -3247,1096 +3243,2517 @@
         <v>0.02</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V9">
-        <v>0.02</v>
-      </c>
-      <c r="W9">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X9">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>123</v>
+      </c>
+      <c r="X9" t="s">
         <v>35</v>
       </c>
+      <c r="Y9">
+        <v>15</v>
+      </c>
+      <c r="Z9">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="AA9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AB9">
+        <v>1.2</v>
+      </c>
+      <c r="AC9">
+        <v>0.8</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI9">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK9" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC9">
-        <v>5</v>
-      </c>
-      <c r="AD9">
-        <v>1.2</v>
-      </c>
-      <c r="AE9">
-        <v>0.8</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ9">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AK9">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AM9" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN9" s="34">
+      <c r="AL9" s="34">
         <v>123</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AM9" t="s">
         <v>31</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AN9" t="s">
         <v>31</v>
       </c>
-      <c r="AQ9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="39">
-        <v>0</v>
+      <c r="AO9" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="20">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="b">
+        <v>1</v>
       </c>
       <c r="AV9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="s">
         <v>3</v>
       </c>
-      <c r="BA9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB9" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54">
+      <c r="AY9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
       <c r="M10" s="20"/>
-      <c r="N10" s="50"/>
+      <c r="N10" s="49"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="136"/>
-      <c r="Q10" s="50"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="34"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AU10" s="39"/>
-      <c r="BB10" s="19"/>
-    </row>
-    <row r="11" spans="1:54">
-      <c r="A11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>183</v>
-      </c>
-      <c r="L11">
+      <c r="P10" s="135"/>
+      <c r="Q10" s="49"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="34"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AS10" s="39"/>
+      <c r="AZ10" s="19"/>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="M11" s="20"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="49"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="34"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AS11" s="39"/>
+      <c r="AZ11" s="19"/>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="M12" s="20"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="49"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="34"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AS12" s="39"/>
+      <c r="AZ12" s="19"/>
+    </row>
+    <row r="13" spans="1:52" s="138" customFormat="1">
+      <c r="A13" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="138">
         <v>0.11</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M13" s="142">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N11" s="50">
+      <c r="N13" s="143">
         <v>0.5</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O13" s="144">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P11" s="136">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="50">
+      <c r="P13" s="145">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="143">
         <v>0.5</v>
       </c>
-      <c r="R11" t="s">
-        <v>187</v>
-      </c>
-      <c r="S11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11">
+      <c r="R13" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="S13" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="138">
         <v>0.03</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
+      <c r="U13" s="138">
         <v>0.03</v>
       </c>
-      <c r="W11">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X11">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="V13" s="138">
+        <v>0</v>
+      </c>
+      <c r="W13" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="AA11">
+      <c r="Y13" s="138">
         <v>15</v>
       </c>
-      <c r="AB11">
+      <c r="Z13" s="138">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC11">
+      <c r="AA13" s="138">
         <v>5</v>
       </c>
-      <c r="AD11">
+      <c r="AB13" s="138">
         <v>1.2</v>
       </c>
-      <c r="AE11">
+      <c r="AC13" s="138">
         <v>0.8</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AD13" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE13" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG13" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH13" s="138">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI13" s="138">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ13" s="146">
+        <v>0.12</v>
+      </c>
+      <c r="AK13" s="147">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL13" s="148">
+        <v>123</v>
+      </c>
+      <c r="AM13" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN13" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO13" s="142">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AP13" s="142">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AS13" s="139">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="138">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY13" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" s="138" customFormat="1">
+      <c r="A14" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="138" t="s">
         <v>191</v>
       </c>
-      <c r="AG11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ11">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AK11">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AM11" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN11" s="34">
-        <v>123</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ11" s="20">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AR11" s="20">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AU11" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:54">
-      <c r="A12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>183</v>
-      </c>
-      <c r="L12">
+      <c r="F14" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="138">
         <v>0.11</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M14" s="142">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N14" s="143">
         <v>0.5</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O14" s="144">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P12" s="136">
+      <c r="P14" s="145">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q14" s="143">
         <v>0.5</v>
       </c>
-      <c r="R12" t="s">
-        <v>187</v>
-      </c>
-      <c r="S12" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12">
+      <c r="R14" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="S14" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" s="138">
         <v>0.02</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="U14" s="138">
         <v>0.02</v>
       </c>
-      <c r="W12">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X12">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="V14" s="138">
+        <v>0</v>
+      </c>
+      <c r="W14" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="X14" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="AA12">
+      <c r="Y14" s="138">
         <v>15</v>
       </c>
-      <c r="AB12">
+      <c r="Z14" s="138">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC12">
+      <c r="AA14" s="138">
         <v>5</v>
       </c>
-      <c r="AD12">
+      <c r="AB14" s="138">
         <v>1.2</v>
       </c>
-      <c r="AE12">
+      <c r="AC14" s="138">
         <v>0.8</v>
       </c>
-      <c r="AF12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AD14" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE14" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="AJ12">
+      <c r="AH14" s="138">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AK12">
+      <c r="AI14" s="138">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AJ14" s="146">
         <v>0.12</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AK14" s="147">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AN12" s="34">
+      <c r="AL14" s="148">
         <v>123</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AM14" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AN14" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="AQ12" s="20">
+      <c r="AO14" s="142">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AR12" s="20">
+      <c r="AP14" s="142">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AU12" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="s">
+      <c r="AS14" s="139">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="138">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="BA12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54">
-      <c r="M13" s="20"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="50"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="34"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AU13" s="39"/>
-      <c r="BB13" s="19"/>
-    </row>
-    <row r="14" spans="1:54">
-      <c r="A14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>259</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="AY14" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="C15" s="138"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="49"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="34"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AS15" s="39"/>
+      <c r="AZ15" s="19"/>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="C16" s="138"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="49"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="34"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AS16" s="39"/>
+      <c r="AZ16" s="19"/>
+    </row>
+    <row r="17" spans="1:52" s="150" customFormat="1">
+      <c r="A17" s="150" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="150" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="L14">
+      <c r="F17" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="150" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="150">
         <v>0.11</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M17" s="152">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N14" s="50">
+      <c r="N17" s="153">
         <v>0.5</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O17" s="154">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P14" s="136">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="50">
+      <c r="P17" s="155">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="153">
         <v>0.5</v>
       </c>
-      <c r="R14" t="s">
-        <v>187</v>
-      </c>
-      <c r="S14" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="R17" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="151">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U17" s="150">
         <v>0.03</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0.03</v>
-      </c>
-      <c r="W14">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X14">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="V17" s="150">
+        <v>0</v>
+      </c>
+      <c r="W17" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="X17" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="AA14">
+      <c r="Y17" s="150">
         <v>15</v>
       </c>
-      <c r="AB14">
+      <c r="Z17" s="150">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC14">
+      <c r="AA17" s="150">
         <v>5</v>
       </c>
-      <c r="AD14">
+      <c r="AB17" s="150">
         <v>1.2</v>
       </c>
-      <c r="AE14">
+      <c r="AC17" s="150">
         <v>0.8</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AD17" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE17" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH17" s="150">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI17" s="150">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ17" s="156">
+        <v>0.12</v>
+      </c>
+      <c r="AK17" s="157">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL17" s="158">
+        <v>123</v>
+      </c>
+      <c r="AM17" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN17" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO17" s="159">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AP17" s="159">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AS17" s="160">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="150">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY17" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" s="150" customFormat="1">
+      <c r="A18" s="150" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="150" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="150" t="s">
         <v>191</v>
       </c>
-      <c r="AG14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ14">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AK14">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AM14" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN14" s="34">
-        <v>123</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ14" s="20">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AR14" s="20">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AU14" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB14" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54">
-      <c r="A15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>255</v>
-      </c>
-      <c r="E15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>261</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>189</v>
-      </c>
-      <c r="L15">
+      <c r="F18" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="150" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="150">
         <v>0.11</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M18" s="159">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N15" s="50">
+      <c r="N18" s="162">
         <v>0.5</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O18" s="163">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P15" s="136">
+      <c r="P18" s="164">
         <v>0.5</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q18" s="162">
         <v>0.5</v>
       </c>
-      <c r="R15" t="s">
-        <v>187</v>
-      </c>
-      <c r="S15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="R18" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="S18" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="151">
         <v>0.02</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
+      <c r="U18" s="150">
         <v>0.02</v>
       </c>
-      <c r="W15">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X15">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z15" t="s">
+      <c r="V18" s="150">
+        <v>0</v>
+      </c>
+      <c r="W18" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="X18" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="AA15">
+      <c r="Y18" s="150">
         <v>15</v>
       </c>
-      <c r="AB15">
+      <c r="Z18" s="150">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC15">
+      <c r="AA18" s="150">
         <v>5</v>
       </c>
-      <c r="AD15">
+      <c r="AB18" s="150">
         <v>1.2</v>
       </c>
-      <c r="AE15">
+      <c r="AC18" s="150">
         <v>0.8</v>
       </c>
-      <c r="AF15" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AD18" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE18" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG18" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="AJ15">
+      <c r="AH18" s="150">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AK15">
+      <c r="AI18" s="150">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AJ18" s="156">
         <v>0.12</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AK18" s="157">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AN15" s="34">
+      <c r="AL18" s="158">
         <v>123</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AM18" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AN18" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="AQ15" s="20">
+      <c r="AO18" s="159">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AR15" s="20">
+      <c r="AP18" s="159">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AU15" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="s">
+      <c r="AS18" s="160">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="150">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="BA15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB15" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54">
-      <c r="M16" s="20"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="50"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="34"/>
-      <c r="AQ16" s="20"/>
-      <c r="AR16" s="20"/>
-      <c r="AU16" s="39"/>
-      <c r="BB16" s="19"/>
-    </row>
-    <row r="17" spans="1:54">
-      <c r="A17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>256</v>
-      </c>
-      <c r="E17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>259</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="AY18" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" s="150" customFormat="1">
+      <c r="C19" s="138"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="153"/>
+      <c r="AJ19" s="156"/>
+      <c r="AK19" s="157"/>
+      <c r="AL19" s="158"/>
+      <c r="AO19" s="159"/>
+      <c r="AP19" s="159"/>
+      <c r="AS19" s="160"/>
+      <c r="AZ19" s="161"/>
+    </row>
+    <row r="20" spans="1:52" s="150" customFormat="1">
+      <c r="A20" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="150" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="L17">
+      <c r="F20" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="150" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="150">
         <v>0.11</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M20" s="152">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N17" s="50">
+      <c r="N20" s="153">
         <v>0.5</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O20" s="154">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P17" s="136">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="50">
+      <c r="P20" s="155">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="153">
         <v>0.5</v>
       </c>
-      <c r="R17" t="s">
-        <v>187</v>
-      </c>
-      <c r="S17" t="b">
-        <v>1</v>
-      </c>
-      <c r="T17">
+      <c r="R20" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="S20" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="151">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U20" s="150">
         <v>0.03</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0.03</v>
-      </c>
-      <c r="W17">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X17">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="V20" s="150">
+        <v>0</v>
+      </c>
+      <c r="W20" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="X20" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="AA17">
+      <c r="Y20" s="150">
         <v>15</v>
       </c>
-      <c r="AB17">
+      <c r="Z20" s="150">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AA20" s="150">
         <v>5</v>
       </c>
-      <c r="AD17">
+      <c r="AB20" s="150">
         <v>1.2</v>
       </c>
-      <c r="AE17">
+      <c r="AC20" s="150">
         <v>0.8</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AD20" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE20" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG20" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH20" s="150">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI20" s="150">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ20" s="156">
+        <v>0.12</v>
+      </c>
+      <c r="AK20" s="157">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL20" s="158">
+        <v>123</v>
+      </c>
+      <c r="AM20" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN20" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO20" s="159">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AP20" s="159">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AS20" s="160">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="150">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY20" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" s="150" customFormat="1">
+      <c r="A21" s="150" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="150" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="150" t="s">
         <v>191</v>
       </c>
-      <c r="AG17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ17">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AK17">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AM17" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN17" s="34">
-        <v>123</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ17" s="20">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AR17" s="20">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AU17" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54">
-      <c r="A18" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>261</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>189</v>
-      </c>
-      <c r="L18">
+      <c r="F21" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="150" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="150">
         <v>0.11</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M21" s="159">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N21" s="162">
         <v>0.5</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O21" s="163">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P18" s="136">
+      <c r="P21" s="164">
         <v>0.5</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q21" s="162">
         <v>0.5</v>
       </c>
-      <c r="R18" t="s">
-        <v>187</v>
-      </c>
-      <c r="S18" t="b">
-        <v>1</v>
-      </c>
-      <c r="T18">
+      <c r="R21" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="S21" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="151">
         <v>0.02</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
+      <c r="U21" s="150">
         <v>0.02</v>
       </c>
-      <c r="W18">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X18">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z18" t="s">
+      <c r="V21" s="150">
+        <v>0</v>
+      </c>
+      <c r="W21" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="X21" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="AA18">
+      <c r="Y21" s="150">
         <v>15</v>
       </c>
-      <c r="AB18">
+      <c r="Z21" s="150">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC18">
+      <c r="AA21" s="150">
         <v>5</v>
       </c>
-      <c r="AD18">
+      <c r="AB21" s="150">
         <v>1.2</v>
       </c>
-      <c r="AE18">
+      <c r="AC21" s="150">
         <v>0.8</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AD21" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE21" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG21" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH21" s="150">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI21" s="150">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ21" s="156">
+        <v>0.12</v>
+      </c>
+      <c r="AK21" s="157">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL21" s="158">
+        <v>123</v>
+      </c>
+      <c r="AM21" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN21" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO21" s="159">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AP21" s="159">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AS21" s="160">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="150">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY21" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="M22" s="20"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="49"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="34"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AS22" s="39"/>
+      <c r="AZ22" s="19"/>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="M23" s="20"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="49"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="34"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AS23" s="39"/>
+      <c r="AZ23" s="19"/>
+    </row>
+    <row r="24" spans="1:52" s="165" customFormat="1">
+      <c r="A24" s="165" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="165" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="165" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="165" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="165">
+        <v>0.11</v>
+      </c>
+      <c r="M24" s="168">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N24" s="169">
+        <v>0.5</v>
+      </c>
+      <c r="O24" s="170">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P24" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="169">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="S24" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" s="166">
+        <v>0</v>
+      </c>
+      <c r="U24" s="165">
+        <v>0.03</v>
+      </c>
+      <c r="V24" s="165">
+        <v>0</v>
+      </c>
+      <c r="W24" s="165" t="s">
+        <v>123</v>
+      </c>
+      <c r="X24" s="165" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y24" s="165">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="165">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA24" s="165">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="165">
+        <v>1.2</v>
+      </c>
+      <c r="AC24" s="165">
+        <v>0.8</v>
+      </c>
+      <c r="AD24" s="165" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE24" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="165" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH24" s="165">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI24" s="165">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ24" s="172">
+        <v>0.12</v>
+      </c>
+      <c r="AK24" s="173">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL24" s="174">
+        <v>123</v>
+      </c>
+      <c r="AM24" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN24" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO24" s="168">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AP24" s="168">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AS24" s="175">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="165">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY24" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" s="165" customFormat="1">
+      <c r="A25" s="165" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="165" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="165" t="s">
         <v>191</v>
       </c>
-      <c r="AG18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI18" t="s">
+      <c r="F25" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="165" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="166" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="165">
+        <v>0.11</v>
+      </c>
+      <c r="M25" s="168">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N25" s="169">
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="170">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P25" s="177">
+        <v>0.5</v>
+      </c>
+      <c r="Q25" s="169">
+        <v>0.5</v>
+      </c>
+      <c r="R25" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="S25" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="166">
+        <v>0</v>
+      </c>
+      <c r="U25" s="165">
+        <v>0.02</v>
+      </c>
+      <c r="V25" s="165">
+        <v>0</v>
+      </c>
+      <c r="W25" s="165" t="s">
+        <v>123</v>
+      </c>
+      <c r="X25" s="165" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y25" s="165">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="165">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA25" s="165">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="165">
+        <v>1.2</v>
+      </c>
+      <c r="AC25" s="165">
+        <v>0.8</v>
+      </c>
+      <c r="AD25" s="165" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE25" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="165" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG25" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="AJ18">
+      <c r="AH25" s="165">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AK18">
+      <c r="AI25" s="165">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AJ25" s="172">
         <v>0.12</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AK25" s="173">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AN18" s="34">
+      <c r="AL25" s="174">
         <v>123</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AM25" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AN25" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="AQ18" s="20">
+      <c r="AO25" s="168">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AR18" s="20">
+      <c r="AP25" s="168">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AU18" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="s">
+      <c r="AS25" s="175">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="165">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="BA18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB18" s="19" t="b">
+      <c r="AY25" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" s="165" customFormat="1">
+      <c r="M26" s="168"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="179"/>
+      <c r="P26" s="180"/>
+      <c r="Q26" s="178"/>
+      <c r="AJ26" s="172"/>
+      <c r="AK26" s="173"/>
+      <c r="AL26" s="174"/>
+      <c r="AO26" s="168"/>
+      <c r="AP26" s="168"/>
+      <c r="AS26" s="175"/>
+      <c r="AZ26" s="176"/>
+    </row>
+    <row r="27" spans="1:52" s="165" customFormat="1">
+      <c r="A27" s="165" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="165" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="165" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="165" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="166" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="165">
+        <v>0.11</v>
+      </c>
+      <c r="M27" s="168">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N27" s="169">
+        <v>0.5</v>
+      </c>
+      <c r="O27" s="170">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P27" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="169">
+        <v>0.5</v>
+      </c>
+      <c r="R27" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="S27" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" s="166">
+        <v>0</v>
+      </c>
+      <c r="U27" s="165">
+        <v>0.03</v>
+      </c>
+      <c r="V27" s="165">
+        <v>0</v>
+      </c>
+      <c r="W27" s="165" t="s">
+        <v>123</v>
+      </c>
+      <c r="X27" s="165" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y27" s="165">
+        <v>15</v>
+      </c>
+      <c r="Z27" s="165">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA27" s="165">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="165">
+        <v>1.2</v>
+      </c>
+      <c r="AC27" s="165">
+        <v>0.8</v>
+      </c>
+      <c r="AD27" s="165" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE27" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="165" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG27" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH27" s="165">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI27" s="165">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ27" s="172">
+        <v>0.12</v>
+      </c>
+      <c r="AK27" s="173">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL27" s="174">
+        <v>123</v>
+      </c>
+      <c r="AM27" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN27" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO27" s="168">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AP27" s="168">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AS27" s="175">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="165">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY27" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" s="165" customFormat="1">
+      <c r="A28" s="165" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="165" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="165" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="165" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="166" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="166" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="165">
+        <v>0.11</v>
+      </c>
+      <c r="M28" s="168">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N28" s="169">
+        <v>0.5</v>
+      </c>
+      <c r="O28" s="170">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P28" s="177">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="169">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="S28" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" s="166">
+        <v>0</v>
+      </c>
+      <c r="U28" s="165">
+        <v>0.02</v>
+      </c>
+      <c r="V28" s="165">
+        <v>0</v>
+      </c>
+      <c r="W28" s="165" t="s">
+        <v>123</v>
+      </c>
+      <c r="X28" s="165" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y28" s="165">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="165">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA28" s="165">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="165">
+        <v>1.2</v>
+      </c>
+      <c r="AC28" s="165">
+        <v>0.8</v>
+      </c>
+      <c r="AD28" s="165" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE28" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="165" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG28" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH28" s="165">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI28" s="165">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ28" s="172">
+        <v>0.12</v>
+      </c>
+      <c r="AK28" s="173">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL28" s="174">
+        <v>123</v>
+      </c>
+      <c r="AM28" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN28" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO28" s="168">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AP28" s="168">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AS28" s="175">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="165">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY28" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="M29" s="20"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="49"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="34"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AS29" s="39"/>
+      <c r="AZ29" s="19"/>
+    </row>
+    <row r="30" spans="1:52">
+      <c r="M30" s="20"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="49"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="34"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AS30" s="39"/>
+      <c r="AZ30" s="19"/>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="M31" s="20"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="49"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="34"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AS31" s="39"/>
+      <c r="AZ31" s="19"/>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="M32" s="20"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="49"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="34"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AS32" s="39"/>
+      <c r="AZ32" s="19"/>
+    </row>
+    <row r="33" spans="1:52">
+      <c r="M33" s="20"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="49"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="34"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="20"/>
+      <c r="AS33" s="39"/>
+      <c r="AZ33" s="19"/>
+    </row>
+    <row r="34" spans="1:52">
+      <c r="M34" s="20"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="49"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="34"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AS34" s="39"/>
+      <c r="AZ34" s="19"/>
+    </row>
+    <row r="35" spans="1:52">
+      <c r="M35" s="20"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="135"/>
+      <c r="Q35" s="49"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="34"/>
+      <c r="AO35" s="20"/>
+      <c r="AP35" s="20"/>
+      <c r="AS35" s="39"/>
+      <c r="AZ35" s="19"/>
+    </row>
+    <row r="36" spans="1:52">
+      <c r="M36" s="20"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="135"/>
+      <c r="Q36" s="49"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="34"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AS36" s="39"/>
+      <c r="AZ36" s="19"/>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="M37" s="20"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="49"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="34"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AS37" s="39"/>
+      <c r="AZ37" s="19"/>
+    </row>
+    <row r="38" spans="1:52">
+      <c r="M38" s="20"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="135"/>
+      <c r="Q38" s="49"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="34"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AS38" s="39"/>
+      <c r="AZ38" s="19"/>
+    </row>
+    <row r="39" spans="1:52">
+      <c r="M39" s="20"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="135"/>
+      <c r="Q39" s="49"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="34"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AS39" s="39"/>
+      <c r="AZ39" s="19"/>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40">
+        <v>0.11</v>
+      </c>
+      <c r="M40" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N40" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P40" s="135">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="R40" t="s">
+        <v>129</v>
+      </c>
+      <c r="S40" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0.03</v>
+      </c>
+      <c r="U40">
+        <v>0.03</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>123</v>
+      </c>
+      <c r="X40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y40">
+        <v>15</v>
+      </c>
+      <c r="Z40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA40">
+        <v>5</v>
+      </c>
+      <c r="AB40">
+        <v>1.2</v>
+      </c>
+      <c r="AC40">
+        <v>0.8</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH40">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI40">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK40" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL40" s="34">
+        <v>123</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO40" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AP40" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AS40" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>131</v>
+      </c>
+      <c r="L41">
+        <v>0.11</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N41" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P41" s="135">
+        <v>0.5</v>
+      </c>
+      <c r="Q41" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="R41" t="s">
+        <v>129</v>
+      </c>
+      <c r="S41" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0.02</v>
+      </c>
+      <c r="U41">
+        <v>0.02</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>123</v>
+      </c>
+      <c r="X41" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y41">
+        <v>15</v>
+      </c>
+      <c r="Z41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA41">
+        <v>5</v>
+      </c>
+      <c r="AB41">
+        <v>1.2</v>
+      </c>
+      <c r="AC41">
+        <v>0.8</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH41">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI41">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK41" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL41" s="34">
+        <v>123</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO41" s="20">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AP41" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AS41" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="M42" s="20"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="135"/>
+      <c r="Q42" s="49"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="34"/>
+      <c r="AO42" s="20"/>
+      <c r="AP42" s="20"/>
+      <c r="AS42" s="39"/>
+      <c r="AZ42" s="19"/>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>131</v>
+      </c>
+      <c r="L43">
+        <v>0.11</v>
+      </c>
+      <c r="M43" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N43" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P43" s="135">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="R43" t="s">
+        <v>129</v>
+      </c>
+      <c r="S43" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>0.03</v>
+      </c>
+      <c r="U43">
+        <v>0.03</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>123</v>
+      </c>
+      <c r="X43" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y43">
+        <v>15</v>
+      </c>
+      <c r="Z43">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA43">
+        <v>5</v>
+      </c>
+      <c r="AB43">
+        <v>1.2</v>
+      </c>
+      <c r="AC43">
+        <v>0.8</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH43">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI43">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK43" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL43" s="34">
+        <v>123</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO43" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AP43" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AS43" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>131</v>
+      </c>
+      <c r="L44">
+        <v>0.11</v>
+      </c>
+      <c r="M44" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N44" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="P44" s="135">
+        <v>0.5</v>
+      </c>
+      <c r="Q44" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="R44" t="s">
+        <v>129</v>
+      </c>
+      <c r="S44" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>0.02</v>
+      </c>
+      <c r="U44">
+        <v>0.02</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>123</v>
+      </c>
+      <c r="X44" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y44">
+        <v>15</v>
+      </c>
+      <c r="Z44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA44">
+        <v>5</v>
+      </c>
+      <c r="AB44">
+        <v>1.2</v>
+      </c>
+      <c r="AC44">
+        <v>0.8</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH44">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI44">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK44" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL44" s="34">
+        <v>123</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO44" s="20">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AP44" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AS44" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="19" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:AX18 C5:C18" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU5:AV44 C5:C44" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH5:AH18" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AF44" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K18" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K44" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
       <formula1>"fixedRate, sharedNC, sharedADC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4363,15 +5780,15 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -4382,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -4393,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -4404,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4413,85 +5830,124 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902A1A61-E5B1-49A8-A09E-CAB028E7EE88}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
-  <dimension ref="A3:W65"/>
+  <dimension ref="A3:AA28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="14" width="17.42578125" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" customWidth="1"/>
-    <col min="24" max="24" width="25.140625" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" customWidth="1"/>
+    <col min="28" max="28" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" s="18" customFormat="1" ht="18.75">
+    <row r="3" spans="1:27" s="18" customFormat="1" ht="18.75">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="E3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="12" t="s">
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="S3" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="U3" s="16"/>
+      <c r="V3" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="W3" s="12"/>
-    </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -4500,1936 +5956,684 @@
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="122" t="s">
-        <v>250</v>
-      </c>
-      <c r="G4" s="122" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="122" t="s">
-        <v>252</v>
-      </c>
-      <c r="J4" s="122" t="s">
-        <v>253</v>
-      </c>
-      <c r="K4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="137" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="137" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="121" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="121" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="38" t="s">
+      <c r="R4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>240</v>
+      <c r="U4" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>184</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5">
+        <v>135</v>
+      </c>
+      <c r="L5">
         <v>0.5</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>0.5</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <v>2021</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>61</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="39">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="39">
         <v>0.11</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>1.05</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>1.4</v>
       </c>
-      <c r="V5">
+      <c r="Z5">
         <v>0.8</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6">
+        <v>186</v>
+      </c>
+      <c r="L6">
         <v>0.5</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>0.5</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <v>2021</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>61</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>0.1</v>
       </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6">
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="39">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="39">
         <v>0.11</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
       <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+        <v>190</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>2021</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>61</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="39">
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="39">
         <v>0.11</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
       <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8">
+        <v>190</v>
+      </c>
+      <c r="L8">
         <v>0.5</v>
       </c>
-      <c r="G8">
+      <c r="M8">
         <v>0.5</v>
       </c>
-      <c r="H8">
+      <c r="N8">
         <v>2021</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>61</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="39">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="39">
         <v>0.11</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
       <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="Q9" s="39"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="Q10" s="39"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="Q11" s="39"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="Q12" s="39"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>2020</v>
-      </c>
-      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="U9" s="39"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="U10" s="39"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="U11" s="39"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="U12" s="39"/>
+    </row>
+    <row r="13" spans="1:27" s="138" customFormat="1">
+      <c r="A13" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="138">
+        <v>0</v>
+      </c>
+      <c r="M13" s="138">
+        <v>0</v>
+      </c>
+      <c r="N13" s="138">
+        <v>2021</v>
+      </c>
+      <c r="O13" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="L13">
+      <c r="P13" s="138">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13">
+      <c r="Q13" s="138">
+        <v>0</v>
+      </c>
+      <c r="R13" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" s="138">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="39">
+      <c r="T13" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="139">
         <v>0.11</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14">
+      <c r="V13" s="138">
+        <v>0</v>
+      </c>
+      <c r="X13" s="138">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="138">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="138">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="138" customFormat="1">
+      <c r="U14" s="139"/>
+    </row>
+    <row r="15" spans="1:27" s="138" customFormat="1">
+      <c r="U15" s="139"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="U16" s="39"/>
+    </row>
+    <row r="17" spans="1:27" s="138" customFormat="1">
+      <c r="A17" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="140" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="140">
+        <v>2021</v>
+      </c>
+      <c r="H17" s="140">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I17" s="140">
+        <v>0.75</v>
+      </c>
+      <c r="J17" s="140">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K17" s="140">
+        <v>0.02</v>
+      </c>
+      <c r="L17" s="138">
+        <v>0</v>
+      </c>
+      <c r="M17" s="138">
+        <v>0</v>
+      </c>
+      <c r="N17" s="138">
+        <v>2021</v>
+      </c>
+      <c r="O17" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="138">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="Q17" s="138">
+        <v>0</v>
+      </c>
+      <c r="R17" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" s="138">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="T17" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="139">
+        <v>0.11</v>
+      </c>
+      <c r="V17" s="138">
+        <v>0</v>
+      </c>
+      <c r="X17" s="138">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="138">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="138">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="138" customFormat="1">
+      <c r="A18" s="138" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="140" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="141">
+        <v>2021</v>
+      </c>
+      <c r="J18" s="140">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K18" s="140">
+        <v>0.02</v>
+      </c>
+      <c r="L18" s="138">
+        <v>0</v>
+      </c>
+      <c r="M18" s="138">
+        <v>0</v>
+      </c>
+      <c r="N18" s="138">
+        <v>2021</v>
+      </c>
+      <c r="O18" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="138">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="Q18" s="138">
+        <v>0</v>
+      </c>
+      <c r="R18" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" s="138">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="T18" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" s="139">
+        <v>0.11</v>
+      </c>
+      <c r="V18" s="138">
+        <v>0</v>
+      </c>
+      <c r="X18" s="138">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="138">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="138">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="U19" s="39"/>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="U20" s="39"/>
+    </row>
+    <row r="21" spans="1:27" s="138" customFormat="1">
+      <c r="A21" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="138">
+        <v>2021</v>
+      </c>
+      <c r="L21" s="138">
         <v>0.5</v>
       </c>
-      <c r="G14">
+      <c r="M21" s="138">
         <v>0.5</v>
       </c>
-      <c r="H14">
-        <v>2020</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="N21" s="138">
+        <v>2021</v>
+      </c>
+      <c r="O21" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="L14">
+      <c r="P21" s="138">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="Q21" s="138">
+        <v>0</v>
+      </c>
+      <c r="R21" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" s="138">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="39">
+      <c r="T21" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="139">
         <v>0.11</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>2020</v>
-      </c>
-      <c r="I15">
+      <c r="V21" s="138">
+        <v>0</v>
+      </c>
+      <c r="X21" s="138">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="138">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="138">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="138" customFormat="1">
+      <c r="A22" s="138" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="138">
+        <v>2021</v>
+      </c>
+      <c r="J22" s="138">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J15">
+      <c r="K22" s="138">
         <v>0.02</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L22" s="138">
+        <v>0</v>
+      </c>
+      <c r="M22" s="138">
+        <v>0</v>
+      </c>
+      <c r="N22" s="138">
+        <v>2021</v>
+      </c>
+      <c r="O22" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="L15">
+      <c r="P22" s="138">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15">
+      <c r="Q22" s="138">
+        <v>0</v>
+      </c>
+      <c r="R22" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" s="138">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="39">
+      <c r="T22" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" s="139">
         <v>0.11</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="Q16" s="39"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="Q17" s="39"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="Q18" s="39"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="Q19" s="39"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="Q20" s="39"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="Q21" s="39"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="Q22" s="39"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="Q23" s="39"/>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="Q24" s="39"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="Q25" s="39"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="Q26" s="39"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="Q27" s="39"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>2018</v>
-      </c>
-      <c r="K28" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R28">
-        <v>0.02</v>
-      </c>
-      <c r="T28">
-        <v>0.05</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29">
-        <v>0.25</v>
-      </c>
-      <c r="H29">
-        <v>2018</v>
-      </c>
-      <c r="K29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R29">
-        <v>0.02</v>
-      </c>
-      <c r="T29">
-        <v>0.05</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30">
-        <v>0.5</v>
-      </c>
-      <c r="H30">
-        <v>2018</v>
-      </c>
-      <c r="K30" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R30">
-        <v>0.02</v>
-      </c>
-      <c r="T30">
-        <v>0.05</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="Q31" s="39"/>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>2018</v>
-      </c>
-      <c r="I32">
-        <v>0.01</v>
-      </c>
-      <c r="J32">
-        <v>0.01</v>
-      </c>
-      <c r="K32" t="s">
-        <v>61</v>
-      </c>
-      <c r="L32">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R32">
-        <v>0.02</v>
-      </c>
-      <c r="T32">
-        <v>0.05</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33">
-        <v>0.25</v>
-      </c>
-      <c r="H33">
-        <v>2018</v>
-      </c>
-      <c r="I33">
-        <v>0.01</v>
-      </c>
-      <c r="J33">
-        <v>0.01</v>
-      </c>
-      <c r="K33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R33">
-        <v>0.02</v>
-      </c>
-      <c r="T33">
-        <v>0.05</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34">
-        <v>0.5</v>
-      </c>
-      <c r="H34">
-        <v>2018</v>
-      </c>
-      <c r="I34">
-        <v>0.01</v>
-      </c>
-      <c r="J34">
-        <v>0.01</v>
-      </c>
-      <c r="K34" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R34">
-        <v>0.02</v>
-      </c>
-      <c r="T34">
-        <v>0.05</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>2018</v>
-      </c>
-      <c r="I36">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J36">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R36">
-        <v>0.02</v>
-      </c>
-      <c r="T36">
-        <v>0.05</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37">
-        <v>0.25</v>
-      </c>
-      <c r="H37">
-        <v>2018</v>
-      </c>
-      <c r="I37">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J37">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K37" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R37">
-        <v>0.02</v>
-      </c>
-      <c r="T37">
-        <v>0.05</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="A38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38">
-        <v>0.5</v>
-      </c>
-      <c r="H38">
-        <v>2018</v>
-      </c>
-      <c r="I38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R38">
-        <v>0.02</v>
-      </c>
-      <c r="T38">
-        <v>0.05</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>2018</v>
-      </c>
-      <c r="K41" t="s">
-        <v>61</v>
-      </c>
-      <c r="L41">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R41">
-        <v>0.03</v>
-      </c>
-      <c r="T41">
-        <v>0.05</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42">
-        <v>0.25</v>
-      </c>
-      <c r="H42">
-        <v>2018</v>
-      </c>
-      <c r="K42" t="s">
-        <v>61</v>
-      </c>
-      <c r="L42">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R42">
-        <v>0.03</v>
-      </c>
-      <c r="T42">
-        <v>0.05</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43">
-        <v>0.5</v>
-      </c>
-      <c r="H43">
-        <v>2018</v>
-      </c>
-      <c r="K43" t="s">
-        <v>61</v>
-      </c>
-      <c r="L43">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R43">
-        <v>0.03</v>
-      </c>
-      <c r="T43">
-        <v>0.05</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="Q44" s="39"/>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="A45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>2018</v>
-      </c>
-      <c r="I45">
-        <v>0.01</v>
-      </c>
-      <c r="J45">
-        <v>0.01</v>
-      </c>
-      <c r="K45" t="s">
-        <v>61</v>
-      </c>
-      <c r="L45">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R45">
-        <v>0.03</v>
-      </c>
-      <c r="T45">
-        <v>0.05</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46">
-        <v>0.25</v>
-      </c>
-      <c r="H46">
-        <v>2018</v>
-      </c>
-      <c r="I46">
-        <v>0.01</v>
-      </c>
-      <c r="J46">
-        <v>0.01</v>
-      </c>
-      <c r="K46" t="s">
-        <v>61</v>
-      </c>
-      <c r="L46">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="b">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R46">
-        <v>0.03</v>
-      </c>
-      <c r="T46">
-        <v>0.05</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="A47" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47">
-        <v>0.5</v>
-      </c>
-      <c r="H47">
-        <v>2018</v>
-      </c>
-      <c r="I47">
-        <v>0.01</v>
-      </c>
-      <c r="J47">
-        <v>0.01</v>
-      </c>
-      <c r="K47" t="s">
-        <v>61</v>
-      </c>
-      <c r="L47">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R47">
-        <v>0.03</v>
-      </c>
-      <c r="T47">
-        <v>0.05</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
-      <c r="A49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>2018</v>
-      </c>
-      <c r="I49">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J49">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K49" t="s">
-        <v>61</v>
-      </c>
-      <c r="L49">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R49">
-        <v>0.03</v>
-      </c>
-      <c r="T49">
-        <v>0.05</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
-      <c r="A50" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50">
-        <v>0.25</v>
-      </c>
-      <c r="H50">
-        <v>2018</v>
-      </c>
-      <c r="I50">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J50">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K50" t="s">
-        <v>61</v>
-      </c>
-      <c r="L50">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="b">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R50">
-        <v>0.03</v>
-      </c>
-      <c r="T50">
-        <v>0.05</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
-      <c r="A51" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51">
-        <v>0.5</v>
-      </c>
-      <c r="H51">
-        <v>2018</v>
-      </c>
-      <c r="I51">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J51">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K51" t="s">
-        <v>61</v>
-      </c>
-      <c r="L51">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R51">
-        <v>0.03</v>
-      </c>
-      <c r="T51">
-        <v>0.05</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
-      <c r="Q52" s="39"/>
-    </row>
-    <row r="54" spans="1:23">
-      <c r="A54" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>2018</v>
-      </c>
-      <c r="K54" t="s">
-        <v>61</v>
-      </c>
-      <c r="L54">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54" t="b">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0.05</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R54">
-        <v>0.02</v>
-      </c>
-      <c r="T54">
-        <v>0.05</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
-      <c r="A55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>2018</v>
-      </c>
-      <c r="K55" t="s">
-        <v>61</v>
-      </c>
-      <c r="L55">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55" t="b">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0.05</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R55">
-        <v>0.03</v>
-      </c>
-      <c r="T55">
-        <v>0.05</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
-      <c r="A57" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57">
-        <v>0.5</v>
-      </c>
-      <c r="H57">
-        <v>2018</v>
-      </c>
-      <c r="I57">
-        <v>0.01</v>
-      </c>
-      <c r="J57">
-        <v>0.01</v>
-      </c>
-      <c r="K57" t="s">
-        <v>61</v>
-      </c>
-      <c r="L57">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57" t="b">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0.05</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R57">
-        <v>0.02</v>
-      </c>
-      <c r="T57">
-        <v>0.05</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
-      <c r="A58" t="s">
-        <v>160</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58">
-        <v>0.5</v>
-      </c>
-      <c r="H58">
-        <v>2018</v>
-      </c>
-      <c r="I58">
-        <v>0.01</v>
-      </c>
-      <c r="J58">
-        <v>0.01</v>
-      </c>
-      <c r="K58" t="s">
-        <v>61</v>
-      </c>
-      <c r="L58">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58" t="b">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0.05</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R58">
-        <v>0.03</v>
-      </c>
-      <c r="T58">
-        <v>0.05</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
-      <c r="A63" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" t="s">
-        <v>165</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>2018</v>
-      </c>
-      <c r="K63" t="s">
-        <v>61</v>
-      </c>
-      <c r="L63">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63" t="b">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R63">
-        <v>0.02</v>
-      </c>
-      <c r="T63">
-        <v>0.05</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
-      <c r="A64" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="B64" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" t="b">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F64">
-        <v>0.25</v>
-      </c>
-      <c r="H64">
-        <v>2018</v>
-      </c>
-      <c r="K64" t="s">
-        <v>61</v>
-      </c>
-      <c r="L64">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64" t="b">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R64">
-        <v>0.02</v>
-      </c>
-      <c r="T64">
-        <v>0.05</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" t="s">
-        <v>165</v>
-      </c>
-      <c r="F65">
-        <v>0.5</v>
-      </c>
-      <c r="H65">
-        <v>2018</v>
-      </c>
-      <c r="K65" t="s">
-        <v>61</v>
-      </c>
-      <c r="L65">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="39">
-        <v>0.11</v>
-      </c>
-      <c r="R65">
-        <v>0.02</v>
-      </c>
-      <c r="T65">
-        <v>0.05</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
+      <c r="V22" s="138">
+        <v>0</v>
+      </c>
+      <c r="X22" s="138">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="138">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="138">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="U23" s="39"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="U24" s="39"/>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="U25" s="39"/>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="U26" s="39"/>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="U27" s="39"/>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="U28" s="39"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54:C58 C63:C65 C5:C52" xr:uid="{CE4DB086-8939-4E0F-A217-D1528E507A37}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C10 C11:C28" xr:uid="{CE4DB086-8939-4E0F-A217-D1528E507A37}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45:D47 D63:D65 D32:D34 D49:D52 D41:D43 D36:D38 D54:D55 D57:D58 D5:D30" xr:uid="{B6635BCF-58EB-45FF-9851-3E5464D67D97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D10 D11:D28" xr:uid="{B6635BCF-58EB-45FF-9851-3E5464D67D97}">
       <formula1>"singleTier,multiTier"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6443,8 +6647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6491,7 +6695,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C4">
         <v>32</v>
@@ -6627,7 +6831,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4">
         <v>6.7500000000000004E-2</v>
@@ -6652,7 +6856,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4">
         <v>6.7500000000000004E-2</v>
@@ -6674,7 +6878,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4">
         <v>-0.24</v>
@@ -6696,7 +6900,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4">
         <v>0.12</v>
@@ -6718,7 +6922,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4">
         <v>0.12</v>
@@ -6740,7 +6944,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4">
         <v>0.12</v>
@@ -6762,7 +6966,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="4">
         <v>7.0000000000000007E-2</v>
@@ -6805,580 +7009,580 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>196</v>
+      <c r="B3" s="50"/>
+      <c r="C3" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="51"/>
-      <c r="C4" s="54">
+      <c r="B4" s="50"/>
+      <c r="C4" s="53">
         <v>43646</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="53">
         <v>43646</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5">
-      <c r="B5" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="B5" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B6" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="64">
+      <c r="B6" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="63">
         <v>442147</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="66">
         <v>733822</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="68">
         <f>SUM(C6:D6)</f>
         <v>1175969</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B7" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="64">
+      <c r="B7" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="63">
         <v>5389</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="63">
         <v>5692</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="68">
         <f t="shared" ref="E7:E42" si="0">SUM(C7:D7)</f>
         <v>11081</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B8" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="64">
+      <c r="B8" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="63">
         <v>1436</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="63">
         <v>1820</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="68">
         <f t="shared" si="0"/>
         <v>3256</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B9" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="65">
+      <c r="B9" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="64">
         <v>159348</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="64">
         <v>161821</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="68">
         <f t="shared" si="0"/>
         <v>321169</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B10" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="74">
+      <c r="B10" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="73">
         <v>608320</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="73">
         <v>903155</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="74">
         <f t="shared" si="0"/>
         <v>1511475</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B11" s="113" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="112">
+      <c r="B11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="111">
         <v>71385</v>
       </c>
-      <c r="D11" s="112">
+      <c r="D11" s="111">
         <v>96246</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="74">
         <v>167631</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B12" s="115" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="75"/>
+      <c r="B12" s="114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B13" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="116">
+      <c r="B13" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="115">
         <f>C6/C$11</f>
         <v>6.1938362401064646</v>
       </c>
-      <c r="D13" s="116">
+      <c r="D13" s="115">
         <f t="shared" ref="D13:E13" si="1">D6/D$11</f>
         <v>7.6244415352326333</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="115">
         <f t="shared" si="1"/>
         <v>7.0152239144311013</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B14" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="116">
+      <c r="B14" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="115">
         <f t="shared" ref="C14:E14" si="2">C7/C$11</f>
         <v>7.5492050150591863E-2</v>
       </c>
-      <c r="D14" s="116">
+      <c r="D14" s="115">
         <f t="shared" si="2"/>
         <v>5.9140120108887639E-2</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="115">
         <f t="shared" si="2"/>
         <v>6.6103525004324981E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B15" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="116">
+      <c r="B15" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="115">
         <f t="shared" ref="C15:E15" si="3">C8/C$11</f>
         <v>2.0116270925264412E-2</v>
       </c>
-      <c r="D15" s="116">
+      <c r="D15" s="115">
         <f t="shared" si="3"/>
         <v>1.8909876774099704E-2</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="115">
         <f t="shared" si="3"/>
         <v>1.9423614963819343E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B16" s="114" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="116">
+      <c r="B16" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="115">
         <f t="shared" ref="C16:E16" si="4">C9/C$11</f>
         <v>2.2322336625341457</v>
       </c>
-      <c r="D16" s="116">
+      <c r="D16" s="115">
         <f t="shared" si="4"/>
         <v>1.6813270161876857</v>
       </c>
-      <c r="E16" s="116">
+      <c r="E16" s="115">
         <f t="shared" si="4"/>
         <v>1.9159284380574</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B17" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="118">
+      <c r="B17" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="117">
         <f t="shared" ref="C17:E17" si="5">C10/C$11</f>
         <v>8.5216782237164672</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="117">
         <f t="shared" si="5"/>
         <v>9.3838185483033065</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="117">
         <f t="shared" si="5"/>
         <v>9.016679492456646</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B18" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="67">
+      <c r="B18" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="66">
         <v>9069</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="66">
         <v>95139</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="69">
         <f t="shared" si="0"/>
         <v>104208</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B19" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="69">
+      <c r="B19" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B20" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="67">
+      <c r="B20" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="66">
         <v>499249</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="63">
         <v>1423962</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="68">
         <f t="shared" si="0"/>
         <v>1923211</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B21" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="64">
+      <c r="B21" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="63">
         <v>86688</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="63">
         <v>92287</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="68">
         <f t="shared" si="0"/>
         <v>178975</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B22" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="65">
+      <c r="B22" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="64">
         <v>627487</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="64">
         <v>612388</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="68">
         <f t="shared" si="0"/>
         <v>1239875</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B23" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="76">
+      <c r="B23" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="75">
         <v>1213424</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>2128637</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="76">
         <f t="shared" si="0"/>
         <v>3342061</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B24" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="79">
+      <c r="B24" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="78">
         <v>1830813</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="78">
         <v>3126931</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="79">
         <f t="shared" si="0"/>
         <v>4957744</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B25" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="64">
+      <c r="B25" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="63">
         <v>1054566</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="63">
         <v>1792577</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="68">
         <f t="shared" si="0"/>
         <v>2847143</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B26" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="64">
+      <c r="B26" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="63">
         <v>776247</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="63">
         <v>1334354</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="68">
         <f t="shared" si="0"/>
         <v>2110601</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="48" customHeight="1">
-      <c r="B27" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="69"/>
+      <c r="B27" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="68"/>
     </row>
     <row r="28" spans="2:5" ht="48" customHeight="1">
-      <c r="B28" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="69"/>
+      <c r="B28" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="68"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="63">
+      <c r="B29" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="62">
         <v>3777</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="62">
         <v>10770</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="68">
         <f t="shared" si="0"/>
         <v>14547</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="62">
+      <c r="B30" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="61">
         <v>57</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="57">
         <v>2818</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="68">
         <f t="shared" si="0"/>
         <v>2875</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="62">
+      <c r="B31" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="61">
         <v>61</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="61">
         <v>168</v>
       </c>
-      <c r="E31" s="69">
+      <c r="E31" s="68">
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="59">
+      <c r="B32" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="58">
         <v>3867</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="58">
         <v>8457</v>
       </c>
-      <c r="E32" s="69">
+      <c r="E32" s="68">
         <f t="shared" si="0"/>
         <v>12324</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="71">
+      <c r="B33" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="70">
         <v>7762</v>
       </c>
-      <c r="D33" s="71">
+      <c r="D33" s="70">
         <v>22213</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="69">
         <f t="shared" si="0"/>
         <v>29975</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="83" t="s">
-        <v>236</v>
-      </c>
-      <c r="C34" s="101">
+      <c r="B34" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="100">
         <v>12070</v>
       </c>
-      <c r="D34" s="98">
+      <c r="D34" s="97">
         <v>38475</v>
       </c>
-      <c r="E34" s="105">
+      <c r="E34" s="104">
         <f t="shared" ref="E34" si="6">SUM(C34:D34)</f>
         <v>50545</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="121">
+      <c r="B35" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="120">
         <f>C29/C$34</f>
         <v>0.31292460646230325</v>
       </c>
-      <c r="D35" s="121">
+      <c r="D35" s="120">
         <f t="shared" ref="D35:E35" si="7">D29/D$34</f>
         <v>0.27992202729044835</v>
       </c>
-      <c r="E35" s="121">
+      <c r="E35" s="120">
         <f t="shared" si="7"/>
         <v>0.28780294786823624</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" s="121">
+      <c r="B36" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="120">
         <f t="shared" ref="C36:E36" si="8">C30/C$34</f>
         <v>4.7224523612261803E-3</v>
       </c>
-      <c r="D36" s="121">
+      <c r="D36" s="120">
         <f t="shared" si="8"/>
         <v>7.3242365172189738E-2</v>
       </c>
-      <c r="E36" s="121">
+      <c r="E36" s="120">
         <f t="shared" si="8"/>
         <v>5.6880007913740233E-2</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" s="121">
+      <c r="B37" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="120">
         <f t="shared" ref="C37:E37" si="9">C31/C$34</f>
         <v>5.0538525269262632E-3</v>
       </c>
-      <c r="D37" s="121">
+      <c r="D37" s="120">
         <f t="shared" si="9"/>
         <v>4.3664717348927875E-3</v>
       </c>
-      <c r="E37" s="121">
+      <c r="E37" s="120">
         <f t="shared" si="9"/>
         <v>4.5306162825205264E-3</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="114" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="121">
+      <c r="B38" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="120">
         <f t="shared" ref="C38:E38" si="10">C32/C$34</f>
         <v>0.3203811101905551</v>
       </c>
-      <c r="D38" s="121">
+      <c r="D38" s="120">
         <f t="shared" si="10"/>
         <v>0.21980506822612086</v>
       </c>
-      <c r="E38" s="121">
+      <c r="E38" s="120">
         <f t="shared" si="10"/>
         <v>0.24382233653180335</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" s="63">
+      <c r="B39" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="62">
         <v>47</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="62">
         <v>661</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="68">
         <f t="shared" si="0"/>
         <v>708</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" s="72">
+      <c r="B40" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="71">
         <v>7809</v>
       </c>
-      <c r="D40" s="72">
+      <c r="D40" s="71">
         <v>22874</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="69">
         <f t="shared" si="0"/>
         <v>30683</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="58">
+      <c r="B41" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="57">
         <v>6117</v>
       </c>
-      <c r="D41" s="58">
+      <c r="D41" s="57">
         <v>17854</v>
       </c>
-      <c r="E41" s="69">
+      <c r="E41" s="68">
         <f t="shared" si="0"/>
         <v>23971</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="C42" s="58">
+      <c r="B42" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="57">
         <v>1692</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="57">
         <v>5020</v>
       </c>
-      <c r="E42" s="69">
+      <c r="E42" s="68">
         <f t="shared" si="0"/>
         <v>6712</v>
       </c>
@@ -7408,159 +7612,159 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="C4" s="81" t="s">
-        <v>217</v>
+      <c r="C4" s="80" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C6" s="82"/>
-      <c r="D6" s="102">
+      <c r="C6" s="81"/>
+      <c r="D6" s="101">
         <v>43646</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="102">
         <v>43646</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C7" s="82"/>
-      <c r="D7" s="102" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="104" t="s">
-        <v>231</v>
+      <c r="C7" s="81"/>
+      <c r="D7" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>174</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C8" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="97">
+      <c r="C8" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="96">
         <v>17717</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="97">
         <v>17506</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="104">
         <f>SUM(D8:E8)</f>
         <v>35223</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C9" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="84">
+      <c r="C9" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="83">
         <v>1258</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="84">
         <v>5927</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="104">
         <f t="shared" ref="F9:F14" si="0">SUM(D9:E9)</f>
         <v>7185</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C10" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="86">
+      <c r="C10" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="85">
         <v>279</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="86">
         <v>314</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="104">
         <f t="shared" si="0"/>
         <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C11" s="83" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="84">
+      <c r="C11" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="83">
         <v>10678</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="84">
         <v>12961</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="104">
         <f t="shared" si="0"/>
         <v>23639</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C12" s="83" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="88">
+      <c r="C12" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="87">
         <v>182</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="88">
         <v>1014</v>
       </c>
-      <c r="F12" s="105">
+      <c r="F12" s="104">
         <f t="shared" si="0"/>
         <v>1196</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.5" customHeight="1">
-      <c r="C13" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="99">
+      <c r="C13" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="98">
         <v>30114</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="99">
         <v>37721</v>
       </c>
-      <c r="F13" s="105">
+      <c r="F13" s="104">
         <f t="shared" si="0"/>
         <v>67835</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1">
-      <c r="C14" s="92" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="101">
+      <c r="C14" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="100">
         <v>71385</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="97">
         <v>96246</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="104">
         <f t="shared" si="0"/>
         <v>167631</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C15" s="106" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="107">
+      <c r="C15" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="106">
         <v>0.4219</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="106">
         <v>0.39200000000000002</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F15" s="107">
         <f>F13/F14</f>
         <v>0.40466858755242169</v>
       </c>
@@ -7574,205 +7778,205 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C16" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="110">
+      <c r="C16" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="109">
         <f>D8/D$14</f>
         <v>0.24818939553127409</v>
       </c>
-      <c r="E16" s="110">
+      <c r="E16" s="109">
         <f t="shared" ref="E16:F16" si="1">E8/E$14</f>
         <v>0.18188807846559857</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="109">
         <f t="shared" si="1"/>
         <v>0.21012223276124345</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C17" s="109" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="110">
+      <c r="C17" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="109">
         <f t="shared" ref="D17:F17" si="2">D9/D$14</f>
         <v>1.762274987742523E-2</v>
       </c>
-      <c r="E17" s="110">
+      <c r="E17" s="109">
         <f t="shared" si="2"/>
         <v>6.158178002202689E-2</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="109">
         <f t="shared" si="2"/>
         <v>4.2862000465307727E-2</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C18" s="109" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="110">
+      <c r="C18" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="109">
         <f t="shared" ref="D18:F18" si="3">D10/D$14</f>
         <v>3.9083841143097292E-3</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="109">
         <f t="shared" si="3"/>
         <v>3.2624732456413771E-3</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="109">
         <f t="shared" si="3"/>
         <v>3.5375318407693088E-3</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C19" s="109" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="110">
+      <c r="C19" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="109">
         <f t="shared" ref="D19:F19" si="4">D11/D$14</f>
         <v>0.14958324577992577</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="109">
         <f t="shared" si="4"/>
         <v>0.13466533674126718</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="109">
         <f t="shared" si="4"/>
         <v>0.14101806945016138</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C20" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="94">
+      <c r="C20" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="93">
         <v>0.28849999999999998</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="93">
         <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C21" s="95" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="96">
+      <c r="C21" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="95">
         <v>0.13339999999999999</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E21" s="95">
         <v>0.121</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
     </row>
     <row r="23" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C23" s="92" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
+      <c r="C23" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="97">
+      <c r="C24" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="96">
         <v>1608</v>
       </c>
-      <c r="E24" s="98">
+      <c r="E24" s="97">
         <v>3813</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="104">
         <f>SUM(D24:E24)</f>
         <v>5421</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="86">
+      <c r="C25" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="85">
         <v>131</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="83">
         <v>2012</v>
       </c>
-      <c r="F25" s="105">
+      <c r="F25" s="104">
         <f t="shared" ref="F25:F29" si="5">SUM(D25:E25)</f>
         <v>2143</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="86">
+      <c r="C26" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="85">
         <v>47</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="86">
         <v>121</v>
       </c>
-      <c r="F26" s="105">
+      <c r="F26" s="104">
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="25.5">
-      <c r="C27" s="83" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="90">
+      <c r="C27" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="89">
         <v>1864</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="89">
         <v>4566</v>
       </c>
-      <c r="F27" s="105">
+      <c r="F27" s="104">
         <f t="shared" si="5"/>
         <v>6430</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="25.5">
-      <c r="C28" s="91" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="99">
+      <c r="C28" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="98">
         <v>3650</v>
       </c>
-      <c r="E28" s="99">
+      <c r="E28" s="98">
         <v>10513</v>
       </c>
-      <c r="F28" s="105">
+      <c r="F28" s="104">
         <f t="shared" si="5"/>
         <v>14163</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="92" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="101">
+      <c r="C29" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="100">
         <v>12070</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="97">
         <v>38475</v>
       </c>
-      <c r="F29" s="105">
+      <c r="F29" s="104">
         <f t="shared" si="5"/>
         <v>50545</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="93">
+      <c r="C30" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="92">
         <v>0.3024</v>
       </c>
-      <c r="E30" s="93">
+      <c r="E30" s="92">
         <v>0.2732</v>
       </c>
       <c r="F30" s="21">
@@ -7781,92 +7985,92 @@
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="119" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="93">
+      <c r="C31" s="118" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="92">
         <f>D24/D$29</f>
         <v>0.13322286661143332</v>
       </c>
-      <c r="E31" s="93">
+      <c r="E31" s="92">
         <f>E24/E$29</f>
         <v>9.9103313840155943E-2</v>
       </c>
-      <c r="F31" s="93">
+      <c r="F31" s="92">
         <f>F24/F$29</f>
         <v>0.10725096448709071</v>
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" s="93">
+      <c r="C32" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="92">
         <f t="shared" ref="D32:F32" si="6">D25/D$29</f>
         <v>1.0853355426677713E-2</v>
       </c>
-      <c r="E32" s="93">
+      <c r="E32" s="92">
         <f t="shared" si="6"/>
         <v>5.2293697205977908E-2</v>
       </c>
-      <c r="F32" s="93">
+      <c r="F32" s="92">
         <f t="shared" si="6"/>
         <v>4.2397863290137498E-2</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="120" t="s">
-        <v>233</v>
-      </c>
-      <c r="D33" s="93">
+      <c r="C33" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="92">
         <f t="shared" ref="D33:F33" si="7">D26/D$29</f>
         <v>3.8939519469759734E-3</v>
       </c>
-      <c r="E33" s="93">
+      <c r="E33" s="92">
         <f t="shared" si="7"/>
         <v>3.1448992852501625E-3</v>
       </c>
-      <c r="F33" s="93">
+      <c r="F33" s="92">
         <f t="shared" si="7"/>
         <v>3.3237708972202987E-3</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" s="93">
+      <c r="C34" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="92">
         <f t="shared" ref="D34:F34" si="8">D27/D$29</f>
         <v>0.1544324772162386</v>
       </c>
-      <c r="E34" s="93">
+      <c r="E34" s="92">
         <f t="shared" si="8"/>
         <v>0.11867446393762184</v>
       </c>
-      <c r="F34" s="93">
+      <c r="F34" s="92">
         <f t="shared" si="8"/>
         <v>0.12721337422099119</v>
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="D35" s="94">
+      <c r="C35" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="93">
         <v>0.2379</v>
       </c>
-      <c r="E35" s="94">
+      <c r="E35" s="93">
         <v>0.21640000000000001</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="83" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="94">
+      <c r="C36" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="93">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="E36" s="94">
+      <c r="E36" s="93">
         <v>5.6800000000000003E-2</v>
       </c>
     </row>
@@ -7893,30 +8097,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="123">
+      <c r="B2" s="122">
         <v>43646</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>3558486</v>
@@ -7939,7 +8143,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="B5">
         <f>7790+22148</f>
@@ -7964,7 +8168,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <f>SUM(B4:B5)</f>
@@ -8019,43 +8223,43 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="22" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="F3" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="23">
         <v>174402</v>
@@ -8087,7 +8291,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="23">
         <v>37586</v>
@@ -8119,7 +8323,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="23">
         <v>61005</v>
@@ -8151,7 +8355,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="23">
         <v>195158</v>
@@ -8183,7 +8387,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="23">
         <v>468151</v>
@@ -8220,7 +8424,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="23">
         <v>12251583453</v>
@@ -8252,7 +8456,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="23">
         <v>12934685803</v>
@@ -8291,7 +8495,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -8299,7 +8503,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="23">
         <v>132446673597</v>
@@ -8331,7 +8535,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="23">
         <v>115469058970</v>
@@ -8363,7 +8567,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="23">
         <v>80223069956</v>
@@ -8395,7 +8599,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="23">
         <v>35245989014</v>
@@ -8427,7 +8631,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="28">
         <v>0.69499999999999995</v>
@@ -8468,7 +8672,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
@@ -8476,7 +8680,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="23">
         <v>2174670866</v>
@@ -8508,7 +8712,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="23">
         <v>893164372</v>
@@ -8540,7 +8744,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="23">
         <v>1281506494</v>
@@ -8572,7 +8776,7 @@
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" s="23">
         <v>2725165218</v>
@@ -8604,7 +8808,7 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="B26" s="23">
         <f>B24+B25</f>
@@ -8643,12 +8847,12 @@
     </row>
     <row r="28" spans="1:11" ht="25.5">
       <c r="A28" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="30">
         <v>0.16813</v>
@@ -8680,7 +8884,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="30">
         <v>6.905E-2</v>
@@ -8712,7 +8916,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="30">
         <v>9.9080000000000001E-2</v>
@@ -8744,7 +8948,7 @@
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" s="30">
         <v>0.21068999999999999</v>
@@ -8776,7 +8980,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="31">
         <v>0.30976999999999999</v>
@@ -8808,12 +9012,12 @@
     </row>
     <row r="35" spans="1:11" ht="25.5">
       <c r="A35" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" s="32">
         <f>B22/B$11</f>
@@ -8850,7 +9054,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37" s="32">
         <f t="shared" ref="B37:C39" si="10">B23/B$11</f>
@@ -8887,7 +9091,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B38" s="32">
         <f t="shared" si="10"/>
@@ -8924,7 +9128,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" s="32">
         <f t="shared" si="10"/>
@@ -8961,7 +9165,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="32">
         <f>SUM(B24:B25)/B$11</f>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3783A74-53BC-459D-9422-89814910B92A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F3CB6E-ABFB-405D-8BD1-7B0036809A28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
     <sheet name="params_val" sheetId="27" r:id="rId2"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId3"/>
-    <sheet name="params_byTier" sheetId="19" r:id="rId4"/>
+    <sheet name="SimsAnalysis" sheetId="33" r:id="rId4"/>
     <sheet name="returns" sheetId="2" r:id="rId5"/>
     <sheet name="targetVals_pf.AL" sheetId="25" r:id="rId6"/>
     <sheet name="targetVals_pf.NC" sheetId="30" r:id="rId7"/>
@@ -80,7 +80,7 @@
     See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</t>
       </text>
     </comment>
-    <comment ref="K4" authorId="2" shapeId="0" xr:uid="{CF5CF5A7-948B-4FFE-B3FC-40A88109D95C}">
+    <comment ref="L4" authorId="2" shapeId="0" xr:uid="{CF5CF5A7-948B-4FFE-B3FC-40A88109D95C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,7 +90,7 @@
 sharedADC</t>
       </text>
     </comment>
-    <comment ref="O4" authorId="3" shapeId="0" xr:uid="{BF2AB719-F5FF-40BB-AB7B-C0DB3470AEB4}">
+    <comment ref="P4" authorId="3" shapeId="0" xr:uid="{BF2AB719-F5FF-40BB-AB7B-C0DB3470AEB4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +98,7 @@
     For SJ P&amp;F tier 2. limit on the change in EEC rate for amortization payment (supplemental cost)</t>
       </text>
     </comment>
-    <comment ref="P4" authorId="4" shapeId="0" xr:uid="{E8C448CD-53B7-490F-9996-9DCA6000100A}">
+    <comment ref="Q4" authorId="4" shapeId="0" xr:uid="{E8C448CD-53B7-490F-9996-9DCA6000100A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -106,7 +106,7 @@
     EEC as a % of SC before SJ PF sharedADC policy is applied. Used in year 1</t>
       </text>
     </comment>
-    <comment ref="Z4" authorId="5" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+    <comment ref="AE4" authorId="5" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,7 +114,7 @@
     The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</t>
       </text>
     </comment>
-    <comment ref="AD4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
+    <comment ref="AI4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
+    <comment ref="AS4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="275">
   <si>
     <t>nsim</t>
   </si>
@@ -1204,12 +1204,6 @@
     <t>pf.t2_pre99_highERC</t>
   </si>
   <si>
-    <t>pf.t1_measureB_lowERC</t>
-  </si>
-  <si>
-    <t>pf.t2_measureB_lowERC</t>
-  </si>
-  <si>
     <t>pre99 accrual</t>
   </si>
   <si>
@@ -1223,6 +1217,108 @@
   </si>
   <si>
     <t>pf.t2_measureB_highERC</t>
+  </si>
+  <si>
+    <t>sim_label</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 1; pre-1999 policy \nLow ERC</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>tier</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>ERCType</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 1; Baseline</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 2; pre-1999 policy \nLow ERC</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 1; pre-1999 policy \nHigh ERC</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 2; pre-1999 policy \nHigh ERC</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 1; Measure B \nHigh ERC</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 2; Measure B \nHigh ERC</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>lowERC</t>
+  </si>
+  <si>
+    <t>highERC</t>
+  </si>
+  <si>
+    <t>pf.t1_sharedCost</t>
+  </si>
+  <si>
+    <t>pf.t2_sharedCost</t>
+  </si>
+  <si>
+    <t>pf_sharedCost</t>
+  </si>
+  <si>
+    <t>sharedCost</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 1; Shared cost \nLow ERC</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 2; Shared cost \nLow ERC</t>
+  </si>
+  <si>
+    <t>FR100_amort0</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>pf.t1_POB</t>
+  </si>
+  <si>
+    <t>pf.t2_POB</t>
+  </si>
+  <si>
+    <t>POB_shareUAAL</t>
+  </si>
+  <si>
+    <t>use_POB</t>
+  </si>
+  <si>
+    <t>POB_period</t>
+  </si>
+  <si>
+    <t>POB_int</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 1; Baseline with POB</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1680,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1657,6 +1753,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1967,9 +2064,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="174" fontId="22" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2389,18 +2508,18 @@
   <threadedComment ref="H4" dT="2020-11-29T15:06:08.38" personId="{00000000-0000-0000-0000-000000000000}" id="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
     <text>See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</text>
   </threadedComment>
-  <threadedComment ref="K4" dT="2021-04-24T13:50:24.61" personId="{00000000-0000-0000-0000-000000000000}" id="{CF5CF5A7-948B-4FFE-B3FC-40A88109D95C}">
+  <threadedComment ref="L4" dT="2021-04-24T13:50:24.61" personId="{00000000-0000-0000-0000-000000000000}" id="{CF5CF5A7-948B-4FFE-B3FC-40A88109D95C}">
     <text>fixedRate;
 sharedNC
 sharedADC</text>
   </threadedComment>
-  <threadedComment ref="O4" dT="2021-04-24T13:49:51.86" personId="{00000000-0000-0000-0000-000000000000}" id="{BF2AB719-F5FF-40BB-AB7B-C0DB3470AEB4}">
+  <threadedComment ref="P4" dT="2021-04-24T13:49:51.86" personId="{00000000-0000-0000-0000-000000000000}" id="{BF2AB719-F5FF-40BB-AB7B-C0DB3470AEB4}">
     <text>For SJ P&amp;F tier 2. limit on the change in EEC rate for amortization payment (supplemental cost)</text>
   </threadedComment>
-  <threadedComment ref="P4" dT="2021-04-24T15:11:25.51" personId="{00000000-0000-0000-0000-000000000000}" id="{E8C448CD-53B7-490F-9996-9DCA6000100A}">
+  <threadedComment ref="Q4" dT="2021-04-24T15:11:25.51" personId="{00000000-0000-0000-0000-000000000000}" id="{E8C448CD-53B7-490F-9996-9DCA6000100A}">
     <text>EEC as a % of SC before SJ PF sharedADC policy is applied. Used in year 1</text>
   </threadedComment>
-  <threadedComment ref="Z4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+  <threadedComment ref="AE4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
     <text>The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</text>
   </threadedComment>
 </ThreadedComments>
@@ -2425,69 +2544,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:AZ44"/>
+  <dimension ref="A2:BE43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.85546875" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" customWidth="1"/>
-    <col min="32" max="32" width="12.5703125" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" customWidth="1"/>
-    <col min="39" max="39" width="17.42578125" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" customWidth="1"/>
-    <col min="41" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="12.42578125" customWidth="1"/>
-    <col min="45" max="45" width="23" customWidth="1"/>
-    <col min="46" max="46" width="16.5703125" customWidth="1"/>
-    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.28515625" customWidth="1"/>
-    <col min="51" max="51" width="11.42578125" customWidth="1"/>
-    <col min="52" max="52" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="27" width="16.140625" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.85546875" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" customWidth="1"/>
+    <col min="44" max="44" width="17.42578125" customWidth="1"/>
+    <col min="45" max="45" width="13.7109375" customWidth="1"/>
+    <col min="46" max="47" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.42578125" customWidth="1"/>
+    <col min="50" max="50" width="23" customWidth="1"/>
+    <col min="51" max="51" width="16.5703125" customWidth="1"/>
+    <col min="52" max="52" width="12" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.28515625" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" customWidth="1"/>
+    <col min="57" max="57" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:52">
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-    </row>
-    <row r="3" spans="1:52" s="18" customFormat="1" ht="18.75">
+    <row r="2" spans="1:57">
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+    </row>
+    <row r="3" spans="1:57" s="18" customFormat="1" ht="18.75">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2502,220 +2624,240 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="13" t="s">
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="14" t="s">
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="16" t="s">
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
       <c r="AL3" s="16"/>
-      <c r="AM3" s="12" t="s">
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
-      <c r="AT3" s="17" t="s">
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
       <c r="AZ3" s="17"/>
-    </row>
-    <row r="4" spans="1:52" s="134" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="123" t="s">
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="17"/>
+    </row>
+    <row r="4" spans="1:57" s="135" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="125" t="s">
+      <c r="I4" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="125" t="s">
+      <c r="J4" s="126" t="s">
         <v>108</v>
       </c>
       <c r="K4" s="126" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="L4" s="127" t="s">
+      <c r="M4" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="127" t="s">
+      <c r="N4" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="N4" s="127" t="s">
+      <c r="O4" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="O4" s="127" t="s">
+      <c r="P4" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="P4" s="127" t="s">
+      <c r="Q4" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="127" t="s">
+      <c r="R4" s="128" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="126" t="s">
+      <c r="S4" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="S4" s="128" t="s">
+      <c r="T4" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="T4" s="127" t="s">
+      <c r="U4" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="U4" s="127" t="s">
+      <c r="V4" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="V4" s="127" t="s">
+      <c r="W4" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="W4" s="129" t="s">
+      <c r="X4" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y4" s="128" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z4" s="128" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA4" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB4" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="AC4" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="129" t="s">
+      <c r="AD4" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="129" t="s">
+      <c r="AE4" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="130" t="s">
+      <c r="AF4" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="130" t="s">
+      <c r="AG4" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="130" t="s">
+      <c r="AH4" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="130" t="s">
+      <c r="AI4" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="AE4" s="130" t="s">
+      <c r="AJ4" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="AF4" s="124" t="s">
+      <c r="AK4" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="124" t="s">
+      <c r="AL4" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="124" t="s">
+      <c r="AM4" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="AI4" s="124" t="s">
+      <c r="AN4" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="124" t="s">
+      <c r="AO4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="AK4" s="124" t="s">
+      <c r="AP4" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="AL4" s="124" t="s">
+      <c r="AQ4" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="AM4" s="131" t="s">
+      <c r="AR4" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="AN4" s="131" t="s">
+      <c r="AS4" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="AO4" s="131" t="s">
+      <c r="AT4" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="AP4" s="131" t="s">
+      <c r="AU4" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="AQ4" s="131" t="s">
+      <c r="AV4" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="AR4" s="131" t="s">
+      <c r="AW4" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="AS4" s="131" t="s">
+      <c r="AX4" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="AT4" s="132" t="s">
+      <c r="AY4" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="AU4" s="132" t="s">
+      <c r="AZ4" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="AV4" s="132" t="s">
+      <c r="BA4" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="AW4" s="132" t="s">
+      <c r="BB4" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="AX4" s="132" t="s">
+      <c r="BC4" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AY4" s="132" t="s">
+      <c r="BD4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="AZ4" s="133" t="s">
+      <c r="BE4" s="134" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:57">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -2743,130 +2885,133 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>131</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.11</v>
       </c>
-      <c r="M5" s="20">
+      <c r="N5" s="20">
         <f>3/11</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N5" s="49">
+      <c r="O5" s="50">
         <v>0.5</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <f>1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P5" s="135">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="136">
+        <v>0</v>
+      </c>
+      <c r="R5" s="50">
         <v>0.5</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>129</v>
       </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.03</v>
+      <c r="T5" t="b">
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0.03</v>
       </c>
       <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
+        <v>0.03</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
         <v>123</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AC5" t="s">
         <v>35</v>
       </c>
-      <c r="Y5">
+      <c r="AD5">
         <v>15</v>
       </c>
-      <c r="Z5">
+      <c r="AE5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA5">
+      <c r="AF5">
         <v>5</v>
       </c>
-      <c r="AB5">
+      <c r="AG5">
         <v>1.2</v>
       </c>
-      <c r="AC5">
+      <c r="AH5">
         <v>0.8</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AI5" t="s">
         <v>134</v>
       </c>
-      <c r="AE5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="s">
         <v>100</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AL5" t="s">
         <v>20</v>
       </c>
-      <c r="AH5">
+      <c r="AM5">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI5">
+      <c r="AN5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AO5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AP5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL5" s="34">
+      <c r="AQ5" s="34">
         <v>123</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AR5" t="s">
         <v>31</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AS5" t="s">
         <v>31</v>
       </c>
-      <c r="AO5" s="20">
+      <c r="AT5" s="20">
         <v>0.7</v>
       </c>
-      <c r="AP5" s="20">
+      <c r="AU5" s="20">
         <v>0.7</v>
       </c>
-      <c r="AS5" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="s">
         <v>3</v>
       </c>
-      <c r="AY5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52">
+      <c r="BD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -2894,144 +3039,147 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>131</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.11</v>
       </c>
-      <c r="M6" s="20">
-        <f t="shared" ref="M6:M44" si="0">3/11</f>
+      <c r="N6" s="20">
+        <f t="shared" ref="N6:N43" si="0">3/11</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N6" s="49">
+      <c r="O6" s="50">
         <v>0.5</v>
       </c>
-      <c r="O6" s="4">
-        <f t="shared" ref="O6:O44" si="1">1/300</f>
+      <c r="P6" s="4">
+        <f t="shared" ref="P6:P43" si="1">1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P6" s="135">
+      <c r="Q6" s="136">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="R6" s="50">
         <v>0.5</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>129</v>
       </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0.02</v>
+      <c r="T6" t="b">
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0.02</v>
       </c>
       <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
         <v>123</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AC6" t="s">
         <v>35</v>
       </c>
-      <c r="Y6">
+      <c r="AD6">
         <v>15</v>
       </c>
-      <c r="Z6">
+      <c r="AE6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA6">
+      <c r="AF6">
         <v>5</v>
       </c>
-      <c r="AB6">
+      <c r="AG6">
         <v>1.2</v>
       </c>
-      <c r="AC6">
+      <c r="AH6">
         <v>0.8</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AI6" t="s">
         <v>134</v>
       </c>
-      <c r="AE6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
         <v>100</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AL6" t="s">
         <v>20</v>
       </c>
-      <c r="AH6">
+      <c r="AM6">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI6">
+      <c r="AN6">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AO6" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AP6" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL6" s="34">
+      <c r="AQ6" s="34">
         <v>123</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AR6" t="s">
         <v>31</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AS6" t="s">
         <v>31</v>
       </c>
-      <c r="AO6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="s">
+      <c r="AT6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="s">
         <v>3</v>
       </c>
-      <c r="AY6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52">
-      <c r="M7" s="20"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="49"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="34"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AS7" s="39"/>
-      <c r="AZ7" s="19"/>
-    </row>
-    <row r="8" spans="1:52">
+      <c r="BD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
+      <c r="N7" s="20"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="50"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="34"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AX7" s="39"/>
+      <c r="BE7" s="19"/>
+    </row>
+    <row r="8" spans="1:57">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -3059,130 +3207,133 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>131</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.11</v>
       </c>
-      <c r="M8" s="20">
+      <c r="N8" s="20">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N8" s="49">
+      <c r="O8" s="50">
         <v>0.5</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P8" s="135">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="49">
+      <c r="Q8" s="136">
+        <v>0</v>
+      </c>
+      <c r="R8" s="50">
         <v>0.5</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>129</v>
       </c>
-      <c r="S8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0.03</v>
+      <c r="T8" t="b">
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0.03</v>
       </c>
       <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
+        <v>0.03</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
         <v>123</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AC8" t="s">
         <v>35</v>
       </c>
-      <c r="Y8">
+      <c r="AD8">
         <v>15</v>
       </c>
-      <c r="Z8">
+      <c r="AE8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AF8">
         <v>5</v>
       </c>
-      <c r="AB8">
+      <c r="AG8">
         <v>1.2</v>
       </c>
-      <c r="AC8">
+      <c r="AH8">
         <v>0.8</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AI8" t="s">
         <v>134</v>
       </c>
-      <c r="AE8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AJ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AL8" t="s">
         <v>20</v>
       </c>
-      <c r="AH8">
+      <c r="AM8">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI8">
+      <c r="AN8">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AO8" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AP8" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AQ8" s="34">
         <v>123</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AR8" t="s">
         <v>31</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AS8" t="s">
         <v>31</v>
       </c>
-      <c r="AO8" s="20">
+      <c r="AT8" s="20">
         <v>0.7</v>
       </c>
-      <c r="AP8" s="20">
+      <c r="AU8" s="20">
         <v>0.7</v>
       </c>
-      <c r="AS8" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="s">
+      <c r="AX8" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="s">
         <v>3</v>
       </c>
-      <c r="AY8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52">
+      <c r="BD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -3210,1925 +3361,2396 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>131</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.11</v>
       </c>
-      <c r="M9" s="20">
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N9" s="49">
+      <c r="O9" s="50">
         <v>0.5</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P9" s="135">
+      <c r="Q9" s="136">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="49">
+      <c r="R9" s="50">
         <v>0.5</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>129</v>
       </c>
-      <c r="S9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0.02</v>
+      <c r="T9" t="b">
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0.02</v>
       </c>
       <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
         <v>123</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AC9" t="s">
         <v>35</v>
       </c>
-      <c r="Y9">
+      <c r="AD9">
         <v>15</v>
       </c>
-      <c r="Z9">
+      <c r="AE9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AF9">
         <v>5</v>
       </c>
-      <c r="AB9">
+      <c r="AG9">
         <v>1.2</v>
       </c>
-      <c r="AC9">
+      <c r="AH9">
         <v>0.8</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AI9" t="s">
         <v>134</v>
       </c>
-      <c r="AE9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AJ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="s">
         <v>100</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AL9" t="s">
         <v>20</v>
       </c>
-      <c r="AH9">
+      <c r="AM9">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI9">
+      <c r="AN9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AO9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AP9" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL9" s="34">
+      <c r="AQ9" s="34">
         <v>123</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AR9" t="s">
         <v>31</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AS9" t="s">
         <v>31</v>
       </c>
-      <c r="AO9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="s">
+      <c r="AT9" s="20">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="s">
         <v>3</v>
       </c>
-      <c r="AY9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52">
-      <c r="M10" s="20"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="49"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="34"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AS10" s="39"/>
-      <c r="AZ10" s="19"/>
-    </row>
-    <row r="11" spans="1:52">
-      <c r="M11" s="20"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="49"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="34"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AS11" s="39"/>
-      <c r="AZ11" s="19"/>
-    </row>
-    <row r="12" spans="1:52">
-      <c r="M12" s="20"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="49"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="34"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AS12" s="39"/>
-      <c r="AZ12" s="19"/>
-    </row>
-    <row r="13" spans="1:52" s="138" customFormat="1">
-      <c r="A13" s="138" t="s">
+      <c r="BD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
+      <c r="N10" s="20"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="50"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="34"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AX10" s="39"/>
+      <c r="BE10" s="19"/>
+    </row>
+    <row r="11" spans="1:57">
+      <c r="N11" s="20"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="50"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="34"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AX11" s="39"/>
+      <c r="BE11" s="19"/>
+    </row>
+    <row r="12" spans="1:57">
+      <c r="N12" s="20"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="50"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="34"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AX12" s="39"/>
+      <c r="BE12" s="19"/>
+    </row>
+    <row r="13" spans="1:57" s="139" customFormat="1">
+      <c r="A13" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="138" t="s">
+      <c r="C13" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="139" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="138" t="s">
+      <c r="E13" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="138" t="s">
+      <c r="F13" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="H13" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="138" t="s">
+      <c r="H13" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="L13" s="138">
+      <c r="M13" s="139">
         <v>0.11</v>
       </c>
-      <c r="M13" s="142">
+      <c r="N13" s="143">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N13" s="143">
+      <c r="O13" s="144">
         <v>0.5</v>
       </c>
-      <c r="O13" s="144">
+      <c r="P13" s="145">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P13" s="145">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="143">
+      <c r="Q13" s="146">
+        <v>0</v>
+      </c>
+      <c r="R13" s="144">
         <v>0.5</v>
       </c>
-      <c r="R13" s="138" t="s">
+      <c r="S13" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="S13" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="138">
+      <c r="T13" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="139">
         <v>0.03</v>
       </c>
-      <c r="U13" s="138">
+      <c r="V13" s="139">
         <v>0.03</v>
       </c>
-      <c r="V13" s="138">
-        <v>0</v>
-      </c>
-      <c r="W13" s="138" t="s">
+      <c r="W13" s="139">
+        <v>0</v>
+      </c>
+      <c r="X13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="X13" s="138" t="s">
+      <c r="AC13" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="Y13" s="138">
+      <c r="AD13" s="139">
         <v>15</v>
       </c>
-      <c r="Z13" s="138">
+      <c r="AE13" s="139">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA13" s="138">
+      <c r="AF13" s="139">
         <v>5</v>
       </c>
-      <c r="AB13" s="138">
+      <c r="AG13" s="139">
         <v>1.2</v>
       </c>
-      <c r="AC13" s="138">
+      <c r="AH13" s="139">
         <v>0.8</v>
       </c>
-      <c r="AD13" s="138" t="s">
+      <c r="AI13" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="AE13" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="138" t="s">
+      <c r="AJ13" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="AG13" s="138" t="s">
+      <c r="AL13" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="AH13" s="138">
+      <c r="AM13" s="139">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI13" s="138">
+      <c r="AN13" s="139">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ13" s="146">
+      <c r="AO13" s="147">
         <v>0.12</v>
       </c>
-      <c r="AK13" s="147">
+      <c r="AP13" s="148">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL13" s="148">
+      <c r="AQ13" s="149">
         <v>123</v>
       </c>
-      <c r="AM13" s="138" t="s">
+      <c r="AR13" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AN13" s="138" t="s">
+      <c r="AS13" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AO13" s="142">
+      <c r="AT13" s="143">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AP13" s="142">
+      <c r="AU13" s="143">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AS13" s="139">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="138">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="138" t="s">
+      <c r="AX13" s="140">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="139">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AY13" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="149" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" s="138" customFormat="1">
-      <c r="A14" s="138" t="s">
+      <c r="BD13" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" s="139" customFormat="1">
+      <c r="A14" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="138" t="s">
+      <c r="C14" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="139" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="138" t="s">
+      <c r="E14" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="138" t="s">
+      <c r="F14" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="H14" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="138" t="s">
+      <c r="H14" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="138">
+      <c r="M14" s="139">
         <v>0.11</v>
       </c>
-      <c r="M14" s="142">
+      <c r="N14" s="143">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N14" s="143">
+      <c r="O14" s="144">
         <v>0.5</v>
       </c>
-      <c r="O14" s="144">
+      <c r="P14" s="145">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P14" s="145">
+      <c r="Q14" s="146">
         <v>0.5</v>
       </c>
-      <c r="Q14" s="143">
+      <c r="R14" s="144">
         <v>0.5</v>
       </c>
-      <c r="R14" s="138" t="s">
+      <c r="S14" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="S14" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="138">
+      <c r="T14" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" s="139">
         <v>0.02</v>
       </c>
-      <c r="U14" s="138">
+      <c r="V14" s="139">
         <v>0.02</v>
       </c>
-      <c r="V14" s="138">
-        <v>0</v>
-      </c>
-      <c r="W14" s="138" t="s">
+      <c r="W14" s="139">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="X14" s="138" t="s">
+      <c r="AC14" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="138">
+      <c r="AD14" s="139">
         <v>15</v>
       </c>
-      <c r="Z14" s="138">
+      <c r="AE14" s="139">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA14" s="138">
+      <c r="AF14" s="139">
         <v>5</v>
       </c>
-      <c r="AB14" s="138">
+      <c r="AG14" s="139">
         <v>1.2</v>
       </c>
-      <c r="AC14" s="138">
+      <c r="AH14" s="139">
         <v>0.8</v>
       </c>
-      <c r="AD14" s="138" t="s">
+      <c r="AI14" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="AE14" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="138" t="s">
+      <c r="AJ14" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="AG14" s="138" t="s">
+      <c r="AL14" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="AH14" s="138">
+      <c r="AM14" s="139">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI14" s="138">
+      <c r="AN14" s="139">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ14" s="146">
+      <c r="AO14" s="147">
         <v>0.12</v>
       </c>
-      <c r="AK14" s="147">
+      <c r="AP14" s="148">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL14" s="148">
+      <c r="AQ14" s="149">
         <v>123</v>
       </c>
-      <c r="AM14" s="138" t="s">
+      <c r="AR14" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AN14" s="138" t="s">
+      <c r="AS14" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AO14" s="142">
+      <c r="AT14" s="143">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AP14" s="142">
+      <c r="AU14" s="143">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AS14" s="139">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="138">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="138" t="s">
+      <c r="AX14" s="140">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="139">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AY14" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="149" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52">
-      <c r="C15" s="138"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="49"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="34"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AS15" s="39"/>
-      <c r="AZ15" s="19"/>
-    </row>
-    <row r="16" spans="1:52">
-      <c r="C16" s="138"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="49"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="34"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AS16" s="39"/>
-      <c r="AZ16" s="19"/>
-    </row>
-    <row r="17" spans="1:52" s="150" customFormat="1">
-      <c r="A17" s="150" t="s">
+      <c r="BD14" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" s="179" customFormat="1">
+      <c r="C15" s="139"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="192"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="192"/>
+      <c r="X15"/>
+      <c r="AO15" s="186"/>
+      <c r="AP15" s="187"/>
+      <c r="AQ15" s="188"/>
+      <c r="AT15" s="182"/>
+      <c r="AU15" s="182"/>
+      <c r="AX15" s="189"/>
+      <c r="BE15" s="190"/>
+    </row>
+    <row r="16" spans="1:57" s="179" customFormat="1">
+      <c r="C16" s="139"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="192"/>
+      <c r="X16"/>
+      <c r="AO16" s="186"/>
+      <c r="AP16" s="187"/>
+      <c r="AQ16" s="188"/>
+      <c r="AT16" s="182"/>
+      <c r="AU16" s="182"/>
+      <c r="AX16" s="189"/>
+      <c r="BE16" s="190"/>
+    </row>
+    <row r="17" spans="1:57" s="151" customFormat="1">
+      <c r="A17" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="150" t="s">
+      <c r="C17" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="150" t="s">
+      <c r="E17" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="150" t="s">
+      <c r="F17" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="151" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="150" t="s">
+      <c r="H17" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="150">
+      <c r="M17" s="151">
         <v>0.11</v>
       </c>
-      <c r="M17" s="152">
+      <c r="N17" s="153">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N17" s="153">
+      <c r="O17" s="154">
         <v>0.5</v>
       </c>
-      <c r="O17" s="154">
+      <c r="P17" s="155">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P17" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="153">
+      <c r="Q17" s="156">
+        <v>0</v>
+      </c>
+      <c r="R17" s="154">
         <v>0.5</v>
       </c>
-      <c r="R17" s="150" t="s">
+      <c r="S17" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="S17" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="151">
+      <c r="T17" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="152">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="U17" s="150">
+      <c r="V17" s="151">
         <v>0.03</v>
       </c>
-      <c r="V17" s="150">
-        <v>0</v>
-      </c>
-      <c r="W17" s="150" t="s">
+      <c r="W17" s="151">
+        <v>0</v>
+      </c>
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="X17" s="150" t="s">
+      <c r="AC17" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="Y17" s="150">
+      <c r="AD17" s="151">
         <v>15</v>
       </c>
-      <c r="Z17" s="150">
+      <c r="AE17" s="151">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA17" s="150">
+      <c r="AF17" s="151">
         <v>5</v>
       </c>
-      <c r="AB17" s="150">
+      <c r="AG17" s="151">
         <v>1.2</v>
       </c>
-      <c r="AC17" s="150">
+      <c r="AH17" s="151">
         <v>0.8</v>
       </c>
-      <c r="AD17" s="150" t="s">
+      <c r="AI17" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="AE17" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="150" t="s">
+      <c r="AJ17" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="AG17" s="150" t="s">
+      <c r="AL17" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="AH17" s="150">
+      <c r="AM17" s="151">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI17" s="150">
+      <c r="AN17" s="151">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ17" s="156">
+      <c r="AO17" s="157">
         <v>0.12</v>
       </c>
-      <c r="AK17" s="157">
+      <c r="AP17" s="158">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL17" s="158">
+      <c r="AQ17" s="159">
         <v>123</v>
       </c>
-      <c r="AM17" s="150" t="s">
+      <c r="AR17" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="AN17" s="150" t="s">
+      <c r="AS17" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="AO17" s="159">
+      <c r="AT17" s="160">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AP17" s="159">
+      <c r="AU17" s="160">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AS17" s="160">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="150">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="150" t="s">
+      <c r="AX17" s="161">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AY17" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:52" s="150" customFormat="1">
-      <c r="A18" s="150" t="s">
+      <c r="BD17" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" s="151" customFormat="1">
+      <c r="A18" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="150" t="s">
+      <c r="C18" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="151" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="150" t="s">
+      <c r="F18" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="H18" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="150" t="s">
+      <c r="H18" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="150">
+      <c r="M18" s="151">
         <v>0.11</v>
       </c>
-      <c r="M18" s="159">
+      <c r="N18" s="160">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N18" s="162">
+      <c r="O18" s="163">
         <v>0.5</v>
       </c>
-      <c r="O18" s="163">
+      <c r="P18" s="164">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P18" s="164">
+      <c r="Q18" s="165">
         <v>0.5</v>
       </c>
-      <c r="Q18" s="162">
+      <c r="R18" s="163">
         <v>0.5</v>
       </c>
-      <c r="R18" s="150" t="s">
+      <c r="S18" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="S18" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="151">
+      <c r="T18" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" s="152">
         <v>0.02</v>
       </c>
-      <c r="U18" s="150">
+      <c r="V18" s="151">
         <v>0.02</v>
       </c>
-      <c r="V18" s="150">
-        <v>0</v>
-      </c>
-      <c r="W18" s="150" t="s">
+      <c r="W18" s="151">
+        <v>0</v>
+      </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="X18" s="150" t="s">
+      <c r="AC18" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="Y18" s="150">
+      <c r="AD18" s="151">
         <v>15</v>
       </c>
-      <c r="Z18" s="150">
+      <c r="AE18" s="151">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA18" s="150">
+      <c r="AF18" s="151">
         <v>5</v>
       </c>
-      <c r="AB18" s="150">
+      <c r="AG18" s="151">
         <v>1.2</v>
       </c>
-      <c r="AC18" s="150">
+      <c r="AH18" s="151">
         <v>0.8</v>
       </c>
-      <c r="AD18" s="150" t="s">
+      <c r="AI18" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="AE18" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="150" t="s">
+      <c r="AJ18" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="AG18" s="150" t="s">
+      <c r="AL18" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="AH18" s="150">
+      <c r="AM18" s="151">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI18" s="150">
+      <c r="AN18" s="151">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ18" s="156">
+      <c r="AO18" s="157">
         <v>0.12</v>
       </c>
-      <c r="AK18" s="157">
+      <c r="AP18" s="158">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL18" s="158">
+      <c r="AQ18" s="159">
         <v>123</v>
       </c>
-      <c r="AM18" s="150" t="s">
+      <c r="AR18" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="AN18" s="150" t="s">
+      <c r="AS18" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="AO18" s="159">
+      <c r="AT18" s="160">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AP18" s="159">
+      <c r="AU18" s="160">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AS18" s="160">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="150">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="150" t="s">
+      <c r="AX18" s="161">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AY18" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:52" s="150" customFormat="1">
-      <c r="C19" s="138"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="153"/>
+      <c r="BD18" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" s="151" customFormat="1">
+      <c r="C19" s="139"/>
+      <c r="N19" s="160"/>
       <c r="O19" s="154"/>
       <c r="P19" s="155"/>
-      <c r="Q19" s="153"/>
-      <c r="AJ19" s="156"/>
-      <c r="AK19" s="157"/>
-      <c r="AL19" s="158"/>
-      <c r="AO19" s="159"/>
-      <c r="AP19" s="159"/>
-      <c r="AS19" s="160"/>
-      <c r="AZ19" s="161"/>
-    </row>
-    <row r="20" spans="1:52" s="150" customFormat="1">
-      <c r="A20" s="150" t="s">
+      <c r="Q19" s="156"/>
+      <c r="R19" s="154"/>
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="157"/>
+      <c r="AP19" s="158"/>
+      <c r="AQ19" s="159"/>
+      <c r="AT19" s="160"/>
+      <c r="AU19" s="160"/>
+      <c r="AX19" s="161"/>
+      <c r="BE19" s="162"/>
+    </row>
+    <row r="20" spans="1:57" s="151" customFormat="1">
+      <c r="A20" s="151" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="150" t="s">
+      <c r="C20" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="E20" s="150" t="s">
+      <c r="E20" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="150" t="s">
+      <c r="F20" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="151" t="s">
         <v>202</v>
       </c>
-      <c r="H20" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="150" t="s">
+      <c r="H20" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="L20" s="150">
+      <c r="M20" s="151">
         <v>0.11</v>
       </c>
-      <c r="M20" s="152">
+      <c r="N20" s="153">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N20" s="153">
+      <c r="O20" s="154">
         <v>0.5</v>
       </c>
-      <c r="O20" s="154">
+      <c r="P20" s="155">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P20" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="153">
+      <c r="Q20" s="156">
+        <v>0</v>
+      </c>
+      <c r="R20" s="154">
         <v>0.5</v>
       </c>
-      <c r="R20" s="150" t="s">
+      <c r="S20" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="S20" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="151">
+      <c r="T20" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" s="152">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="U20" s="150">
+      <c r="V20" s="151">
         <v>0.03</v>
       </c>
-      <c r="V20" s="150">
-        <v>0</v>
-      </c>
-      <c r="W20" s="150" t="s">
+      <c r="W20" s="151">
+        <v>0</v>
+      </c>
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="X20" s="150" t="s">
+      <c r="AC20" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="Y20" s="150">
+      <c r="AD20" s="151">
         <v>15</v>
       </c>
-      <c r="Z20" s="150">
+      <c r="AE20" s="151">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA20" s="150">
+      <c r="AF20" s="151">
         <v>5</v>
       </c>
-      <c r="AB20" s="150">
+      <c r="AG20" s="151">
         <v>1.2</v>
       </c>
-      <c r="AC20" s="150">
+      <c r="AH20" s="151">
         <v>0.8</v>
       </c>
-      <c r="AD20" s="150" t="s">
+      <c r="AI20" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="AE20" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="150" t="s">
+      <c r="AJ20" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="AG20" s="150" t="s">
+      <c r="AL20" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="AH20" s="150">
+      <c r="AM20" s="151">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI20" s="150">
+      <c r="AN20" s="151">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ20" s="156">
+      <c r="AO20" s="157">
         <v>0.12</v>
       </c>
-      <c r="AK20" s="157">
+      <c r="AP20" s="158">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL20" s="158">
+      <c r="AQ20" s="159">
         <v>123</v>
       </c>
-      <c r="AM20" s="150" t="s">
+      <c r="AR20" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="AN20" s="150" t="s">
+      <c r="AS20" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="AO20" s="159">
+      <c r="AT20" s="160">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AP20" s="159">
+      <c r="AU20" s="160">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AS20" s="160">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="150">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="150" t="s">
+      <c r="AX20" s="161">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AY20" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:52" s="150" customFormat="1">
-      <c r="A21" s="150" t="s">
+      <c r="BD20" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" s="151" customFormat="1">
+      <c r="A21" s="151" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="150" t="s">
+      <c r="C21" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="150" t="s">
+      <c r="E21" s="151" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="150" t="s">
+      <c r="F21" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="H21" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="150" t="s">
+      <c r="H21" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="L21" s="150">
+      <c r="M21" s="151">
         <v>0.11</v>
       </c>
-      <c r="M21" s="159">
+      <c r="N21" s="160">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N21" s="162">
+      <c r="O21" s="163">
         <v>0.5</v>
       </c>
-      <c r="O21" s="163">
+      <c r="P21" s="164">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P21" s="164">
+      <c r="Q21" s="165">
         <v>0.5</v>
       </c>
-      <c r="Q21" s="162">
+      <c r="R21" s="163">
         <v>0.5</v>
       </c>
-      <c r="R21" s="150" t="s">
+      <c r="S21" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="S21" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="151">
+      <c r="T21" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="152">
         <v>0.02</v>
       </c>
-      <c r="U21" s="150">
+      <c r="V21" s="151">
         <v>0.02</v>
       </c>
-      <c r="V21" s="150">
-        <v>0</v>
-      </c>
-      <c r="W21" s="150" t="s">
+      <c r="W21" s="151">
+        <v>0</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="X21" s="150" t="s">
+      <c r="AC21" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="Y21" s="150">
+      <c r="AD21" s="151">
         <v>15</v>
       </c>
-      <c r="Z21" s="150">
+      <c r="AE21" s="151">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA21" s="150">
+      <c r="AF21" s="151">
         <v>5</v>
       </c>
-      <c r="AB21" s="150">
+      <c r="AG21" s="151">
         <v>1.2</v>
       </c>
-      <c r="AC21" s="150">
+      <c r="AH21" s="151">
         <v>0.8</v>
       </c>
-      <c r="AD21" s="150" t="s">
+      <c r="AI21" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="AE21" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="150" t="s">
+      <c r="AJ21" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="AG21" s="150" t="s">
+      <c r="AL21" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="AH21" s="150">
+      <c r="AM21" s="151">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI21" s="150">
+      <c r="AN21" s="151">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ21" s="156">
+      <c r="AO21" s="157">
         <v>0.12</v>
       </c>
-      <c r="AK21" s="157">
+      <c r="AP21" s="158">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL21" s="158">
+      <c r="AQ21" s="159">
         <v>123</v>
       </c>
-      <c r="AM21" s="150" t="s">
+      <c r="AR21" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="AN21" s="150" t="s">
+      <c r="AS21" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="AO21" s="159">
+      <c r="AT21" s="160">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AP21" s="159">
+      <c r="AU21" s="160">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AS21" s="160">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="150">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="150" t="s">
+      <c r="AX21" s="161">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AY21" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ21" s="161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:52">
-      <c r="M22" s="20"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="49"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="34"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AS22" s="39"/>
-      <c r="AZ22" s="19"/>
-    </row>
-    <row r="23" spans="1:52">
-      <c r="M23" s="20"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="49"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="34"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AS23" s="39"/>
-      <c r="AZ23" s="19"/>
-    </row>
-    <row r="24" spans="1:52" s="165" customFormat="1">
-      <c r="A24" s="165" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="165" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" s="165" t="s">
+      <c r="BD21" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57">
+      <c r="C22" s="139"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="50"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="34"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AX22" s="39"/>
+      <c r="BE22" s="19"/>
+    </row>
+    <row r="23" spans="1:57">
+      <c r="C23" s="139"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="50"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="34"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AX23" s="39"/>
+      <c r="BE23" s="19"/>
+    </row>
+    <row r="24" spans="1:57" s="166" customFormat="1">
+      <c r="A24" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="165" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="165" t="s">
+      <c r="F24" s="166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="H24" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="167" t="s">
+      <c r="H24" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="167" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="168" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="165">
+      <c r="M24" s="166">
         <v>0.11</v>
       </c>
-      <c r="M24" s="168">
+      <c r="N24" s="169">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N24" s="169">
+      <c r="O24" s="170">
         <v>0.5</v>
       </c>
-      <c r="O24" s="170">
+      <c r="P24" s="171">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P24" s="171">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="169">
+      <c r="Q24" s="172">
+        <v>0</v>
+      </c>
+      <c r="R24" s="170">
         <v>0.5</v>
       </c>
-      <c r="R24" s="165" t="s">
+      <c r="S24" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="S24" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="T24" s="166">
-        <v>0</v>
-      </c>
-      <c r="U24" s="165">
+      <c r="T24" s="167" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" s="167">
+        <v>0</v>
+      </c>
+      <c r="V24" s="166">
         <v>0.03</v>
       </c>
-      <c r="V24" s="165">
-        <v>0</v>
-      </c>
-      <c r="W24" s="165" t="s">
+      <c r="W24" s="166">
+        <v>0</v>
+      </c>
+      <c r="X24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="X24" s="165" t="s">
+      <c r="AC24" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="Y24" s="165">
+      <c r="AD24" s="166">
         <v>15</v>
       </c>
-      <c r="Z24" s="165">
+      <c r="AE24" s="166">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA24" s="165">
+      <c r="AF24" s="166">
         <v>5</v>
       </c>
-      <c r="AB24" s="165">
+      <c r="AG24" s="166">
         <v>1.2</v>
       </c>
-      <c r="AC24" s="165">
+      <c r="AH24" s="166">
         <v>0.8</v>
       </c>
-      <c r="AD24" s="165" t="s">
+      <c r="AI24" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="AE24" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="165" t="s">
+      <c r="AJ24" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="AG24" s="165" t="s">
+      <c r="AL24" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="AH24" s="165">
+      <c r="AM24" s="166">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI24" s="165">
+      <c r="AN24" s="166">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ24" s="172">
+      <c r="AO24" s="173">
         <v>0.12</v>
       </c>
-      <c r="AK24" s="173">
+      <c r="AP24" s="174">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL24" s="174">
+      <c r="AQ24" s="175">
         <v>123</v>
       </c>
-      <c r="AM24" s="165" t="s">
+      <c r="AR24" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="AN24" s="165" t="s">
+      <c r="AS24" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="AO24" s="168">
+      <c r="AT24" s="169">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AP24" s="168">
+      <c r="AU24" s="169">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AS24" s="175">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU24" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV24" s="165" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="165">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="165" t="s">
+      <c r="AX24" s="176">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="166" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="166">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="AY24" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ24" s="176" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:52" s="165" customFormat="1">
-      <c r="A25" s="165" t="s">
-        <v>237</v>
-      </c>
-      <c r="C25" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="165" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="165" t="s">
+      <c r="BD24" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" s="166" customFormat="1">
+      <c r="A25" s="166" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="166" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="165" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="165" t="s">
+      <c r="F25" s="166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="H25" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="166" t="s">
+      <c r="H25" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="167" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="165">
+      <c r="M25" s="166">
         <v>0.11</v>
       </c>
-      <c r="M25" s="168">
+      <c r="N25" s="169">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N25" s="169">
+      <c r="O25" s="170">
         <v>0.5</v>
       </c>
-      <c r="O25" s="170">
+      <c r="P25" s="171">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P25" s="177">
+      <c r="Q25" s="178">
         <v>0.5</v>
       </c>
-      <c r="Q25" s="169">
+      <c r="R25" s="170">
         <v>0.5</v>
       </c>
-      <c r="R25" s="165" t="s">
+      <c r="S25" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="S25" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="T25" s="166">
-        <v>0</v>
-      </c>
-      <c r="U25" s="165">
+      <c r="T25" s="167" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" s="167">
+        <v>0</v>
+      </c>
+      <c r="V25" s="166">
         <v>0.02</v>
       </c>
-      <c r="V25" s="165">
-        <v>0</v>
-      </c>
-      <c r="W25" s="165" t="s">
+      <c r="W25" s="166">
+        <v>0</v>
+      </c>
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="X25" s="165" t="s">
+      <c r="AC25" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="Y25" s="165">
+      <c r="AD25" s="166">
         <v>15</v>
       </c>
-      <c r="Z25" s="165">
+      <c r="AE25" s="166">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA25" s="165">
+      <c r="AF25" s="166">
         <v>5</v>
       </c>
-      <c r="AB25" s="165">
+      <c r="AG25" s="166">
         <v>1.2</v>
       </c>
-      <c r="AC25" s="165">
+      <c r="AH25" s="166">
         <v>0.8</v>
       </c>
-      <c r="AD25" s="165" t="s">
+      <c r="AI25" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="AE25" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="165" t="s">
+      <c r="AJ25" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="AG25" s="165" t="s">
+      <c r="AL25" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="AH25" s="165">
+      <c r="AM25" s="166">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI25" s="165">
+      <c r="AN25" s="166">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ25" s="172">
+      <c r="AO25" s="173">
         <v>0.12</v>
       </c>
-      <c r="AK25" s="173">
+      <c r="AP25" s="174">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL25" s="174">
+      <c r="AQ25" s="175">
         <v>123</v>
       </c>
-      <c r="AM25" s="165" t="s">
+      <c r="AR25" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="AN25" s="165" t="s">
+      <c r="AS25" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="AO25" s="168">
+      <c r="AT25" s="169">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AP25" s="168">
+      <c r="AU25" s="169">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AS25" s="175">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU25" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV25" s="165" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="165">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="165" t="s">
+      <c r="AX25" s="176">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="166" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="166">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="AY25" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ25" s="176" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:52" s="165" customFormat="1">
-      <c r="M26" s="168"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="180"/>
-      <c r="Q26" s="178"/>
-      <c r="AJ26" s="172"/>
-      <c r="AK26" s="173"/>
-      <c r="AL26" s="174"/>
-      <c r="AO26" s="168"/>
-      <c r="AP26" s="168"/>
-      <c r="AS26" s="175"/>
-      <c r="AZ26" s="176"/>
-    </row>
-    <row r="27" spans="1:52" s="165" customFormat="1">
-      <c r="A27" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="165" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="165" t="s">
+      <c r="BD25" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" s="139" customFormat="1">
+      <c r="A28" s="139" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="139" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="165" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="165" t="s">
+      <c r="F28" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="166" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="L27" s="165">
+      <c r="H28" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="M28" s="139">
         <v>0.11</v>
       </c>
-      <c r="M27" s="168">
+      <c r="N28" s="143">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N27" s="169">
+      <c r="O28" s="144">
         <v>0.5</v>
       </c>
-      <c r="O27" s="170">
+      <c r="P28" s="145">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P27" s="171">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="169">
+      <c r="Q28" s="146">
+        <v>0</v>
+      </c>
+      <c r="R28" s="144">
         <v>0.5</v>
       </c>
-      <c r="R27" s="165" t="s">
+      <c r="S28" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="S27" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="T27" s="166">
-        <v>0</v>
-      </c>
-      <c r="U27" s="165">
+      <c r="T28" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" s="139">
         <v>0.03</v>
       </c>
-      <c r="V27" s="165">
-        <v>0</v>
-      </c>
-      <c r="W27" s="165" t="s">
+      <c r="V28" s="139">
+        <v>0.03</v>
+      </c>
+      <c r="W28" s="139">
+        <v>0</v>
+      </c>
+      <c r="X28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="139">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="139">
+        <v>20</v>
+      </c>
+      <c r="AA28" s="139">
+        <v>0.03</v>
+      </c>
+      <c r="AB28" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="X27" s="165" t="s">
+      <c r="AC28" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="Y27" s="165">
+      <c r="AD28" s="139">
         <v>15</v>
       </c>
-      <c r="Z27" s="165">
+      <c r="AE28" s="139">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA27" s="165">
+      <c r="AF28" s="139">
         <v>5</v>
       </c>
-      <c r="AB27" s="165">
+      <c r="AG28" s="139">
         <v>1.2</v>
       </c>
-      <c r="AC27" s="165">
+      <c r="AH28" s="139">
         <v>0.8</v>
       </c>
-      <c r="AD27" s="165" t="s">
+      <c r="AI28" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="AE27" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="165" t="s">
+      <c r="AJ28" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="AG27" s="165" t="s">
+      <c r="AL28" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="AH27" s="165">
+      <c r="AM28" s="139">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI27" s="165">
+      <c r="AN28" s="139">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ27" s="172">
+      <c r="AO28" s="147">
         <v>0.12</v>
       </c>
-      <c r="AK27" s="173">
+      <c r="AP28" s="148">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL27" s="174">
+      <c r="AQ28" s="149">
         <v>123</v>
       </c>
-      <c r="AM27" s="165" t="s">
+      <c r="AR28" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AN27" s="165" t="s">
+      <c r="AS28" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AO27" s="168">
+      <c r="AT28" s="143">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AP27" s="168">
+      <c r="AU28" s="143">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AS27" s="175">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="165" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="165">
-        <v>0</v>
-      </c>
-      <c r="AX27" s="165" t="s">
+      <c r="AX28" s="140">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="139">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AY27" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ27" s="176" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:52" s="165" customFormat="1">
-      <c r="A28" s="165" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="165" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="165" t="s">
+      <c r="BD28" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" s="139" customFormat="1">
+      <c r="A29" s="139" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="139" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="165" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="165" t="s">
+      <c r="F29" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="H28" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="166" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="166" t="s">
+      <c r="H29" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="L28" s="165">
+      <c r="M29" s="139">
         <v>0.11</v>
       </c>
-      <c r="M28" s="168">
+      <c r="N29" s="143">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N28" s="169">
+      <c r="O29" s="144">
         <v>0.5</v>
       </c>
-      <c r="O28" s="170">
+      <c r="P29" s="145">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P28" s="177">
+      <c r="Q29" s="146">
         <v>0.5</v>
       </c>
-      <c r="Q28" s="169">
+      <c r="R29" s="144">
         <v>0.5</v>
       </c>
-      <c r="R28" s="165" t="s">
+      <c r="S29" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="S28" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="T28" s="166">
-        <v>0</v>
-      </c>
-      <c r="U28" s="165">
+      <c r="T29" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" s="139">
         <v>0.02</v>
       </c>
-      <c r="V28" s="165">
-        <v>0</v>
-      </c>
-      <c r="W28" s="165" t="s">
+      <c r="V29" s="139">
+        <v>0.02</v>
+      </c>
+      <c r="W29" s="139">
+        <v>0</v>
+      </c>
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="139">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="139">
+        <v>20</v>
+      </c>
+      <c r="AA29" s="139">
+        <v>0.03</v>
+      </c>
+      <c r="AB29" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="X28" s="165" t="s">
+      <c r="AC29" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="Y28" s="165">
+      <c r="AD29" s="139">
         <v>15</v>
       </c>
-      <c r="Z28" s="165">
+      <c r="AE29" s="139">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA28" s="165">
+      <c r="AF29" s="139">
         <v>5</v>
       </c>
-      <c r="AB28" s="165">
+      <c r="AG29" s="139">
         <v>1.2</v>
       </c>
-      <c r="AC28" s="165">
+      <c r="AH29" s="139">
         <v>0.8</v>
       </c>
-      <c r="AD28" s="165" t="s">
+      <c r="AI29" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="AE28" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="165" t="s">
+      <c r="AJ29" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="AG28" s="165" t="s">
+      <c r="AL29" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="AH28" s="165">
+      <c r="AM29" s="139">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI28" s="165">
+      <c r="AN29" s="139">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ28" s="172">
+      <c r="AO29" s="147">
         <v>0.12</v>
       </c>
-      <c r="AK28" s="173">
+      <c r="AP29" s="148">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL28" s="174">
+      <c r="AQ29" s="149">
         <v>123</v>
       </c>
-      <c r="AM28" s="165" t="s">
+      <c r="AR29" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AN28" s="165" t="s">
+      <c r="AS29" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AO28" s="168">
+      <c r="AT29" s="143">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AP28" s="168">
+      <c r="AU29" s="143">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AS28" s="175">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU28" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV28" s="165" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="165">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="165" t="s">
+      <c r="AX29" s="140">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="139">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AY28" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ28" s="176" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:52">
-      <c r="M29" s="20"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="49"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="34"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AS29" s="39"/>
-      <c r="AZ29" s="19"/>
-    </row>
-    <row r="30" spans="1:52">
-      <c r="M30" s="20"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="49"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="34"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="20"/>
-      <c r="AS30" s="39"/>
-      <c r="AZ30" s="19"/>
-    </row>
-    <row r="31" spans="1:52">
-      <c r="M31" s="20"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="49"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="34"/>
-      <c r="AO31" s="20"/>
-      <c r="AP31" s="20"/>
-      <c r="AS31" s="39"/>
-      <c r="AZ31" s="19"/>
-    </row>
-    <row r="32" spans="1:52">
-      <c r="M32" s="20"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="49"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="34"/>
-      <c r="AO32" s="20"/>
-      <c r="AP32" s="20"/>
-      <c r="AS32" s="39"/>
-      <c r="AZ32" s="19"/>
-    </row>
-    <row r="33" spans="1:52">
-      <c r="M33" s="20"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="49"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="34"/>
-      <c r="AO33" s="20"/>
-      <c r="AP33" s="20"/>
-      <c r="AS33" s="39"/>
-      <c r="AZ33" s="19"/>
-    </row>
-    <row r="34" spans="1:52">
-      <c r="M34" s="20"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="135"/>
-      <c r="Q34" s="49"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="34"/>
-      <c r="AO34" s="20"/>
-      <c r="AP34" s="20"/>
-      <c r="AS34" s="39"/>
-      <c r="AZ34" s="19"/>
-    </row>
-    <row r="35" spans="1:52">
-      <c r="M35" s="20"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="135"/>
-      <c r="Q35" s="49"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="34"/>
-      <c r="AO35" s="20"/>
-      <c r="AP35" s="20"/>
-      <c r="AS35" s="39"/>
-      <c r="AZ35" s="19"/>
-    </row>
-    <row r="36" spans="1:52">
-      <c r="M36" s="20"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="135"/>
-      <c r="Q36" s="49"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="34"/>
-      <c r="AO36" s="20"/>
-      <c r="AP36" s="20"/>
-      <c r="AS36" s="39"/>
-      <c r="AZ36" s="19"/>
-    </row>
-    <row r="37" spans="1:52">
-      <c r="M37" s="20"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="135"/>
-      <c r="Q37" s="49"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="34"/>
-      <c r="AO37" s="20"/>
-      <c r="AP37" s="20"/>
-      <c r="AS37" s="39"/>
-      <c r="AZ37" s="19"/>
-    </row>
-    <row r="38" spans="1:52">
-      <c r="M38" s="20"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="135"/>
-      <c r="Q38" s="49"/>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="34"/>
-      <c r="AO38" s="20"/>
-      <c r="AP38" s="20"/>
-      <c r="AS38" s="39"/>
-      <c r="AZ38" s="19"/>
-    </row>
-    <row r="39" spans="1:52">
-      <c r="M39" s="20"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="135"/>
-      <c r="Q39" s="49"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="34"/>
-      <c r="AO39" s="20"/>
-      <c r="AP39" s="20"/>
-      <c r="AS39" s="39"/>
-      <c r="AZ39" s="19"/>
-    </row>
-    <row r="40" spans="1:52">
+      <c r="BD29" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE29" s="150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57">
+      <c r="N30" s="20"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="50"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="34"/>
+      <c r="AT30" s="20"/>
+      <c r="AU30" s="20"/>
+      <c r="AX30" s="39"/>
+      <c r="BE30" s="19"/>
+    </row>
+    <row r="31" spans="1:57">
+      <c r="N31" s="20"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="50"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="34"/>
+      <c r="AT31" s="20"/>
+      <c r="AU31" s="20"/>
+      <c r="AX31" s="39"/>
+      <c r="BE31" s="19"/>
+    </row>
+    <row r="32" spans="1:57">
+      <c r="N32" s="20"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="50"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="34"/>
+      <c r="AT32" s="20"/>
+      <c r="AU32" s="20"/>
+      <c r="AX32" s="39"/>
+      <c r="BE32" s="19"/>
+    </row>
+    <row r="33" spans="1:57">
+      <c r="N33" s="20"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="50"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="34"/>
+      <c r="AT33" s="20"/>
+      <c r="AU33" s="20"/>
+      <c r="AX33" s="39"/>
+      <c r="BE33" s="19"/>
+    </row>
+    <row r="34" spans="1:57">
+      <c r="N34" s="20"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="136"/>
+      <c r="R34" s="50"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="34"/>
+      <c r="AT34" s="20"/>
+      <c r="AU34" s="20"/>
+      <c r="AX34" s="39"/>
+      <c r="BE34" s="19"/>
+    </row>
+    <row r="35" spans="1:57">
+      <c r="N35" s="20"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="136"/>
+      <c r="R35" s="50"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="34"/>
+      <c r="AT35" s="20"/>
+      <c r="AU35" s="20"/>
+      <c r="AX35" s="39"/>
+      <c r="BE35" s="19"/>
+    </row>
+    <row r="36" spans="1:57" s="179" customFormat="1">
+      <c r="A36" s="179" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="179" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="179" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="179" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="179" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="180" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="179">
+        <v>0.11</v>
+      </c>
+      <c r="N36" s="182">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O36" s="183">
+        <v>0.5</v>
+      </c>
+      <c r="P36" s="184">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q36" s="185">
+        <v>0</v>
+      </c>
+      <c r="R36" s="183">
+        <v>0.5</v>
+      </c>
+      <c r="S36" s="179" t="s">
+        <v>129</v>
+      </c>
+      <c r="T36" s="180" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" s="180">
+        <v>0</v>
+      </c>
+      <c r="V36" s="179">
+        <v>0.03</v>
+      </c>
+      <c r="W36" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="179" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC36" s="179" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD36" s="179">
+        <v>15</v>
+      </c>
+      <c r="AE36" s="179">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AF36" s="179">
+        <v>5</v>
+      </c>
+      <c r="AG36" s="179">
+        <v>1.2</v>
+      </c>
+      <c r="AH36" s="179">
+        <v>0.8</v>
+      </c>
+      <c r="AI36" s="179" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ36" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="179" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL36" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM36" s="179">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AN36" s="179">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO36" s="186">
+        <v>0.12</v>
+      </c>
+      <c r="AP36" s="187">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ36" s="188">
+        <v>123</v>
+      </c>
+      <c r="AR36" s="179" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS36" s="179" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT36" s="182">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AU36" s="182">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AX36" s="189">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="179" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="179">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="179" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD36" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE36" s="190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" s="179" customFormat="1">
+      <c r="A37" s="179" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="179" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="179" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="179" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="180" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="180" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" s="179">
+        <v>0.11</v>
+      </c>
+      <c r="N37" s="182">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O37" s="183">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="184">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q37" s="191">
+        <v>0.5</v>
+      </c>
+      <c r="R37" s="183">
+        <v>0.5</v>
+      </c>
+      <c r="S37" s="179" t="s">
+        <v>129</v>
+      </c>
+      <c r="T37" s="180" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" s="180">
+        <v>0</v>
+      </c>
+      <c r="V37" s="179">
+        <v>0.02</v>
+      </c>
+      <c r="W37" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="179" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC37" s="179" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD37" s="179">
+        <v>15</v>
+      </c>
+      <c r="AE37" s="179">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AF37" s="179">
+        <v>5</v>
+      </c>
+      <c r="AG37" s="179">
+        <v>1.2</v>
+      </c>
+      <c r="AH37" s="179">
+        <v>0.8</v>
+      </c>
+      <c r="AI37" s="179" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ37" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="179" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL37" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM37" s="179">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AN37" s="179">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO37" s="186">
+        <v>0.12</v>
+      </c>
+      <c r="AP37" s="187">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ37" s="188">
+        <v>123</v>
+      </c>
+      <c r="AR37" s="179" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS37" s="179" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT37" s="182">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AU37" s="182">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AX37" s="189">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ37" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="179" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="179">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="179" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD37" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE37" s="190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57">
+      <c r="N38" s="20"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="136"/>
+      <c r="R38" s="50"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="34"/>
+      <c r="AT38" s="20"/>
+      <c r="AU38" s="20"/>
+      <c r="AX38" s="39"/>
+      <c r="BE38" s="19"/>
+    </row>
+    <row r="39" spans="1:57">
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>131</v>
+      </c>
+      <c r="M39">
+        <v>0.11</v>
+      </c>
+      <c r="N39" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q39" s="136">
+        <v>0</v>
+      </c>
+      <c r="R39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S39" t="s">
+        <v>129</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0.03</v>
+      </c>
+      <c r="V39">
+        <v>0.03</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD39">
+        <v>15</v>
+      </c>
+      <c r="AE39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AF39">
+        <v>5</v>
+      </c>
+      <c r="AG39">
+        <v>1.2</v>
+      </c>
+      <c r="AH39">
+        <v>0.8</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM39">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AN39">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP39" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ39" s="34">
+        <v>123</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT39" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AU39" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AX39" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE39" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5137,13 +5759,13 @@
         <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -5154,297 +5776,297 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>131</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>0.11</v>
       </c>
-      <c r="M40" s="20">
+      <c r="N40" s="20">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N40" s="49">
+      <c r="O40" s="50">
         <v>0.5</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P40" s="135">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="49">
+      <c r="Q40" s="136">
         <v>0.5</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S40" t="s">
         <v>129</v>
       </c>
-      <c r="S40" t="b">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0.03</v>
+      <c r="T40" t="b">
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="s">
         <v>123</v>
       </c>
-      <c r="X40" t="s">
+      <c r="AC40" t="s">
         <v>35</v>
       </c>
-      <c r="Y40">
+      <c r="AD40">
         <v>15</v>
       </c>
-      <c r="Z40">
+      <c r="AE40">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA40">
+      <c r="AF40">
         <v>5</v>
       </c>
-      <c r="AB40">
+      <c r="AG40">
         <v>1.2</v>
       </c>
-      <c r="AC40">
+      <c r="AH40">
         <v>0.8</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AI40" t="s">
         <v>134</v>
       </c>
-      <c r="AE40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF40" t="s">
+      <c r="AJ40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="s">
         <v>100</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AL40" t="s">
         <v>20</v>
       </c>
-      <c r="AH40">
+      <c r="AM40">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI40">
+      <c r="AN40">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ40" s="3">
+      <c r="AO40" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK40" s="5">
+      <c r="AP40" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL40" s="34">
+      <c r="AQ40" s="34">
         <v>123</v>
       </c>
-      <c r="AM40" t="s">
+      <c r="AR40" t="s">
         <v>31</v>
       </c>
-      <c r="AN40" t="s">
+      <c r="AS40" t="s">
         <v>31</v>
       </c>
-      <c r="AO40" s="20">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AP40" s="20">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AS40" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40" t="s">
+      <c r="AT40" s="20">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AU40" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AX40" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="s">
         <v>3</v>
       </c>
-      <c r="AY40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ40" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:52">
-      <c r="A41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" t="s">
-        <v>191</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="BD40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE40" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57">
+      <c r="N41" s="20"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="136"/>
+      <c r="R41" s="50"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="34"/>
+      <c r="AT41" s="20"/>
+      <c r="AU41" s="20"/>
+      <c r="AX41" s="39"/>
+      <c r="BE41" s="19"/>
+    </row>
+    <row r="42" spans="1:57">
+      <c r="A42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
         <v>131</v>
       </c>
-      <c r="L41">
+      <c r="M42">
         <v>0.11</v>
       </c>
-      <c r="M41" s="20">
+      <c r="N42" s="20">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N41" s="49">
+      <c r="O42" s="50">
         <v>0.5</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P42" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P41" s="135">
+      <c r="Q42" s="136">
+        <v>0</v>
+      </c>
+      <c r="R42" s="50">
         <v>0.5</v>
       </c>
-      <c r="Q41" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="S42" t="s">
         <v>129</v>
       </c>
-      <c r="S41" t="b">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0.02</v>
-      </c>
-      <c r="U41">
-        <v>0.02</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41" t="s">
+      <c r="T42" t="b">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>0.03</v>
+      </c>
+      <c r="V42">
+        <v>0.03</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="s">
         <v>123</v>
       </c>
-      <c r="X41" t="s">
+      <c r="AC42" t="s">
         <v>35</v>
       </c>
-      <c r="Y41">
+      <c r="AD42">
         <v>15</v>
       </c>
-      <c r="Z41">
+      <c r="AE42">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA41">
+      <c r="AF42">
         <v>5</v>
       </c>
-      <c r="AB41">
+      <c r="AG42">
         <v>1.2</v>
       </c>
-      <c r="AC41">
+      <c r="AH42">
         <v>0.8</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AI42" t="s">
         <v>134</v>
       </c>
-      <c r="AE41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF41" t="s">
+      <c r="AJ42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="s">
         <v>100</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AL42" t="s">
         <v>20</v>
       </c>
-      <c r="AH41">
+      <c r="AM42">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI41">
+      <c r="AN42">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ41" s="3">
+      <c r="AO42" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK41" s="5">
+      <c r="AP42" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL41" s="34">
+      <c r="AQ42" s="34">
         <v>123</v>
       </c>
-      <c r="AM41" t="s">
+      <c r="AR42" t="s">
         <v>31</v>
       </c>
-      <c r="AN41" t="s">
+      <c r="AS42" t="s">
         <v>31</v>
       </c>
-      <c r="AO41" s="20">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AP41" s="20">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AS41" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41" t="s">
+      <c r="AT42" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AU42" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AX42" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="s">
         <v>3</v>
       </c>
-      <c r="AY41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ41" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:52">
-      <c r="M42" s="20"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="135"/>
-      <c r="Q42" s="49"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="34"/>
-      <c r="AO42" s="20"/>
-      <c r="AP42" s="20"/>
-      <c r="AS42" s="39"/>
-      <c r="AZ42" s="19"/>
-    </row>
-    <row r="43" spans="1:52">
+      <c r="BD42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE42" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57">
       <c r="A43" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -5453,13 +6075,13 @@
         <v>199</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -5470,290 +6092,139 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>131</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>0.11</v>
       </c>
-      <c r="M43" s="20">
+      <c r="N43" s="20">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="N43" s="49">
+      <c r="O43" s="50">
         <v>0.5</v>
       </c>
-      <c r="O43" s="4">
+      <c r="P43" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="P43" s="135">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="49">
+      <c r="Q43" s="136">
         <v>0.5</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S43" t="s">
         <v>129</v>
       </c>
-      <c r="S43" t="b">
-        <v>1</v>
-      </c>
-      <c r="T43">
-        <v>0.03</v>
+      <c r="T43" t="b">
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="s">
         <v>123</v>
       </c>
-      <c r="X43" t="s">
+      <c r="AC43" t="s">
         <v>35</v>
       </c>
-      <c r="Y43">
+      <c r="AD43">
         <v>15</v>
       </c>
-      <c r="Z43">
+      <c r="AE43">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA43">
+      <c r="AF43">
         <v>5</v>
       </c>
-      <c r="AB43">
+      <c r="AG43">
         <v>1.2</v>
       </c>
-      <c r="AC43">
+      <c r="AH43">
         <v>0.8</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AI43" t="s">
         <v>134</v>
       </c>
-      <c r="AE43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="s">
+      <c r="AJ43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="s">
         <v>100</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AL43" t="s">
         <v>20</v>
       </c>
-      <c r="AH43">
+      <c r="AM43">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI43">
+      <c r="AN43">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ43" s="3">
+      <c r="AO43" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK43" s="5">
+      <c r="AP43" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL43" s="34">
+      <c r="AQ43" s="34">
         <v>123</v>
       </c>
-      <c r="AM43" t="s">
+      <c r="AR43" t="s">
         <v>31</v>
       </c>
-      <c r="AN43" t="s">
+      <c r="AS43" t="s">
         <v>31</v>
       </c>
-      <c r="AO43" s="20">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AP43" s="20">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AS43" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW43">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="s">
+      <c r="AT43" s="20">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AU43" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AX43" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="s">
         <v>3</v>
       </c>
-      <c r="AY43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ43" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:52">
-      <c r="A44" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>204</v>
-      </c>
-      <c r="H44" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>131</v>
-      </c>
-      <c r="L44">
-        <v>0.11</v>
-      </c>
-      <c r="M44" s="20">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="N44" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="O44" s="4">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="P44" s="135">
-        <v>0.5</v>
-      </c>
-      <c r="Q44" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="R44" t="s">
-        <v>129</v>
-      </c>
-      <c r="S44" t="b">
-        <v>1</v>
-      </c>
-      <c r="T44">
-        <v>0.02</v>
-      </c>
-      <c r="U44">
-        <v>0.02</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44" t="s">
-        <v>123</v>
-      </c>
-      <c r="X44" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y44">
-        <v>15</v>
-      </c>
-      <c r="Z44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AA44">
-        <v>5</v>
-      </c>
-      <c r="AB44">
-        <v>1.2</v>
-      </c>
-      <c r="AC44">
-        <v>0.8</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH44">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AI44">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AJ44" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AK44" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AL44" s="34">
-        <v>123</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO44" s="20">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AP44" s="20">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AS44" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW44">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ44" s="19" t="b">
+      <c r="BD43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE43" s="19" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU5:AV44 C5:C44" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ5:BA25 C28:C43 AZ28:BA43 C5:C25" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AF44" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK5:AK25 AK28:AK43" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K44" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L25 L28:L43" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
       <formula1>"fixedRate, sharedNC, sharedADC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5869,7 +6340,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5906,18 +6377,18 @@
       <c r="E3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
       <c r="H3" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K3" s="35"/>
       <c r="L3" s="35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M3" s="35"/>
       <c r="N3" s="35"/>
@@ -5961,28 +6432,28 @@
       <c r="E4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="138" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="121" t="s">
+      <c r="K4" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="M4" s="121" t="s">
+      <c r="M4" s="122" t="s">
         <v>194</v>
       </c>
       <c r="N4" s="36" t="s">
@@ -6264,213 +6735,213 @@
     <row r="12" spans="1:27">
       <c r="U12" s="39"/>
     </row>
-    <row r="13" spans="1:27" s="138" customFormat="1">
-      <c r="A13" s="138" t="s">
+    <row r="13" spans="1:27" s="139" customFormat="1">
+      <c r="A13" s="139" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="138" t="s">
+      <c r="C13" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="138" t="s">
+      <c r="F13" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="L13" s="138">
-        <v>0</v>
-      </c>
-      <c r="M13" s="138">
-        <v>0</v>
-      </c>
-      <c r="N13" s="138">
+      <c r="L13" s="139">
+        <v>0</v>
+      </c>
+      <c r="M13" s="139">
+        <v>0</v>
+      </c>
+      <c r="N13" s="139">
         <v>2021</v>
       </c>
-      <c r="O13" s="138" t="s">
+      <c r="O13" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="138">
+      <c r="P13" s="139">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q13" s="138">
-        <v>0</v>
-      </c>
-      <c r="R13" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="S13" s="138">
+      <c r="Q13" s="139">
+        <v>0</v>
+      </c>
+      <c r="R13" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" s="139">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T13" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="U13" s="139">
+      <c r="T13" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="140">
         <v>0.11</v>
       </c>
-      <c r="V13" s="138">
-        <v>0</v>
-      </c>
-      <c r="X13" s="138">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="138">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="138">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="138" customFormat="1">
-      <c r="U14" s="139"/>
-    </row>
-    <row r="15" spans="1:27" s="138" customFormat="1">
-      <c r="U15" s="139"/>
+      <c r="V13" s="139">
+        <v>0</v>
+      </c>
+      <c r="X13" s="139">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="139">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="139">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="139" customFormat="1">
+      <c r="U14" s="140"/>
+    </row>
+    <row r="15" spans="1:27" s="139" customFormat="1">
+      <c r="U15" s="140"/>
     </row>
     <row r="16" spans="1:27">
       <c r="U16" s="39"/>
     </row>
-    <row r="17" spans="1:27" s="138" customFormat="1">
-      <c r="A17" s="138" t="s">
+    <row r="17" spans="1:27" s="139" customFormat="1">
+      <c r="A17" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="138" t="s">
+      <c r="C17" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="140" t="s">
+      <c r="F17" s="141" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="140">
+      <c r="G17" s="141">
         <v>2021</v>
       </c>
-      <c r="H17" s="140">
+      <c r="H17" s="141">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I17" s="140">
+      <c r="I17" s="141">
         <v>0.75</v>
       </c>
-      <c r="J17" s="140">
+      <c r="J17" s="141">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K17" s="140">
+      <c r="K17" s="141">
         <v>0.02</v>
       </c>
-      <c r="L17" s="138">
-        <v>0</v>
-      </c>
-      <c r="M17" s="138">
-        <v>0</v>
-      </c>
-      <c r="N17" s="138">
+      <c r="L17" s="139">
+        <v>0</v>
+      </c>
+      <c r="M17" s="139">
+        <v>0</v>
+      </c>
+      <c r="N17" s="139">
         <v>2021</v>
       </c>
-      <c r="O17" s="138" t="s">
+      <c r="O17" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="138">
+      <c r="P17" s="139">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q17" s="138">
-        <v>0</v>
-      </c>
-      <c r="R17" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="S17" s="138">
+      <c r="Q17" s="139">
+        <v>0</v>
+      </c>
+      <c r="R17" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" s="139">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T17" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" s="139">
+      <c r="T17" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="140">
         <v>0.11</v>
       </c>
-      <c r="V17" s="138">
-        <v>0</v>
-      </c>
-      <c r="X17" s="138">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="138">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="138">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="138" customFormat="1">
-      <c r="A18" s="138" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="138" t="s">
+      <c r="V17" s="139">
+        <v>0</v>
+      </c>
+      <c r="X17" s="139">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="139">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="139">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="139" customFormat="1">
+      <c r="A18" s="139" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="140" t="s">
-        <v>228</v>
-      </c>
-      <c r="G18" s="141">
+      <c r="F18" s="141" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="142">
         <v>2021</v>
       </c>
-      <c r="J18" s="140">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K18" s="140">
+      <c r="J18" s="195">
+        <v>0.03</v>
+      </c>
+      <c r="K18" s="195">
         <v>0.02</v>
       </c>
-      <c r="L18" s="138">
-        <v>0</v>
-      </c>
-      <c r="M18" s="138">
-        <v>0</v>
-      </c>
-      <c r="N18" s="138">
+      <c r="L18" s="139">
+        <v>0</v>
+      </c>
+      <c r="M18" s="139">
+        <v>0</v>
+      </c>
+      <c r="N18" s="139">
         <v>2021</v>
       </c>
-      <c r="O18" s="138" t="s">
+      <c r="O18" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="138">
+      <c r="P18" s="139">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q18" s="138">
-        <v>0</v>
-      </c>
-      <c r="R18" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="S18" s="138">
+      <c r="Q18" s="139">
+        <v>0</v>
+      </c>
+      <c r="R18" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" s="139">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T18" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" s="139">
+      <c r="T18" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" s="140">
         <v>0.11</v>
       </c>
-      <c r="V18" s="138">
-        <v>0</v>
-      </c>
-      <c r="X18" s="138">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="138">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="138">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="138">
+      <c r="V18" s="139">
+        <v>0</v>
+      </c>
+      <c r="X18" s="139">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="139">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="139">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="139">
         <v>1</v>
       </c>
     </row>
@@ -6480,133 +6951,133 @@
     <row r="20" spans="1:27">
       <c r="U20" s="39"/>
     </row>
-    <row r="21" spans="1:27" s="138" customFormat="1">
-      <c r="A21" s="138" t="s">
+    <row r="21" spans="1:27" s="139" customFormat="1">
+      <c r="A21" s="139" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="138" t="s">
+      <c r="C21" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="138" t="s">
+      <c r="F21" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="G21" s="138">
+      <c r="G21" s="139">
         <v>2021</v>
       </c>
-      <c r="L21" s="138">
+      <c r="L21" s="139">
         <v>0.5</v>
       </c>
-      <c r="M21" s="138">
+      <c r="M21" s="139">
         <v>0.5</v>
       </c>
-      <c r="N21" s="138">
+      <c r="N21" s="139">
         <v>2021</v>
       </c>
-      <c r="O21" s="138" t="s">
+      <c r="O21" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="138">
+      <c r="P21" s="139">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q21" s="138">
-        <v>0</v>
-      </c>
-      <c r="R21" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="S21" s="138">
+      <c r="Q21" s="139">
+        <v>0</v>
+      </c>
+      <c r="R21" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" s="139">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T21" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" s="139">
+      <c r="T21" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="140">
         <v>0.11</v>
       </c>
-      <c r="V21" s="138">
-        <v>0</v>
-      </c>
-      <c r="X21" s="138">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="138">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="138">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" s="138" customFormat="1">
-      <c r="A22" s="138" t="s">
+      <c r="V21" s="139">
+        <v>0</v>
+      </c>
+      <c r="X21" s="139">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="139">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="139">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="139" customFormat="1">
+      <c r="A22" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="138" t="s">
+      <c r="C22" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="138" t="s">
+      <c r="F22" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="G22" s="138">
+      <c r="G22" s="139">
         <v>2021</v>
       </c>
-      <c r="J22" s="138">
+      <c r="J22" s="139">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K22" s="138">
+      <c r="K22" s="139">
         <v>0.02</v>
       </c>
-      <c r="L22" s="138">
-        <v>0</v>
-      </c>
-      <c r="M22" s="138">
-        <v>0</v>
-      </c>
-      <c r="N22" s="138">
+      <c r="L22" s="139">
+        <v>0</v>
+      </c>
+      <c r="M22" s="139">
+        <v>0</v>
+      </c>
+      <c r="N22" s="139">
         <v>2021</v>
       </c>
-      <c r="O22" s="138" t="s">
+      <c r="O22" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="138">
+      <c r="P22" s="139">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q22" s="138">
-        <v>0</v>
-      </c>
-      <c r="R22" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="S22" s="138">
+      <c r="Q22" s="139">
+        <v>0</v>
+      </c>
+      <c r="R22" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" s="139">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T22" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" s="139">
+      <c r="T22" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" s="140">
         <v>0.11</v>
       </c>
-      <c r="V22" s="138">
-        <v>0</v>
-      </c>
-      <c r="X22" s="138">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="138">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="138">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="138">
+      <c r="V22" s="139">
+        <v>0</v>
+      </c>
+      <c r="X22" s="139">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="139">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="139">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="139">
         <v>1</v>
       </c>
     </row>
@@ -6647,8 +7118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6695,10 +7166,10 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -6728,25 +7199,357 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4758AB1D-5D27-425D-BA62-0973AEFB252B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C7BB5-EA3C-4C89-A2AC-0AA9AD722C7F}">
+  <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="133" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="133" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="133" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="133" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="133" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="179"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="151" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="151" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="151" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="151" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="151" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="151" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="151" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="151" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="151" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="151" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="151"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="151" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="151" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="151" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="151" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="151" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="151" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="151" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="151" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="151" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="166" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="166" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="166" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="151" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="166" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="166" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="166" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="166" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="166" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="179" customFormat="1"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="179" customFormat="1"/>
+    <row r="18" spans="1:7" s="179" customFormat="1"/>
+    <row r="19" spans="1:7" s="179" customFormat="1"/>
+    <row r="20" spans="1:7" s="179" customFormat="1"/>
+    <row r="21" spans="1:7" s="179" customFormat="1"/>
+    <row r="22" spans="1:7" s="179" customFormat="1"/>
+    <row r="23" spans="1:7" s="179" customFormat="1">
+      <c r="A23" s="179" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="179" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="179" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="179" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23" s="179" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="179" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="179" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="179" customFormat="1">
+      <c r="A24" s="179" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="179" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="179" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="179" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="179" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="179" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" s="179" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B24" xr:uid="{55A447E2-018F-43DD-8296-EAECE125C7D0}">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6804,7 +7607,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6812,46 +7615,46 @@
         <v>20</v>
       </c>
       <c r="B3" s="4">
-        <v>7.4700000000000003E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E10" si="1">F3</f>
+        <f>F3</f>
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F4" si="2">B3 - C3^2/2</f>
+        <f t="shared" ref="F3" si="1">B3 - C3^2/2</f>
         <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E11" si="2">F4</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <f>F4</f>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F5" si="3">B4 - C4^2/2</f>
         <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="2"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6872,8 +7675,11 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5" si="3">B5 - C5^2/2</f>
+        <f t="shared" si="3"/>
         <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6881,7 +7687,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="4">
-        <v>-0.24</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -6890,12 +7696,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.24</v>
+        <f>F6</f>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ref="F6" si="4">B6 - C6^2/2</f>
-        <v>-0.24</v>
+        <v>6.7500000000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6903,7 +7709,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="4">
-        <v>0.12</v>
+        <v>-0.24</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -6912,12 +7718,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
+        <f t="shared" si="2"/>
+        <v>-0.24</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" ref="F7:F10" si="5">B7 - C7^2/2</f>
-        <v>0.12</v>
+        <f t="shared" ref="F7" si="5">B7 - C7^2/2</f>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6934,11 +7740,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F8:F11" si="6">B8 - C8^2/2</f>
         <v>0.12</v>
       </c>
     </row>
@@ -6956,11 +7762,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.12</v>
       </c>
     </row>
@@ -6969,20 +7775,42 @@
         <v>99</v>
       </c>
       <c r="B10" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="6"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>34</v>
       </c>
-      <c r="E10" s="4">
-        <f t="shared" si="1"/>
+      <c r="E11" s="4">
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" si="5"/>
+      <c r="F11" s="6">
+        <f t="shared" si="6"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -6996,8 +7824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9FDD0-43C0-4547-B8AB-B7BD31607ED6}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7013,11 +7841,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>139</v>
       </c>
       <c r="E3" t="s">
@@ -7025,564 +7853,564 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="50"/>
-      <c r="C4" s="53">
+      <c r="B4" s="51"/>
+      <c r="C4" s="54">
         <v>43646</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="54">
         <v>43646</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="64">
         <v>442147</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="67">
         <v>733822</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="69">
         <f>SUM(C6:D6)</f>
         <v>1175969</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="64">
         <v>5389</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="64">
         <v>5692</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="69">
         <f t="shared" ref="E7:E42" si="0">SUM(C7:D7)</f>
         <v>11081</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="64">
         <v>1436</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="64">
         <v>1820</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="69">
         <f t="shared" si="0"/>
         <v>3256</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="65">
         <v>159348</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="65">
         <v>161821</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="69">
         <f t="shared" si="0"/>
         <v>321169</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="74">
         <v>608320</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="74">
         <v>903155</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="75">
         <f t="shared" si="0"/>
         <v>1511475</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="112">
         <v>71385</v>
       </c>
-      <c r="D11" s="111">
+      <c r="D11" s="112">
         <v>96246</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="75">
         <v>167631</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="75"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="116">
         <f>C6/C$11</f>
         <v>6.1938362401064646</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="116">
         <f t="shared" ref="D13:E13" si="1">D6/D$11</f>
         <v>7.6244415352326333</v>
       </c>
-      <c r="E13" s="115">
+      <c r="E13" s="116">
         <f t="shared" si="1"/>
         <v>7.0152239144311013</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="116">
         <f t="shared" ref="C14:E14" si="2">C7/C$11</f>
         <v>7.5492050150591863E-2</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="116">
         <f t="shared" si="2"/>
         <v>5.9140120108887639E-2</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="116">
         <f t="shared" si="2"/>
         <v>6.6103525004324981E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="116">
         <f t="shared" ref="C15:E15" si="3">C8/C$11</f>
         <v>2.0116270925264412E-2</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="116">
         <f t="shared" si="3"/>
         <v>1.8909876774099704E-2</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="116">
         <f t="shared" si="3"/>
         <v>1.9423614963819343E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="115">
+      <c r="C16" s="116">
         <f t="shared" ref="C16:E16" si="4">C9/C$11</f>
         <v>2.2322336625341457</v>
       </c>
-      <c r="D16" s="115">
+      <c r="D16" s="116">
         <f t="shared" si="4"/>
         <v>1.6813270161876857</v>
       </c>
-      <c r="E16" s="115">
+      <c r="E16" s="116">
         <f t="shared" si="4"/>
         <v>1.9159284380574</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="117">
+      <c r="C17" s="118">
         <f t="shared" ref="C17:E17" si="5">C10/C$11</f>
         <v>8.5216782237164672</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="118">
         <f t="shared" si="5"/>
         <v>9.3838185483033065</v>
       </c>
-      <c r="E17" s="117">
+      <c r="E17" s="118">
         <f t="shared" si="5"/>
         <v>9.016679492456646</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="67">
         <v>9069</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="67">
         <v>95139</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="70">
         <f t="shared" si="0"/>
         <v>104208</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="68">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="67">
         <v>499249</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="64">
         <v>1423962</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="69">
         <f t="shared" si="0"/>
         <v>1923211</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="64">
         <v>86688</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="64">
         <v>92287</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="69">
         <f t="shared" si="0"/>
         <v>178975</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="65">
         <v>627487</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="65">
         <v>612388</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="69">
         <f t="shared" si="0"/>
         <v>1239875</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="76">
         <v>1213424</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="76">
         <v>2128637</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="77">
         <f t="shared" si="0"/>
         <v>3342061</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="79">
         <v>1830813</v>
       </c>
-      <c r="D24" s="78">
+      <c r="D24" s="79">
         <v>3126931</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="80">
         <f t="shared" si="0"/>
         <v>4957744</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="64">
         <v>1054566</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="64">
         <v>1792577</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="69">
         <f t="shared" si="0"/>
         <v>2847143</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="64">
         <v>776247</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="64">
         <v>1334354</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="69">
         <f t="shared" si="0"/>
         <v>2110601</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="48" customHeight="1">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="68"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="69"/>
     </row>
     <row r="28" spans="2:5" ht="48" customHeight="1">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="68"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="63">
         <v>3777</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="63">
         <v>10770</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="69">
         <f t="shared" si="0"/>
         <v>14547</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="62">
         <v>57</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="58">
         <v>2818</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="69">
         <f t="shared" si="0"/>
         <v>2875</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="62">
         <v>61</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="62">
         <v>168</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="69">
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="59">
         <v>3867</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="59">
         <v>8457</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="69">
         <f t="shared" si="0"/>
         <v>12324</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="71">
         <v>7762</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="71">
         <v>22213</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E33" s="70">
         <f t="shared" si="0"/>
         <v>29975</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="100">
+      <c r="C34" s="101">
         <v>12070</v>
       </c>
-      <c r="D34" s="97">
+      <c r="D34" s="98">
         <v>38475</v>
       </c>
-      <c r="E34" s="104">
+      <c r="E34" s="105">
         <f t="shared" ref="E34" si="6">SUM(C34:D34)</f>
         <v>50545</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="120">
+      <c r="C35" s="121">
         <f>C29/C$34</f>
         <v>0.31292460646230325</v>
       </c>
-      <c r="D35" s="120">
+      <c r="D35" s="121">
         <f t="shared" ref="D35:E35" si="7">D29/D$34</f>
         <v>0.27992202729044835</v>
       </c>
-      <c r="E35" s="120">
+      <c r="E35" s="121">
         <f t="shared" si="7"/>
         <v>0.28780294786823624</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="120">
+      <c r="C36" s="121">
         <f t="shared" ref="C36:E36" si="8">C30/C$34</f>
         <v>4.7224523612261803E-3</v>
       </c>
-      <c r="D36" s="120">
+      <c r="D36" s="121">
         <f t="shared" si="8"/>
         <v>7.3242365172189738E-2</v>
       </c>
-      <c r="E36" s="120">
+      <c r="E36" s="121">
         <f t="shared" si="8"/>
         <v>5.6880007913740233E-2</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="120">
+      <c r="C37" s="121">
         <f t="shared" ref="C37:E37" si="9">C31/C$34</f>
         <v>5.0538525269262632E-3</v>
       </c>
-      <c r="D37" s="120">
+      <c r="D37" s="121">
         <f t="shared" si="9"/>
         <v>4.3664717348927875E-3</v>
       </c>
-      <c r="E37" s="120">
+      <c r="E37" s="121">
         <f t="shared" si="9"/>
         <v>4.5306162825205264E-3</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="120">
+      <c r="C38" s="121">
         <f t="shared" ref="C38:E38" si="10">C32/C$34</f>
         <v>0.3203811101905551</v>
       </c>
-      <c r="D38" s="120">
+      <c r="D38" s="121">
         <f t="shared" si="10"/>
         <v>0.21980506822612086</v>
       </c>
-      <c r="E38" s="120">
+      <c r="E38" s="121">
         <f t="shared" si="10"/>
         <v>0.24382233653180335</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="63">
         <v>47</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="63">
         <v>661</v>
       </c>
-      <c r="E39" s="68">
+      <c r="E39" s="69">
         <f t="shared" si="0"/>
         <v>708</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="71">
+      <c r="C40" s="72">
         <v>7809</v>
       </c>
-      <c r="D40" s="71">
+      <c r="D40" s="72">
         <v>22874</v>
       </c>
-      <c r="E40" s="69">
+      <c r="E40" s="70">
         <f t="shared" si="0"/>
         <v>30683</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="58">
         <v>6117</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="58">
         <v>17854</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="69">
         <f t="shared" si="0"/>
         <v>23971</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="58">
         <v>1692</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="58">
         <v>5020</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="69">
         <f t="shared" si="0"/>
         <v>6712</v>
       </c>
@@ -7617,32 +8445,32 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="81" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C6" s="81"/>
-      <c r="D6" s="101">
+      <c r="C6" s="82"/>
+      <c r="D6" s="102">
         <v>43646</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="103">
         <v>43646</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C7" s="81"/>
-      <c r="D7" s="101" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="104" t="s">
         <v>174</v>
       </c>
       <c r="F7" t="s">
@@ -7650,121 +8478,121 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="97">
         <v>17717</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="98">
         <v>17506</v>
       </c>
-      <c r="F8" s="104">
+      <c r="F8" s="105">
         <f>SUM(D8:E8)</f>
         <v>35223</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="84">
         <v>1258</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="85">
         <v>5927</v>
       </c>
-      <c r="F9" s="104">
+      <c r="F9" s="105">
         <f t="shared" ref="F9:F14" si="0">SUM(D9:E9)</f>
         <v>7185</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="86">
         <v>279</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="87">
         <v>314</v>
       </c>
-      <c r="F10" s="104">
+      <c r="F10" s="105">
         <f t="shared" si="0"/>
         <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="84">
         <v>10678</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="85">
         <v>12961</v>
       </c>
-      <c r="F11" s="104">
+      <c r="F11" s="105">
         <f t="shared" si="0"/>
         <v>23639</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="88">
         <v>182</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="89">
         <v>1014</v>
       </c>
-      <c r="F12" s="104">
+      <c r="F12" s="105">
         <f t="shared" si="0"/>
         <v>1196</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.5" customHeight="1">
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="99">
         <v>30114</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="100">
         <v>37721</v>
       </c>
-      <c r="F13" s="104">
+      <c r="F13" s="105">
         <f t="shared" si="0"/>
         <v>67835</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1">
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="101">
         <v>71385</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="98">
         <v>96246</v>
       </c>
-      <c r="F14" s="104">
+      <c r="F14" s="105">
         <f t="shared" si="0"/>
         <v>167631</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="106">
+      <c r="D15" s="107">
         <v>0.4219</v>
       </c>
-      <c r="E15" s="106">
+      <c r="E15" s="107">
         <v>0.39200000000000002</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="108">
         <f>F13/F14</f>
         <v>0.40466858755242169</v>
       </c>
@@ -7778,205 +8606,205 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="110">
         <f>D8/D$14</f>
         <v>0.24818939553127409</v>
       </c>
-      <c r="E16" s="109">
+      <c r="E16" s="110">
         <f t="shared" ref="E16:F16" si="1">E8/E$14</f>
         <v>0.18188807846559857</v>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="110">
         <f t="shared" si="1"/>
         <v>0.21012223276124345</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="109">
+      <c r="D17" s="110">
         <f t="shared" ref="D17:F17" si="2">D9/D$14</f>
         <v>1.762274987742523E-2</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="110">
         <f t="shared" si="2"/>
         <v>6.158178002202689E-2</v>
       </c>
-      <c r="F17" s="109">
+      <c r="F17" s="110">
         <f t="shared" si="2"/>
         <v>4.2862000465307727E-2</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="110">
         <f t="shared" ref="D18:F18" si="3">D10/D$14</f>
         <v>3.9083841143097292E-3</v>
       </c>
-      <c r="E18" s="109">
+      <c r="E18" s="110">
         <f t="shared" si="3"/>
         <v>3.2624732456413771E-3</v>
       </c>
-      <c r="F18" s="109">
+      <c r="F18" s="110">
         <f t="shared" si="3"/>
         <v>3.5375318407693088E-3</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="109">
+      <c r="D19" s="110">
         <f t="shared" ref="D19:F19" si="4">D11/D$14</f>
         <v>0.14958324577992577</v>
       </c>
-      <c r="E19" s="109">
+      <c r="E19" s="110">
         <f t="shared" si="4"/>
         <v>0.13466533674126718</v>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="110">
         <f t="shared" si="4"/>
         <v>0.14101806945016138</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="94">
         <v>0.28849999999999998</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E20" s="94">
         <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="95">
+      <c r="D21" s="96">
         <v>0.13339999999999999</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E21" s="96">
         <v>0.121</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
     </row>
     <row r="23" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="96">
+      <c r="D24" s="97">
         <v>1608</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="98">
         <v>3813</v>
       </c>
-      <c r="F24" s="104">
+      <c r="F24" s="105">
         <f>SUM(D24:E24)</f>
         <v>5421</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="86">
         <v>131</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="84">
         <v>2012</v>
       </c>
-      <c r="F25" s="104">
+      <c r="F25" s="105">
         <f t="shared" ref="F25:F29" si="5">SUM(D25:E25)</f>
         <v>2143</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="86">
         <v>47</v>
       </c>
-      <c r="E26" s="86">
+      <c r="E26" s="87">
         <v>121</v>
       </c>
-      <c r="F26" s="104">
+      <c r="F26" s="105">
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="25.5">
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="89">
+      <c r="D27" s="90">
         <v>1864</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27" s="90">
         <v>4566</v>
       </c>
-      <c r="F27" s="104">
+      <c r="F27" s="105">
         <f t="shared" si="5"/>
         <v>6430</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="25.5">
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="98">
+      <c r="D28" s="99">
         <v>3650</v>
       </c>
-      <c r="E28" s="98">
+      <c r="E28" s="99">
         <v>10513</v>
       </c>
-      <c r="F28" s="104">
+      <c r="F28" s="105">
         <f t="shared" si="5"/>
         <v>14163</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="100">
+      <c r="D29" s="101">
         <v>12070</v>
       </c>
-      <c r="E29" s="97">
+      <c r="E29" s="98">
         <v>38475</v>
       </c>
-      <c r="F29" s="104">
+      <c r="F29" s="105">
         <f t="shared" si="5"/>
         <v>50545</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="92">
+      <c r="D30" s="93">
         <v>0.3024</v>
       </c>
-      <c r="E30" s="92">
+      <c r="E30" s="93">
         <v>0.2732</v>
       </c>
       <c r="F30" s="21">
@@ -7985,92 +8813,92 @@
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="92">
+      <c r="D31" s="93">
         <f>D24/D$29</f>
         <v>0.13322286661143332</v>
       </c>
-      <c r="E31" s="92">
+      <c r="E31" s="93">
         <f>E24/E$29</f>
         <v>9.9103313840155943E-2</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="93">
         <f>F24/F$29</f>
         <v>0.10725096448709071</v>
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="119" t="s">
+      <c r="C32" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="92">
+      <c r="D32" s="93">
         <f t="shared" ref="D32:F32" si="6">D25/D$29</f>
         <v>1.0853355426677713E-2</v>
       </c>
-      <c r="E32" s="92">
+      <c r="E32" s="93">
         <f t="shared" si="6"/>
         <v>5.2293697205977908E-2</v>
       </c>
-      <c r="F32" s="92">
+      <c r="F32" s="93">
         <f t="shared" si="6"/>
         <v>4.2397863290137498E-2</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="93">
         <f t="shared" ref="D33:F33" si="7">D26/D$29</f>
         <v>3.8939519469759734E-3</v>
       </c>
-      <c r="E33" s="92">
+      <c r="E33" s="93">
         <f t="shared" si="7"/>
         <v>3.1448992852501625E-3</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="93">
         <f t="shared" si="7"/>
         <v>3.3237708972202987E-3</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="92">
+      <c r="D34" s="93">
         <f t="shared" ref="D34:F34" si="8">D27/D$29</f>
         <v>0.1544324772162386</v>
       </c>
-      <c r="E34" s="92">
+      <c r="E34" s="93">
         <f t="shared" si="8"/>
         <v>0.11867446393762184</v>
       </c>
-      <c r="F34" s="92">
+      <c r="F34" s="93">
         <f t="shared" si="8"/>
         <v>0.12721337422099119</v>
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="93">
+      <c r="D35" s="94">
         <v>0.2379</v>
       </c>
-      <c r="E35" s="93">
+      <c r="E35" s="94">
         <v>0.21640000000000001</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="93">
+      <c r="D36" s="94">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="E36" s="93">
+      <c r="E36" s="94">
         <v>5.6800000000000003E-2</v>
       </c>
     </row>
@@ -8097,7 +8925,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="122">
+      <c r="B2" s="123">
         <v>43646</v>
       </c>
     </row>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F3CB6E-ABFB-405D-8BD1-7B0036809A28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53DDBC2-D916-48BC-BE12-F81CE40E6ACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="276">
   <si>
     <t>nsim</t>
   </si>
@@ -1319,6 +1319,9 @@
   </si>
   <si>
     <t>P&amp;F tier 1; Baseline with POB</t>
+  </si>
+  <si>
+    <t>POB</t>
   </si>
 </sst>
 </file>
@@ -2546,11 +2549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
   <dimension ref="A2:BE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3534,7 +3537,7 @@
         <v>202</v>
       </c>
       <c r="C13" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="139" t="s">
         <v>197</v>
@@ -3691,7 +3694,7 @@
         <v>204</v>
       </c>
       <c r="C14" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="139" t="s">
         <v>197</v>
@@ -3904,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="151" t="s">
         <v>132</v>
@@ -4061,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="151" t="s">
         <v>125</v>
@@ -4212,7 +4215,7 @@
         <v>234</v>
       </c>
       <c r="C20" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="151" t="s">
         <v>219</v>
@@ -4369,7 +4372,7 @@
         <v>235</v>
       </c>
       <c r="C21" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="151" t="s">
         <v>219</v>
@@ -4556,7 +4559,7 @@
         <v>260</v>
       </c>
       <c r="C24" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="166" t="s">
         <v>262</v>
@@ -4713,7 +4716,7 @@
         <v>261</v>
       </c>
       <c r="C25" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="166" t="s">
         <v>262</v>
@@ -4870,7 +4873,7 @@
         <v>268</v>
       </c>
       <c r="C28" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="139" t="s">
         <v>197</v>
@@ -5036,7 +5039,7 @@
         <v>269</v>
       </c>
       <c r="C29" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="139" t="s">
         <v>197</v>
@@ -6336,11 +6339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
   <dimension ref="A3:AA28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6740,7 +6743,7 @@
         <v>197</v>
       </c>
       <c r="C13" s="139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="139" t="s">
         <v>190</v>
@@ -6808,7 +6811,7 @@
         <v>219</v>
       </c>
       <c r="C17" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="139" t="s">
         <v>190</v>
@@ -6882,7 +6885,7 @@
         <v>262</v>
       </c>
       <c r="C18" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="139" t="s">
         <v>190</v>
@@ -7119,7 +7122,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7166,7 +7169,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C4">
         <v>82</v>
@@ -7203,7 +7206,7 @@
   <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7453,7 +7456,7 @@
         <v>255</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="G15" s="48" t="s">
         <v>253</v>
@@ -7476,7 +7479,7 @@
         <v>256</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="G16" s="48" t="s">
         <v>253</v>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53DDBC2-D916-48BC-BE12-F81CE40E6ACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC60276-0122-4719-86AA-86086516CAC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -2549,11 +2549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
   <dimension ref="A2:BE43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3883,7 +3883,7 @@
         <v>232</v>
       </c>
       <c r="C17" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="151" t="s">
         <v>219</v>
@@ -4040,7 +4040,7 @@
         <v>233</v>
       </c>
       <c r="C18" s="139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="151" t="s">
         <v>219</v>
@@ -4873,7 +4873,7 @@
         <v>268</v>
       </c>
       <c r="C28" s="139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="139" t="s">
         <v>197</v>
@@ -5039,7 +5039,7 @@
         <v>269</v>
       </c>
       <c r="C29" s="139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="139" t="s">
         <v>197</v>
@@ -6339,11 +6339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
   <dimension ref="A3:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC60276-0122-4719-86AA-86086516CAC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91491EB5-37D6-402A-9A21-DDD707B5E499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -172,6 +172,7 @@
   <authors>
     <author>Author</author>
     <author>tc={6BDCD84A-4C3D-403D-98A0-9875F32B2E9E}</author>
+    <author>tc={556F45A5-6895-4CB0-9C2D-6A864D0376C3}</author>
     <author>tc={EA1AD3E2-701C-4C93-81D1-7AF8E9FF30FB}</author>
     <author>tc={F5769092-1632-411C-A719-C700B72F16AC}</author>
     <author>tc={8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}</author>
@@ -209,7 +210,15 @@
     comma separated tier names</t>
       </text>
     </comment>
-    <comment ref="H4" authorId="2" shapeId="0" xr:uid="{EA1AD3E2-701C-4C93-81D1-7AF8E9FF30FB}">
+    <comment ref="F4" authorId="2" shapeId="0" xr:uid="{556F45A5-6895-4CB0-9C2D-6A864D0376C3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    general,</t>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="3" shapeId="0" xr:uid="{EA1AD3E2-701C-4C93-81D1-7AF8E9FF30FB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -217,7 +226,7 @@
     Benefit factor for new services</t>
       </text>
     </comment>
-    <comment ref="L4" authorId="3" shapeId="0" xr:uid="{F5769092-1632-411C-A719-C700B72F16AC}">
+    <comment ref="L4" authorId="4" shapeId="0" xr:uid="{F5769092-1632-411C-A719-C700B72F16AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -225,7 +234,7 @@
     x% reduction of benefit factor</t>
       </text>
     </comment>
-    <comment ref="M4" authorId="4" shapeId="0" xr:uid="{8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}">
+    <comment ref="M4" authorId="5" shapeId="0" xr:uid="{8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -2533,6 +2542,9 @@
   <threadedComment ref="E4" dT="2020-06-24T14:51:37.17" personId="{00000000-0000-0000-0000-000000000000}" id="{6BDCD84A-4C3D-403D-98A0-9875F32B2E9E}">
     <text>comma separated tier names</text>
   </threadedComment>
+  <threadedComment ref="F4" dT="2021-05-01T17:40:07.88" personId="{00000000-0000-0000-0000-000000000000}" id="{556F45A5-6895-4CB0-9C2D-6A864D0376C3}">
+    <text>general,</text>
+  </threadedComment>
   <threadedComment ref="H4" dT="2021-04-24T20:35:22.14" personId="{00000000-0000-0000-0000-000000000000}" id="{EA1AD3E2-701C-4C93-81D1-7AF8E9FF30FB}">
     <text>Benefit factor for new services</text>
   </threadedComment>
@@ -2549,11 +2561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
   <dimension ref="A2:BE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6339,11 +6351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
   <dimension ref="A3:AA28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91491EB5-37D6-402A-9A21-DDD707B5E499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5EFA9F-C172-4827-B5BE-E01AC69535C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="278">
   <si>
     <t>nsim</t>
   </si>
@@ -1332,6 +1332,12 @@
   <si>
     <t>POB</t>
   </si>
+  <si>
+    <t>Dev_fc.t1</t>
+  </si>
+  <si>
+    <t>Dev_fc.t2</t>
+  </si>
 </sst>
 </file>
 
@@ -1346,9 +1352,9 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1477,12 +1483,6 @@
       <sz val="9.5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1768,9 +1768,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1851,9 +1848,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -2007,19 +2001,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2033,11 +2027,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2052,16 +2046,16 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="21" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="21" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="22" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="22" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="24" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="21" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="23" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2075,14 +2069,14 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="22" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="21" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2096,11 +2090,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2214,10 +2214,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2699,176 +2695,176 @@
       <c r="BD3" s="17"/>
       <c r="BE3" s="17"/>
     </row>
-    <row r="4" spans="1:57" s="135" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="124" t="s">
+    <row r="4" spans="1:57" s="133" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="E4" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="126" t="s">
+      <c r="G4" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="126" t="s">
+      <c r="H4" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="I4" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="126" t="s">
+      <c r="J4" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="126" t="s">
+      <c r="K4" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="L4" s="127" t="s">
+      <c r="L4" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="128" t="s">
+      <c r="M4" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="N4" s="128" t="s">
+      <c r="N4" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="128" t="s">
+      <c r="O4" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="128" t="s">
+      <c r="P4" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="128" t="s">
+      <c r="Q4" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="R4" s="128" t="s">
+      <c r="R4" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="S4" s="127" t="s">
+      <c r="S4" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="U4" s="128" t="s">
+      <c r="U4" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="V4" s="128" t="s">
+      <c r="V4" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="W4" s="128" t="s">
+      <c r="W4" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="X4" s="128" t="s">
+      <c r="X4" s="126" t="s">
         <v>271</v>
       </c>
-      <c r="Y4" s="128" t="s">
+      <c r="Y4" s="126" t="s">
         <v>270</v>
       </c>
-      <c r="Z4" s="128" t="s">
+      <c r="Z4" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="AA4" s="128" t="s">
+      <c r="AA4" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="AB4" s="130" t="s">
+      <c r="AB4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="130" t="s">
+      <c r="AC4" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="130" t="s">
+      <c r="AD4" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="130" t="s">
+      <c r="AE4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="131" t="s">
+      <c r="AF4" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="131" t="s">
+      <c r="AG4" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="AH4" s="131" t="s">
+      <c r="AH4" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="AI4" s="131" t="s">
+      <c r="AI4" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="131" t="s">
+      <c r="AJ4" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="AK4" s="125" t="s">
+      <c r="AK4" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="AL4" s="125" t="s">
+      <c r="AL4" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="AM4" s="125" t="s">
+      <c r="AM4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AN4" s="125" t="s">
+      <c r="AN4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AO4" s="125" t="s">
+      <c r="AO4" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AP4" s="125" t="s">
+      <c r="AP4" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="AQ4" s="125" t="s">
+      <c r="AQ4" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="AR4" s="132" t="s">
+      <c r="AR4" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="AS4" s="132" t="s">
+      <c r="AS4" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="AT4" s="132" t="s">
+      <c r="AT4" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="AU4" s="132" t="s">
+      <c r="AU4" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AV4" s="132" t="s">
+      <c r="AV4" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="AW4" s="132" t="s">
+      <c r="AW4" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="AX4" s="132" t="s">
+      <c r="AX4" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="AY4" s="133" t="s">
+      <c r="AY4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="AZ4" s="133" t="s">
+      <c r="AZ4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="BA4" s="133" t="s">
+      <c r="BA4" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="BB4" s="133" t="s">
+      <c r="BB4" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="BC4" s="133" t="s">
+      <c r="BC4" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="BD4" s="133" t="s">
+      <c r="BD4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="BE4" s="134" t="s">
+      <c r="BE4" s="132" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2917,7 +2913,7 @@
         <f>1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q5" s="136">
+      <c r="Q5" s="134">
         <v>0</v>
       </c>
       <c r="R5" s="50">
@@ -3071,7 +3067,7 @@
         <f t="shared" ref="P6:P43" si="1">1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q6" s="136">
+      <c r="Q6" s="134">
         <v>0.5</v>
       </c>
       <c r="R6" s="50">
@@ -3184,7 +3180,7 @@
       <c r="N7" s="20"/>
       <c r="O7" s="50"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="136"/>
+      <c r="Q7" s="134"/>
       <c r="R7" s="50"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="5"/>
@@ -3239,7 +3235,7 @@
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q8" s="136">
+      <c r="Q8" s="134">
         <v>0</v>
       </c>
       <c r="R8" s="50">
@@ -3393,7 +3389,7 @@
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q9" s="136">
+      <c r="Q9" s="134">
         <v>0.5</v>
       </c>
       <c r="R9" s="50">
@@ -3506,7 +3502,7 @@
       <c r="N10" s="20"/>
       <c r="O10" s="50"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="136"/>
+      <c r="Q10" s="134"/>
       <c r="R10" s="50"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="5"/>
@@ -3520,7 +3516,7 @@
       <c r="N11" s="20"/>
       <c r="O11" s="50"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="136"/>
+      <c r="Q11" s="134"/>
       <c r="R11" s="50"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="5"/>
@@ -3534,7 +3530,7 @@
       <c r="N12" s="20"/>
       <c r="O12" s="50"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="136"/>
+      <c r="Q12" s="134"/>
       <c r="R12" s="50"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="5"/>
@@ -3544,1004 +3540,1004 @@
       <c r="AX12" s="39"/>
       <c r="BE12" s="19"/>
     </row>
-    <row r="13" spans="1:57" s="139" customFormat="1">
-      <c r="A13" s="139" t="s">
+    <row r="13" spans="1:57" s="137" customFormat="1">
+      <c r="A13" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="139" t="s">
+      <c r="C13" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="137" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="139" t="s">
+      <c r="F13" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="H13" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="139" t="s">
+      <c r="H13" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="M13" s="139">
+      <c r="M13" s="137">
         <v>0.11</v>
       </c>
-      <c r="N13" s="143">
+      <c r="N13" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O13" s="144">
+      <c r="O13" s="142">
         <v>0.5</v>
       </c>
-      <c r="P13" s="145">
+      <c r="P13" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q13" s="146">
-        <v>0</v>
-      </c>
-      <c r="R13" s="144">
+      <c r="Q13" s="144">
+        <v>0</v>
+      </c>
+      <c r="R13" s="142">
         <v>0.5</v>
       </c>
-      <c r="S13" s="139" t="s">
+      <c r="S13" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="T13" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="U13" s="139">
+      <c r="T13" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="137">
         <v>0.03</v>
       </c>
-      <c r="V13" s="139">
+      <c r="V13" s="137">
         <v>0.03</v>
       </c>
-      <c r="W13" s="139">
+      <c r="W13" s="137">
         <v>0</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
       </c>
-      <c r="AB13" s="139" t="s">
+      <c r="AB13" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="AC13" s="139" t="s">
+      <c r="AC13" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="AD13" s="139">
+      <c r="AD13" s="137">
         <v>15</v>
       </c>
-      <c r="AE13" s="139">
+      <c r="AE13" s="137">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF13" s="139">
+      <c r="AF13" s="137">
         <v>5</v>
       </c>
-      <c r="AG13" s="139">
+      <c r="AG13" s="137">
         <v>1.2</v>
       </c>
-      <c r="AH13" s="139">
+      <c r="AH13" s="137">
         <v>0.8</v>
       </c>
-      <c r="AI13" s="139" t="s">
+      <c r="AI13" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="AJ13" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="139" t="s">
+      <c r="AJ13" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="AL13" s="139" t="s">
+      <c r="AL13" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AM13" s="139">
+      <c r="AM13" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN13" s="139">
+      <c r="AN13" s="137">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO13" s="147">
+      <c r="AO13" s="145">
         <v>0.12</v>
       </c>
-      <c r="AP13" s="148">
+      <c r="AP13" s="146">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ13" s="149">
+      <c r="AQ13" s="147">
         <v>123</v>
       </c>
-      <c r="AR13" s="139" t="s">
+      <c r="AR13" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AS13" s="139" t="s">
+      <c r="AS13" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT13" s="143">
+      <c r="AT13" s="141">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU13" s="143">
+      <c r="AU13" s="141">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX13" s="140">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="139">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="139" t="s">
+      <c r="AX13" s="138">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="137">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BD13" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE13" s="150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57" s="139" customFormat="1">
-      <c r="A14" s="139" t="s">
+      <c r="BD13" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" s="137" customFormat="1">
+      <c r="A14" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="139" t="s">
+      <c r="C14" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="139" t="s">
+      <c r="E14" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="139" t="s">
+      <c r="F14" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="H14" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="139" t="s">
+      <c r="H14" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="139">
+      <c r="M14" s="137">
         <v>0.11</v>
       </c>
-      <c r="N14" s="143">
+      <c r="N14" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O14" s="144">
+      <c r="O14" s="142">
         <v>0.5</v>
       </c>
-      <c r="P14" s="145">
+      <c r="P14" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q14" s="146">
+      <c r="Q14" s="144">
         <v>0.5</v>
       </c>
-      <c r="R14" s="144">
+      <c r="R14" s="142">
         <v>0.5</v>
       </c>
-      <c r="S14" s="139" t="s">
+      <c r="S14" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="T14" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="U14" s="139">
+      <c r="T14" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" s="137">
         <v>0.02</v>
       </c>
-      <c r="V14" s="139">
+      <c r="V14" s="137">
         <v>0.02</v>
       </c>
-      <c r="W14" s="139">
+      <c r="W14" s="137">
         <v>0</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
       </c>
-      <c r="AB14" s="139" t="s">
+      <c r="AB14" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="AC14" s="139" t="s">
+      <c r="AC14" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="AD14" s="139">
+      <c r="AD14" s="137">
         <v>15</v>
       </c>
-      <c r="AE14" s="139">
+      <c r="AE14" s="137">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF14" s="139">
+      <c r="AF14" s="137">
         <v>5</v>
       </c>
-      <c r="AG14" s="139">
+      <c r="AG14" s="137">
         <v>1.2</v>
       </c>
-      <c r="AH14" s="139">
+      <c r="AH14" s="137">
         <v>0.8</v>
       </c>
-      <c r="AI14" s="139" t="s">
+      <c r="AI14" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="AJ14" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="139" t="s">
+      <c r="AJ14" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="AL14" s="139" t="s">
+      <c r="AL14" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AM14" s="139">
+      <c r="AM14" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN14" s="139">
+      <c r="AN14" s="137">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO14" s="147">
+      <c r="AO14" s="145">
         <v>0.12</v>
       </c>
-      <c r="AP14" s="148">
+      <c r="AP14" s="146">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ14" s="149">
+      <c r="AQ14" s="147">
         <v>123</v>
       </c>
-      <c r="AR14" s="139" t="s">
+      <c r="AR14" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AS14" s="139" t="s">
+      <c r="AS14" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT14" s="143">
+      <c r="AT14" s="141">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU14" s="143">
+      <c r="AU14" s="141">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX14" s="140">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA14" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="139">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="139" t="s">
+      <c r="AX14" s="138">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="137">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BD14" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" s="179" customFormat="1">
-      <c r="C15" s="139"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="192"/>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="194"/>
-      <c r="R15" s="192"/>
+      <c r="BD14" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" s="177" customFormat="1">
+      <c r="C15" s="137"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="190"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="192"/>
+      <c r="R15" s="190"/>
       <c r="X15"/>
-      <c r="AO15" s="186"/>
-      <c r="AP15" s="187"/>
-      <c r="AQ15" s="188"/>
-      <c r="AT15" s="182"/>
-      <c r="AU15" s="182"/>
-      <c r="AX15" s="189"/>
-      <c r="BE15" s="190"/>
-    </row>
-    <row r="16" spans="1:57" s="179" customFormat="1">
-      <c r="C16" s="139"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="192"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="194"/>
-      <c r="R16" s="192"/>
+      <c r="AO15" s="184"/>
+      <c r="AP15" s="185"/>
+      <c r="AQ15" s="186"/>
+      <c r="AT15" s="180"/>
+      <c r="AU15" s="180"/>
+      <c r="AX15" s="187"/>
+      <c r="BE15" s="188"/>
+    </row>
+    <row r="16" spans="1:57" s="177" customFormat="1">
+      <c r="C16" s="137"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="191"/>
+      <c r="Q16" s="192"/>
+      <c r="R16" s="190"/>
       <c r="X16"/>
-      <c r="AO16" s="186"/>
-      <c r="AP16" s="187"/>
-      <c r="AQ16" s="188"/>
-      <c r="AT16" s="182"/>
-      <c r="AU16" s="182"/>
-      <c r="AX16" s="189"/>
-      <c r="BE16" s="190"/>
-    </row>
-    <row r="17" spans="1:57" s="151" customFormat="1">
-      <c r="A17" s="151" t="s">
+      <c r="AO16" s="184"/>
+      <c r="AP16" s="185"/>
+      <c r="AQ16" s="186"/>
+      <c r="AT16" s="180"/>
+      <c r="AU16" s="180"/>
+      <c r="AX16" s="187"/>
+      <c r="BE16" s="188"/>
+    </row>
+    <row r="17" spans="1:57" s="149" customFormat="1">
+      <c r="A17" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="151" t="s">
+      <c r="C17" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="151" t="s">
+      <c r="E17" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="151" t="s">
+      <c r="F17" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="151" t="s">
+      <c r="H17" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="M17" s="151">
+      <c r="M17" s="149">
         <v>0.11</v>
       </c>
-      <c r="N17" s="153">
+      <c r="N17" s="151">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O17" s="154">
+      <c r="O17" s="152">
         <v>0.5</v>
       </c>
-      <c r="P17" s="155">
+      <c r="P17" s="153">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q17" s="156">
-        <v>0</v>
-      </c>
-      <c r="R17" s="154">
+      <c r="Q17" s="154">
+        <v>0</v>
+      </c>
+      <c r="R17" s="152">
         <v>0.5</v>
       </c>
-      <c r="S17" s="151" t="s">
+      <c r="S17" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="T17" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" s="152">
+      <c r="T17" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="150">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V17" s="151">
+      <c r="V17" s="149">
         <v>0.03</v>
       </c>
-      <c r="W17" s="151">
+      <c r="W17" s="149">
         <v>0</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
       </c>
-      <c r="AB17" s="151" t="s">
+      <c r="AB17" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="AC17" s="151" t="s">
+      <c r="AC17" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AD17" s="151">
+      <c r="AD17" s="149">
         <v>15</v>
       </c>
-      <c r="AE17" s="151">
+      <c r="AE17" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF17" s="151">
+      <c r="AF17" s="149">
         <v>5</v>
       </c>
-      <c r="AG17" s="151">
+      <c r="AG17" s="149">
         <v>1.2</v>
       </c>
-      <c r="AH17" s="151">
+      <c r="AH17" s="149">
         <v>0.8</v>
       </c>
-      <c r="AI17" s="151" t="s">
+      <c r="AI17" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AJ17" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="151" t="s">
+      <c r="AJ17" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AL17" s="151" t="s">
+      <c r="AL17" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AM17" s="151">
+      <c r="AM17" s="149">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN17" s="151">
+      <c r="AN17" s="149">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO17" s="157">
+      <c r="AO17" s="155">
         <v>0.12</v>
       </c>
-      <c r="AP17" s="158">
+      <c r="AP17" s="156">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ17" s="159">
+      <c r="AQ17" s="157">
         <v>123</v>
       </c>
-      <c r="AR17" s="151" t="s">
+      <c r="AR17" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AS17" s="151" t="s">
+      <c r="AS17" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT17" s="160">
+      <c r="AT17" s="158">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU17" s="160">
+      <c r="AU17" s="158">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX17" s="161">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="151" t="s">
+      <c r="AX17" s="159">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="149">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BD17" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="162" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:57" s="151" customFormat="1">
-      <c r="A18" s="151" t="s">
+      <c r="BD17" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" s="149" customFormat="1">
+      <c r="A18" s="149" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="151" t="s">
+      <c r="C18" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="151" t="s">
+      <c r="E18" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="151" t="s">
+      <c r="F18" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="H18" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="151" t="s">
+      <c r="H18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="M18" s="151">
+      <c r="M18" s="149">
         <v>0.11</v>
       </c>
-      <c r="N18" s="160">
+      <c r="N18" s="158">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O18" s="163">
+      <c r="O18" s="161">
         <v>0.5</v>
       </c>
-      <c r="P18" s="164">
+      <c r="P18" s="162">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q18" s="165">
+      <c r="Q18" s="163">
         <v>0.5</v>
       </c>
-      <c r="R18" s="163">
+      <c r="R18" s="161">
         <v>0.5</v>
       </c>
-      <c r="S18" s="151" t="s">
+      <c r="S18" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="T18" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" s="152">
+      <c r="T18" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" s="150">
         <v>0.02</v>
       </c>
-      <c r="V18" s="151">
+      <c r="V18" s="149">
         <v>0.02</v>
       </c>
-      <c r="W18" s="151">
+      <c r="W18" s="149">
         <v>0</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
       </c>
-      <c r="AB18" s="151" t="s">
+      <c r="AB18" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="AC18" s="151" t="s">
+      <c r="AC18" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AD18" s="151">
+      <c r="AD18" s="149">
         <v>15</v>
       </c>
-      <c r="AE18" s="151">
+      <c r="AE18" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF18" s="151">
+      <c r="AF18" s="149">
         <v>5</v>
       </c>
-      <c r="AG18" s="151">
+      <c r="AG18" s="149">
         <v>1.2</v>
       </c>
-      <c r="AH18" s="151">
+      <c r="AH18" s="149">
         <v>0.8</v>
       </c>
-      <c r="AI18" s="151" t="s">
+      <c r="AI18" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AJ18" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="151" t="s">
+      <c r="AJ18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AL18" s="151" t="s">
+      <c r="AL18" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AM18" s="151">
+      <c r="AM18" s="149">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN18" s="151">
+      <c r="AN18" s="149">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO18" s="157">
+      <c r="AO18" s="155">
         <v>0.12</v>
       </c>
-      <c r="AP18" s="158">
+      <c r="AP18" s="156">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ18" s="159">
+      <c r="AQ18" s="157">
         <v>123</v>
       </c>
-      <c r="AR18" s="151" t="s">
+      <c r="AR18" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AS18" s="151" t="s">
+      <c r="AS18" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT18" s="160">
+      <c r="AT18" s="158">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU18" s="160">
+      <c r="AU18" s="158">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX18" s="161">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA18" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="151" t="s">
+      <c r="AX18" s="159">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="149">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BD18" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="162" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:57" s="151" customFormat="1">
-      <c r="C19" s="139"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="154"/>
+      <c r="BD18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" s="149" customFormat="1">
+      <c r="C19" s="137"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="152"/>
       <c r="X19" t="b">
         <v>0</v>
       </c>
-      <c r="AO19" s="157"/>
-      <c r="AP19" s="158"/>
-      <c r="AQ19" s="159"/>
-      <c r="AT19" s="160"/>
-      <c r="AU19" s="160"/>
-      <c r="AX19" s="161"/>
-      <c r="BE19" s="162"/>
-    </row>
-    <row r="20" spans="1:57" s="151" customFormat="1">
-      <c r="A20" s="151" t="s">
+      <c r="AO19" s="155"/>
+      <c r="AP19" s="156"/>
+      <c r="AQ19" s="157"/>
+      <c r="AT19" s="158"/>
+      <c r="AU19" s="158"/>
+      <c r="AX19" s="159"/>
+      <c r="BE19" s="160"/>
+    </row>
+    <row r="20" spans="1:57" s="149" customFormat="1">
+      <c r="A20" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="151" t="s">
+      <c r="C20" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="E20" s="151" t="s">
+      <c r="E20" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="151" t="s">
+      <c r="F20" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="H20" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="151" t="s">
+      <c r="H20" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="M20" s="151">
+      <c r="M20" s="149">
         <v>0.11</v>
       </c>
-      <c r="N20" s="153">
+      <c r="N20" s="151">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O20" s="154">
+      <c r="O20" s="152">
         <v>0.5</v>
       </c>
-      <c r="P20" s="155">
+      <c r="P20" s="153">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q20" s="156">
-        <v>0</v>
-      </c>
-      <c r="R20" s="154">
+      <c r="Q20" s="154">
+        <v>0</v>
+      </c>
+      <c r="R20" s="152">
         <v>0.5</v>
       </c>
-      <c r="S20" s="151" t="s">
+      <c r="S20" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="T20" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" s="152">
+      <c r="T20" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" s="150">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V20" s="151">
+      <c r="V20" s="149">
         <v>0.03</v>
       </c>
-      <c r="W20" s="151">
+      <c r="W20" s="149">
         <v>0</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
       </c>
-      <c r="AB20" s="151" t="s">
+      <c r="AB20" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="AC20" s="151" t="s">
+      <c r="AC20" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AD20" s="151">
+      <c r="AD20" s="149">
         <v>15</v>
       </c>
-      <c r="AE20" s="151">
+      <c r="AE20" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF20" s="151">
+      <c r="AF20" s="149">
         <v>5</v>
       </c>
-      <c r="AG20" s="151">
+      <c r="AG20" s="149">
         <v>1.2</v>
       </c>
-      <c r="AH20" s="151">
+      <c r="AH20" s="149">
         <v>0.8</v>
       </c>
-      <c r="AI20" s="151" t="s">
+      <c r="AI20" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AJ20" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="151" t="s">
+      <c r="AJ20" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AL20" s="151" t="s">
+      <c r="AL20" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AM20" s="151">
+      <c r="AM20" s="149">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN20" s="151">
+      <c r="AN20" s="149">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO20" s="157">
+      <c r="AO20" s="155">
         <v>0.12</v>
       </c>
-      <c r="AP20" s="158">
+      <c r="AP20" s="156">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ20" s="159">
+      <c r="AQ20" s="157">
         <v>123</v>
       </c>
-      <c r="AR20" s="151" t="s">
+      <c r="AR20" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AS20" s="151" t="s">
+      <c r="AS20" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT20" s="160">
+      <c r="AT20" s="158">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU20" s="160">
+      <c r="AU20" s="158">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX20" s="161">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA20" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="151" t="s">
+      <c r="AX20" s="159">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="149">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BD20" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE20" s="162" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:57" s="151" customFormat="1">
-      <c r="A21" s="151" t="s">
+      <c r="BD20" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" s="149" customFormat="1">
+      <c r="A21" s="149" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="151" t="s">
+      <c r="C21" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="151" t="s">
+      <c r="E21" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="151" t="s">
+      <c r="F21" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="H21" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="151" t="s">
+      <c r="H21" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="M21" s="151">
+      <c r="M21" s="149">
         <v>0.11</v>
       </c>
-      <c r="N21" s="160">
+      <c r="N21" s="158">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O21" s="163">
+      <c r="O21" s="161">
         <v>0.5</v>
       </c>
-      <c r="P21" s="164">
+      <c r="P21" s="162">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q21" s="165">
+      <c r="Q21" s="163">
         <v>0.5</v>
       </c>
-      <c r="R21" s="163">
+      <c r="R21" s="161">
         <v>0.5</v>
       </c>
-      <c r="S21" s="151" t="s">
+      <c r="S21" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="T21" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" s="152">
+      <c r="T21" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="150">
         <v>0.02</v>
       </c>
-      <c r="V21" s="151">
+      <c r="V21" s="149">
         <v>0.02</v>
       </c>
-      <c r="W21" s="151">
+      <c r="W21" s="149">
         <v>0</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
       </c>
-      <c r="AB21" s="151" t="s">
+      <c r="AB21" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="AC21" s="151" t="s">
+      <c r="AC21" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AD21" s="151">
+      <c r="AD21" s="149">
         <v>15</v>
       </c>
-      <c r="AE21" s="151">
+      <c r="AE21" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF21" s="151">
+      <c r="AF21" s="149">
         <v>5</v>
       </c>
-      <c r="AG21" s="151">
+      <c r="AG21" s="149">
         <v>1.2</v>
       </c>
-      <c r="AH21" s="151">
+      <c r="AH21" s="149">
         <v>0.8</v>
       </c>
-      <c r="AI21" s="151" t="s">
+      <c r="AI21" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AJ21" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="151" t="s">
+      <c r="AJ21" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AL21" s="151" t="s">
+      <c r="AL21" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AM21" s="151">
+      <c r="AM21" s="149">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN21" s="151">
+      <c r="AN21" s="149">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO21" s="157">
+      <c r="AO21" s="155">
         <v>0.12</v>
       </c>
-      <c r="AP21" s="158">
+      <c r="AP21" s="156">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ21" s="159">
+      <c r="AQ21" s="157">
         <v>123</v>
       </c>
-      <c r="AR21" s="151" t="s">
+      <c r="AR21" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AS21" s="151" t="s">
+      <c r="AS21" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT21" s="160">
+      <c r="AT21" s="158">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU21" s="160">
+      <c r="AU21" s="158">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX21" s="161">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ21" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA21" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="151" t="s">
+      <c r="AX21" s="159">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="149">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BD21" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE21" s="162" t="b">
+      <c r="BD21" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="160" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:57">
-      <c r="C22" s="139"/>
+      <c r="C22" s="137"/>
       <c r="N22" s="20"/>
       <c r="O22" s="50"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="136"/>
+      <c r="Q22" s="134"/>
       <c r="R22" s="50"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="5"/>
@@ -4552,11 +4548,11 @@
       <c r="BE22" s="19"/>
     </row>
     <row r="23" spans="1:57">
-      <c r="C23" s="139"/>
+      <c r="C23" s="137"/>
       <c r="N23" s="20"/>
       <c r="O23" s="50"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="136"/>
+      <c r="Q23" s="134"/>
       <c r="R23" s="50"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="5"/>
@@ -4566,649 +4562,649 @@
       <c r="AX23" s="39"/>
       <c r="BE23" s="19"/>
     </row>
-    <row r="24" spans="1:57" s="166" customFormat="1">
-      <c r="A24" s="166" t="s">
+    <row r="24" spans="1:57" s="164" customFormat="1">
+      <c r="A24" s="164" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="166" t="s">
+      <c r="C24" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="166" t="s">
+      <c r="E24" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="166" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="166" t="s">
+      <c r="F24" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="164" t="s">
         <v>202</v>
       </c>
-      <c r="H24" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="167" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="168" t="s">
+      <c r="H24" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="M24" s="166">
+      <c r="M24" s="164">
         <v>0.11</v>
       </c>
-      <c r="N24" s="169">
+      <c r="N24" s="167">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O24" s="170">
+      <c r="O24" s="168">
         <v>0.5</v>
       </c>
-      <c r="P24" s="171">
+      <c r="P24" s="169">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q24" s="172">
-        <v>0</v>
-      </c>
-      <c r="R24" s="170">
+      <c r="Q24" s="170">
+        <v>0</v>
+      </c>
+      <c r="R24" s="168">
         <v>0.5</v>
       </c>
-      <c r="S24" s="166" t="s">
+      <c r="S24" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="T24" s="167" t="b">
-        <v>1</v>
-      </c>
-      <c r="U24" s="167">
-        <v>0</v>
-      </c>
-      <c r="V24" s="166">
+      <c r="T24" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" s="165">
+        <v>0</v>
+      </c>
+      <c r="V24" s="164">
         <v>0.03</v>
       </c>
-      <c r="W24" s="166">
+      <c r="W24" s="164">
         <v>0</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
       </c>
-      <c r="AB24" s="166" t="s">
+      <c r="AB24" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="AC24" s="166" t="s">
+      <c r="AC24" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AD24" s="166">
+      <c r="AD24" s="164">
         <v>15</v>
       </c>
-      <c r="AE24" s="166">
+      <c r="AE24" s="164">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF24" s="166">
+      <c r="AF24" s="164">
         <v>5</v>
       </c>
-      <c r="AG24" s="166">
+      <c r="AG24" s="164">
         <v>1.2</v>
       </c>
-      <c r="AH24" s="166">
+      <c r="AH24" s="164">
         <v>0.8</v>
       </c>
-      <c r="AI24" s="166" t="s">
+      <c r="AI24" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="AJ24" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="166" t="s">
+      <c r="AJ24" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="AL24" s="166" t="s">
+      <c r="AL24" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="AM24" s="166">
+      <c r="AM24" s="164">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN24" s="166">
+      <c r="AN24" s="164">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO24" s="173">
+      <c r="AO24" s="171">
         <v>0.12</v>
       </c>
-      <c r="AP24" s="174">
+      <c r="AP24" s="172">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ24" s="175">
+      <c r="AQ24" s="173">
         <v>123</v>
       </c>
-      <c r="AR24" s="166" t="s">
+      <c r="AR24" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AS24" s="166" t="s">
+      <c r="AS24" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AT24" s="169">
+      <c r="AT24" s="167">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU24" s="169">
+      <c r="AU24" s="167">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX24" s="176">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ24" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA24" s="166" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="166">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="166" t="s">
+      <c r="AX24" s="174">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="164">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="BD24" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE24" s="177" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:57" s="166" customFormat="1">
-      <c r="A25" s="166" t="s">
+      <c r="BD24" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" s="164" customFormat="1">
+      <c r="A25" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="166" t="s">
+      <c r="C25" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="E25" s="166" t="s">
+      <c r="E25" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="166" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="166" t="s">
+      <c r="F25" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="164" t="s">
         <v>204</v>
       </c>
-      <c r="H25" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="167" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="167" t="s">
+      <c r="H25" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="M25" s="166">
+      <c r="M25" s="164">
         <v>0.11</v>
       </c>
-      <c r="N25" s="169">
+      <c r="N25" s="167">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O25" s="170">
+      <c r="O25" s="168">
         <v>0.5</v>
       </c>
-      <c r="P25" s="171">
+      <c r="P25" s="169">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q25" s="178">
+      <c r="Q25" s="176">
         <v>0.5</v>
       </c>
-      <c r="R25" s="170">
+      <c r="R25" s="168">
         <v>0.5</v>
       </c>
-      <c r="S25" s="166" t="s">
+      <c r="S25" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="T25" s="167" t="b">
-        <v>1</v>
-      </c>
-      <c r="U25" s="167">
-        <v>0</v>
-      </c>
-      <c r="V25" s="166">
+      <c r="T25" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" s="165">
+        <v>0</v>
+      </c>
+      <c r="V25" s="164">
         <v>0.02</v>
       </c>
-      <c r="W25" s="166">
+      <c r="W25" s="164">
         <v>0</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
       </c>
-      <c r="AB25" s="166" t="s">
+      <c r="AB25" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="AC25" s="166" t="s">
+      <c r="AC25" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AD25" s="166">
+      <c r="AD25" s="164">
         <v>15</v>
       </c>
-      <c r="AE25" s="166">
+      <c r="AE25" s="164">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF25" s="166">
+      <c r="AF25" s="164">
         <v>5</v>
       </c>
-      <c r="AG25" s="166">
+      <c r="AG25" s="164">
         <v>1.2</v>
       </c>
-      <c r="AH25" s="166">
+      <c r="AH25" s="164">
         <v>0.8</v>
       </c>
-      <c r="AI25" s="166" t="s">
+      <c r="AI25" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="AJ25" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="166" t="s">
+      <c r="AJ25" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="AL25" s="166" t="s">
+      <c r="AL25" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="AM25" s="166">
+      <c r="AM25" s="164">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN25" s="166">
+      <c r="AN25" s="164">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO25" s="173">
+      <c r="AO25" s="171">
         <v>0.12</v>
       </c>
-      <c r="AP25" s="174">
+      <c r="AP25" s="172">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ25" s="175">
+      <c r="AQ25" s="173">
         <v>123</v>
       </c>
-      <c r="AR25" s="166" t="s">
+      <c r="AR25" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AS25" s="166" t="s">
+      <c r="AS25" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AT25" s="169">
+      <c r="AT25" s="167">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU25" s="169">
+      <c r="AU25" s="167">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX25" s="176">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ25" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="166" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="166">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="166" t="s">
+      <c r="AX25" s="174">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="164">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="BD25" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE25" s="177" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:57" s="139" customFormat="1">
-      <c r="A28" s="139" t="s">
+      <c r="BD25" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" s="137" customFormat="1">
+      <c r="A28" s="137" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="139" t="s">
+      <c r="C28" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="139" t="s">
+      <c r="E28" s="137" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="139" t="s">
+      <c r="F28" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="139" t="s">
+      <c r="H28" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="139">
+      <c r="M28" s="137">
         <v>0.11</v>
       </c>
-      <c r="N28" s="143">
+      <c r="N28" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O28" s="144">
+      <c r="O28" s="142">
         <v>0.5</v>
       </c>
-      <c r="P28" s="145">
+      <c r="P28" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q28" s="146">
-        <v>0</v>
-      </c>
-      <c r="R28" s="144">
+      <c r="Q28" s="144">
+        <v>0</v>
+      </c>
+      <c r="R28" s="142">
         <v>0.5</v>
       </c>
-      <c r="S28" s="139" t="s">
+      <c r="S28" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="T28" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="U28" s="139">
+      <c r="T28" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" s="137">
         <v>0.03</v>
       </c>
-      <c r="V28" s="139">
+      <c r="V28" s="137">
         <v>0.03</v>
       </c>
-      <c r="W28" s="139">
+      <c r="W28" s="137">
         <v>0</v>
       </c>
       <c r="X28" t="b">
         <v>1</v>
       </c>
-      <c r="Y28" s="139">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="139">
+      <c r="Y28" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="137">
         <v>20</v>
       </c>
-      <c r="AA28" s="139">
+      <c r="AA28" s="137">
         <v>0.03</v>
       </c>
-      <c r="AB28" s="139" t="s">
+      <c r="AB28" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="AC28" s="139" t="s">
+      <c r="AC28" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="AD28" s="139">
+      <c r="AD28" s="137">
         <v>15</v>
       </c>
-      <c r="AE28" s="139">
+      <c r="AE28" s="137">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF28" s="139">
+      <c r="AF28" s="137">
         <v>5</v>
       </c>
-      <c r="AG28" s="139">
+      <c r="AG28" s="137">
         <v>1.2</v>
       </c>
-      <c r="AH28" s="139">
+      <c r="AH28" s="137">
         <v>0.8</v>
       </c>
-      <c r="AI28" s="139" t="s">
+      <c r="AI28" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="AJ28" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="139" t="s">
+      <c r="AJ28" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="AL28" s="139" t="s">
+      <c r="AL28" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AM28" s="139">
+      <c r="AM28" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN28" s="139">
+      <c r="AN28" s="137">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO28" s="147">
+      <c r="AO28" s="145">
         <v>0.12</v>
       </c>
-      <c r="AP28" s="148">
+      <c r="AP28" s="146">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ28" s="149">
+      <c r="AQ28" s="147">
         <v>123</v>
       </c>
-      <c r="AR28" s="139" t="s">
+      <c r="AR28" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AS28" s="139" t="s">
+      <c r="AS28" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT28" s="143">
+      <c r="AT28" s="141">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU28" s="143">
+      <c r="AU28" s="141">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX28" s="140">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ28" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA28" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="139">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="139" t="s">
+      <c r="AX28" s="138">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="137">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BD28" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE28" s="150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:57" s="139" customFormat="1">
-      <c r="A29" s="139" t="s">
+      <c r="BD28" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" s="137" customFormat="1">
+      <c r="A29" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="139" t="s">
+      <c r="C29" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="139" t="s">
+      <c r="E29" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="139" t="s">
+      <c r="F29" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="H29" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="139" t="s">
+      <c r="H29" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="M29" s="139">
+      <c r="M29" s="137">
         <v>0.11</v>
       </c>
-      <c r="N29" s="143">
+      <c r="N29" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O29" s="144">
+      <c r="O29" s="142">
         <v>0.5</v>
       </c>
-      <c r="P29" s="145">
+      <c r="P29" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q29" s="146">
+      <c r="Q29" s="144">
         <v>0.5</v>
       </c>
-      <c r="R29" s="144">
+      <c r="R29" s="142">
         <v>0.5</v>
       </c>
-      <c r="S29" s="139" t="s">
+      <c r="S29" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="T29" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="U29" s="139">
+      <c r="T29" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" s="137">
         <v>0.02</v>
       </c>
-      <c r="V29" s="139">
+      <c r="V29" s="137">
         <v>0.02</v>
       </c>
-      <c r="W29" s="139">
+      <c r="W29" s="137">
         <v>0</v>
       </c>
       <c r="X29" t="b">
         <v>1</v>
       </c>
-      <c r="Y29" s="139">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="139">
+      <c r="Y29" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="137">
         <v>20</v>
       </c>
-      <c r="AA29" s="139">
+      <c r="AA29" s="137">
         <v>0.03</v>
       </c>
-      <c r="AB29" s="139" t="s">
+      <c r="AB29" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="AC29" s="139" t="s">
+      <c r="AC29" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="AD29" s="139">
+      <c r="AD29" s="137">
         <v>15</v>
       </c>
-      <c r="AE29" s="139">
+      <c r="AE29" s="137">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF29" s="139">
+      <c r="AF29" s="137">
         <v>5</v>
       </c>
-      <c r="AG29" s="139">
+      <c r="AG29" s="137">
         <v>1.2</v>
       </c>
-      <c r="AH29" s="139">
+      <c r="AH29" s="137">
         <v>0.8</v>
       </c>
-      <c r="AI29" s="139" t="s">
+      <c r="AI29" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="AJ29" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="139" t="s">
+      <c r="AJ29" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="AL29" s="139" t="s">
+      <c r="AL29" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AM29" s="139">
+      <c r="AM29" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN29" s="139">
+      <c r="AN29" s="137">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO29" s="147">
+      <c r="AO29" s="145">
         <v>0.12</v>
       </c>
-      <c r="AP29" s="148">
+      <c r="AP29" s="146">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ29" s="149">
+      <c r="AQ29" s="147">
         <v>123</v>
       </c>
-      <c r="AR29" s="139" t="s">
+      <c r="AR29" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AS29" s="139" t="s">
+      <c r="AS29" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT29" s="143">
+      <c r="AT29" s="141">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU29" s="143">
+      <c r="AU29" s="141">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX29" s="140">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ29" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA29" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="139">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="139" t="s">
+      <c r="AX29" s="138">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="137">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BD29" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE29" s="150" t="b">
+      <c r="BD29" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE29" s="148" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5216,7 +5212,7 @@
       <c r="N30" s="20"/>
       <c r="O30" s="50"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="136"/>
+      <c r="Q30" s="134"/>
       <c r="R30" s="50"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="5"/>
@@ -5230,7 +5226,7 @@
       <c r="N31" s="20"/>
       <c r="O31" s="50"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="136"/>
+      <c r="Q31" s="134"/>
       <c r="R31" s="50"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="5"/>
@@ -5244,7 +5240,7 @@
       <c r="N32" s="20"/>
       <c r="O32" s="50"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="136"/>
+      <c r="Q32" s="134"/>
       <c r="R32" s="50"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="5"/>
@@ -5258,7 +5254,7 @@
       <c r="N33" s="20"/>
       <c r="O33" s="50"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="136"/>
+      <c r="Q33" s="134"/>
       <c r="R33" s="50"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="5"/>
@@ -5272,7 +5268,7 @@
       <c r="N34" s="20"/>
       <c r="O34" s="50"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="136"/>
+      <c r="Q34" s="134"/>
       <c r="R34" s="50"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="5"/>
@@ -5286,7 +5282,7 @@
       <c r="N35" s="20"/>
       <c r="O35" s="50"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="136"/>
+      <c r="Q35" s="134"/>
       <c r="R35" s="50"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="5"/>
@@ -5296,305 +5292,305 @@
       <c r="AX35" s="39"/>
       <c r="BE35" s="19"/>
     </row>
-    <row r="36" spans="1:57" s="179" customFormat="1">
-      <c r="A36" s="179" t="s">
+    <row r="36" spans="1:57" s="177" customFormat="1">
+      <c r="A36" s="177" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="179" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="179" t="s">
+      <c r="C36" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="177" t="s">
         <v>220</v>
       </c>
-      <c r="E36" s="179" t="s">
+      <c r="E36" s="177" t="s">
         <v>189</v>
       </c>
-      <c r="F36" s="179" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="179" t="s">
+      <c r="F36" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="177" t="s">
         <v>202</v>
       </c>
-      <c r="H36" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="180" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" s="181" t="s">
+      <c r="H36" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="M36" s="179">
+      <c r="M36" s="177">
         <v>0.11</v>
       </c>
-      <c r="N36" s="182">
+      <c r="N36" s="180">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O36" s="183">
+      <c r="O36" s="181">
         <v>0.5</v>
       </c>
-      <c r="P36" s="184">
+      <c r="P36" s="182">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q36" s="185">
-        <v>0</v>
-      </c>
-      <c r="R36" s="183">
+      <c r="Q36" s="183">
+        <v>0</v>
+      </c>
+      <c r="R36" s="181">
         <v>0.5</v>
       </c>
-      <c r="S36" s="179" t="s">
+      <c r="S36" s="177" t="s">
         <v>129</v>
       </c>
-      <c r="T36" s="180" t="b">
-        <v>1</v>
-      </c>
-      <c r="U36" s="180">
-        <v>0</v>
-      </c>
-      <c r="V36" s="179">
+      <c r="T36" s="178" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" s="178">
+        <v>0</v>
+      </c>
+      <c r="V36" s="177">
         <v>0.03</v>
       </c>
-      <c r="W36" s="179">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="179" t="s">
+      <c r="W36" s="177">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="AC36" s="179" t="s">
+      <c r="AC36" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="AD36" s="179">
+      <c r="AD36" s="177">
         <v>15</v>
       </c>
-      <c r="AE36" s="179">
+      <c r="AE36" s="177">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF36" s="179">
+      <c r="AF36" s="177">
         <v>5</v>
       </c>
-      <c r="AG36" s="179">
+      <c r="AG36" s="177">
         <v>1.2</v>
       </c>
-      <c r="AH36" s="179">
+      <c r="AH36" s="177">
         <v>0.8</v>
       </c>
-      <c r="AI36" s="179" t="s">
+      <c r="AI36" s="177" t="s">
         <v>134</v>
       </c>
-      <c r="AJ36" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="179" t="s">
+      <c r="AJ36" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="AL36" s="179" t="s">
+      <c r="AL36" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="AM36" s="179">
+      <c r="AM36" s="177">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN36" s="179">
+      <c r="AN36" s="177">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO36" s="186">
+      <c r="AO36" s="184">
         <v>0.12</v>
       </c>
-      <c r="AP36" s="187">
+      <c r="AP36" s="185">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ36" s="188">
+      <c r="AQ36" s="186">
         <v>123</v>
       </c>
-      <c r="AR36" s="179" t="s">
+      <c r="AR36" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS36" s="179" t="s">
+      <c r="AS36" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AT36" s="182">
+      <c r="AT36" s="180">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU36" s="182">
+      <c r="AU36" s="180">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX36" s="189">
-        <v>0</v>
-      </c>
-      <c r="AY36" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ36" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA36" s="179" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB36" s="179">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="179" t="s">
+      <c r="AX36" s="187">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="177">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="BD36" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE36" s="190" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:57" s="179" customFormat="1">
-      <c r="A37" s="179" t="s">
+      <c r="BD36" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE36" s="188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" s="177" customFormat="1">
+      <c r="A37" s="177" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="179" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="179" t="s">
+      <c r="C37" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="177" t="s">
         <v>220</v>
       </c>
-      <c r="E37" s="179" t="s">
+      <c r="E37" s="177" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="179" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="179" t="s">
+      <c r="F37" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="180" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" s="180" t="s">
+      <c r="H37" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="178" t="s">
         <v>125</v>
       </c>
-      <c r="M37" s="179">
+      <c r="M37" s="177">
         <v>0.11</v>
       </c>
-      <c r="N37" s="182">
+      <c r="N37" s="180">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O37" s="183">
+      <c r="O37" s="181">
         <v>0.5</v>
       </c>
-      <c r="P37" s="184">
+      <c r="P37" s="182">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q37" s="191">
+      <c r="Q37" s="189">
         <v>0.5</v>
       </c>
-      <c r="R37" s="183">
+      <c r="R37" s="181">
         <v>0.5</v>
       </c>
-      <c r="S37" s="179" t="s">
+      <c r="S37" s="177" t="s">
         <v>129</v>
       </c>
-      <c r="T37" s="180" t="b">
-        <v>1</v>
-      </c>
-      <c r="U37" s="180">
-        <v>0</v>
-      </c>
-      <c r="V37" s="179">
+      <c r="T37" s="178" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" s="178">
+        <v>0</v>
+      </c>
+      <c r="V37" s="177">
         <v>0.02</v>
       </c>
-      <c r="W37" s="179">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="179" t="s">
+      <c r="W37" s="177">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="AC37" s="179" t="s">
+      <c r="AC37" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="AD37" s="179">
+      <c r="AD37" s="177">
         <v>15</v>
       </c>
-      <c r="AE37" s="179">
+      <c r="AE37" s="177">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF37" s="179">
+      <c r="AF37" s="177">
         <v>5</v>
       </c>
-      <c r="AG37" s="179">
+      <c r="AG37" s="177">
         <v>1.2</v>
       </c>
-      <c r="AH37" s="179">
+      <c r="AH37" s="177">
         <v>0.8</v>
       </c>
-      <c r="AI37" s="179" t="s">
+      <c r="AI37" s="177" t="s">
         <v>134</v>
       </c>
-      <c r="AJ37" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="179" t="s">
+      <c r="AJ37" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="AL37" s="179" t="s">
+      <c r="AL37" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="AM37" s="179">
+      <c r="AM37" s="177">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN37" s="179">
+      <c r="AN37" s="177">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO37" s="186">
+      <c r="AO37" s="184">
         <v>0.12</v>
       </c>
-      <c r="AP37" s="187">
+      <c r="AP37" s="185">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ37" s="188">
+      <c r="AQ37" s="186">
         <v>123</v>
       </c>
-      <c r="AR37" s="179" t="s">
+      <c r="AR37" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS37" s="179" t="s">
+      <c r="AS37" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AT37" s="182">
+      <c r="AT37" s="180">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU37" s="182">
+      <c r="AU37" s="180">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX37" s="189">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ37" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA37" s="179" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB37" s="179">
-        <v>0</v>
-      </c>
-      <c r="BC37" s="179" t="s">
+      <c r="AX37" s="187">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ37" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="177">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="BD37" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE37" s="190" t="b">
+      <c r="BD37" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE37" s="188" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5602,7 +5598,7 @@
       <c r="N38" s="20"/>
       <c r="O38" s="50"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="136"/>
+      <c r="Q38" s="134"/>
       <c r="R38" s="50"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="5"/>
@@ -5657,7 +5653,7 @@
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q39" s="136">
+      <c r="Q39" s="134">
         <v>0</v>
       </c>
       <c r="R39" s="50">
@@ -5808,7 +5804,7 @@
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q40" s="136">
+      <c r="Q40" s="134">
         <v>0.5</v>
       </c>
       <c r="R40" s="50">
@@ -5918,7 +5914,7 @@
       <c r="N41" s="20"/>
       <c r="O41" s="50"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="136"/>
+      <c r="Q41" s="134"/>
       <c r="R41" s="50"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="5"/>
@@ -5973,7 +5969,7 @@
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q42" s="136">
+      <c r="Q42" s="134">
         <v>0</v>
       </c>
       <c r="R42" s="50">
@@ -6124,7 +6120,7 @@
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q43" s="136">
+      <c r="Q43" s="134">
         <v>0.5</v>
       </c>
       <c r="R43" s="50">
@@ -6349,13 +6345,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
-  <dimension ref="A3:AA28"/>
+  <dimension ref="A3:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6392,8 +6388,8 @@
       <c r="E3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
       <c r="H3" s="35" t="s">
         <v>236</v>
       </c>
@@ -6447,28 +6443,28 @@
       <c r="E4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="H4" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="I4" s="122" t="s">
+      <c r="I4" s="120" t="s">
         <v>231</v>
       </c>
-      <c r="J4" s="122" t="s">
+      <c r="J4" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="122" t="s">
+      <c r="K4" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="M4" s="122" t="s">
+      <c r="M4" s="120" t="s">
         <v>194</v>
       </c>
       <c r="N4" s="36" t="s">
@@ -6742,368 +6738,480 @@
       <c r="U9" s="39"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="U10" s="39"/>
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="L10" s="137">
+        <v>0</v>
+      </c>
+      <c r="M10" s="137">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2021</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10">
+        <v>0.03</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="39">
+        <v>0.11</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1.05</v>
+      </c>
+      <c r="Y10">
+        <v>1.4</v>
+      </c>
+      <c r="Z10">
+        <v>0.8</v>
+      </c>
+      <c r="AA10">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="U11" s="39"/>
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="137">
+        <v>0</v>
+      </c>
+      <c r="M11" s="137">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2021</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11">
+        <v>0.03</v>
+      </c>
+      <c r="Q11">
+        <v>0.1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" s="39">
+        <v>0.11</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:27">
       <c r="U12" s="39"/>
     </row>
-    <row r="13" spans="1:27" s="139" customFormat="1">
-      <c r="A13" s="139" t="s">
+    <row r="13" spans="1:27">
+      <c r="U13" s="39"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="U14" s="39"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="U15" s="39"/>
+    </row>
+    <row r="16" spans="1:27" s="137" customFormat="1">
+      <c r="A16" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="139" t="s">
+      <c r="C16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="139" t="s">
+      <c r="F16" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="L13" s="139">
-        <v>0</v>
-      </c>
-      <c r="M13" s="139">
-        <v>0</v>
-      </c>
-      <c r="N13" s="139">
+      <c r="L16" s="137">
+        <v>0</v>
+      </c>
+      <c r="M16" s="137">
+        <v>0</v>
+      </c>
+      <c r="N16" s="137">
         <v>2021</v>
       </c>
-      <c r="O13" s="139" t="s">
+      <c r="O16" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="139">
+      <c r="P16" s="137">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q13" s="139">
-        <v>0</v>
-      </c>
-      <c r="R13" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="S13" s="139">
+      <c r="Q16" s="137">
+        <v>0</v>
+      </c>
+      <c r="R16" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T13" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="U13" s="140">
+      <c r="T16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" s="138">
         <v>0.11</v>
       </c>
-      <c r="V13" s="139">
-        <v>0</v>
-      </c>
-      <c r="X13" s="139">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="139">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="139">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="139" customFormat="1">
-      <c r="U14" s="140"/>
-    </row>
-    <row r="15" spans="1:27" s="139" customFormat="1">
-      <c r="U15" s="140"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="U16" s="39"/>
-    </row>
-    <row r="17" spans="1:27" s="139" customFormat="1">
-      <c r="A17" s="139" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="139" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="141" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="141">
-        <v>2021</v>
-      </c>
-      <c r="H17" s="141">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I17" s="141">
-        <v>0.75</v>
-      </c>
-      <c r="J17" s="141">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K17" s="141">
-        <v>0.02</v>
-      </c>
-      <c r="L17" s="139">
-        <v>0</v>
-      </c>
-      <c r="M17" s="139">
-        <v>0</v>
-      </c>
-      <c r="N17" s="139">
-        <v>2021</v>
-      </c>
-      <c r="O17" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" s="139">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="Q17" s="139">
-        <v>0</v>
-      </c>
-      <c r="R17" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="S17" s="139">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="T17" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" s="140">
-        <v>0.11</v>
-      </c>
-      <c r="V17" s="139">
-        <v>0</v>
-      </c>
-      <c r="X17" s="139">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="139">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="139">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="139" customFormat="1">
-      <c r="A18" s="139" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="139" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="141" t="s">
-        <v>263</v>
-      </c>
-      <c r="G18" s="142">
-        <v>2021</v>
-      </c>
-      <c r="J18" s="195">
-        <v>0.03</v>
-      </c>
-      <c r="K18" s="195">
-        <v>0.02</v>
-      </c>
-      <c r="L18" s="139">
-        <v>0</v>
-      </c>
-      <c r="M18" s="139">
-        <v>0</v>
-      </c>
-      <c r="N18" s="139">
-        <v>2021</v>
-      </c>
-      <c r="O18" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" s="139">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="Q18" s="139">
-        <v>0</v>
-      </c>
-      <c r="R18" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="S18" s="139">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="T18" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" s="140">
-        <v>0.11</v>
-      </c>
-      <c r="V18" s="139">
-        <v>0</v>
-      </c>
-      <c r="X18" s="139">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="139">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="139">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="139">
-        <v>1</v>
-      </c>
+      <c r="V16" s="137">
+        <v>0</v>
+      </c>
+      <c r="X16" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="137" customFormat="1">
+      <c r="U17" s="138"/>
+    </row>
+    <row r="18" spans="1:27" s="137" customFormat="1">
+      <c r="U18" s="138"/>
     </row>
     <row r="19" spans="1:27">
       <c r="U19" s="39"/>
     </row>
-    <row r="20" spans="1:27">
-      <c r="U20" s="39"/>
-    </row>
-    <row r="21" spans="1:27" s="139" customFormat="1">
-      <c r="A21" s="139" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="139" t="s">
+    <row r="20" spans="1:27" s="137" customFormat="1">
+      <c r="A20" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="137" t="s">
         <v>190</v>
       </c>
+      <c r="F20" s="139" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="139">
+        <v>2021</v>
+      </c>
+      <c r="H20" s="139">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I20" s="139">
+        <v>0.75</v>
+      </c>
+      <c r="J20" s="139">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K20" s="139">
+        <v>0.02</v>
+      </c>
+      <c r="L20" s="137">
+        <v>0</v>
+      </c>
+      <c r="M20" s="137">
+        <v>0</v>
+      </c>
+      <c r="N20" s="137">
+        <v>2021</v>
+      </c>
+      <c r="O20" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="137">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="Q20" s="137">
+        <v>0</v>
+      </c>
+      <c r="R20" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="T20" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" s="138">
+        <v>0.11</v>
+      </c>
+      <c r="V20" s="137">
+        <v>0</v>
+      </c>
+      <c r="X20" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="137" customFormat="1">
+      <c r="A21" s="137" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="137" t="s">
+        <v>190</v>
+      </c>
       <c r="F21" s="139" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="139">
+        <v>263</v>
+      </c>
+      <c r="G21" s="140">
         <v>2021</v>
       </c>
-      <c r="L21" s="139">
-        <v>0.5</v>
-      </c>
-      <c r="M21" s="139">
-        <v>0.5</v>
-      </c>
-      <c r="N21" s="139">
+      <c r="J21" s="193">
+        <v>0.03</v>
+      </c>
+      <c r="K21" s="193">
+        <v>0.02</v>
+      </c>
+      <c r="L21" s="137">
+        <v>0</v>
+      </c>
+      <c r="M21" s="137">
+        <v>0</v>
+      </c>
+      <c r="N21" s="137">
         <v>2021</v>
       </c>
-      <c r="O21" s="139" t="s">
+      <c r="O21" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="139">
+      <c r="P21" s="137">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q21" s="139">
-        <v>0</v>
-      </c>
-      <c r="R21" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="S21" s="139">
+      <c r="Q21" s="137">
+        <v>0</v>
+      </c>
+      <c r="R21" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T21" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" s="140">
+      <c r="T21" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="138">
         <v>0.11</v>
       </c>
-      <c r="V21" s="139">
-        <v>0</v>
-      </c>
-      <c r="X21" s="139">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="139">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="139">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" s="139" customFormat="1">
-      <c r="A22" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="139" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="139" t="s">
-        <v>229</v>
-      </c>
-      <c r="G22" s="139">
-        <v>2021</v>
-      </c>
-      <c r="J22" s="139">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K22" s="139">
-        <v>0.02</v>
-      </c>
-      <c r="L22" s="139">
-        <v>0</v>
-      </c>
-      <c r="M22" s="139">
-        <v>0</v>
-      </c>
-      <c r="N22" s="139">
-        <v>2021</v>
-      </c>
-      <c r="O22" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="139">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="Q22" s="139">
-        <v>0</v>
-      </c>
-      <c r="R22" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="S22" s="139">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="T22" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" s="140">
-        <v>0.11</v>
-      </c>
-      <c r="V22" s="139">
-        <v>0</v>
-      </c>
-      <c r="X22" s="139">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="139">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="139">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="139">
-        <v>1</v>
-      </c>
+      <c r="V21" s="137">
+        <v>0</v>
+      </c>
+      <c r="X21" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="U22" s="39"/>
     </row>
     <row r="23" spans="1:27">
       <c r="U23" s="39"/>
     </row>
-    <row r="24" spans="1:27">
-      <c r="U24" s="39"/>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="U25" s="39"/>
+    <row r="24" spans="1:27" s="137" customFormat="1">
+      <c r="A24" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="137" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="137">
+        <v>2021</v>
+      </c>
+      <c r="L24" s="137">
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="137">
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="137">
+        <v>2021</v>
+      </c>
+      <c r="O24" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="137">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="Q24" s="137">
+        <v>0</v>
+      </c>
+      <c r="R24" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="T24" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" s="138">
+        <v>0.11</v>
+      </c>
+      <c r="V24" s="137">
+        <v>0</v>
+      </c>
+      <c r="X24" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" s="137" customFormat="1">
+      <c r="A25" s="137" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="137" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" s="137">
+        <v>2021</v>
+      </c>
+      <c r="J25" s="137">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K25" s="137">
+        <v>0.02</v>
+      </c>
+      <c r="L25" s="137">
+        <v>0</v>
+      </c>
+      <c r="M25" s="137">
+        <v>0</v>
+      </c>
+      <c r="N25" s="137">
+        <v>2021</v>
+      </c>
+      <c r="O25" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="137">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="Q25" s="137">
+        <v>0</v>
+      </c>
+      <c r="R25" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="T25" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" s="138">
+        <v>0.11</v>
+      </c>
+      <c r="V25" s="137">
+        <v>0</v>
+      </c>
+      <c r="X25" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="137">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:27">
       <c r="U26" s="39"/>
@@ -7114,12 +7222,21 @@
     <row r="28" spans="1:27">
       <c r="U28" s="39"/>
     </row>
+    <row r="29" spans="1:27">
+      <c r="U29" s="39"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="U30" s="39"/>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="U31" s="39"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C10 C11:C28" xr:uid="{CE4DB086-8939-4E0F-A217-D1528E507A37}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C31" xr:uid="{CE4DB086-8939-4E0F-A217-D1528E507A37}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D10 D11:D28" xr:uid="{B6635BCF-58EB-45FF-9851-3E5464D67D97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D31" xr:uid="{B6635BCF-58EB-45FF-9851-3E5464D67D97}">
       <formula1>"singleTier,multiTier"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7134,7 +7251,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7178,13 +7295,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -7232,25 +7349,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="131" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="F2" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="G2" s="131" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7301,156 +7418,156 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="179"/>
+      <c r="B5" s="177"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="151" t="s">
+      <c r="B6" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="149" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="151" t="s">
+      <c r="D6" s="149" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="151" t="s">
+      <c r="E6" s="149" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="151" t="s">
+      <c r="F6" s="149" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="151" t="s">
+      <c r="G6" s="149" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="149" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="151" t="s">
+      <c r="B7" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="149" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="151" t="s">
+      <c r="D7" s="149" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="151" t="s">
+      <c r="E7" s="149" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="151" t="s">
+      <c r="F7" s="149" t="s">
         <v>227</v>
       </c>
-      <c r="G7" s="151" t="s">
+      <c r="G7" s="149" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="151"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="151" t="s">
+      <c r="B9" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="149" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="151" t="s">
+      <c r="E9" s="149" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="F9" s="149" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="149" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="149" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="151" t="s">
+      <c r="B10" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="149" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="151" t="s">
+      <c r="D10" s="149" t="s">
         <v>257</v>
       </c>
-      <c r="E10" s="151" t="s">
+      <c r="E10" s="149" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="151" t="s">
+      <c r="F10" s="149" t="s">
         <v>227</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="149" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="164" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="166" t="s">
+      <c r="B12" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="164" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="166" t="s">
+      <c r="D12" s="164" t="s">
         <v>257</v>
       </c>
-      <c r="E12" s="166" t="s">
+      <c r="E12" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="F12" s="166" t="s">
+      <c r="F12" s="164" t="s">
         <v>263</v>
       </c>
-      <c r="G12" s="151" t="s">
+      <c r="G12" s="149" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="166" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="166" t="s">
+      <c r="B13" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="D13" s="166" t="s">
+      <c r="D13" s="164" t="s">
         <v>257</v>
       </c>
-      <c r="E13" s="166" t="s">
+      <c r="E13" s="164" t="s">
         <v>256</v>
       </c>
-      <c r="F13" s="166" t="s">
+      <c r="F13" s="164" t="s">
         <v>263</v>
       </c>
-      <c r="G13" s="151" t="s">
+      <c r="G13" s="149" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="179" customFormat="1"/>
+    <row r="14" spans="1:7" s="177" customFormat="1"/>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
         <v>268</v>
@@ -7497,55 +7614,55 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="179" customFormat="1"/>
-    <row r="18" spans="1:7" s="179" customFormat="1"/>
-    <row r="19" spans="1:7" s="179" customFormat="1"/>
-    <row r="20" spans="1:7" s="179" customFormat="1"/>
-    <row r="21" spans="1:7" s="179" customFormat="1"/>
-    <row r="22" spans="1:7" s="179" customFormat="1"/>
-    <row r="23" spans="1:7" s="179" customFormat="1">
-      <c r="A23" s="179" t="s">
+    <row r="17" spans="1:7" s="177" customFormat="1"/>
+    <row r="18" spans="1:7" s="177" customFormat="1"/>
+    <row r="19" spans="1:7" s="177" customFormat="1"/>
+    <row r="20" spans="1:7" s="177" customFormat="1"/>
+    <row r="21" spans="1:7" s="177" customFormat="1"/>
+    <row r="22" spans="1:7" s="177" customFormat="1"/>
+    <row r="23" spans="1:7" s="177" customFormat="1">
+      <c r="A23" s="177" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="179" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" s="179" t="s">
+      <c r="B23" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="177" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="179" t="s">
+      <c r="D23" s="177" t="s">
         <v>257</v>
       </c>
-      <c r="E23" s="179" t="s">
+      <c r="E23" s="177" t="s">
         <v>255</v>
       </c>
-      <c r="F23" s="179" t="s">
+      <c r="F23" s="177" t="s">
         <v>228</v>
       </c>
-      <c r="G23" s="179" t="s">
+      <c r="G23" s="177" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="179" customFormat="1">
-      <c r="A24" s="179" t="s">
+    <row r="24" spans="1:7" s="177" customFormat="1">
+      <c r="A24" s="177" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="179" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="179" t="s">
+      <c r="B24" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="177" t="s">
         <v>252</v>
       </c>
-      <c r="D24" s="179" t="s">
+      <c r="D24" s="177" t="s">
         <v>257</v>
       </c>
-      <c r="E24" s="179" t="s">
+      <c r="E24" s="177" t="s">
         <v>256</v>
       </c>
-      <c r="F24" s="179" t="s">
+      <c r="F24" s="177" t="s">
         <v>228</v>
       </c>
-      <c r="G24" s="179" t="s">
+      <c r="G24" s="177" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7856,11 +7973,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="194"/>
+      <c r="C3" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>139</v>
       </c>
       <c r="E3" t="s">
@@ -7868,564 +7985,564 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="51"/>
-      <c r="C4" s="54">
+      <c r="B4" s="194"/>
+      <c r="C4" s="53">
         <v>43646</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="53">
         <v>43646</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="63">
         <v>442147</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="66">
         <v>733822</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="68">
         <f>SUM(C6:D6)</f>
         <v>1175969</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <v>5389</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="63">
         <v>5692</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="68">
         <f t="shared" ref="E7:E42" si="0">SUM(C7:D7)</f>
         <v>11081</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="63">
         <v>1436</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="63">
         <v>1820</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="68">
         <f t="shared" si="0"/>
         <v>3256</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <v>159348</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="64">
         <v>161821</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="68">
         <f t="shared" si="0"/>
         <v>321169</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="73">
         <v>608320</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="73">
         <v>903155</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="74">
         <f t="shared" si="0"/>
         <v>1511475</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="111" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="112">
+      <c r="C11" s="110">
         <v>71385</v>
       </c>
-      <c r="D11" s="112">
+      <c r="D11" s="110">
         <v>96246</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="74">
         <v>167631</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="75"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="114">
         <f>C6/C$11</f>
         <v>6.1938362401064646</v>
       </c>
-      <c r="D13" s="116">
+      <c r="D13" s="114">
         <f t="shared" ref="D13:E13" si="1">D6/D$11</f>
         <v>7.6244415352326333</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="114">
         <f t="shared" si="1"/>
         <v>7.0152239144311013</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="114">
         <f t="shared" ref="C14:E14" si="2">C7/C$11</f>
         <v>7.5492050150591863E-2</v>
       </c>
-      <c r="D14" s="116">
+      <c r="D14" s="114">
         <f t="shared" si="2"/>
         <v>5.9140120108887639E-2</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="114">
         <f t="shared" si="2"/>
         <v>6.6103525004324981E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="116">
+      <c r="C15" s="114">
         <f t="shared" ref="C15:E15" si="3">C8/C$11</f>
         <v>2.0116270925264412E-2</v>
       </c>
-      <c r="D15" s="116">
+      <c r="D15" s="114">
         <f t="shared" si="3"/>
         <v>1.8909876774099704E-2</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="114">
         <f t="shared" si="3"/>
         <v>1.9423614963819343E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="116">
+      <c r="C16" s="114">
         <f t="shared" ref="C16:E16" si="4">C9/C$11</f>
         <v>2.2322336625341457</v>
       </c>
-      <c r="D16" s="116">
+      <c r="D16" s="114">
         <f t="shared" si="4"/>
         <v>1.6813270161876857</v>
       </c>
-      <c r="E16" s="116">
+      <c r="E16" s="114">
         <f t="shared" si="4"/>
         <v>1.9159284380574</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="116">
         <f t="shared" ref="C17:E17" si="5">C10/C$11</f>
         <v>8.5216782237164672</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="116">
         <f t="shared" si="5"/>
         <v>9.3838185483033065</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="116">
         <f t="shared" si="5"/>
         <v>9.016679492456646</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="66">
         <v>9069</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="66">
         <v>95139</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="69">
         <f t="shared" si="0"/>
         <v>104208</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="69">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="66">
         <v>499249</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="63">
         <v>1423962</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="68">
         <f t="shared" si="0"/>
         <v>1923211</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="63">
         <v>86688</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="63">
         <v>92287</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="68">
         <f t="shared" si="0"/>
         <v>178975</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="64">
         <v>627487</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="64">
         <v>612388</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="68">
         <f t="shared" si="0"/>
         <v>1239875</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="75">
         <v>1213424</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>2128637</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="76">
         <f t="shared" si="0"/>
         <v>3342061</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="78">
         <v>1830813</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="78">
         <v>3126931</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="79">
         <f t="shared" si="0"/>
         <v>4957744</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="63">
         <v>1054566</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="63">
         <v>1792577</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="68">
         <f t="shared" si="0"/>
         <v>2847143</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="63">
         <v>776247</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="63">
         <v>1334354</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="68">
         <f t="shared" si="0"/>
         <v>2110601</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="48" customHeight="1">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="69"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="68"/>
     </row>
     <row r="28" spans="2:5" ht="48" customHeight="1">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="69"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="68"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="62">
         <v>3777</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="62">
         <v>10770</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="68">
         <f t="shared" si="0"/>
         <v>14547</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="61">
         <v>57</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="57">
         <v>2818</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="68">
         <f t="shared" si="0"/>
         <v>2875</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="61">
         <v>61</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="61">
         <v>168</v>
       </c>
-      <c r="E31" s="69">
+      <c r="E31" s="68">
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="58">
         <v>3867</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="58">
         <v>8457</v>
       </c>
-      <c r="E32" s="69">
+      <c r="E32" s="68">
         <f t="shared" si="0"/>
         <v>12324</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="71">
+      <c r="C33" s="70">
         <v>7762</v>
       </c>
-      <c r="D33" s="71">
+      <c r="D33" s="70">
         <v>22213</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="69">
         <f t="shared" si="0"/>
         <v>29975</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="101">
+      <c r="C34" s="99">
         <v>12070</v>
       </c>
-      <c r="D34" s="98">
+      <c r="D34" s="96">
         <v>38475</v>
       </c>
-      <c r="E34" s="105">
+      <c r="E34" s="103">
         <f t="shared" ref="E34" si="6">SUM(C34:D34)</f>
         <v>50545</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="121">
+      <c r="C35" s="119">
         <f>C29/C$34</f>
         <v>0.31292460646230325</v>
       </c>
-      <c r="D35" s="121">
+      <c r="D35" s="119">
         <f t="shared" ref="D35:E35" si="7">D29/D$34</f>
         <v>0.27992202729044835</v>
       </c>
-      <c r="E35" s="121">
+      <c r="E35" s="119">
         <f t="shared" si="7"/>
         <v>0.28780294786823624</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="121">
+      <c r="C36" s="119">
         <f t="shared" ref="C36:E36" si="8">C30/C$34</f>
         <v>4.7224523612261803E-3</v>
       </c>
-      <c r="D36" s="121">
+      <c r="D36" s="119">
         <f t="shared" si="8"/>
         <v>7.3242365172189738E-2</v>
       </c>
-      <c r="E36" s="121">
+      <c r="E36" s="119">
         <f t="shared" si="8"/>
         <v>5.6880007913740233E-2</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="121">
+      <c r="C37" s="119">
         <f t="shared" ref="C37:E37" si="9">C31/C$34</f>
         <v>5.0538525269262632E-3</v>
       </c>
-      <c r="D37" s="121">
+      <c r="D37" s="119">
         <f t="shared" si="9"/>
         <v>4.3664717348927875E-3</v>
       </c>
-      <c r="E37" s="121">
+      <c r="E37" s="119">
         <f t="shared" si="9"/>
         <v>4.5306162825205264E-3</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="121">
+      <c r="C38" s="119">
         <f t="shared" ref="C38:E38" si="10">C32/C$34</f>
         <v>0.3203811101905551</v>
       </c>
-      <c r="D38" s="121">
+      <c r="D38" s="119">
         <f t="shared" si="10"/>
         <v>0.21980506822612086</v>
       </c>
-      <c r="E38" s="121">
+      <c r="E38" s="119">
         <f t="shared" si="10"/>
         <v>0.24382233653180335</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="62">
         <v>47</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="62">
         <v>661</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="68">
         <f t="shared" si="0"/>
         <v>708</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="71">
         <v>7809</v>
       </c>
-      <c r="D40" s="72">
+      <c r="D40" s="71">
         <v>22874</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="69">
         <f t="shared" si="0"/>
         <v>30683</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="58">
+      <c r="C41" s="57">
         <v>6117</v>
       </c>
-      <c r="D41" s="58">
+      <c r="D41" s="57">
         <v>17854</v>
       </c>
-      <c r="E41" s="69">
+      <c r="E41" s="68">
         <f t="shared" si="0"/>
         <v>23971</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="58">
+      <c r="C42" s="57">
         <v>1692</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="57">
         <v>5020</v>
       </c>
-      <c r="E42" s="69">
+      <c r="E42" s="68">
         <f t="shared" si="0"/>
         <v>6712</v>
       </c>
@@ -8460,32 +8577,32 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="80" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="195" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C6" s="82"/>
-      <c r="D6" s="102">
+      <c r="C6" s="195"/>
+      <c r="D6" s="100">
         <v>43646</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="101">
         <v>43646</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C7" s="82"/>
-      <c r="D7" s="102" t="s">
+      <c r="C7" s="195"/>
+      <c r="D7" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="102" t="s">
         <v>174</v>
       </c>
       <c r="F7" t="s">
@@ -8493,121 +8610,121 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="95">
         <v>17717</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="96">
         <v>17506</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="103">
         <f>SUM(D8:E8)</f>
         <v>35223</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="82">
         <v>1258</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="83">
         <v>5927</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="103">
         <f t="shared" ref="F9:F14" si="0">SUM(D9:E9)</f>
         <v>7185</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="84">
         <v>279</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="85">
         <v>314</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="103">
         <f t="shared" si="0"/>
         <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="82">
         <v>10678</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="83">
         <v>12961</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="103">
         <f t="shared" si="0"/>
         <v>23639</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="86">
         <v>182</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="87">
         <v>1014</v>
       </c>
-      <c r="F12" s="105">
+      <c r="F12" s="103">
         <f t="shared" si="0"/>
         <v>1196</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.5" customHeight="1">
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="97">
         <v>30114</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="98">
         <v>37721</v>
       </c>
-      <c r="F13" s="105">
+      <c r="F13" s="103">
         <f t="shared" si="0"/>
         <v>67835</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1">
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="99">
         <v>71385</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="96">
         <v>96246</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="103">
         <f t="shared" si="0"/>
         <v>167631</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="105">
         <v>0.4219</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="105">
         <v>0.39200000000000002</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F15" s="106">
         <f>F13/F14</f>
         <v>0.40466858755242169</v>
       </c>
@@ -8621,205 +8738,205 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1">
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="110">
+      <c r="D16" s="108">
         <f>D8/D$14</f>
         <v>0.24818939553127409</v>
       </c>
-      <c r="E16" s="110">
+      <c r="E16" s="108">
         <f t="shared" ref="E16:F16" si="1">E8/E$14</f>
         <v>0.18188807846559857</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="108">
         <f t="shared" si="1"/>
         <v>0.21012223276124345</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="110">
+      <c r="D17" s="108">
         <f t="shared" ref="D17:F17" si="2">D9/D$14</f>
         <v>1.762274987742523E-2</v>
       </c>
-      <c r="E17" s="110">
+      <c r="E17" s="108">
         <f t="shared" si="2"/>
         <v>6.158178002202689E-2</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="108">
         <f t="shared" si="2"/>
         <v>4.2862000465307727E-2</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="110">
+      <c r="D18" s="108">
         <f t="shared" ref="D18:F18" si="3">D10/D$14</f>
         <v>3.9083841143097292E-3</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="108">
         <f t="shared" si="3"/>
         <v>3.2624732456413771E-3</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="108">
         <f t="shared" si="3"/>
         <v>3.5375318407693088E-3</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="108">
         <f t="shared" ref="D19:F19" si="4">D11/D$14</f>
         <v>0.14958324577992577</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="108">
         <f t="shared" si="4"/>
         <v>0.13466533674126718</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="108">
         <f t="shared" si="4"/>
         <v>0.14101806945016138</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="92">
         <v>0.28849999999999998</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="92">
         <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="96">
+      <c r="D21" s="94">
         <v>0.13339999999999999</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E21" s="94">
         <v>0.121</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
     </row>
     <row r="23" spans="3:6" ht="19.5" customHeight="1">
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="97">
+      <c r="D24" s="95">
         <v>1608</v>
       </c>
-      <c r="E24" s="98">
+      <c r="E24" s="96">
         <v>3813</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="103">
         <f>SUM(D24:E24)</f>
         <v>5421</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="84">
         <v>131</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="82">
         <v>2012</v>
       </c>
-      <c r="F25" s="105">
+      <c r="F25" s="103">
         <f t="shared" ref="F25:F29" si="5">SUM(D25:E25)</f>
         <v>2143</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="84">
         <v>47</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="85">
         <v>121</v>
       </c>
-      <c r="F26" s="105">
+      <c r="F26" s="103">
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="25.5">
-      <c r="C27" s="83" t="s">
+    <row r="27" spans="3:6">
+      <c r="C27" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="88">
         <v>1864</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="88">
         <v>4566</v>
       </c>
-      <c r="F27" s="105">
+      <c r="F27" s="103">
         <f t="shared" si="5"/>
         <v>6430</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="25.5">
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="99">
+      <c r="D28" s="97">
         <v>3650</v>
       </c>
-      <c r="E28" s="99">
+      <c r="E28" s="97">
         <v>10513</v>
       </c>
-      <c r="F28" s="105">
+      <c r="F28" s="103">
         <f t="shared" si="5"/>
         <v>14163</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="101">
+      <c r="D29" s="99">
         <v>12070</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="96">
         <v>38475</v>
       </c>
-      <c r="F29" s="105">
+      <c r="F29" s="103">
         <f t="shared" si="5"/>
         <v>50545</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="93">
+      <c r="D30" s="91">
         <v>0.3024</v>
       </c>
-      <c r="E30" s="93">
+      <c r="E30" s="91">
         <v>0.2732</v>
       </c>
       <c r="F30" s="21">
@@ -8828,92 +8945,92 @@
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="119" t="s">
+      <c r="C31" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="93">
+      <c r="D31" s="91">
         <f>D24/D$29</f>
         <v>0.13322286661143332</v>
       </c>
-      <c r="E31" s="93">
+      <c r="E31" s="91">
         <f>E24/E$29</f>
         <v>9.9103313840155943E-2</v>
       </c>
-      <c r="F31" s="93">
+      <c r="F31" s="91">
         <f>F24/F$29</f>
         <v>0.10725096448709071</v>
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="93">
+      <c r="D32" s="91">
         <f t="shared" ref="D32:F32" si="6">D25/D$29</f>
         <v>1.0853355426677713E-2</v>
       </c>
-      <c r="E32" s="93">
+      <c r="E32" s="91">
         <f t="shared" si="6"/>
         <v>5.2293697205977908E-2</v>
       </c>
-      <c r="F32" s="93">
+      <c r="F32" s="91">
         <f t="shared" si="6"/>
         <v>4.2397863290137498E-2</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="93">
+      <c r="D33" s="91">
         <f t="shared" ref="D33:F33" si="7">D26/D$29</f>
         <v>3.8939519469759734E-3</v>
       </c>
-      <c r="E33" s="93">
+      <c r="E33" s="91">
         <f t="shared" si="7"/>
         <v>3.1448992852501625E-3</v>
       </c>
-      <c r="F33" s="93">
+      <c r="F33" s="91">
         <f t="shared" si="7"/>
         <v>3.3237708972202987E-3</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="120" t="s">
+      <c r="C34" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="93">
+      <c r="D34" s="91">
         <f t="shared" ref="D34:F34" si="8">D27/D$29</f>
         <v>0.1544324772162386</v>
       </c>
-      <c r="E34" s="93">
+      <c r="E34" s="91">
         <f t="shared" si="8"/>
         <v>0.11867446393762184</v>
       </c>
-      <c r="F34" s="93">
+      <c r="F34" s="91">
         <f t="shared" si="8"/>
         <v>0.12721337422099119</v>
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="94">
+      <c r="D35" s="92">
         <v>0.2379</v>
       </c>
-      <c r="E35" s="94">
+      <c r="E35" s="92">
         <v>0.21640000000000001</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="94">
+      <c r="D36" s="92">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="E36" s="94">
+      <c r="E36" s="92">
         <v>5.6800000000000003E-2</v>
       </c>
     </row>
@@ -8940,7 +9057,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="123">
+      <c r="B2" s="121">
         <v>43646</v>
       </c>
     </row>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5EFA9F-C172-4827-B5BE-E01AC69535C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CCD5F-7720-4743-99D2-ED6C816262A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -106,7 +106,7 @@
     EEC as a % of SC before SJ PF sharedADC policy is applied. Used in year 1</t>
       </text>
     </comment>
-    <comment ref="AE4" authorId="5" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+    <comment ref="AF4" authorId="5" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,7 +114,7 @@
     The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</t>
       </text>
     </comment>
-    <comment ref="AI4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
+    <comment ref="AJ4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
+    <comment ref="AT4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="284">
   <si>
     <t>nsim</t>
   </si>
@@ -1338,12 +1338,30 @@
   <si>
     <t>Dev_fc.t2</t>
   </si>
+  <si>
+    <t>"fc.t1"</t>
+  </si>
+  <si>
+    <t>"fc.t2"</t>
+  </si>
+  <si>
+    <t>fc.t1</t>
+  </si>
+  <si>
+    <t>RS3</t>
+  </si>
+  <si>
+    <t>fc.t2</t>
+  </si>
+  <si>
+    <t>ERC_floorNCshare</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1353,6 +1371,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1692,7 +1711,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2101,6 +2120,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2128,13 +2148,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
+      <xdr:colOff>438151</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>502719</xdr:colOff>
+      <xdr:colOff>388419</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -2159,7 +2179,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7296151" y="0"/>
+          <a:off x="7181851" y="0"/>
           <a:ext cx="7875068" cy="6238875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2527,7 +2547,7 @@
   <threadedComment ref="Q4" dT="2021-04-24T15:11:25.51" personId="{00000000-0000-0000-0000-000000000000}" id="{E8C448CD-53B7-490F-9996-9DCA6000100A}">
     <text>EEC as a % of SC before SJ PF sharedADC policy is applied. Used in year 1</text>
   </threadedComment>
-  <threadedComment ref="AE4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+  <threadedComment ref="AF4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
     <text>The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</text>
   </threadedComment>
 </ThreadedComments>
@@ -2555,13 +2575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:BE43"/>
+  <dimension ref="A2:BF45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="AK5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2584,43 +2604,44 @@
     <col min="16" max="16" width="12.28515625" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" customWidth="1"/>
-    <col min="25" max="27" width="16.140625" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.85546875" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" customWidth="1"/>
-    <col min="44" max="44" width="17.42578125" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" customWidth="1"/>
-    <col min="46" max="47" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.42578125" customWidth="1"/>
-    <col min="50" max="50" width="23" customWidth="1"/>
-    <col min="51" max="51" width="16.5703125" customWidth="1"/>
-    <col min="52" max="52" width="12" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.28515625" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" customWidth="1"/>
-    <col min="57" max="57" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" customWidth="1"/>
+    <col min="26" max="28" width="16.140625" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.85546875" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.7109375" customWidth="1"/>
+    <col min="38" max="38" width="12.5703125" customWidth="1"/>
+    <col min="39" max="39" width="14.85546875" customWidth="1"/>
+    <col min="45" max="45" width="17.42578125" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" customWidth="1"/>
+    <col min="47" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="12.42578125" customWidth="1"/>
+    <col min="51" max="51" width="23" customWidth="1"/>
+    <col min="52" max="52" width="16.5703125" customWidth="1"/>
+    <col min="53" max="53" width="12" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.28515625" customWidth="1"/>
+    <col min="57" max="57" width="11.42578125" customWidth="1"/>
+    <col min="58" max="58" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57">
-      <c r="AT2" s="20"/>
+    <row r="2" spans="1:58">
       <c r="AU2" s="20"/>
-    </row>
-    <row r="3" spans="1:57" s="18" customFormat="1" ht="18.75">
+      <c r="AV2" s="20"/>
+    </row>
+    <row r="3" spans="1:58" s="18" customFormat="1" ht="18.75">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2654,48 +2675,49 @@
       <c r="Y3" s="49"/>
       <c r="Z3" s="49"/>
       <c r="AA3" s="49"/>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
-      <c r="AF3" s="14" t="s">
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AG3" s="14"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="14"/>
-      <c r="AK3" s="16" t="s">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="16"/>
       <c r="AM3" s="16"/>
       <c r="AN3" s="16"/>
       <c r="AO3" s="16"/>
       <c r="AP3" s="16"/>
       <c r="AQ3" s="16"/>
-      <c r="AR3" s="12" t="s">
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AS3" s="12"/>
       <c r="AT3" s="12"/>
       <c r="AU3" s="12"/>
       <c r="AV3" s="12"/>
       <c r="AW3" s="12"/>
       <c r="AX3" s="12"/>
-      <c r="AY3" s="17" t="s">
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AZ3" s="17"/>
       <c r="BA3" s="17"/>
       <c r="BB3" s="17"/>
       <c r="BC3" s="17"/>
       <c r="BD3" s="17"/>
       <c r="BE3" s="17"/>
-    </row>
-    <row r="4" spans="1:57" s="133" customFormat="1" ht="33" customHeight="1">
+      <c r="BF3" s="17"/>
+    </row>
+    <row r="4" spans="1:58" s="133" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="122" t="s">
         <v>72</v>
       </c>
@@ -2750,125 +2772,128 @@
       <c r="R4" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="S4" s="125" t="s">
+      <c r="S4" s="126" t="s">
+        <v>283</v>
+      </c>
+      <c r="T4" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="T4" s="127" t="s">
+      <c r="U4" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="U4" s="126" t="s">
+      <c r="V4" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="V4" s="126" t="s">
+      <c r="W4" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="W4" s="126" t="s">
+      <c r="X4" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="X4" s="126" t="s">
+      <c r="Y4" s="126" t="s">
         <v>271</v>
       </c>
-      <c r="Y4" s="126" t="s">
+      <c r="Z4" s="126" t="s">
         <v>270</v>
       </c>
-      <c r="Z4" s="126" t="s">
+      <c r="AA4" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="AA4" s="126" t="s">
+      <c r="AB4" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="AB4" s="128" t="s">
+      <c r="AC4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="128" t="s">
+      <c r="AD4" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="128" t="s">
+      <c r="AE4" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="128" t="s">
+      <c r="AF4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AG4" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="129" t="s">
+      <c r="AH4" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="AH4" s="129" t="s">
+      <c r="AI4" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="AI4" s="129" t="s">
+      <c r="AJ4" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="129" t="s">
+      <c r="AK4" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="AK4" s="123" t="s">
+      <c r="AL4" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="AL4" s="123" t="s">
+      <c r="AM4" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="AM4" s="123" t="s">
+      <c r="AN4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AN4" s="123" t="s">
+      <c r="AO4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AO4" s="123" t="s">
+      <c r="AP4" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AP4" s="123" t="s">
+      <c r="AQ4" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="AQ4" s="123" t="s">
+      <c r="AR4" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="AR4" s="130" t="s">
+      <c r="AS4" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="AS4" s="130" t="s">
+      <c r="AT4" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="AT4" s="130" t="s">
+      <c r="AU4" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="AU4" s="130" t="s">
+      <c r="AV4" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AV4" s="130" t="s">
+      <c r="AW4" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="AW4" s="130" t="s">
+      <c r="AX4" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="AX4" s="130" t="s">
+      <c r="AY4" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="AY4" s="131" t="s">
+      <c r="AZ4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="AZ4" s="131" t="s">
+      <c r="BA4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="BA4" s="131" t="s">
+      <c r="BB4" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="BB4" s="131" t="s">
+      <c r="BC4" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="BC4" s="131" t="s">
+      <c r="BD4" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="BD4" s="131" t="s">
+      <c r="BE4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="BE4" s="132" t="s">
+      <c r="BF4" s="132" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:58">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -2919,110 +2944,111 @@
       <c r="R5" s="50">
         <v>0.5</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="50"/>
+      <c r="T5" t="s">
         <v>129</v>
       </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.03</v>
+      <c r="U5" t="b">
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0.03</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="s">
+        <v>0.03</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
         <v>123</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>35</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>15</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>5</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1.2</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.8</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>134</v>
       </c>
-      <c r="AJ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="AK5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="s">
         <v>100</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>20</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AP5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AQ5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ5" s="34">
+      <c r="AR5" s="34">
         <v>123</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>31</v>
       </c>
       <c r="AS5" t="s">
         <v>31</v>
       </c>
-      <c r="AT5" s="20">
-        <v>0.7</v>
+      <c r="AT5" t="s">
+        <v>31</v>
       </c>
       <c r="AU5" s="20">
         <v>0.7</v>
       </c>
-      <c r="AX5" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="b">
-        <v>1</v>
+      <c r="AV5" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="AY5" s="39">
+        <v>0</v>
       </c>
       <c r="AZ5" t="b">
         <v>1</v>
       </c>
       <c r="BA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="s">
         <v>3</v>
       </c>
-      <c r="BD5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57">
+      <c r="BE5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -3057,14 +3083,14 @@
         <v>0.11</v>
       </c>
       <c r="N6" s="20">
-        <f t="shared" ref="N6:N43" si="0">3/11</f>
+        <f t="shared" ref="N6:N45" si="0">3/11</f>
         <v>0.27272727272727271</v>
       </c>
       <c r="O6" s="50">
         <v>0.5</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" ref="P6:P43" si="1">1/300</f>
+        <f t="shared" ref="P6:P45" si="1">1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="Q6" s="134">
@@ -3073,124 +3099,126 @@
       <c r="R6" s="50">
         <v>0.5</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="50"/>
+      <c r="T6" t="s">
         <v>129</v>
       </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.02</v>
+      <c r="U6" t="b">
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0.02</v>
       </c>
       <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
         <v>123</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>35</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>15</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>5</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1.2</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>0.8</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>134</v>
       </c>
-      <c r="AJ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AK6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="s">
         <v>100</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>20</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AP6" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AQ6" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ6" s="34">
+      <c r="AR6" s="34">
         <v>123</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>31</v>
       </c>
       <c r="AS6" t="s">
         <v>31</v>
       </c>
-      <c r="AT6" s="20">
-        <v>1</v>
+      <c r="AT6" t="s">
+        <v>31</v>
       </c>
       <c r="AU6" s="20">
         <v>1</v>
       </c>
-      <c r="AX6" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="b">
-        <v>1</v>
+      <c r="AV6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="39">
+        <v>0</v>
       </c>
       <c r="AZ6" t="b">
         <v>1</v>
       </c>
       <c r="BA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="s">
         <v>3</v>
       </c>
-      <c r="BD6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57">
+      <c r="BE6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
       <c r="N7" s="20"/>
       <c r="O7" s="50"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="134"/>
       <c r="R7" s="50"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="34"/>
-      <c r="AT7" s="20"/>
+      <c r="S7" s="50"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="34"/>
       <c r="AU7" s="20"/>
-      <c r="AX7" s="39"/>
-      <c r="BE7" s="19"/>
-    </row>
-    <row r="8" spans="1:57">
+      <c r="AV7" s="20"/>
+      <c r="AY7" s="39"/>
+      <c r="BF7" s="19"/>
+    </row>
+    <row r="8" spans="1:58">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -3241,110 +3269,111 @@
       <c r="R8" s="50">
         <v>0.5</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="50"/>
+      <c r="T8" t="s">
         <v>129</v>
       </c>
-      <c r="T8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.03</v>
+      <c r="U8" t="b">
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0.03</v>
       </c>
       <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="s">
+        <v>0.03</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
         <v>123</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>35</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>15</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>5</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>1.2</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>0.8</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>134</v>
       </c>
-      <c r="AJ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="AK8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="s">
         <v>100</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>20</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AP8" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AQ8" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ8" s="34">
+      <c r="AR8" s="34">
         <v>123</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>31</v>
       </c>
       <c r="AS8" t="s">
         <v>31</v>
       </c>
-      <c r="AT8" s="20">
-        <v>0.7</v>
+      <c r="AT8" t="s">
+        <v>31</v>
       </c>
       <c r="AU8" s="20">
         <v>0.7</v>
       </c>
-      <c r="AX8" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="b">
-        <v>1</v>
+      <c r="AV8" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="AY8" s="39">
+        <v>0</v>
       </c>
       <c r="AZ8" t="b">
         <v>1</v>
       </c>
       <c r="BA8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="s">
         <v>3</v>
       </c>
-      <c r="BD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57">
+      <c r="BE8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -3395,832 +3424,986 @@
       <c r="R9" s="50">
         <v>0.5</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="50"/>
+      <c r="T9" t="s">
         <v>129</v>
       </c>
-      <c r="T9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.02</v>
+      <c r="U9" t="b">
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0.02</v>
       </c>
       <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
         <v>123</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>35</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>15</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>5</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1.2</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>0.8</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>134</v>
       </c>
-      <c r="AJ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="s">
+      <c r="AK9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="s">
         <v>100</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>20</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AP9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AQ9" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ9" s="34">
+      <c r="AR9" s="34">
         <v>123</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>31</v>
       </c>
       <c r="AS9" t="s">
         <v>31</v>
       </c>
-      <c r="AT9" s="20">
-        <v>1</v>
+      <c r="AT9" t="s">
+        <v>31</v>
       </c>
       <c r="AU9" s="20">
         <v>1</v>
       </c>
-      <c r="AX9" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="b">
-        <v>1</v>
+      <c r="AV9" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="39">
+        <v>0</v>
       </c>
       <c r="AZ9" t="b">
         <v>1</v>
       </c>
       <c r="BA9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="s">
         <v>3</v>
       </c>
-      <c r="BD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57">
+      <c r="BE9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58">
       <c r="N10" s="20"/>
       <c r="O10" s="50"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="134"/>
       <c r="R10" s="50"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="34"/>
-      <c r="AT10" s="20"/>
+      <c r="S10" s="50"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="34"/>
       <c r="AU10" s="20"/>
-      <c r="AX10" s="39"/>
-      <c r="BE10" s="19"/>
-    </row>
-    <row r="11" spans="1:57">
-      <c r="N11" s="20"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="50"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="34"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AX11" s="39"/>
-      <c r="BE11" s="19"/>
-    </row>
-    <row r="12" spans="1:57">
-      <c r="N12" s="20"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="50"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="34"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AX12" s="39"/>
-      <c r="BE12" s="19"/>
-    </row>
-    <row r="13" spans="1:57" s="137" customFormat="1">
-      <c r="A13" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="137" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="137" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="137" t="s">
+      <c r="AV10" s="20"/>
+      <c r="AY10" s="39"/>
+      <c r="BF10" s="19"/>
+    </row>
+    <row r="11" spans="1:58">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>132</v>
       </c>
-      <c r="M13" s="137">
+      <c r="M11">
         <v>0.11</v>
       </c>
-      <c r="N13" s="141">
+      <c r="N11" s="20">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O13" s="142">
+      <c r="O11" s="50">
         <v>0.5</v>
       </c>
-      <c r="P13" s="143">
+      <c r="P11" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q13" s="144">
-        <v>0</v>
-      </c>
-      <c r="R13" s="142">
+      <c r="Q11" s="134">
+        <v>0</v>
+      </c>
+      <c r="R11" s="50">
         <v>0.5</v>
       </c>
-      <c r="S13" s="137" t="s">
+      <c r="S11" s="50">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
         <v>129</v>
       </c>
-      <c r="T13" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="U13" s="137">
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>0.03</v>
       </c>
-      <c r="V13" s="137">
+      <c r="W11">
         <v>0.03</v>
       </c>
-      <c r="W13" s="137">
-        <v>0</v>
-      </c>
-      <c r="X13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="137" t="s">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
         <v>123</v>
       </c>
-      <c r="AC13" s="137" t="s">
+      <c r="AD11" t="s">
         <v>35</v>
       </c>
-      <c r="AD13" s="137">
-        <v>15</v>
-      </c>
-      <c r="AE13" s="137">
+      <c r="AE11">
+        <v>20</v>
+      </c>
+      <c r="AF11">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+      <c r="AH11">
+        <v>999</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN11">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="AO11">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ11" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF13" s="137">
-        <v>5</v>
-      </c>
-      <c r="AG13" s="137">
-        <v>1.2</v>
-      </c>
-      <c r="AH13" s="137">
-        <v>0.8</v>
-      </c>
-      <c r="AI13" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ13" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL13" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM13" s="137">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN13" s="137">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO13" s="145">
-        <v>0.12</v>
-      </c>
-      <c r="AP13" s="146">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ13" s="147">
+      <c r="AR11" s="34">
         <v>123</v>
       </c>
-      <c r="AR13" s="137" t="s">
+      <c r="AS11" t="s">
         <v>31</v>
       </c>
-      <c r="AS13" s="137" t="s">
+      <c r="AT11" t="s">
         <v>31</v>
       </c>
-      <c r="AT13" s="141">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AU13" s="141">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AX13" s="138">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="137">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="137" t="s">
+      <c r="AU11" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="AV11" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="AY11" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="s">
         <v>3</v>
       </c>
-      <c r="BD13" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE13" s="148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57" s="137" customFormat="1">
-      <c r="A14" s="137" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="137" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="137" t="s">
-        <v>204</v>
-      </c>
-      <c r="H14" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="137" t="s">
+      <c r="BE11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="137">
+      <c r="M12">
         <v>0.11</v>
       </c>
-      <c r="N14" s="141">
+      <c r="N12" s="20">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O14" s="142">
+      <c r="O12" s="50">
         <v>0.5</v>
       </c>
-      <c r="P14" s="143">
+      <c r="P12" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q14" s="144">
+      <c r="Q12" s="134">
+        <v>0</v>
+      </c>
+      <c r="R12" s="50">
         <v>0.5</v>
       </c>
-      <c r="R14" s="142">
+      <c r="S12" s="50">
         <v>0.5</v>
       </c>
-      <c r="S14" s="137" t="s">
+      <c r="T12" t="s">
         <v>129</v>
       </c>
-      <c r="T14" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="U14" s="137">
-        <v>0.02</v>
-      </c>
-      <c r="V14" s="137">
-        <v>0.02</v>
-      </c>
-      <c r="W14" s="137">
-        <v>0</v>
-      </c>
-      <c r="X14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="137" t="s">
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0.03</v>
+      </c>
+      <c r="W12">
+        <v>0.03</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
         <v>123</v>
       </c>
-      <c r="AC14" s="137" t="s">
+      <c r="AD12" t="s">
         <v>35</v>
       </c>
-      <c r="AD14" s="137">
-        <v>15</v>
-      </c>
-      <c r="AE14" s="137">
+      <c r="AE12">
+        <v>20</v>
+      </c>
+      <c r="AF12">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AG12">
+        <v>5</v>
+      </c>
+      <c r="AH12">
+        <v>999</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN12">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="AO12">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ12" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF14" s="137">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="137">
-        <v>1.2</v>
-      </c>
-      <c r="AH14" s="137">
-        <v>0.8</v>
-      </c>
-      <c r="AI14" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ14" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL14" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM14" s="137">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN14" s="137">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO14" s="145">
-        <v>0.12</v>
-      </c>
-      <c r="AP14" s="146">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ14" s="147">
+      <c r="AR12" s="34">
         <v>123</v>
       </c>
-      <c r="AR14" s="137" t="s">
+      <c r="AS12" t="s">
         <v>31</v>
       </c>
-      <c r="AS14" s="137" t="s">
+      <c r="AT12" t="s">
         <v>31</v>
       </c>
-      <c r="AT14" s="141">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AU14" s="141">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AX14" s="138">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA14" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="137">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="137" t="s">
+      <c r="AU12" s="20">
+        <v>0.99</v>
+      </c>
+      <c r="AV12" s="20">
+        <v>0.99</v>
+      </c>
+      <c r="AY12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="s">
         <v>3</v>
       </c>
-      <c r="BD14" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" s="177" customFormat="1">
-      <c r="C15" s="137"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="190"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="192"/>
-      <c r="R15" s="190"/>
-      <c r="X15"/>
-      <c r="AO15" s="184"/>
-      <c r="AP15" s="185"/>
-      <c r="AQ15" s="186"/>
-      <c r="AT15" s="180"/>
-      <c r="AU15" s="180"/>
-      <c r="AX15" s="187"/>
-      <c r="BE15" s="188"/>
-    </row>
-    <row r="16" spans="1:57" s="177" customFormat="1">
-      <c r="C16" s="137"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="190"/>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="192"/>
-      <c r="R16" s="190"/>
-      <c r="X16"/>
-      <c r="AO16" s="184"/>
-      <c r="AP16" s="185"/>
-      <c r="AQ16" s="186"/>
-      <c r="AT16" s="180"/>
-      <c r="AU16" s="180"/>
-      <c r="AX16" s="187"/>
-      <c r="BE16" s="188"/>
-    </row>
-    <row r="17" spans="1:57" s="149" customFormat="1">
-      <c r="A17" s="149" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="149" t="s">
+      <c r="BE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
+      <c r="N13" s="20"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="34"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AY13" s="39"/>
+      <c r="BF13" s="19"/>
+    </row>
+    <row r="14" spans="1:58">
+      <c r="N14" s="20"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="34"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AY14" s="39"/>
+      <c r="BF14" s="19"/>
+    </row>
+    <row r="15" spans="1:58" s="137" customFormat="1">
+      <c r="A15" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="137" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="149" t="s">
+      <c r="F15" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="149" t="s">
+      <c r="H15" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="M17" s="149">
+      <c r="M15" s="137">
         <v>0.11</v>
       </c>
-      <c r="N17" s="151">
+      <c r="N15" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O17" s="152">
+      <c r="O15" s="142">
         <v>0.5</v>
       </c>
-      <c r="P17" s="153">
+      <c r="P15" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q17" s="154">
-        <v>0</v>
-      </c>
-      <c r="R17" s="152">
+      <c r="Q15" s="144">
+        <v>0</v>
+      </c>
+      <c r="R15" s="142">
         <v>0.5</v>
       </c>
-      <c r="S17" s="149" t="s">
+      <c r="S15" s="142"/>
+      <c r="T15" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="T17" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" s="150">
+      <c r="U15" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="W15" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="X15" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD15" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE15" s="137">
+        <v>15</v>
+      </c>
+      <c r="AF15" s="137">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V17" s="149">
-        <v>0.03</v>
-      </c>
-      <c r="W17" s="149">
-        <v>0</v>
-      </c>
-      <c r="X17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="149" t="s">
+      <c r="AG15" s="137">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="137">
+        <v>1.2</v>
+      </c>
+      <c r="AI15" s="137">
+        <v>0.8</v>
+      </c>
+      <c r="AJ15" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK15" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM15" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN15" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO15" s="137">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP15" s="145">
+        <v>0.12</v>
+      </c>
+      <c r="AQ15" s="146">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR15" s="147">
         <v>123</v>
       </c>
-      <c r="AC17" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD17" s="149">
-        <v>15</v>
-      </c>
-      <c r="AE17" s="149">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AF17" s="149">
-        <v>5</v>
-      </c>
-      <c r="AG17" s="149">
-        <v>1.2</v>
-      </c>
-      <c r="AH17" s="149">
-        <v>0.8</v>
-      </c>
-      <c r="AI17" s="149" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ17" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="149" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL17" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM17" s="149">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN17" s="149">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO17" s="155">
-        <v>0.12</v>
-      </c>
-      <c r="AP17" s="156">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ17" s="157">
-        <v>123</v>
-      </c>
-      <c r="AR17" s="149" t="s">
+      <c r="AS15" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AS17" s="149" t="s">
+      <c r="AT15" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT17" s="158">
+      <c r="AU15" s="141">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU17" s="158">
+      <c r="AV15" s="141">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX17" s="159">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="149">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="149" t="s">
+      <c r="AY15" s="138">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="137">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BD17" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:57" s="149" customFormat="1">
-      <c r="A18" s="149" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="149" t="s">
+      <c r="BE15" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF15" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" s="137" customFormat="1">
+      <c r="A16" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="149" t="s">
+      <c r="F16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="H18" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="149" t="s">
+      <c r="H16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="M18" s="149">
+      <c r="M16" s="137">
         <v>0.11</v>
       </c>
-      <c r="N18" s="158">
+      <c r="N16" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O18" s="161">
+      <c r="O16" s="142">
         <v>0.5</v>
       </c>
-      <c r="P18" s="162">
+      <c r="P16" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q18" s="163">
+      <c r="Q16" s="144">
         <v>0.5</v>
       </c>
-      <c r="R18" s="161">
+      <c r="R16" s="142">
         <v>0.5</v>
       </c>
-      <c r="S18" s="149" t="s">
+      <c r="S16" s="142"/>
+      <c r="T16" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="T18" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" s="150">
+      <c r="U16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="137">
         <v>0.02</v>
       </c>
-      <c r="V18" s="149">
+      <c r="W16" s="137">
         <v>0.02</v>
       </c>
-      <c r="W18" s="149">
-        <v>0</v>
-      </c>
-      <c r="X18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="149" t="s">
+      <c r="X16" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="AC18" s="149" t="s">
+      <c r="AD16" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="AD18" s="149">
+      <c r="AE16" s="137">
         <v>15</v>
       </c>
-      <c r="AE18" s="149">
+      <c r="AF16" s="137">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF18" s="149">
+      <c r="AG16" s="137">
         <v>5</v>
       </c>
-      <c r="AG18" s="149">
+      <c r="AH16" s="137">
         <v>1.2</v>
       </c>
-      <c r="AH18" s="149">
+      <c r="AI16" s="137">
         <v>0.8</v>
       </c>
-      <c r="AI18" s="149" t="s">
+      <c r="AJ16" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="AJ18" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="149" t="s">
+      <c r="AK16" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="AL18" s="149" t="s">
+      <c r="AM16" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AM18" s="149">
+      <c r="AN16" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN18" s="149">
+      <c r="AO16" s="137">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO18" s="155">
+      <c r="AP16" s="145">
         <v>0.12</v>
       </c>
-      <c r="AP18" s="156">
+      <c r="AQ16" s="146">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ18" s="157">
+      <c r="AR16" s="147">
         <v>123</v>
       </c>
-      <c r="AR18" s="149" t="s">
+      <c r="AS16" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AS18" s="149" t="s">
+      <c r="AT16" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT18" s="158">
+      <c r="AU16" s="141">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU18" s="158">
+      <c r="AV16" s="141">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX18" s="159">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA18" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="149">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="149" t="s">
+      <c r="AY16" s="138">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="137">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BD18" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:57" s="149" customFormat="1">
-      <c r="C19" s="137"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="152"/>
-      <c r="X19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="155"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="157"/>
-      <c r="AT19" s="158"/>
-      <c r="AU19" s="158"/>
-      <c r="AX19" s="159"/>
-      <c r="BE19" s="160"/>
-    </row>
-    <row r="20" spans="1:57" s="149" customFormat="1">
+      <c r="BE16" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF16" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" s="177" customFormat="1">
+      <c r="C17" s="137"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="190"/>
+      <c r="S17" s="190"/>
+      <c r="Y17"/>
+      <c r="AP17" s="184"/>
+      <c r="AQ17" s="185"/>
+      <c r="AR17" s="186"/>
+      <c r="AU17" s="180"/>
+      <c r="AV17" s="180"/>
+      <c r="AY17" s="187"/>
+      <c r="BF17" s="188"/>
+    </row>
+    <row r="18" spans="1:58" s="177" customFormat="1">
+      <c r="C18" s="137"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="190"/>
+      <c r="Y18"/>
+      <c r="AP18" s="184"/>
+      <c r="AQ18" s="185"/>
+      <c r="AR18" s="186"/>
+      <c r="AU18" s="180"/>
+      <c r="AV18" s="180"/>
+      <c r="AY18" s="187"/>
+      <c r="BF18" s="188"/>
+    </row>
+    <row r="19" spans="1:58" s="149" customFormat="1">
+      <c r="A19" s="149" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="149" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="149">
+        <v>0.11</v>
+      </c>
+      <c r="N19" s="151">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O19" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="153">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q19" s="154">
+        <v>0</v>
+      </c>
+      <c r="R19" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="S19" s="152"/>
+      <c r="T19" s="149" t="s">
+        <v>129</v>
+      </c>
+      <c r="U19" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" s="150">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W19" s="149">
+        <v>0.03</v>
+      </c>
+      <c r="X19" s="149">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD19" s="149" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE19" s="149">
+        <v>15</v>
+      </c>
+      <c r="AF19" s="149">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG19" s="149">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="149">
+        <v>1.2</v>
+      </c>
+      <c r="AI19" s="149">
+        <v>0.8</v>
+      </c>
+      <c r="AJ19" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK19" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM19" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN19" s="149">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO19" s="149">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP19" s="155">
+        <v>0.12</v>
+      </c>
+      <c r="AQ19" s="156">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR19" s="157">
+        <v>123</v>
+      </c>
+      <c r="AS19" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT19" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU19" s="158">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV19" s="158">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY19" s="159">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="149">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE19" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF19" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" s="149" customFormat="1">
       <c r="A20" s="149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="137" t="b">
         <v>0</v>
@@ -4229,340 +4412,205 @@
         <v>219</v>
       </c>
       <c r="E20" s="149" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F20" s="149" t="b">
         <v>0</v>
       </c>
       <c r="G20" s="149" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H20" s="149" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="149" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="149" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M20" s="149">
         <v>0.11</v>
       </c>
-      <c r="N20" s="151">
+      <c r="N20" s="158">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O20" s="152">
+      <c r="O20" s="161">
         <v>0.5</v>
       </c>
-      <c r="P20" s="153">
+      <c r="P20" s="162">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q20" s="154">
-        <v>0</v>
-      </c>
-      <c r="R20" s="152">
+      <c r="Q20" s="163">
         <v>0.5</v>
       </c>
-      <c r="S20" s="149" t="s">
+      <c r="R20" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="S20" s="161"/>
+      <c r="T20" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="T20" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" s="150">
+      <c r="U20" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" s="150">
+        <v>0.02</v>
+      </c>
+      <c r="W20" s="149">
+        <v>0.02</v>
+      </c>
+      <c r="X20" s="149">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD20" s="149" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE20" s="149">
+        <v>15</v>
+      </c>
+      <c r="AF20" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V20" s="149">
-        <v>0.03</v>
-      </c>
-      <c r="W20" s="149">
-        <v>0</v>
-      </c>
-      <c r="X20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="149" t="s">
+      <c r="AG20" s="149">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="149">
+        <v>1.2</v>
+      </c>
+      <c r="AI20" s="149">
+        <v>0.8</v>
+      </c>
+      <c r="AJ20" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK20" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM20" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN20" s="149">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO20" s="149">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP20" s="155">
+        <v>0.12</v>
+      </c>
+      <c r="AQ20" s="156">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR20" s="157">
         <v>123</v>
-      </c>
-      <c r="AC20" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD20" s="149">
-        <v>15</v>
-      </c>
-      <c r="AE20" s="149">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AF20" s="149">
-        <v>5</v>
-      </c>
-      <c r="AG20" s="149">
-        <v>1.2</v>
-      </c>
-      <c r="AH20" s="149">
-        <v>0.8</v>
-      </c>
-      <c r="AI20" s="149" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ20" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="149" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL20" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM20" s="149">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN20" s="149">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO20" s="155">
-        <v>0.12</v>
-      </c>
-      <c r="AP20" s="156">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ20" s="157">
-        <v>123</v>
-      </c>
-      <c r="AR20" s="149" t="s">
-        <v>31</v>
       </c>
       <c r="AS20" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT20" s="158">
-        <v>0.7177631600179436</v>
+      <c r="AT20" s="149" t="s">
+        <v>31</v>
       </c>
       <c r="AU20" s="158">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AX20" s="159">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="149" t="b">
-        <v>1</v>
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV20" s="158">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY20" s="159">
+        <v>0</v>
       </c>
       <c r="AZ20" s="149" t="b">
         <v>1</v>
       </c>
       <c r="BA20" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="149">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="149">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BD20" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE20" s="160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:57" s="149" customFormat="1">
-      <c r="A21" s="149" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="149" t="s">
-        <v>191</v>
-      </c>
-      <c r="F21" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="149" t="s">
-        <v>204</v>
-      </c>
-      <c r="H21" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="149" t="s">
-        <v>125</v>
-      </c>
-      <c r="M21" s="149">
-        <v>0.11</v>
-      </c>
-      <c r="N21" s="158">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O21" s="161">
-        <v>0.5</v>
-      </c>
-      <c r="P21" s="162">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="Q21" s="163">
-        <v>0.5</v>
-      </c>
-      <c r="R21" s="161">
-        <v>0.5</v>
-      </c>
-      <c r="S21" s="149" t="s">
-        <v>129</v>
-      </c>
-      <c r="T21" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" s="150">
-        <v>0.02</v>
-      </c>
-      <c r="V21" s="149">
-        <v>0.02</v>
-      </c>
-      <c r="W21" s="149">
-        <v>0</v>
-      </c>
-      <c r="X21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="149" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC21" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD21" s="149">
-        <v>15</v>
-      </c>
-      <c r="AE21" s="149">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AF21" s="149">
-        <v>5</v>
-      </c>
-      <c r="AG21" s="149">
-        <v>1.2</v>
-      </c>
-      <c r="AH21" s="149">
-        <v>0.8</v>
-      </c>
-      <c r="AI21" s="149" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ21" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="149" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL21" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM21" s="149">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AN21" s="149">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO21" s="155">
-        <v>0.12</v>
-      </c>
-      <c r="AP21" s="156">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ21" s="157">
-        <v>123</v>
-      </c>
-      <c r="AR21" s="149" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS21" s="149" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT21" s="158">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AU21" s="158">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AX21" s="159">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ21" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA21" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="149">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="149" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD21" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE21" s="160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:57">
+      <c r="BE20" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF20" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" s="149" customFormat="1">
+      <c r="C21" s="137"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="152"/>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="155"/>
+      <c r="AQ21" s="156"/>
+      <c r="AR21" s="157"/>
+      <c r="AU21" s="158"/>
+      <c r="AV21" s="158"/>
+      <c r="AY21" s="159"/>
+      <c r="BF21" s="160"/>
+    </row>
+    <row r="22" spans="1:58">
       <c r="C22" s="137"/>
       <c r="N22" s="20"/>
       <c r="O22" s="50"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="134"/>
       <c r="R22" s="50"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="34"/>
-      <c r="AT22" s="20"/>
+      <c r="S22" s="50"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="34"/>
       <c r="AU22" s="20"/>
-      <c r="AX22" s="39"/>
-      <c r="BE22" s="19"/>
-    </row>
-    <row r="23" spans="1:57">
+      <c r="AV22" s="20"/>
+      <c r="AY22" s="39"/>
+      <c r="BF22" s="19"/>
+    </row>
+    <row r="23" spans="1:58">
       <c r="C23" s="137"/>
       <c r="N23" s="20"/>
       <c r="O23" s="50"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="134"/>
       <c r="R23" s="50"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="34"/>
-      <c r="AT23" s="20"/>
+      <c r="S23" s="50"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="34"/>
       <c r="AU23" s="20"/>
-      <c r="AX23" s="39"/>
-      <c r="BE23" s="19"/>
-    </row>
-    <row r="24" spans="1:57" s="164" customFormat="1">
+      <c r="AV23" s="20"/>
+      <c r="AY23" s="39"/>
+      <c r="BF23" s="19"/>
+    </row>
+    <row r="24" spans="1:58" s="164" customFormat="1">
       <c r="A24" s="164" t="s">
         <v>260</v>
       </c>
@@ -4616,110 +4664,111 @@
       <c r="R24" s="168">
         <v>0.5</v>
       </c>
-      <c r="S24" s="164" t="s">
+      <c r="S24" s="168"/>
+      <c r="T24" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="T24" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="U24" s="165">
-        <v>0</v>
-      </c>
-      <c r="V24" s="164">
+      <c r="U24" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" s="165">
+        <v>0</v>
+      </c>
+      <c r="W24" s="164">
         <v>0.03</v>
       </c>
-      <c r="W24" s="164">
-        <v>0</v>
-      </c>
-      <c r="X24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="164" t="s">
+      <c r="X24" s="164">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="AC24" s="164" t="s">
+      <c r="AD24" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AD24" s="164">
+      <c r="AE24" s="164">
         <v>15</v>
       </c>
-      <c r="AE24" s="164">
+      <c r="AF24" s="164">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF24" s="164">
+      <c r="AG24" s="164">
         <v>5</v>
       </c>
-      <c r="AG24" s="164">
+      <c r="AH24" s="164">
         <v>1.2</v>
       </c>
-      <c r="AH24" s="164">
+      <c r="AI24" s="164">
         <v>0.8</v>
       </c>
-      <c r="AI24" s="164" t="s">
+      <c r="AJ24" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="AJ24" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="164" t="s">
+      <c r="AK24" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="AL24" s="164" t="s">
+      <c r="AM24" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="AM24" s="164">
+      <c r="AN24" s="164">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN24" s="164">
+      <c r="AO24" s="164">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO24" s="171">
+      <c r="AP24" s="171">
         <v>0.12</v>
       </c>
-      <c r="AP24" s="172">
+      <c r="AQ24" s="172">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ24" s="173">
+      <c r="AR24" s="173">
         <v>123</v>
-      </c>
-      <c r="AR24" s="164" t="s">
-        <v>31</v>
       </c>
       <c r="AS24" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AT24" s="167">
+      <c r="AT24" s="164" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU24" s="167">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU24" s="167">
+      <c r="AV24" s="167">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX24" s="174">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="164" t="b">
-        <v>1</v>
+      <c r="AY24" s="174">
+        <v>0</v>
       </c>
       <c r="AZ24" s="164" t="b">
         <v>1</v>
       </c>
       <c r="BA24" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="164">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="164">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="BD24" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE24" s="175" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:57" s="164" customFormat="1">
+      <c r="BE24" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" s="164" customFormat="1">
       <c r="A25" s="164" t="s">
         <v>261</v>
       </c>
@@ -4773,115 +4822,116 @@
       <c r="R25" s="168">
         <v>0.5</v>
       </c>
-      <c r="S25" s="164" t="s">
+      <c r="S25" s="168"/>
+      <c r="T25" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="T25" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="U25" s="165">
-        <v>0</v>
-      </c>
-      <c r="V25" s="164">
+      <c r="U25" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" s="165">
+        <v>0</v>
+      </c>
+      <c r="W25" s="164">
         <v>0.02</v>
       </c>
-      <c r="W25" s="164">
-        <v>0</v>
-      </c>
-      <c r="X25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="164" t="s">
+      <c r="X25" s="164">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="AC25" s="164" t="s">
+      <c r="AD25" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AD25" s="164">
+      <c r="AE25" s="164">
         <v>15</v>
       </c>
-      <c r="AE25" s="164">
+      <c r="AF25" s="164">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF25" s="164">
+      <c r="AG25" s="164">
         <v>5</v>
       </c>
-      <c r="AG25" s="164">
+      <c r="AH25" s="164">
         <v>1.2</v>
       </c>
-      <c r="AH25" s="164">
+      <c r="AI25" s="164">
         <v>0.8</v>
       </c>
-      <c r="AI25" s="164" t="s">
+      <c r="AJ25" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="AJ25" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="164" t="s">
+      <c r="AK25" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="AL25" s="164" t="s">
+      <c r="AM25" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="AM25" s="164">
+      <c r="AN25" s="164">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN25" s="164">
+      <c r="AO25" s="164">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO25" s="171">
+      <c r="AP25" s="171">
         <v>0.12</v>
       </c>
-      <c r="AP25" s="172">
+      <c r="AQ25" s="172">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ25" s="173">
+      <c r="AR25" s="173">
         <v>123</v>
-      </c>
-      <c r="AR25" s="164" t="s">
-        <v>31</v>
       </c>
       <c r="AS25" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AT25" s="167">
+      <c r="AT25" s="164" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU25" s="167">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU25" s="167">
+      <c r="AV25" s="167">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX25" s="174">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="164" t="b">
-        <v>1</v>
+      <c r="AY25" s="174">
+        <v>0</v>
       </c>
       <c r="AZ25" s="164" t="b">
         <v>1</v>
       </c>
       <c r="BA25" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="164">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="164">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="BD25" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE25" s="175" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:57" s="137" customFormat="1">
+      <c r="BE25" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF25" s="175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" s="137" customFormat="1">
       <c r="A28" s="137" t="s">
         <v>268</v>
       </c>
       <c r="C28" s="137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="137" t="s">
         <v>197</v>
@@ -4930,124 +4980,125 @@
       <c r="R28" s="142">
         <v>0.5</v>
       </c>
-      <c r="S28" s="137" t="s">
+      <c r="S28" s="142"/>
+      <c r="T28" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="T28" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="U28" s="137">
-        <v>0.03</v>
+      <c r="U28" s="137" t="b">
+        <v>0</v>
       </c>
       <c r="V28" s="137">
         <v>0.03</v>
       </c>
       <c r="W28" s="137">
-        <v>0</v>
-      </c>
-      <c r="X28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="X28" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="b">
         <v>1</v>
       </c>
       <c r="Z28" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="137">
         <v>20</v>
       </c>
-      <c r="AA28" s="137">
+      <c r="AB28" s="137">
         <v>0.03</v>
       </c>
-      <c r="AB28" s="137" t="s">
+      <c r="AC28" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="AC28" s="137" t="s">
+      <c r="AD28" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="AD28" s="137">
+      <c r="AE28" s="137">
         <v>15</v>
       </c>
-      <c r="AE28" s="137">
+      <c r="AF28" s="137">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF28" s="137">
+      <c r="AG28" s="137">
         <v>5</v>
       </c>
-      <c r="AG28" s="137">
+      <c r="AH28" s="137">
         <v>1.2</v>
       </c>
-      <c r="AH28" s="137">
+      <c r="AI28" s="137">
         <v>0.8</v>
       </c>
-      <c r="AI28" s="137" t="s">
+      <c r="AJ28" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="AJ28" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="137" t="s">
+      <c r="AK28" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="AL28" s="137" t="s">
+      <c r="AM28" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AM28" s="137">
+      <c r="AN28" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN28" s="137">
+      <c r="AO28" s="137">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO28" s="145">
+      <c r="AP28" s="145">
         <v>0.12</v>
       </c>
-      <c r="AP28" s="146">
+      <c r="AQ28" s="146">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ28" s="147">
+      <c r="AR28" s="147">
         <v>123</v>
-      </c>
-      <c r="AR28" s="137" t="s">
-        <v>31</v>
       </c>
       <c r="AS28" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT28" s="141">
+      <c r="AT28" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU28" s="141">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU28" s="141">
+      <c r="AV28" s="141">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX28" s="138">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="137" t="b">
-        <v>1</v>
+      <c r="AY28" s="138">
+        <v>0</v>
       </c>
       <c r="AZ28" s="137" t="b">
         <v>1</v>
       </c>
       <c r="BA28" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="137">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="137">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BD28" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE28" s="148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:57" s="137" customFormat="1">
+      <c r="BE28" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" s="137" customFormat="1">
       <c r="A29" s="137" t="s">
         <v>269</v>
       </c>
       <c r="C29" s="137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="137" t="s">
         <v>197</v>
@@ -5096,858 +5147,1020 @@
       <c r="R29" s="142">
         <v>0.5</v>
       </c>
-      <c r="S29" s="137" t="s">
+      <c r="S29" s="142"/>
+      <c r="T29" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="T29" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="U29" s="137">
-        <v>0.02</v>
+      <c r="U29" s="137" t="b">
+        <v>0</v>
       </c>
       <c r="V29" s="137">
         <v>0.02</v>
       </c>
       <c r="W29" s="137">
-        <v>0</v>
-      </c>
-      <c r="X29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="137">
+        <v>0.02</v>
+      </c>
+      <c r="X29" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="b">
         <v>1</v>
       </c>
       <c r="Z29" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="137">
         <v>20</v>
       </c>
-      <c r="AA29" s="137">
+      <c r="AB29" s="137">
         <v>0.03</v>
       </c>
-      <c r="AB29" s="137" t="s">
+      <c r="AC29" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="AC29" s="137" t="s">
+      <c r="AD29" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="AD29" s="137">
+      <c r="AE29" s="137">
         <v>15</v>
       </c>
-      <c r="AE29" s="137">
+      <c r="AF29" s="137">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF29" s="137">
+      <c r="AG29" s="137">
         <v>5</v>
       </c>
-      <c r="AG29" s="137">
+      <c r="AH29" s="137">
         <v>1.2</v>
       </c>
-      <c r="AH29" s="137">
+      <c r="AI29" s="137">
         <v>0.8</v>
       </c>
-      <c r="AI29" s="137" t="s">
+      <c r="AJ29" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="AJ29" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="137" t="s">
+      <c r="AK29" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="AL29" s="137" t="s">
+      <c r="AM29" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AM29" s="137">
+      <c r="AN29" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN29" s="137">
+      <c r="AO29" s="137">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO29" s="145">
+      <c r="AP29" s="145">
         <v>0.12</v>
       </c>
-      <c r="AP29" s="146">
+      <c r="AQ29" s="146">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ29" s="147">
+      <c r="AR29" s="147">
         <v>123</v>
-      </c>
-      <c r="AR29" s="137" t="s">
-        <v>31</v>
       </c>
       <c r="AS29" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT29" s="141">
+      <c r="AT29" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU29" s="141">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU29" s="141">
+      <c r="AV29" s="141">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX29" s="138">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="137" t="b">
-        <v>1</v>
+      <c r="AY29" s="138">
+        <v>0</v>
       </c>
       <c r="AZ29" s="137" t="b">
         <v>1</v>
       </c>
       <c r="BA29" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="137">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="137">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BD29" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE29" s="148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:57">
+      <c r="BE29" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF29" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
       <c r="N30" s="20"/>
       <c r="O30" s="50"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="134"/>
       <c r="R30" s="50"/>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="34"/>
-      <c r="AT30" s="20"/>
+      <c r="S30" s="50"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="34"/>
       <c r="AU30" s="20"/>
-      <c r="AX30" s="39"/>
-      <c r="BE30" s="19"/>
-    </row>
-    <row r="31" spans="1:57">
+      <c r="AV30" s="20"/>
+      <c r="AY30" s="39"/>
+      <c r="BF30" s="19"/>
+    </row>
+    <row r="31" spans="1:58">
       <c r="N31" s="20"/>
       <c r="O31" s="50"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="134"/>
       <c r="R31" s="50"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="34"/>
-      <c r="AT31" s="20"/>
+      <c r="S31" s="50"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="34"/>
       <c r="AU31" s="20"/>
-      <c r="AX31" s="39"/>
-      <c r="BE31" s="19"/>
-    </row>
-    <row r="32" spans="1:57">
+      <c r="AV31" s="20"/>
+      <c r="AY31" s="39"/>
+      <c r="BF31" s="19"/>
+    </row>
+    <row r="32" spans="1:58">
       <c r="N32" s="20"/>
       <c r="O32" s="50"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="134"/>
       <c r="R32" s="50"/>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="34"/>
-      <c r="AT32" s="20"/>
+      <c r="S32" s="50"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="34"/>
       <c r="AU32" s="20"/>
-      <c r="AX32" s="39"/>
-      <c r="BE32" s="19"/>
-    </row>
-    <row r="33" spans="1:57">
+      <c r="AV32" s="20"/>
+      <c r="AY32" s="39"/>
+      <c r="BF32" s="19"/>
+    </row>
+    <row r="33" spans="1:58">
       <c r="N33" s="20"/>
       <c r="O33" s="50"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="134"/>
       <c r="R33" s="50"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="34"/>
-      <c r="AT33" s="20"/>
+      <c r="S33" s="50"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="34"/>
       <c r="AU33" s="20"/>
-      <c r="AX33" s="39"/>
-      <c r="BE33" s="19"/>
-    </row>
-    <row r="34" spans="1:57">
+      <c r="AV33" s="20"/>
+      <c r="AY33" s="39"/>
+      <c r="BF33" s="19"/>
+    </row>
+    <row r="34" spans="1:58">
       <c r="N34" s="20"/>
       <c r="O34" s="50"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="134"/>
       <c r="R34" s="50"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="34"/>
-      <c r="AT34" s="20"/>
+      <c r="S34" s="50"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="34"/>
       <c r="AU34" s="20"/>
-      <c r="AX34" s="39"/>
-      <c r="BE34" s="19"/>
-    </row>
-    <row r="35" spans="1:57">
-      <c r="N35" s="20"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="134"/>
-      <c r="R35" s="50"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="34"/>
-      <c r="AT35" s="20"/>
-      <c r="AU35" s="20"/>
-      <c r="AX35" s="39"/>
-      <c r="BE35" s="19"/>
-    </row>
-    <row r="36" spans="1:57" s="177" customFormat="1">
-      <c r="A36" s="177" t="s">
-        <v>239</v>
-      </c>
-      <c r="C36" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="177" t="s">
-        <v>220</v>
-      </c>
-      <c r="E36" s="177" t="s">
+      <c r="AV34" s="20"/>
+      <c r="AY34" s="39"/>
+      <c r="BF34" s="19"/>
+    </row>
+    <row r="35" spans="1:58" s="149" customFormat="1">
+      <c r="A35" s="149" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="F36" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="177" t="s">
+      <c r="F35" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="H36" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="178" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" s="179" t="s">
-        <v>125</v>
-      </c>
-      <c r="M36" s="177">
+      <c r="H35" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" s="149">
         <v>0.11</v>
       </c>
-      <c r="N36" s="180">
+      <c r="N35" s="151">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O36" s="181">
+      <c r="O35" s="152">
         <v>0.5</v>
       </c>
-      <c r="P36" s="182">
+      <c r="P35" s="153">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q36" s="183">
-        <v>0</v>
-      </c>
-      <c r="R36" s="181">
+      <c r="Q35" s="154">
+        <v>0</v>
+      </c>
+      <c r="R35" s="152">
         <v>0.5</v>
       </c>
-      <c r="S36" s="177" t="s">
+      <c r="S35" s="152"/>
+      <c r="T35" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="T36" s="178" t="b">
-        <v>1</v>
-      </c>
-      <c r="U36" s="178">
-        <v>0</v>
-      </c>
-      <c r="V36" s="177">
+      <c r="U35" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" s="150">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W35" s="149">
         <v>0.03</v>
       </c>
-      <c r="W36" s="177">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="177" t="s">
+      <c r="X35" s="149">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="AC36" s="177" t="s">
+      <c r="AD35" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AD36" s="177">
+      <c r="AE35" s="149">
         <v>15</v>
       </c>
-      <c r="AE36" s="177">
+      <c r="AF35" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF36" s="177">
+      <c r="AG35" s="149">
         <v>5</v>
       </c>
-      <c r="AG36" s="177">
+      <c r="AH35" s="149">
         <v>1.2</v>
       </c>
-      <c r="AH36" s="177">
+      <c r="AI35" s="149">
         <v>0.8</v>
       </c>
-      <c r="AI36" s="177" t="s">
+      <c r="AJ35" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AJ36" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="177" t="s">
+      <c r="AK35" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AL36" s="177" t="s">
+      <c r="AM35" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AM36" s="177">
+      <c r="AN35" s="149">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN36" s="177">
+      <c r="AO35" s="149">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO36" s="184">
+      <c r="AP35" s="155">
         <v>0.12</v>
       </c>
-      <c r="AP36" s="185">
+      <c r="AQ35" s="156">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ36" s="186">
+      <c r="AR35" s="157">
         <v>123</v>
       </c>
-      <c r="AR36" s="177" t="s">
+      <c r="AS35" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AS36" s="177" t="s">
+      <c r="AT35" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT36" s="180">
+      <c r="AU35" s="158">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU36" s="180">
+      <c r="AV35" s="158">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX36" s="187">
-        <v>0</v>
-      </c>
-      <c r="AY36" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ36" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA36" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB36" s="177">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="177" t="s">
+      <c r="AY35" s="159">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB35" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="149">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BD36" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE36" s="188" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:57" s="177" customFormat="1">
-      <c r="A37" s="177" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="177" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" s="177" t="s">
+      <c r="BE35" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF35" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58" s="149" customFormat="1">
+      <c r="A36" s="149" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="177" t="s">
+      <c r="F36" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="178" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" s="178" t="s">
+      <c r="H36" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="M37" s="177">
+      <c r="M36" s="149">
         <v>0.11</v>
       </c>
-      <c r="N37" s="180">
+      <c r="N36" s="158">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O37" s="181">
+      <c r="O36" s="161">
         <v>0.5</v>
       </c>
-      <c r="P37" s="182">
+      <c r="P36" s="162">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q37" s="189">
+      <c r="Q36" s="163">
         <v>0.5</v>
       </c>
-      <c r="R37" s="181">
+      <c r="R36" s="161">
         <v>0.5</v>
       </c>
-      <c r="S37" s="177" t="s">
+      <c r="S36" s="161"/>
+      <c r="T36" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="T37" s="178" t="b">
-        <v>1</v>
-      </c>
-      <c r="U37" s="178">
-        <v>0</v>
-      </c>
-      <c r="V37" s="177">
+      <c r="U36" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" s="150">
         <v>0.02</v>
       </c>
-      <c r="W37" s="177">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="177" t="s">
+      <c r="W36" s="149">
+        <v>0.02</v>
+      </c>
+      <c r="X36" s="149">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="AC37" s="177" t="s">
+      <c r="AD36" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AD37" s="177">
+      <c r="AE36" s="149">
         <v>15</v>
       </c>
-      <c r="AE37" s="177">
+      <c r="AF36" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF37" s="177">
+      <c r="AG36" s="149">
         <v>5</v>
       </c>
-      <c r="AG37" s="177">
+      <c r="AH36" s="149">
         <v>1.2</v>
       </c>
-      <c r="AH37" s="177">
+      <c r="AI36" s="149">
         <v>0.8</v>
       </c>
-      <c r="AI37" s="177" t="s">
+      <c r="AJ36" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AJ37" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="177" t="s">
+      <c r="AK36" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AL37" s="177" t="s">
+      <c r="AM36" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AM37" s="177">
+      <c r="AN36" s="149">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN37" s="177">
+      <c r="AO36" s="149">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO37" s="184">
+      <c r="AP36" s="155">
         <v>0.12</v>
       </c>
-      <c r="AP37" s="185">
+      <c r="AQ36" s="156">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ37" s="186">
+      <c r="AR36" s="157">
         <v>123</v>
       </c>
-      <c r="AR37" s="177" t="s">
+      <c r="AS36" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AS37" s="177" t="s">
+      <c r="AT36" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT37" s="180">
+      <c r="AU36" s="158">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU37" s="180">
+      <c r="AV36" s="158">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX37" s="187">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ37" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA37" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB37" s="177">
-        <v>0</v>
-      </c>
-      <c r="BC37" s="177" t="s">
+      <c r="AY36" s="159">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB36" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="149">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BD37" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE37" s="188" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:57">
-      <c r="N38" s="20"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="134"/>
-      <c r="R38" s="50"/>
-      <c r="AO38" s="3"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="34"/>
-      <c r="AT38" s="20"/>
-      <c r="AU38" s="20"/>
-      <c r="AX38" s="39"/>
-      <c r="BE38" s="19"/>
-    </row>
-    <row r="39" spans="1:57">
-      <c r="A39" t="s">
-        <v>200</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="BE36" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF36" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58">
+      <c r="N37" s="20"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="134"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="34"/>
+      <c r="AU37" s="20"/>
+      <c r="AV37" s="20"/>
+      <c r="AY37" s="39"/>
+      <c r="BF37" s="19"/>
+    </row>
+    <row r="38" spans="1:58" s="177" customFormat="1">
+      <c r="A38" s="177" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="177" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="177" t="s">
         <v>189</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F38" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="177" t="s">
         <v>202</v>
       </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>131</v>
-      </c>
-      <c r="M39">
+      <c r="H38" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="179" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="177">
         <v>0.11</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N38" s="180">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O39" s="50">
+      <c r="O38" s="181">
         <v>0.5</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P38" s="182">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q39" s="134">
-        <v>0</v>
-      </c>
-      <c r="R39" s="50">
+      <c r="Q38" s="183">
+        <v>0</v>
+      </c>
+      <c r="R38" s="181">
         <v>0.5</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S38" s="181"/>
+      <c r="T38" s="177" t="s">
         <v>129</v>
       </c>
-      <c r="T39" t="b">
-        <v>0</v>
-      </c>
-      <c r="U39">
+      <c r="U38" s="178" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" s="178">
+        <v>0</v>
+      </c>
+      <c r="W38" s="177">
         <v>0.03</v>
       </c>
-      <c r="V39">
-        <v>0.03</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="s">
+      <c r="X38" s="177">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD38" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="AD39">
+      <c r="AE38" s="177">
         <v>15</v>
       </c>
-      <c r="AE39">
+      <c r="AF38" s="177">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF39">
+      <c r="AG38" s="177">
         <v>5</v>
       </c>
-      <c r="AG39">
+      <c r="AH38" s="177">
         <v>1.2</v>
       </c>
-      <c r="AH39">
+      <c r="AI38" s="177">
         <v>0.8</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AJ38" s="177" t="s">
         <v>134</v>
       </c>
-      <c r="AJ39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK39" t="s">
+      <c r="AK38" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AM38" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="AM39">
+      <c r="AN38" s="177">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN39">
+      <c r="AO38" s="177">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO39" s="3">
+      <c r="AP38" s="184">
         <v>0.12</v>
       </c>
-      <c r="AP39" s="5">
+      <c r="AQ38" s="185">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ39" s="34">
+      <c r="AR38" s="186">
         <v>123</v>
       </c>
-      <c r="AR39" t="s">
+      <c r="AS38" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS39" t="s">
+      <c r="AT38" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AT39" s="20">
+      <c r="AU38" s="180">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AU39" s="20">
+      <c r="AV38" s="180">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AX39" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB39">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="s">
+      <c r="AY38" s="187">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA38" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB38" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="177">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="BD39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE39" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:57">
-      <c r="A40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="BE38" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF38" s="188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" s="177" customFormat="1">
+      <c r="A39" s="177" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="177" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="177" t="s">
         <v>191</v>
       </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F39" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>131</v>
-      </c>
-      <c r="M40">
+      <c r="H39" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="177">
         <v>0.11</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N39" s="180">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O40" s="50">
+      <c r="O39" s="181">
         <v>0.5</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P39" s="182">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q40" s="134">
+      <c r="Q39" s="189">
         <v>0.5</v>
       </c>
-      <c r="R40" s="50">
+      <c r="R39" s="181">
         <v>0.5</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S39" s="181"/>
+      <c r="T39" s="177" t="s">
         <v>129</v>
       </c>
-      <c r="T40" t="b">
-        <v>0</v>
-      </c>
-      <c r="U40">
+      <c r="U39" s="178" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" s="178">
+        <v>0</v>
+      </c>
+      <c r="W39" s="177">
         <v>0.02</v>
       </c>
-      <c r="V40">
-        <v>0.02</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="s">
+      <c r="X39" s="177">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AD39" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="AD40">
+      <c r="AE39" s="177">
         <v>15</v>
       </c>
-      <c r="AE40">
+      <c r="AF39" s="177">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF40">
+      <c r="AG39" s="177">
         <v>5</v>
       </c>
-      <c r="AG40">
+      <c r="AH39" s="177">
         <v>1.2</v>
       </c>
-      <c r="AH40">
+      <c r="AI39" s="177">
         <v>0.8</v>
       </c>
-      <c r="AI40" t="s">
+      <c r="AJ39" s="177" t="s">
         <v>134</v>
       </c>
-      <c r="AJ40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK40" t="s">
+      <c r="AK39" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="AL40" t="s">
+      <c r="AM39" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="AM40">
+      <c r="AN39" s="177">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN40">
+      <c r="AO39" s="177">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO40" s="3">
+      <c r="AP39" s="184">
         <v>0.12</v>
       </c>
-      <c r="AP40" s="5">
+      <c r="AQ39" s="185">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ40" s="34">
+      <c r="AR39" s="186">
         <v>123</v>
       </c>
-      <c r="AR40" t="s">
+      <c r="AS39" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS40" t="s">
+      <c r="AT39" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AT40" s="20">
+      <c r="AU39" s="180">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU40" s="20">
+      <c r="AV39" s="180">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX40" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB40">
-        <v>0</v>
-      </c>
-      <c r="BC40" t="s">
+      <c r="AY39" s="187">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB39" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="177">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="BD40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE40" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:57">
-      <c r="N41" s="20"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="134"/>
-      <c r="R41" s="50"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="34"/>
-      <c r="AT41" s="20"/>
-      <c r="AU41" s="20"/>
-      <c r="AX41" s="39"/>
-      <c r="BE41" s="19"/>
-    </row>
-    <row r="42" spans="1:57">
+      <c r="BE39" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF39" s="188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58">
+      <c r="N40" s="20"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="34"/>
+      <c r="AU40" s="20"/>
+      <c r="AV40" s="20"/>
+      <c r="AY40" s="39"/>
+      <c r="BF40" s="19"/>
+    </row>
+    <row r="41" spans="1:58">
+      <c r="A41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41">
+        <v>0.11</v>
+      </c>
+      <c r="N41" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O41" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q41" s="134">
+        <v>0</v>
+      </c>
+      <c r="R41" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S41" s="50"/>
+      <c r="T41" t="s">
+        <v>129</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0.03</v>
+      </c>
+      <c r="W41">
+        <v>0.03</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE41">
+        <v>15</v>
+      </c>
+      <c r="AF41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG41">
+        <v>5</v>
+      </c>
+      <c r="AH41">
+        <v>1.2</v>
+      </c>
+      <c r="AI41">
+        <v>0.8</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN41">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO41">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP41" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ41" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR41" s="34">
+        <v>123</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU41" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV41" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY41" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF41" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -5970,272 +6183,441 @@
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="Q42" s="134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R42" s="50">
         <v>0.5</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S42" s="50"/>
+      <c r="T42" t="s">
         <v>129</v>
       </c>
-      <c r="T42" t="b">
-        <v>1</v>
-      </c>
-      <c r="U42">
-        <v>0.03</v>
+      <c r="U42" t="b">
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="s">
         <v>123</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>35</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>15</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>5</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>1.2</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>0.8</v>
       </c>
-      <c r="AI42" t="s">
+      <c r="AJ42" t="s">
         <v>134</v>
       </c>
-      <c r="AJ42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK42" t="s">
+      <c r="AK42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL42" t="s">
         <v>100</v>
       </c>
-      <c r="AL42" t="s">
+      <c r="AM42" t="s">
         <v>20</v>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN42">
+      <c r="AO42">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO42" s="3">
+      <c r="AP42" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP42" s="5">
+      <c r="AQ42" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ42" s="34">
+      <c r="AR42" s="34">
         <v>123</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>31</v>
       </c>
       <c r="AS42" t="s">
         <v>31</v>
       </c>
-      <c r="AT42" s="20">
-        <v>0.7177631600179436</v>
+      <c r="AT42" t="s">
+        <v>31</v>
       </c>
       <c r="AU42" s="20">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AX42" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="b">
-        <v>1</v>
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV42" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY42" s="39">
+        <v>0</v>
       </c>
       <c r="AZ42" t="b">
         <v>1</v>
       </c>
       <c r="BA42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB42">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="s">
         <v>3</v>
       </c>
-      <c r="BD42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE42" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:57">
-      <c r="A43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="BE42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF42" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58">
+      <c r="N43" s="20"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="134"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="34"/>
+      <c r="AU43" s="20"/>
+      <c r="AV43" s="20"/>
+      <c r="AY43" s="39"/>
+      <c r="BF43" s="19"/>
+    </row>
+    <row r="44" spans="1:58">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
         <v>199</v>
       </c>
-      <c r="E43" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>204</v>
-      </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="E44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
         <v>131</v>
       </c>
-      <c r="M43">
+      <c r="M44">
         <v>0.11</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N44" s="20">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O43" s="50">
+      <c r="O44" s="50">
         <v>0.5</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P44" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q43" s="134">
+      <c r="Q44" s="134">
+        <v>0</v>
+      </c>
+      <c r="R44" s="50">
         <v>0.5</v>
       </c>
-      <c r="R43" s="50">
+      <c r="S44" s="50"/>
+      <c r="T44" t="s">
+        <v>129</v>
+      </c>
+      <c r="U44" t="b">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>0.03</v>
+      </c>
+      <c r="W44">
+        <v>0.03</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE44">
+        <v>15</v>
+      </c>
+      <c r="AF44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG44">
+        <v>5</v>
+      </c>
+      <c r="AH44">
+        <v>1.2</v>
+      </c>
+      <c r="AI44">
+        <v>0.8</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN44">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO44">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP44" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ44" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR44" s="34">
+        <v>123</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU44" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV44" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY44" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB44" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF44" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45">
+        <v>0.11</v>
+      </c>
+      <c r="N45" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O45" s="50">
         <v>0.5</v>
       </c>
-      <c r="S43" t="s">
+      <c r="P45" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q45" s="134">
+        <v>0.5</v>
+      </c>
+      <c r="R45" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S45" s="50"/>
+      <c r="T45" t="s">
         <v>129</v>
       </c>
-      <c r="T43" t="b">
-        <v>1</v>
-      </c>
-      <c r="U43">
+      <c r="U45" t="b">
+        <v>1</v>
+      </c>
+      <c r="V45">
         <v>0.02</v>
       </c>
-      <c r="V43">
+      <c r="W45">
         <v>0.02</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="s">
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="s">
         <v>123</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AD45" t="s">
         <v>35</v>
       </c>
-      <c r="AD43">
+      <c r="AE45">
         <v>15</v>
       </c>
-      <c r="AE43">
+      <c r="AF45">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF43">
+      <c r="AG45">
         <v>5</v>
       </c>
-      <c r="AG43">
+      <c r="AH45">
         <v>1.2</v>
       </c>
-      <c r="AH43">
+      <c r="AI45">
         <v>0.8</v>
       </c>
-      <c r="AI43" t="s">
+      <c r="AJ45" t="s">
         <v>134</v>
       </c>
-      <c r="AJ43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK43" t="s">
+      <c r="AK45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL45" t="s">
         <v>100</v>
       </c>
-      <c r="AL43" t="s">
+      <c r="AM45" t="s">
         <v>20</v>
       </c>
-      <c r="AM43">
+      <c r="AN45">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AN43">
+      <c r="AO45">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO43" s="3">
+      <c r="AP45" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP43" s="5">
+      <c r="AQ45" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ43" s="34">
+      <c r="AR45" s="34">
         <v>123</v>
       </c>
-      <c r="AR43" t="s">
+      <c r="AS45" t="s">
         <v>31</v>
       </c>
-      <c r="AS43" t="s">
+      <c r="AT45" t="s">
         <v>31</v>
       </c>
-      <c r="AT43" s="20">
+      <c r="AU45" s="20">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AU43" s="20">
+      <c r="AV45" s="20">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AX43" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43" t="s">
+      <c r="AY45" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB45" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="s">
         <v>3</v>
       </c>
-      <c r="BD43" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE43" s="19" t="b">
+      <c r="BE45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF45" s="19" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ5:BA25 C28:C43 AZ28:BA43 C5:C25" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA28:BB45 C28:C45 C5:C25 BA5:BB25" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK5:AK25 AK28:AK43" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL28:AL45 AL5:AL25" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L25 L28:L43" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L28:L45 L5:L25" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
       <formula1>"fixedRate, sharedNC, sharedADC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6345,13 +6727,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
-  <dimension ref="A3:AA31"/>
+  <dimension ref="A3:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6378,10 +6760,11 @@
     <col min="25" max="25" width="16.28515625" customWidth="1"/>
     <col min="26" max="26" width="17.42578125" customWidth="1"/>
     <col min="27" max="27" width="14.28515625" customWidth="1"/>
-    <col min="28" max="28" width="25.140625" customWidth="1"/>
+    <col min="28" max="33" width="11.7109375" customWidth="1"/>
+    <col min="34" max="34" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:27" s="18" customFormat="1" ht="18.75">
+    <row r="3" spans="1:34" s="18" customFormat="1" ht="18.75">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6427,7 +6810,7 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:34" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -6509,8 +6892,29 @@
       <c r="AA4" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -6565,8 +6969,29 @@
       <c r="AA5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5">
+        <v>20</v>
+      </c>
+      <c r="AC5">
+        <v>64</v>
+      </c>
+      <c r="AD5">
+        <v>20</v>
+      </c>
+      <c r="AE5">
+        <v>100</v>
+      </c>
+      <c r="AF5">
+        <v>40</v>
+      </c>
+      <c r="AG5">
+        <v>65</v>
+      </c>
+      <c r="AH5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -6622,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -6678,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -6734,10 +7159,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:34">
       <c r="U9" s="39"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
         <v>276</v>
       </c>
@@ -6745,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="F10" s="137" t="s">
         <v>229</v>
@@ -6795,16 +7220,37 @@
       <c r="AA10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10">
+        <v>20</v>
+      </c>
+      <c r="AC10">
+        <v>69</v>
+      </c>
+      <c r="AD10">
+        <v>20</v>
+      </c>
+      <c r="AE10">
+        <v>100</v>
+      </c>
+      <c r="AF10">
+        <v>50</v>
+      </c>
+      <c r="AG10">
+        <v>70</v>
+      </c>
+      <c r="AH10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>277</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="F11" s="137" t="s">
         <v>229</v>
@@ -6854,20 +7300,41 @@
       <c r="AA11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11">
+        <v>20</v>
+      </c>
+      <c r="AC11">
+        <v>69</v>
+      </c>
+      <c r="AD11">
+        <v>20</v>
+      </c>
+      <c r="AE11">
+        <v>100</v>
+      </c>
+      <c r="AF11">
+        <v>50</v>
+      </c>
+      <c r="AG11">
+        <v>70</v>
+      </c>
+      <c r="AH11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="U12" s="39"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:34">
       <c r="U13" s="39"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:34">
       <c r="U14" s="39"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:34">
       <c r="U15" s="39"/>
     </row>
-    <row r="16" spans="1:27" s="137" customFormat="1">
+    <row r="16" spans="1:34" s="137" customFormat="1">
       <c r="A16" s="137" t="s">
         <v>197</v>
       </c>
@@ -6925,17 +7392,80 @@
       <c r="AA16" s="137">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" s="137" customFormat="1">
+      <c r="AB16">
+        <v>20</v>
+      </c>
+      <c r="AC16">
+        <v>64</v>
+      </c>
+      <c r="AD16">
+        <v>20</v>
+      </c>
+      <c r="AE16">
+        <v>100</v>
+      </c>
+      <c r="AF16">
+        <v>40</v>
+      </c>
+      <c r="AG16">
+        <v>65</v>
+      </c>
+      <c r="AH16" s="137">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" s="137" customFormat="1">
       <c r="U17" s="138"/>
-    </row>
-    <row r="18" spans="1:27" s="137" customFormat="1">
+      <c r="AB17">
+        <v>20</v>
+      </c>
+      <c r="AC17">
+        <v>64</v>
+      </c>
+      <c r="AD17">
+        <v>20</v>
+      </c>
+      <c r="AE17">
+        <v>100</v>
+      </c>
+      <c r="AF17">
+        <v>40</v>
+      </c>
+      <c r="AG17">
+        <v>65</v>
+      </c>
+      <c r="AH17" s="137">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" s="137" customFormat="1">
       <c r="U18" s="138"/>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18">
+        <v>20</v>
+      </c>
+      <c r="AC18">
+        <v>64</v>
+      </c>
+      <c r="AD18">
+        <v>20</v>
+      </c>
+      <c r="AE18">
+        <v>100</v>
+      </c>
+      <c r="AF18">
+        <v>40</v>
+      </c>
+      <c r="AG18">
+        <v>65</v>
+      </c>
+      <c r="AH18" s="137">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="U19" s="39"/>
     </row>
-    <row r="20" spans="1:27" s="137" customFormat="1">
+    <row r="20" spans="1:34" s="137" customFormat="1">
       <c r="A20" s="137" t="s">
         <v>219</v>
       </c>
@@ -7008,8 +7538,29 @@
       <c r="AA20" s="137">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" s="137" customFormat="1">
+      <c r="AB20">
+        <v>20</v>
+      </c>
+      <c r="AC20">
+        <v>64</v>
+      </c>
+      <c r="AD20">
+        <v>20</v>
+      </c>
+      <c r="AE20">
+        <v>100</v>
+      </c>
+      <c r="AF20">
+        <v>40</v>
+      </c>
+      <c r="AG20">
+        <v>65</v>
+      </c>
+      <c r="AH20" s="137">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" s="137" customFormat="1">
       <c r="A21" s="137" t="s">
         <v>262</v>
       </c>
@@ -7076,14 +7627,35 @@
       <c r="AA21" s="137">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21">
+        <v>20</v>
+      </c>
+      <c r="AC21">
+        <v>64</v>
+      </c>
+      <c r="AD21">
+        <v>20</v>
+      </c>
+      <c r="AE21">
+        <v>100</v>
+      </c>
+      <c r="AF21">
+        <v>40</v>
+      </c>
+      <c r="AG21">
+        <v>65</v>
+      </c>
+      <c r="AH21" s="137">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
       <c r="U22" s="39"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:34">
       <c r="U23" s="39"/>
     </row>
-    <row r="24" spans="1:27" s="137" customFormat="1">
+    <row r="24" spans="1:34" s="137" customFormat="1">
       <c r="A24" s="137" t="s">
         <v>198</v>
       </c>
@@ -7144,8 +7716,29 @@
       <c r="AA24" s="137">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" s="137" customFormat="1">
+      <c r="AB24">
+        <v>20</v>
+      </c>
+      <c r="AC24">
+        <v>64</v>
+      </c>
+      <c r="AD24">
+        <v>20</v>
+      </c>
+      <c r="AE24">
+        <v>100</v>
+      </c>
+      <c r="AF24">
+        <v>40</v>
+      </c>
+      <c r="AG24">
+        <v>65</v>
+      </c>
+      <c r="AH24" s="137">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" s="137" customFormat="1">
       <c r="A25" s="137" t="s">
         <v>199</v>
       </c>
@@ -7212,23 +7805,44 @@
       <c r="AA25" s="137">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25">
+        <v>20</v>
+      </c>
+      <c r="AC25">
+        <v>64</v>
+      </c>
+      <c r="AD25">
+        <v>20</v>
+      </c>
+      <c r="AE25">
+        <v>100</v>
+      </c>
+      <c r="AF25">
+        <v>40</v>
+      </c>
+      <c r="AG25">
+        <v>65</v>
+      </c>
+      <c r="AH25" s="137">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
       <c r="U26" s="39"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:34">
       <c r="U27" s="39"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:34">
       <c r="U28" s="39"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:34">
       <c r="U29" s="39"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:34">
       <c r="U30" s="39"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:34">
       <c r="U31" s="39"/>
     </row>
   </sheetData>
@@ -7251,7 +7865,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7301,7 +7915,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -7678,10 +8292,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7778,7 +8392,7 @@
         <v>0.12</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E11" si="2">F4</f>
@@ -7946,7 +8560,54 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <f>F12</f>
+        <v>6.6625000000000004E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6.6625000000000004E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7.3450000000000001E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13" s="196">
+        <f t="shared" ref="E13" si="7">F13</f>
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13" si="8">B13 - C13^2/2</f>
+        <v>6.6250000000000003E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9048,7 +9709,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CCD5F-7720-4743-99D2-ED6C816262A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BF89FD-D5BB-49DA-939B-C59997755190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,10 +15,12 @@
     <sheet name="returns" sheetId="2" r:id="rId5"/>
     <sheet name="targetVals_pf.AL" sheetId="25" r:id="rId6"/>
     <sheet name="targetVals_pf.NC" sheetId="30" r:id="rId7"/>
-    <sheet name="targetVals_Funding" sheetId="31" r:id="rId8"/>
-    <sheet name="targeVals_raw" sheetId="23" r:id="rId9"/>
-    <sheet name="Note1" sheetId="29" r:id="rId10"/>
-    <sheet name="Notes on scenarios" sheetId="32" r:id="rId11"/>
+    <sheet name="targetVals_fc.AL" sheetId="34" r:id="rId8"/>
+    <sheet name="targetVals_fc.NC" sheetId="35" r:id="rId9"/>
+    <sheet name="targetVals_Funding" sheetId="31" r:id="rId10"/>
+    <sheet name="targeVals_raw" sheetId="23" r:id="rId11"/>
+    <sheet name="Note1" sheetId="29" r:id="rId12"/>
+    <sheet name="Notes on scenarios" sheetId="32" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -247,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="332">
   <si>
     <t>nsim</t>
   </si>
@@ -1356,12 +1358,443 @@
   <si>
     <t>ERC_floorNCshare</t>
   </si>
+  <si>
+    <t>source: AV2020 ep32</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Normal Cost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tier 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Retirement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  23,617</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  23,833</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Termination</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Death</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Disability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reciprocity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total Tier 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  35,798</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  36,355</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Expected Payroll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  143,411</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  148,356</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tier 1 NC Rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tier 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  17,153</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  13,763</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total Tier 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  25,006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  20,216</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  168,259</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  137,855</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tier 2 NC Rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dollar amounts in thousands</t>
+    </r>
+  </si>
+  <si>
+    <t>% payroll</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Actives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Deferred Vested</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>In Pay Status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Retirees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Beneficiaries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Disabled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total In Pay Status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total System</t>
+    </r>
+  </si>
+  <si>
+    <t>source: AV2020 ep 31</t>
+  </si>
+  <si>
+    <t>PVFB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Retirement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Termination</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Death</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Disability</t>
+    </r>
+  </si>
+  <si>
+    <t>AL/PVFB</t>
+  </si>
+  <si>
+    <t>PVFB/PR</t>
+  </si>
+  <si>
+    <t>AL/PR</t>
+  </si>
+  <si>
+    <t>Dev_fc</t>
+  </si>
+  <si>
+    <t>"fc.t1","fc.t2"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1372,8 +1805,9 @@
     <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,6 +1957,40 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1711,7 +2179,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2121,6 +2589,152 @@
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2578,10 +3192,10 @@
   <dimension ref="A2:BF45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AK5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AV13" sqref="AV13"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3551,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="E11" t="s">
         <v>280</v>
@@ -3711,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="E12" t="s">
         <v>282</v>
@@ -6628,6 +7242,1129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D5FB73-2BC7-4779-8A12-D312032B3487}">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="B2" s="121">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4">
+        <v>3558486</v>
+      </c>
+      <c r="C4">
+        <v>3675770</v>
+      </c>
+      <c r="D4">
+        <f>1830813+3126931</f>
+        <v>4957744</v>
+      </c>
+      <c r="E4" s="21">
+        <f>B4/$D4</f>
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="F4" s="21">
+        <f>C4/$D4</f>
+        <v>0.74141988775539847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5">
+        <f>7790+22148</f>
+        <v>29938</v>
+      </c>
+      <c r="C5">
+        <f>7943+22589</f>
+        <v>30532</v>
+      </c>
+      <c r="D5">
+        <f>7809+22874</f>
+        <v>30683</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" ref="E5:E6" si="0">B5/$D5</f>
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" ref="F5:F6" si="1">C5/$D5</f>
+        <v>0.99507870807939247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B4:B5)</f>
+        <v>3588424</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C4:C5)</f>
+        <v>3706302</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D4:D5)</f>
+        <v>4988427</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.71934980706342899</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="1"/>
+        <v>0.74298010174349549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD963C7-C30C-4F41-9ED1-A3A9BFD95FFA}">
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="22"/>
+    <col min="6" max="9" width="14.85546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="22"/>
+    <col min="11" max="11" width="18.5703125" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="23">
+        <v>174402</v>
+      </c>
+      <c r="C5" s="23">
+        <v>11811</v>
+      </c>
+      <c r="D5" s="23">
+        <f>SUM(B5:C5)</f>
+        <v>186213</v>
+      </c>
+      <c r="F5" s="23">
+        <v>28335</v>
+      </c>
+      <c r="G5" s="23">
+        <v>41289</v>
+      </c>
+      <c r="H5" s="22">
+        <v>7311</v>
+      </c>
+      <c r="I5" s="23">
+        <f t="shared" ref="I5:I6" si="0">SUM(F5:H5)</f>
+        <v>76935</v>
+      </c>
+      <c r="K5" s="46">
+        <f>SUM(D5,I5)</f>
+        <v>263148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="23">
+        <v>37586</v>
+      </c>
+      <c r="C6" s="23">
+        <v>8909</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" ref="D6:D25" si="1">SUM(B6:C6)</f>
+        <v>46495</v>
+      </c>
+      <c r="F6" s="23">
+        <v>5956</v>
+      </c>
+      <c r="G6" s="23">
+        <v>6173</v>
+      </c>
+      <c r="H6" s="22">
+        <v>265</v>
+      </c>
+      <c r="I6" s="23">
+        <f t="shared" si="0"/>
+        <v>12394</v>
+      </c>
+      <c r="K6" s="46">
+        <f t="shared" ref="K6:K12" si="2">SUM(D6,I6)</f>
+        <v>58889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="23">
+        <v>61005</v>
+      </c>
+      <c r="C7" s="23">
+        <v>3566</v>
+      </c>
+      <c r="D7" s="23">
+        <f t="shared" si="1"/>
+        <v>64571</v>
+      </c>
+      <c r="F7" s="23">
+        <v>7103</v>
+      </c>
+      <c r="G7" s="23">
+        <v>7078</v>
+      </c>
+      <c r="H7" s="23">
+        <v>451</v>
+      </c>
+      <c r="I7" s="23">
+        <f>SUM(F7:H7)</f>
+        <v>14632</v>
+      </c>
+      <c r="K7" s="46">
+        <f t="shared" si="2"/>
+        <v>79203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="23">
+        <v>195158</v>
+      </c>
+      <c r="C8" s="23">
+        <v>14642</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="1"/>
+        <v>209800</v>
+      </c>
+      <c r="F8" s="23">
+        <v>25749</v>
+      </c>
+      <c r="G8" s="23">
+        <v>39947</v>
+      </c>
+      <c r="H8" s="23">
+        <v>9158</v>
+      </c>
+      <c r="I8" s="23">
+        <f t="shared" ref="I8:I25" si="3">SUM(F8:H8)</f>
+        <v>74854</v>
+      </c>
+      <c r="K8" s="46">
+        <f t="shared" si="2"/>
+        <v>284654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="23">
+        <v>468151</v>
+      </c>
+      <c r="C9" s="23">
+        <v>38928</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="1"/>
+        <v>507079</v>
+      </c>
+      <c r="F9" s="23">
+        <v>67143</v>
+      </c>
+      <c r="G9" s="23">
+        <v>94487</v>
+      </c>
+      <c r="H9" s="23">
+        <v>17185</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" si="3"/>
+        <v>178815</v>
+      </c>
+      <c r="K9" s="46">
+        <f t="shared" si="2"/>
+        <v>685894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="23">
+        <v>12251583453</v>
+      </c>
+      <c r="C11" s="23">
+        <v>699252899</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="1"/>
+        <v>12950836352</v>
+      </c>
+      <c r="F11" s="23">
+        <v>2316124913</v>
+      </c>
+      <c r="G11" s="43">
+        <v>3522647266</v>
+      </c>
+      <c r="H11" s="23">
+        <v>871895121</v>
+      </c>
+      <c r="I11" s="23">
+        <f t="shared" si="3"/>
+        <v>6710667300</v>
+      </c>
+      <c r="K11" s="46">
+        <f t="shared" si="2"/>
+        <v>19661503652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="23">
+        <v>12934685803</v>
+      </c>
+      <c r="C12" s="23">
+        <v>738240618</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="1"/>
+        <v>13672926421</v>
+      </c>
+      <c r="F12" s="23">
+        <v>2445263353</v>
+      </c>
+      <c r="G12" s="43">
+        <v>3719056868</v>
+      </c>
+      <c r="H12" s="23">
+        <v>920508723</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="3"/>
+        <v>7084828944</v>
+      </c>
+      <c r="K12" s="46">
+        <f t="shared" si="2"/>
+        <v>20757755365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="23">
+        <v>132446673597</v>
+      </c>
+      <c r="C15" s="23">
+        <v>5746905539</v>
+      </c>
+      <c r="D15" s="23">
+        <f t="shared" si="1"/>
+        <v>138193579136</v>
+      </c>
+      <c r="F15" s="42">
+        <v>17751712839</v>
+      </c>
+      <c r="G15" s="23">
+        <v>57779361435</v>
+      </c>
+      <c r="H15" s="23">
+        <v>15894543442</v>
+      </c>
+      <c r="I15" s="23">
+        <f t="shared" si="3"/>
+        <v>91425617716</v>
+      </c>
+      <c r="K15" s="46">
+        <f t="shared" ref="K15:K18" si="4">SUM(D15,I15)</f>
+        <v>229619196852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="23">
+        <v>115469058970</v>
+      </c>
+      <c r="C16" s="23">
+        <v>4670036601</v>
+      </c>
+      <c r="D16" s="23">
+        <f t="shared" si="1"/>
+        <v>120139095571</v>
+      </c>
+      <c r="F16" s="42">
+        <v>13590778296</v>
+      </c>
+      <c r="G16" s="23">
+        <v>48792433542</v>
+      </c>
+      <c r="H16" s="23">
+        <v>13383782393</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" si="3"/>
+        <v>75766994231</v>
+      </c>
+      <c r="K16" s="46">
+        <f t="shared" si="4"/>
+        <v>195906089802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="23">
+        <v>80223069956</v>
+      </c>
+      <c r="C17" s="23">
+        <v>3589902866</v>
+      </c>
+      <c r="D17" s="23">
+        <f t="shared" si="1"/>
+        <v>83812972822</v>
+      </c>
+      <c r="F17" s="42">
+        <v>10551342261</v>
+      </c>
+      <c r="G17" s="23">
+        <v>33326594392</v>
+      </c>
+      <c r="H17" s="23">
+        <v>8540511923</v>
+      </c>
+      <c r="I17" s="23">
+        <f t="shared" si="3"/>
+        <v>52418448576</v>
+      </c>
+      <c r="K17" s="46">
+        <f t="shared" si="4"/>
+        <v>136231421398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="23">
+        <v>35245989014</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1080133735</v>
+      </c>
+      <c r="D18" s="23">
+        <f t="shared" si="1"/>
+        <v>36326122749</v>
+      </c>
+      <c r="F18" s="42">
+        <v>3039436035</v>
+      </c>
+      <c r="G18" s="23">
+        <v>15465839150</v>
+      </c>
+      <c r="H18" s="23">
+        <v>4843270470</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" si="3"/>
+        <v>23348545655</v>
+      </c>
+      <c r="K18" s="46">
+        <f t="shared" si="4"/>
+        <v>59674668404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="D19" s="32">
+        <f>D17/D16</f>
+        <v>0.69763279325228544</v>
+      </c>
+      <c r="F19" s="32">
+        <f>F17/F16</f>
+        <v>0.77636041374506426</v>
+      </c>
+      <c r="G19" s="32">
+        <f>G17/G16</f>
+        <v>0.68302791996043455</v>
+      </c>
+      <c r="H19" s="32">
+        <f>H17/H16</f>
+        <v>0.63812393777911902</v>
+      </c>
+      <c r="I19" s="32">
+        <f>I17/I16</f>
+        <v>0.69183750930102272</v>
+      </c>
+      <c r="K19" s="32">
+        <f>K17/K16</f>
+        <v>0.69539145789540036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="26"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="23">
+        <v>2174670866</v>
+      </c>
+      <c r="C22" s="23">
+        <v>134810119</v>
+      </c>
+      <c r="D22" s="23">
+        <f t="shared" si="1"/>
+        <v>2309480985</v>
+      </c>
+      <c r="F22" s="43">
+        <v>566958761</v>
+      </c>
+      <c r="G22" s="23">
+        <v>1111774860</v>
+      </c>
+      <c r="H22" s="43">
+        <v>274753444</v>
+      </c>
+      <c r="I22" s="23">
+        <f t="shared" si="3"/>
+        <v>1953487065</v>
+      </c>
+      <c r="K22" s="46">
+        <f t="shared" ref="K22:K25" si="5">SUM(D22,I22)</f>
+        <v>4262968050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="23">
+        <v>893164372</v>
+      </c>
+      <c r="C23" s="23">
+        <v>58830395</v>
+      </c>
+      <c r="D23" s="23">
+        <f t="shared" si="1"/>
+        <v>951994767</v>
+      </c>
+      <c r="F23" s="43">
+        <v>256385863</v>
+      </c>
+      <c r="G23" s="23">
+        <v>426055155</v>
+      </c>
+      <c r="H23" s="43">
+        <v>96865133</v>
+      </c>
+      <c r="I23" s="23">
+        <f t="shared" si="3"/>
+        <v>779306151</v>
+      </c>
+      <c r="K23" s="46">
+        <f t="shared" si="5"/>
+        <v>1731300918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="23">
+        <v>1281506494</v>
+      </c>
+      <c r="C24" s="23">
+        <v>75979724</v>
+      </c>
+      <c r="D24" s="23">
+        <f t="shared" si="1"/>
+        <v>1357486218</v>
+      </c>
+      <c r="F24" s="43">
+        <v>310572898</v>
+      </c>
+      <c r="G24" s="23">
+        <v>685719705</v>
+      </c>
+      <c r="H24" s="43">
+        <v>177888311</v>
+      </c>
+      <c r="I24" s="23">
+        <f t="shared" si="3"/>
+        <v>1174180914</v>
+      </c>
+      <c r="K24" s="46">
+        <f t="shared" si="5"/>
+        <v>2531667132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="23">
+        <v>2725165218</v>
+      </c>
+      <c r="C25" s="23">
+        <v>77744321</v>
+      </c>
+      <c r="D25" s="23">
+        <f t="shared" si="1"/>
+        <v>2802909539</v>
+      </c>
+      <c r="F25" s="43">
+        <v>215802566</v>
+      </c>
+      <c r="G25" s="23">
+        <v>1069586142</v>
+      </c>
+      <c r="H25" s="43">
+        <v>354215017</v>
+      </c>
+      <c r="I25" s="23">
+        <f t="shared" si="3"/>
+        <v>1639603725</v>
+      </c>
+      <c r="K25" s="46">
+        <f t="shared" si="5"/>
+        <v>4442513264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="23">
+        <f>B24+B25</f>
+        <v>4006671712</v>
+      </c>
+      <c r="C26" s="23">
+        <f t="shared" ref="C26:K26" si="6">C24+C25</f>
+        <v>153724045</v>
+      </c>
+      <c r="D26" s="23">
+        <f t="shared" si="6"/>
+        <v>4160395757</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23">
+        <f t="shared" si="6"/>
+        <v>526375464</v>
+      </c>
+      <c r="G26" s="23">
+        <f t="shared" si="6"/>
+        <v>1755305847</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" si="6"/>
+        <v>532103328</v>
+      </c>
+      <c r="I26" s="23">
+        <f t="shared" si="6"/>
+        <v>2813784639</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23">
+        <f t="shared" si="6"/>
+        <v>6974180396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="25.5">
+      <c r="A28" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="30">
+        <v>0.16813</v>
+      </c>
+      <c r="C29" s="33">
+        <v>0.18260999999999999</v>
+      </c>
+      <c r="D29" s="32">
+        <f>D22/$D$12</f>
+        <v>0.16890904798938361</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0.23186000000000001</v>
+      </c>
+      <c r="G29" s="44">
+        <v>0.29893999999999998</v>
+      </c>
+      <c r="H29" s="44">
+        <v>0.29848000000000002</v>
+      </c>
+      <c r="I29" s="32">
+        <f>I22/$I$12</f>
+        <v>0.27572819053794789</v>
+      </c>
+      <c r="K29" s="32">
+        <f>K22/$K$12</f>
+        <v>0.20536748675571453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="30">
+        <v>6.905E-2</v>
+      </c>
+      <c r="C30" s="33">
+        <v>7.9689999999999997E-2</v>
+      </c>
+      <c r="D30" s="32">
+        <f t="shared" ref="D30:D32" si="7">D23/$D$12</f>
+        <v>6.9626262709777217E-2</v>
+      </c>
+      <c r="F30" s="44">
+        <v>0.10485</v>
+      </c>
+      <c r="G30" s="44">
+        <v>0.11456</v>
+      </c>
+      <c r="H30" s="44">
+        <v>0.10523</v>
+      </c>
+      <c r="I30" s="32">
+        <f t="shared" ref="I30:I32" si="8">I23/$I$12</f>
+        <v>0.10999646669803917</v>
+      </c>
+      <c r="K30" s="32">
+        <f t="shared" ref="K30:K32" si="9">K23/$K$12</f>
+        <v>8.3405015983528522E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="30">
+        <v>9.9080000000000001E-2</v>
+      </c>
+      <c r="C31" s="33">
+        <v>0.10292</v>
+      </c>
+      <c r="D31" s="32">
+        <f t="shared" si="7"/>
+        <v>9.9282785279606378E-2</v>
+      </c>
+      <c r="F31" s="44">
+        <v>0.12701000000000001</v>
+      </c>
+      <c r="G31" s="44">
+        <v>0.18437999999999999</v>
+      </c>
+      <c r="H31" s="44">
+        <v>0.19325000000000001</v>
+      </c>
+      <c r="I31" s="32">
+        <f t="shared" si="8"/>
+        <v>0.1657317238399087</v>
+      </c>
+      <c r="K31" s="32">
+        <f t="shared" si="9"/>
+        <v>0.12196247077218601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="30">
+        <v>0.21068999999999999</v>
+      </c>
+      <c r="C32" s="33">
+        <v>0.10531</v>
+      </c>
+      <c r="D32" s="32">
+        <f t="shared" si="7"/>
+        <v>0.20499704691565238</v>
+      </c>
+      <c r="F32" s="44">
+        <v>8.8249999999999995E-2</v>
+      </c>
+      <c r="G32" s="44">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="H32" s="44">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="I32" s="32">
+        <f t="shared" si="8"/>
+        <v>0.23142460290287567</v>
+      </c>
+      <c r="K32" s="32">
+        <f t="shared" si="9"/>
+        <v>0.21401703536262867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.30976999999999999</v>
+      </c>
+      <c r="C33" s="33">
+        <v>0.20823</v>
+      </c>
+      <c r="D33" s="32">
+        <f>SUM(D24:D25)/D12</f>
+        <v>0.30427983219525878</v>
+      </c>
+      <c r="F33" s="45">
+        <v>0.21526000000000001</v>
+      </c>
+      <c r="G33" s="45">
+        <v>0.47198000000000001</v>
+      </c>
+      <c r="H33" s="45">
+        <v>0.57811000000000001</v>
+      </c>
+      <c r="I33" s="32">
+        <f>SUM(I24:I25)/$I$12</f>
+        <v>0.39715632674278439</v>
+      </c>
+      <c r="K33" s="32">
+        <f>SUM(K24:K25)/$K$12</f>
+        <v>0.3359795061348147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="25.5">
+      <c r="A35" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="32">
+        <f>B22/B$11</f>
+        <v>0.17750120825953289</v>
+      </c>
+      <c r="C36" s="32">
+        <f>C22/C$11</f>
+        <v>0.19279164833323059</v>
+      </c>
+      <c r="D36" s="32">
+        <f>D22/D$11</f>
+        <v>0.1783267830917612</v>
+      </c>
+      <c r="F36" s="32">
+        <f>F22/F$11</f>
+        <v>0.24478764414551246</v>
+      </c>
+      <c r="G36" s="32">
+        <f>G22/G$11</f>
+        <v>0.31560777337278823</v>
+      </c>
+      <c r="H36" s="32">
+        <f>H22/H$11</f>
+        <v>0.31512212579521937</v>
+      </c>
+      <c r="I36" s="32">
+        <f>I22/I$11</f>
+        <v>0.29110176047618991</v>
+      </c>
+      <c r="K36" s="32">
+        <f>K22/K$11</f>
+        <v>0.21681800768917101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="32">
+        <f t="shared" ref="B37:C39" si="10">B23/B$11</f>
+        <v>7.2901953892441071E-2</v>
+      </c>
+      <c r="C37" s="32">
+        <f t="shared" si="10"/>
+        <v>8.4133215728005153E-2</v>
+      </c>
+      <c r="D37" s="32">
+        <f t="shared" ref="D37:F37" si="11">D23/D$11</f>
+        <v>7.3508362018101112E-2</v>
+      </c>
+      <c r="F37" s="32">
+        <f t="shared" si="11"/>
+        <v>0.110696043016053</v>
+      </c>
+      <c r="G37" s="32">
+        <f t="shared" ref="G37:H37" si="12">G23/G$11</f>
+        <v>0.12094743606951874</v>
+      </c>
+      <c r="H37" s="32">
+        <f t="shared" si="12"/>
+        <v>0.11109723023670871</v>
+      </c>
+      <c r="I37" s="32">
+        <f t="shared" ref="I37:K37" si="13">I23/I$11</f>
+        <v>0.11612945720018038</v>
+      </c>
+      <c r="K37" s="32">
+        <f t="shared" si="13"/>
+        <v>8.8055366905973612E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="32">
+        <f t="shared" si="10"/>
+        <v>0.1045992543670918</v>
+      </c>
+      <c r="C38" s="32">
+        <f t="shared" si="10"/>
+        <v>0.10865843260522542</v>
+      </c>
+      <c r="D38" s="32">
+        <f t="shared" ref="D38:F38" si="14">D24/D$11</f>
+        <v>0.10481842107366009</v>
+      </c>
+      <c r="F38" s="32">
+        <f t="shared" si="14"/>
+        <v>0.13409160112945948</v>
+      </c>
+      <c r="G38" s="32">
+        <f t="shared" ref="G38:H38" si="15">G24/G$11</f>
+        <v>0.19466033730326945</v>
+      </c>
+      <c r="H38" s="32">
+        <f t="shared" si="15"/>
+        <v>0.20402489555851064</v>
+      </c>
+      <c r="I38" s="32">
+        <f t="shared" ref="I38:K38" si="16">I24/I$11</f>
+        <v>0.17497230327600952</v>
+      </c>
+      <c r="K38" s="32">
+        <f t="shared" si="16"/>
+        <v>0.12876264078319741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="32">
+        <f t="shared" si="10"/>
+        <v>0.222433714666711</v>
+      </c>
+      <c r="C39" s="32">
+        <f t="shared" si="10"/>
+        <v>0.11118197881078788</v>
+      </c>
+      <c r="D39" s="32">
+        <f t="shared" ref="D39:F39" si="17">D25/D$11</f>
+        <v>0.21642691350718413</v>
+      </c>
+      <c r="F39" s="32">
+        <f t="shared" si="17"/>
+        <v>9.3173975543692972E-2</v>
+      </c>
+      <c r="G39" s="32">
+        <f t="shared" ref="G39:H39" si="18">G25/G$11</f>
+        <v>0.30363134916273504</v>
+      </c>
+      <c r="H39" s="32">
+        <f t="shared" si="18"/>
+        <v>0.40625874427848757</v>
+      </c>
+      <c r="I39" s="32">
+        <f t="shared" ref="I39:K39" si="19">I25/I$11</f>
+        <v>0.24432797093070013</v>
+      </c>
+      <c r="K39" s="32">
+        <f t="shared" si="19"/>
+        <v>0.22594982269060079</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="32">
+        <f>SUM(B24:B25)/B$11</f>
+        <v>0.3270329690338028</v>
+      </c>
+      <c r="C40" s="32">
+        <f t="shared" ref="C40:D40" si="20">SUM(C24:C25)/C$11</f>
+        <v>0.21984041141601332</v>
+      </c>
+      <c r="D40" s="32">
+        <f t="shared" si="20"/>
+        <v>0.3212453345808442</v>
+      </c>
+      <c r="F40" s="32">
+        <f t="shared" ref="F40:G40" si="21">SUM(F24:F25)/F$11</f>
+        <v>0.22726557667315242</v>
+      </c>
+      <c r="G40" s="32">
+        <f t="shared" si="21"/>
+        <v>0.49829168646600452</v>
+      </c>
+      <c r="H40" s="32">
+        <f t="shared" ref="H40:I40" si="22">SUM(H24:H25)/H$11</f>
+        <v>0.61028363983699829</v>
+      </c>
+      <c r="I40" s="32">
+        <f t="shared" si="22"/>
+        <v>0.41930027420670968</v>
+      </c>
+      <c r="K40" s="32">
+        <f t="shared" ref="K40" si="23">SUM(K24:K25)/K$11</f>
+        <v>0.3547124634737982</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB32A6C4-ACA0-45DC-BC57-7EB18A5B54DD}">
   <dimension ref="B2:D6"/>
   <sheetViews>
@@ -6694,7 +8431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902A1A61-E5B1-49A8-A09E-CAB028E7EE88}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6733,7 +8470,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7247,7 +8984,7 @@
         <v>277</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>279</v>
@@ -7323,7 +9060,84 @@
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="U12" s="39"/>
+      <c r="A12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="137" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12" s="137">
+        <v>0</v>
+      </c>
+      <c r="M12" s="137">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2021</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12">
+        <v>0.03</v>
+      </c>
+      <c r="Q12">
+        <v>0.1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="39">
+        <v>0.11</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>20</v>
+      </c>
+      <c r="AC12">
+        <v>69</v>
+      </c>
+      <c r="AD12">
+        <v>20</v>
+      </c>
+      <c r="AE12">
+        <v>100</v>
+      </c>
+      <c r="AF12">
+        <v>50</v>
+      </c>
+      <c r="AG12">
+        <v>70</v>
+      </c>
+      <c r="AH12">
+        <v>2020</v>
+      </c>
     </row>
     <row r="13" spans="1:34">
       <c r="U13" s="39"/>
@@ -8617,7 +10431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9FDD0-43C0-4547-B8AB-B7BD31607ED6}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -9221,8 +11035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9EC4B5-9019-48D6-98E7-5EB690EA862C}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9705,1123 +11519,779 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D5FB73-2BC7-4779-8A12-D312032B3487}">
-  <dimension ref="A2:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3E290-3EF3-427F-B350-8CD64CF48547}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="B2" s="121">
-        <v>43646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1"/>
+    <row r="4" spans="1:8">
+      <c r="C4" s="194"/>
+      <c r="D4" s="233"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
+      <c r="C5" s="194"/>
+      <c r="D5" s="234" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="235" t="s">
         <v>210</v>
       </c>
-      <c r="E3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4">
-        <v>3558486</v>
-      </c>
-      <c r="C4">
-        <v>3675770</v>
-      </c>
-      <c r="D4">
-        <f>1830813+3126931</f>
-        <v>4957744</v>
-      </c>
-      <c r="E4" s="21">
-        <f>B4/$D4</f>
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="F4" s="21">
-        <f>C4/$D4</f>
-        <v>0.74141988775539847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5">
-        <f>7790+22148</f>
-        <v>29938</v>
-      </c>
-      <c r="C5">
-        <f>7943+22589</f>
-        <v>30532</v>
-      </c>
-      <c r="D5">
-        <f>7809+22874</f>
-        <v>30683</v>
-      </c>
-      <c r="E5" s="21">
-        <f t="shared" ref="E5:E6" si="0">B5/$D5</f>
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" ref="F5:F6" si="1">C5/$D5</f>
-        <v>0.99507870807939247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6">
-        <f>SUM(B4:B5)</f>
-        <v>3588424</v>
-      </c>
-      <c r="C6">
-        <f>SUM(C4:C5)</f>
-        <v>3706302</v>
-      </c>
-      <c r="D6">
-        <f>SUM(D4:D5)</f>
-        <v>4988427</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="F5" s="246" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="246" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="246" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C6" s="201" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="232"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C7" s="213" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="242">
+        <v>1214362</v>
+      </c>
+      <c r="E7" s="237">
+        <v>989989</v>
+      </c>
+      <c r="F7" s="21">
+        <f>E7/D7</f>
+        <v>0.81523384295621903</v>
+      </c>
+      <c r="G7" s="50">
+        <f>D7/$D$19</f>
+        <v>8.4677047088438133</v>
+      </c>
+      <c r="H7" s="50">
+        <f>E7/$D$19</f>
+        <v>6.9031594508092127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C8" s="231" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="236"/>
+      <c r="E8" s="237">
+        <v>912647</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50">
+        <f t="shared" ref="H8:H18" si="0">E8/$D$19</f>
+        <v>6.3638563290124193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C9" s="231" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="236"/>
+      <c r="E9" s="238">
+        <v>54093</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50">
         <f t="shared" si="0"/>
-        <v>0.71934980706342899</v>
-      </c>
-      <c r="F6" s="21">
+        <v>0.37718863964409982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C10" s="231" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="236"/>
+      <c r="E10" s="238">
+        <v>9286</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50">
+        <f t="shared" si="0"/>
+        <v>6.4750960526040541E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C11" s="231" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="236"/>
+      <c r="E11" s="238">
+        <v>13963</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50">
+        <f t="shared" si="0"/>
+        <v>9.736352162665346E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C12" s="213" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="239">
+        <v>238788</v>
+      </c>
+      <c r="E12" s="237">
+        <v>238788</v>
+      </c>
+      <c r="G12" s="50">
+        <f t="shared" ref="G8:G18" si="1">D12/$D$19</f>
+        <v>1.6650605602080732</v>
+      </c>
+      <c r="H12" s="50">
+        <f t="shared" si="0"/>
+        <v>1.6650605602080732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C13" s="213" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="233"/>
+      <c r="E13" s="240"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C14" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="242">
+        <v>2791286</v>
+      </c>
+      <c r="E14" s="240"/>
+      <c r="G14" s="50">
         <f t="shared" si="1"/>
-        <v>0.74298010174349549</v>
-      </c>
-    </row>
+        <v>19.463541848254319</v>
+      </c>
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C15" s="202" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="239">
+        <v>179625</v>
+      </c>
+      <c r="E15" s="240"/>
+      <c r="G15" s="50">
+        <f t="shared" si="1"/>
+        <v>1.252518983899422</v>
+      </c>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1">
+      <c r="C16" s="202" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="239">
+        <v>87494</v>
+      </c>
+      <c r="E16" s="240"/>
+      <c r="G16" s="50">
+        <f t="shared" si="1"/>
+        <v>0.61009267071563544</v>
+      </c>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C17" s="202" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="242">
+        <v>3058405</v>
+      </c>
+      <c r="E17" s="238">
+        <v>3058405</v>
+      </c>
+      <c r="G17" s="50">
+        <f t="shared" si="1"/>
+        <v>21.326153502869374</v>
+      </c>
+      <c r="H17" s="50">
+        <f t="shared" si="0"/>
+        <v>21.326153502869374</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C18" s="201" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="243">
+        <v>4511555</v>
+      </c>
+      <c r="E18" s="245">
+        <v>4287182</v>
+      </c>
+      <c r="G18" s="50">
+        <f t="shared" si="1"/>
+        <v>31.458918771921262</v>
+      </c>
+      <c r="H18" s="50">
+        <f t="shared" si="0"/>
+        <v>29.894373513886663</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C19" s="213" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="244">
+        <v>143411</v>
+      </c>
+      <c r="E19" s="244">
+        <v>143411</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C20" s="201" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
+    </row>
+    <row r="21" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C21" s="213" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" s="242">
+        <v>342332</v>
+      </c>
+      <c r="E21" s="237">
+        <v>103025</v>
+      </c>
+      <c r="F21" s="21">
+        <f>E21/D21</f>
+        <v>0.30095053924260662</v>
+      </c>
+      <c r="G21" s="50">
+        <f>D21/$D$32</f>
+        <v>2.0345538723040075</v>
+      </c>
+      <c r="H21" s="50">
+        <f>E21/$D$32</f>
+        <v>0.61230008498802446</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C22" s="231" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="236"/>
+      <c r="E22" s="237">
+        <v>82703</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50">
+        <f t="shared" ref="H22:H32" si="2">E22/$D$32</f>
+        <v>0.49152199882324271</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C23" s="231" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="236"/>
+      <c r="E23" s="238">
+        <v>13657</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50">
+        <f t="shared" si="2"/>
+        <v>8.1166534925323455E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C24" s="231" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="236"/>
+      <c r="E24" s="238">
+        <v>3252</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50">
+        <f t="shared" si="2"/>
+        <v>1.9327346531240529E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C25" s="231" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="236"/>
+      <c r="E25" s="238">
+        <v>3413</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50">
+        <f t="shared" si="2"/>
+        <v>2.0284204708217689E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C26" s="213" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="239">
+        <v>9427</v>
+      </c>
+      <c r="E26" s="238">
+        <v>9427</v>
+      </c>
+      <c r="G26" s="50">
+        <f t="shared" ref="G22:G32" si="3">D26/$D$32</f>
+        <v>5.6026720710333475E-2</v>
+      </c>
+      <c r="H26" s="50">
+        <f t="shared" si="2"/>
+        <v>5.6026720710333475E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C27" s="213" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" s="233"/>
+      <c r="E27" s="238">
+        <v>1449</v>
+      </c>
+      <c r="G27" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="50">
+        <f t="shared" si="2"/>
+        <v>8.611723592794442E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C28" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="242">
+        <v>1449</v>
+      </c>
+      <c r="E28" s="240"/>
+      <c r="G28" s="50">
+        <f t="shared" si="3"/>
+        <v>8.611723592794442E-3</v>
+      </c>
+      <c r="H28" s="50"/>
+    </row>
+    <row r="29" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C29" s="202" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="241">
+        <v>0</v>
+      </c>
+      <c r="E29" s="240"/>
+      <c r="G29" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="50"/>
+    </row>
+    <row r="30" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C30" s="202" t="s">
+        <v>319</v>
+      </c>
+      <c r="D30" s="242">
+        <v>1449</v>
+      </c>
+      <c r="E30" s="240"/>
+      <c r="G30" s="50">
+        <f t="shared" si="3"/>
+        <v>8.611723592794442E-3</v>
+      </c>
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C31" s="201" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="243">
+        <v>353208</v>
+      </c>
+      <c r="E31" s="245">
+        <v>113901</v>
+      </c>
+      <c r="G31" s="50">
+        <f t="shared" si="3"/>
+        <v>2.0991923166071356</v>
+      </c>
+      <c r="H31" s="50">
+        <f t="shared" si="2"/>
+        <v>0.67693852929115228</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C32" s="213" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" s="244">
+        <v>168259</v>
+      </c>
+      <c r="E32" s="244">
+        <v>168259</v>
+      </c>
+      <c r="G32" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="19.5" customHeight="1">
+      <c r="C33" s="219" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" s="243">
+        <v>4864763</v>
+      </c>
+      <c r="E33" s="245">
+        <v>4401083</v>
+      </c>
+      <c r="G33" s="134">
+        <f>D33/$D$34</f>
+        <v>15.60869830269195</v>
+      </c>
+      <c r="H33" s="134">
+        <f>E33/$D$34</f>
+        <v>14.120970898706966</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="19.5" customHeight="1">
+      <c r="D34" s="103">
+        <f>D19+D32</f>
+        <v>311670</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="48" customHeight="1"/>
+    <row r="36" spans="3:8" ht="48" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD963C7-C30C-4F41-9ED1-A3A9BFD95FFA}">
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E8BCF8-45E8-49AF-86FD-B93D46945C8D}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection activeCell="D22" sqref="D22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="20" style="23" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="22"/>
-    <col min="6" max="9" width="14.85546875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="22"/>
-    <col min="11" max="11" width="18.5703125" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="22"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="25" t="s">
-        <v>76</v>
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="D3" s="197" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="23">
-        <v>174402</v>
-      </c>
-      <c r="C5" s="23">
-        <v>11811</v>
-      </c>
-      <c r="D5" s="23">
-        <f>SUM(B5:C5)</f>
-        <v>186213</v>
-      </c>
-      <c r="F5" s="23">
-        <v>28335</v>
-      </c>
-      <c r="G5" s="23">
-        <v>41289</v>
-      </c>
-      <c r="H5" s="22">
-        <v>7311</v>
-      </c>
-      <c r="I5" s="23">
-        <f t="shared" ref="I5:I6" si="0">SUM(F5:H5)</f>
-        <v>76935</v>
-      </c>
-      <c r="K5" s="46">
-        <f>SUM(D5,I5)</f>
-        <v>263148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="23">
-        <v>37586</v>
-      </c>
-      <c r="C6" s="23">
-        <v>8909</v>
-      </c>
-      <c r="D6" s="23">
-        <f t="shared" ref="D6:D25" si="1">SUM(B6:C6)</f>
-        <v>46495</v>
-      </c>
-      <c r="F6" s="23">
-        <v>5956</v>
-      </c>
-      <c r="G6" s="23">
-        <v>6173</v>
-      </c>
-      <c r="H6" s="22">
-        <v>265</v>
-      </c>
-      <c r="I6" s="23">
+      <c r="D5" s="194"/>
+      <c r="F5" s="198">
+        <v>44012</v>
+      </c>
+      <c r="K5" s="199">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1">
+      <c r="D6" s="194"/>
+      <c r="F6" s="200" t="s">
+        <v>286</v>
+      </c>
+      <c r="K6" s="200" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1">
+      <c r="D7" s="226" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="227" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1">
+      <c r="D8" s="228" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="229">
+        <f>F8/$F$14</f>
+        <v>0.16468053357134391</v>
+      </c>
+      <c r="F8" s="204" t="s">
+        <v>289</v>
+      </c>
+      <c r="K8" s="203" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1">
+      <c r="D9" s="228" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="229">
+        <f>F9/$F$14</f>
+        <v>6.3942096491900899E-2</v>
+      </c>
+      <c r="F9" s="206">
+        <v>9170</v>
+      </c>
+      <c r="K9" s="205">
+        <v>9427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1">
+      <c r="D10" s="228" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="229">
+        <f>F10/$F$14</f>
+        <v>4.6858330253606766E-3</v>
+      </c>
+      <c r="F10" s="208">
+        <v>672</v>
+      </c>
+      <c r="K10" s="207">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1">
+      <c r="D11" s="228" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="229">
+        <f>F11/$F$14</f>
+        <v>1.0815069973711918E-2</v>
+      </c>
+      <c r="F11" s="206">
+        <v>1551</v>
+      </c>
+      <c r="K11" s="205">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1">
+      <c r="D12" s="228" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="229">
+        <f>F12/$F$14</f>
+        <v>5.4946970595003176E-3</v>
+      </c>
+      <c r="F12" s="210">
+        <v>788</v>
+      </c>
+      <c r="K12" s="209">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" customHeight="1">
+      <c r="D13" s="226" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="229">
+        <f>F13/$F$14</f>
+        <v>0.24961823012181772</v>
+      </c>
+      <c r="F13" s="212" t="s">
+        <v>296</v>
+      </c>
+      <c r="K13" s="211" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25.5" customHeight="1">
+      <c r="D14" s="213" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="204" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="203" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1">
+      <c r="D15" s="214" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="216">
+        <v>0.24959999999999999</v>
+      </c>
+      <c r="K15" s="215">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1">
+      <c r="D16" s="223" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="137"/>
+      <c r="F16" s="55"/>
+      <c r="K16" s="55"/>
+    </row>
+    <row r="17" spans="4:11" ht="19.5" customHeight="1">
+      <c r="D17" s="224" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="230">
+        <f>F17/$F$22</f>
+        <v>0.10194402676825608</v>
+      </c>
+      <c r="F17" s="204" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17" s="203" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" ht="19.5" customHeight="1">
+      <c r="D18" s="224" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="230">
+        <f t="shared" ref="E18:E21" si="0">F18/$F$22</f>
+        <v>3.4821317136081872E-2</v>
+      </c>
+      <c r="F18" s="206">
+        <v>5859</v>
+      </c>
+      <c r="K18" s="205">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" ht="19.5" customHeight="1">
+      <c r="D19" s="224" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" s="230">
         <f t="shared" si="0"/>
-        <v>12394</v>
-      </c>
-      <c r="K6" s="46">
-        <f t="shared" ref="K6:K12" si="2">SUM(D6,I6)</f>
-        <v>58889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="23">
-        <v>61005</v>
-      </c>
-      <c r="C7" s="23">
-        <v>3566</v>
-      </c>
-      <c r="D7" s="23">
-        <f t="shared" si="1"/>
-        <v>64571</v>
-      </c>
-      <c r="F7" s="23">
-        <v>7103</v>
-      </c>
-      <c r="G7" s="23">
-        <v>7078</v>
-      </c>
-      <c r="H7" s="23">
-        <v>451</v>
-      </c>
-      <c r="I7" s="23">
-        <f>SUM(F7:H7)</f>
-        <v>14632</v>
-      </c>
-      <c r="K7" s="46">
-        <f t="shared" si="2"/>
-        <v>79203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="23">
-        <v>195158</v>
-      </c>
-      <c r="C8" s="23">
-        <v>14642</v>
-      </c>
-      <c r="D8" s="23">
-        <f t="shared" si="1"/>
-        <v>209800</v>
-      </c>
-      <c r="F8" s="23">
-        <v>25749</v>
-      </c>
-      <c r="G8" s="23">
-        <v>39947</v>
-      </c>
-      <c r="H8" s="23">
-        <v>9158</v>
-      </c>
-      <c r="I8" s="23">
-        <f t="shared" ref="I8:I25" si="3">SUM(F8:H8)</f>
-        <v>74854</v>
-      </c>
-      <c r="K8" s="46">
-        <f t="shared" si="2"/>
-        <v>284654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="23">
-        <v>468151</v>
-      </c>
-      <c r="C9" s="23">
-        <v>38928</v>
-      </c>
-      <c r="D9" s="23">
-        <f t="shared" si="1"/>
-        <v>507079</v>
-      </c>
-      <c r="F9" s="23">
-        <v>67143</v>
-      </c>
-      <c r="G9" s="23">
-        <v>94487</v>
-      </c>
-      <c r="H9" s="23">
-        <v>17185</v>
-      </c>
-      <c r="I9" s="23">
-        <f t="shared" si="3"/>
-        <v>178815</v>
-      </c>
-      <c r="K9" s="46">
-        <f t="shared" si="2"/>
-        <v>685894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="23">
-        <v>12251583453</v>
-      </c>
-      <c r="C11" s="23">
-        <v>699252899</v>
-      </c>
-      <c r="D11" s="23">
-        <f t="shared" si="1"/>
-        <v>12950836352</v>
-      </c>
-      <c r="F11" s="23">
-        <v>2316124913</v>
-      </c>
-      <c r="G11" s="43">
-        <v>3522647266</v>
-      </c>
-      <c r="H11" s="23">
-        <v>871895121</v>
-      </c>
-      <c r="I11" s="23">
-        <f t="shared" si="3"/>
-        <v>6710667300</v>
-      </c>
-      <c r="K11" s="46">
-        <f t="shared" si="2"/>
-        <v>19661503652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="23">
-        <v>12934685803</v>
-      </c>
-      <c r="C12" s="23">
-        <v>738240618</v>
-      </c>
-      <c r="D12" s="23">
-        <f t="shared" si="1"/>
-        <v>13672926421</v>
-      </c>
-      <c r="F12" s="23">
-        <v>2445263353</v>
-      </c>
-      <c r="G12" s="43">
-        <v>3719056868</v>
-      </c>
-      <c r="H12" s="23">
-        <v>920508723</v>
-      </c>
-      <c r="I12" s="23">
-        <f t="shared" si="3"/>
-        <v>7084828944</v>
-      </c>
-      <c r="K12" s="46">
-        <f t="shared" si="2"/>
-        <v>20757755365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="23">
-        <v>132446673597</v>
-      </c>
-      <c r="C15" s="23">
-        <v>5746905539</v>
-      </c>
-      <c r="D15" s="23">
-        <f t="shared" si="1"/>
-        <v>138193579136</v>
-      </c>
-      <c r="F15" s="42">
-        <v>17751712839</v>
-      </c>
-      <c r="G15" s="23">
-        <v>57779361435</v>
-      </c>
-      <c r="H15" s="23">
-        <v>15894543442</v>
-      </c>
-      <c r="I15" s="23">
-        <f t="shared" si="3"/>
-        <v>91425617716</v>
-      </c>
-      <c r="K15" s="46">
-        <f t="shared" ref="K15:K18" si="4">SUM(D15,I15)</f>
-        <v>229619196852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="23">
-        <v>115469058970</v>
-      </c>
-      <c r="C16" s="23">
-        <v>4670036601</v>
-      </c>
-      <c r="D16" s="23">
-        <f t="shared" si="1"/>
-        <v>120139095571</v>
-      </c>
-      <c r="F16" s="42">
-        <v>13590778296</v>
-      </c>
-      <c r="G16" s="23">
-        <v>48792433542</v>
-      </c>
-      <c r="H16" s="23">
-        <v>13383782393</v>
-      </c>
-      <c r="I16" s="23">
-        <f t="shared" si="3"/>
-        <v>75766994231</v>
-      </c>
-      <c r="K16" s="46">
-        <f t="shared" si="4"/>
-        <v>195906089802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="23">
-        <v>80223069956</v>
-      </c>
-      <c r="C17" s="23">
-        <v>3589902866</v>
-      </c>
-      <c r="D17" s="23">
-        <f t="shared" si="1"/>
-        <v>83812972822</v>
-      </c>
-      <c r="F17" s="42">
-        <v>10551342261</v>
-      </c>
-      <c r="G17" s="23">
-        <v>33326594392</v>
-      </c>
-      <c r="H17" s="23">
-        <v>8540511923</v>
-      </c>
-      <c r="I17" s="23">
-        <f t="shared" si="3"/>
-        <v>52418448576</v>
-      </c>
-      <c r="K17" s="46">
-        <f t="shared" si="4"/>
-        <v>136231421398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="23">
-        <v>35245989014</v>
-      </c>
-      <c r="C18" s="23">
-        <v>1080133735</v>
-      </c>
-      <c r="D18" s="23">
-        <f t="shared" si="1"/>
-        <v>36326122749</v>
-      </c>
-      <c r="F18" s="42">
-        <v>3039436035</v>
-      </c>
-      <c r="G18" s="23">
-        <v>15465839150</v>
-      </c>
-      <c r="H18" s="23">
-        <v>4843270470</v>
-      </c>
-      <c r="I18" s="23">
-        <f t="shared" si="3"/>
-        <v>23348545655</v>
-      </c>
-      <c r="K18" s="46">
-        <f t="shared" si="4"/>
-        <v>59674668404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="28">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="C19" s="28">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="D19" s="32">
-        <f>D17/D16</f>
-        <v>0.69763279325228544</v>
-      </c>
-      <c r="F19" s="32">
-        <f>F17/F16</f>
-        <v>0.77636041374506426</v>
-      </c>
-      <c r="G19" s="32">
-        <f>G17/G16</f>
-        <v>0.68302791996043455</v>
-      </c>
-      <c r="H19" s="32">
-        <f>H17/H16</f>
-        <v>0.63812393777911902</v>
-      </c>
-      <c r="I19" s="32">
-        <f>I17/I16</f>
-        <v>0.69183750930102272</v>
-      </c>
-      <c r="K19" s="32">
-        <f>K17/K16</f>
-        <v>0.69539145789540036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="26"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="23">
-        <v>2174670866</v>
-      </c>
-      <c r="C22" s="23">
-        <v>134810119</v>
-      </c>
-      <c r="D22" s="23">
-        <f t="shared" si="1"/>
-        <v>2309480985</v>
-      </c>
-      <c r="F22" s="43">
-        <v>566958761</v>
-      </c>
-      <c r="G22" s="23">
-        <v>1111774860</v>
-      </c>
-      <c r="H22" s="43">
-        <v>274753444</v>
-      </c>
-      <c r="I22" s="23">
-        <f t="shared" si="3"/>
-        <v>1953487065</v>
-      </c>
-      <c r="K22" s="46">
-        <f t="shared" ref="K22:K25" si="5">SUM(D22,I22)</f>
-        <v>4262968050</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="23">
-        <v>893164372</v>
-      </c>
-      <c r="C23" s="23">
-        <v>58830395</v>
-      </c>
-      <c r="D23" s="23">
-        <f t="shared" si="1"/>
-        <v>951994767</v>
-      </c>
-      <c r="F23" s="43">
-        <v>256385863</v>
-      </c>
-      <c r="G23" s="23">
-        <v>426055155</v>
-      </c>
-      <c r="H23" s="43">
-        <v>96865133</v>
-      </c>
-      <c r="I23" s="23">
-        <f t="shared" si="3"/>
-        <v>779306151</v>
-      </c>
-      <c r="K23" s="46">
-        <f t="shared" si="5"/>
-        <v>1731300918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="23">
-        <v>1281506494</v>
-      </c>
-      <c r="C24" s="23">
-        <v>75979724</v>
-      </c>
-      <c r="D24" s="23">
-        <f t="shared" si="1"/>
-        <v>1357486218</v>
-      </c>
-      <c r="F24" s="43">
-        <v>310572898</v>
-      </c>
-      <c r="G24" s="23">
-        <v>685719705</v>
-      </c>
-      <c r="H24" s="43">
-        <v>177888311</v>
-      </c>
-      <c r="I24" s="23">
-        <f t="shared" si="3"/>
-        <v>1174180914</v>
-      </c>
-      <c r="K24" s="46">
-        <f t="shared" si="5"/>
-        <v>2531667132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="23">
-        <v>2725165218</v>
-      </c>
-      <c r="C25" s="23">
-        <v>77744321</v>
-      </c>
-      <c r="D25" s="23">
-        <f t="shared" si="1"/>
-        <v>2802909539</v>
-      </c>
-      <c r="F25" s="43">
-        <v>215802566</v>
-      </c>
-      <c r="G25" s="23">
-        <v>1069586142</v>
-      </c>
-      <c r="H25" s="43">
-        <v>354215017</v>
-      </c>
-      <c r="I25" s="23">
-        <f t="shared" si="3"/>
-        <v>1639603725</v>
-      </c>
-      <c r="K25" s="46">
-        <f t="shared" si="5"/>
-        <v>4442513264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
-      <c r="A26" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="23">
-        <f>B24+B25</f>
-        <v>4006671712</v>
-      </c>
-      <c r="C26" s="23">
-        <f t="shared" ref="C26:K26" si="6">C24+C25</f>
-        <v>153724045</v>
-      </c>
-      <c r="D26" s="23">
-        <f t="shared" si="6"/>
-        <v>4160395757</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23">
-        <f t="shared" si="6"/>
-        <v>526375464</v>
-      </c>
-      <c r="G26" s="23">
-        <f t="shared" si="6"/>
-        <v>1755305847</v>
-      </c>
-      <c r="H26" s="23">
-        <f t="shared" si="6"/>
-        <v>532103328</v>
-      </c>
-      <c r="I26" s="23">
-        <f t="shared" si="6"/>
-        <v>2813784639</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23">
-        <f t="shared" si="6"/>
-        <v>6974180396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="25.5">
-      <c r="A28" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="30">
-        <v>0.16813</v>
-      </c>
-      <c r="C29" s="33">
-        <v>0.18260999999999999</v>
-      </c>
-      <c r="D29" s="32">
-        <f>D22/$D$12</f>
-        <v>0.16890904798938361</v>
-      </c>
-      <c r="F29" s="44">
-        <v>0.23186000000000001</v>
-      </c>
-      <c r="G29" s="44">
-        <v>0.29893999999999998</v>
-      </c>
-      <c r="H29" s="44">
-        <v>0.29848000000000002</v>
-      </c>
-      <c r="I29" s="32">
-        <f>I22/$I$12</f>
-        <v>0.27572819053794789</v>
-      </c>
-      <c r="K29" s="32">
-        <f>K22/$K$12</f>
-        <v>0.20536748675571453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="30">
-        <v>6.905E-2</v>
-      </c>
-      <c r="C30" s="33">
-        <v>7.9689999999999997E-2</v>
-      </c>
-      <c r="D30" s="32">
-        <f t="shared" ref="D30:D32" si="7">D23/$D$12</f>
-        <v>6.9626262709777217E-2</v>
-      </c>
-      <c r="F30" s="44">
-        <v>0.10485</v>
-      </c>
-      <c r="G30" s="44">
-        <v>0.11456</v>
-      </c>
-      <c r="H30" s="44">
-        <v>0.10523</v>
-      </c>
-      <c r="I30" s="32">
-        <f t="shared" ref="I30:I32" si="8">I23/$I$12</f>
-        <v>0.10999646669803917</v>
-      </c>
-      <c r="K30" s="32">
-        <f t="shared" ref="K30:K32" si="9">K23/$K$12</f>
-        <v>8.3405015983528522E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="30">
-        <v>9.9080000000000001E-2</v>
-      </c>
-      <c r="C31" s="33">
-        <v>0.10292</v>
-      </c>
-      <c r="D31" s="32">
-        <f t="shared" si="7"/>
-        <v>9.9282785279606378E-2</v>
-      </c>
-      <c r="F31" s="44">
-        <v>0.12701000000000001</v>
-      </c>
-      <c r="G31" s="44">
-        <v>0.18437999999999999</v>
-      </c>
-      <c r="H31" s="44">
-        <v>0.19325000000000001</v>
-      </c>
-      <c r="I31" s="32">
-        <f t="shared" si="8"/>
-        <v>0.1657317238399087</v>
-      </c>
-      <c r="K31" s="32">
-        <f t="shared" si="9"/>
-        <v>0.12196247077218601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="30">
-        <v>0.21068999999999999</v>
-      </c>
-      <c r="C32" s="33">
-        <v>0.10531</v>
-      </c>
-      <c r="D32" s="32">
-        <f t="shared" si="7"/>
-        <v>0.20499704691565238</v>
-      </c>
-      <c r="F32" s="44">
-        <v>8.8249999999999995E-2</v>
-      </c>
-      <c r="G32" s="44">
-        <v>0.28760000000000002</v>
-      </c>
-      <c r="H32" s="44">
-        <v>0.38479999999999998</v>
-      </c>
-      <c r="I32" s="32">
-        <f t="shared" si="8"/>
-        <v>0.23142460290287567</v>
-      </c>
-      <c r="K32" s="32">
-        <f t="shared" si="9"/>
-        <v>0.21401703536262867</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="31">
-        <v>0.30976999999999999</v>
-      </c>
-      <c r="C33" s="33">
-        <v>0.20823</v>
-      </c>
-      <c r="D33" s="32">
-        <f>SUM(D24:D25)/D12</f>
-        <v>0.30427983219525878</v>
-      </c>
-      <c r="F33" s="45">
-        <v>0.21526000000000001</v>
-      </c>
-      <c r="G33" s="45">
-        <v>0.47198000000000001</v>
-      </c>
-      <c r="H33" s="45">
-        <v>0.57811000000000001</v>
-      </c>
-      <c r="I33" s="32">
-        <f>SUM(I24:I25)/$I$12</f>
-        <v>0.39715632674278439</v>
-      </c>
-      <c r="K33" s="32">
-        <f>SUM(K24:K25)/$K$12</f>
-        <v>0.3359795061348147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="25.5">
-      <c r="A35" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="32">
-        <f>B22/B$11</f>
-        <v>0.17750120825953289</v>
-      </c>
-      <c r="C36" s="32">
-        <f>C22/C$11</f>
-        <v>0.19279164833323059</v>
-      </c>
-      <c r="D36" s="32">
-        <f>D22/D$11</f>
-        <v>0.1783267830917612</v>
-      </c>
-      <c r="F36" s="32">
-        <f>F22/F$11</f>
-        <v>0.24478764414551246</v>
-      </c>
-      <c r="G36" s="32">
-        <f>G22/G$11</f>
-        <v>0.31560777337278823</v>
-      </c>
-      <c r="H36" s="32">
-        <f>H22/H$11</f>
-        <v>0.31512212579521937</v>
-      </c>
-      <c r="I36" s="32">
-        <f>I22/I$11</f>
-        <v>0.29110176047618991</v>
-      </c>
-      <c r="K36" s="32">
-        <f>K22/K$11</f>
-        <v>0.21681800768917101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="32">
-        <f t="shared" ref="B37:C39" si="10">B23/B$11</f>
-        <v>7.2901953892441071E-2</v>
-      </c>
-      <c r="C37" s="32">
-        <f t="shared" si="10"/>
-        <v>8.4133215728005153E-2</v>
-      </c>
-      <c r="D37" s="32">
-        <f t="shared" ref="D37:F37" si="11">D23/D$11</f>
-        <v>7.3508362018101112E-2</v>
-      </c>
-      <c r="F37" s="32">
-        <f t="shared" si="11"/>
-        <v>0.110696043016053</v>
-      </c>
-      <c r="G37" s="32">
-        <f t="shared" ref="G37:H37" si="12">G23/G$11</f>
-        <v>0.12094743606951874</v>
-      </c>
-      <c r="H37" s="32">
-        <f t="shared" si="12"/>
-        <v>0.11109723023670871</v>
-      </c>
-      <c r="I37" s="32">
-        <f t="shared" ref="I37:K37" si="13">I23/I$11</f>
-        <v>0.11612945720018038</v>
-      </c>
-      <c r="K37" s="32">
-        <f t="shared" si="13"/>
-        <v>8.8055366905973612E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="32">
-        <f t="shared" si="10"/>
-        <v>0.1045992543670918</v>
-      </c>
-      <c r="C38" s="32">
-        <f t="shared" si="10"/>
-        <v>0.10865843260522542</v>
-      </c>
-      <c r="D38" s="32">
-        <f t="shared" ref="D38:F38" si="14">D24/D$11</f>
-        <v>0.10481842107366009</v>
-      </c>
-      <c r="F38" s="32">
-        <f t="shared" si="14"/>
-        <v>0.13409160112945948</v>
-      </c>
-      <c r="G38" s="32">
-        <f t="shared" ref="G38:H38" si="15">G24/G$11</f>
-        <v>0.19466033730326945</v>
-      </c>
-      <c r="H38" s="32">
-        <f t="shared" si="15"/>
-        <v>0.20402489555851064</v>
-      </c>
-      <c r="I38" s="32">
-        <f t="shared" ref="I38:K38" si="16">I24/I$11</f>
-        <v>0.17497230327600952</v>
-      </c>
-      <c r="K38" s="32">
-        <f t="shared" si="16"/>
-        <v>0.12876264078319741</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="32">
-        <f t="shared" si="10"/>
-        <v>0.222433714666711</v>
-      </c>
-      <c r="C39" s="32">
-        <f t="shared" si="10"/>
-        <v>0.11118197881078788</v>
-      </c>
-      <c r="D39" s="32">
-        <f t="shared" ref="D39:F39" si="17">D25/D$11</f>
-        <v>0.21642691350718413</v>
-      </c>
-      <c r="F39" s="32">
-        <f t="shared" si="17"/>
-        <v>9.3173975543692972E-2</v>
-      </c>
-      <c r="G39" s="32">
-        <f t="shared" ref="G39:H39" si="18">G25/G$11</f>
-        <v>0.30363134916273504</v>
-      </c>
-      <c r="H39" s="32">
-        <f t="shared" si="18"/>
-        <v>0.40625874427848757</v>
-      </c>
-      <c r="I39" s="32">
-        <f t="shared" ref="I39:K39" si="19">I25/I$11</f>
-        <v>0.24432797093070013</v>
-      </c>
-      <c r="K39" s="32">
-        <f t="shared" si="19"/>
-        <v>0.22594982269060079</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="32">
-        <f>SUM(B24:B25)/B$11</f>
-        <v>0.3270329690338028</v>
-      </c>
-      <c r="C40" s="32">
-        <f t="shared" ref="C40:D40" si="20">SUM(C24:C25)/C$11</f>
-        <v>0.21984041141601332</v>
-      </c>
-      <c r="D40" s="32">
-        <f t="shared" si="20"/>
-        <v>0.3212453345808442</v>
-      </c>
-      <c r="F40" s="32">
-        <f t="shared" ref="F40:G40" si="21">SUM(F24:F25)/F$11</f>
-        <v>0.22726557667315242</v>
-      </c>
-      <c r="G40" s="32">
-        <f t="shared" si="21"/>
-        <v>0.49829168646600452</v>
-      </c>
-      <c r="H40" s="32">
-        <f t="shared" ref="H40:I40" si="22">SUM(H24:H25)/H$11</f>
-        <v>0.61028363983699829</v>
-      </c>
-      <c r="I40" s="32">
-        <f t="shared" si="22"/>
-        <v>0.41930027420670968</v>
-      </c>
-      <c r="K40" s="32">
-        <f t="shared" ref="K40" si="23">SUM(K24:K25)/K$11</f>
-        <v>0.3547124634737982</v>
+        <v>4.4752435233776497E-3</v>
+      </c>
+      <c r="F19" s="208">
+        <v>753</v>
+      </c>
+      <c r="K19" s="207">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="19.5" customHeight="1">
+      <c r="D20" s="224" t="s">
+        <v>293</v>
+      </c>
+      <c r="E20" s="230">
+        <f t="shared" si="0"/>
+        <v>7.3755341467618375E-3</v>
+      </c>
+      <c r="F20" s="218">
+        <v>1241</v>
+      </c>
+      <c r="K20" s="217">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" ht="19.5" customHeight="1">
+      <c r="D21" s="225" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" s="230">
+        <f t="shared" si="0"/>
+        <v>0.14861612157447746</v>
+      </c>
+      <c r="F21" s="212" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" s="211" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" ht="19.5" customHeight="1">
+      <c r="D22" s="213" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="204" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22" s="203" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" ht="19.5" customHeight="1">
+      <c r="D23" s="219" t="s">
+        <v>310</v>
+      </c>
+      <c r="F23" s="221">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="K23" s="220">
+        <v>0.14660000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="D25" s="222" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BF89FD-D5BB-49DA-939B-C59997755190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7131B1-3C7A-45B9-97C4-F84705F0F886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -228,7 +228,7 @@
     Benefit factor for new services</t>
       </text>
     </comment>
-    <comment ref="L4" authorId="4" shapeId="0" xr:uid="{F5769092-1632-411C-A719-C700B72F16AC}">
+    <comment ref="M4" authorId="4" shapeId="0" xr:uid="{F5769092-1632-411C-A719-C700B72F16AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -236,7 +236,7 @@
     x% reduction of benefit factor</t>
       </text>
     </comment>
-    <comment ref="M4" authorId="5" shapeId="0" xr:uid="{8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}">
+    <comment ref="N4" authorId="5" shapeId="0" xr:uid="{8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="344">
   <si>
     <t>nsim</t>
   </si>
@@ -1788,6 +1788,42 @@
   </si>
   <si>
     <t>"fc.t1","fc.t2"</t>
+  </si>
+  <si>
+    <t>fc_baseline</t>
+  </si>
+  <si>
+    <t>fc_pre99</t>
+  </si>
+  <si>
+    <t>fc_sharedCost</t>
+  </si>
+  <si>
+    <t>fasyears_override_t1</t>
+  </si>
+  <si>
+    <t>fc.t1_baseline</t>
+  </si>
+  <si>
+    <t>fc.t2_baseline</t>
+  </si>
+  <si>
+    <t>fc.t1_pre99_lowERC</t>
+  </si>
+  <si>
+    <t>fc.t2_pre99_lowERC</t>
+  </si>
+  <si>
+    <t>fc.t1_sharedCost</t>
+  </si>
+  <si>
+    <t>fc.t2_sharedCost</t>
+  </si>
+  <si>
+    <t>fc.t1_POB</t>
+  </si>
+  <si>
+    <t>fc.t2_POB</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +2029,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2096,6 +2132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -2179,7 +2221,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2735,6 +2777,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3178,10 +3227,10 @@
   <threadedComment ref="H4" dT="2021-04-24T20:35:22.14" personId="{00000000-0000-0000-0000-000000000000}" id="{EA1AD3E2-701C-4C93-81D1-7AF8E9FF30FB}">
     <text>Benefit factor for new services</text>
   </threadedComment>
-  <threadedComment ref="L4" dT="2020-08-13T20:45:58.44" personId="{00000000-0000-0000-0000-000000000000}" id="{F5769092-1632-411C-A719-C700B72F16AC}">
+  <threadedComment ref="M4" dT="2020-08-13T20:45:58.44" personId="{00000000-0000-0000-0000-000000000000}" id="{F5769092-1632-411C-A719-C700B72F16AC}">
     <text>x% reduction of benefit factor</text>
   </threadedComment>
-  <threadedComment ref="M4" dT="2020-08-13T20:45:58.44" personId="{00000000-0000-0000-0000-000000000000}" id="{8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}">
+  <threadedComment ref="N4" dT="2020-08-13T20:45:58.44" personId="{00000000-0000-0000-0000-000000000000}" id="{8D4FE7EC-8D1A-428C-92B7-BF6B800A9129}">
     <text>x% reduction of benefit factor</text>
   </threadedComment>
 </ThreadedComments>
@@ -3189,13 +3238,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:BF45"/>
+  <dimension ref="A2:BF61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3697,14 +3746,14 @@
         <v>0.11</v>
       </c>
       <c r="N6" s="20">
-        <f t="shared" ref="N6:N45" si="0">3/11</f>
+        <f t="shared" ref="N6:N61" si="0">3/11</f>
         <v>0.27272727272727271</v>
       </c>
       <c r="O6" s="50">
         <v>0.5</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" ref="P6:P45" si="1">1/300</f>
+        <f t="shared" ref="P6:P61" si="1">1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="Q6" s="134">
@@ -4322,7 +4371,7 @@
         <v>277</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>330</v>
@@ -4561,7 +4610,9 @@
       <c r="R15" s="142">
         <v>0.5</v>
       </c>
-      <c r="S15" s="142"/>
+      <c r="S15" s="142">
+        <v>0</v>
+      </c>
       <c r="T15" s="137" t="s">
         <v>129</v>
       </c>
@@ -4719,7 +4770,9 @@
       <c r="R16" s="142">
         <v>0.5</v>
       </c>
-      <c r="S16" s="142"/>
+      <c r="S16" s="142">
+        <v>0</v>
+      </c>
       <c r="T16" s="137" t="s">
         <v>129</v>
       </c>
@@ -4840,26 +4893,169 @@
       <c r="AY17" s="187"/>
       <c r="BF17" s="188"/>
     </row>
-    <row r="18" spans="1:58" s="177" customFormat="1">
-      <c r="C18" s="137"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="190"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="190"/>
-      <c r="S18" s="190"/>
-      <c r="Y18"/>
-      <c r="AP18" s="184"/>
-      <c r="AQ18" s="185"/>
-      <c r="AR18" s="186"/>
-      <c r="AU18" s="180"/>
-      <c r="AV18" s="180"/>
-      <c r="AY18" s="187"/>
-      <c r="BF18" s="188"/>
+    <row r="18" spans="1:58" s="149" customFormat="1">
+      <c r="A18" s="149" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="149" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="149">
+        <v>0.11</v>
+      </c>
+      <c r="N18" s="151">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O18" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="153">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q18" s="154">
+        <v>0</v>
+      </c>
+      <c r="R18" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="S18" s="152">
+        <v>0</v>
+      </c>
+      <c r="T18" s="149" t="s">
+        <v>129</v>
+      </c>
+      <c r="U18" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" s="150">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W18" s="149">
+        <v>0.03</v>
+      </c>
+      <c r="X18" s="149">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD18" s="149" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE18" s="149">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="149">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG18" s="149">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="149">
+        <v>1.2</v>
+      </c>
+      <c r="AI18" s="149">
+        <v>0.8</v>
+      </c>
+      <c r="AJ18" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM18" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN18" s="149">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO18" s="149">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP18" s="155">
+        <v>0.12</v>
+      </c>
+      <c r="AQ18" s="156">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR18" s="157">
+        <v>123</v>
+      </c>
+      <c r="AS18" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT18" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU18" s="158">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV18" s="158">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY18" s="159">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="149">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE18" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF18" s="160" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:58" s="149" customFormat="1">
       <c r="A19" s="149" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C19" s="137" t="b">
         <v>0</v>
@@ -4868,13 +5064,13 @@
         <v>219</v>
       </c>
       <c r="E19" s="149" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F19" s="149" t="b">
         <v>0</v>
       </c>
       <c r="G19" s="149" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H19" s="149" t="b">
         <v>1</v>
@@ -4889,29 +5085,31 @@
         <v>0</v>
       </c>
       <c r="L19" s="149" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M19" s="149">
         <v>0.11</v>
       </c>
-      <c r="N19" s="151">
+      <c r="N19" s="158">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O19" s="152">
+      <c r="O19" s="161">
         <v>0.5</v>
       </c>
-      <c r="P19" s="153">
+      <c r="P19" s="162">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q19" s="154">
-        <v>0</v>
-      </c>
-      <c r="R19" s="152">
+      <c r="Q19" s="163">
         <v>0.5</v>
       </c>
-      <c r="S19" s="152"/>
+      <c r="R19" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="S19" s="161">
+        <v>0</v>
+      </c>
       <c r="T19" s="149" t="s">
         <v>129</v>
       </c>
@@ -4919,10 +5117,10 @@
         <v>0</v>
       </c>
       <c r="V19" s="150">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="W19" s="149">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="X19" s="149">
         <v>0</v>
@@ -4985,10 +5183,10 @@
         <v>31</v>
       </c>
       <c r="AU19" s="158">
-        <v>0.7177631600179436</v>
+        <v>0.97571945376918812</v>
       </c>
       <c r="AV19" s="158">
-        <v>0.74141988775539847</v>
+        <v>0.99507870807939247</v>
       </c>
       <c r="AY19" s="159">
         <v>0</v>
@@ -5016,1892 +5214,2106 @@
       </c>
     </row>
     <row r="20" spans="1:58" s="149" customFormat="1">
-      <c r="A20" s="149" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="149" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="149" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="149" t="s">
+      <c r="C20" s="137"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="155"/>
+      <c r="AQ20" s="156"/>
+      <c r="AR20" s="157"/>
+      <c r="AU20" s="158"/>
+      <c r="AV20" s="158"/>
+      <c r="AY20" s="159"/>
+      <c r="BF20" s="160"/>
+    </row>
+    <row r="21" spans="1:58">
+      <c r="C21" s="137"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="34"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AY21" s="39"/>
+      <c r="BF21" s="19"/>
+    </row>
+    <row r="22" spans="1:58" s="164" customFormat="1">
+      <c r="A22" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="164" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="164" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="164" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="M20" s="149">
+      <c r="M22" s="164">
         <v>0.11</v>
       </c>
-      <c r="N20" s="158">
+      <c r="N22" s="167">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O20" s="161">
+      <c r="O22" s="168">
         <v>0.5</v>
       </c>
-      <c r="P20" s="162">
+      <c r="P22" s="169">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q20" s="163">
+      <c r="Q22" s="170">
+        <v>0</v>
+      </c>
+      <c r="R22" s="168">
         <v>0.5</v>
       </c>
-      <c r="R20" s="161">
-        <v>0.5</v>
-      </c>
-      <c r="S20" s="161"/>
-      <c r="T20" s="149" t="s">
+      <c r="S22" s="168">
+        <v>0</v>
+      </c>
+      <c r="T22" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="U20" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="V20" s="150">
-        <v>0.02</v>
-      </c>
-      <c r="W20" s="149">
-        <v>0.02</v>
-      </c>
-      <c r="X20" s="149">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="149" t="s">
+      <c r="U22" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" s="165">
+        <v>0</v>
+      </c>
+      <c r="W22" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="X22" s="164">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="AD20" s="149" t="s">
+      <c r="AD22" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AE20" s="149">
+      <c r="AE22" s="164">
         <v>15</v>
       </c>
-      <c r="AF20" s="149">
+      <c r="AF22" s="164">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG20" s="149">
+      <c r="AG22" s="164">
         <v>5</v>
       </c>
-      <c r="AH20" s="149">
+      <c r="AH22" s="164">
         <v>1.2</v>
       </c>
-      <c r="AI20" s="149">
+      <c r="AI22" s="164">
         <v>0.8</v>
       </c>
-      <c r="AJ20" s="149" t="s">
+      <c r="AJ22" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="AK20" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="149" t="s">
+      <c r="AK22" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="AM20" s="149" t="s">
+      <c r="AM22" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="AN20" s="149">
+      <c r="AN22" s="164">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO20" s="149">
+      <c r="AO22" s="164">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP20" s="155">
+      <c r="AP22" s="171">
         <v>0.12</v>
       </c>
-      <c r="AQ20" s="156">
+      <c r="AQ22" s="172">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR20" s="157">
+      <c r="AR22" s="173">
         <v>123</v>
       </c>
-      <c r="AS20" s="149" t="s">
+      <c r="AS22" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AT20" s="149" t="s">
+      <c r="AT22" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AU20" s="158">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AV20" s="158">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AY20" s="159">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA20" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB20" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="149">
-        <v>0</v>
-      </c>
-      <c r="BD20" s="149" t="s">
+      <c r="AU22" s="167">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV22" s="167">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY22" s="174">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="164">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="BE20" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF20" s="160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58" s="149" customFormat="1">
-      <c r="C21" s="137"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="152"/>
-      <c r="Y21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="155"/>
-      <c r="AQ21" s="156"/>
-      <c r="AR21" s="157"/>
-      <c r="AU21" s="158"/>
-      <c r="AV21" s="158"/>
-      <c r="AY21" s="159"/>
-      <c r="BF21" s="160"/>
-    </row>
-    <row r="22" spans="1:58">
-      <c r="C22" s="137"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="134"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="34"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AY22" s="39"/>
-      <c r="BF22" s="19"/>
-    </row>
-    <row r="23" spans="1:58">
-      <c r="C23" s="137"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="34"/>
-      <c r="AU23" s="20"/>
-      <c r="AV23" s="20"/>
-      <c r="AY23" s="39"/>
-      <c r="BF23" s="19"/>
-    </row>
-    <row r="24" spans="1:58" s="164" customFormat="1">
-      <c r="A24" s="164" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="164" t="s">
+      <c r="BE22" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" s="164" customFormat="1">
+      <c r="A23" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="164" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="164" t="s">
-        <v>202</v>
-      </c>
-      <c r="H24" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="165" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="166" t="s">
+      <c r="E23" s="164" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="164" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="M24" s="164">
+      <c r="M23" s="164">
         <v>0.11</v>
       </c>
-      <c r="N24" s="167">
+      <c r="N23" s="167">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O24" s="168">
+      <c r="O23" s="168">
         <v>0.5</v>
       </c>
-      <c r="P24" s="169">
+      <c r="P23" s="169">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q24" s="170">
-        <v>0</v>
-      </c>
-      <c r="R24" s="168">
+      <c r="Q23" s="176">
         <v>0.5</v>
       </c>
-      <c r="S24" s="168"/>
-      <c r="T24" s="164" t="s">
+      <c r="R23" s="168">
+        <v>0.5</v>
+      </c>
+      <c r="S23" s="168">
+        <v>0</v>
+      </c>
+      <c r="T23" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="U24" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="V24" s="165">
-        <v>0</v>
-      </c>
-      <c r="W24" s="164">
-        <v>0.03</v>
-      </c>
-      <c r="X24" s="164">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="164" t="s">
+      <c r="U23" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" s="165">
+        <v>0</v>
+      </c>
+      <c r="W23" s="164">
+        <v>0.02</v>
+      </c>
+      <c r="X23" s="164">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="AD24" s="164" t="s">
+      <c r="AD23" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AE24" s="164">
+      <c r="AE23" s="164">
         <v>15</v>
       </c>
-      <c r="AF24" s="164">
+      <c r="AF23" s="164">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG24" s="164">
+      <c r="AG23" s="164">
         <v>5</v>
       </c>
-      <c r="AH24" s="164">
+      <c r="AH23" s="164">
         <v>1.2</v>
       </c>
-      <c r="AI24" s="164">
+      <c r="AI23" s="164">
         <v>0.8</v>
       </c>
-      <c r="AJ24" s="164" t="s">
+      <c r="AJ23" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="AK24" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="164" t="s">
+      <c r="AK23" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="AM24" s="164" t="s">
+      <c r="AM23" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="AN24" s="164">
+      <c r="AN23" s="164">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO24" s="164">
+      <c r="AO23" s="164">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP24" s="171">
+      <c r="AP23" s="171">
         <v>0.12</v>
       </c>
-      <c r="AQ24" s="172">
+      <c r="AQ23" s="172">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR24" s="173">
+      <c r="AR23" s="173">
         <v>123</v>
       </c>
-      <c r="AS24" s="164" t="s">
+      <c r="AS23" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AT24" s="164" t="s">
+      <c r="AT23" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AU24" s="167">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AV24" s="167">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AY24" s="174">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA24" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB24" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="164">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="164" t="s">
+      <c r="AU23" s="167">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV23" s="167">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY23" s="174">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="164">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="BE24" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF24" s="175" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:58" s="164" customFormat="1">
-      <c r="A25" s="164" t="s">
-        <v>261</v>
+      <c r="BE23" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" s="137" customFormat="1">
+      <c r="A25" s="137" t="s">
+        <v>268</v>
       </c>
       <c r="C25" s="137" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="164" t="s">
-        <v>262</v>
-      </c>
-      <c r="E25" s="164" t="s">
-        <v>191</v>
-      </c>
-      <c r="F25" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="164" t="s">
-        <v>204</v>
-      </c>
-      <c r="H25" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="165" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="164" t="b">
-        <v>1</v>
+      <c r="D25" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="137" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="137" t="b">
+        <v>0</v>
       </c>
       <c r="K25" s="137" t="b">
         <v>0</v>
       </c>
-      <c r="L25" s="165" t="s">
-        <v>125</v>
-      </c>
-      <c r="M25" s="164">
+      <c r="L25" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="M25" s="137">
         <v>0.11</v>
       </c>
-      <c r="N25" s="167">
+      <c r="N25" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O25" s="168">
+      <c r="O25" s="142">
         <v>0.5</v>
       </c>
-      <c r="P25" s="169">
+      <c r="P25" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q25" s="176">
+      <c r="Q25" s="144">
+        <v>0</v>
+      </c>
+      <c r="R25" s="142">
         <v>0.5</v>
       </c>
-      <c r="R25" s="168">
-        <v>0.5</v>
-      </c>
-      <c r="S25" s="168"/>
-      <c r="T25" s="164" t="s">
+      <c r="S25" s="142">
+        <v>0</v>
+      </c>
+      <c r="T25" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="U25" s="165" t="b">
-        <v>1</v>
-      </c>
-      <c r="V25" s="165">
-        <v>0</v>
-      </c>
-      <c r="W25" s="164">
-        <v>0.02</v>
-      </c>
-      <c r="X25" s="164">
+      <c r="U25" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="W25" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="X25" s="137">
         <v>0</v>
       </c>
       <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="137">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="AC25" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="AD25" s="164" t="s">
+      <c r="AD25" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="AE25" s="164">
+      <c r="AE25" s="137">
         <v>15</v>
       </c>
-      <c r="AF25" s="164">
+      <c r="AF25" s="137">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG25" s="164">
+      <c r="AG25" s="137">
         <v>5</v>
       </c>
-      <c r="AH25" s="164">
+      <c r="AH25" s="137">
         <v>1.2</v>
       </c>
-      <c r="AI25" s="164">
+      <c r="AI25" s="137">
         <v>0.8</v>
       </c>
-      <c r="AJ25" s="164" t="s">
+      <c r="AJ25" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="AK25" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="164" t="s">
+      <c r="AK25" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="AM25" s="164" t="s">
+      <c r="AM25" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AN25" s="164">
+      <c r="AN25" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO25" s="164">
+      <c r="AO25" s="137">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP25" s="171">
+      <c r="AP25" s="145">
         <v>0.12</v>
       </c>
-      <c r="AQ25" s="172">
+      <c r="AQ25" s="146">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR25" s="173">
+      <c r="AR25" s="147">
         <v>123</v>
       </c>
-      <c r="AS25" s="164" t="s">
+      <c r="AS25" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT25" s="164" t="s">
+      <c r="AT25" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AU25" s="167">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AV25" s="167">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AY25" s="174">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB25" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="164">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="164" t="s">
+      <c r="AU25" s="141">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV25" s="141">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY25" s="138">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="137">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BE25" s="164" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF25" s="175" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:58" s="137" customFormat="1">
-      <c r="A28" s="137" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" s="137" t="s">
+      <c r="BE25" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF25" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" s="137" customFormat="1">
+      <c r="A26" s="137" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="137" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="137" t="s">
-        <v>132</v>
-      </c>
-      <c r="M28" s="137">
+      <c r="E26" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="137" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="137">
         <v>0.11</v>
       </c>
-      <c r="N28" s="141">
+      <c r="N26" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O28" s="142">
+      <c r="O26" s="142">
         <v>0.5</v>
       </c>
-      <c r="P28" s="143">
+      <c r="P26" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q28" s="144">
-        <v>0</v>
-      </c>
-      <c r="R28" s="142">
+      <c r="Q26" s="144">
         <v>0.5</v>
       </c>
-      <c r="S28" s="142"/>
-      <c r="T28" s="137" t="s">
+      <c r="R26" s="142">
+        <v>0.5</v>
+      </c>
+      <c r="S26" s="142">
+        <v>0</v>
+      </c>
+      <c r="T26" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="U28" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="V28" s="137">
+      <c r="U26" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" s="137">
+        <v>0.02</v>
+      </c>
+      <c r="W26" s="137">
+        <v>0.02</v>
+      </c>
+      <c r="X26" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="137">
+        <v>20</v>
+      </c>
+      <c r="AB26" s="137">
         <v>0.03</v>
       </c>
-      <c r="W28" s="137">
-        <v>0.03</v>
-      </c>
-      <c r="X28" s="137">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="137">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="137">
+      <c r="AC26" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD26" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE26" s="137">
+        <v>15</v>
+      </c>
+      <c r="AF26" s="137">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG26" s="137">
+        <v>5</v>
+      </c>
+      <c r="AH26" s="137">
+        <v>1.2</v>
+      </c>
+      <c r="AI26" s="137">
+        <v>0.8</v>
+      </c>
+      <c r="AJ26" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK26" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM26" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AB28" s="137">
-        <v>0.03</v>
-      </c>
-      <c r="AC28" s="137" t="s">
+      <c r="AN26" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO26" s="137">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP26" s="145">
+        <v>0.12</v>
+      </c>
+      <c r="AQ26" s="146">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR26" s="147">
         <v>123</v>
       </c>
-      <c r="AD28" s="137" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE28" s="137">
-        <v>15</v>
-      </c>
-      <c r="AF28" s="137">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AG28" s="137">
-        <v>5</v>
-      </c>
-      <c r="AH28" s="137">
-        <v>1.2</v>
-      </c>
-      <c r="AI28" s="137">
-        <v>0.8</v>
-      </c>
-      <c r="AJ28" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK28" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM28" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN28" s="137">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AO28" s="137">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP28" s="145">
-        <v>0.12</v>
-      </c>
-      <c r="AQ28" s="146">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR28" s="147">
-        <v>123</v>
-      </c>
-      <c r="AS28" s="137" t="s">
+      <c r="AS26" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT28" s="137" t="s">
+      <c r="AT26" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AU28" s="141">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AV28" s="141">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AY28" s="138">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA28" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB28" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="137">
-        <v>0</v>
-      </c>
-      <c r="BD28" s="137" t="s">
+      <c r="AU26" s="141">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV26" s="141">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY26" s="138">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="137">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BE28" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF28" s="148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:58" s="137" customFormat="1">
-      <c r="A29" s="137" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="137" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="137" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="M29" s="137">
+      <c r="BE26" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF26" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58">
+      <c r="N27" s="20"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="34"/>
+      <c r="AU27" s="20"/>
+      <c r="AV27" s="20"/>
+      <c r="AY27" s="39"/>
+      <c r="BF27" s="19"/>
+    </row>
+    <row r="28" spans="1:58">
+      <c r="N28" s="20"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="34"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AY28" s="39"/>
+      <c r="BF28" s="19"/>
+    </row>
+    <row r="29" spans="1:58">
+      <c r="N29" s="20"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="34"/>
+      <c r="AU29" s="20"/>
+      <c r="AV29" s="20"/>
+      <c r="AY29" s="39"/>
+      <c r="BF29" s="19"/>
+    </row>
+    <row r="30" spans="1:58" s="137" customFormat="1">
+      <c r="A30" s="137" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="E30" s="137" t="s">
+        <v>280</v>
+      </c>
+      <c r="F30" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="137" t="s">
+        <v>336</v>
+      </c>
+      <c r="H30" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="137">
         <v>0.11</v>
       </c>
-      <c r="N29" s="141">
+      <c r="N30" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O29" s="142">
+      <c r="O30" s="142">
         <v>0.5</v>
       </c>
-      <c r="P29" s="143">
+      <c r="P30" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q29" s="144">
+      <c r="Q30" s="144">
+        <v>0</v>
+      </c>
+      <c r="R30" s="142">
         <v>0.5</v>
       </c>
-      <c r="R29" s="142">
-        <v>0.5</v>
-      </c>
-      <c r="S29" s="142"/>
-      <c r="T29" s="137" t="s">
+      <c r="S30" s="142">
+        <v>0</v>
+      </c>
+      <c r="T30" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="U29" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="V29" s="137">
-        <v>0.02</v>
-      </c>
-      <c r="W29" s="137">
-        <v>0.02</v>
-      </c>
-      <c r="X29" s="137">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="137">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="137">
+      <c r="U30" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="W30" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="X30" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD30" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE30" s="137">
+        <v>15</v>
+      </c>
+      <c r="AF30" s="137">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG30" s="137">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="137">
+        <v>1.2</v>
+      </c>
+      <c r="AI30" s="137">
+        <v>0.8</v>
+      </c>
+      <c r="AJ30" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK30" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM30" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AB29" s="137">
-        <v>0.03</v>
-      </c>
-      <c r="AC29" s="137" t="s">
+      <c r="AN30" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO30" s="137">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP30" s="145">
+        <v>0.12</v>
+      </c>
+      <c r="AQ30" s="146">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR30" s="147">
         <v>123</v>
       </c>
-      <c r="AD29" s="137" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE29" s="137">
-        <v>15</v>
-      </c>
-      <c r="AF29" s="137">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AG29" s="137">
-        <v>5</v>
-      </c>
-      <c r="AH29" s="137">
-        <v>1.2</v>
-      </c>
-      <c r="AI29" s="137">
-        <v>0.8</v>
-      </c>
-      <c r="AJ29" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK29" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM29" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN29" s="137">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AO29" s="137">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP29" s="145">
-        <v>0.12</v>
-      </c>
-      <c r="AQ29" s="146">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR29" s="147">
-        <v>123</v>
-      </c>
-      <c r="AS29" s="137" t="s">
+      <c r="AS30" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT29" s="137" t="s">
+      <c r="AT30" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AU29" s="141">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AV29" s="141">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AY29" s="138">
-        <v>0</v>
-      </c>
-      <c r="AZ29" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA29" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB29" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="137">
-        <v>0</v>
-      </c>
-      <c r="BD29" s="137" t="s">
+      <c r="AU30" s="141">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV30" s="141">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY30" s="138">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="137">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BE29" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF29" s="148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:58">
-      <c r="N30" s="20"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="34"/>
-      <c r="AU30" s="20"/>
-      <c r="AV30" s="20"/>
-      <c r="AY30" s="39"/>
-      <c r="BF30" s="19"/>
-    </row>
-    <row r="31" spans="1:58">
-      <c r="N31" s="20"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="34"/>
-      <c r="AU31" s="20"/>
-      <c r="AV31" s="20"/>
-      <c r="AY31" s="39"/>
-      <c r="BF31" s="19"/>
-    </row>
-    <row r="32" spans="1:58">
-      <c r="N32" s="20"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="34"/>
-      <c r="AU32" s="20"/>
-      <c r="AV32" s="20"/>
-      <c r="AY32" s="39"/>
-      <c r="BF32" s="19"/>
-    </row>
-    <row r="33" spans="1:58">
-      <c r="N33" s="20"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="34"/>
-      <c r="AU33" s="20"/>
-      <c r="AV33" s="20"/>
-      <c r="AY33" s="39"/>
-      <c r="BF33" s="19"/>
-    </row>
-    <row r="34" spans="1:58">
-      <c r="N34" s="20"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="134"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="34"/>
-      <c r="AU34" s="20"/>
-      <c r="AV34" s="20"/>
-      <c r="AY34" s="39"/>
-      <c r="BF34" s="19"/>
-    </row>
-    <row r="35" spans="1:58" s="149" customFormat="1">
-      <c r="A35" s="149" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="149" t="s">
-        <v>189</v>
-      </c>
-      <c r="F35" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H35" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="M35" s="149">
+      <c r="BE30" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF30" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58" s="137" customFormat="1">
+      <c r="A31" s="137" t="s">
+        <v>337</v>
+      </c>
+      <c r="C31" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="137" t="s">
+        <v>337</v>
+      </c>
+      <c r="H31" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="137" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="137">
         <v>0.11</v>
       </c>
-      <c r="N35" s="151">
+      <c r="N31" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O35" s="152">
+      <c r="O31" s="142">
         <v>0.5</v>
       </c>
-      <c r="P35" s="153">
+      <c r="P31" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q35" s="154">
-        <v>0</v>
-      </c>
-      <c r="R35" s="152">
+      <c r="Q31" s="144">
         <v>0.5</v>
       </c>
-      <c r="S35" s="152"/>
-      <c r="T35" s="149" t="s">
+      <c r="R31" s="142">
+        <v>0.5</v>
+      </c>
+      <c r="S31" s="142">
+        <v>0.5</v>
+      </c>
+      <c r="T31" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="U35" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="V35" s="150">
+      <c r="U31" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" s="137">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="W31" s="137">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="X31" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD31" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE31" s="137">
+        <v>15</v>
+      </c>
+      <c r="AF31" s="137">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="W35" s="149">
-        <v>0.03</v>
-      </c>
-      <c r="X35" s="149">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="149" t="s">
+      <c r="AG31" s="137">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="137">
+        <v>1.2</v>
+      </c>
+      <c r="AI31" s="137">
+        <v>0.8</v>
+      </c>
+      <c r="AJ31" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK31" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM31" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN31" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO31" s="137">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP31" s="145">
+        <v>0.12</v>
+      </c>
+      <c r="AQ31" s="146">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR31" s="147">
         <v>123</v>
       </c>
-      <c r="AD35" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE35" s="149">
-        <v>15</v>
-      </c>
-      <c r="AF35" s="149">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AG35" s="149">
-        <v>5</v>
-      </c>
-      <c r="AH35" s="149">
-        <v>1.2</v>
-      </c>
-      <c r="AI35" s="149">
-        <v>0.8</v>
-      </c>
-      <c r="AJ35" s="149" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK35" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL35" s="149" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM35" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN35" s="149">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AO35" s="149">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP35" s="155">
-        <v>0.12</v>
-      </c>
-      <c r="AQ35" s="156">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR35" s="157">
-        <v>123</v>
-      </c>
-      <c r="AS35" s="149" t="s">
+      <c r="AS31" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AT35" s="149" t="s">
+      <c r="AT31" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AU35" s="158">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AV35" s="158">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AY35" s="159">
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA35" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB35" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="149">
-        <v>0</v>
-      </c>
-      <c r="BD35" s="149" t="s">
+      <c r="AU31" s="141">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV31" s="141">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY31" s="138">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="137">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="BE35" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF35" s="160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:58" s="149" customFormat="1">
-      <c r="A36" s="149" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" s="149" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="149" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="150" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" s="149" t="s">
-        <v>125</v>
-      </c>
-      <c r="M36" s="149">
+      <c r="BE31" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58" s="177" customFormat="1">
+      <c r="N32" s="180"/>
+      <c r="O32" s="190"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="192"/>
+      <c r="R32" s="190"/>
+      <c r="S32" s="190"/>
+      <c r="Y32"/>
+      <c r="AP32" s="184"/>
+      <c r="AQ32" s="185"/>
+      <c r="AR32" s="186"/>
+      <c r="AU32" s="180"/>
+      <c r="AV32" s="180"/>
+      <c r="AY32" s="187"/>
+      <c r="BF32" s="188"/>
+    </row>
+    <row r="33" spans="1:58" s="149" customFormat="1">
+      <c r="A33" s="149" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="E33" s="149" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="149" t="s">
+        <v>336</v>
+      </c>
+      <c r="H33" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="M33" s="149">
         <v>0.11</v>
       </c>
-      <c r="N36" s="158">
+      <c r="N33" s="253">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O36" s="161">
+      <c r="O33" s="152">
         <v>0.5</v>
       </c>
-      <c r="P36" s="162">
+      <c r="P33" s="153">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q36" s="163">
+      <c r="Q33" s="154">
+        <v>0</v>
+      </c>
+      <c r="R33" s="152">
         <v>0.5</v>
       </c>
-      <c r="R36" s="161">
-        <v>0.5</v>
-      </c>
-      <c r="S36" s="161"/>
-      <c r="T36" s="149" t="s">
+      <c r="S33" s="152">
+        <v>0</v>
+      </c>
+      <c r="T33" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="U36" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="V36" s="150">
-        <v>0.02</v>
-      </c>
-      <c r="W36" s="149">
-        <v>0.02</v>
-      </c>
-      <c r="X36" s="149">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="149" t="s">
+      <c r="U33" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" s="150">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="W33" s="149">
+        <v>0.03</v>
+      </c>
+      <c r="X33" s="149">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="AD36" s="149" t="s">
+      <c r="AD33" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AE36" s="149">
+      <c r="AE33" s="149">
         <v>15</v>
       </c>
-      <c r="AF36" s="149">
+      <c r="AF33" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG36" s="149">
+      <c r="AG33" s="149">
         <v>5</v>
       </c>
-      <c r="AH36" s="149">
+      <c r="AH33" s="149">
         <v>1.2</v>
       </c>
-      <c r="AI36" s="149">
+      <c r="AI33" s="149">
         <v>0.8</v>
       </c>
-      <c r="AJ36" s="149" t="s">
+      <c r="AJ33" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AK36" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL36" s="149" t="s">
+      <c r="AK33" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AM36" s="149" t="s">
+      <c r="AM33" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AN36" s="149">
+      <c r="AN33" s="149">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO36" s="149">
+      <c r="AO33" s="149">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP36" s="155">
+      <c r="AP33" s="155">
         <v>0.12</v>
       </c>
-      <c r="AQ36" s="156">
+      <c r="AQ33" s="156">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR36" s="157">
+      <c r="AR33" s="157">
         <v>123</v>
       </c>
-      <c r="AS36" s="149" t="s">
+      <c r="AS33" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT36" s="149" t="s">
+      <c r="AT33" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AU36" s="158">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AV36" s="158">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AY36" s="159">
-        <v>0</v>
-      </c>
-      <c r="AZ36" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA36" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB36" s="149" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="149">
-        <v>0</v>
-      </c>
-      <c r="BD36" s="149" t="s">
+      <c r="AU33" s="158">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV33" s="158">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY33" s="159">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA33" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="149">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BE36" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF36" s="160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:58">
-      <c r="N37" s="20"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="134"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="AP37" s="3"/>
-      <c r="AQ37" s="5"/>
-      <c r="AR37" s="34"/>
-      <c r="AU37" s="20"/>
-      <c r="AV37" s="20"/>
-      <c r="AY37" s="39"/>
-      <c r="BF37" s="19"/>
-    </row>
-    <row r="38" spans="1:58" s="177" customFormat="1">
-      <c r="A38" s="177" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="177" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38" s="177" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="177" t="s">
-        <v>202</v>
-      </c>
-      <c r="H38" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="178" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" s="179" t="s">
+      <c r="BE33" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF33" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" s="149" customFormat="1">
+      <c r="A34" s="149" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="E34" s="149" t="s">
+        <v>282</v>
+      </c>
+      <c r="F34" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="149" t="s">
+        <v>337</v>
+      </c>
+      <c r="H34" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="M38" s="177">
+      <c r="M34" s="149">
         <v>0.11</v>
       </c>
-      <c r="N38" s="180">
+      <c r="N34" s="158">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O38" s="181">
+      <c r="O34" s="250">
         <v>0.5</v>
       </c>
-      <c r="P38" s="182">
+      <c r="P34" s="251">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q38" s="183">
-        <v>0</v>
-      </c>
-      <c r="R38" s="181">
+      <c r="Q34" s="252">
         <v>0.5</v>
       </c>
-      <c r="S38" s="181"/>
-      <c r="T38" s="177" t="s">
+      <c r="R34" s="250">
+        <v>0.5</v>
+      </c>
+      <c r="S34" s="250">
+        <v>0.5</v>
+      </c>
+      <c r="T34" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="U38" s="178" t="b">
-        <v>1</v>
-      </c>
-      <c r="V38" s="178">
-        <v>0</v>
-      </c>
-      <c r="W38" s="177">
-        <v>0.03</v>
-      </c>
-      <c r="X38" s="177">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="177" t="s">
+      <c r="U34" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" s="150">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="W34" s="149">
+        <v>0.02</v>
+      </c>
+      <c r="X34" s="149">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="AD38" s="177" t="s">
+      <c r="AD34" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AE38" s="177">
+      <c r="AE34" s="149">
         <v>15</v>
       </c>
-      <c r="AF38" s="177">
+      <c r="AF34" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG38" s="177">
+      <c r="AG34" s="149">
         <v>5</v>
       </c>
-      <c r="AH38" s="177">
+      <c r="AH34" s="149">
         <v>1.2</v>
       </c>
-      <c r="AI38" s="177">
+      <c r="AI34" s="149">
         <v>0.8</v>
       </c>
-      <c r="AJ38" s="177" t="s">
+      <c r="AJ34" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AK38" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="177" t="s">
+      <c r="AK34" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AM38" s="177" t="s">
+      <c r="AM34" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AN38" s="177">
+      <c r="AN34" s="149">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO38" s="177">
+      <c r="AO34" s="149">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP38" s="184">
+      <c r="AP34" s="155">
         <v>0.12</v>
       </c>
-      <c r="AQ38" s="185">
+      <c r="AQ34" s="156">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR38" s="186">
+      <c r="AR34" s="157">
         <v>123</v>
       </c>
-      <c r="AS38" s="177" t="s">
+      <c r="AS34" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT38" s="177" t="s">
+      <c r="AT34" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AU38" s="180">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AV38" s="180">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AY38" s="187">
-        <v>0</v>
-      </c>
-      <c r="AZ38" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA38" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB38" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC38" s="177">
-        <v>0</v>
-      </c>
-      <c r="BD38" s="177" t="s">
+      <c r="AU34" s="158">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV34" s="158">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY34" s="159">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA34" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB34" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="149">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BE38" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF38" s="188" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:58" s="177" customFormat="1">
-      <c r="A39" s="177" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="177" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="F39" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="177" t="s">
-        <v>204</v>
-      </c>
-      <c r="H39" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="178" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" s="178" t="s">
+      <c r="BE34" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF34" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" s="149" customFormat="1">
+      <c r="C35" s="137"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="153"/>
+      <c r="Q35" s="154"/>
+      <c r="R35" s="152"/>
+      <c r="S35" s="152"/>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="155"/>
+      <c r="AQ35" s="156"/>
+      <c r="AR35" s="157"/>
+      <c r="AU35" s="158"/>
+      <c r="AV35" s="158"/>
+      <c r="AY35" s="159"/>
+      <c r="BF35" s="160"/>
+    </row>
+    <row r="36" spans="1:58">
+      <c r="C36" s="177"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="134"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="34"/>
+      <c r="AU36" s="20"/>
+      <c r="AV36" s="20"/>
+      <c r="AY36" s="39"/>
+      <c r="BF36" s="19"/>
+    </row>
+    <row r="37" spans="1:58" s="164" customFormat="1">
+      <c r="A37" s="164" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="164" t="s">
+        <v>334</v>
+      </c>
+      <c r="E37" s="164" t="s">
+        <v>280</v>
+      </c>
+      <c r="F37" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="164" t="s">
+        <v>336</v>
+      </c>
+      <c r="H37" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="M39" s="177">
+      <c r="M37" s="164">
         <v>0.11</v>
       </c>
-      <c r="N39" s="180">
+      <c r="N37" s="167">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O39" s="181">
+      <c r="O37" s="168">
         <v>0.5</v>
       </c>
-      <c r="P39" s="182">
+      <c r="P37" s="169">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q39" s="189">
+      <c r="Q37" s="170">
+        <v>0</v>
+      </c>
+      <c r="R37" s="168">
         <v>0.5</v>
       </c>
-      <c r="R39" s="181">
+      <c r="S37" s="168">
         <v>0.5</v>
       </c>
-      <c r="S39" s="181"/>
-      <c r="T39" s="177" t="s">
+      <c r="T37" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="U39" s="178" t="b">
-        <v>1</v>
-      </c>
-      <c r="V39" s="178">
-        <v>0</v>
-      </c>
-      <c r="W39" s="177">
-        <v>0.02</v>
-      </c>
-      <c r="X39" s="177">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="177" t="s">
+      <c r="U37" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" s="165">
+        <v>0</v>
+      </c>
+      <c r="W37" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="X37" s="164">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="AD39" s="177" t="s">
+      <c r="AD37" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AE39" s="177">
+      <c r="AE37" s="164">
         <v>15</v>
       </c>
-      <c r="AF39" s="177">
+      <c r="AF37" s="164">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG39" s="177">
+      <c r="AG37" s="164">
         <v>5</v>
       </c>
-      <c r="AH39" s="177">
+      <c r="AH37" s="164">
         <v>1.2</v>
       </c>
-      <c r="AI39" s="177">
+      <c r="AI37" s="164">
         <v>0.8</v>
       </c>
-      <c r="AJ39" s="177" t="s">
+      <c r="AJ37" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="AK39" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL39" s="177" t="s">
+      <c r="AK37" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="AM39" s="177" t="s">
+      <c r="AM37" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="AN39" s="177">
+      <c r="AN37" s="164">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO39" s="177">
+      <c r="AO37" s="164">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP39" s="184">
+      <c r="AP37" s="171">
         <v>0.12</v>
       </c>
-      <c r="AQ39" s="185">
+      <c r="AQ37" s="172">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR39" s="186">
+      <c r="AR37" s="173">
         <v>123</v>
       </c>
-      <c r="AS39" s="177" t="s">
+      <c r="AS37" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AT39" s="177" t="s">
+      <c r="AT37" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AU39" s="180">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AV39" s="180">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AY39" s="187">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA39" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB39" s="177" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC39" s="177">
-        <v>0</v>
-      </c>
-      <c r="BD39" s="177" t="s">
+      <c r="AU37" s="167">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV37" s="167">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY37" s="174">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB37" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="164">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="BE39" s="177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF39" s="188" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:58">
-      <c r="N40" s="20"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="134"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="AP40" s="3"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="34"/>
-      <c r="AU40" s="20"/>
-      <c r="AV40" s="20"/>
-      <c r="AY40" s="39"/>
-      <c r="BF40" s="19"/>
-    </row>
-    <row r="41" spans="1:58">
-      <c r="A41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>202</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>131</v>
-      </c>
-      <c r="M41">
+      <c r="BE37" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF37" s="175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58" s="164" customFormat="1">
+      <c r="A38" s="164" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="164" t="s">
+        <v>334</v>
+      </c>
+      <c r="E38" s="164" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="164" t="s">
+        <v>337</v>
+      </c>
+      <c r="H38" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="165" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="164">
         <v>0.11</v>
       </c>
-      <c r="N41" s="20">
+      <c r="N38" s="167">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O41" s="50">
+      <c r="O38" s="168">
         <v>0.5</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P38" s="169">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q41" s="134">
-        <v>0</v>
-      </c>
-      <c r="R41" s="50">
+      <c r="Q38" s="176">
         <v>0.5</v>
       </c>
-      <c r="S41" s="50"/>
-      <c r="T41" t="s">
+      <c r="R38" s="168">
+        <v>0.5</v>
+      </c>
+      <c r="S38" s="168">
+        <v>0.5</v>
+      </c>
+      <c r="T38" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0.03</v>
-      </c>
-      <c r="W41">
-        <v>0.03</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="s">
+      <c r="U38" s="165" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" s="165">
+        <v>0</v>
+      </c>
+      <c r="W38" s="164">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="X38" s="164">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AD38" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AE41">
+      <c r="AE38" s="164">
         <v>15</v>
       </c>
-      <c r="AF41">
+      <c r="AF38" s="164">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG41">
+      <c r="AG38" s="164">
         <v>5</v>
       </c>
-      <c r="AH41">
+      <c r="AH38" s="164">
         <v>1.2</v>
       </c>
-      <c r="AI41">
+      <c r="AI38" s="164">
         <v>0.8</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AJ38" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="AK41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL41" t="s">
+      <c r="AK38" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="AM41" t="s">
+      <c r="AM38" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="AN41">
+      <c r="AN38" s="164">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO41">
+      <c r="AO38" s="164">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP41" s="3">
+      <c r="AP38" s="171">
         <v>0.12</v>
       </c>
-      <c r="AQ41" s="5">
+      <c r="AQ38" s="172">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR41" s="34">
+      <c r="AR38" s="173">
         <v>123</v>
       </c>
-      <c r="AS41" t="s">
+      <c r="AS38" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AT41" t="s">
+      <c r="AT38" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="AU41" s="20">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AV41" s="20">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AY41" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-      <c r="BD41" t="s">
+      <c r="AU38" s="167">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV38" s="167">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY38" s="174">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA38" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB38" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="164">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="BE41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF41" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:58">
-      <c r="A42" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" t="s">
-        <v>191</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>204</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>131</v>
-      </c>
-      <c r="M42">
+      <c r="BE38" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF38" s="175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58" s="137" customFormat="1">
+      <c r="A40" s="137" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="E40" s="137" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="137" t="s">
+        <v>336</v>
+      </c>
+      <c r="H40" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="M40" s="137">
         <v>0.11</v>
       </c>
-      <c r="N42" s="20">
+      <c r="N40" s="141">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O42" s="50">
+      <c r="O40" s="142">
         <v>0.5</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P40" s="143">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q42" s="134">
+      <c r="Q40" s="144">
+        <v>0</v>
+      </c>
+      <c r="R40" s="142">
         <v>0.5</v>
       </c>
-      <c r="R42" s="50">
+      <c r="S40" s="142">
+        <v>0</v>
+      </c>
+      <c r="T40" s="137" t="s">
+        <v>129</v>
+      </c>
+      <c r="U40" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="W40" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="X40" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="137">
+        <v>20</v>
+      </c>
+      <c r="AB40" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="AC40" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD40" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE40" s="137">
+        <v>15</v>
+      </c>
+      <c r="AF40" s="137">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG40" s="137">
+        <v>5</v>
+      </c>
+      <c r="AH40" s="137">
+        <v>1.2</v>
+      </c>
+      <c r="AI40" s="137">
+        <v>0.8</v>
+      </c>
+      <c r="AJ40" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK40" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM40" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN40" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO40" s="137">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP40" s="145">
+        <v>0.12</v>
+      </c>
+      <c r="AQ40" s="146">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR40" s="147">
+        <v>123</v>
+      </c>
+      <c r="AS40" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT40" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU40" s="141">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV40" s="141">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY40" s="138">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA40" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB40" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="137">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE40" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF40" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58" s="137" customFormat="1">
+      <c r="A41" s="137" t="s">
+        <v>343</v>
+      </c>
+      <c r="C41" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="137" t="s">
+        <v>337</v>
+      </c>
+      <c r="H41" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="137" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" s="137">
+        <v>0.11</v>
+      </c>
+      <c r="N41" s="141">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O41" s="142">
         <v>0.5</v>
       </c>
+      <c r="P41" s="143">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q41" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="R41" s="142">
+        <v>0.5</v>
+      </c>
+      <c r="S41" s="142">
+        <v>0.5</v>
+      </c>
+      <c r="T41" s="137" t="s">
+        <v>129</v>
+      </c>
+      <c r="U41" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" s="137">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="W41" s="137">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="X41" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="137">
+        <v>20</v>
+      </c>
+      <c r="AB41" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="AC41" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD41" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE41" s="137">
+        <v>15</v>
+      </c>
+      <c r="AF41" s="137">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG41" s="137">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="137">
+        <v>1.2</v>
+      </c>
+      <c r="AI41" s="137">
+        <v>0.8</v>
+      </c>
+      <c r="AJ41" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK41" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM41" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN41" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO41" s="137">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP41" s="145">
+        <v>0.12</v>
+      </c>
+      <c r="AQ41" s="146">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR41" s="147">
+        <v>123</v>
+      </c>
+      <c r="AS41" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT41" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU41" s="141">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV41" s="141">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY41" s="138">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB41" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="137">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE41" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF41" s="148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58">
+      <c r="N42" s="20"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="50"/>
       <c r="S42" s="50"/>
-      <c r="T42" t="s">
-        <v>129</v>
-      </c>
-      <c r="U42" t="b">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0.02</v>
-      </c>
-      <c r="W42">
-        <v>0.02</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE42">
-        <v>15</v>
-      </c>
-      <c r="AF42">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AG42">
-        <v>5</v>
-      </c>
-      <c r="AH42">
-        <v>1.2</v>
-      </c>
-      <c r="AI42">
-        <v>0.8</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN42">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AO42">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP42" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ42" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR42" s="34">
-        <v>123</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU42" s="20">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AV42" s="20">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AY42" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC42">
-        <v>0</v>
-      </c>
-      <c r="BD42" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF42" s="19" t="b">
-        <v>1</v>
-      </c>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="34"/>
+      <c r="AU42" s="20"/>
+      <c r="AV42" s="20"/>
+      <c r="AY42" s="39"/>
+      <c r="BF42" s="19"/>
     </row>
     <row r="43" spans="1:58">
       <c r="N43" s="20"/>
@@ -6919,319 +7331,1393 @@
       <c r="BF43" s="19"/>
     </row>
     <row r="44" spans="1:58">
-      <c r="A44" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="N44" s="20"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="34"/>
+      <c r="AU44" s="20"/>
+      <c r="AV44" s="20"/>
+      <c r="AY44" s="39"/>
+      <c r="BF44" s="19"/>
+    </row>
+    <row r="45" spans="1:58">
+      <c r="N45" s="20"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="134"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="34"/>
+      <c r="AU45" s="20"/>
+      <c r="AV45" s="20"/>
+      <c r="AY45" s="39"/>
+      <c r="BF45" s="19"/>
+    </row>
+    <row r="46" spans="1:58">
+      <c r="N46" s="20"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="134"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="34"/>
+      <c r="AU46" s="20"/>
+      <c r="AV46" s="20"/>
+      <c r="AY46" s="39"/>
+      <c r="BF46" s="19"/>
+    </row>
+    <row r="47" spans="1:58">
+      <c r="N47" s="20"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="134"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="34"/>
+      <c r="AU47" s="20"/>
+      <c r="AV47" s="20"/>
+      <c r="AY47" s="39"/>
+      <c r="BF47" s="19"/>
+    </row>
+    <row r="48" spans="1:58">
+      <c r="N48" s="20"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="134"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="34"/>
+      <c r="AU48" s="20"/>
+      <c r="AV48" s="20"/>
+      <c r="AY48" s="39"/>
+      <c r="BF48" s="19"/>
+    </row>
+    <row r="49" spans="1:58">
+      <c r="N49" s="20"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="134"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="34"/>
+      <c r="AU49" s="20"/>
+      <c r="AV49" s="20"/>
+      <c r="AY49" s="39"/>
+      <c r="BF49" s="19"/>
+    </row>
+    <row r="50" spans="1:58">
+      <c r="N50" s="20"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="134"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="34"/>
+      <c r="AU50" s="20"/>
+      <c r="AV50" s="20"/>
+      <c r="AY50" s="39"/>
+      <c r="BF50" s="19"/>
+    </row>
+    <row r="51" spans="1:58" s="149" customFormat="1">
+      <c r="A51" s="149" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F51" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="H44" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>131</v>
-      </c>
-      <c r="M44">
+      <c r="H51" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="M51" s="149">
         <v>0.11</v>
       </c>
-      <c r="N44" s="20">
+      <c r="N51" s="151">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O44" s="50">
+      <c r="O51" s="152">
         <v>0.5</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P51" s="153">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q44" s="134">
-        <v>0</v>
-      </c>
-      <c r="R44" s="50">
+      <c r="Q51" s="154">
+        <v>0</v>
+      </c>
+      <c r="R51" s="152">
         <v>0.5</v>
       </c>
-      <c r="S44" s="50"/>
-      <c r="T44" t="s">
+      <c r="S51" s="152"/>
+      <c r="T51" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
-      </c>
-      <c r="V44">
+      <c r="U51" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" s="150">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W51" s="149">
         <v>0.03</v>
       </c>
-      <c r="W44">
-        <v>0.03</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="s">
+      <c r="X51" s="149">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AD51" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AE44">
+      <c r="AE51" s="149">
         <v>15</v>
       </c>
-      <c r="AF44">
+      <c r="AF51" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG44">
+      <c r="AG51" s="149">
         <v>5</v>
       </c>
-      <c r="AH44">
+      <c r="AH51" s="149">
         <v>1.2</v>
       </c>
-      <c r="AI44">
+      <c r="AI51" s="149">
         <v>0.8</v>
       </c>
-      <c r="AJ44" t="s">
+      <c r="AJ51" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AK44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL44" t="s">
+      <c r="AK51" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AM44" t="s">
+      <c r="AM51" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AN44">
+      <c r="AN51" s="149">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO44">
+      <c r="AO51" s="149">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP44" s="3">
+      <c r="AP51" s="155">
         <v>0.12</v>
       </c>
-      <c r="AQ44" s="5">
+      <c r="AQ51" s="156">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR44" s="34">
+      <c r="AR51" s="157">
         <v>123</v>
       </c>
-      <c r="AS44" t="s">
+      <c r="AS51" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT44" t="s">
+      <c r="AT51" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AU44" s="20">
+      <c r="AU51" s="158">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AV44" s="20">
+      <c r="AV51" s="158">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AY44" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA44" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC44">
-        <v>0</v>
-      </c>
-      <c r="BD44" t="s">
+      <c r="AY51" s="159">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB51" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="149">
+        <v>0</v>
+      </c>
+      <c r="BD51" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BE44" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF44" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:58">
-      <c r="A45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>199</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="BE51" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF51" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58" s="149" customFormat="1">
+      <c r="A52" s="149" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F52" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="H45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>131</v>
-      </c>
-      <c r="M45">
+      <c r="H52" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="M52" s="149">
         <v>0.11</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N52" s="158">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O45" s="50">
+      <c r="O52" s="161">
         <v>0.5</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P52" s="162">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q45" s="134">
+      <c r="Q52" s="163">
         <v>0.5</v>
       </c>
-      <c r="R45" s="50">
+      <c r="R52" s="161">
         <v>0.5</v>
       </c>
-      <c r="S45" s="50"/>
-      <c r="T45" t="s">
+      <c r="S52" s="161"/>
+      <c r="T52" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
-      </c>
-      <c r="V45">
+      <c r="U52" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" s="150">
         <v>0.02</v>
       </c>
-      <c r="W45">
+      <c r="W52" s="149">
         <v>0.02</v>
       </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="s">
+      <c r="X52" s="149">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AD52" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AE45">
+      <c r="AE52" s="149">
         <v>15</v>
       </c>
-      <c r="AF45">
+      <c r="AF52" s="149">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG45">
+      <c r="AG52" s="149">
         <v>5</v>
       </c>
-      <c r="AH45">
+      <c r="AH52" s="149">
         <v>1.2</v>
       </c>
-      <c r="AI45">
+      <c r="AI52" s="149">
         <v>0.8</v>
       </c>
-      <c r="AJ45" t="s">
+      <c r="AJ52" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="AK45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL45" t="s">
+      <c r="AK52" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL52" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AM45" t="s">
+      <c r="AM52" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="AN45">
+      <c r="AN52" s="149">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO45">
+      <c r="AO52" s="149">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP45" s="3">
+      <c r="AP52" s="155">
         <v>0.12</v>
       </c>
-      <c r="AQ45" s="5">
+      <c r="AQ52" s="156">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR45" s="34">
+      <c r="AR52" s="157">
         <v>123</v>
       </c>
-      <c r="AS45" t="s">
+      <c r="AS52" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT45" t="s">
+      <c r="AT52" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AU45" s="20">
+      <c r="AU52" s="158">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AV45" s="20">
+      <c r="AV52" s="158">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AY45" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA45" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC45">
-        <v>0</v>
-      </c>
-      <c r="BD45" t="s">
+      <c r="AY52" s="159">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA52" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB52" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC52" s="149">
+        <v>0</v>
+      </c>
+      <c r="BD52" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BE45" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF45" s="19" t="b">
+      <c r="BE52" s="149" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF52" s="160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58">
+      <c r="N53" s="20"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="134"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="50"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="34"/>
+      <c r="AU53" s="20"/>
+      <c r="AV53" s="20"/>
+      <c r="AY53" s="39"/>
+      <c r="BF53" s="19"/>
+    </row>
+    <row r="54" spans="1:58" s="177" customFormat="1">
+      <c r="A54" s="177" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="177" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="177" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" s="179" t="s">
+        <v>125</v>
+      </c>
+      <c r="M54" s="177">
+        <v>0.11</v>
+      </c>
+      <c r="N54" s="180">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O54" s="181">
+        <v>0.5</v>
+      </c>
+      <c r="P54" s="182">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q54" s="183">
+        <v>0</v>
+      </c>
+      <c r="R54" s="181">
+        <v>0.5</v>
+      </c>
+      <c r="S54" s="181"/>
+      <c r="T54" s="177" t="s">
+        <v>129</v>
+      </c>
+      <c r="U54" s="178" t="b">
+        <v>1</v>
+      </c>
+      <c r="V54" s="178">
+        <v>0</v>
+      </c>
+      <c r="W54" s="177">
+        <v>0.03</v>
+      </c>
+      <c r="X54" s="177">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="177" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD54" s="177" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE54" s="177">
+        <v>15</v>
+      </c>
+      <c r="AF54" s="177">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG54" s="177">
+        <v>5</v>
+      </c>
+      <c r="AH54" s="177">
+        <v>1.2</v>
+      </c>
+      <c r="AI54" s="177">
+        <v>0.8</v>
+      </c>
+      <c r="AJ54" s="177" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK54" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL54" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM54" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN54" s="177">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO54" s="177">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP54" s="184">
+        <v>0.12</v>
+      </c>
+      <c r="AQ54" s="185">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR54" s="186">
+        <v>123</v>
+      </c>
+      <c r="AS54" s="177" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT54" s="177" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU54" s="180">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV54" s="180">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY54" s="187">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA54" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB54" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC54" s="177">
+        <v>0</v>
+      </c>
+      <c r="BD54" s="177" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE54" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF54" s="188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58" s="177" customFormat="1">
+      <c r="A55" s="177" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="177" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="177" t="s">
+        <v>191</v>
+      </c>
+      <c r="F55" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="177" t="s">
+        <v>204</v>
+      </c>
+      <c r="H55" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="M55" s="177">
+        <v>0.11</v>
+      </c>
+      <c r="N55" s="180">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O55" s="181">
+        <v>0.5</v>
+      </c>
+      <c r="P55" s="182">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q55" s="189">
+        <v>0.5</v>
+      </c>
+      <c r="R55" s="181">
+        <v>0.5</v>
+      </c>
+      <c r="S55" s="181"/>
+      <c r="T55" s="177" t="s">
+        <v>129</v>
+      </c>
+      <c r="U55" s="178" t="b">
+        <v>1</v>
+      </c>
+      <c r="V55" s="178">
+        <v>0</v>
+      </c>
+      <c r="W55" s="177">
+        <v>0.02</v>
+      </c>
+      <c r="X55" s="177">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="177" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD55" s="177" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE55" s="177">
+        <v>15</v>
+      </c>
+      <c r="AF55" s="177">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG55" s="177">
+        <v>5</v>
+      </c>
+      <c r="AH55" s="177">
+        <v>1.2</v>
+      </c>
+      <c r="AI55" s="177">
+        <v>0.8</v>
+      </c>
+      <c r="AJ55" s="177" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK55" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM55" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN55" s="177">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO55" s="177">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP55" s="184">
+        <v>0.12</v>
+      </c>
+      <c r="AQ55" s="185">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR55" s="186">
+        <v>123</v>
+      </c>
+      <c r="AS55" s="177" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT55" s="177" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU55" s="180">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV55" s="180">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY55" s="187">
+        <v>0</v>
+      </c>
+      <c r="AZ55" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA55" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB55" s="177" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC55" s="177">
+        <v>0</v>
+      </c>
+      <c r="BD55" s="177" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE55" s="177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF55" s="188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58">
+      <c r="N56" s="20"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="134"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="AP56" s="3"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="34"/>
+      <c r="AU56" s="20"/>
+      <c r="AV56" s="20"/>
+      <c r="AY56" s="39"/>
+      <c r="BF56" s="19"/>
+    </row>
+    <row r="57" spans="1:58">
+      <c r="A57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" t="s">
+        <v>189</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>202</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>131</v>
+      </c>
+      <c r="M57">
+        <v>0.11</v>
+      </c>
+      <c r="N57" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O57" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q57" s="134">
+        <v>0</v>
+      </c>
+      <c r="R57" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S57" s="50"/>
+      <c r="T57" t="s">
+        <v>129</v>
+      </c>
+      <c r="U57" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0.03</v>
+      </c>
+      <c r="W57">
+        <v>0.03</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE57">
+        <v>15</v>
+      </c>
+      <c r="AF57">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG57">
+        <v>5</v>
+      </c>
+      <c r="AH57">
+        <v>1.2</v>
+      </c>
+      <c r="AI57">
+        <v>0.8</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN57">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO57">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP57" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ57" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR57" s="34">
+        <v>123</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU57" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV57" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY57" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA57" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB57" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE57" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF57" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58">
+      <c r="A58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>204</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>131</v>
+      </c>
+      <c r="M58">
+        <v>0.11</v>
+      </c>
+      <c r="N58" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O58" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q58" s="134">
+        <v>0.5</v>
+      </c>
+      <c r="R58" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S58" s="50"/>
+      <c r="T58" t="s">
+        <v>129</v>
+      </c>
+      <c r="U58" t="b">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0.02</v>
+      </c>
+      <c r="W58">
+        <v>0.02</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE58">
+        <v>15</v>
+      </c>
+      <c r="AF58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG58">
+        <v>5</v>
+      </c>
+      <c r="AH58">
+        <v>1.2</v>
+      </c>
+      <c r="AI58">
+        <v>0.8</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN58">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO58">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP58" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ58" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR58" s="34">
+        <v>123</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU58" s="20">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV58" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY58" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA58" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB58" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE58" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF58" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58">
+      <c r="N59" s="20"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="134"/>
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="34"/>
+      <c r="AU59" s="20"/>
+      <c r="AV59" s="20"/>
+      <c r="AY59" s="39"/>
+      <c r="BF59" s="19"/>
+    </row>
+    <row r="60" spans="1:58">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>202</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>131</v>
+      </c>
+      <c r="M60">
+        <v>0.11</v>
+      </c>
+      <c r="N60" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O60" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q60" s="134">
+        <v>0</v>
+      </c>
+      <c r="R60" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S60" s="50"/>
+      <c r="T60" t="s">
+        <v>129</v>
+      </c>
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>0.03</v>
+      </c>
+      <c r="W60">
+        <v>0.03</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE60">
+        <v>15</v>
+      </c>
+      <c r="AF60">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG60">
+        <v>5</v>
+      </c>
+      <c r="AH60">
+        <v>1.2</v>
+      </c>
+      <c r="AI60">
+        <v>0.8</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN60">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO60">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP60" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ60" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR60" s="34">
+        <v>123</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU60" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV60" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY60" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ60" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA60" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB60" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>0</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE60" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF60" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>204</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>131</v>
+      </c>
+      <c r="M61">
+        <v>0.11</v>
+      </c>
+      <c r="N61" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O61" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q61" s="134">
+        <v>0.5</v>
+      </c>
+      <c r="R61" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S61" s="50"/>
+      <c r="T61" t="s">
+        <v>129</v>
+      </c>
+      <c r="U61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>0.02</v>
+      </c>
+      <c r="W61">
+        <v>0.02</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE61">
+        <v>15</v>
+      </c>
+      <c r="AF61">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG61">
+        <v>5</v>
+      </c>
+      <c r="AH61">
+        <v>1.2</v>
+      </c>
+      <c r="AI61">
+        <v>0.8</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN61">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO61">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP61" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ61" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR61" s="34">
+        <v>123</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU61" s="20">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV61" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY61" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ61" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA61" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB61" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>0</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE61" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF61" s="19" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA28:BB45 C28:C45 C5:C25 BA5:BB25" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:C61 BA5:BB23 C5:C23 C25:C38 BA25:BB38 BA40:BB61" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL28:AL45 AL5:AL25" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL5:AL23 AL25:AL38 AL40:AL61" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L28:L45 L5:L25" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L23 L25:L38 L40:L61" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
       <formula1>"fixedRate, sharedNC, sharedADC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8464,13 +9950,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
-  <dimension ref="A3:AH31"/>
+  <dimension ref="A3:AI43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8482,26 +9968,27 @@
     <col min="5" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
-    <col min="17" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="24" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="25" max="25" width="16.28515625" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" customWidth="1"/>
-    <col min="28" max="33" width="11.7109375" customWidth="1"/>
-    <col min="34" max="34" width="10" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="18" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" customWidth="1"/>
+    <col min="29" max="34" width="11.7109375" customWidth="1"/>
+    <col min="35" max="35" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:34" s="18" customFormat="1" ht="18.75">
+    <row r="3" spans="1:35" s="18" customFormat="1" ht="18.75">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -8514,40 +10001,41 @@
         <v>236</v>
       </c>
       <c r="I3" s="35"/>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="M3" s="35"/>
       <c r="N3" s="35"/>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="15"/>
+      <c r="T3" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="16"/>
+      <c r="W3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="W3" s="12"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="1:35" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -8576,82 +10064,85 @@
         <v>231</v>
       </c>
       <c r="J4" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="120" t="s">
+      <c r="L4" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="M4" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="M4" s="120" t="s">
+      <c r="N4" s="120" t="s">
         <v>194</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="O4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="T4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Z4" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AB4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -8661,74 +10152,74 @@
       <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
       <c r="M5">
         <v>0.5</v>
       </c>
       <c r="N5">
+        <v>0.5</v>
+      </c>
+      <c r="O5">
         <v>2021</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>61</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="39">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="39">
         <v>0.11</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>1.05</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1.4</v>
-      </c>
-      <c r="Z5">
-        <v>0.8</v>
       </c>
       <c r="AA5">
         <v>0.8</v>
       </c>
       <c r="AB5">
+        <v>0.8</v>
+      </c>
+      <c r="AC5">
         <v>20</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>64</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>20</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>100</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>40</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>65</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -8738,41 +10229,38 @@
       <c r="E6" t="s">
         <v>186</v>
       </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
       <c r="M6">
         <v>0.5</v>
       </c>
       <c r="N6">
+        <v>0.5</v>
+      </c>
+      <c r="O6">
         <v>2021</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>61</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.1</v>
       </c>
-      <c r="R6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6">
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="39">
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="39">
         <v>0.11</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
+      <c r="W6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -8783,8 +10271,11 @@
       <c r="AA6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AB6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -8794,41 +10285,38 @@
       <c r="E7" t="s">
         <v>190</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>2021</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>61</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="39">
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="39">
         <v>0.11</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
+      <c r="W7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -8839,8 +10327,11 @@
       <c r="AA7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AB7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -8850,41 +10341,38 @@
       <c r="E8" t="s">
         <v>190</v>
       </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
       <c r="M8">
         <v>0.5</v>
       </c>
       <c r="N8">
+        <v>0.5</v>
+      </c>
+      <c r="O8">
         <v>2021</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>61</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="39">
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="39">
         <v>0.11</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
+      <c r="W8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -8895,11 +10383,14 @@
       <c r="AA8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="U9" s="39"/>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="AB8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="V9" s="39"/>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
         <v>276</v>
       </c>
@@ -8912,74 +10403,74 @@
       <c r="F10" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="L10" s="137">
-        <v>0</v>
-      </c>
       <c r="M10" s="137">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="137">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>2021</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>61</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.03</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="T10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" s="39">
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" s="39">
         <v>0.11</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>1.05</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1.4</v>
-      </c>
-      <c r="Z10">
-        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>0.8</v>
       </c>
       <c r="AB10">
+        <v>0.8</v>
+      </c>
+      <c r="AC10">
         <v>20</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>69</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>20</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>100</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>50</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>70</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -8992,41 +10483,38 @@
       <c r="F11" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="L11" s="137">
-        <v>0</v>
-      </c>
       <c r="M11" s="137">
         <v>0</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="137">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>2021</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>61</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.03</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.1</v>
       </c>
-      <c r="R11" t="b">
-        <v>1</v>
-      </c>
-      <c r="S11">
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="T11" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11" s="39">
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" s="39">
         <v>0.11</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
+      <c r="W11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -9038,33 +10526,36 @@
         <v>1</v>
       </c>
       <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
         <v>20</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>69</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>20</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>100</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>50</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>70</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12" t="s">
         <v>330</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="137" t="s">
         <v>331</v>
@@ -9072,41 +10563,38 @@
       <c r="F12" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="137">
-        <v>0</v>
-      </c>
       <c r="M12" s="137">
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="137">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>2021</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>61</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.03</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.1</v>
       </c>
-      <c r="R12" t="b">
-        <v>1</v>
-      </c>
-      <c r="S12">
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="T12" t="b">
-        <v>0</v>
-      </c>
-      <c r="U12" s="39">
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" s="39">
         <v>0.11</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
+      <c r="W12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -9118,42 +10606,45 @@
         <v>1</v>
       </c>
       <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
         <v>20</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>69</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>20</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>100</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>50</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>70</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="U13" s="39"/>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="U14" s="39"/>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="U15" s="39"/>
-    </row>
-    <row r="16" spans="1:34" s="137" customFormat="1">
+    <row r="13" spans="1:35">
+      <c r="V13" s="39"/>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="V14" s="39"/>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="V15" s="39"/>
+    </row>
+    <row r="16" spans="1:35" s="137" customFormat="1">
       <c r="A16" s="137" t="s">
         <v>197</v>
       </c>
       <c r="C16" s="137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="137" t="s">
         <v>190</v>
@@ -9161,41 +10652,38 @@
       <c r="F16" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="L16" s="137">
-        <v>0</v>
-      </c>
       <c r="M16" s="137">
         <v>0</v>
       </c>
       <c r="N16" s="137">
+        <v>0</v>
+      </c>
+      <c r="O16" s="137">
         <v>2021</v>
       </c>
-      <c r="O16" s="137" t="s">
+      <c r="P16" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="137">
+      <c r="Q16" s="137">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q16" s="137">
-        <v>0</v>
-      </c>
-      <c r="R16" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16" s="137">
+      <c r="R16" s="137">
+        <v>0</v>
+      </c>
+      <c r="S16" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T16" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="U16" s="138">
+      <c r="U16" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="138">
         <v>0.11</v>
       </c>
-      <c r="V16" s="137">
-        <v>0</v>
-      </c>
-      <c r="X16" s="137">
-        <v>1</v>
+      <c r="W16" s="137">
+        <v>0</v>
       </c>
       <c r="Y16" s="137">
         <v>1</v>
@@ -9206,465 +10694,723 @@
       <c r="AA16" s="137">
         <v>1</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="137">
+        <v>1</v>
+      </c>
+      <c r="AC16">
         <v>20</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>64</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>20</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>100</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>40</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>65</v>
       </c>
-      <c r="AH16" s="137">
+      <c r="AI16" s="137">
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="137" customFormat="1">
-      <c r="U17" s="138"/>
-      <c r="AB17">
+    <row r="17" spans="1:35">
+      <c r="V17" s="39"/>
+    </row>
+    <row r="18" spans="1:35" s="137" customFormat="1">
+      <c r="A18" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="137" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="139" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="139">
+        <v>2021</v>
+      </c>
+      <c r="H18" s="139">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I18" s="139">
+        <v>0.75</v>
+      </c>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L18" s="139">
+        <v>0.02</v>
+      </c>
+      <c r="M18" s="137">
+        <v>0</v>
+      </c>
+      <c r="N18" s="137">
+        <v>0</v>
+      </c>
+      <c r="O18" s="137">
+        <v>2021</v>
+      </c>
+      <c r="P18" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="137">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="R18" s="137">
+        <v>0</v>
+      </c>
+      <c r="S18" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="U18" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" s="138">
+        <v>0.11</v>
+      </c>
+      <c r="W18" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="137">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="137">
+        <v>1</v>
+      </c>
+      <c r="AC18">
         <v>20</v>
       </c>
-      <c r="AC17">
+      <c r="AD18">
         <v>64</v>
       </c>
-      <c r="AD17">
+      <c r="AE18">
         <v>20</v>
       </c>
-      <c r="AE17">
+      <c r="AF18">
         <v>100</v>
       </c>
-      <c r="AF17">
+      <c r="AG18">
         <v>40</v>
       </c>
-      <c r="AG17">
+      <c r="AH18">
         <v>65</v>
       </c>
-      <c r="AH17" s="137">
+      <c r="AI18" s="137">
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="137" customFormat="1">
-      <c r="U18" s="138"/>
-      <c r="AB18">
+    <row r="19" spans="1:35" s="137" customFormat="1">
+      <c r="A19" s="137" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="137" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="139" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="140">
+        <v>2021</v>
+      </c>
+      <c r="K19" s="193">
+        <v>0.03</v>
+      </c>
+      <c r="L19" s="193">
+        <v>0.02</v>
+      </c>
+      <c r="M19" s="137">
+        <v>0</v>
+      </c>
+      <c r="N19" s="137">
+        <v>0</v>
+      </c>
+      <c r="O19" s="137">
+        <v>2021</v>
+      </c>
+      <c r="P19" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="137">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="R19" s="137">
+        <v>0</v>
+      </c>
+      <c r="S19" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="U19" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" s="138">
+        <v>0.11</v>
+      </c>
+      <c r="W19" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="137">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="137">
+        <v>1</v>
+      </c>
+      <c r="AC19">
         <v>20</v>
       </c>
-      <c r="AC18">
+      <c r="AD19">
         <v>64</v>
       </c>
-      <c r="AD18">
+      <c r="AE19">
         <v>20</v>
       </c>
-      <c r="AE18">
+      <c r="AF19">
         <v>100</v>
       </c>
-      <c r="AF18">
+      <c r="AG19">
         <v>40</v>
       </c>
-      <c r="AG18">
+      <c r="AH19">
         <v>65</v>
       </c>
-      <c r="AH18" s="137">
+      <c r="AI19" s="137">
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
-      <c r="U19" s="39"/>
-    </row>
-    <row r="20" spans="1:34" s="137" customFormat="1">
-      <c r="A20" s="137" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="137" t="s">
+    <row r="20" spans="1:35" s="137" customFormat="1">
+      <c r="F20" s="139"/>
+      <c r="G20" s="140"/>
+      <c r="K20" s="193"/>
+      <c r="L20" s="193"/>
+      <c r="V20" s="138"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="V21" s="39"/>
+    </row>
+    <row r="22" spans="1:35" s="247" customFormat="1">
+      <c r="A22" s="247" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="247" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="247" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" s="247" t="s">
+        <v>229</v>
+      </c>
+      <c r="M22" s="247">
+        <v>0</v>
+      </c>
+      <c r="N22" s="247">
+        <v>0</v>
+      </c>
+      <c r="O22" s="247">
+        <v>2021</v>
+      </c>
+      <c r="P22" s="247" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="247">
+        <v>0.03</v>
+      </c>
+      <c r="R22" s="247">
+        <v>0</v>
+      </c>
+      <c r="S22" s="247" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" s="247">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="U22" s="247" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" s="248">
+        <v>0.11</v>
+      </c>
+      <c r="W22" s="247">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="247">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="247">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="247">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="247">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="247">
+        <v>20</v>
+      </c>
+      <c r="AD22" s="247">
+        <v>69</v>
+      </c>
+      <c r="AE22" s="247">
+        <v>20</v>
+      </c>
+      <c r="AF22" s="247">
+        <v>100</v>
+      </c>
+      <c r="AG22" s="247">
+        <v>50</v>
+      </c>
+      <c r="AH22" s="247">
+        <v>70</v>
+      </c>
+      <c r="AI22" s="247">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="V23" s="39"/>
+    </row>
+    <row r="24" spans="1:35" s="247" customFormat="1">
+      <c r="A24" s="247" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="247" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="247" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" s="139" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="139">
+        <v>2021</v>
+      </c>
+      <c r="J24" s="247">
+        <v>3</v>
+      </c>
+      <c r="K24" s="249">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="L24" s="249"/>
+      <c r="M24" s="247">
+        <v>0</v>
+      </c>
+      <c r="N24" s="247">
+        <v>0</v>
+      </c>
+      <c r="O24" s="247">
+        <v>2021</v>
+      </c>
+      <c r="P24" s="247" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="247">
+        <v>0.03</v>
+      </c>
+      <c r="R24" s="247">
+        <v>0.1</v>
+      </c>
+      <c r="S24" s="247" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" s="247">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="U24" s="247" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" s="248">
+        <v>0.11</v>
+      </c>
+      <c r="W24" s="247">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="247">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="247">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="247">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="247">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="247">
+        <v>20</v>
+      </c>
+      <c r="AD24" s="247">
+        <v>69</v>
+      </c>
+      <c r="AE24" s="247">
+        <v>20</v>
+      </c>
+      <c r="AF24" s="247">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="247">
+        <v>50</v>
+      </c>
+      <c r="AH24" s="247">
+        <v>70</v>
+      </c>
+      <c r="AI24" s="247">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" s="247" customFormat="1">
+      <c r="A25" s="247" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" s="247" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="247" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25" s="139" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="140">
+        <v>2021</v>
+      </c>
+      <c r="K25" s="247">
+        <v>0.03</v>
+      </c>
+      <c r="L25" s="247">
+        <v>0.02</v>
+      </c>
+      <c r="M25" s="247">
+        <v>0</v>
+      </c>
+      <c r="N25" s="247">
+        <v>0</v>
+      </c>
+      <c r="O25" s="247">
+        <v>2021</v>
+      </c>
+      <c r="P25" s="247" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="247">
+        <v>0.03</v>
+      </c>
+      <c r="R25" s="247">
+        <v>0.1</v>
+      </c>
+      <c r="S25" s="247" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="247">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="U25" s="247" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" s="248">
+        <v>0.11</v>
+      </c>
+      <c r="W25" s="247">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="247">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="247">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="247">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="247">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="247">
+        <v>20</v>
+      </c>
+      <c r="AD25" s="247">
+        <v>69</v>
+      </c>
+      <c r="AE25" s="247">
+        <v>20</v>
+      </c>
+      <c r="AF25" s="247">
+        <v>100</v>
+      </c>
+      <c r="AG25" s="247">
+        <v>50</v>
+      </c>
+      <c r="AH25" s="247">
+        <v>70</v>
+      </c>
+      <c r="AI25" s="247">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="V26" s="39"/>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="V27" s="39"/>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="V28" s="39"/>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="V29" s="39"/>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="V30" s="39"/>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="V31" s="39"/>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="V32" s="39"/>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="V33" s="39"/>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="V34" s="39"/>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="V35" s="39"/>
+    </row>
+    <row r="36" spans="1:35" s="137" customFormat="1">
+      <c r="A36" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="139" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="139">
+      <c r="F36" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="137">
         <v>2021</v>
       </c>
-      <c r="H20" s="139">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I20" s="139">
-        <v>0.75</v>
-      </c>
-      <c r="J20" s="139">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K20" s="139">
+      <c r="M36" s="137">
+        <v>0.5</v>
+      </c>
+      <c r="N36" s="137">
+        <v>0.5</v>
+      </c>
+      <c r="O36" s="137">
+        <v>2021</v>
+      </c>
+      <c r="P36" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q36" s="137">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="R36" s="137">
+        <v>0</v>
+      </c>
+      <c r="S36" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" s="137">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="U36" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" s="138">
+        <v>0.11</v>
+      </c>
+      <c r="W36" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="137">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="137">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>20</v>
+      </c>
+      <c r="AD36">
+        <v>64</v>
+      </c>
+      <c r="AE36">
+        <v>20</v>
+      </c>
+      <c r="AF36">
+        <v>100</v>
+      </c>
+      <c r="AG36">
+        <v>40</v>
+      </c>
+      <c r="AH36">
+        <v>65</v>
+      </c>
+      <c r="AI36" s="137">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" s="137" customFormat="1">
+      <c r="A37" s="137" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="137" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" s="137">
+        <v>2021</v>
+      </c>
+      <c r="K37" s="137">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L37" s="137">
         <v>0.02</v>
       </c>
-      <c r="L20" s="137">
-        <v>0</v>
-      </c>
-      <c r="M20" s="137">
-        <v>0</v>
-      </c>
-      <c r="N20" s="137">
+      <c r="M37" s="137">
+        <v>0</v>
+      </c>
+      <c r="N37" s="137">
+        <v>0</v>
+      </c>
+      <c r="O37" s="137">
         <v>2021</v>
       </c>
-      <c r="O20" s="137" t="s">
+      <c r="P37" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="137">
+      <c r="Q37" s="137">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q20" s="137">
-        <v>0</v>
-      </c>
-      <c r="R20" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="S20" s="137">
+      <c r="R37" s="137">
+        <v>0</v>
+      </c>
+      <c r="S37" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" s="137">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="T20" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" s="138">
+      <c r="U37" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" s="138">
         <v>0.11</v>
       </c>
-      <c r="V20" s="137">
-        <v>0</v>
-      </c>
-      <c r="X20" s="137">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="137">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="137">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="137">
-        <v>1</v>
-      </c>
-      <c r="AB20">
+      <c r="W37" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="137">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="137">
+        <v>1</v>
+      </c>
+      <c r="AC37">
         <v>20</v>
       </c>
-      <c r="AC20">
+      <c r="AD37">
         <v>64</v>
       </c>
-      <c r="AD20">
+      <c r="AE37">
         <v>20</v>
       </c>
-      <c r="AE20">
+      <c r="AF37">
         <v>100</v>
       </c>
-      <c r="AF20">
+      <c r="AG37">
         <v>40</v>
       </c>
-      <c r="AG20">
+      <c r="AH37">
         <v>65</v>
       </c>
-      <c r="AH20" s="137">
+      <c r="AI37" s="137">
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="137" customFormat="1">
-      <c r="A21" s="137" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="137" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="139" t="s">
-        <v>263</v>
-      </c>
-      <c r="G21" s="140">
-        <v>2021</v>
-      </c>
-      <c r="J21" s="193">
-        <v>0.03</v>
-      </c>
-      <c r="K21" s="193">
-        <v>0.02</v>
-      </c>
-      <c r="L21" s="137">
-        <v>0</v>
-      </c>
-      <c r="M21" s="137">
-        <v>0</v>
-      </c>
-      <c r="N21" s="137">
-        <v>2021</v>
-      </c>
-      <c r="O21" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="137">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="Q21" s="137">
-        <v>0</v>
-      </c>
-      <c r="R21" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="S21" s="137">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="T21" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" s="138">
-        <v>0.11</v>
-      </c>
-      <c r="V21" s="137">
-        <v>0</v>
-      </c>
-      <c r="X21" s="137">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="137">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="137">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="137">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <v>20</v>
-      </c>
-      <c r="AC21">
-        <v>64</v>
-      </c>
-      <c r="AD21">
-        <v>20</v>
-      </c>
-      <c r="AE21">
-        <v>100</v>
-      </c>
-      <c r="AF21">
-        <v>40</v>
-      </c>
-      <c r="AG21">
-        <v>65</v>
-      </c>
-      <c r="AH21" s="137">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="U22" s="39"/>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="U23" s="39"/>
-    </row>
-    <row r="24" spans="1:34" s="137" customFormat="1">
-      <c r="A24" s="137" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="137" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="137" t="s">
-        <v>229</v>
-      </c>
-      <c r="G24" s="137">
-        <v>2021</v>
-      </c>
-      <c r="L24" s="137">
-        <v>0.5</v>
-      </c>
-      <c r="M24" s="137">
-        <v>0.5</v>
-      </c>
-      <c r="N24" s="137">
-        <v>2021</v>
-      </c>
-      <c r="O24" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" s="137">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="Q24" s="137">
-        <v>0</v>
-      </c>
-      <c r="R24" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="S24" s="137">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="T24" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="U24" s="138">
-        <v>0.11</v>
-      </c>
-      <c r="V24" s="137">
-        <v>0</v>
-      </c>
-      <c r="X24" s="137">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="137">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="137">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="137">
-        <v>1</v>
-      </c>
-      <c r="AB24">
-        <v>20</v>
-      </c>
-      <c r="AC24">
-        <v>64</v>
-      </c>
-      <c r="AD24">
-        <v>20</v>
-      </c>
-      <c r="AE24">
-        <v>100</v>
-      </c>
-      <c r="AF24">
-        <v>40</v>
-      </c>
-      <c r="AG24">
-        <v>65</v>
-      </c>
-      <c r="AH24" s="137">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" s="137" customFormat="1">
-      <c r="A25" s="137" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="137" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="137" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="137">
-        <v>2021</v>
-      </c>
-      <c r="J25" s="137">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K25" s="137">
-        <v>0.02</v>
-      </c>
-      <c r="L25" s="137">
-        <v>0</v>
-      </c>
-      <c r="M25" s="137">
-        <v>0</v>
-      </c>
-      <c r="N25" s="137">
-        <v>2021</v>
-      </c>
-      <c r="O25" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" s="137">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="Q25" s="137">
-        <v>0</v>
-      </c>
-      <c r="R25" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="S25" s="137">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="T25" s="137" t="b">
-        <v>0</v>
-      </c>
-      <c r="U25" s="138">
-        <v>0.11</v>
-      </c>
-      <c r="V25" s="137">
-        <v>0</v>
-      </c>
-      <c r="X25" s="137">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="137">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="137">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="137">
-        <v>1</v>
-      </c>
-      <c r="AB25">
-        <v>20</v>
-      </c>
-      <c r="AC25">
-        <v>64</v>
-      </c>
-      <c r="AD25">
-        <v>20</v>
-      </c>
-      <c r="AE25">
-        <v>100</v>
-      </c>
-      <c r="AF25">
-        <v>40</v>
-      </c>
-      <c r="AG25">
-        <v>65</v>
-      </c>
-      <c r="AH25" s="137">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="U26" s="39"/>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="U27" s="39"/>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="U28" s="39"/>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="U29" s="39"/>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="U30" s="39"/>
-    </row>
-    <row r="31" spans="1:34">
-      <c r="U31" s="39"/>
+    <row r="38" spans="1:35">
+      <c r="V38" s="39"/>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="V39" s="39"/>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="V40" s="39"/>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="V41" s="39"/>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="V42" s="39"/>
+    </row>
+    <row r="43" spans="1:35">
+      <c r="V43" s="39"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C31" xr:uid="{CE4DB086-8939-4E0F-A217-D1528E507A37}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C43" xr:uid="{CE4DB086-8939-4E0F-A217-D1528E507A37}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D31" xr:uid="{B6635BCF-58EB-45FF-9851-3E5464D67D97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D43" xr:uid="{B6635BCF-58EB-45FF-9851-3E5464D67D97}">
       <formula1>"singleTier,multiTier"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9679,7 +11425,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9726,10 +11472,10 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -9763,7 +11509,7 @@
   <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10109,7 +11855,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10409,7 +12155,7 @@
         <v>0.12</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E13" s="196">
         <f t="shared" ref="E13" si="7">F13</f>
@@ -11523,7 +13269,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BC3537-BE2D-405C-B879-6B9534829A42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABEFD64-0D0F-4A53-8678-54D886C16288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="316">
   <si>
     <t>nsim</t>
   </si>
@@ -580,6 +580,7 @@
         <b/>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Actua ria I L</t>
     </r>
@@ -587,6 +588,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">iability </t>
     </r>
@@ -594,6 +596,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Fire</t>
     </r>
@@ -603,6 +606,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Police</t>
     </r>
@@ -613,6 +617,7 @@
         <b/>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Tier 1
 </t>
@@ -621,6 +626,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Actives</t>
     </r>
@@ -630,6 +636,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Retirement</t>
     </r>
@@ -639,6 +646,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Termination</t>
     </r>
@@ -648,6 +656,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Death</t>
     </r>
@@ -657,6 +666,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Disability</t>
     </r>
@@ -666,6 +676,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Total Actives</t>
     </r>
@@ -675,6 +686,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Deferred Vested</t>
     </r>
@@ -684,6 +696,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>In Pay Status</t>
     </r>
@@ -693,6 +706,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Service Retirees</t>
     </r>
@@ -702,6 +716,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Beneficiaries</t>
     </r>
@@ -711,6 +726,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Disabled Retirees</t>
     </r>
@@ -720,6 +736,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Total In Pay Status</t>
     </r>
@@ -730,6 +747,7 @@
         <b/>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Tier 1 Actuarial Liability</t>
     </r>
@@ -739,6 +757,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>COLA</t>
     </r>
@@ -749,6 +768,7 @@
         <b/>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Tier 2</t>
     </r>
@@ -758,6 +778,7 @@
       <rPr>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Actives</t>
     </r>
@@ -768,6 +789,7 @@
         <b/>
         <sz val="9.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Tier 2 Actuarial Liability</t>
     </r>
@@ -1746,7 +1768,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1754,11 +1776,13 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="174" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1825,15 +1849,18 @@
       <b/>
       <sz val="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9.5"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1911,6 +1938,14 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -2087,7 +2122,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2362,7 +2397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2374,7 +2409,7 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2392,7 +2427,7 @@
     <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2409,14 +2444,14 @@
     </xf>
     <xf numFmtId="2" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="16" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="16" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="18" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="18" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2430,14 +2465,14 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="16" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2451,25 +2486,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2614,8 +2643,20 @@
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2731,15 +2772,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>543820</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>143868</xdr:rowOff>
+      <xdr:colOff>600970</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>29568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2762,7 +2803,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="2933700"/>
+          <a:off x="933450" y="3200400"/>
           <a:ext cx="6411220" cy="7116168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3253,11 +3294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
   <dimension ref="A2:BF61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AP11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="AD8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AW45" sqref="AW45"/>
+      <selection pane="bottomRight" activeCell="AP44" sqref="AP44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,7 +3410,9 @@
         <v>44</v>
       </c>
       <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
+      <c r="AN3" s="239" t="s">
+        <v>73</v>
+      </c>
       <c r="AO3" s="16"/>
       <c r="AP3" s="16"/>
       <c r="AQ3" s="16"/>
@@ -3511,7 +3554,7 @@
       <c r="AM4" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="AN4" s="105" t="s">
+      <c r="AN4" s="238" t="s">
         <v>6</v>
       </c>
       <c r="AO4" s="105" t="s">
@@ -4461,7 +4504,7 @@
         <v>35</v>
       </c>
       <c r="AE12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AF12">
         <v>2.75E-2</v>
@@ -4574,7 +4617,7 @@
         <v>172</v>
       </c>
       <c r="C15" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="119" t="s">
         <v>167</v>
@@ -4675,10 +4718,10 @@
         <v>77</v>
       </c>
       <c r="AM15" s="119" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN15" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO15" s="119">
         <v>7.7200000000000005E-2</v>
@@ -4699,10 +4742,10 @@
         <v>31</v>
       </c>
       <c r="AU15" s="123">
-        <v>0.7177631600179436</v>
+        <v>0.70430136543757105</v>
       </c>
       <c r="AV15" s="123">
-        <v>0.74141988775539847</v>
+        <v>0.73294108984424244</v>
       </c>
       <c r="AY15" s="120">
         <v>0</v>
@@ -4734,7 +4777,7 @@
         <v>174</v>
       </c>
       <c r="C16" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="119" t="s">
         <v>167</v>
@@ -4835,10 +4878,10 @@
         <v>77</v>
       </c>
       <c r="AM16" s="119" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN16" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO16" s="119">
         <v>7.7200000000000005E-2</v>
@@ -4859,10 +4902,10 @@
         <v>31</v>
       </c>
       <c r="AU16" s="123">
-        <v>0.97571945376918812</v>
+        <v>1.0159071729957805</v>
       </c>
       <c r="AV16" s="123">
-        <v>0.99507870807939247</v>
+        <v>1.0442616033755274</v>
       </c>
       <c r="AY16" s="120">
         <v>0</v>
@@ -4911,7 +4954,7 @@
         <v>202</v>
       </c>
       <c r="C18" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="131" t="s">
         <v>189</v>
@@ -5012,10 +5055,10 @@
         <v>77</v>
       </c>
       <c r="AM18" s="131" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN18" s="131">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO18" s="131">
         <v>7.7200000000000005E-2</v>
@@ -5036,10 +5079,10 @@
         <v>31</v>
       </c>
       <c r="AU18" s="140">
-        <v>0.7177631600179436</v>
+        <v>0.70430136543757105</v>
       </c>
       <c r="AV18" s="140">
-        <v>0.74141988775539847</v>
+        <v>0.73294108984424244</v>
       </c>
       <c r="AY18" s="141">
         <v>0</v>
@@ -5071,7 +5114,7 @@
         <v>203</v>
       </c>
       <c r="C19" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="131" t="s">
         <v>189</v>
@@ -5172,10 +5215,10 @@
         <v>77</v>
       </c>
       <c r="AM19" s="131" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN19" s="131">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO19" s="131">
         <v>7.7200000000000005E-2</v>
@@ -5196,10 +5239,10 @@
         <v>31</v>
       </c>
       <c r="AU19" s="140">
-        <v>0.97571945376918812</v>
+        <v>1.0159071729957805</v>
       </c>
       <c r="AV19" s="140">
-        <v>0.99507870807939247</v>
+        <v>1.0442616033755274</v>
       </c>
       <c r="AY19" s="141">
         <v>0</v>
@@ -5266,7 +5309,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="146" t="s">
         <v>232</v>
@@ -5367,10 +5410,10 @@
         <v>77</v>
       </c>
       <c r="AM22" s="146" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN22" s="146">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO22" s="146">
         <v>7.7200000000000005E-2</v>
@@ -5391,10 +5434,10 @@
         <v>31</v>
       </c>
       <c r="AU22" s="149">
-        <v>0.7177631600179436</v>
+        <v>0.70430136543757105</v>
       </c>
       <c r="AV22" s="149">
-        <v>0.74141988775539847</v>
+        <v>0.73294108984424244</v>
       </c>
       <c r="AY22" s="156">
         <v>0</v>
@@ -5426,7 +5469,7 @@
         <v>231</v>
       </c>
       <c r="C23" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="146" t="s">
         <v>232</v>
@@ -5527,10 +5570,10 @@
         <v>77</v>
       </c>
       <c r="AM23" s="146" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN23" s="146">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO23" s="146">
         <v>7.7200000000000005E-2</v>
@@ -5551,10 +5594,10 @@
         <v>31</v>
       </c>
       <c r="AU23" s="149">
-        <v>0.97571945376918812</v>
+        <v>1.0159071729957805</v>
       </c>
       <c r="AV23" s="149">
-        <v>0.99507870807939247</v>
+        <v>1.0442616033755274</v>
       </c>
       <c r="AY23" s="156">
         <v>0</v>
@@ -5580,13 +5623,16 @@
       <c r="BF23" s="157" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C24" s="119"/>
     </row>
     <row r="25" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="119" t="s">
         <v>238</v>
       </c>
       <c r="C25" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="119" t="s">
         <v>167</v>
@@ -5696,10 +5742,10 @@
         <v>77</v>
       </c>
       <c r="AM25" s="119" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN25" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO25" s="119">
         <v>7.7200000000000005E-2</v>
@@ -5720,10 +5766,10 @@
         <v>31</v>
       </c>
       <c r="AU25" s="123">
-        <v>0.7177631600179436</v>
+        <v>0.70430136543757105</v>
       </c>
       <c r="AV25" s="123">
-        <v>0.74141988775539847</v>
+        <v>0.73294108984424244</v>
       </c>
       <c r="AY25" s="120">
         <v>0</v>
@@ -5755,7 +5801,7 @@
         <v>239</v>
       </c>
       <c r="C26" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="119" t="s">
         <v>167</v>
@@ -5865,10 +5911,10 @@
         <v>77</v>
       </c>
       <c r="AM26" s="119" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN26" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO26" s="119">
         <v>7.7200000000000005E-2</v>
@@ -5889,10 +5935,10 @@
         <v>31</v>
       </c>
       <c r="AU26" s="123">
-        <v>0.97571945376918812</v>
+        <v>1.0159071729957805</v>
       </c>
       <c r="AV26" s="123">
-        <v>0.99507870807939247</v>
+        <v>1.0442616033755274</v>
       </c>
       <c r="AY26" s="120">
         <v>0</v>
@@ -6046,10 +6092,10 @@
         <v>35</v>
       </c>
       <c r="AE30" s="119">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF30" s="119">
-        <v>2.5000000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="AG30" s="119">
         <v>5</v>
@@ -6070,10 +6116,10 @@
         <v>77</v>
       </c>
       <c r="AM30" s="119" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN30" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO30" s="119">
         <v>7.7200000000000005E-2</v>
@@ -6206,10 +6252,10 @@
         <v>35</v>
       </c>
       <c r="AE31" s="119">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF31" s="119">
-        <v>2.5000000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="AG31" s="119">
         <v>5</v>
@@ -6230,10 +6276,10 @@
         <v>77</v>
       </c>
       <c r="AM31" s="119" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN31" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO31" s="119">
         <v>7.7200000000000005E-2</v>
@@ -6285,6 +6331,7 @@
       </c>
     </row>
     <row r="32" spans="1:58" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="119"/>
       <c r="N32" s="162"/>
       <c r="O32" s="172"/>
       <c r="P32" s="173"/>
@@ -6337,7 +6384,7 @@
       <c r="M33" s="131">
         <v>0.11</v>
       </c>
-      <c r="N33" s="235">
+      <c r="N33" s="233">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
@@ -6382,10 +6429,10 @@
         <v>35</v>
       </c>
       <c r="AE33" s="131">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF33" s="131">
-        <v>2.5000000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="AG33" s="131">
         <v>5</v>
@@ -6406,10 +6453,10 @@
         <v>77</v>
       </c>
       <c r="AM33" s="131" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN33" s="131">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO33" s="131">
         <v>7.7200000000000005E-2</v>
@@ -6501,20 +6548,20 @@
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O34" s="232">
+      <c r="O34" s="230">
         <v>0.5</v>
       </c>
-      <c r="P34" s="233">
+      <c r="P34" s="231">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q34" s="234">
+      <c r="Q34" s="232">
         <v>0.5</v>
       </c>
-      <c r="R34" s="232">
+      <c r="R34" s="230">
         <v>0.5</v>
       </c>
-      <c r="S34" s="232">
+      <c r="S34" s="230">
         <v>0.5</v>
       </c>
       <c r="T34" s="131" t="s">
@@ -6542,10 +6589,10 @@
         <v>35</v>
       </c>
       <c r="AE34" s="131">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF34" s="131">
-        <v>2.5000000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="AG34" s="131">
         <v>5</v>
@@ -6566,10 +6613,10 @@
         <v>77</v>
       </c>
       <c r="AM34" s="131" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN34" s="131">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO34" s="131">
         <v>7.7200000000000005E-2</v>
@@ -6640,7 +6687,7 @@
       <c r="BF35" s="142"/>
     </row>
     <row r="36" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C36" s="159"/>
+      <c r="C36" s="119"/>
       <c r="N36" s="20"/>
       <c r="O36" s="32"/>
       <c r="P36" s="4"/>
@@ -6737,10 +6784,10 @@
         <v>35</v>
       </c>
       <c r="AE37" s="146">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF37" s="146">
-        <v>2.5000000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="AG37" s="146">
         <v>5</v>
@@ -6761,10 +6808,10 @@
         <v>77</v>
       </c>
       <c r="AM37" s="146" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN37" s="146">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO37" s="146">
         <v>7.7200000000000005E-2</v>
@@ -6897,10 +6944,10 @@
         <v>35</v>
       </c>
       <c r="AE38" s="146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF38" s="146">
-        <v>2.5000000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="AG38" s="146">
         <v>5</v>
@@ -6921,10 +6968,10 @@
         <v>77</v>
       </c>
       <c r="AM38" s="146" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN38" s="146">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO38" s="146">
         <v>7.7200000000000005E-2</v>
@@ -6974,6 +7021,9 @@
       <c r="BF38" s="157" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C39" s="119"/>
     </row>
     <row r="40" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="119" t="s">
@@ -7066,10 +7116,10 @@
         <v>35</v>
       </c>
       <c r="AE40" s="119">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF40" s="119">
-        <v>2.5000000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="AG40" s="119">
         <v>5</v>
@@ -7090,10 +7140,10 @@
         <v>77</v>
       </c>
       <c r="AM40" s="119" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN40" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO40" s="119">
         <v>7.7200000000000005E-2</v>
@@ -7235,10 +7285,10 @@
         <v>35</v>
       </c>
       <c r="AE41" s="119">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF41" s="119">
-        <v>2.5000000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="AG41" s="119">
         <v>5</v>
@@ -7259,10 +7309,10 @@
         <v>77</v>
       </c>
       <c r="AM41" s="119" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AN41" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="AO41" s="119">
         <v>7.7200000000000005E-2</v>
@@ -7338,8 +7388,6 @@
       <c r="AP43" s="3"/>
       <c r="AQ43" s="5"/>
       <c r="AR43" s="22"/>
-      <c r="AU43" s="20"/>
-      <c r="AV43" s="20"/>
       <c r="AY43" s="27"/>
       <c r="BF43" s="19"/>
     </row>
@@ -7353,8 +7401,6 @@
       <c r="AP44" s="3"/>
       <c r="AQ44" s="5"/>
       <c r="AR44" s="22"/>
-      <c r="AU44" s="20"/>
-      <c r="AV44" s="20"/>
       <c r="AY44" s="27"/>
       <c r="BF44" s="19"/>
     </row>
@@ -8724,7 +8770,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:C61 BA5:BB23 C5:C23 C25:C38 BA25:BB38 BA40:BB61" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA5:BB23 BA40:BB61 BA25:BB38 C5:C61" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL5:AL23 AL25:AL38 AL40:AL61" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
@@ -8744,8 +8790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D5FB73-2BC7-4779-8A12-D312032B3487}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9165,7 +9211,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9853,7 +9899,7 @@
         <v>167</v>
       </c>
       <c r="C16" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="119" t="s">
         <v>160</v>
@@ -9874,7 +9920,7 @@
         <v>61</v>
       </c>
       <c r="Q16" s="119">
-        <v>3.2500000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="R16" s="119">
         <v>0</v>
@@ -9883,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="U16" s="119" t="b">
         <v>0</v>
@@ -9925,7 +9971,7 @@
         <v>65</v>
       </c>
       <c r="AI16" s="119">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -9936,7 +9982,7 @@
         <v>189</v>
       </c>
       <c r="C18" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="119" t="s">
         <v>160</v>
@@ -9953,7 +9999,9 @@
       <c r="I18" s="121">
         <v>0.75</v>
       </c>
-      <c r="J18" s="121"/>
+      <c r="J18" s="121">
+        <v>3</v>
+      </c>
       <c r="K18" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -9973,7 +10021,7 @@
         <v>61</v>
       </c>
       <c r="Q18" s="119">
-        <v>3.2500000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="R18" s="119">
         <v>0</v>
@@ -9982,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="U18" s="119" t="b">
         <v>0</v>
@@ -10024,7 +10072,7 @@
         <v>65</v>
       </c>
       <c r="AI18" s="119">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="119" customFormat="1" x14ac:dyDescent="0.25">
@@ -10032,7 +10080,7 @@
         <v>232</v>
       </c>
       <c r="C19" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="119" t="s">
         <v>160</v>
@@ -10062,7 +10110,7 @@
         <v>61</v>
       </c>
       <c r="Q19" s="119">
-        <v>3.2500000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="R19" s="119">
         <v>0</v>
@@ -10071,7 +10119,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="119">
-        <v>6.7500000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="U19" s="119" t="b">
         <v>0</v>
@@ -10113,7 +10161,7 @@
         <v>65</v>
       </c>
       <c r="AI19" s="119">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="20" spans="1:35" s="119" customFormat="1" x14ac:dyDescent="0.25">
@@ -10132,97 +10180,97 @@
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="V21" s="27"/>
     </row>
-    <row r="22" spans="1:35" s="229" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="229" t="s">
+    <row r="22" spans="1:35" s="227" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="227" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="229" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="229" t="s">
+      <c r="C22" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="227" t="s">
         <v>301</v>
       </c>
-      <c r="F22" s="229" t="s">
+      <c r="F22" s="227" t="s">
         <v>199</v>
       </c>
-      <c r="M22" s="229">
-        <v>0</v>
-      </c>
-      <c r="N22" s="229">
-        <v>0</v>
-      </c>
-      <c r="O22" s="229">
+      <c r="M22" s="227">
+        <v>0</v>
+      </c>
+      <c r="N22" s="227">
+        <v>0</v>
+      </c>
+      <c r="O22" s="227">
         <v>2021</v>
       </c>
-      <c r="P22" s="229" t="s">
+      <c r="P22" s="227" t="s">
         <v>61</v>
       </c>
-      <c r="Q22" s="229">
+      <c r="Q22" s="227">
         <v>0.03</v>
       </c>
-      <c r="R22" s="229">
-        <v>0</v>
-      </c>
-      <c r="S22" s="229" t="b">
-        <v>1</v>
-      </c>
-      <c r="T22" s="229">
+      <c r="R22" s="227">
+        <v>0</v>
+      </c>
+      <c r="S22" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" s="227">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="U22" s="229" t="b">
-        <v>0</v>
-      </c>
-      <c r="V22" s="230">
+      <c r="U22" s="227" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" s="228">
         <v>0.11</v>
       </c>
-      <c r="W22" s="229">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="229">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="229">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="229">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="229">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="229">
+      <c r="W22" s="227">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="227">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="227">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="227">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="227">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="227">
         <v>20</v>
       </c>
-      <c r="AD22" s="229">
+      <c r="AD22" s="227">
         <v>69</v>
       </c>
-      <c r="AE22" s="229">
+      <c r="AE22" s="227">
         <v>20</v>
       </c>
-      <c r="AF22" s="229">
+      <c r="AF22" s="227">
         <v>100</v>
       </c>
-      <c r="AG22" s="229">
+      <c r="AG22" s="227">
         <v>50</v>
       </c>
-      <c r="AH22" s="229">
+      <c r="AH22" s="227">
         <v>70</v>
       </c>
-      <c r="AI22" s="229">
+      <c r="AI22" s="227">
         <v>2020</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="V23" s="27"/>
     </row>
-    <row r="24" spans="1:35" s="229" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="229" t="s">
+    <row r="24" spans="1:35" s="227" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="227" t="s">
         <v>303</v>
       </c>
-      <c r="C24" s="229" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="229" t="s">
+      <c r="C24" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="227" t="s">
         <v>301</v>
       </c>
       <c r="F24" s="121" t="s">
@@ -10231,88 +10279,88 @@
       <c r="G24" s="121">
         <v>2021</v>
       </c>
-      <c r="J24" s="229">
+      <c r="J24" s="227">
         <v>3</v>
       </c>
-      <c r="K24" s="231">
+      <c r="K24" s="229">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="L24" s="231"/>
-      <c r="M24" s="229">
-        <v>0</v>
-      </c>
-      <c r="N24" s="229">
-        <v>0</v>
-      </c>
-      <c r="O24" s="229">
+      <c r="L24" s="229"/>
+      <c r="M24" s="227">
+        <v>0</v>
+      </c>
+      <c r="N24" s="227">
+        <v>0</v>
+      </c>
+      <c r="O24" s="227">
         <v>2021</v>
       </c>
-      <c r="P24" s="229" t="s">
+      <c r="P24" s="227" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="229">
+      <c r="Q24" s="227">
         <v>0.03</v>
       </c>
-      <c r="R24" s="229">
+      <c r="R24" s="227">
         <v>0.1</v>
       </c>
-      <c r="S24" s="229" t="b">
-        <v>1</v>
-      </c>
-      <c r="T24" s="229">
+      <c r="S24" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" s="227">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="U24" s="229" t="b">
-        <v>0</v>
-      </c>
-      <c r="V24" s="230">
+      <c r="U24" s="227" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" s="228">
         <v>0.11</v>
       </c>
-      <c r="W24" s="229">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="229">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="229">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="229">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="229">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="229">
+      <c r="W24" s="227">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="227">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="227">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="227">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="227">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="227">
         <v>20</v>
       </c>
-      <c r="AD24" s="229">
+      <c r="AD24" s="227">
         <v>69</v>
       </c>
-      <c r="AE24" s="229">
+      <c r="AE24" s="227">
         <v>20</v>
       </c>
-      <c r="AF24" s="229">
+      <c r="AF24" s="227">
         <v>100</v>
       </c>
-      <c r="AG24" s="229">
+      <c r="AG24" s="227">
         <v>50</v>
       </c>
-      <c r="AH24" s="229">
+      <c r="AH24" s="227">
         <v>70</v>
       </c>
-      <c r="AI24" s="229">
+      <c r="AI24" s="227">
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="229" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="229" t="s">
+    <row r="25" spans="1:35" s="227" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="227" t="s">
         <v>304</v>
       </c>
-      <c r="C25" s="229" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="229" t="s">
+      <c r="C25" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="227" t="s">
         <v>301</v>
       </c>
       <c r="F25" s="121" t="s">
@@ -10321,76 +10369,76 @@
       <c r="G25" s="122">
         <v>2021</v>
       </c>
-      <c r="K25" s="229">
+      <c r="K25" s="227">
         <v>0.03</v>
       </c>
-      <c r="L25" s="229">
+      <c r="L25" s="227">
         <v>0.02</v>
       </c>
-      <c r="M25" s="229">
-        <v>0</v>
-      </c>
-      <c r="N25" s="229">
-        <v>0</v>
-      </c>
-      <c r="O25" s="229">
+      <c r="M25" s="227">
+        <v>0</v>
+      </c>
+      <c r="N25" s="227">
+        <v>0</v>
+      </c>
+      <c r="O25" s="227">
         <v>2021</v>
       </c>
-      <c r="P25" s="229" t="s">
+      <c r="P25" s="227" t="s">
         <v>61</v>
       </c>
-      <c r="Q25" s="229">
+      <c r="Q25" s="227">
         <v>0.03</v>
       </c>
-      <c r="R25" s="229">
+      <c r="R25" s="227">
         <v>0.1</v>
       </c>
-      <c r="S25" s="229" t="b">
-        <v>1</v>
-      </c>
-      <c r="T25" s="229">
+      <c r="S25" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="227">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="U25" s="229" t="b">
-        <v>0</v>
-      </c>
-      <c r="V25" s="230">
+      <c r="U25" s="227" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" s="228">
         <v>0.11</v>
       </c>
-      <c r="W25" s="229">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="229">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="229">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="229">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="229">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="229">
+      <c r="W25" s="227">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="227">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="227">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="227">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="227">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="227">
         <v>20</v>
       </c>
-      <c r="AD25" s="229">
+      <c r="AD25" s="227">
         <v>69</v>
       </c>
-      <c r="AE25" s="229">
+      <c r="AE25" s="227">
         <v>20</v>
       </c>
-      <c r="AF25" s="229">
+      <c r="AF25" s="227">
         <v>100</v>
       </c>
-      <c r="AG25" s="229">
+      <c r="AG25" s="227">
         <v>50</v>
       </c>
-      <c r="AH25" s="229">
+      <c r="AH25" s="227">
         <v>70</v>
       </c>
-      <c r="AI25" s="229">
+      <c r="AI25" s="227">
         <v>2020</v>
       </c>
     </row>
@@ -10634,7 +10682,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11064,7 +11112,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11333,8 +11381,8 @@
       <c r="A12" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="4">
-        <v>6.7500000000000004E-2</v>
+      <c r="B12" s="176">
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -11342,12 +11390,12 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="236">
         <f>F12</f>
-        <v>6.6625000000000004E-2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>6.6625000000000004E-2</v>
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="F12" s="237">
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="G12" t="s">
         <v>237</v>
@@ -11357,7 +11405,7 @@
       <c r="A13" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="176">
         <v>7.3450000000000001E-2</v>
       </c>
       <c r="C13" s="3">
@@ -11366,11 +11414,11 @@
       <c r="D13">
         <v>80</v>
       </c>
-      <c r="E13" s="178">
+      <c r="E13" s="236">
         <f t="shared" ref="E13" si="7">F13</f>
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="237">
         <f t="shared" ref="F13" si="8">B13 - C13^2/2</f>
         <v>6.6250000000000003E-2</v>
       </c>
@@ -11403,7 +11451,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="176"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="49" t="s">
         <v>108</v>
       </c>
@@ -11415,7 +11463,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="176"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="35">
         <v>43646</v>
       </c>
@@ -12012,14 +12060,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="235" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="177"/>
+      <c r="C6" s="235"/>
       <c r="D6" s="82">
         <v>43646</v>
       </c>
@@ -12028,7 +12076,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="177"/>
+      <c r="C7" s="235"/>
       <c r="D7" s="82" t="s">
         <v>143</v>
       </c>
@@ -12498,43 +12546,43 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="176"/>
-      <c r="D4" s="215"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="213"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="176"/>
-      <c r="D5" s="216" t="s">
+      <c r="C5" s="234"/>
+      <c r="D5" s="214" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="215" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="228" t="s">
+      <c r="F5" s="226" t="s">
         <v>297</v>
       </c>
-      <c r="G5" s="228" t="s">
+      <c r="G5" s="226" t="s">
         <v>298</v>
       </c>
-      <c r="H5" s="228" t="s">
+      <c r="H5" s="226" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="183" t="s">
+      <c r="C6" s="181" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="214"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="212"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="193" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="224">
+      <c r="D7" s="222">
         <v>1214362</v>
       </c>
-      <c r="E7" s="219">
+      <c r="E7" s="217">
         <v>989989</v>
       </c>
       <c r="F7" s="21">
@@ -12551,11 +12599,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="211" t="s">
         <v>293</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="219">
+      <c r="D8" s="216"/>
+      <c r="E8" s="217">
         <v>912647</v>
       </c>
       <c r="F8" s="21"/>
@@ -12566,11 +12614,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="211" t="s">
         <v>294</v>
       </c>
-      <c r="D9" s="218"/>
-      <c r="E9" s="220">
+      <c r="D9" s="216"/>
+      <c r="E9" s="218">
         <v>54093</v>
       </c>
       <c r="F9" s="21"/>
@@ -12581,11 +12629,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="213" t="s">
+      <c r="C10" s="211" t="s">
         <v>295</v>
       </c>
-      <c r="D10" s="218"/>
-      <c r="E10" s="220">
+      <c r="D10" s="216"/>
+      <c r="E10" s="218">
         <v>9286</v>
       </c>
       <c r="F10" s="21"/>
@@ -12596,11 +12644,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="213" t="s">
+      <c r="C11" s="211" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="218"/>
-      <c r="E11" s="220">
+      <c r="D11" s="216"/>
+      <c r="E11" s="218">
         <v>13963</v>
       </c>
       <c r="F11" s="21"/>
@@ -12611,17 +12659,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="195" t="s">
+      <c r="C12" s="193" t="s">
         <v>284</v>
       </c>
-      <c r="D12" s="221">
+      <c r="D12" s="219">
         <v>238788</v>
       </c>
-      <c r="E12" s="219">
+      <c r="E12" s="217">
         <v>238788</v>
       </c>
       <c r="G12" s="32">
-        <f t="shared" ref="G8:G18" si="1">D12/$D$19</f>
+        <f t="shared" ref="G12:G18" si="1">D12/$D$19</f>
         <v>1.6650605602080732</v>
       </c>
       <c r="H12" s="32">
@@ -12630,22 +12678,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="195" t="s">
+      <c r="C13" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="215"/>
-      <c r="E13" s="222"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="220"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="184" t="s">
+      <c r="C14" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="D14" s="224">
+      <c r="D14" s="222">
         <v>2791286</v>
       </c>
-      <c r="E14" s="222"/>
+      <c r="E14" s="220"/>
       <c r="G14" s="32">
         <f t="shared" si="1"/>
         <v>19.463541848254319</v>
@@ -12653,13 +12701,13 @@
       <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="D15" s="221">
+      <c r="D15" s="219">
         <v>179625</v>
       </c>
-      <c r="E15" s="222"/>
+      <c r="E15" s="220"/>
       <c r="G15" s="32">
         <f t="shared" si="1"/>
         <v>1.252518983899422</v>
@@ -12667,13 +12715,13 @@
       <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="184" t="s">
+      <c r="C16" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="D16" s="221">
+      <c r="D16" s="219">
         <v>87494</v>
       </c>
-      <c r="E16" s="222"/>
+      <c r="E16" s="220"/>
       <c r="G16" s="32">
         <f t="shared" si="1"/>
         <v>0.61009267071563544</v>
@@ -12681,13 +12729,13 @@
       <c r="H16" s="32"/>
     </row>
     <row r="17" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="184" t="s">
+      <c r="C17" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="D17" s="224">
+      <c r="D17" s="222">
         <v>3058405</v>
       </c>
-      <c r="E17" s="220">
+      <c r="E17" s="218">
         <v>3058405</v>
       </c>
       <c r="G17" s="32">
@@ -12700,13 +12748,13 @@
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="183" t="s">
+      <c r="C18" s="181" t="s">
         <v>265</v>
       </c>
-      <c r="D18" s="225">
+      <c r="D18" s="223">
         <v>4511555</v>
       </c>
-      <c r="E18" s="227">
+      <c r="E18" s="225">
         <v>4287182</v>
       </c>
       <c r="G18" s="32">
@@ -12719,31 +12767,31 @@
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="195" t="s">
+      <c r="C19" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="D19" s="226">
+      <c r="D19" s="224">
         <v>143411</v>
       </c>
-      <c r="E19" s="226">
+      <c r="E19" s="224">
         <v>143411</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="183" t="s">
+      <c r="C20" s="181" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
     </row>
     <row r="21" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="193" t="s">
         <v>283</v>
       </c>
-      <c r="D21" s="224">
+      <c r="D21" s="222">
         <v>342332</v>
       </c>
-      <c r="E21" s="219">
+      <c r="E21" s="217">
         <v>103025</v>
       </c>
       <c r="F21" s="21">
@@ -12760,11 +12808,11 @@
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="213" t="s">
+      <c r="C22" s="211" t="s">
         <v>293</v>
       </c>
-      <c r="D22" s="218"/>
-      <c r="E22" s="219">
+      <c r="D22" s="216"/>
+      <c r="E22" s="217">
         <v>82703</v>
       </c>
       <c r="G22" s="32"/>
@@ -12774,11 +12822,11 @@
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="213" t="s">
+      <c r="C23" s="211" t="s">
         <v>294</v>
       </c>
-      <c r="D23" s="218"/>
-      <c r="E23" s="220">
+      <c r="D23" s="216"/>
+      <c r="E23" s="218">
         <v>13657</v>
       </c>
       <c r="G23" s="32"/>
@@ -12788,11 +12836,11 @@
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="213" t="s">
+      <c r="C24" s="211" t="s">
         <v>295</v>
       </c>
-      <c r="D24" s="218"/>
-      <c r="E24" s="220">
+      <c r="D24" s="216"/>
+      <c r="E24" s="218">
         <v>3252</v>
       </c>
       <c r="G24" s="32"/>
@@ -12802,11 +12850,11 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="213" t="s">
+      <c r="C25" s="211" t="s">
         <v>296</v>
       </c>
-      <c r="D25" s="218"/>
-      <c r="E25" s="220">
+      <c r="D25" s="216"/>
+      <c r="E25" s="218">
         <v>3413</v>
       </c>
       <c r="G25" s="32"/>
@@ -12816,17 +12864,17 @@
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="195" t="s">
+      <c r="C26" s="193" t="s">
         <v>284</v>
       </c>
-      <c r="D26" s="221">
+      <c r="D26" s="219">
         <v>9427</v>
       </c>
-      <c r="E26" s="220">
+      <c r="E26" s="218">
         <v>9427</v>
       </c>
       <c r="G26" s="32">
-        <f t="shared" ref="G22:G32" si="3">D26/$D$32</f>
+        <f t="shared" ref="G26:G32" si="3">D26/$D$32</f>
         <v>5.6026720710333475E-2</v>
       </c>
       <c r="H26" s="32">
@@ -12835,11 +12883,11 @@
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="195" t="s">
+      <c r="C27" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="D27" s="215"/>
-      <c r="E27" s="220">
+      <c r="D27" s="213"/>
+      <c r="E27" s="218">
         <v>1449</v>
       </c>
       <c r="G27" s="32">
@@ -12852,13 +12900,13 @@
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="184" t="s">
+      <c r="C28" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="224">
+      <c r="D28" s="222">
         <v>1449</v>
       </c>
-      <c r="E28" s="222"/>
+      <c r="E28" s="220"/>
       <c r="G28" s="32">
         <f t="shared" si="3"/>
         <v>8.611723592794442E-3</v>
@@ -12866,13 +12914,13 @@
       <c r="H28" s="32"/>
     </row>
     <row r="29" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="184" t="s">
+      <c r="C29" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="D29" s="223">
-        <v>0</v>
-      </c>
-      <c r="E29" s="222"/>
+      <c r="D29" s="221">
+        <v>0</v>
+      </c>
+      <c r="E29" s="220"/>
       <c r="G29" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12880,13 +12928,13 @@
       <c r="H29" s="32"/>
     </row>
     <row r="30" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="184" t="s">
+      <c r="C30" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="D30" s="224">
+      <c r="D30" s="222">
         <v>1449</v>
       </c>
-      <c r="E30" s="222"/>
+      <c r="E30" s="220"/>
       <c r="G30" s="32">
         <f t="shared" si="3"/>
         <v>8.611723592794442E-3</v>
@@ -12894,13 +12942,13 @@
       <c r="H30" s="32"/>
     </row>
     <row r="31" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="183" t="s">
+      <c r="C31" s="181" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="225">
+      <c r="D31" s="223">
         <v>353208</v>
       </c>
-      <c r="E31" s="227">
+      <c r="E31" s="225">
         <v>113901</v>
       </c>
       <c r="G31" s="32">
@@ -12913,13 +12961,13 @@
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="195" t="s">
+      <c r="C32" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="226">
+      <c r="D32" s="224">
         <v>168259</v>
       </c>
-      <c r="E32" s="226">
+      <c r="E32" s="224">
         <v>168259</v>
       </c>
       <c r="G32" s="32">
@@ -12932,13 +12980,13 @@
       </c>
     </row>
     <row r="33" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="201" t="s">
+      <c r="C33" s="199" t="s">
         <v>290</v>
       </c>
-      <c r="D33" s="225">
+      <c r="D33" s="223">
         <v>4864763</v>
       </c>
-      <c r="E33" s="227">
+      <c r="E33" s="225">
         <v>4401083</v>
       </c>
       <c r="G33" s="116">
@@ -12989,152 +13037,152 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="177" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="176"/>
-      <c r="F5" s="180">
+      <c r="D5" s="234"/>
+      <c r="F5" s="178">
         <v>44012</v>
       </c>
-      <c r="K5" s="181">
+      <c r="K5" s="179">
         <v>43646</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="176"/>
-      <c r="F6" s="182" t="s">
+      <c r="D6" s="234"/>
+      <c r="F6" s="180" t="s">
         <v>256</v>
       </c>
-      <c r="K6" s="182" t="s">
+      <c r="K6" s="180" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="208" t="s">
+      <c r="D7" s="206" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="209" t="s">
+      <c r="E7" s="207" t="s">
         <v>282</v>
       </c>
       <c r="F7" s="37"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="210" t="s">
+      <c r="D8" s="208" t="s">
         <v>258</v>
       </c>
-      <c r="E8" s="211">
-        <f>F8/$F$14</f>
+      <c r="E8" s="209">
+        <f t="shared" ref="E8:E13" si="0">F8/$F$14</f>
         <v>0.16468053357134391</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="184" t="s">
         <v>259</v>
       </c>
-      <c r="K8" s="185" t="s">
+      <c r="K8" s="183" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="210" t="s">
+      <c r="D9" s="208" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="211">
-        <f>F9/$F$14</f>
+      <c r="E9" s="209">
+        <f t="shared" si="0"/>
         <v>6.3942096491900899E-2</v>
       </c>
-      <c r="F9" s="188">
+      <c r="F9" s="186">
         <v>9170</v>
       </c>
-      <c r="K9" s="187">
+      <c r="K9" s="185">
         <v>9427</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="210" t="s">
+      <c r="D10" s="208" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="211">
-        <f>F10/$F$14</f>
+      <c r="E10" s="209">
+        <f t="shared" si="0"/>
         <v>4.6858330253606766E-3</v>
       </c>
-      <c r="F10" s="190">
+      <c r="F10" s="188">
         <v>672</v>
       </c>
-      <c r="K10" s="189">
+      <c r="K10" s="187">
         <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="210" t="s">
+      <c r="D11" s="208" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="211">
-        <f>F11/$F$14</f>
+      <c r="E11" s="209">
+        <f t="shared" si="0"/>
         <v>1.0815069973711918E-2</v>
       </c>
-      <c r="F11" s="188">
+      <c r="F11" s="186">
         <v>1551</v>
       </c>
-      <c r="K11" s="187">
+      <c r="K11" s="185">
         <v>1592</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="210" t="s">
+      <c r="D12" s="208" t="s">
         <v>264</v>
       </c>
-      <c r="E12" s="211">
-        <f>F12/$F$14</f>
+      <c r="E12" s="209">
+        <f t="shared" si="0"/>
         <v>5.4946970595003176E-3</v>
       </c>
-      <c r="F12" s="192">
+      <c r="F12" s="190">
         <v>788</v>
       </c>
-      <c r="K12" s="191">
+      <c r="K12" s="189">
         <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="208" t="s">
+      <c r="D13" s="206" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="211">
-        <f>F13/$F$14</f>
+      <c r="E13" s="209">
+        <f t="shared" si="0"/>
         <v>0.24961823012181772</v>
       </c>
-      <c r="F13" s="194" t="s">
+      <c r="F13" s="192" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="193" t="s">
+      <c r="K13" s="191" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="195" t="s">
+      <c r="D14" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="186" t="s">
+      <c r="F14" s="184" t="s">
         <v>269</v>
       </c>
-      <c r="K14" s="185" t="s">
+      <c r="K14" s="183" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="196" t="s">
+      <c r="D15" s="194" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="198">
+      <c r="F15" s="196">
         <v>0.24959999999999999</v>
       </c>
-      <c r="K15" s="197">
+      <c r="K15" s="195">
         <v>0.245</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="205" t="s">
+      <c r="D16" s="203" t="s">
         <v>272</v>
       </c>
       <c r="E16" s="119"/>
@@ -13142,104 +13190,104 @@
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="206" t="s">
+      <c r="D17" s="204" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="212">
+      <c r="E17" s="210">
         <f>F17/$F$22</f>
         <v>0.10194402676825608</v>
       </c>
-      <c r="F17" s="186" t="s">
+      <c r="F17" s="184" t="s">
         <v>273</v>
       </c>
-      <c r="K17" s="185" t="s">
+      <c r="K17" s="183" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="206" t="s">
+      <c r="D18" s="204" t="s">
         <v>261</v>
       </c>
-      <c r="E18" s="212">
-        <f t="shared" ref="E18:E21" si="0">F18/$F$22</f>
+      <c r="E18" s="210">
+        <f t="shared" ref="E18:E21" si="1">F18/$F$22</f>
         <v>3.4821317136081872E-2</v>
       </c>
-      <c r="F18" s="188">
+      <c r="F18" s="186">
         <v>5859</v>
       </c>
-      <c r="K18" s="187">
+      <c r="K18" s="185">
         <v>4826</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="206" t="s">
+      <c r="D19" s="204" t="s">
         <v>262</v>
       </c>
-      <c r="E19" s="212">
-        <f t="shared" si="0"/>
+      <c r="E19" s="210">
+        <f t="shared" si="1"/>
         <v>4.4752435233776497E-3</v>
       </c>
-      <c r="F19" s="190">
+      <c r="F19" s="188">
         <v>753</v>
       </c>
-      <c r="K19" s="189">
+      <c r="K19" s="187">
         <v>625</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="206" t="s">
+      <c r="D20" s="204" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="212">
-        <f t="shared" si="0"/>
+      <c r="E20" s="210">
+        <f t="shared" si="1"/>
         <v>7.3755341467618375E-3</v>
       </c>
-      <c r="F20" s="200">
+      <c r="F20" s="198">
         <v>1241</v>
       </c>
-      <c r="K20" s="199">
+      <c r="K20" s="197">
         <v>1002</v>
       </c>
     </row>
     <row r="21" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="207" t="s">
+      <c r="D21" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="E21" s="212">
-        <f t="shared" si="0"/>
+      <c r="E21" s="210">
+        <f t="shared" si="1"/>
         <v>0.14861612157447746</v>
       </c>
-      <c r="F21" s="194" t="s">
+      <c r="F21" s="192" t="s">
         <v>276</v>
       </c>
-      <c r="K21" s="193" t="s">
+      <c r="K21" s="191" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="22" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="195" t="s">
+      <c r="D22" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="186" t="s">
+      <c r="F22" s="184" t="s">
         <v>278</v>
       </c>
-      <c r="K22" s="185" t="s">
+      <c r="K22" s="183" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="23" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="201" t="s">
+      <c r="D23" s="199" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="203">
+      <c r="F23" s="201">
         <v>0.14860000000000001</v>
       </c>
-      <c r="K23" s="202">
+      <c r="K23" s="200">
         <v>0.14660000000000001</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="204" t="s">
+      <c r="D25" s="202" t="s">
         <v>281</v>
       </c>
     </row>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABEFD64-0D0F-4A53-8678-54D886C16288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B4477E-577F-4E12-9E2C-0B0C56527B4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="327">
   <si>
     <t>nsim</t>
   </si>
@@ -1762,6 +1762,39 @@
   </si>
   <si>
     <t>FC tier 2</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>fc.t1_pre99_highERC</t>
+  </si>
+  <si>
+    <t>fc.t2_pre99_highERC</t>
+  </si>
+  <si>
+    <t>Federated tier 1; Baseline</t>
+  </si>
+  <si>
+    <t>Federated tier 1; pre-1999 policy \nLow ERC</t>
+  </si>
+  <si>
+    <t>Federated tier 2; pre-1999 policy \nLow ERC</t>
+  </si>
+  <si>
+    <t>Federated tier 1; pre-1999 policy \nHigh ERC</t>
+  </si>
+  <si>
+    <t>Federated tier 2; pre-1999 policy \nHigh ERC</t>
+  </si>
+  <si>
+    <t>Federated tier 1; Shared cost \nLow ERC</t>
+  </si>
+  <si>
+    <t>Federated tier 2; Shared cost \nLow ERC</t>
+  </si>
+  <si>
+    <t>Federated tier 1; Baseline with POB</t>
   </si>
 </sst>
 </file>
@@ -3294,11 +3327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
   <dimension ref="A2:BF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AD8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AP44" sqref="AP44"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4617,7 +4650,7 @@
         <v>172</v>
       </c>
       <c r="C15" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="119" t="s">
         <v>167</v>
@@ -4777,7 +4810,7 @@
         <v>174</v>
       </c>
       <c r="C16" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="119" t="s">
         <v>167</v>
@@ -4954,7 +4987,7 @@
         <v>202</v>
       </c>
       <c r="C18" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="131" t="s">
         <v>189</v>
@@ -5114,7 +5147,7 @@
         <v>203</v>
       </c>
       <c r="C19" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="131" t="s">
         <v>189</v>
@@ -5309,7 +5342,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="146" t="s">
         <v>232</v>
@@ -5469,7 +5502,7 @@
         <v>231</v>
       </c>
       <c r="C23" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="146" t="s">
         <v>232</v>
@@ -5632,7 +5665,7 @@
         <v>238</v>
       </c>
       <c r="C25" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="119" t="s">
         <v>167</v>
@@ -5801,7 +5834,7 @@
         <v>239</v>
       </c>
       <c r="C26" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="119" t="s">
         <v>167</v>
@@ -6015,7 +6048,7 @@
         <v>306</v>
       </c>
       <c r="C30" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="119" t="s">
         <v>302</v>
@@ -6175,7 +6208,7 @@
         <v>307</v>
       </c>
       <c r="C31" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="119" t="s">
         <v>302</v>
@@ -7030,7 +7063,7 @@
         <v>312</v>
       </c>
       <c r="C40" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="119" t="s">
         <v>302</v>
@@ -7199,7 +7232,7 @@
         <v>313</v>
       </c>
       <c r="C41" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="119" t="s">
         <v>302</v>
@@ -8791,7 +8824,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9207,11 +9240,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
   <dimension ref="A3:AI43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9834,7 +9867,7 @@
         <v>0.03</v>
       </c>
       <c r="R12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="b">
         <v>1</v>
@@ -9899,7 +9932,7 @@
         <v>167</v>
       </c>
       <c r="C16" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="119" t="s">
         <v>160</v>
@@ -9982,7 +10015,7 @@
         <v>189</v>
       </c>
       <c r="C18" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="119" t="s">
         <v>160</v>
@@ -10080,7 +10113,7 @@
         <v>232</v>
       </c>
       <c r="C19" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="119" t="s">
         <v>160</v>
@@ -10185,7 +10218,7 @@
         <v>302</v>
       </c>
       <c r="C22" s="227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="227" t="s">
         <v>301</v>
@@ -10279,7 +10312,13 @@
       <c r="G24" s="121">
         <v>2021</v>
       </c>
-      <c r="J24" s="227">
+      <c r="H24" s="229">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I24" s="229">
+        <v>0.75</v>
+      </c>
+      <c r="J24" s="229">
         <v>3</v>
       </c>
       <c r="K24" s="229">
@@ -10302,7 +10341,7 @@
         <v>0.03</v>
       </c>
       <c r="R24" s="227">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="227" t="b">
         <v>1</v>
@@ -10372,9 +10411,6 @@
       <c r="K25" s="227">
         <v>0.03</v>
       </c>
-      <c r="L25" s="227">
-        <v>0.02</v>
-      </c>
       <c r="M25" s="227">
         <v>0</v>
       </c>
@@ -10391,7 +10427,7 @@
         <v>0.03</v>
       </c>
       <c r="R25" s="227">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="227" t="b">
         <v>1</v>
@@ -10682,7 +10718,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10763,10 +10799,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C7BB5-EA3C-4C89-A2AC-0AA9AD722C7F}">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11047,59 +11083,343 @@
     </row>
     <row r="17" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="159" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="159"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="131" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="131" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="131" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="131" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="131" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="131" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="131"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="146" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" s="146" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="146" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="131" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="146" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="146" t="s">
+        <v>325</v>
+      </c>
+      <c r="D28" s="146" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28" s="146" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="146" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" s="131" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="159" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" s="159" t="s">
+      <c r="B37" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="159" t="s">
+      <c r="D37" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="159" t="s">
+      <c r="E37" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="F23" s="159" t="s">
+      <c r="F37" s="159" t="s">
         <v>198</v>
       </c>
-      <c r="G23" s="159" t="s">
+      <c r="G37" s="159" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="159" t="s">
+    <row r="38" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="159" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="159" t="s">
+      <c r="B38" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="159" t="s">
+      <c r="D38" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="E24" s="159" t="s">
+      <c r="E38" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="F24" s="159" t="s">
+      <c r="F38" s="159" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="159" t="s">
+      <c r="G38" s="159" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="131" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="131" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E40" s="131" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="131" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="131" t="s">
+        <v>318</v>
+      </c>
+      <c r="B41" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="131" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E41" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="G41" s="131" t="s">
         <v>229</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B24" xr:uid="{55A447E2-018F-43DD-8296-EAECE125C7D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B24 B26:B38 B40:B41" xr:uid="{55A447E2-018F-43DD-8296-EAECE125C7D0}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B4477E-577F-4E12-9E2C-0B0C56527B4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF1DA5-992C-4B8D-8F34-62FDA3F2205D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -2678,18 +2678,18 @@
     <xf numFmtId="165" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3327,11 +3327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
   <dimension ref="A2:BF61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,7 +3443,7 @@
         <v>44</v>
       </c>
       <c r="AM3" s="16"/>
-      <c r="AN3" s="239" t="s">
+      <c r="AN3" s="237" t="s">
         <v>73</v>
       </c>
       <c r="AO3" s="16"/>
@@ -3587,7 +3587,7 @@
       <c r="AM4" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="AN4" s="238" t="s">
+      <c r="AN4" s="236" t="s">
         <v>6</v>
       </c>
       <c r="AO4" s="105" t="s">
@@ -5999,6 +5999,7 @@
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C27" s="119"/>
       <c r="N27" s="20"/>
       <c r="O27" s="32"/>
       <c r="P27" s="4"/>
@@ -6014,6 +6015,7 @@
       <c r="BF27" s="19"/>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C28" s="119"/>
       <c r="N28" s="20"/>
       <c r="O28" s="32"/>
       <c r="P28" s="4"/>
@@ -6029,6 +6031,7 @@
       <c r="BF28" s="19"/>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C29" s="119"/>
       <c r="N29" s="20"/>
       <c r="O29" s="32"/>
       <c r="P29" s="4"/>
@@ -6385,7 +6388,7 @@
         <v>308</v>
       </c>
       <c r="C33" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="131" t="s">
         <v>303</v>
@@ -6545,7 +6548,7 @@
         <v>309</v>
       </c>
       <c r="C34" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="131" t="s">
         <v>303</v>
@@ -6740,7 +6743,7 @@
         <v>310</v>
       </c>
       <c r="C37" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="146" t="s">
         <v>304</v>
@@ -6900,7 +6903,7 @@
         <v>311</v>
       </c>
       <c r="C38" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="146" t="s">
         <v>304</v>
@@ -9240,11 +9243,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
   <dimension ref="A3:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10718,7 +10721,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10765,7 +10768,7 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C4">
         <v>81</v>
@@ -11710,11 +11713,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="236">
+      <c r="E12" s="234">
         <f>F12</f>
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="F12" s="237">
+      <c r="F12" s="235">
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="G12" t="s">
@@ -11734,11 +11737,11 @@
       <c r="D13">
         <v>80</v>
       </c>
-      <c r="E13" s="236">
+      <c r="E13" s="234">
         <f t="shared" ref="E13" si="7">F13</f>
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="F13" s="237">
+      <c r="F13" s="235">
         <f t="shared" ref="F13" si="8">B13 - C13^2/2</f>
         <v>6.6250000000000003E-2</v>
       </c>
@@ -11771,7 +11774,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="234"/>
+      <c r="B3" s="238"/>
       <c r="C3" s="49" t="s">
         <v>108</v>
       </c>
@@ -11783,7 +11786,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="234"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="35">
         <v>43646</v>
       </c>
@@ -12380,14 +12383,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="235" t="s">
+      <c r="C5" s="239" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="235"/>
+      <c r="C6" s="239"/>
       <c r="D6" s="82">
         <v>43646</v>
       </c>
@@ -12396,7 +12399,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="235"/>
+      <c r="C7" s="239"/>
       <c r="D7" s="82" t="s">
         <v>143</v>
       </c>
@@ -12866,11 +12869,11 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="234"/>
+      <c r="C4" s="238"/>
       <c r="D4" s="213"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="234"/>
+      <c r="C5" s="238"/>
       <c r="D5" s="214" t="s">
         <v>292</v>
       </c>
@@ -13362,7 +13365,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="234"/>
+      <c r="D5" s="238"/>
       <c r="F5" s="178">
         <v>44012</v>
       </c>
@@ -13371,7 +13374,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="234"/>
+      <c r="D6" s="238"/>
       <c r="F6" s="180" t="s">
         <v>256</v>
       </c>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF1DA5-992C-4B8D-8F34-62FDA3F2205D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D75861-0D91-4484-9C9B-2824A46CE239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -17,10 +17,14 @@
     <sheet name="targetVals_pf.NC" sheetId="30" r:id="rId7"/>
     <sheet name="targetVals_fc.AL" sheetId="34" r:id="rId8"/>
     <sheet name="targetVals_fc.NC" sheetId="35" r:id="rId9"/>
-    <sheet name="targetVals_Funding_pf" sheetId="31" r:id="rId10"/>
-    <sheet name="targetVals_Funding_fc" sheetId="36" r:id="rId11"/>
-    <sheet name="Note1" sheetId="29" r:id="rId12"/>
-    <sheet name="Notes on scenarios" sheetId="32" r:id="rId13"/>
+    <sheet name="targetVals_Funding_fc" sheetId="36" r:id="rId10"/>
+    <sheet name="targetVals_Funding_pf" sheetId="31" r:id="rId11"/>
+    <sheet name="target_summary" sheetId="38" r:id="rId12"/>
+    <sheet name="Cost PF" sheetId="39" r:id="rId13"/>
+    <sheet name="Cost FC" sheetId="40" r:id="rId14"/>
+    <sheet name="Note1" sheetId="29" r:id="rId15"/>
+    <sheet name="Notes on scenarios" sheetId="32" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="37" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -249,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="348">
   <si>
     <t>nsim</t>
   </si>
@@ -492,9 +496,6 @@
   </si>
   <si>
     <t>calib_qxm.post</t>
-  </si>
-  <si>
-    <t>AL_defrRet_pctALservRet</t>
   </si>
   <si>
     <t>Special settings</t>
@@ -1795,6 +1796,72 @@
   </si>
   <si>
     <t>Federated tier 1; Baseline with POB</t>
+  </si>
+  <si>
+    <t>PF t1</t>
+  </si>
+  <si>
+    <t>PF t2</t>
+  </si>
+  <si>
+    <t>PF total</t>
+  </si>
+  <si>
+    <t>FC t1</t>
+  </si>
+  <si>
+    <t>FC t2</t>
+  </si>
+  <si>
+    <t>FC total</t>
+  </si>
+  <si>
+    <t>AL actives</t>
+  </si>
+  <si>
+    <t>ERC</t>
+  </si>
+  <si>
+    <t>Targets based on AV2020 (thousand)</t>
+  </si>
+  <si>
+    <t>AL pay status</t>
+  </si>
+  <si>
+    <t>AL vested</t>
+  </si>
+  <si>
+    <t>expected PR</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>FY2022 amounts</t>
+  </si>
+  <si>
+    <t>NC_ER</t>
+  </si>
+  <si>
+    <t>EEC</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Grand total</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>vested/active</t>
+  </si>
+  <si>
+    <t>AL_defrRet_pctALactives.t1</t>
+  </si>
+  <si>
+    <t>AL_defrRet_pctALactives.t2</t>
   </si>
 </sst>
 </file>
@@ -2155,7 +2222,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2689,6 +2756,13 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2713,6 +2787,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>600980</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>86878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C143B13-1ED8-47F9-BCBC-90AADE1448E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10610850" y="400050"/>
+          <a:ext cx="6487430" cy="8259328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29472</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>105882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6523C9-7AF1-4BB5-A7C6-8A2958697836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="171450"/>
+          <a:ext cx="6430272" cy="7935432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2893,27 +3060,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>600980</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>86878</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593034</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>51777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C143B13-1ED8-47F9-BCBC-90AADE1448E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56AA434-66CF-4091-8030-1EE5781A5B2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,8 +3096,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10610850" y="400050"/>
-          <a:ext cx="6487430" cy="8259328"/>
+          <a:off x="0" y="3698185"/>
+          <a:ext cx="4941404" cy="6259592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2941,23 +3108,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>29472</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>105882</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563228</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6523C9-7AF1-4BB5-A7C6-8A2958697836}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C4B643-A2CA-45C7-B8B5-B960B7D3F9DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,8 +3140,370 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="171450"/>
-          <a:ext cx="6430272" cy="7935432"/>
+          <a:off x="107674" y="9061175"/>
+          <a:ext cx="3992228" cy="4431195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596349</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22870</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8753BC-D6D7-4A6B-BFD9-C86DB51D7BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10137914" y="3255065"/>
+          <a:ext cx="4048217" cy="4058479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>687455</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218777</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>60463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9751F68A-0593-465C-BC0B-6FD49EFD0A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5035825" y="3470413"/>
+          <a:ext cx="4724517" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>524924</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>98922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD924E3-C165-497E-B78F-5C3ECDD1C865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="628650"/>
+          <a:ext cx="4792124" cy="4804272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>524740</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>162756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29DE192-BC07-49DC-BADB-46E29269C8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="685800"/>
+          <a:ext cx="6201640" cy="5953956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8709B001-A2FB-4BE4-A09F-B230349BB615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="285750"/>
+          <a:ext cx="6449325" cy="6258798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>67527</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>29132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A94FE5A-9074-451A-9667-CA1B0276314B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="7467600"/>
+          <a:ext cx="6106377" cy="3991532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296167</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>124494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55779671-BCFB-41A0-830F-6B18614AEAFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6953250"/>
+          <a:ext cx="6392167" cy="4791744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>117</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD0D2AA-1428-45E1-B851-09A3E1527340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="342900"/>
+          <a:ext cx="4724517" cy="4210050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3327,11 +3856,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
   <dimension ref="A2:BF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,14 +3930,14 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
@@ -3483,76 +4012,76 @@
         <v>67</v>
       </c>
       <c r="E4" s="105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="105" t="s">
         <v>71</v>
       </c>
       <c r="G4" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="106" t="s">
-        <v>85</v>
-      </c>
       <c r="K4" s="106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L4" s="107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M4" s="108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N4" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="P4" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="Q4" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="Q4" s="108" t="s">
-        <v>188</v>
-      </c>
-      <c r="R4" s="108" t="s">
-        <v>187</v>
-      </c>
       <c r="S4" s="108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T4" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="V4" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="U4" s="109" t="s">
-        <v>183</v>
-      </c>
-      <c r="V4" s="108" t="s">
-        <v>103</v>
-      </c>
-      <c r="W4" s="108" t="s">
+      <c r="X4" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="X4" s="108" t="s">
-        <v>98</v>
-      </c>
       <c r="Y4" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z4" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA4" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="Z4" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA4" s="108" t="s">
+      <c r="AB4" s="108" t="s">
         <v>242</v>
-      </c>
-      <c r="AB4" s="108" t="s">
-        <v>243</v>
       </c>
       <c r="AC4" s="110" t="s">
         <v>11</v>
@@ -3647,16 +4176,16 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3674,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M5">
         <v>0.11</v>
@@ -3698,7 +4227,7 @@
       </c>
       <c r="S5" s="32"/>
       <c r="T5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
@@ -3716,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD5" t="s">
         <v>35</v>
@@ -3737,7 +4266,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="b">
         <v>1</v>
@@ -3802,16 +4331,16 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3829,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>0.11</v>
@@ -3853,7 +4382,7 @@
       </c>
       <c r="S6" s="32"/>
       <c r="T6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -3871,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD6" t="s">
         <v>35</v>
@@ -3892,7 +4421,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="b">
         <v>1</v>
@@ -3972,16 +4501,16 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3999,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M8">
         <v>0.11</v>
@@ -4023,7 +4552,7 @@
       </c>
       <c r="S8" s="32"/>
       <c r="T8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -4041,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="AC8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD8" t="s">
         <v>35</v>
@@ -4062,7 +4591,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="b">
         <v>1</v>
@@ -4127,16 +4656,16 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4154,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M9">
         <v>0.11</v>
@@ -4178,7 +4707,7 @@
       </c>
       <c r="S9" s="32"/>
       <c r="T9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -4196,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD9" t="s">
         <v>35</v>
@@ -4217,7 +4746,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="b">
         <v>1</v>
@@ -4297,16 +4826,16 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4327,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M11">
         <v>0.11</v>
@@ -4353,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
@@ -4371,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD11" t="s">
         <v>35</v>
@@ -4392,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="b">
         <v>0</v>
@@ -4401,7 +4930,7 @@
         <v>77</v>
       </c>
       <c r="AM11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN11">
         <v>6.6250000000000003E-2</v>
@@ -4457,16 +4986,16 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4487,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M12">
         <v>0.11</v>
@@ -4513,7 +5042,7 @@
         <v>0.5</v>
       </c>
       <c r="T12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U12" t="b">
         <v>0</v>
@@ -4531,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="AC12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD12" t="s">
         <v>35</v>
@@ -4552,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="b">
         <v>0</v>
@@ -4561,7 +5090,7 @@
         <v>77</v>
       </c>
       <c r="AM12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN12">
         <v>6.6250000000000003E-2</v>
@@ -4647,22 +5176,22 @@
     </row>
     <row r="15" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15" s="119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" s="119" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="119" t="b">
         <v>0</v>
@@ -4677,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M15" s="119">
         <v>0.11</v>
@@ -4703,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U15" s="119" t="b">
         <v>0</v>
@@ -4721,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD15" s="119" t="s">
         <v>35</v>
@@ -4742,7 +5271,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ15" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK15" s="119" t="b">
         <v>1</v>
@@ -4751,7 +5280,7 @@
         <v>77</v>
       </c>
       <c r="AM15" s="119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN15" s="119">
         <v>6.6250000000000003E-2</v>
@@ -4807,22 +5336,22 @@
     </row>
     <row r="16" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" s="119" t="b">
         <v>0</v>
       </c>
       <c r="G16" s="119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H16" s="119" t="b">
         <v>0</v>
@@ -4837,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M16" s="119">
         <v>0.11</v>
@@ -4863,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U16" s="119" t="b">
         <v>0</v>
@@ -4881,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD16" s="119" t="s">
         <v>35</v>
@@ -4902,7 +5431,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ16" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK16" s="119" t="b">
         <v>1</v>
@@ -4911,7 +5440,7 @@
         <v>77</v>
       </c>
       <c r="AM16" s="119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN16" s="119">
         <v>6.6250000000000003E-2</v>
@@ -4984,22 +5513,22 @@
     </row>
     <row r="18" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="131" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E18" s="131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="131" t="b">
         <v>0</v>
       </c>
       <c r="G18" s="131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H18" s="131" t="b">
         <v>1</v>
@@ -5014,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="131" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M18" s="131">
         <v>0.11</v>
@@ -5040,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U18" s="131" t="b">
         <v>0</v>
@@ -5058,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD18" s="131" t="s">
         <v>35</v>
@@ -5079,7 +5608,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ18" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK18" s="131" t="b">
         <v>1</v>
@@ -5088,7 +5617,7 @@
         <v>77</v>
       </c>
       <c r="AM18" s="131" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN18" s="131">
         <v>6.6250000000000003E-2</v>
@@ -5144,22 +5673,22 @@
     </row>
     <row r="19" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" s="131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="131" t="b">
         <v>0</v>
       </c>
       <c r="G19" s="131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="131" t="b">
         <v>1</v>
@@ -5174,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M19" s="131">
         <v>0.11</v>
@@ -5200,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U19" s="131" t="b">
         <v>0</v>
@@ -5218,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD19" s="131" t="s">
         <v>35</v>
@@ -5239,7 +5768,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ19" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK19" s="131" t="b">
         <v>1</v>
@@ -5248,7 +5777,7 @@
         <v>77</v>
       </c>
       <c r="AM19" s="131" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN19" s="131">
         <v>6.6250000000000003E-2</v>
@@ -5339,22 +5868,22 @@
     </row>
     <row r="22" spans="1:58" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="146" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="146" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" s="146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="146" t="b">
         <v>0</v>
       </c>
       <c r="G22" s="146" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" s="146" t="b">
         <v>1</v>
@@ -5369,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="148" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M22" s="146">
         <v>0.11</v>
@@ -5395,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U22" s="147" t="b">
         <v>1</v>
@@ -5413,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD22" s="146" t="s">
         <v>35</v>
@@ -5434,7 +5963,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ22" s="146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK22" s="146" t="b">
         <v>1</v>
@@ -5443,7 +5972,7 @@
         <v>77</v>
       </c>
       <c r="AM22" s="146" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN22" s="146">
         <v>6.6250000000000003E-2</v>
@@ -5499,22 +6028,22 @@
     </row>
     <row r="23" spans="1:58" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="146" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="146" t="s">
         <v>231</v>
       </c>
-      <c r="C23" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="146" t="s">
-        <v>232</v>
-      </c>
       <c r="E23" s="146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F23" s="146" t="b">
         <v>0</v>
       </c>
       <c r="G23" s="146" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" s="146" t="b">
         <v>1</v>
@@ -5529,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="147" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M23" s="146">
         <v>0.11</v>
@@ -5555,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U23" s="147" t="b">
         <v>1</v>
@@ -5573,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD23" s="146" t="s">
         <v>35</v>
@@ -5594,7 +6123,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ23" s="146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK23" s="146" t="b">
         <v>1</v>
@@ -5603,7 +6132,7 @@
         <v>77</v>
       </c>
       <c r="AM23" s="146" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN23" s="146">
         <v>6.6250000000000003E-2</v>
@@ -5662,22 +6191,22 @@
     </row>
     <row r="25" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="119" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E25" s="119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F25" s="119" t="b">
         <v>0</v>
       </c>
       <c r="G25" s="119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H25" s="119" t="b">
         <v>0</v>
@@ -5692,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M25" s="119">
         <v>0.11</v>
@@ -5718,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U25" s="119" t="b">
         <v>0</v>
@@ -5745,7 +6274,7 @@
         <v>0.03</v>
       </c>
       <c r="AC25" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD25" s="119" t="s">
         <v>35</v>
@@ -5766,7 +6295,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ25" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK25" s="119" t="b">
         <v>1</v>
@@ -5775,7 +6304,7 @@
         <v>77</v>
       </c>
       <c r="AM25" s="119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN25" s="119">
         <v>6.6250000000000003E-2</v>
@@ -5831,22 +6360,22 @@
     </row>
     <row r="26" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E26" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="119" t="b">
         <v>0</v>
       </c>
       <c r="G26" s="119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H26" s="119" t="b">
         <v>0</v>
@@ -5861,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M26" s="119">
         <v>0.11</v>
@@ -5887,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U26" s="119" t="b">
         <v>0</v>
@@ -5914,7 +6443,7 @@
         <v>0.03</v>
       </c>
       <c r="AC26" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD26" s="119" t="s">
         <v>35</v>
@@ -5935,7 +6464,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ26" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK26" s="119" t="b">
         <v>1</v>
@@ -5944,7 +6473,7 @@
         <v>77</v>
       </c>
       <c r="AM26" s="119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN26" s="119">
         <v>6.6250000000000003E-2</v>
@@ -6048,22 +6577,22 @@
     </row>
     <row r="30" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C30" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E30" s="119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F30" s="119" t="b">
         <v>0</v>
       </c>
       <c r="G30" s="119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H30" s="119" t="b">
         <v>0</v>
@@ -6078,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M30" s="119">
         <v>0.11</v>
@@ -6104,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U30" s="119" t="b">
         <v>0</v>
@@ -6122,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD30" s="119" t="s">
         <v>35</v>
@@ -6143,7 +6672,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ30" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK30" s="119" t="b">
         <v>1</v>
@@ -6152,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="AM30" s="119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN30" s="119">
         <v>6.6250000000000003E-2</v>
@@ -6208,22 +6737,22 @@
     </row>
     <row r="31" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C31" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E31" s="119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F31" s="119" t="b">
         <v>0</v>
       </c>
       <c r="G31" s="119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H31" s="119" t="b">
         <v>0</v>
@@ -6238,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M31" s="119">
         <v>0.11</v>
@@ -6264,7 +6793,7 @@
         <v>0.5</v>
       </c>
       <c r="T31" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U31" s="119" t="b">
         <v>0</v>
@@ -6282,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD31" s="119" t="s">
         <v>35</v>
@@ -6303,7 +6832,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ31" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK31" s="119" t="b">
         <v>1</v>
@@ -6312,7 +6841,7 @@
         <v>77</v>
       </c>
       <c r="AM31" s="119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN31" s="119">
         <v>6.6250000000000003E-2</v>
@@ -6385,22 +6914,22 @@
     </row>
     <row r="33" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C33" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E33" s="131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F33" s="131" t="b">
         <v>0</v>
       </c>
       <c r="G33" s="131" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H33" s="131" t="b">
         <v>1</v>
@@ -6415,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="131" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M33" s="131">
         <v>0.11</v>
@@ -6441,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U33" s="131" t="b">
         <v>0</v>
@@ -6459,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD33" s="131" t="s">
         <v>35</v>
@@ -6480,7 +7009,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ33" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK33" s="131" t="b">
         <v>1</v>
@@ -6489,7 +7018,7 @@
         <v>77</v>
       </c>
       <c r="AM33" s="131" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN33" s="131">
         <v>6.6250000000000003E-2</v>
@@ -6545,22 +7074,22 @@
     </row>
     <row r="34" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="131" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C34" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E34" s="131" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F34" s="131" t="b">
         <v>0</v>
       </c>
       <c r="G34" s="131" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H34" s="131" t="b">
         <v>1</v>
@@ -6575,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M34" s="131">
         <v>0.11</v>
@@ -6601,7 +7130,7 @@
         <v>0.5</v>
       </c>
       <c r="T34" s="131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U34" s="131" t="b">
         <v>0</v>
@@ -6619,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD34" s="131" t="s">
         <v>35</v>
@@ -6640,7 +7169,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ34" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK34" s="131" t="b">
         <v>1</v>
@@ -6649,7 +7178,7 @@
         <v>77</v>
       </c>
       <c r="AM34" s="131" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN34" s="131">
         <v>6.6250000000000003E-2</v>
@@ -6740,22 +7269,22 @@
     </row>
     <row r="37" spans="1:58" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="146" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C37" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="146" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E37" s="146" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F37" s="146" t="b">
         <v>0</v>
       </c>
       <c r="G37" s="146" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H37" s="146" t="b">
         <v>1</v>
@@ -6770,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="148" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M37" s="146">
         <v>0.11</v>
@@ -6796,7 +7325,7 @@
         <v>0.5</v>
       </c>
       <c r="T37" s="146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U37" s="147" t="b">
         <v>1</v>
@@ -6814,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD37" s="146" t="s">
         <v>35</v>
@@ -6835,7 +7364,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ37" s="146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK37" s="146" t="b">
         <v>1</v>
@@ -6844,7 +7373,7 @@
         <v>77</v>
       </c>
       <c r="AM37" s="146" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN37" s="146">
         <v>6.6250000000000003E-2</v>
@@ -6900,22 +7429,22 @@
     </row>
     <row r="38" spans="1:58" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C38" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="146" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E38" s="146" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F38" s="146" t="b">
         <v>0</v>
       </c>
       <c r="G38" s="146" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H38" s="146" t="b">
         <v>1</v>
@@ -6930,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="147" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M38" s="146">
         <v>0.11</v>
@@ -6956,7 +7485,7 @@
         <v>0.5</v>
       </c>
       <c r="T38" s="146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U38" s="147" t="b">
         <v>1</v>
@@ -6974,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD38" s="146" t="s">
         <v>35</v>
@@ -6995,7 +7524,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ38" s="146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK38" s="146" t="b">
         <v>1</v>
@@ -7004,7 +7533,7 @@
         <v>77</v>
       </c>
       <c r="AM38" s="146" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN38" s="146">
         <v>6.6250000000000003E-2</v>
@@ -7063,22 +7592,22 @@
     </row>
     <row r="40" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E40" s="119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F40" s="119" t="b">
         <v>0</v>
       </c>
       <c r="G40" s="119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H40" s="119" t="b">
         <v>0</v>
@@ -7093,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M40" s="119">
         <v>0.11</v>
@@ -7119,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U40" s="119" t="b">
         <v>0</v>
@@ -7146,7 +7675,7 @@
         <v>0.03</v>
       </c>
       <c r="AC40" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD40" s="119" t="s">
         <v>35</v>
@@ -7167,7 +7696,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ40" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK40" s="119" t="b">
         <v>1</v>
@@ -7176,7 +7705,7 @@
         <v>77</v>
       </c>
       <c r="AM40" s="119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN40" s="119">
         <v>6.6250000000000003E-2</v>
@@ -7232,22 +7761,22 @@
     </row>
     <row r="41" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C41" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E41" s="119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F41" s="119" t="b">
         <v>0</v>
       </c>
       <c r="G41" s="119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H41" s="119" t="b">
         <v>0</v>
@@ -7262,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M41" s="119">
         <v>0.11</v>
@@ -7288,7 +7817,7 @@
         <v>0.5</v>
       </c>
       <c r="T41" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U41" s="119" t="b">
         <v>0</v>
@@ -7315,7 +7844,7 @@
         <v>0.03</v>
       </c>
       <c r="AC41" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD41" s="119" t="s">
         <v>35</v>
@@ -7336,7 +7865,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ41" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK41" s="119" t="b">
         <v>1</v>
@@ -7345,7 +7874,7 @@
         <v>77</v>
       </c>
       <c r="AM41" s="119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN41" s="119">
         <v>6.6250000000000003E-2</v>
@@ -7532,22 +8061,22 @@
     </row>
     <row r="51" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C51" s="119" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E51" s="131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F51" s="131" t="b">
         <v>0</v>
       </c>
       <c r="G51" s="131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H51" s="131" t="b">
         <v>1</v>
@@ -7562,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="131" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M51" s="131">
         <v>0.11</v>
@@ -7586,7 +8115,7 @@
       </c>
       <c r="S51" s="134"/>
       <c r="T51" s="131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U51" s="131" t="b">
         <v>0</v>
@@ -7604,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD51" s="131" t="s">
         <v>35</v>
@@ -7625,7 +8154,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ51" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK51" s="131" t="b">
         <v>1</v>
@@ -7690,22 +8219,22 @@
     </row>
     <row r="52" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="131" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C52" s="119" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E52" s="131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F52" s="131" t="b">
         <v>0</v>
       </c>
       <c r="G52" s="131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H52" s="131" t="b">
         <v>1</v>
@@ -7720,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M52" s="131">
         <v>0.11</v>
@@ -7744,7 +8273,7 @@
       </c>
       <c r="S52" s="143"/>
       <c r="T52" s="131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U52" s="131" t="b">
         <v>0</v>
@@ -7762,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD52" s="131" t="s">
         <v>35</v>
@@ -7783,7 +8312,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ52" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK52" s="131" t="b">
         <v>1</v>
@@ -7863,22 +8392,22 @@
     </row>
     <row r="54" spans="1:58" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="159" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C54" s="159" t="b">
         <v>0</v>
       </c>
       <c r="D54" s="159" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E54" s="159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F54" s="159" t="b">
         <v>0</v>
       </c>
       <c r="G54" s="159" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H54" s="159" t="b">
         <v>1</v>
@@ -7890,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M54" s="159">
         <v>0.11</v>
@@ -7914,7 +8443,7 @@
       </c>
       <c r="S54" s="163"/>
       <c r="T54" s="159" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U54" s="160" t="b">
         <v>1</v>
@@ -7929,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD54" s="159" t="s">
         <v>35</v>
@@ -7950,7 +8479,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ54" s="159" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK54" s="159" t="b">
         <v>1</v>
@@ -8015,22 +8544,22 @@
     </row>
     <row r="55" spans="1:58" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="159" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C55" s="159" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="159" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E55" s="159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F55" s="159" t="b">
         <v>0</v>
       </c>
       <c r="G55" s="159" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H55" s="159" t="b">
         <v>1</v>
@@ -8042,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M55" s="159">
         <v>0.11</v>
@@ -8066,7 +8595,7 @@
       </c>
       <c r="S55" s="163"/>
       <c r="T55" s="159" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U55" s="160" t="b">
         <v>1</v>
@@ -8081,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD55" s="159" t="s">
         <v>35</v>
@@ -8102,7 +8631,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ55" s="159" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK55" s="159" t="b">
         <v>1</v>
@@ -8182,22 +8711,22 @@
     </row>
     <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -8209,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M57">
         <v>0.11</v>
@@ -8233,7 +8762,7 @@
       </c>
       <c r="S57" s="32"/>
       <c r="T57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U57" t="b">
         <v>0</v>
@@ -8248,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="AC57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD57" t="s">
         <v>35</v>
@@ -8269,7 +8798,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="b">
         <v>1</v>
@@ -8334,23 +8863,23 @@
     </row>
     <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
         <v>173</v>
       </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>168</v>
-      </c>
-      <c r="E58" t="s">
-        <v>161</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>174</v>
-      </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
@@ -8361,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M58">
         <v>0.11</v>
@@ -8385,7 +8914,7 @@
       </c>
       <c r="S58" s="32"/>
       <c r="T58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U58" t="b">
         <v>0</v>
@@ -8400,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="AC58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD58" t="s">
         <v>35</v>
@@ -8421,7 +8950,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="b">
         <v>1</v>
@@ -8501,22 +9030,22 @@
     </row>
     <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -8528,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M60">
         <v>0.11</v>
@@ -8552,7 +9081,7 @@
       </c>
       <c r="S60" s="32"/>
       <c r="T60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U60" t="b">
         <v>1</v>
@@ -8567,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="AC60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD60" t="s">
         <v>35</v>
@@ -8588,7 +9117,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="b">
         <v>1</v>
@@ -8653,22 +9182,22 @@
     </row>
     <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -8680,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M61">
         <v>0.11</v>
@@ -8704,7 +9233,7 @@
       </c>
       <c r="S61" s="32"/>
       <c r="T61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U61" t="b">
         <v>1</v>
@@ -8719,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="AC61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD61" t="s">
         <v>35</v>
@@ -8740,7 +9269,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="b">
         <v>1</v>
@@ -8823,11 +9352,121 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F87A76C-B87A-4B33-9D6D-FA19B5478693}">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="103">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4">
+        <v>2108520</v>
+      </c>
+      <c r="C4">
+        <v>2199265</v>
+      </c>
+      <c r="D4">
+        <v>4287182</v>
+      </c>
+      <c r="E4" s="21">
+        <f>B4/$D4</f>
+        <v>0.49181956819187989</v>
+      </c>
+      <c r="F4" s="21">
+        <f>C4/$D4</f>
+        <v>0.51298615267558034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5">
+        <v>99496</v>
+      </c>
+      <c r="C5">
+        <v>102205</v>
+      </c>
+      <c r="D5">
+        <v>113901</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" ref="E5:F6" si="0">B5/$D5</f>
+        <v>0.87353052212008675</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.89731433437810026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B4:B5)</f>
+        <v>2208016</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C4:C5)</f>
+        <v>2301470</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D4:D5)</f>
+        <v>4401083</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.50169833197874247</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.52293265089524554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D5FB73-2BC7-4779-8A12-D312032B3487}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8842,24 +9481,24 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
         <v>178</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>179</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>180</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>181</v>
-      </c>
-      <c r="F3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4">
         <v>3558486</v>
@@ -8882,7 +9521,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5">
         <f>7790+22148</f>
@@ -8937,24 +9576,24 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
         <v>178</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>179</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>180</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>181</v>
-      </c>
-      <c r="F11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12">
         <v>3653869</v>
@@ -8977,7 +9616,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13">
         <f>12465+35689</f>
@@ -9023,116 +9662,6 @@
       <c r="F14" s="21">
         <f t="shared" si="3"/>
         <v>0.73575974331341609</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F87A76C-B87A-4B33-9D6D-FA19B5478693}">
-  <dimension ref="A2:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="103">
-        <v>44012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4">
-        <v>2108520</v>
-      </c>
-      <c r="C4">
-        <v>2199265</v>
-      </c>
-      <c r="D4">
-        <v>4287182</v>
-      </c>
-      <c r="E4" s="21">
-        <f>B4/$D4</f>
-        <v>0.49181956819187989</v>
-      </c>
-      <c r="F4" s="21">
-        <f>C4/$D4</f>
-        <v>0.51298615267558034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B5">
-        <v>99496</v>
-      </c>
-      <c r="C5">
-        <v>102205</v>
-      </c>
-      <c r="D5">
-        <v>113901</v>
-      </c>
-      <c r="E5" s="21">
-        <f t="shared" ref="E5:F6" si="0">B5/$D5</f>
-        <v>0.87353052212008675</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="0"/>
-        <v>0.89731433437810026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6">
-        <f>SUM(B4:B5)</f>
-        <v>2208016</v>
-      </c>
-      <c r="C6">
-        <f>SUM(C4:C5)</f>
-        <v>2301470</v>
-      </c>
-      <c r="D6">
-        <f>SUM(D4:D5)</f>
-        <v>4401083</v>
-      </c>
-      <c r="E6" s="21">
-        <f t="shared" si="0"/>
-        <v>0.50169833197874247</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="0"/>
-        <v>0.52293265089524554</v>
       </c>
     </row>
   </sheetData>
@@ -9142,6 +9671,340 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B472967-B134-4A3F-90B0-E75D1AE73662}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K4" t="s">
+        <v>337</v>
+      </c>
+      <c r="M4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="240">
+        <f>1940333+3247601</f>
+        <v>5187934</v>
+      </c>
+      <c r="C5" s="240">
+        <f>663180+870359</f>
+        <v>1533539</v>
+      </c>
+      <c r="D5" s="240">
+        <f>1270516+2289956</f>
+        <v>3560472</v>
+      </c>
+      <c r="E5" s="240">
+        <f>6637+87286</f>
+        <v>93923</v>
+      </c>
+      <c r="F5" s="240">
+        <v>151808</v>
+      </c>
+      <c r="G5" s="240">
+        <v>51589</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="I5" s="240">
+        <f>F5+G5</f>
+        <v>203397</v>
+      </c>
+      <c r="J5" s="240"/>
+      <c r="M5" s="21">
+        <f>E5/C5</f>
+        <v>6.1245915493508808E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="240">
+        <f>12355+35045</f>
+        <v>47400</v>
+      </c>
+      <c r="C6" s="240">
+        <f>12252+34095</f>
+        <v>46347</v>
+      </c>
+      <c r="D6" s="240">
+        <v>0</v>
+      </c>
+      <c r="E6" s="240">
+        <f>103+950</f>
+        <v>1053</v>
+      </c>
+      <c r="F6" s="240"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="6">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="I6" s="240">
+        <v>13460</v>
+      </c>
+      <c r="J6" s="240"/>
+      <c r="M6" s="21">
+        <f t="shared" ref="M6:M11" si="0">E6/C6</f>
+        <v>2.2719917146740889E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="241">
+        <f>SUM(B5:B6)</f>
+        <v>5235334</v>
+      </c>
+      <c r="C7" s="241">
+        <f>SUM(C5:C6)</f>
+        <v>1579886</v>
+      </c>
+      <c r="D7" s="241">
+        <f t="shared" ref="D7:E7" si="1">SUM(D5:D6)</f>
+        <v>3560472</v>
+      </c>
+      <c r="E7" s="241">
+        <f t="shared" si="1"/>
+        <v>94976</v>
+      </c>
+      <c r="F7" s="241">
+        <f>SUM(F5:F6)</f>
+        <v>151808</v>
+      </c>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242">
+        <v>0.1258</v>
+      </c>
+      <c r="I7" s="241">
+        <f t="shared" ref="G7:I7" si="2">SUM(I5:I6)</f>
+        <v>216857</v>
+      </c>
+      <c r="J7" s="241"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="240"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="240">
+        <v>4287182</v>
+      </c>
+      <c r="C9" s="240">
+        <v>989989</v>
+      </c>
+      <c r="D9" s="240">
+        <v>3058405</v>
+      </c>
+      <c r="E9" s="240">
+        <v>238788</v>
+      </c>
+      <c r="F9" s="240">
+        <v>160694</v>
+      </c>
+      <c r="G9" s="240">
+        <v>27792</v>
+      </c>
+      <c r="H9" s="6">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="I9" s="240">
+        <f>F9+G9</f>
+        <v>188486</v>
+      </c>
+      <c r="J9" s="240"/>
+      <c r="M9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.2412026800297781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="240">
+        <v>113901</v>
+      </c>
+      <c r="C10" s="240">
+        <v>103025</v>
+      </c>
+      <c r="D10" s="240">
+        <v>1449</v>
+      </c>
+      <c r="E10" s="240">
+        <v>9427</v>
+      </c>
+      <c r="F10" s="240"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="6">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="I10" s="240">
+        <f>17529</f>
+        <v>17529</v>
+      </c>
+      <c r="J10" s="240"/>
+      <c r="M10" s="21">
+        <f t="shared" si="0"/>
+        <v>9.1502062606163559E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="241">
+        <v>4401083</v>
+      </c>
+      <c r="C11" s="241">
+        <f>SUM(C9:C10)</f>
+        <v>1093014</v>
+      </c>
+      <c r="D11" s="241">
+        <f t="shared" ref="D11:E11" si="3">SUM(D9:D10)</f>
+        <v>3059854</v>
+      </c>
+      <c r="E11" s="241">
+        <f t="shared" si="3"/>
+        <v>248215</v>
+      </c>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="241">
+        <f>SUM(I9:I10)</f>
+        <v>206015</v>
+      </c>
+      <c r="J11" s="240"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>343</v>
+      </c>
+      <c r="I13" s="51">
+        <f>SUM(I7,I11)</f>
+        <v>422872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" s="243">
+        <f>I13/(1+0.06625)</f>
+        <v>396597.42086752638</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B52CF-F68E-4F30-8ABF-CB7E2B4A22C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE360E25-C0E1-4FAA-AC7C-3F0B54F07DA2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB32A6C4-ACA0-45DC-BC57-7EB18A5B54DD}">
   <dimension ref="B2:D6"/>
   <sheetViews>
@@ -9158,15 +10021,15 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -9177,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -9188,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -9199,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9208,7 +10071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902A1A61-E5B1-49A8-A09E-CAB028E7EE88}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -9220,34 +10083,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" t="s">
         <v>192</v>
-      </c>
-      <c r="E1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBA09A0-B0A8-486D-AE85-1FBE9CD0DE7B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
-  <dimension ref="A3:AI43"/>
+  <dimension ref="A3:AJ43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9269,17 +10146,17 @@
     <col min="18" max="19" width="17.42578125" customWidth="1"/>
     <col min="20" max="20" width="18.5703125" customWidth="1"/>
     <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="22" max="22" width="25.7109375" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" customWidth="1"/>
-    <col min="29" max="34" width="11.7109375" customWidth="1"/>
-    <col min="35" max="35" width="10" customWidth="1"/>
+    <col min="22" max="23" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" customWidth="1"/>
+    <col min="30" max="35" width="11.7109375" customWidth="1"/>
+    <col min="36" max="36" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:35" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -9289,16 +10166,16 @@
       <c r="F3" s="117"/>
       <c r="G3" s="117"/>
       <c r="H3" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L3" s="23"/>
       <c r="M3" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
@@ -9314,19 +10191,20 @@
         <v>73</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V3" s="16"/>
-      <c r="W3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" s="12"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
-    </row>
-    <row r="4" spans="1:35" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="12"/>
+    </row>
+    <row r="4" spans="1:36" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -9343,31 +10221,31 @@
         <v>68</v>
       </c>
       <c r="F4" s="118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="H4" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="I4" s="102" t="s">
-        <v>201</v>
-      </c>
       <c r="J4" s="102" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K4" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="L4" s="102" t="s">
-        <v>166</v>
-      </c>
       <c r="M4" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="102" t="s">
         <v>163</v>
-      </c>
-      <c r="N4" s="102" t="s">
-        <v>164</v>
       </c>
       <c r="O4" s="24" t="s">
         <v>75</v>
@@ -9390,58 +10268,61 @@
       <c r="U4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="W4" s="8" t="s">
+      <c r="V4" s="244" t="s">
+        <v>346</v>
+      </c>
+      <c r="W4" s="244" t="s">
+        <v>347</v>
+      </c>
+      <c r="X4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="Y4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="Z4" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="AB4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M5">
         <v>0.5</v>
@@ -9470,55 +10351,54 @@
       <c r="U5" t="b">
         <v>0</v>
       </c>
-      <c r="V5" s="27">
-        <v>0.11</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>1.05</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1.4</v>
-      </c>
-      <c r="AA5">
-        <v>0.8</v>
       </c>
       <c r="AB5">
         <v>0.8</v>
       </c>
       <c r="AC5">
+        <v>0.8</v>
+      </c>
+      <c r="AD5">
         <v>20</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>64</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>20</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>100</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>40</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>65</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>155</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>156</v>
       </c>
       <c r="M6">
         <v>0.5</v>
@@ -9547,14 +10427,10 @@
       <c r="U6" t="b">
         <v>0</v>
       </c>
-      <c r="V6" s="27">
-        <v>0.11</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -9565,16 +10441,19 @@
       <c r="AB6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -9603,14 +10482,10 @@
       <c r="U7" t="b">
         <v>0</v>
       </c>
-      <c r="V7" s="27">
-        <v>0.11</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -9621,16 +10496,19 @@
       <c r="AB7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M8">
         <v>0.5</v>
@@ -9659,14 +10537,10 @@
       <c r="U8" t="b">
         <v>0</v>
       </c>
-      <c r="V8" s="27">
-        <v>0.11</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -9677,22 +10551,26 @@
       <c r="AB8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V9" s="27"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W9" s="27"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10" s="119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M10" s="119">
         <v>0</v>
@@ -9721,58 +10599,57 @@
       <c r="U10" t="b">
         <v>0</v>
       </c>
-      <c r="V10" s="27">
-        <v>0.11</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>1.05</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1.4</v>
-      </c>
-      <c r="AA10">
-        <v>0.8</v>
       </c>
       <c r="AB10">
         <v>0.8</v>
       </c>
       <c r="AC10">
+        <v>0.8</v>
+      </c>
+      <c r="AD10">
         <v>20</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>69</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>20</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>100</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>50</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>70</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F11" s="119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M11" s="119">
         <v>0</v>
@@ -9801,14 +10678,10 @@
       <c r="U11" t="b">
         <v>0</v>
       </c>
-      <c r="V11" s="27">
-        <v>0.11</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -9820,39 +10693,42 @@
         <v>1</v>
       </c>
       <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
         <v>20</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>69</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>20</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>100</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>50</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>70</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="119" t="s">
         <v>300</v>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="119" t="s">
-        <v>301</v>
-      </c>
       <c r="F12" s="119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M12" s="119">
         <v>0</v>
@@ -9881,14 +10757,10 @@
       <c r="U12" t="b">
         <v>0</v>
       </c>
-      <c r="V12" s="27">
-        <v>0.11</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -9900,48 +10772,54 @@
         <v>1</v>
       </c>
       <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
         <v>20</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>69</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>20</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>100</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>50</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>70</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V13" s="27"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W13" s="27"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V14" s="27"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W14" s="27"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V15" s="27"/>
-    </row>
-    <row r="16" spans="1:35" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="27"/>
+    </row>
+    <row r="16" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="119" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M16" s="119">
         <v>0</v>
@@ -9968,16 +10846,16 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="U16" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="120">
-        <v>0.11</v>
-      </c>
-      <c r="W16" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="119">
-        <v>1</v>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="W16" s="120">
+        <v>2.3E-2</v>
+      </c>
+      <c r="X16" s="119">
+        <v>0</v>
       </c>
       <c r="Z16" s="119">
         <v>1</v>
@@ -9988,43 +10866,47 @@
       <c r="AB16" s="119">
         <v>1</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="119">
+        <v>1</v>
+      </c>
+      <c r="AD16">
         <v>20</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>64</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>20</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>100</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>40</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>65</v>
       </c>
-      <c r="AI16" s="119">
+      <c r="AJ16" s="119">
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V17" s="27"/>
-    </row>
-    <row r="18" spans="1:35" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="27"/>
+    </row>
+    <row r="18" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="119" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="119" t="b">
         <v>0</v>
       </c>
       <c r="E18" s="119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F18" s="121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G18" s="121">
         <v>2021</v>
@@ -10069,16 +10951,16 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="U18" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="120">
-        <v>0.11</v>
-      </c>
-      <c r="W18" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="119">
-        <v>1</v>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="W18" s="120">
+        <v>2.3E-2</v>
+      </c>
+      <c r="X18" s="119">
+        <v>0</v>
       </c>
       <c r="Z18" s="119">
         <v>1</v>
@@ -10089,40 +10971,43 @@
       <c r="AB18" s="119">
         <v>1</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="119">
+        <v>1</v>
+      </c>
+      <c r="AD18">
         <v>20</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>64</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>20</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>100</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>40</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>65</v>
       </c>
-      <c r="AI18" s="119">
+      <c r="AJ18" s="119">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="119" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="121" t="s">
         <v>232</v>
-      </c>
-      <c r="C19" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="119" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="121" t="s">
-        <v>233</v>
       </c>
       <c r="G19" s="122">
         <v>2021</v>
@@ -10158,16 +11043,16 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="U19" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="120">
-        <v>0.11</v>
-      </c>
-      <c r="W19" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="119">
-        <v>1</v>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="W19" s="120">
+        <v>2.3E-2</v>
+      </c>
+      <c r="X19" s="119">
+        <v>0</v>
       </c>
       <c r="Z19" s="119">
         <v>1</v>
@@ -10178,56 +11063,61 @@
       <c r="AB19" s="119">
         <v>1</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="119">
+        <v>1</v>
+      </c>
+      <c r="AD19">
         <v>20</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>64</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>20</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>100</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>40</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>65</v>
       </c>
-      <c r="AI19" s="119">
+      <c r="AJ19" s="119">
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F20" s="121"/>
       <c r="G20" s="122"/>
       <c r="K20" s="175"/>
       <c r="L20" s="175"/>
       <c r="V20" s="120"/>
-      <c r="AC20"/>
+      <c r="W20" s="120"/>
       <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20"/>
       <c r="AG20"/>
       <c r="AH20"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI20"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V21" s="27"/>
-    </row>
-    <row r="22" spans="1:35" s="227" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="27"/>
+    </row>
+    <row r="22" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="227" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="227" t="b">
         <v>0</v>
       </c>
       <c r="E22" s="227" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F22" s="227" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M22" s="227">
         <v>0</v>
@@ -10254,16 +11144,16 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="U22" s="227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="228">
-        <v>0.11</v>
-      </c>
-      <c r="W22" s="227">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="227">
-        <v>1</v>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="W22" s="228">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="X22" s="227">
+        <v>0</v>
       </c>
       <c r="Z22" s="227">
         <v>1</v>
@@ -10275,42 +11165,46 @@
         <v>1</v>
       </c>
       <c r="AC22" s="227">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="227">
         <v>20</v>
       </c>
-      <c r="AD22" s="227">
+      <c r="AE22" s="227">
         <v>69</v>
       </c>
-      <c r="AE22" s="227">
+      <c r="AF22" s="227">
         <v>20</v>
       </c>
-      <c r="AF22" s="227">
+      <c r="AG22" s="227">
         <v>100</v>
       </c>
-      <c r="AG22" s="227">
+      <c r="AH22" s="227">
         <v>50</v>
       </c>
-      <c r="AH22" s="227">
+      <c r="AI22" s="227">
         <v>70</v>
       </c>
-      <c r="AI22" s="227">
+      <c r="AJ22" s="227">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V23" s="27"/>
-    </row>
-    <row r="24" spans="1:35" s="227" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="27"/>
+    </row>
+    <row r="24" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="227" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24" s="227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="227" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G24" s="121">
         <v>2021</v>
@@ -10353,16 +11247,16 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="U24" s="227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="228">
-        <v>0.11</v>
-      </c>
-      <c r="W24" s="227">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="227">
-        <v>1</v>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="W24" s="228">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="X24" s="227">
+        <v>0</v>
       </c>
       <c r="Z24" s="227">
         <v>1</v>
@@ -10374,39 +11268,42 @@
         <v>1</v>
       </c>
       <c r="AC24" s="227">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="227">
         <v>20</v>
       </c>
-      <c r="AD24" s="227">
+      <c r="AE24" s="227">
         <v>69</v>
       </c>
-      <c r="AE24" s="227">
+      <c r="AF24" s="227">
         <v>20</v>
       </c>
-      <c r="AF24" s="227">
+      <c r="AG24" s="227">
         <v>100</v>
       </c>
-      <c r="AG24" s="227">
+      <c r="AH24" s="227">
         <v>50</v>
       </c>
-      <c r="AH24" s="227">
+      <c r="AI24" s="227">
         <v>70</v>
       </c>
-      <c r="AI24" s="227">
+      <c r="AJ24" s="227">
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="227" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="227" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" s="227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="227" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F25" s="121" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G25" s="122">
         <v>2021</v>
@@ -10439,16 +11336,16 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="U25" s="227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="228">
-        <v>0.11</v>
-      </c>
-      <c r="W25" s="227">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="227">
-        <v>1</v>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="W25" s="228">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="X25" s="227">
+        <v>0</v>
       </c>
       <c r="Z25" s="227">
         <v>1</v>
@@ -10460,69 +11357,82 @@
         <v>1</v>
       </c>
       <c r="AC25" s="227">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="227">
         <v>20</v>
       </c>
-      <c r="AD25" s="227">
+      <c r="AE25" s="227">
         <v>69</v>
       </c>
-      <c r="AE25" s="227">
+      <c r="AF25" s="227">
         <v>20</v>
       </c>
-      <c r="AF25" s="227">
+      <c r="AG25" s="227">
         <v>100</v>
       </c>
-      <c r="AG25" s="227">
+      <c r="AH25" s="227">
         <v>50</v>
       </c>
-      <c r="AH25" s="227">
+      <c r="AI25" s="227">
         <v>70</v>
       </c>
-      <c r="AI25" s="227">
+      <c r="AJ25" s="227">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V26" s="27"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W26" s="27"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V27" s="27"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W27" s="27"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V28" s="27"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W28" s="27"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V29" s="27"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W29" s="27"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V30" s="27"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W30" s="27"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V31" s="27"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W31" s="27"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V32" s="27"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W32" s="27"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V33" s="27"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W33" s="27"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V34" s="27"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W34" s="27"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V35" s="27"/>
-    </row>
-    <row r="36" spans="1:35" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W35" s="27"/>
+    </row>
+    <row r="36" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" s="119" t="b">
         <v>0</v>
       </c>
       <c r="E36" s="119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36" s="119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G36" s="119">
         <v>2021</v>
@@ -10554,14 +11464,10 @@
       <c r="U36" s="119" t="b">
         <v>0</v>
       </c>
-      <c r="V36" s="120">
-        <v>0.11</v>
-      </c>
-      <c r="W36" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="119">
-        <v>1</v>
+      <c r="V36" s="120"/>
+      <c r="W36" s="120"/>
+      <c r="X36" s="119">
+        <v>0</v>
       </c>
       <c r="Z36" s="119">
         <v>1</v>
@@ -10572,40 +11478,43 @@
       <c r="AB36" s="119">
         <v>1</v>
       </c>
-      <c r="AC36">
+      <c r="AC36" s="119">
+        <v>1</v>
+      </c>
+      <c r="AD36">
         <v>20</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>64</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>20</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>100</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>40</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>65</v>
       </c>
-      <c r="AI36" s="119">
+      <c r="AJ36" s="119">
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:35" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="119" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="119" t="b">
         <v>0</v>
       </c>
       <c r="E37" s="119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" s="119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G37" s="119">
         <v>2021</v>
@@ -10643,14 +11552,10 @@
       <c r="U37" s="119" t="b">
         <v>0</v>
       </c>
-      <c r="V37" s="120">
-        <v>0.11</v>
-      </c>
-      <c r="W37" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="119">
-        <v>1</v>
+      <c r="V37" s="120"/>
+      <c r="W37" s="120"/>
+      <c r="X37" s="119">
+        <v>0</v>
       </c>
       <c r="Z37" s="119">
         <v>1</v>
@@ -10661,45 +11566,54 @@
       <c r="AB37" s="119">
         <v>1</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="119">
+        <v>1</v>
+      </c>
+      <c r="AD37">
         <v>20</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>64</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>20</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>100</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>40</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>65</v>
       </c>
-      <c r="AI37" s="119">
+      <c r="AJ37" s="119">
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V38" s="27"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W38" s="27"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V39" s="27"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W39" s="27"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V40" s="27"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W40" s="27"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V41" s="27"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W41" s="27"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V42" s="27"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W42" s="27"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -10721,7 +11635,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10768,7 +11682,7 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>81</v>
@@ -10805,7 +11719,7 @@
   <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10826,65 +11740,65 @@
         <v>13</v>
       </c>
       <c r="C2" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D2" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="F2" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="G2" s="113" t="s">
         <v>215</v>
-      </c>
-      <c r="G2" s="113" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="30" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="30" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -10892,48 +11806,48 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="131" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="131" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="131" t="s">
         <v>227</v>
-      </c>
-      <c r="E6" s="131" t="s">
-        <v>225</v>
-      </c>
-      <c r="F6" s="131" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="131" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="131" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="131" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="131" t="s">
         <v>227</v>
-      </c>
-      <c r="E7" s="131" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="131" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="131" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -10947,189 +11861,189 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="131" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="131" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" s="131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="131" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="146" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="146" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="146" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="146" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E12" s="146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F12" s="146" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G12" s="131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="146" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="146" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" s="146" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E13" s="146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F13" s="146" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G13" s="131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="30" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>245</v>
-      </c>
       <c r="G15" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B16" s="30" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>245</v>
-      </c>
       <c r="G16" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B19" s="30" t="b">
         <v>1</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B20" s="30" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11137,48 +12051,48 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B22" s="131" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="131" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D22" s="131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E22" s="131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F22" s="131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G22" s="131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="131" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B23" s="131" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="131" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D23" s="131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E23" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F23" s="131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G23" s="131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -11192,95 +12106,95 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="146" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B27" s="146" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="146" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D27" s="146" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E27" s="146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F27" s="146" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G27" s="131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B28" s="146" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D28" s="146" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E28" s="146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="146" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G28" s="131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" s="30" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" s="30" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -11330,94 +12244,94 @@
     </row>
     <row r="37" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="159" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B37" s="159" t="b">
         <v>0</v>
       </c>
       <c r="C37" s="159" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" s="159" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="159" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F37" s="159" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G37" s="159" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="159" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B38" s="159" t="b">
         <v>0</v>
       </c>
       <c r="C38" s="159" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="159" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E38" s="159" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F38" s="159" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G38" s="159" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B40" s="131" t="b">
         <v>0</v>
       </c>
       <c r="C40" s="131" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D40" s="131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E40" s="131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F40" s="131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G40" s="131" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="131" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B41" s="131" t="b">
         <v>0</v>
       </c>
       <c r="C41" s="131" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D41" s="131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E41" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F41" s="131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G41" s="131" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -11493,7 +12407,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11702,7 +12616,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" s="176">
         <v>6.6250000000000003E-2</v>
@@ -11721,12 +12635,12 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13" s="176">
         <v>7.3450000000000001E-2</v>
@@ -11757,7 +12671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9FDD0-43C0-4547-B8AB-B7BD31607ED6}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -11770,19 +12684,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="238"/>
       <c r="C3" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>109</v>
-      </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11796,14 +12710,14 @@
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="45">
         <v>442147</v>
@@ -11818,7 +12732,7 @@
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="45">
         <v>5389</v>
@@ -11833,7 +12747,7 @@
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="45">
         <v>1436</v>
@@ -11848,7 +12762,7 @@
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="46">
         <v>159348</v>
@@ -11863,7 +12777,7 @@
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="55">
         <v>608320</v>
@@ -11878,7 +12792,7 @@
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="92">
         <v>71385</v>
@@ -11892,7 +12806,7 @@
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="92"/>
       <c r="D12" s="92"/>
@@ -11900,7 +12814,7 @@
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="96">
         <f>C6/C$11</f>
@@ -11917,7 +12831,7 @@
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="96">
         <f t="shared" ref="C14:E14" si="2">C7/C$11</f>
@@ -11934,7 +12848,7 @@
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="96">
         <f t="shared" ref="C15:E15" si="3">C8/C$11</f>
@@ -11951,7 +12865,7 @@
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="96">
         <f t="shared" ref="C16:E16" si="4">C9/C$11</f>
@@ -11968,7 +12882,7 @@
     </row>
     <row r="17" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="98">
         <f t="shared" ref="C17:E17" si="5">C10/C$11</f>
@@ -11985,7 +12899,7 @@
     </row>
     <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="48">
         <v>9069</v>
@@ -12000,7 +12914,7 @@
     </row>
     <row r="19" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -12011,7 +12925,7 @@
     </row>
     <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="48">
         <v>499249</v>
@@ -12026,7 +12940,7 @@
     </row>
     <row r="21" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="45">
         <v>86688</v>
@@ -12041,7 +12955,7 @@
     </row>
     <row r="22" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="46">
         <v>627487</v>
@@ -12056,7 +12970,7 @@
     </row>
     <row r="23" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="57">
         <v>1213424</v>
@@ -12071,7 +12985,7 @@
     </row>
     <row r="24" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="60">
         <v>1830813</v>
@@ -12086,7 +13000,7 @@
     </row>
     <row r="25" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="45">
         <v>1054566</v>
@@ -12101,7 +13015,7 @@
     </row>
     <row r="26" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="45">
         <v>776247</v>
@@ -12116,7 +13030,7 @@
     </row>
     <row r="27" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -12124,7 +13038,7 @@
     </row>
     <row r="28" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -12132,7 +13046,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="44">
         <v>3777</v>
@@ -12147,7 +13061,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="43">
         <v>57</v>
@@ -12162,7 +13076,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="43">
         <v>61</v>
@@ -12177,7 +13091,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="40">
         <v>3867</v>
@@ -12192,7 +13106,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="52">
         <v>7762</v>
@@ -12207,7 +13121,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" s="81">
         <v>12070</v>
@@ -12222,7 +13136,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="101">
         <f>C29/C$34</f>
@@ -12239,7 +13153,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="101">
         <f t="shared" ref="C36:E36" si="8">C30/C$34</f>
@@ -12256,7 +13170,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="101">
         <f t="shared" ref="C37:E37" si="9">C31/C$34</f>
@@ -12273,7 +13187,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="101">
         <f t="shared" ref="C38:E38" si="10">C32/C$34</f>
@@ -12290,7 +13204,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="44">
         <v>47</v>
@@ -12305,7 +13219,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="53">
         <v>7809</v>
@@ -12320,7 +13234,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="39">
         <v>6117</v>
@@ -12335,7 +13249,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="39">
         <v>1692</v>
@@ -12362,7 +13276,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12373,18 +13287,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="239" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -12401,18 +13315,18 @@
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="239"/>
       <c r="D7" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="84" t="s">
-        <v>144</v>
-      </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="77">
         <v>17717</v>
@@ -12427,7 +13341,7 @@
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="64">
         <v>1258</v>
@@ -12442,7 +13356,7 @@
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="66">
         <v>279</v>
@@ -12457,7 +13371,7 @@
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="64">
         <v>10678</v>
@@ -12472,7 +13386,7 @@
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="68">
         <v>182</v>
@@ -12487,7 +13401,7 @@
     </row>
     <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="79">
         <v>30114</v>
@@ -12502,7 +13416,7 @@
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="81">
         <v>71385</v>
@@ -12517,7 +13431,7 @@
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="87">
         <v>0.4219</v>
@@ -12540,7 +13454,7 @@
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="90">
         <f>D8/D$14</f>
@@ -12557,7 +13471,7 @@
     </row>
     <row r="17" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="90">
         <f t="shared" ref="D17:F17" si="2">D9/D$14</f>
@@ -12574,7 +13488,7 @@
     </row>
     <row r="18" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="90">
         <f t="shared" ref="D18:F18" si="3">D10/D$14</f>
@@ -12591,7 +13505,7 @@
     </row>
     <row r="19" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="90">
         <f t="shared" ref="D19:F19" si="4">D11/D$14</f>
@@ -12608,7 +13522,7 @@
     </row>
     <row r="20" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="74">
         <v>0.28849999999999998</v>
@@ -12619,7 +13533,7 @@
     </row>
     <row r="21" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="76">
         <v>0.13339999999999999</v>
@@ -12635,14 +13549,14 @@
     </row>
     <row r="23" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="77">
         <v>1608</v>
@@ -12657,7 +13571,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="66">
         <v>131</v>
@@ -12672,7 +13586,7 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="66">
         <v>47</v>
@@ -12687,7 +13601,7 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="70">
         <v>1864</v>
@@ -12702,7 +13616,7 @@
     </row>
     <row r="28" spans="3:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C28" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="79">
         <v>3650</v>
@@ -12717,7 +13631,7 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" s="81">
         <v>12070</v>
@@ -12732,7 +13646,7 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="73">
         <v>0.3024</v>
@@ -12747,7 +13661,7 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="73">
         <f>D24/D$29</f>
@@ -12764,7 +13678,7 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" s="73">
         <f t="shared" ref="D32:F32" si="6">D25/D$29</f>
@@ -12781,7 +13695,7 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="73">
         <f t="shared" ref="D33:F33" si="7">D26/D$29</f>
@@ -12798,7 +13712,7 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="73">
         <f t="shared" ref="D34:F34" si="8">D27/D$29</f>
@@ -12815,7 +13729,7 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" s="74">
         <v>0.2379</v>
@@ -12826,7 +13740,7 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="74">
         <v>6.4500000000000002E-2</v>
@@ -12848,8 +13762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3E290-3EF3-427F-B350-8CD64CF48547}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12864,7 +13778,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12875,24 +13789,24 @@
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="238"/>
       <c r="D5" s="214" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E5" s="215" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="226" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="226" t="s">
         <v>297</v>
       </c>
-      <c r="G5" s="226" t="s">
+      <c r="H5" s="226" t="s">
         <v>298</v>
-      </c>
-      <c r="H5" s="226" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="181" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D6" s="213"/>
       <c r="E6" s="213"/>
@@ -12900,7 +13814,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="193" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="222">
         <v>1214362</v>
@@ -12923,7 +13837,7 @@
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="211" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" s="216"/>
       <c r="E8" s="217">
@@ -12938,7 +13852,7 @@
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="211" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="216"/>
       <c r="E9" s="218">
@@ -12953,7 +13867,7 @@
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="211" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" s="216"/>
       <c r="E10" s="218">
@@ -12968,7 +13882,7 @@
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="211" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D11" s="216"/>
       <c r="E11" s="218">
@@ -12983,7 +13897,7 @@
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="193" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" s="219">
         <v>238788</v>
@@ -13002,7 +13916,7 @@
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="193" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="213"/>
       <c r="E13" s="220"/>
@@ -13011,7 +13925,7 @@
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="182" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D14" s="222">
         <v>2791286</v>
@@ -13025,7 +13939,7 @@
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="182" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D15" s="219">
         <v>179625</v>
@@ -13039,7 +13953,7 @@
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="182" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D16" s="219">
         <v>87494</v>
@@ -13053,7 +13967,7 @@
     </row>
     <row r="17" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="182" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17" s="222">
         <v>3058405</v>
@@ -13072,7 +13986,7 @@
     </row>
     <row r="18" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="181" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="223">
         <v>4511555</v>
@@ -13091,7 +14005,7 @@
     </row>
     <row r="19" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="193" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" s="224">
         <v>143411</v>
@@ -13102,14 +14016,14 @@
     </row>
     <row r="20" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="181" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D20" s="213"/>
       <c r="E20" s="213"/>
     </row>
     <row r="21" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="193" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D21" s="222">
         <v>342332</v>
@@ -13132,7 +14046,7 @@
     </row>
     <row r="22" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="211" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D22" s="216"/>
       <c r="E22" s="217">
@@ -13146,7 +14060,7 @@
     </row>
     <row r="23" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="211" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D23" s="216"/>
       <c r="E23" s="218">
@@ -13160,7 +14074,7 @@
     </row>
     <row r="24" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="211" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" s="216"/>
       <c r="E24" s="218">
@@ -13174,7 +14088,7 @@
     </row>
     <row r="25" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="211" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D25" s="216"/>
       <c r="E25" s="218">
@@ -13188,7 +14102,7 @@
     </row>
     <row r="26" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="193" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D26" s="219">
         <v>9427</v>
@@ -13207,7 +14121,7 @@
     </row>
     <row r="27" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="193" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D27" s="213"/>
       <c r="E27" s="218">
@@ -13224,7 +14138,7 @@
     </row>
     <row r="28" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="182" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D28" s="222">
         <v>1449</v>
@@ -13238,7 +14152,7 @@
     </row>
     <row r="29" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="182" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D29" s="221">
         <v>0</v>
@@ -13252,7 +14166,7 @@
     </row>
     <row r="30" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="182" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D30" s="222">
         <v>1449</v>
@@ -13266,7 +14180,7 @@
     </row>
     <row r="31" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="181" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D31" s="223">
         <v>353208</v>
@@ -13285,7 +14199,7 @@
     </row>
     <row r="32" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="193" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D32" s="224">
         <v>168259</v>
@@ -13304,7 +14218,7 @@
     </row>
     <row r="33" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="199" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D33" s="223">
         <v>4864763</v>
@@ -13343,7 +14257,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:F22"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13356,12 +14270,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="177" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -13376,40 +14290,40 @@
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="238"/>
       <c r="F6" s="180" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K6" s="180" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="206" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="207" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F7" s="37"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="208" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="209">
         <f t="shared" ref="E8:E13" si="0">F8/$F$14</f>
         <v>0.16468053357134391</v>
       </c>
       <c r="F8" s="184" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="183" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="183" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="208" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" s="209">
         <f t="shared" si="0"/>
@@ -13424,7 +14338,7 @@
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="208" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="209">
         <f t="shared" si="0"/>
@@ -13439,7 +14353,7 @@
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="208" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" s="209">
         <f t="shared" si="0"/>
@@ -13454,7 +14368,7 @@
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="208" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="209">
         <f t="shared" si="0"/>
@@ -13469,33 +14383,33 @@
     </row>
     <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="206" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="209">
         <f t="shared" si="0"/>
         <v>0.24961823012181772</v>
       </c>
       <c r="F13" s="192" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="191" t="s">
         <v>266</v>
-      </c>
-      <c r="K13" s="191" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="193" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="184" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="184" t="s">
+      <c r="K14" s="183" t="s">
         <v>269</v>
-      </c>
-      <c r="K14" s="183" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="194" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F15" s="196">
         <v>0.24959999999999999</v>
@@ -13506,7 +14420,7 @@
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="203" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E16" s="119"/>
       <c r="F16" s="37"/>
@@ -13514,22 +14428,22 @@
     </row>
     <row r="17" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="204" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E17" s="210">
         <f>F17/$F$22</f>
         <v>0.10194402676825608</v>
       </c>
       <c r="F17" s="184" t="s">
+        <v>272</v>
+      </c>
+      <c r="K17" s="183" t="s">
         <v>273</v>
-      </c>
-      <c r="K17" s="183" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="204" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" s="210">
         <f t="shared" ref="E18:E21" si="1">F18/$F$22</f>
@@ -13544,7 +14458,7 @@
     </row>
     <row r="19" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="204" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E19" s="210">
         <f t="shared" si="1"/>
@@ -13559,7 +14473,7 @@
     </row>
     <row r="20" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="204" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E20" s="210">
         <f t="shared" si="1"/>
@@ -13574,33 +14488,33 @@
     </row>
     <row r="21" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="205" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E21" s="210">
         <f t="shared" si="1"/>
         <v>0.14861612157447746</v>
       </c>
       <c r="F21" s="192" t="s">
+        <v>275</v>
+      </c>
+      <c r="K21" s="191" t="s">
         <v>276</v>
-      </c>
-      <c r="K21" s="191" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="22" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="193" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F22" s="184" t="s">
+        <v>277</v>
+      </c>
+      <c r="K22" s="183" t="s">
         <v>278</v>
-      </c>
-      <c r="K22" s="183" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="199" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F23" s="201">
         <v>0.14860000000000001</v>
@@ -13611,7 +14525,7 @@
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D25" s="202" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D75861-0D91-4484-9C9B-2824A46CE239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4F213-ECF5-4E0C-971B-EDEAC515477F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="Cost PF" sheetId="39" r:id="rId13"/>
     <sheet name="Cost FC" sheetId="40" r:id="rId14"/>
     <sheet name="Note1" sheetId="29" r:id="rId15"/>
-    <sheet name="Notes on scenarios" sheetId="32" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="37" r:id="rId17"/>
+    <sheet name="Policies_FC" sheetId="37" r:id="rId16"/>
+    <sheet name="Policies_PF" sheetId="32" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="396">
   <si>
     <t>nsim</t>
   </si>
@@ -1103,18 +1103,6 @@
     <t>pf_measureB</t>
   </si>
   <si>
-    <t>Pre99</t>
-  </si>
-  <si>
-    <t>Valuation</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation </t>
-  </si>
-  <si>
     <t>bfactor_newServ</t>
   </si>
   <si>
@@ -1831,9 +1819,6 @@
     <t>AL vested</t>
   </si>
   <si>
-    <t>expected PR</t>
-  </si>
-  <si>
     <t>UAL</t>
   </si>
   <si>
@@ -1862,6 +1847,169 @@
   </si>
   <si>
     <t>AL_defrRet_pctALactives.t2</t>
+  </si>
+  <si>
+    <t>V-3</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Expected payroll</t>
+  </si>
+  <si>
+    <t>NC tot</t>
+  </si>
+  <si>
+    <t>NC ret</t>
+  </si>
+  <si>
+    <t>NC term</t>
+  </si>
+  <si>
+    <t>NC disb</t>
+  </si>
+  <si>
+    <t>NC death</t>
+  </si>
+  <si>
+    <t>Does the expected payroll over expected new entrants?</t>
+  </si>
+  <si>
+    <t>Benefit accrual</t>
+  </si>
+  <si>
+    <t>Max benefit</t>
+  </si>
+  <si>
+    <t>COLA</t>
+  </si>
+  <si>
+    <t>Employee contribution</t>
+  </si>
+  <si>
+    <t>Baseline (current policy)</t>
+  </si>
+  <si>
+    <t>Tier1: 2.5%</t>
+  </si>
+  <si>
+    <t>Tier2: 2%</t>
+  </si>
+  <si>
+    <t>75%(Tier 1) or 70% (Tier 2) of final average salary</t>
+  </si>
+  <si>
+    <t>Tier1: 3% fixed</t>
+  </si>
+  <si>
+    <t>Tier2: CPI capped at 1.25% ~ 2% depending on years of service</t>
+  </si>
+  <si>
+    <t>Tier1: 27.2% of normal cost</t>
+  </si>
+  <si>
+    <t>Tier2: 50% ADC with limit on annual increase; no less than 50% of normal cost (city contribution no less than 50% of normal cost)</t>
+  </si>
+  <si>
+    <t>Pre-1999 policy</t>
+  </si>
+  <si>
+    <t>3-year average for tier 1</t>
+  </si>
+  <si>
+    <t>Tier1: 2.25% fixed</t>
+  </si>
+  <si>
+    <t>Tier2: no change</t>
+  </si>
+  <si>
+    <t>Cost sharing</t>
+  </si>
+  <si>
+    <t>Suspend COLA before reaching full funding</t>
+  </si>
+  <si>
+    <t>Tier 2 shared-ADC policy applied to Tier 1</t>
+  </si>
+  <si>
+    <t>POB of full UAAL</t>
+  </si>
+  <si>
+    <t>POB of full UAAL, 20 years with 3% interest; equal annual debt service</t>
+  </si>
+  <si>
+    <t>Tier1: 2.5%~4%</t>
+  </si>
+  <si>
+    <t>Tier2: 2.4%~3.4%</t>
+  </si>
+  <si>
+    <t>90% of final average salary</t>
+  </si>
+  <si>
+    <t>Tier2: CPI capped at 2%</t>
+  </si>
+  <si>
+    <t>Tier2: 50% ADC with limit on annual increase; no less than 50% of normal cost</t>
+  </si>
+  <si>
+    <t>Constant 2.5%</t>
+  </si>
+  <si>
+    <t>for new service only</t>
+  </si>
+  <si>
+    <t>75% of final average salary</t>
+  </si>
+  <si>
+    <t>Combination of Pre-1999 and Cost sharing</t>
+  </si>
+  <si>
+    <t>Suspend COLA before reaching full funding.
+COLA after reaching full funding for the first time:
+Tier1: 2.25% fixed
+Tier2: no change</t>
+  </si>
+  <si>
+    <t>Combining Pre-1999 and cost sharing</t>
+  </si>
+  <si>
+    <t>Constant 2.5%
+for new service only</t>
+  </si>
+  <si>
+    <t>pf.t1_combined</t>
+  </si>
+  <si>
+    <t>pf.t2_combined</t>
+  </si>
+  <si>
+    <t>fc.t1_combined</t>
+  </si>
+  <si>
+    <t>fc.t2_combined</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 1; pre-1999 and shared cost combined</t>
+  </si>
+  <si>
+    <t>P&amp;F tier 2; pre-1999 and shared cost combined</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>Federated tier 1; pre-1999 and shared cost combined</t>
+  </si>
+  <si>
+    <t>Federated tier 2; pre-1999 and shared cost combined</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +2030,7 @@
     <numFmt numFmtId="171" formatCode="0.000000"/>
     <numFmt numFmtId="172" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2047,8 +2195,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2157,8 +2325,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2210,6 +2390,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2222,7 +2417,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2751,12 +2946,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2764,6 +2953,68 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="16" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="18" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3065,15 +3316,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>78685</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>153229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>593034</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>51777</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>553097</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3096,8 +3347,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3698185"/>
-          <a:ext cx="4941404" cy="6259592"/>
+          <a:off x="1" y="7773229"/>
+          <a:ext cx="4089770" cy="5180772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3109,15 +3360,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>107675</xdr:rowOff>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>49698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>563228</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>157370</xdr:rowOff>
+      <xdr:colOff>513533</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3140,7 +3391,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="107674" y="9061175"/>
+          <a:off x="57979" y="3097698"/>
           <a:ext cx="3992228" cy="4431195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3152,16 +3403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>596349</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>770285</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>22870</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403872</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>16567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3184,7 +3435,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10137914" y="3255065"/>
+          <a:off x="4306959" y="3006588"/>
           <a:ext cx="4048217" cy="4058479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3196,16 +3447,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>687455</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704023</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>140806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>218777</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>60463</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406962</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3228,8 +3479,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5035825" y="3470413"/>
-          <a:ext cx="4724517" cy="4210050"/>
+          <a:off x="4240697" y="7379806"/>
+          <a:ext cx="4117569" cy="3669194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>579785</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>369438</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4745BE56-4942-4C97-8FE4-4AC9FEE34E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8531089" y="3014871"/>
+          <a:ext cx="4668110" cy="4257260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>359234</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD9AF5A-48AE-4FEC-8E29-F90495E2101D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8655326" y="7520609"/>
+          <a:ext cx="4823561" cy="4091609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3854,13 +4193,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:BF61"/>
+  <dimension ref="A2:BF67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U28" sqref="U28"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4030,7 +4369,7 @@
         <v>84</v>
       </c>
       <c r="K4" s="106" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L4" s="107" t="s">
         <v>93</v>
@@ -4054,7 +4393,7 @@
         <v>186</v>
       </c>
       <c r="S4" s="108" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="T4" s="107" t="s">
         <v>95</v>
@@ -4072,16 +4411,16 @@
         <v>97</v>
       </c>
       <c r="Y4" s="108" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Z4" s="108" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AA4" s="108" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AB4" s="108" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AC4" s="110" t="s">
         <v>11</v>
@@ -4364,14 +4703,14 @@
         <v>0.11</v>
       </c>
       <c r="N6" s="20">
-        <f t="shared" ref="N6:N61" si="0">3/11</f>
+        <f t="shared" ref="N6:N67" si="0">3/11</f>
         <v>0.27272727272727271</v>
       </c>
       <c r="O6" s="32">
         <v>0.5</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" ref="P6:P61" si="1">1/300</f>
+        <f t="shared" ref="P6:P67" si="1">1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="Q6" s="116">
@@ -4826,16 +5165,16 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" t="s">
         <v>245</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" t="s">
-        <v>249</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4930,7 +5269,7 @@
         <v>77</v>
       </c>
       <c r="AM11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN11">
         <v>6.6250000000000003E-2</v>
@@ -4986,16 +5325,16 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5090,7 +5429,7 @@
         <v>77</v>
       </c>
       <c r="AM12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN12">
         <v>6.6250000000000003E-2</v>
@@ -5179,7 +5518,7 @@
         <v>171</v>
       </c>
       <c r="C15" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="119" t="s">
         <v>166</v>
@@ -5280,7 +5619,7 @@
         <v>77</v>
       </c>
       <c r="AM15" s="119" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN15" s="119">
         <v>6.6250000000000003E-2</v>
@@ -5339,7 +5678,7 @@
         <v>173</v>
       </c>
       <c r="C16" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="119" t="s">
         <v>166</v>
@@ -5440,7 +5779,7 @@
         <v>77</v>
       </c>
       <c r="AM16" s="119" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN16" s="119">
         <v>6.6250000000000003E-2</v>
@@ -5512,8 +5851,8 @@
       <c r="BF17" s="170"/>
     </row>
     <row r="18" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="131" t="s">
-        <v>201</v>
+      <c r="A18" s="132" t="s">
+        <v>197</v>
       </c>
       <c r="C18" s="119" t="b">
         <v>1</v>
@@ -5575,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="132">
-        <v>2.5000000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="W18" s="131">
         <v>0.03</v>
@@ -5617,7 +5956,7 @@
         <v>77</v>
       </c>
       <c r="AM18" s="131" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN18" s="131">
         <v>6.6250000000000003E-2</v>
@@ -5673,10 +6012,10 @@
     </row>
     <row r="19" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="131" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C19" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="131" t="s">
         <v>188</v>
@@ -5777,7 +6116,7 @@
         <v>77</v>
       </c>
       <c r="AM19" s="131" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN19" s="131">
         <v>6.6250000000000003E-2</v>
@@ -5868,13 +6207,13 @@
     </row>
     <row r="22" spans="1:58" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="146" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C22" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="146" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E22" s="146" t="s">
         <v>158</v>
@@ -5972,7 +6311,7 @@
         <v>77</v>
       </c>
       <c r="AM22" s="146" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN22" s="146">
         <v>6.6250000000000003E-2</v>
@@ -6028,13 +6367,13 @@
     </row>
     <row r="23" spans="1:58" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="146" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C23" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="146" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E23" s="146" t="s">
         <v>160</v>
@@ -6132,7 +6471,7 @@
         <v>77</v>
       </c>
       <c r="AM23" s="146" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN23" s="146">
         <v>6.6250000000000003E-2</v>
@@ -6189,1830 +6528,2390 @@
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C24" s="119"/>
     </row>
-    <row r="25" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="119" t="s">
-        <v>237</v>
+    <row r="25" spans="1:58" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="258" t="s">
+        <v>387</v>
       </c>
       <c r="C25" s="119" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="119" t="s">
+      <c r="D25" s="258" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="258" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="119" t="s">
+      <c r="F25" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="258" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="119" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" s="119">
+      <c r="H25" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="260" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" s="258">
         <v>0.11</v>
       </c>
-      <c r="N25" s="123">
+      <c r="N25" s="261">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O25" s="124">
+      <c r="O25" s="262">
         <v>0.5</v>
       </c>
-      <c r="P25" s="125">
+      <c r="P25" s="263">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q25" s="126">
-        <v>0</v>
-      </c>
-      <c r="R25" s="124">
+      <c r="Q25" s="264">
+        <v>0</v>
+      </c>
+      <c r="R25" s="262">
         <v>0.5</v>
       </c>
-      <c r="S25" s="124">
-        <v>0</v>
-      </c>
-      <c r="T25" s="119" t="s">
+      <c r="S25" s="262">
+        <v>0</v>
+      </c>
+      <c r="T25" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="U25" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="V25" s="119">
-        <v>0.03</v>
-      </c>
-      <c r="W25" s="119">
-        <v>0.03</v>
-      </c>
-      <c r="X25" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="119">
-        <v>20</v>
-      </c>
-      <c r="AB25" s="119">
-        <v>0.03</v>
-      </c>
-      <c r="AC25" s="119" t="s">
+      <c r="U25" s="259" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" s="259">
+        <v>0</v>
+      </c>
+      <c r="W25" s="259">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="X25" s="258">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="258" t="s">
         <v>92</v>
       </c>
-      <c r="AD25" s="119" t="s">
+      <c r="AD25" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="AE25" s="119">
+      <c r="AE25" s="258">
         <v>15</v>
       </c>
-      <c r="AF25" s="119">
+      <c r="AF25" s="258">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG25" s="119">
+      <c r="AG25" s="258">
         <v>5</v>
       </c>
-      <c r="AH25" s="119">
+      <c r="AH25" s="258">
         <v>1.2</v>
       </c>
-      <c r="AI25" s="119">
+      <c r="AI25" s="258">
         <v>0.8</v>
       </c>
-      <c r="AJ25" s="119" t="s">
+      <c r="AJ25" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="AK25" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="119" t="s">
+      <c r="AK25" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="258" t="s">
         <v>77</v>
       </c>
-      <c r="AM25" s="119" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN25" s="119">
+      <c r="AM25" s="258" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN25" s="258">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="AO25" s="119">
+      <c r="AO25" s="258">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP25" s="127">
+      <c r="AP25" s="265">
         <v>0.12</v>
       </c>
-      <c r="AQ25" s="128">
+      <c r="AQ25" s="266">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR25" s="129">
+      <c r="AR25" s="267">
         <v>123</v>
       </c>
-      <c r="AS25" s="119" t="s">
+      <c r="AS25" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="AT25" s="119" t="s">
+      <c r="AT25" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="AU25" s="123">
+      <c r="AU25" s="261">
         <v>0.70430136543757105</v>
       </c>
-      <c r="AV25" s="123">
+      <c r="AV25" s="261">
         <v>0.73294108984424244</v>
       </c>
-      <c r="AY25" s="120">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB25" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="119">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="119" t="s">
+      <c r="AY25" s="268">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="258">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="BE25" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF25" s="130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="119" t="s">
-        <v>238</v>
+      <c r="BE25" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF25" s="269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="258" t="s">
+        <v>388</v>
       </c>
       <c r="C26" s="119" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="119" t="s">
+      <c r="D26" s="258" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="258" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="119" t="s">
+      <c r="F26" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="258" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="119" t="s">
+      <c r="H26" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="259" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="119">
+      <c r="M26" s="258">
         <v>0.11</v>
       </c>
-      <c r="N26" s="123">
+      <c r="N26" s="261">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O26" s="124">
+      <c r="O26" s="262">
         <v>0.5</v>
       </c>
-      <c r="P26" s="125">
+      <c r="P26" s="263">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q26" s="126">
+      <c r="Q26" s="270">
         <v>0.5</v>
       </c>
-      <c r="R26" s="124">
+      <c r="R26" s="262">
         <v>0.5</v>
       </c>
-      <c r="S26" s="124">
-        <v>0</v>
-      </c>
-      <c r="T26" s="119" t="s">
+      <c r="S26" s="262">
+        <v>0</v>
+      </c>
+      <c r="T26" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="U26" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="V26" s="119">
+      <c r="U26" s="259" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" s="259">
+        <v>0</v>
+      </c>
+      <c r="W26" s="259">
         <v>0.02</v>
       </c>
-      <c r="W26" s="119">
-        <v>0.02</v>
-      </c>
-      <c r="X26" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="119">
-        <v>20</v>
-      </c>
-      <c r="AB26" s="119">
-        <v>0.03</v>
-      </c>
-      <c r="AC26" s="119" t="s">
+      <c r="X26" s="258">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="258" t="s">
         <v>92</v>
       </c>
-      <c r="AD26" s="119" t="s">
+      <c r="AD26" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="AE26" s="119">
+      <c r="AE26" s="258">
         <v>15</v>
       </c>
-      <c r="AF26" s="119">
+      <c r="AF26" s="258">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG26" s="119">
+      <c r="AG26" s="258">
         <v>5</v>
       </c>
-      <c r="AH26" s="119">
+      <c r="AH26" s="258">
         <v>1.2</v>
       </c>
-      <c r="AI26" s="119">
+      <c r="AI26" s="258">
         <v>0.8</v>
       </c>
-      <c r="AJ26" s="119" t="s">
+      <c r="AJ26" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="AK26" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="119" t="s">
+      <c r="AK26" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="258" t="s">
         <v>77</v>
       </c>
-      <c r="AM26" s="119" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN26" s="119">
+      <c r="AM26" s="258" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN26" s="258">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="AO26" s="119">
+      <c r="AO26" s="258">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP26" s="127">
+      <c r="AP26" s="265">
         <v>0.12</v>
       </c>
-      <c r="AQ26" s="128">
+      <c r="AQ26" s="266">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR26" s="129">
+      <c r="AR26" s="267">
         <v>123</v>
       </c>
-      <c r="AS26" s="119" t="s">
+      <c r="AS26" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="AT26" s="119" t="s">
+      <c r="AT26" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="AU26" s="123">
+      <c r="AU26" s="261">
         <v>1.0159071729957805</v>
       </c>
-      <c r="AV26" s="123">
+      <c r="AV26" s="261">
         <v>1.0442616033755274</v>
       </c>
-      <c r="AY26" s="120">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA26" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB26" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="119">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="119" t="s">
+      <c r="AY26" s="268">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="258">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="BE26" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF26" s="130" t="b">
+      <c r="BE26" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF26" s="269" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C27" s="119"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="22"/>
-      <c r="AU27" s="20"/>
-      <c r="AV27" s="20"/>
-      <c r="AY27" s="27"/>
-      <c r="BF27" s="19"/>
-    </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C28" s="119"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="22"/>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AY28" s="27"/>
-      <c r="BF28" s="19"/>
-    </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C29" s="119"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="22"/>
-      <c r="AU29" s="20"/>
-      <c r="AV29" s="20"/>
-      <c r="AY29" s="27"/>
-      <c r="BF29" s="19"/>
-    </row>
-    <row r="30" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="119" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="119" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" s="119" t="s">
-        <v>249</v>
-      </c>
-      <c r="F30" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="119" t="s">
-        <v>305</v>
-      </c>
-      <c r="H30" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="119" t="s">
+    </row>
+    <row r="28" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="M30" s="119">
+      <c r="M28" s="119">
         <v>0.11</v>
       </c>
-      <c r="N30" s="123">
+      <c r="N28" s="123">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O30" s="124">
+      <c r="O28" s="124">
         <v>0.5</v>
       </c>
-      <c r="P30" s="125">
+      <c r="P28" s="125">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q30" s="126">
-        <v>0</v>
-      </c>
-      <c r="R30" s="124">
+      <c r="Q28" s="126">
+        <v>0</v>
+      </c>
+      <c r="R28" s="124">
         <v>0.5</v>
       </c>
-      <c r="S30" s="124">
-        <v>0</v>
-      </c>
-      <c r="T30" s="119" t="s">
+      <c r="S28" s="124">
+        <v>0</v>
+      </c>
+      <c r="T28" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="U30" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="V30" s="119">
+      <c r="U28" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" s="119">
         <v>0.03</v>
       </c>
-      <c r="W30" s="119">
+      <c r="W28" s="119">
         <v>0.03</v>
       </c>
-      <c r="X30" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="119" t="s">
+      <c r="X28" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="119">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="119">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="AC28" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="AD30" s="119" t="s">
+      <c r="AD28" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="AE30" s="119">
-        <v>20</v>
-      </c>
-      <c r="AF30" s="119">
-        <v>2.75E-2</v>
-      </c>
-      <c r="AG30" s="119">
+      <c r="AE28" s="119">
+        <v>15</v>
+      </c>
+      <c r="AF28" s="119">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG28" s="119">
         <v>5</v>
       </c>
-      <c r="AH30" s="119">
+      <c r="AH28" s="119">
         <v>1.2</v>
       </c>
-      <c r="AI30" s="119">
+      <c r="AI28" s="119">
         <v>0.8</v>
       </c>
-      <c r="AJ30" s="119" t="s">
+      <c r="AJ28" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="AK30" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="119" t="s">
+      <c r="AK28" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="AM30" s="119" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN30" s="119">
+      <c r="AM28" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN28" s="119">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="AO30" s="119">
+      <c r="AO28" s="119">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP30" s="127">
+      <c r="AP28" s="127">
         <v>0.12</v>
       </c>
-      <c r="AQ30" s="128">
+      <c r="AQ28" s="128">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR30" s="129">
+      <c r="AR28" s="129">
         <v>123</v>
       </c>
-      <c r="AS30" s="119" t="s">
+      <c r="AS28" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AT30" s="119" t="s">
+      <c r="AT28" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AU30" s="123">
-        <v>0.49181956819187989</v>
-      </c>
-      <c r="AV30" s="123">
-        <v>0.51298615267558034</v>
-      </c>
-      <c r="AY30" s="120">
-        <v>0</v>
-      </c>
-      <c r="AZ30" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA30" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB30" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC30" s="119">
-        <v>0</v>
-      </c>
-      <c r="BD30" s="119" t="s">
+      <c r="AU28" s="123">
+        <v>0.70430136543757105</v>
+      </c>
+      <c r="AV28" s="123">
+        <v>0.73294108984424244</v>
+      </c>
+      <c r="AY28" s="120">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="119">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="BE30" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF30" s="130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119" t="s">
-        <v>306</v>
-      </c>
-      <c r="C31" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="119" t="s">
-        <v>301</v>
-      </c>
-      <c r="E31" s="119" t="s">
-        <v>251</v>
-      </c>
-      <c r="F31" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="119" t="s">
-        <v>306</v>
-      </c>
-      <c r="H31" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="119" t="s">
+      <c r="BE28" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="119" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="119">
+      <c r="M29" s="119">
         <v>0.11</v>
       </c>
-      <c r="N31" s="123">
+      <c r="N29" s="123">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O31" s="124">
+      <c r="O29" s="124">
         <v>0.5</v>
       </c>
-      <c r="P31" s="125">
+      <c r="P29" s="125">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q31" s="126">
+      <c r="Q29" s="126">
         <v>0.5</v>
       </c>
-      <c r="R31" s="124">
+      <c r="R29" s="124">
         <v>0.5</v>
       </c>
-      <c r="S31" s="124">
-        <v>0.5</v>
-      </c>
-      <c r="T31" s="119" t="s">
+      <c r="S29" s="124">
+        <v>0</v>
+      </c>
+      <c r="T29" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="U31" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="V31" s="119">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="W31" s="119">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="X31" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="119" t="s">
+      <c r="U29" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" s="119">
+        <v>0.02</v>
+      </c>
+      <c r="W29" s="119">
+        <v>0.02</v>
+      </c>
+      <c r="X29" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="119">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="119">
+        <v>20</v>
+      </c>
+      <c r="AB29" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="AC29" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="AD31" s="119" t="s">
+      <c r="AD29" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="AE31" s="119">
-        <v>10</v>
-      </c>
-      <c r="AF31" s="119">
-        <v>2.75E-2</v>
-      </c>
-      <c r="AG31" s="119">
+      <c r="AE29" s="119">
+        <v>15</v>
+      </c>
+      <c r="AF29" s="119">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG29" s="119">
         <v>5</v>
       </c>
-      <c r="AH31" s="119">
+      <c r="AH29" s="119">
         <v>1.2</v>
       </c>
-      <c r="AI31" s="119">
+      <c r="AI29" s="119">
         <v>0.8</v>
       </c>
-      <c r="AJ31" s="119" t="s">
+      <c r="AJ29" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="AK31" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="119" t="s">
+      <c r="AK29" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="AM31" s="119" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN31" s="119">
+      <c r="AM29" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN29" s="119">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="AO31" s="119">
+      <c r="AO29" s="119">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP31" s="127">
+      <c r="AP29" s="127">
         <v>0.12</v>
       </c>
-      <c r="AQ31" s="128">
+      <c r="AQ29" s="128">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR31" s="129">
+      <c r="AR29" s="129">
         <v>123</v>
       </c>
-      <c r="AS31" s="119" t="s">
+      <c r="AS29" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AT31" s="119" t="s">
+      <c r="AT29" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AU31" s="123">
-        <v>0.87353052212008675</v>
-      </c>
-      <c r="AV31" s="123">
-        <v>0.89731433437810026</v>
-      </c>
-      <c r="AY31" s="120">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA31" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB31" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="119">
-        <v>0</v>
-      </c>
-      <c r="BD31" s="119" t="s">
+      <c r="AU29" s="123">
+        <v>1.0159071729957805</v>
+      </c>
+      <c r="AV29" s="123">
+        <v>1.0442616033755274</v>
+      </c>
+      <c r="AY29" s="120">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="119">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="BE31" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF31" s="130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:58" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE29" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF29" s="130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C30" s="119"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="22"/>
+      <c r="AU30" s="20"/>
+      <c r="AV30" s="20"/>
+      <c r="AY30" s="27"/>
+      <c r="BF30" s="19"/>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C31" s="119"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="22"/>
+      <c r="AU31" s="20"/>
+      <c r="AV31" s="20"/>
+      <c r="AY31" s="27"/>
+      <c r="BF31" s="19"/>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C32" s="119"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="174"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="Y32"/>
-      <c r="AP32" s="166"/>
-      <c r="AQ32" s="167"/>
-      <c r="AR32" s="168"/>
-      <c r="AU32" s="162"/>
-      <c r="AV32" s="162"/>
-      <c r="AY32" s="169"/>
-      <c r="BF32" s="170"/>
-    </row>
-    <row r="33" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="131" t="s">
-        <v>307</v>
+      <c r="N32" s="20"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="22"/>
+      <c r="AU32" s="20"/>
+      <c r="AV32" s="20"/>
+      <c r="AY32" s="27"/>
+      <c r="BF32" s="19"/>
+    </row>
+    <row r="33" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="119" t="s">
+        <v>301</v>
       </c>
       <c r="C33" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="131" t="s">
-        <v>302</v>
-      </c>
-      <c r="E33" s="131" t="s">
-        <v>249</v>
-      </c>
-      <c r="F33" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="131" t="s">
-        <v>305</v>
-      </c>
-      <c r="H33" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="119" t="s">
+        <v>301</v>
+      </c>
+      <c r="H33" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="131">
+      <c r="M33" s="119">
         <v>0.11</v>
       </c>
-      <c r="N33" s="233">
+      <c r="N33" s="123">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O33" s="134">
+      <c r="O33" s="124">
         <v>0.5</v>
       </c>
-      <c r="P33" s="135">
+      <c r="P33" s="125">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q33" s="136">
-        <v>0</v>
-      </c>
-      <c r="R33" s="134">
+      <c r="Q33" s="126">
+        <v>0</v>
+      </c>
+      <c r="R33" s="124">
         <v>0.5</v>
       </c>
-      <c r="S33" s="134">
-        <v>0</v>
-      </c>
-      <c r="T33" s="131" t="s">
+      <c r="S33" s="124">
+        <v>0</v>
+      </c>
+      <c r="T33" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="U33" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="V33" s="132">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="W33" s="131">
+      <c r="U33" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" s="119">
         <v>0.03</v>
       </c>
-      <c r="X33" s="131">
+      <c r="W33" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="X33" s="119">
         <v>0</v>
       </c>
       <c r="Y33" t="b">
         <v>0</v>
       </c>
-      <c r="AC33" s="131" t="s">
+      <c r="AC33" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="AD33" s="131" t="s">
+      <c r="AD33" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="AE33" s="131">
+      <c r="AE33" s="119">
         <v>20</v>
       </c>
-      <c r="AF33" s="131">
+      <c r="AF33" s="119">
         <v>2.75E-2</v>
       </c>
-      <c r="AG33" s="131">
+      <c r="AG33" s="119">
         <v>5</v>
       </c>
-      <c r="AH33" s="131">
+      <c r="AH33" s="119">
         <v>1.2</v>
       </c>
-      <c r="AI33" s="131">
+      <c r="AI33" s="119">
         <v>0.8</v>
       </c>
-      <c r="AJ33" s="131" t="s">
+      <c r="AJ33" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="AK33" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL33" s="131" t="s">
+      <c r="AK33" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="AM33" s="131" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN33" s="131">
+      <c r="AM33" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN33" s="119">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="AO33" s="131">
+      <c r="AO33" s="119">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP33" s="137">
+      <c r="AP33" s="127">
         <v>0.12</v>
       </c>
-      <c r="AQ33" s="138">
+      <c r="AQ33" s="128">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR33" s="139">
+      <c r="AR33" s="129">
         <v>123</v>
       </c>
-      <c r="AS33" s="131" t="s">
+      <c r="AS33" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AT33" s="131" t="s">
+      <c r="AT33" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AU33" s="140">
+      <c r="AU33" s="123">
         <v>0.49181956819187989</v>
       </c>
-      <c r="AV33" s="140">
+      <c r="AV33" s="123">
         <v>0.51298615267558034</v>
       </c>
-      <c r="AY33" s="141">
-        <v>0</v>
-      </c>
-      <c r="AZ33" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA33" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB33" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="131">
-        <v>0</v>
-      </c>
-      <c r="BD33" s="131" t="s">
+      <c r="AY33" s="120">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA33" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="119">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="BE33" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF33" s="142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="131" t="s">
-        <v>308</v>
+      <c r="BE33" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF33" s="130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="119" t="s">
+        <v>302</v>
       </c>
       <c r="C34" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="119" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="119" t="s">
         <v>302</v>
       </c>
-      <c r="E34" s="131" t="s">
-        <v>251</v>
-      </c>
-      <c r="F34" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="131" t="s">
-        <v>306</v>
-      </c>
-      <c r="H34" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="131" t="s">
+      <c r="H34" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="M34" s="131">
+      <c r="M34" s="119">
         <v>0.11</v>
       </c>
-      <c r="N34" s="140">
+      <c r="N34" s="123">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O34" s="230">
+      <c r="O34" s="124">
         <v>0.5</v>
       </c>
-      <c r="P34" s="231">
+      <c r="P34" s="125">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q34" s="232">
+      <c r="Q34" s="126">
         <v>0.5</v>
       </c>
-      <c r="R34" s="230">
+      <c r="R34" s="124">
         <v>0.5</v>
       </c>
-      <c r="S34" s="230">
+      <c r="S34" s="124">
         <v>0.5</v>
       </c>
-      <c r="T34" s="131" t="s">
+      <c r="T34" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="U34" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="V34" s="132">
+      <c r="U34" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" s="119">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="W34" s="131">
-        <v>0.02</v>
-      </c>
-      <c r="X34" s="131">
+      <c r="W34" s="119">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="X34" s="119">
         <v>0</v>
       </c>
       <c r="Y34" t="b">
         <v>0</v>
       </c>
-      <c r="AC34" s="131" t="s">
+      <c r="AC34" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="AD34" s="131" t="s">
+      <c r="AD34" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="AE34" s="131">
+      <c r="AE34" s="119">
         <v>10</v>
       </c>
-      <c r="AF34" s="131">
+      <c r="AF34" s="119">
         <v>2.75E-2</v>
       </c>
-      <c r="AG34" s="131">
+      <c r="AG34" s="119">
         <v>5</v>
       </c>
-      <c r="AH34" s="131">
+      <c r="AH34" s="119">
         <v>1.2</v>
       </c>
-      <c r="AI34" s="131">
+      <c r="AI34" s="119">
         <v>0.8</v>
       </c>
-      <c r="AJ34" s="131" t="s">
+      <c r="AJ34" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="AK34" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL34" s="131" t="s">
+      <c r="AK34" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="AM34" s="131" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN34" s="131">
+      <c r="AM34" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN34" s="119">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="AO34" s="131">
+      <c r="AO34" s="119">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP34" s="137">
+      <c r="AP34" s="127">
         <v>0.12</v>
       </c>
-      <c r="AQ34" s="138">
+      <c r="AQ34" s="128">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR34" s="139">
+      <c r="AR34" s="129">
         <v>123</v>
       </c>
-      <c r="AS34" s="131" t="s">
+      <c r="AS34" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AT34" s="131" t="s">
+      <c r="AT34" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AU34" s="140">
+      <c r="AU34" s="123">
         <v>0.87353052212008675</v>
       </c>
-      <c r="AV34" s="140">
+      <c r="AV34" s="123">
         <v>0.89731433437810026</v>
       </c>
-      <c r="AY34" s="141">
-        <v>0</v>
-      </c>
-      <c r="AZ34" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA34" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB34" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="131">
-        <v>0</v>
-      </c>
-      <c r="BD34" s="131" t="s">
+      <c r="AY34" s="120">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA34" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB34" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="119">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="BE34" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF34" s="142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE34" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF34" s="130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="119"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="134"/>
-      <c r="P35" s="135"/>
-      <c r="Q35" s="136"/>
-      <c r="R35" s="134"/>
-      <c r="S35" s="134"/>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="137"/>
-      <c r="AQ35" s="138"/>
-      <c r="AR35" s="139"/>
-      <c r="AU35" s="140"/>
-      <c r="AV35" s="140"/>
-      <c r="AY35" s="141"/>
-      <c r="BF35" s="142"/>
-    </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C36" s="119"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="5"/>
-      <c r="AR36" s="22"/>
-      <c r="AU36" s="20"/>
-      <c r="AV36" s="20"/>
-      <c r="AY36" s="27"/>
-      <c r="BF36" s="19"/>
-    </row>
-    <row r="37" spans="1:58" s="146" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="146" t="s">
-        <v>309</v>
-      </c>
-      <c r="C37" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="146" t="s">
+      <c r="N35" s="162"/>
+      <c r="O35" s="172"/>
+      <c r="P35" s="173"/>
+      <c r="Q35" s="174"/>
+      <c r="R35" s="172"/>
+      <c r="S35" s="172"/>
+      <c r="Y35"/>
+      <c r="AP35" s="166"/>
+      <c r="AQ35" s="167"/>
+      <c r="AR35" s="168"/>
+      <c r="AU35" s="162"/>
+      <c r="AV35" s="162"/>
+      <c r="AY35" s="169"/>
+      <c r="BF35" s="170"/>
+    </row>
+    <row r="36" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="131" t="s">
         <v>303</v>
       </c>
-      <c r="E37" s="146" t="s">
-        <v>249</v>
-      </c>
-      <c r="F37" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="146" t="s">
-        <v>305</v>
-      </c>
-      <c r="H37" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="147" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="M37" s="146">
+      <c r="C36" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="131" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="131" t="s">
+        <v>301</v>
+      </c>
+      <c r="H36" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" s="131">
         <v>0.11</v>
       </c>
-      <c r="N37" s="149">
+      <c r="N36" s="233">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O37" s="150">
+      <c r="O36" s="134">
         <v>0.5</v>
       </c>
-      <c r="P37" s="151">
+      <c r="P36" s="135">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q37" s="152">
-        <v>0</v>
-      </c>
-      <c r="R37" s="150">
+      <c r="Q36" s="136">
+        <v>0</v>
+      </c>
+      <c r="R36" s="134">
         <v>0.5</v>
       </c>
-      <c r="S37" s="150">
-        <v>0.5</v>
-      </c>
-      <c r="T37" s="146" t="s">
+      <c r="S36" s="134">
+        <v>0</v>
+      </c>
+      <c r="T36" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="U37" s="147" t="b">
-        <v>1</v>
-      </c>
-      <c r="V37" s="147">
-        <v>0</v>
-      </c>
-      <c r="W37" s="146">
+      <c r="U36" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" s="132">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="W36" s="131">
         <v>0.03</v>
       </c>
-      <c r="X37" s="146">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="146" t="s">
+      <c r="X36" s="131">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="AD37" s="146" t="s">
+      <c r="AD36" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="AE37" s="146">
+      <c r="AE36" s="131">
         <v>20</v>
       </c>
-      <c r="AF37" s="146">
+      <c r="AF36" s="131">
         <v>2.75E-2</v>
       </c>
-      <c r="AG37" s="146">
+      <c r="AG36" s="131">
         <v>5</v>
       </c>
-      <c r="AH37" s="146">
+      <c r="AH36" s="131">
         <v>1.2</v>
       </c>
-      <c r="AI37" s="146">
+      <c r="AI36" s="131">
         <v>0.8</v>
       </c>
-      <c r="AJ37" s="146" t="s">
+      <c r="AJ36" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="AK37" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL37" s="146" t="s">
+      <c r="AK36" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="AM37" s="146" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN37" s="146">
+      <c r="AM36" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN36" s="131">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="AO37" s="146">
+      <c r="AO36" s="131">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP37" s="153">
+      <c r="AP36" s="137">
         <v>0.12</v>
       </c>
-      <c r="AQ37" s="154">
+      <c r="AQ36" s="138">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR37" s="155">
+      <c r="AR36" s="139">
         <v>123</v>
       </c>
-      <c r="AS37" s="146" t="s">
+      <c r="AS36" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="AT37" s="146" t="s">
+      <c r="AT36" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="AU37" s="149">
+      <c r="AU36" s="140">
         <v>0.49181956819187989</v>
       </c>
-      <c r="AV37" s="149">
+      <c r="AV36" s="140">
         <v>0.51298615267558034</v>
       </c>
-      <c r="AY37" s="156">
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA37" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB37" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC37" s="146">
-        <v>0</v>
-      </c>
-      <c r="BD37" s="146" t="s">
+      <c r="AY36" s="141">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB36" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="131">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="BE37" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF37" s="157" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:58" s="146" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="146" t="s">
-        <v>310</v>
-      </c>
-      <c r="C38" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="146" t="s">
-        <v>303</v>
-      </c>
-      <c r="E38" s="146" t="s">
-        <v>251</v>
-      </c>
-      <c r="F38" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="146" t="s">
-        <v>306</v>
-      </c>
-      <c r="H38" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="147" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="147" t="s">
+      <c r="BE36" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF36" s="142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="131" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="131" t="s">
+        <v>298</v>
+      </c>
+      <c r="E37" s="131" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="131" t="s">
+        <v>302</v>
+      </c>
+      <c r="H37" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="M38" s="146">
+      <c r="M37" s="131">
         <v>0.11</v>
       </c>
-      <c r="N38" s="149">
+      <c r="N37" s="140">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O38" s="150">
+      <c r="O37" s="230">
         <v>0.5</v>
       </c>
-      <c r="P38" s="151">
+      <c r="P37" s="231">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q38" s="158">
+      <c r="Q37" s="232">
         <v>0.5</v>
       </c>
-      <c r="R38" s="150">
+      <c r="R37" s="230">
         <v>0.5</v>
       </c>
-      <c r="S38" s="150">
+      <c r="S37" s="230">
         <v>0.5</v>
       </c>
-      <c r="T38" s="146" t="s">
+      <c r="T37" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="U38" s="147" t="b">
-        <v>1</v>
-      </c>
-      <c r="V38" s="147">
-        <v>0</v>
-      </c>
-      <c r="W38" s="146">
+      <c r="U37" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" s="132">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="X38" s="146">
-        <v>0</v>
-      </c>
+      <c r="W37" s="131">
+        <v>0.02</v>
+      </c>
+      <c r="X37" s="131">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD37" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE37" s="131">
+        <v>10</v>
+      </c>
+      <c r="AF37" s="131">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AG37" s="131">
+        <v>5</v>
+      </c>
+      <c r="AH37" s="131">
+        <v>1.2</v>
+      </c>
+      <c r="AI37" s="131">
+        <v>0.8</v>
+      </c>
+      <c r="AJ37" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK37" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM37" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN37" s="131">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="AO37" s="131">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP37" s="137">
+        <v>0.12</v>
+      </c>
+      <c r="AQ37" s="138">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR37" s="139">
+        <v>123</v>
+      </c>
+      <c r="AS37" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT37" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU37" s="140">
+        <v>0.87353052212008675</v>
+      </c>
+      <c r="AV37" s="140">
+        <v>0.89731433437810026</v>
+      </c>
+      <c r="AY37" s="141">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB37" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="131">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE37" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF37" s="142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="119"/>
+      <c r="N38" s="140"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="135"/>
+      <c r="Q38" s="136"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
       <c r="Y38" t="b">
         <v>0</v>
       </c>
-      <c r="AC38" s="146" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD38" s="146" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE38" s="146">
-        <v>10</v>
-      </c>
-      <c r="AF38" s="146">
-        <v>2.75E-2</v>
-      </c>
-      <c r="AG38" s="146">
-        <v>5</v>
-      </c>
-      <c r="AH38" s="146">
-        <v>1.2</v>
-      </c>
-      <c r="AI38" s="146">
-        <v>0.8</v>
-      </c>
-      <c r="AJ38" s="146" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK38" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="146" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM38" s="146" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN38" s="146">
-        <v>6.6250000000000003E-2</v>
-      </c>
-      <c r="AO38" s="146">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP38" s="153">
-        <v>0.12</v>
-      </c>
-      <c r="AQ38" s="154">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR38" s="155">
-        <v>123</v>
-      </c>
-      <c r="AS38" s="146" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT38" s="146" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU38" s="149">
-        <v>0.87353052212008675</v>
-      </c>
-      <c r="AV38" s="149">
-        <v>0.89731433437810026</v>
-      </c>
-      <c r="AY38" s="156">
-        <v>0</v>
-      </c>
-      <c r="AZ38" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA38" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB38" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC38" s="146">
-        <v>0</v>
-      </c>
-      <c r="BD38" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE38" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF38" s="157" t="b">
-        <v>1</v>
-      </c>
+      <c r="AP38" s="137"/>
+      <c r="AQ38" s="138"/>
+      <c r="AR38" s="139"/>
+      <c r="AU38" s="140"/>
+      <c r="AV38" s="140"/>
+      <c r="AY38" s="141"/>
+      <c r="BF38" s="142"/>
     </row>
     <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C39" s="119"/>
-    </row>
-    <row r="40" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119" t="s">
-        <v>311</v>
+      <c r="N39" s="20"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="116"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="22"/>
+      <c r="AU39" s="20"/>
+      <c r="AV39" s="20"/>
+      <c r="AY39" s="27"/>
+      <c r="BF39" s="19"/>
+    </row>
+    <row r="40" spans="1:58" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="146" t="s">
+        <v>305</v>
       </c>
       <c r="C40" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="146" t="s">
+        <v>299</v>
+      </c>
+      <c r="E40" s="146" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="146" t="s">
         <v>301</v>
       </c>
-      <c r="E40" s="119" t="s">
-        <v>249</v>
-      </c>
-      <c r="F40" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="119" t="s">
-        <v>305</v>
-      </c>
-      <c r="H40" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="119" t="b">
-        <v>0</v>
+      <c r="H40" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="146" t="b">
+        <v>1</v>
       </c>
       <c r="K40" s="119" t="b">
         <v>0</v>
       </c>
-      <c r="L40" s="119" t="s">
-        <v>101</v>
-      </c>
-      <c r="M40" s="119">
+      <c r="L40" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="M40" s="146">
         <v>0.11</v>
       </c>
-      <c r="N40" s="123">
+      <c r="N40" s="149">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O40" s="124">
+      <c r="O40" s="150">
         <v>0.5</v>
       </c>
-      <c r="P40" s="125">
+      <c r="P40" s="151">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q40" s="126">
-        <v>0</v>
-      </c>
-      <c r="R40" s="124">
+      <c r="Q40" s="152">
+        <v>0</v>
+      </c>
+      <c r="R40" s="150">
         <v>0.5</v>
       </c>
-      <c r="S40" s="124">
-        <v>0</v>
-      </c>
-      <c r="T40" s="119" t="s">
+      <c r="S40" s="150">
+        <v>0.5</v>
+      </c>
+      <c r="T40" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="U40" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="V40" s="119">
+      <c r="U40" s="147" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" s="147">
+        <v>0</v>
+      </c>
+      <c r="W40" s="146">
         <v>0.03</v>
       </c>
-      <c r="W40" s="119">
-        <v>0.03</v>
-      </c>
-      <c r="X40" s="119">
+      <c r="X40" s="146">
         <v>0</v>
       </c>
       <c r="Y40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="119">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD40" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE40" s="146">
         <v>20</v>
       </c>
-      <c r="AB40" s="119">
-        <v>0.03</v>
-      </c>
-      <c r="AC40" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD40" s="119" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE40" s="119">
-        <v>20</v>
-      </c>
-      <c r="AF40" s="119">
+      <c r="AF40" s="146">
         <v>2.75E-2</v>
       </c>
-      <c r="AG40" s="119">
+      <c r="AG40" s="146">
         <v>5</v>
       </c>
-      <c r="AH40" s="119">
+      <c r="AH40" s="146">
         <v>1.2</v>
       </c>
-      <c r="AI40" s="119">
+      <c r="AI40" s="146">
         <v>0.8</v>
       </c>
-      <c r="AJ40" s="119" t="s">
+      <c r="AJ40" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="AK40" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL40" s="119" t="s">
+      <c r="AK40" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="AM40" s="119" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN40" s="119">
+      <c r="AM40" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN40" s="146">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="AO40" s="119">
+      <c r="AO40" s="146">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP40" s="127">
+      <c r="AP40" s="153">
         <v>0.12</v>
       </c>
-      <c r="AQ40" s="128">
+      <c r="AQ40" s="154">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR40" s="129">
+      <c r="AR40" s="155">
         <v>123</v>
       </c>
-      <c r="AS40" s="119" t="s">
+      <c r="AS40" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="AT40" s="119" t="s">
+      <c r="AT40" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="AU40" s="123">
+      <c r="AU40" s="149">
         <v>0.49181956819187989</v>
       </c>
-      <c r="AV40" s="123">
+      <c r="AV40" s="149">
         <v>0.51298615267558034</v>
       </c>
-      <c r="AY40" s="120">
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA40" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB40" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC40" s="119">
-        <v>0</v>
-      </c>
-      <c r="BD40" s="119" t="s">
+      <c r="AY40" s="156">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA40" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB40" s="146" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="146">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="BE40" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF40" s="130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119" t="s">
-        <v>312</v>
+      <c r="BE40" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF40" s="157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="146" t="s">
+        <v>306</v>
       </c>
       <c r="C41" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="119" t="s">
-        <v>301</v>
-      </c>
-      <c r="E41" s="119" t="s">
-        <v>251</v>
-      </c>
-      <c r="F41" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="119" t="s">
-        <v>306</v>
-      </c>
-      <c r="H41" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="119" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D41" s="146" t="s">
+        <v>299</v>
+      </c>
+      <c r="E41" s="146" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="146" t="s">
+        <v>302</v>
+      </c>
+      <c r="H41" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="146" t="b">
+        <v>1</v>
       </c>
       <c r="K41" s="119" t="b">
         <v>0</v>
       </c>
-      <c r="L41" s="119" t="s">
+      <c r="L41" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="M41" s="119">
+      <c r="M41" s="146">
         <v>0.11</v>
       </c>
-      <c r="N41" s="123">
+      <c r="N41" s="149">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O41" s="124">
+      <c r="O41" s="150">
         <v>0.5</v>
       </c>
-      <c r="P41" s="125">
+      <c r="P41" s="151">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q41" s="126">
+      <c r="Q41" s="158">
         <v>0.5</v>
       </c>
-      <c r="R41" s="124">
+      <c r="R41" s="150">
         <v>0.5</v>
       </c>
-      <c r="S41" s="124">
+      <c r="S41" s="150">
         <v>0.5</v>
       </c>
-      <c r="T41" s="119" t="s">
+      <c r="T41" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="U41" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="V41" s="119">
+      <c r="U41" s="147" t="b">
+        <v>1</v>
+      </c>
+      <c r="V41" s="147">
+        <v>0</v>
+      </c>
+      <c r="W41" s="146">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="W41" s="119">
+      <c r="X41" s="146">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD41" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE41" s="146">
+        <v>10</v>
+      </c>
+      <c r="AF41" s="146">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AG41" s="146">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="146">
+        <v>1.2</v>
+      </c>
+      <c r="AI41" s="146">
+        <v>0.8</v>
+      </c>
+      <c r="AJ41" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK41" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="146" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM41" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN41" s="146">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="AO41" s="146">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP41" s="153">
+        <v>0.12</v>
+      </c>
+      <c r="AQ41" s="154">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR41" s="155">
+        <v>123</v>
+      </c>
+      <c r="AS41" s="146" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT41" s="146" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU41" s="149">
+        <v>0.87353052212008675</v>
+      </c>
+      <c r="AV41" s="149">
+        <v>0.89731433437810026</v>
+      </c>
+      <c r="AY41" s="156">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB41" s="146" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="146">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE41" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF41" s="157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C42" s="119"/>
+    </row>
+    <row r="43" spans="1:58" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="258" t="s">
+        <v>389</v>
+      </c>
+      <c r="C43" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="258" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" s="258" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="258" t="s">
+        <v>301</v>
+      </c>
+      <c r="H43" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="260" t="s">
+        <v>94</v>
+      </c>
+      <c r="M43" s="258">
+        <v>0.11</v>
+      </c>
+      <c r="N43" s="261">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O43" s="262">
+        <v>0.5</v>
+      </c>
+      <c r="P43" s="263">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q43" s="264">
+        <v>0</v>
+      </c>
+      <c r="R43" s="262">
+        <v>0.5</v>
+      </c>
+      <c r="S43" s="262">
+        <v>0.5</v>
+      </c>
+      <c r="T43" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="U43" s="259" t="b">
+        <v>1</v>
+      </c>
+      <c r="V43" s="259">
+        <v>0</v>
+      </c>
+      <c r="W43" s="259">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="X43" s="258">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="258" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD43" s="258" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE43" s="258">
+        <v>20</v>
+      </c>
+      <c r="AF43" s="258">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AG43" s="258">
+        <v>5</v>
+      </c>
+      <c r="AH43" s="258">
+        <v>1.2</v>
+      </c>
+      <c r="AI43" s="258">
+        <v>0.8</v>
+      </c>
+      <c r="AJ43" s="258" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK43" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM43" s="258" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN43" s="258">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="AO43" s="258">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP43" s="265">
+        <v>0.12</v>
+      </c>
+      <c r="AQ43" s="266">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR43" s="267">
+        <v>123</v>
+      </c>
+      <c r="AS43" s="258" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT43" s="258" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU43" s="261">
+        <v>0.49181956819187989</v>
+      </c>
+      <c r="AV43" s="261">
+        <v>0.51298615267558034</v>
+      </c>
+      <c r="AY43" s="268">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA43" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB43" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="258">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="258" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE43" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF43" s="269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="258" t="s">
+        <v>390</v>
+      </c>
+      <c r="C44" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="258" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="258" t="s">
+        <v>247</v>
+      </c>
+      <c r="F44" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="258" t="s">
+        <v>302</v>
+      </c>
+      <c r="H44" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="259" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" s="258">
+        <v>0.11</v>
+      </c>
+      <c r="N44" s="261">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O44" s="262">
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="263">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q44" s="270">
+        <v>0.5</v>
+      </c>
+      <c r="R44" s="262">
+        <v>0.5</v>
+      </c>
+      <c r="S44" s="262">
+        <v>0.5</v>
+      </c>
+      <c r="T44" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="U44" s="259" t="b">
+        <v>1</v>
+      </c>
+      <c r="V44" s="259">
+        <v>0</v>
+      </c>
+      <c r="W44" s="259">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="X41" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="119">
+      <c r="X44" s="258">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="258" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD44" s="258" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE44" s="258">
+        <v>10</v>
+      </c>
+      <c r="AF44" s="258">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AG44" s="258">
+        <v>5</v>
+      </c>
+      <c r="AH44" s="258">
+        <v>1.2</v>
+      </c>
+      <c r="AI44" s="258">
+        <v>0.8</v>
+      </c>
+      <c r="AJ44" s="258" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK44" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM44" s="258" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN44" s="258">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="AO44" s="258">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP44" s="265">
+        <v>0.12</v>
+      </c>
+      <c r="AQ44" s="266">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR44" s="267">
+        <v>123</v>
+      </c>
+      <c r="AS44" s="258" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT44" s="258" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU44" s="261">
+        <v>0.87353052212008675</v>
+      </c>
+      <c r="AV44" s="261">
+        <v>0.89731433437810026</v>
+      </c>
+      <c r="AY44" s="268">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA44" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB44" s="258" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC44" s="258">
+        <v>0</v>
+      </c>
+      <c r="BD44" s="258" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE44" s="258" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF44" s="269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C45" s="119"/>
+    </row>
+    <row r="46" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="119" t="s">
+        <v>307</v>
+      </c>
+      <c r="C46" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="119" t="s">
+        <v>297</v>
+      </c>
+      <c r="E46" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="119" t="s">
+        <v>301</v>
+      </c>
+      <c r="H46" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="M46" s="119">
+        <v>0.11</v>
+      </c>
+      <c r="N46" s="123">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O46" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="P46" s="125">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q46" s="126">
+        <v>0</v>
+      </c>
+      <c r="R46" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="S46" s="124">
+        <v>0</v>
+      </c>
+      <c r="T46" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="U46" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="W46" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="X46" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="119">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="119">
         <v>20</v>
       </c>
-      <c r="AB41" s="119">
+      <c r="AB46" s="119">
         <v>0.03</v>
       </c>
-      <c r="AC41" s="119" t="s">
+      <c r="AC46" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="AD41" s="119" t="s">
+      <c r="AD46" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="AE41" s="119">
+      <c r="AE46" s="119">
+        <v>20</v>
+      </c>
+      <c r="AF46" s="119">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AG46" s="119">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="119">
+        <v>1.2</v>
+      </c>
+      <c r="AI46" s="119">
+        <v>0.8</v>
+      </c>
+      <c r="AJ46" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK46" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM46" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN46" s="119">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="AO46" s="119">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP46" s="127">
+        <v>0.12</v>
+      </c>
+      <c r="AQ46" s="128">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR46" s="129">
+        <v>123</v>
+      </c>
+      <c r="AS46" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT46" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU46" s="123">
+        <v>0.49181956819187989</v>
+      </c>
+      <c r="AV46" s="123">
+        <v>0.51298615267558034</v>
+      </c>
+      <c r="AY46" s="120">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA46" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB46" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC46" s="119">
+        <v>0</v>
+      </c>
+      <c r="BD46" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE46" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF46" s="130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="119" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="119" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="119" t="s">
+        <v>302</v>
+      </c>
+      <c r="H47" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="M47" s="119">
+        <v>0.11</v>
+      </c>
+      <c r="N47" s="123">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O47" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="P47" s="125">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q47" s="126">
+        <v>0.5</v>
+      </c>
+      <c r="R47" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="S47" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="T47" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="U47" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" s="119">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="W47" s="119">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="X47" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="119">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="119">
+        <v>20</v>
+      </c>
+      <c r="AB47" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="AC47" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD47" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE47" s="119">
         <v>10</v>
       </c>
-      <c r="AF41" s="119">
+      <c r="AF47" s="119">
         <v>2.75E-2</v>
       </c>
-      <c r="AG41" s="119">
+      <c r="AG47" s="119">
         <v>5</v>
       </c>
-      <c r="AH41" s="119">
+      <c r="AH47" s="119">
         <v>1.2</v>
       </c>
-      <c r="AI41" s="119">
+      <c r="AI47" s="119">
         <v>0.8</v>
       </c>
-      <c r="AJ41" s="119" t="s">
+      <c r="AJ47" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="AK41" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL41" s="119" t="s">
+      <c r="AK47" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL47" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="AM41" s="119" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN41" s="119">
+      <c r="AM47" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN47" s="119">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="AO41" s="119">
+      <c r="AO47" s="119">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP41" s="127">
+      <c r="AP47" s="127">
         <v>0.12</v>
       </c>
-      <c r="AQ41" s="128">
+      <c r="AQ47" s="128">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR41" s="129">
+      <c r="AR47" s="129">
         <v>123</v>
       </c>
-      <c r="AS41" s="119" t="s">
+      <c r="AS47" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AT41" s="119" t="s">
+      <c r="AT47" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AU41" s="123">
+      <c r="AU47" s="123">
         <v>0.87353052212008675</v>
       </c>
-      <c r="AV41" s="123">
+      <c r="AV47" s="123">
         <v>0.89731433437810026</v>
       </c>
-      <c r="AY41" s="120">
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA41" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB41" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC41" s="119">
-        <v>0</v>
-      </c>
-      <c r="BD41" s="119" t="s">
+      <c r="AY47" s="120">
+        <v>0</v>
+      </c>
+      <c r="AZ47" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA47" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB47" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC47" s="119">
+        <v>0</v>
+      </c>
+      <c r="BD47" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="BE41" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF41" s="130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="N42" s="20"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="AP42" s="3"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="22"/>
-      <c r="AU42" s="20"/>
-      <c r="AV42" s="20"/>
-      <c r="AY42" s="27"/>
-      <c r="BF42" s="19"/>
-    </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="N43" s="20"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="AP43" s="3"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="22"/>
-      <c r="AY43" s="27"/>
-      <c r="BF43" s="19"/>
-    </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="N44" s="20"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="22"/>
-      <c r="AY44" s="27"/>
-      <c r="BF44" s="19"/>
-    </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="N45" s="20"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="AP45" s="3"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="22"/>
-      <c r="AU45" s="20"/>
-      <c r="AV45" s="20"/>
-      <c r="AY45" s="27"/>
-      <c r="BF45" s="19"/>
-    </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="N46" s="20"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="AP46" s="3"/>
-      <c r="AQ46" s="5"/>
-      <c r="AR46" s="22"/>
-      <c r="AU46" s="20"/>
-      <c r="AV46" s="20"/>
-      <c r="AY46" s="27"/>
-      <c r="BF46" s="19"/>
-    </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="N47" s="20"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="AP47" s="3"/>
-      <c r="AQ47" s="5"/>
-      <c r="AR47" s="22"/>
-      <c r="AU47" s="20"/>
-      <c r="AV47" s="20"/>
-      <c r="AY47" s="27"/>
-      <c r="BF47" s="19"/>
+      <c r="BE47" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF47" s="130" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N48" s="20"/>
@@ -8039,8 +8938,6 @@
       <c r="AP49" s="3"/>
       <c r="AQ49" s="5"/>
       <c r="AR49" s="22"/>
-      <c r="AU49" s="20"/>
-      <c r="AV49" s="20"/>
       <c r="AY49" s="27"/>
       <c r="BF49" s="19"/>
     </row>
@@ -8054,326 +8951,38 @@
       <c r="AP50" s="3"/>
       <c r="AQ50" s="5"/>
       <c r="AR50" s="22"/>
-      <c r="AU50" s="20"/>
-      <c r="AV50" s="20"/>
       <c r="AY50" s="27"/>
       <c r="BF50" s="19"/>
     </row>
-    <row r="51" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="131" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="131" t="s">
-        <v>158</v>
-      </c>
-      <c r="F51" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="131" t="s">
-        <v>171</v>
-      </c>
-      <c r="H51" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="K51" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="M51" s="131">
-        <v>0.11</v>
-      </c>
-      <c r="N51" s="133">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O51" s="134">
-        <v>0.5</v>
-      </c>
-      <c r="P51" s="135">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="Q51" s="136">
-        <v>0</v>
-      </c>
-      <c r="R51" s="134">
-        <v>0.5</v>
-      </c>
-      <c r="S51" s="134"/>
-      <c r="T51" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="U51" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="V51" s="132">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="W51" s="131">
-        <v>0.03</v>
-      </c>
-      <c r="X51" s="131">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="131" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD51" s="131" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE51" s="131">
-        <v>15</v>
-      </c>
-      <c r="AF51" s="131">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AG51" s="131">
-        <v>5</v>
-      </c>
-      <c r="AH51" s="131">
-        <v>1.2</v>
-      </c>
-      <c r="AI51" s="131">
-        <v>0.8</v>
-      </c>
-      <c r="AJ51" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK51" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL51" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM51" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN51" s="131">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AO51" s="131">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP51" s="137">
-        <v>0.12</v>
-      </c>
-      <c r="AQ51" s="138">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR51" s="139">
-        <v>123</v>
-      </c>
-      <c r="AS51" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT51" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU51" s="140">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AV51" s="140">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AY51" s="141">
-        <v>0</v>
-      </c>
-      <c r="AZ51" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA51" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB51" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC51" s="131">
-        <v>0</v>
-      </c>
-      <c r="BD51" s="131" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE51" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF51" s="142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="131" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="131" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52" s="131" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="131" t="s">
-        <v>173</v>
-      </c>
-      <c r="H52" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" s="131" t="s">
-        <v>94</v>
-      </c>
-      <c r="M52" s="131">
-        <v>0.11</v>
-      </c>
-      <c r="N52" s="140">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O52" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="P52" s="144">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="Q52" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="R52" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="S52" s="143"/>
-      <c r="T52" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="U52" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="V52" s="132">
-        <v>0.02</v>
-      </c>
-      <c r="W52" s="131">
-        <v>0.02</v>
-      </c>
-      <c r="X52" s="131">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="131" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD52" s="131" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE52" s="131">
-        <v>15</v>
-      </c>
-      <c r="AF52" s="131">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AG52" s="131">
-        <v>5</v>
-      </c>
-      <c r="AH52" s="131">
-        <v>1.2</v>
-      </c>
-      <c r="AI52" s="131">
-        <v>0.8</v>
-      </c>
-      <c r="AJ52" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK52" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL52" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM52" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN52" s="131">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AO52" s="131">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP52" s="137">
-        <v>0.12</v>
-      </c>
-      <c r="AQ52" s="138">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR52" s="139">
-        <v>123</v>
-      </c>
-      <c r="AS52" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT52" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU52" s="140">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AV52" s="140">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AY52" s="141">
-        <v>0</v>
-      </c>
-      <c r="AZ52" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA52" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB52" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC52" s="131">
-        <v>0</v>
-      </c>
-      <c r="BD52" s="131" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE52" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF52" s="142" t="b">
-        <v>1</v>
-      </c>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N51" s="20"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="116"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="22"/>
+      <c r="AU51" s="20"/>
+      <c r="AV51" s="20"/>
+      <c r="AY51" s="27"/>
+      <c r="BF51" s="19"/>
+    </row>
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N52" s="20"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="116"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="22"/>
+      <c r="AU52" s="20"/>
+      <c r="AV52" s="20"/>
+      <c r="AY52" s="27"/>
+      <c r="BF52" s="19"/>
     </row>
     <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N53" s="20"/>
@@ -8390,309 +8999,35 @@
       <c r="AY53" s="27"/>
       <c r="BF53" s="19"/>
     </row>
-    <row r="54" spans="1:58" s="159" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="159" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="E54" s="159" t="s">
-        <v>158</v>
-      </c>
-      <c r="F54" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="159" t="s">
-        <v>171</v>
-      </c>
-      <c r="H54" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" s="161" t="s">
-        <v>94</v>
-      </c>
-      <c r="M54" s="159">
-        <v>0.11</v>
-      </c>
-      <c r="N54" s="162">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O54" s="163">
-        <v>0.5</v>
-      </c>
-      <c r="P54" s="164">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="Q54" s="165">
-        <v>0</v>
-      </c>
-      <c r="R54" s="163">
-        <v>0.5</v>
-      </c>
-      <c r="S54" s="163"/>
-      <c r="T54" s="159" t="s">
-        <v>98</v>
-      </c>
-      <c r="U54" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="V54" s="160">
-        <v>0</v>
-      </c>
-      <c r="W54" s="159">
-        <v>0.03</v>
-      </c>
-      <c r="X54" s="159">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="159" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD54" s="159" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE54" s="159">
-        <v>15</v>
-      </c>
-      <c r="AF54" s="159">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AG54" s="159">
-        <v>5</v>
-      </c>
-      <c r="AH54" s="159">
-        <v>1.2</v>
-      </c>
-      <c r="AI54" s="159">
-        <v>0.8</v>
-      </c>
-      <c r="AJ54" s="159" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK54" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL54" s="159" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM54" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN54" s="159">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AO54" s="159">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP54" s="166">
-        <v>0.12</v>
-      </c>
-      <c r="AQ54" s="167">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR54" s="168">
-        <v>123</v>
-      </c>
-      <c r="AS54" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT54" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU54" s="162">
-        <v>0.7177631600179436</v>
-      </c>
-      <c r="AV54" s="162">
-        <v>0.74141988775539847</v>
-      </c>
-      <c r="AY54" s="169">
-        <v>0</v>
-      </c>
-      <c r="AZ54" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA54" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB54" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC54" s="159">
-        <v>0</v>
-      </c>
-      <c r="BD54" s="159" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE54" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF54" s="170" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:58" s="159" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="159" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55" s="159" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="159" t="s">
-        <v>173</v>
-      </c>
-      <c r="H55" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" s="160" t="s">
-        <v>94</v>
-      </c>
-      <c r="M55" s="159">
-        <v>0.11</v>
-      </c>
-      <c r="N55" s="162">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O55" s="163">
-        <v>0.5</v>
-      </c>
-      <c r="P55" s="164">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="Q55" s="171">
-        <v>0.5</v>
-      </c>
-      <c r="R55" s="163">
-        <v>0.5</v>
-      </c>
-      <c r="S55" s="163"/>
-      <c r="T55" s="159" t="s">
-        <v>98</v>
-      </c>
-      <c r="U55" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="V55" s="160">
-        <v>0</v>
-      </c>
-      <c r="W55" s="159">
-        <v>0.02</v>
-      </c>
-      <c r="X55" s="159">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="159" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD55" s="159" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE55" s="159">
-        <v>15</v>
-      </c>
-      <c r="AF55" s="159">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AG55" s="159">
-        <v>5</v>
-      </c>
-      <c r="AH55" s="159">
-        <v>1.2</v>
-      </c>
-      <c r="AI55" s="159">
-        <v>0.8</v>
-      </c>
-      <c r="AJ55" s="159" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK55" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL55" s="159" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM55" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN55" s="159">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="AO55" s="159">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP55" s="166">
-        <v>0.12</v>
-      </c>
-      <c r="AQ55" s="167">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR55" s="168">
-        <v>123</v>
-      </c>
-      <c r="AS55" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT55" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU55" s="162">
-        <v>0.97571945376918812</v>
-      </c>
-      <c r="AV55" s="162">
-        <v>0.99507870807939247</v>
-      </c>
-      <c r="AY55" s="169">
-        <v>0</v>
-      </c>
-      <c r="AZ55" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA55" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB55" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC55" s="159">
-        <v>0</v>
-      </c>
-      <c r="BD55" s="159" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE55" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF55" s="170" t="b">
-        <v>1</v>
-      </c>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N54" s="20"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="22"/>
+      <c r="AU54" s="20"/>
+      <c r="AV54" s="20"/>
+      <c r="AY54" s="27"/>
+      <c r="BF54" s="19"/>
+    </row>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N55" s="20"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="116"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="AP55" s="3"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="22"/>
+      <c r="AU55" s="20"/>
+      <c r="AV55" s="20"/>
+      <c r="AY55" s="27"/>
+      <c r="BF55" s="19"/>
     </row>
     <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N56" s="20"/>
@@ -8709,307 +9044,319 @@
       <c r="AY56" s="27"/>
       <c r="BF56" s="19"/>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" t="s">
+    <row r="57" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F57" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>100</v>
-      </c>
-      <c r="M57">
+      <c r="H57" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="M57" s="131">
         <v>0.11</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N57" s="133">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O57" s="32">
+      <c r="O57" s="134">
         <v>0.5</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="135">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q57" s="116">
-        <v>0</v>
-      </c>
-      <c r="R57" s="32">
+      <c r="Q57" s="136">
+        <v>0</v>
+      </c>
+      <c r="R57" s="134">
         <v>0.5</v>
       </c>
-      <c r="S57" s="32"/>
-      <c r="T57" t="s">
+      <c r="S57" s="134"/>
+      <c r="T57" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
-      </c>
-      <c r="V57">
+      <c r="U57" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57" s="132">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W57" s="131">
         <v>0.03</v>
       </c>
-      <c r="W57">
-        <v>0.03</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="s">
+      <c r="X57" s="131">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AD57" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="AE57">
+      <c r="AE57" s="131">
         <v>15</v>
       </c>
-      <c r="AF57">
+      <c r="AF57" s="131">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG57">
+      <c r="AG57" s="131">
         <v>5</v>
       </c>
-      <c r="AH57">
+      <c r="AH57" s="131">
         <v>1.2</v>
       </c>
-      <c r="AI57">
+      <c r="AI57" s="131">
         <v>0.8</v>
       </c>
-      <c r="AJ57" t="s">
+      <c r="AJ57" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="AK57" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL57" t="s">
+      <c r="AK57" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL57" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="AM57" t="s">
+      <c r="AM57" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="AN57">
+      <c r="AN57" s="131">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO57">
+      <c r="AO57" s="131">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP57" s="3">
+      <c r="AP57" s="137">
         <v>0.12</v>
       </c>
-      <c r="AQ57" s="5">
+      <c r="AQ57" s="138">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR57" s="22">
+      <c r="AR57" s="139">
         <v>123</v>
       </c>
-      <c r="AS57" t="s">
+      <c r="AS57" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="AT57" t="s">
+      <c r="AT57" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="AU57" s="20">
+      <c r="AU57" s="140">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AV57" s="20">
+      <c r="AV57" s="140">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AY57" s="27">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA57" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC57">
-        <v>0</v>
-      </c>
-      <c r="BD57" t="s">
+      <c r="AY57" s="141">
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA57" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB57" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC57" s="131">
+        <v>0</v>
+      </c>
+      <c r="BD57" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="BE57" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF57" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="BE57" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF57" s="142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>100</v>
-      </c>
-      <c r="M58">
+      <c r="H58" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="M58" s="131">
         <v>0.11</v>
       </c>
-      <c r="N58" s="20">
+      <c r="N58" s="140">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O58" s="32">
+      <c r="O58" s="143">
         <v>0.5</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="144">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q58" s="116">
+      <c r="Q58" s="145">
         <v>0.5</v>
       </c>
-      <c r="R58" s="32">
+      <c r="R58" s="143">
         <v>0.5</v>
       </c>
-      <c r="S58" s="32"/>
-      <c r="T58" t="s">
+      <c r="S58" s="143"/>
+      <c r="T58" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
-      </c>
-      <c r="V58">
+      <c r="U58" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="V58" s="132">
         <v>0.02</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="131">
         <v>0.02</v>
       </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="s">
+      <c r="X58" s="131">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AD58" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="AE58">
+      <c r="AE58" s="131">
         <v>15</v>
       </c>
-      <c r="AF58">
+      <c r="AF58" s="131">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG58">
+      <c r="AG58" s="131">
         <v>5</v>
       </c>
-      <c r="AH58">
+      <c r="AH58" s="131">
         <v>1.2</v>
       </c>
-      <c r="AI58">
+      <c r="AI58" s="131">
         <v>0.8</v>
       </c>
-      <c r="AJ58" t="s">
+      <c r="AJ58" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="AK58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL58" t="s">
+      <c r="AK58" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL58" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="AM58" t="s">
+      <c r="AM58" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="AN58">
+      <c r="AN58" s="131">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO58">
+      <c r="AO58" s="131">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP58" s="3">
+      <c r="AP58" s="137">
         <v>0.12</v>
       </c>
-      <c r="AQ58" s="5">
+      <c r="AQ58" s="138">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR58" s="22">
+      <c r="AR58" s="139">
         <v>123</v>
       </c>
-      <c r="AS58" t="s">
+      <c r="AS58" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="AT58" t="s">
+      <c r="AT58" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="AU58" s="20">
+      <c r="AU58" s="140">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AV58" s="20">
+      <c r="AV58" s="140">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AY58" s="27">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA58" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB58" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC58">
-        <v>0</v>
-      </c>
-      <c r="BD58" t="s">
+      <c r="AY58" s="141">
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA58" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB58" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC58" s="131">
+        <v>0</v>
+      </c>
+      <c r="BD58" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="BE58" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF58" s="19" t="b">
+      <c r="BE58" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF58" s="142" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9028,320 +9375,958 @@
       <c r="AY59" s="27"/>
       <c r="BF59" s="19"/>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" t="s">
+    <row r="60" spans="1:58" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="159" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
-        <v>100</v>
-      </c>
-      <c r="M60">
+      <c r="H60" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" s="161" t="s">
+        <v>94</v>
+      </c>
+      <c r="M60" s="159">
         <v>0.11</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N60" s="162">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O60" s="32">
+      <c r="O60" s="163">
         <v>0.5</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="164">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q60" s="116">
-        <v>0</v>
-      </c>
-      <c r="R60" s="32">
+      <c r="Q60" s="165">
+        <v>0</v>
+      </c>
+      <c r="R60" s="163">
         <v>0.5</v>
       </c>
-      <c r="S60" s="32"/>
-      <c r="T60" t="s">
+      <c r="S60" s="163"/>
+      <c r="T60" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="U60" t="b">
-        <v>1</v>
-      </c>
-      <c r="V60">
+      <c r="U60" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" s="160">
+        <v>0</v>
+      </c>
+      <c r="W60" s="159">
         <v>0.03</v>
       </c>
-      <c r="W60">
-        <v>0.03</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="s">
+      <c r="X60" s="159">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AD60" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="AE60">
+      <c r="AE60" s="159">
         <v>15</v>
       </c>
-      <c r="AF60">
+      <c r="AF60" s="159">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG60">
+      <c r="AG60" s="159">
         <v>5</v>
       </c>
-      <c r="AH60">
+      <c r="AH60" s="159">
         <v>1.2</v>
       </c>
-      <c r="AI60">
+      <c r="AI60" s="159">
         <v>0.8</v>
       </c>
-      <c r="AJ60" t="s">
+      <c r="AJ60" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="AK60" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL60" t="s">
+      <c r="AK60" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL60" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="AM60" t="s">
+      <c r="AM60" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="AN60">
+      <c r="AN60" s="159">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO60">
+      <c r="AO60" s="159">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP60" s="3">
+      <c r="AP60" s="166">
         <v>0.12</v>
       </c>
-      <c r="AQ60" s="5">
+      <c r="AQ60" s="167">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR60" s="22">
+      <c r="AR60" s="168">
         <v>123</v>
       </c>
-      <c r="AS60" t="s">
+      <c r="AS60" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="AT60" t="s">
+      <c r="AT60" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="AU60" s="20">
+      <c r="AU60" s="162">
         <v>0.7177631600179436</v>
       </c>
-      <c r="AV60" s="20">
+      <c r="AV60" s="162">
         <v>0.74141988775539847</v>
       </c>
-      <c r="AY60" s="27">
-        <v>0</v>
-      </c>
-      <c r="AZ60" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA60" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB60" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC60">
-        <v>0</v>
-      </c>
-      <c r="BD60" t="s">
+      <c r="AY60" s="169">
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA60" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB60" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC60" s="159">
+        <v>0</v>
+      </c>
+      <c r="BD60" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="BE60" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF60" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="BE60" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF60" s="170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="159" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" s="159" t="s">
         <v>160</v>
       </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F61" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="159" t="s">
         <v>173</v>
       </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>100</v>
-      </c>
-      <c r="M61">
+      <c r="H61" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="M61" s="159">
         <v>0.11</v>
       </c>
-      <c r="N61" s="20">
+      <c r="N61" s="162">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="O61" s="32">
+      <c r="O61" s="163">
         <v>0.5</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="164">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q61" s="116">
+      <c r="Q61" s="171">
         <v>0.5</v>
       </c>
-      <c r="R61" s="32">
+      <c r="R61" s="163">
         <v>0.5</v>
       </c>
-      <c r="S61" s="32"/>
-      <c r="T61" t="s">
+      <c r="S61" s="163"/>
+      <c r="T61" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="U61" t="b">
-        <v>1</v>
-      </c>
-      <c r="V61">
+      <c r="U61" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="V61" s="160">
+        <v>0</v>
+      </c>
+      <c r="W61" s="159">
         <v>0.02</v>
       </c>
-      <c r="W61">
+      <c r="X61" s="159">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD61" s="159" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE61" s="159">
+        <v>15</v>
+      </c>
+      <c r="AF61" s="159">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG61" s="159">
+        <v>5</v>
+      </c>
+      <c r="AH61" s="159">
+        <v>1.2</v>
+      </c>
+      <c r="AI61" s="159">
+        <v>0.8</v>
+      </c>
+      <c r="AJ61" s="159" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK61" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="159" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM61" s="159" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN61" s="159">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO61" s="159">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP61" s="166">
+        <v>0.12</v>
+      </c>
+      <c r="AQ61" s="167">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR61" s="168">
+        <v>123</v>
+      </c>
+      <c r="AS61" s="159" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT61" s="159" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU61" s="162">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV61" s="162">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY61" s="169">
+        <v>0</v>
+      </c>
+      <c r="AZ61" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA61" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB61" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC61" s="159">
+        <v>0</v>
+      </c>
+      <c r="BD61" s="159" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE61" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF61" s="170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N62" s="20"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="116"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="AP62" s="3"/>
+      <c r="AQ62" s="5"/>
+      <c r="AR62" s="22"/>
+      <c r="AU62" s="20"/>
+      <c r="AV62" s="20"/>
+      <c r="AY62" s="27"/>
+      <c r="BF62" s="19"/>
+    </row>
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>171</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>100</v>
+      </c>
+      <c r="M63">
+        <v>0.11</v>
+      </c>
+      <c r="N63" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O63" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="P63" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q63" s="116">
+        <v>0</v>
+      </c>
+      <c r="R63" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="S63" s="32"/>
+      <c r="T63" t="s">
+        <v>98</v>
+      </c>
+      <c r="U63" t="b">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0.03</v>
+      </c>
+      <c r="W63">
+        <v>0.03</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE63">
+        <v>15</v>
+      </c>
+      <c r="AF63">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG63">
+        <v>5</v>
+      </c>
+      <c r="AH63">
+        <v>1.2</v>
+      </c>
+      <c r="AI63">
+        <v>0.8</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN63">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO63">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP63" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ63" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR63" s="22">
+        <v>123</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU63" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV63" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY63" s="27">
+        <v>0</v>
+      </c>
+      <c r="AZ63" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA63" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB63" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>0</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE63" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF63" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>173</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>100</v>
+      </c>
+      <c r="M64">
+        <v>0.11</v>
+      </c>
+      <c r="N64" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O64" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="P64" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q64" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="R64" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="S64" s="32"/>
+      <c r="T64" t="s">
+        <v>98</v>
+      </c>
+      <c r="U64" t="b">
+        <v>0</v>
+      </c>
+      <c r="V64">
         <v>0.02</v>
       </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="s">
+      <c r="W64">
+        <v>0.02</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="s">
         <v>92</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AD64" t="s">
         <v>35</v>
       </c>
-      <c r="AE61">
+      <c r="AE64">
         <v>15</v>
       </c>
-      <c r="AF61">
+      <c r="AF64">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG61">
+      <c r="AG64">
         <v>5</v>
       </c>
-      <c r="AH61">
+      <c r="AH64">
         <v>1.2</v>
       </c>
-      <c r="AI61">
+      <c r="AI64">
         <v>0.8</v>
       </c>
-      <c r="AJ61" t="s">
+      <c r="AJ64" t="s">
         <v>103</v>
       </c>
-      <c r="AK61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL61" t="s">
+      <c r="AK64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL64" t="s">
         <v>77</v>
       </c>
-      <c r="AM61" t="s">
+      <c r="AM64" t="s">
         <v>20</v>
       </c>
-      <c r="AN61">
+      <c r="AN64">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AO61">
+      <c r="AO64">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP61" s="3">
+      <c r="AP64" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ61" s="5">
+      <c r="AQ64" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR61" s="22">
+      <c r="AR64" s="22">
         <v>123</v>
       </c>
-      <c r="AS61" t="s">
+      <c r="AS64" t="s">
         <v>31</v>
       </c>
-      <c r="AT61" t="s">
+      <c r="AT64" t="s">
         <v>31</v>
       </c>
-      <c r="AU61" s="20">
+      <c r="AU64" s="20">
         <v>0.97571945376918812</v>
       </c>
-      <c r="AV61" s="20">
+      <c r="AV64" s="20">
         <v>0.99507870807939247</v>
       </c>
-      <c r="AY61" s="27">
-        <v>0</v>
-      </c>
-      <c r="AZ61" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA61" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB61" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC61">
-        <v>0</v>
-      </c>
-      <c r="BD61" t="s">
+      <c r="AY64" s="27">
+        <v>0</v>
+      </c>
+      <c r="AZ64" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA64" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB64" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>0</v>
+      </c>
+      <c r="BD64" t="s">
         <v>3</v>
       </c>
-      <c r="BE61" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF61" s="19" t="b">
+      <c r="BE64" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF64" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N65" s="20"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="116"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="AP65" s="3"/>
+      <c r="AQ65" s="5"/>
+      <c r="AR65" s="22"/>
+      <c r="AU65" s="20"/>
+      <c r="AV65" s="20"/>
+      <c r="AY65" s="27"/>
+      <c r="BF65" s="19"/>
+    </row>
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" t="s">
+        <v>158</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>171</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>100</v>
+      </c>
+      <c r="M66">
+        <v>0.11</v>
+      </c>
+      <c r="N66" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O66" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="P66" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q66" s="116">
+        <v>0</v>
+      </c>
+      <c r="R66" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="S66" s="32"/>
+      <c r="T66" t="s">
+        <v>98</v>
+      </c>
+      <c r="U66" t="b">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>0.03</v>
+      </c>
+      <c r="W66">
+        <v>0.03</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE66">
+        <v>15</v>
+      </c>
+      <c r="AF66">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG66">
+        <v>5</v>
+      </c>
+      <c r="AH66">
+        <v>1.2</v>
+      </c>
+      <c r="AI66">
+        <v>0.8</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN66">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO66">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP66" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ66" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR66" s="22">
+        <v>123</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU66" s="20">
+        <v>0.7177631600179436</v>
+      </c>
+      <c r="AV66" s="20">
+        <v>0.74141988775539847</v>
+      </c>
+      <c r="AY66" s="27">
+        <v>0</v>
+      </c>
+      <c r="AZ66" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA66" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB66" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>0</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE66" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF66" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>173</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M67">
+        <v>0.11</v>
+      </c>
+      <c r="N67" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O67" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="P67" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="Q67" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="R67" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="S67" s="32"/>
+      <c r="T67" t="s">
+        <v>98</v>
+      </c>
+      <c r="U67" t="b">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>0.02</v>
+      </c>
+      <c r="W67">
+        <v>0.02</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE67">
+        <v>15</v>
+      </c>
+      <c r="AF67">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG67">
+        <v>5</v>
+      </c>
+      <c r="AH67">
+        <v>1.2</v>
+      </c>
+      <c r="AI67">
+        <v>0.8</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN67">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AO67">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP67" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ67" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR67" s="22">
+        <v>123</v>
+      </c>
+      <c r="AS67" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU67" s="20">
+        <v>0.97571945376918812</v>
+      </c>
+      <c r="AV67" s="20">
+        <v>0.99507870807939247</v>
+      </c>
+      <c r="AY67" s="27">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA67" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB67" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
+      <c r="BD67" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE67" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF67" s="19" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA5:BB23 BA40:BB61 BA25:BB38 C5:C61" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA5:BB23 BA46:BB67 BA28:BB41 BA25:BB26 BA43:BB44 C5:C67" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL5:AL23 AL25:AL38 AL40:AL61" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL5:AL23 AL28:AL41 AL46:AL67 AL25:AL26 AL43:AL44" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L23 L25:L38 L40:L61" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L23 L28:L41 L46:L67 L25:L26 L43:L44" xr:uid="{A54191EA-7DD4-4222-901B-E86C57A5C3B0}">
       <formula1>"fixedRate, sharedNC, sharedADC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9388,7 +10373,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B4">
         <v>2108520</v>
@@ -9410,7 +10395,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B5">
         <v>99496</v>
@@ -9672,10 +10657,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B472967-B134-4A3F-90B0-E75D1AE73662}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9685,289 +10673,431 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="N2" s="243" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" t="s">
+        <v>345</v>
+      </c>
+      <c r="N3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O3" t="s">
+        <v>346</v>
+      </c>
+      <c r="P3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>346</v>
+      </c>
+      <c r="R3" t="s">
+        <v>346</v>
+      </c>
+      <c r="S3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" t="s">
         <v>335</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>336</v>
       </c>
-      <c r="F4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J4" t="s">
-        <v>342</v>
-      </c>
       <c r="K4" t="s">
+        <v>329</v>
+      </c>
+      <c r="L4" t="s">
         <v>337</v>
       </c>
-      <c r="M4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>347</v>
+      </c>
+      <c r="O4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>350</v>
+      </c>
+      <c r="R4" t="s">
+        <v>351</v>
+      </c>
+      <c r="S4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="240">
+        <v>322</v>
+      </c>
+      <c r="B5" s="238">
         <f>1940333+3247601</f>
         <v>5187934</v>
       </c>
-      <c r="C5" s="240">
+      <c r="C5" s="238">
         <f>663180+870359</f>
         <v>1533539</v>
       </c>
-      <c r="D5" s="240">
+      <c r="D5" s="238">
         <f>1270516+2289956</f>
         <v>3560472</v>
       </c>
-      <c r="E5" s="240">
+      <c r="E5" s="238">
         <f>6637+87286</f>
         <v>93923</v>
       </c>
-      <c r="F5" s="240">
-        <v>151808</v>
-      </c>
-      <c r="G5" s="240">
-        <v>51589</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.11360000000000001</v>
-      </c>
-      <c r="I5" s="240">
-        <f>F5+G5</f>
-        <v>203397</v>
-      </c>
-      <c r="J5" s="240"/>
-      <c r="M5" s="21">
+      <c r="F5" s="21">
         <f>E5/C5</f>
         <v>6.1245915493508808E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G5" s="21"/>
+      <c r="H5" s="238">
+        <v>151808</v>
+      </c>
+      <c r="I5" s="238">
+        <v>51589</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="K5" s="238">
+        <f>H5+I5</f>
+        <v>203397</v>
+      </c>
+      <c r="L5" s="238"/>
+      <c r="N5" s="238">
+        <f>71971+88897</f>
+        <v>160868</v>
+      </c>
+      <c r="O5" s="238">
+        <f>30838+35178</f>
+        <v>66016</v>
+      </c>
+      <c r="P5" s="238">
+        <f>18097+16316</f>
+        <v>34413</v>
+      </c>
+      <c r="Q5" s="238">
+        <f>1289+5535</f>
+        <v>6824</v>
+      </c>
+      <c r="R5" s="238">
+        <f>10992+12153</f>
+        <v>23145</v>
+      </c>
+      <c r="S5" s="238">
+        <f>287+295</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="240">
+        <v>323</v>
+      </c>
+      <c r="B6" s="238">
         <f>12355+35045</f>
         <v>47400</v>
       </c>
-      <c r="C6" s="240">
+      <c r="C6" s="238">
         <f>12252+34095</f>
         <v>46347</v>
       </c>
-      <c r="D6" s="240">
-        <v>0</v>
-      </c>
-      <c r="E6" s="240">
+      <c r="D6" s="238">
+        <v>0</v>
+      </c>
+      <c r="E6" s="238">
         <f>103+950</f>
         <v>1053</v>
       </c>
-      <c r="F6" s="240"/>
-      <c r="G6" s="240"/>
-      <c r="H6" s="6">
+      <c r="F6" s="21">
+        <f>E6/C6</f>
+        <v>2.2719917146740889E-2</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="6">
         <v>0.14660000000000001</v>
       </c>
-      <c r="I6" s="240">
+      <c r="K6" s="238">
         <v>13460</v>
       </c>
-      <c r="J6" s="240"/>
-      <c r="M6" s="21">
-        <f t="shared" ref="M6:M11" si="0">E6/C6</f>
-        <v>2.2719917146740889E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="238"/>
+      <c r="N6" s="238">
+        <f>14799+46118</f>
+        <v>60917</v>
+      </c>
+      <c r="O6" s="238">
+        <f>4424+12931</f>
+        <v>17355</v>
+      </c>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="241">
+        <v>324</v>
+      </c>
+      <c r="B7" s="239">
         <f>SUM(B5:B6)</f>
         <v>5235334</v>
       </c>
-      <c r="C7" s="241">
+      <c r="C7" s="239">
         <f>SUM(C5:C6)</f>
         <v>1579886</v>
       </c>
-      <c r="D7" s="241">
-        <f t="shared" ref="D7:E7" si="1">SUM(D5:D6)</f>
+      <c r="D7" s="239">
+        <f t="shared" ref="D7:E7" si="0">SUM(D5:D6)</f>
         <v>3560472</v>
       </c>
-      <c r="E7" s="241">
-        <f t="shared" si="1"/>
+      <c r="E7" s="239">
+        <f t="shared" si="0"/>
         <v>94976</v>
       </c>
-      <c r="F7" s="241">
-        <f>SUM(F5:F6)</f>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="239">
+        <f>SUM(H5:H6)</f>
         <v>151808</v>
       </c>
-      <c r="G7" s="241"/>
-      <c r="H7" s="242">
+      <c r="I7" s="239"/>
+      <c r="J7" s="240">
         <v>0.1258</v>
       </c>
-      <c r="I7" s="241">
-        <f t="shared" ref="G7:I7" si="2">SUM(I5:I6)</f>
+      <c r="K7" s="239">
+        <f t="shared" ref="K7" si="1">SUM(K5:K6)</f>
         <v>216857</v>
       </c>
-      <c r="J7" s="241"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240"/>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="240"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="239"/>
+      <c r="N7" s="239">
+        <f xml:space="preserve"> SUM(N5:N6)</f>
+        <v>221785</v>
+      </c>
+      <c r="O7" s="239"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="238"/>
+      <c r="L8" s="238"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B9" s="240">
+        <v>325</v>
+      </c>
+      <c r="B9" s="238">
         <v>4287182</v>
       </c>
-      <c r="C9" s="240">
+      <c r="C9" s="238">
         <v>989989</v>
       </c>
-      <c r="D9" s="240">
+      <c r="D9" s="238">
         <v>3058405</v>
       </c>
-      <c r="E9" s="240">
+      <c r="E9" s="238">
         <v>238788</v>
       </c>
-      <c r="F9" s="240">
+      <c r="F9" s="21">
+        <f>E9/C9</f>
+        <v>0.2412026800297781</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="238">
         <v>160694</v>
       </c>
-      <c r="G9" s="240">
+      <c r="I9" s="238">
         <v>27792</v>
       </c>
-      <c r="H9" s="6">
+      <c r="J9" s="6">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="I9" s="240">
-        <f>F9+G9</f>
+      <c r="K9" s="238">
+        <f>H9+I9</f>
         <v>188486</v>
       </c>
-      <c r="J9" s="240"/>
-      <c r="M9" s="21">
-        <f t="shared" si="0"/>
-        <v>0.2412026800297781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="238"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="240">
+        <v>326</v>
+      </c>
+      <c r="B10" s="238">
         <v>113901</v>
       </c>
-      <c r="C10" s="240">
+      <c r="C10" s="238">
         <v>103025</v>
       </c>
-      <c r="D10" s="240">
+      <c r="D10" s="238">
         <v>1449</v>
       </c>
-      <c r="E10" s="240">
+      <c r="E10" s="238">
         <v>9427</v>
       </c>
-      <c r="F10" s="240"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="6">
+      <c r="F10" s="21">
+        <f>E10/C10</f>
+        <v>9.1502062606163559E-2</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="6">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="I10" s="240">
+      <c r="K10" s="238">
         <f>17529</f>
         <v>17529</v>
       </c>
-      <c r="J10" s="240"/>
-      <c r="M10" s="21">
-        <f t="shared" si="0"/>
-        <v>9.1502062606163559E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="238"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" s="241">
+        <v>327</v>
+      </c>
+      <c r="B11" s="239">
         <v>4401083</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="239">
         <f>SUM(C9:C10)</f>
         <v>1093014</v>
       </c>
-      <c r="D11" s="241">
-        <f t="shared" ref="D11:E11" si="3">SUM(D9:D10)</f>
+      <c r="D11" s="239">
+        <f t="shared" ref="D11:E11" si="2">SUM(D9:D10)</f>
         <v>3059854</v>
       </c>
-      <c r="E11" s="241">
+      <c r="E11" s="239">
+        <f t="shared" si="2"/>
+        <v>248215</v>
+      </c>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="239">
+        <f>SUM(K9:K10)</f>
+        <v>206015</v>
+      </c>
+      <c r="L11" s="238"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="51">
+        <f>B7+B11</f>
+        <v>9636417</v>
+      </c>
+      <c r="C13" s="51">
+        <f t="shared" ref="C13:E13" si="3">C7+C11</f>
+        <v>2672900</v>
+      </c>
+      <c r="D13" s="51">
         <f t="shared" si="3"/>
-        <v>248215</v>
-      </c>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="241">
-        <f>SUM(I9:I10)</f>
-        <v>206015</v>
-      </c>
-      <c r="J11" s="240"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>343</v>
-      </c>
-      <c r="I13" s="51">
-        <f>SUM(I7,I11)</f>
+        <v>6620326</v>
+      </c>
+      <c r="E13" s="51">
+        <f t="shared" si="3"/>
+        <v>343191</v>
+      </c>
+      <c r="K13" s="51">
+        <f>SUM(K7,K11)</f>
         <v>422872</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>344</v>
-      </c>
-      <c r="I14" s="243">
-        <f>I13/(1+0.06625)</f>
+        <v>339</v>
+      </c>
+      <c r="K14" s="241">
+        <f>K13/(1+0.06625)</f>
         <v>396597.42086752638</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10072,46 +11202,301 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902A1A61-E5B1-49A8-A09E-CAB028E7EE88}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBA09A0-B0A8-486D-AE85-1FBE9CD0DE7B}">
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>190</v>
+    <row r="1" spans="2:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" s="251" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="249"/>
+      <c r="C2" s="249" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="249" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="249" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="249" t="s">
+        <v>357</v>
+      </c>
+      <c r="G2" s="250" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="252" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="246" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="248" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="246" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="246" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="248"/>
+    </row>
+    <row r="4" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="252"/>
+      <c r="C4" s="246" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="248"/>
+      <c r="E4" s="246" t="s">
+        <v>363</v>
+      </c>
+      <c r="F4" s="246" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="248"/>
+    </row>
+    <row r="5" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="252" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="248" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="248"/>
+      <c r="E5" s="246" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+    </row>
+    <row r="6" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="252"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="246" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+    </row>
+    <row r="7" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="253" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="246" t="s">
+        <v>372</v>
+      </c>
+      <c r="G7" s="246"/>
+    </row>
+    <row r="8" spans="2:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="253" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="246" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="246" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="246"/>
+    </row>
+    <row r="9" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="253" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBA09A0-B0A8-486D-AE85-1FBE9CD0DE7B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902A1A61-E5B1-49A8-A09E-CAB028E7EE88}">
+  <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="220"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="256"/>
+      <c r="C2" s="255" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="255" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="255" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="255" t="s">
+        <v>357</v>
+      </c>
+      <c r="G2" s="255" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="257"/>
+    </row>
+    <row r="3" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="252" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="246" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="254" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" s="247" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="247" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="248"/>
+    </row>
+    <row r="4" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="252"/>
+      <c r="C4" s="246" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="254"/>
+      <c r="E4" s="247" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="247" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="248"/>
+    </row>
+    <row r="5" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="252" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="246" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="254" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="247" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="254"/>
+      <c r="G5" s="248"/>
+    </row>
+    <row r="6" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="252"/>
+      <c r="C6" s="246" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="254"/>
+      <c r="E6" s="247" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="254"/>
+      <c r="G6" s="248"/>
+    </row>
+    <row r="7" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="253" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="246"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="247" t="s">
+        <v>372</v>
+      </c>
+      <c r="G7" s="246"/>
+    </row>
+    <row r="8" spans="2:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="253" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="246" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="247" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="246" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="247" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="246"/>
+    </row>
+    <row r="9" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="253" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="246"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="246" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10124,7 +11509,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10166,16 +11551,16 @@
       <c r="F3" s="117"/>
       <c r="G3" s="117"/>
       <c r="H3" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L3" s="23"/>
       <c r="M3" s="23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
@@ -10221,19 +11606,19 @@
         <v>68</v>
       </c>
       <c r="F4" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="118" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="118" t="s">
-        <v>199</v>
-      </c>
       <c r="H4" s="102" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I4" s="102" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K4" s="102" t="s">
         <v>164</v>
@@ -10268,11 +11653,11 @@
       <c r="U4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="244" t="s">
-        <v>346</v>
-      </c>
-      <c r="W4" s="244" t="s">
-        <v>347</v>
+      <c r="V4" s="242" t="s">
+        <v>341</v>
+      </c>
+      <c r="W4" s="242" t="s">
+        <v>342</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>79</v>
@@ -10561,16 +11946,16 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F10" s="119" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M10" s="119">
         <v>0</v>
@@ -10640,16 +12025,16 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F11" s="119" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M11" s="119">
         <v>0</v>
@@ -10719,16 +12104,16 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F12" s="119" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M12" s="119">
         <v>0</v>
@@ -10819,7 +12204,7 @@
         <v>159</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M16" s="119">
         <v>0</v>
@@ -10906,7 +12291,7 @@
         <v>159</v>
       </c>
       <c r="F18" s="121" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G18" s="121">
         <v>2021</v>
@@ -10998,7 +12383,7 @@
     </row>
     <row r="19" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="119" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C19" s="119" t="b">
         <v>0</v>
@@ -11007,7 +12392,7 @@
         <v>159</v>
       </c>
       <c r="F19" s="121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G19" s="122">
         <v>2021</v>
@@ -11108,16 +12493,16 @@
     </row>
     <row r="22" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="227" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C22" s="227" t="b">
         <v>0</v>
       </c>
       <c r="E22" s="227" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F22" s="227" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M22" s="227">
         <v>0</v>
@@ -11195,16 +12580,16 @@
     </row>
     <row r="24" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="227" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C24" s="227" t="b">
         <v>0</v>
       </c>
       <c r="E24" s="227" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G24" s="121">
         <v>2021</v>
@@ -11294,16 +12679,16 @@
     </row>
     <row r="25" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="227" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C25" s="227" t="b">
         <v>0</v>
       </c>
       <c r="E25" s="227" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F25" s="121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G25" s="122">
         <v>2021</v>
@@ -11432,7 +12817,7 @@
         <v>159</v>
       </c>
       <c r="F36" s="119" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G36" s="119">
         <v>2021</v>
@@ -11514,7 +12899,7 @@
         <v>159</v>
       </c>
       <c r="F37" s="119" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G37" s="119">
         <v>2021</v>
@@ -11635,7 +13020,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11716,17 +13101,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C7BB5-EA3C-4C89-A2AC-0AA9AD722C7F}">
-  <dimension ref="A2:G41"/>
+  <dimension ref="A2:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
@@ -11740,19 +13125,19 @@
         <v>13</v>
       </c>
       <c r="C2" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="113" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="113" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="113" t="s">
-        <v>214</v>
-      </c>
       <c r="G2" s="113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11763,19 +13148,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11786,19 +13171,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11806,48 +13191,48 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="131" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B6" s="131" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D6" s="131" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E6" s="131" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F6" s="131" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G6" s="131" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="131" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B7" s="131" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D7" s="131" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G7" s="131" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11859,484 +13244,540 @@
       <c r="F8" s="131"/>
       <c r="G8" s="131"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="131" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="146" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="146" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="D9" s="131" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="146" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="F9" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="131" t="s">
+      <c r="B11" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="146" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="146" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="146" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="131" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="131" t="s">
-        <v>225</v>
-      </c>
-      <c r="F10" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="131" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="146" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="146" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="146" t="s">
-        <v>224</v>
-      </c>
-      <c r="F12" s="146" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="131" t="s">
+      <c r="G11" s="131" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="227" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="227" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" s="227" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="146" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="146" t="s">
-        <v>226</v>
-      </c>
-      <c r="E13" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="F13" s="146" t="s">
-        <v>232</v>
-      </c>
-      <c r="G13" s="131" t="s">
+      <c r="E13" s="227" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="227" t="s">
+        <v>393</v>
+      </c>
+      <c r="G13" s="227" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="227" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="227" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="227" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
+      <c r="E14" s="227" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="227" t="s">
+        <v>393</v>
+      </c>
+      <c r="G14" s="227" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B16" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G16" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E17" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="18" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="B19" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="D19" s="30" t="s">
+    <row r="19" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="159"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="131" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="131" t="s">
         <v>315</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="D24" s="131" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="131" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="B20" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" s="30" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="131" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="131" t="s">
+        <v>311</v>
+      </c>
+      <c r="E25" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="G20" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="159"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="131" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>319</v>
-      </c>
-      <c r="D22" s="131" t="s">
-        <v>315</v>
-      </c>
-      <c r="E22" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="F22" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="G22" s="131" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="131" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="131" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="131" t="s">
-        <v>315</v>
-      </c>
-      <c r="E23" s="131" t="s">
-        <v>225</v>
-      </c>
-      <c r="F23" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="131" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="146" t="s">
-        <v>309</v>
-      </c>
-      <c r="B27" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="146" t="s">
-        <v>323</v>
-      </c>
-      <c r="D27" s="146" t="s">
-        <v>315</v>
-      </c>
-      <c r="E27" s="146" t="s">
-        <v>224</v>
-      </c>
-      <c r="F27" s="146" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="131" t="s">
-        <v>222</v>
-      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="131"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="146" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B28" s="146" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="146" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D28" s="146" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E28" s="146" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F28" s="146" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G28" s="131" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="146" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="146" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" s="146" t="s">
+        <v>311</v>
+      </c>
+      <c r="E29" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="131" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="227" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="227" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" s="227" t="s">
+        <v>311</v>
+      </c>
+      <c r="E31" s="227" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="227" t="s">
+        <v>393</v>
+      </c>
+      <c r="G31" s="227" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="227" t="s">
+        <v>390</v>
+      </c>
+      <c r="B32" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="227" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" s="227" t="s">
+        <v>311</v>
+      </c>
+      <c r="E32" s="227" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="227" t="s">
+        <v>393</v>
+      </c>
+      <c r="G32" s="227" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="159" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="159" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="159" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="E42" s="159" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42" s="159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="159" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="159" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" s="159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="131" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="131" t="s">
+        <v>317</v>
+      </c>
+      <c r="D45" s="131" t="s">
         <v>311</v>
       </c>
-      <c r="B30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="E30" s="30" t="s">
+      <c r="E45" s="131" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="F30" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="G30" s="30" t="s">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="131" t="s">
+        <v>313</v>
+      </c>
+      <c r="B46" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="131" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="131" t="s">
+        <v>311</v>
+      </c>
+      <c r="E46" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="131" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="131" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="131" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" s="30" t="s">
+      <c r="E48" s="131" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" s="131" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="131" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="131" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-    </row>
-    <row r="37" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="159" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" s="159" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="159" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="159" t="s">
+      <c r="E49" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="131" t="s">
         <v>224</v>
-      </c>
-      <c r="F37" s="159" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="159" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="159" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="159" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="159" t="s">
-        <v>226</v>
-      </c>
-      <c r="E38" s="159" t="s">
-        <v>225</v>
-      </c>
-      <c r="F38" s="159" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" s="159" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="131" t="s">
-        <v>316</v>
-      </c>
-      <c r="B40" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="131" t="s">
-        <v>321</v>
-      </c>
-      <c r="D40" s="131" t="s">
-        <v>315</v>
-      </c>
-      <c r="E40" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="F40" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" s="131" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="B41" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="131" t="s">
-        <v>322</v>
-      </c>
-      <c r="D41" s="131" t="s">
-        <v>315</v>
-      </c>
-      <c r="E41" s="131" t="s">
-        <v>225</v>
-      </c>
-      <c r="F41" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="G41" s="131" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B24 B26:B38 B40:B41" xr:uid="{55A447E2-018F-43DD-8296-EAECE125C7D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:B46 B48:B49 B3:B26 B28:B43" xr:uid="{55A447E2-018F-43DD-8296-EAECE125C7D0}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12407,7 +13848,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12616,7 +14057,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B12" s="176">
         <v>6.6250000000000003E-2</v>
@@ -12635,12 +14076,12 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B13" s="176">
         <v>7.3450000000000001E-2</v>
@@ -12688,7 +14129,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="238"/>
+      <c r="B3" s="244"/>
       <c r="C3" s="49" t="s">
         <v>107</v>
       </c>
@@ -12700,7 +14141,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
+      <c r="B4" s="244"/>
       <c r="C4" s="35">
         <v>43646</v>
       </c>
@@ -13297,14 +14738,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="245" t="s">
         <v>130</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="239"/>
+      <c r="C6" s="245"/>
       <c r="D6" s="82">
         <v>43646</v>
       </c>
@@ -13313,7 +14754,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="239"/>
+      <c r="C7" s="245"/>
       <c r="D7" s="82" t="s">
         <v>142</v>
       </c>
@@ -13778,35 +15219,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="238"/>
+      <c r="C4" s="244"/>
       <c r="D4" s="213"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="238"/>
+      <c r="C5" s="244"/>
       <c r="D5" s="214" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E5" s="215" t="s">
         <v>179</v>
       </c>
       <c r="F5" s="226" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G5" s="226" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H5" s="226" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="181" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D6" s="213"/>
       <c r="E6" s="213"/>
@@ -13814,7 +15255,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="193" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D7" s="222">
         <v>1214362</v>
@@ -13837,7 +15278,7 @@
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="211" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D8" s="216"/>
       <c r="E8" s="217">
@@ -13852,7 +15293,7 @@
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="211" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D9" s="216"/>
       <c r="E9" s="218">
@@ -13867,7 +15308,7 @@
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="211" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D10" s="216"/>
       <c r="E10" s="218">
@@ -13882,7 +15323,7 @@
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="211" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D11" s="216"/>
       <c r="E11" s="218">
@@ -13897,7 +15338,7 @@
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="193" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D12" s="219">
         <v>238788</v>
@@ -13916,7 +15357,7 @@
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="193" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D13" s="213"/>
       <c r="E13" s="220"/>
@@ -13925,7 +15366,7 @@
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="182" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D14" s="222">
         <v>2791286</v>
@@ -13939,7 +15380,7 @@
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="182" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D15" s="219">
         <v>179625</v>
@@ -13953,7 +15394,7 @@
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="182" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D16" s="219">
         <v>87494</v>
@@ -13967,7 +15408,7 @@
     </row>
     <row r="17" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="182" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D17" s="222">
         <v>3058405</v>
@@ -13986,7 +15427,7 @@
     </row>
     <row r="18" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="181" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D18" s="223">
         <v>4511555</v>
@@ -14005,7 +15446,7 @@
     </row>
     <row r="19" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="193" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D19" s="224">
         <v>143411</v>
@@ -14016,14 +15457,14 @@
     </row>
     <row r="20" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="181" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D20" s="213"/>
       <c r="E20" s="213"/>
     </row>
     <row r="21" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="193" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D21" s="222">
         <v>342332</v>
@@ -14046,7 +15487,7 @@
     </row>
     <row r="22" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="211" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D22" s="216"/>
       <c r="E22" s="217">
@@ -14060,7 +15501,7 @@
     </row>
     <row r="23" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="211" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D23" s="216"/>
       <c r="E23" s="218">
@@ -14074,7 +15515,7 @@
     </row>
     <row r="24" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="211" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D24" s="216"/>
       <c r="E24" s="218">
@@ -14088,7 +15529,7 @@
     </row>
     <row r="25" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="211" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D25" s="216"/>
       <c r="E25" s="218">
@@ -14102,7 +15543,7 @@
     </row>
     <row r="26" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="193" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D26" s="219">
         <v>9427</v>
@@ -14121,7 +15562,7 @@
     </row>
     <row r="27" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="193" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D27" s="213"/>
       <c r="E27" s="218">
@@ -14138,7 +15579,7 @@
     </row>
     <row r="28" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="182" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D28" s="222">
         <v>1449</v>
@@ -14152,7 +15593,7 @@
     </row>
     <row r="29" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="182" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D29" s="221">
         <v>0</v>
@@ -14166,7 +15607,7 @@
     </row>
     <row r="30" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="182" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D30" s="222">
         <v>1449</v>
@@ -14180,7 +15621,7 @@
     </row>
     <row r="31" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="181" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D31" s="223">
         <v>353208</v>
@@ -14199,7 +15640,7 @@
     </row>
     <row r="32" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="193" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D32" s="224">
         <v>168259</v>
@@ -14218,7 +15659,7 @@
     </row>
     <row r="33" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="199" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D33" s="223">
         <v>4864763</v>
@@ -14270,16 +15711,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="177" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="238"/>
+      <c r="D5" s="244"/>
       <c r="F5" s="178">
         <v>44012</v>
       </c>
@@ -14288,42 +15729,42 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="238"/>
+      <c r="D6" s="244"/>
       <c r="F6" s="180" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K6" s="180" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="206" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E7" s="207" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F7" s="37"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="208" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E8" s="209">
         <f t="shared" ref="E8:E13" si="0">F8/$F$14</f>
         <v>0.16468053357134391</v>
       </c>
       <c r="F8" s="184" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K8" s="183" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="208" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E9" s="209">
         <f t="shared" si="0"/>
@@ -14338,7 +15779,7 @@
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="208" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E10" s="209">
         <f t="shared" si="0"/>
@@ -14353,7 +15794,7 @@
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="208" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E11" s="209">
         <f t="shared" si="0"/>
@@ -14368,7 +15809,7 @@
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="208" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E12" s="209">
         <f t="shared" si="0"/>
@@ -14383,33 +15824,33 @@
     </row>
     <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="206" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E13" s="209">
         <f t="shared" si="0"/>
         <v>0.24961823012181772</v>
       </c>
       <c r="F13" s="192" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K13" s="191" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="193" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F14" s="184" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K14" s="183" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="194" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F15" s="196">
         <v>0.24959999999999999</v>
@@ -14420,7 +15861,7 @@
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="203" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E16" s="119"/>
       <c r="F16" s="37"/>
@@ -14428,22 +15869,22 @@
     </row>
     <row r="17" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="204" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E17" s="210">
         <f>F17/$F$22</f>
         <v>0.10194402676825608</v>
       </c>
       <c r="F17" s="184" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K17" s="183" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="204" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E18" s="210">
         <f t="shared" ref="E18:E21" si="1">F18/$F$22</f>
@@ -14458,7 +15899,7 @@
     </row>
     <row r="19" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="204" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E19" s="210">
         <f t="shared" si="1"/>
@@ -14473,7 +15914,7 @@
     </row>
     <row r="20" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="204" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E20" s="210">
         <f t="shared" si="1"/>
@@ -14488,33 +15929,33 @@
     </row>
     <row r="21" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="205" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E21" s="210">
         <f t="shared" si="1"/>
         <v>0.14861612157447746</v>
       </c>
       <c r="F21" s="192" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K21" s="191" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="193" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F22" s="184" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K22" s="183" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="4:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="199" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F23" s="201">
         <v>0.14860000000000001</v>
@@ -14525,7 +15966,7 @@
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D25" s="202" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C97D3CA-A55A-4D6D-BCB6-B78AD4327C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1898421D-9167-44F7-9ED9-CF44ACFE6947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -3105,6 +3105,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="16" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3120,7 +3121,6 @@
     <xf numFmtId="0" fontId="28" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -5957,7 +5957,7 @@
       <c r="BF17" s="170"/>
     </row>
     <row r="18" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="271" t="s">
+      <c r="A18" s="266" t="s">
         <v>197</v>
       </c>
       <c r="C18" s="119" t="b">
@@ -6993,7 +6993,7 @@
       <c r="BF29" s="130"/>
     </row>
     <row r="30" spans="1:58" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="271" t="s">
+      <c r="A30" s="266" t="s">
         <v>403</v>
       </c>
       <c r="C30" s="119" t="b">
@@ -12762,13 +12762,13 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="269" t="s">
         <v>358</v>
       </c>
       <c r="C3" s="244" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="269" t="s">
+      <c r="D3" s="270" t="s">
         <v>361</v>
       </c>
       <c r="E3" s="244" t="s">
@@ -12777,45 +12777,45 @@
       <c r="F3" s="244" t="s">
         <v>364</v>
       </c>
-      <c r="G3" s="269"/>
+      <c r="G3" s="270"/>
     </row>
     <row r="4" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="268"/>
+      <c r="B4" s="269"/>
       <c r="C4" s="244" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="269"/>
+      <c r="D4" s="270"/>
       <c r="E4" s="244" t="s">
         <v>363</v>
       </c>
       <c r="F4" s="244" t="s">
         <v>365</v>
       </c>
-      <c r="G4" s="269"/>
+      <c r="G4" s="270"/>
     </row>
     <row r="5" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="269" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="269" t="s">
+      <c r="C5" s="270" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="269"/>
+      <c r="D5" s="270"/>
       <c r="E5" s="244" t="s">
         <v>368</v>
       </c>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
+      <c r="F5" s="270"/>
+      <c r="G5" s="270"/>
     </row>
     <row r="6" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="268"/>
-      <c r="C6" s="269"/>
-      <c r="D6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
       <c r="E6" s="244" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="269"/>
-      <c r="G6" s="269"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
     </row>
     <row r="7" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="249" t="s">
@@ -12911,13 +12911,13 @@
       <c r="H2" s="252"/>
     </row>
     <row r="3" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="269" t="s">
         <v>358</v>
       </c>
       <c r="C3" s="244" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="270" t="s">
+      <c r="D3" s="271" t="s">
         <v>377</v>
       </c>
       <c r="E3" s="245" t="s">
@@ -12926,49 +12926,49 @@
       <c r="F3" s="245" t="s">
         <v>364</v>
       </c>
-      <c r="G3" s="269"/>
+      <c r="G3" s="270"/>
     </row>
     <row r="4" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="268"/>
+      <c r="B4" s="269"/>
       <c r="C4" s="244" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="270"/>
+      <c r="D4" s="271"/>
       <c r="E4" s="245" t="s">
         <v>378</v>
       </c>
       <c r="F4" s="245" t="s">
         <v>379</v>
       </c>
-      <c r="G4" s="269"/>
+      <c r="G4" s="270"/>
     </row>
     <row r="5" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="269" t="s">
         <v>366</v>
       </c>
       <c r="C5" s="244" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="270" t="s">
+      <c r="D5" s="271" t="s">
         <v>382</v>
       </c>
       <c r="E5" s="245" t="s">
         <v>368</v>
       </c>
-      <c r="F5" s="270"/>
-      <c r="G5" s="269"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="270"/>
     </row>
     <row r="6" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="268"/>
+      <c r="B6" s="269"/>
       <c r="C6" s="244" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="270"/>
+      <c r="D6" s="271"/>
       <c r="E6" s="245" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="270"/>
-      <c r="G6" s="269"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="270"/>
     </row>
     <row r="7" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="249" t="s">
@@ -13030,13 +13030,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
-  <dimension ref="A3:AJ47"/>
+  <dimension ref="A3:AJ48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13726,7 +13726,7 @@
         <v>166</v>
       </c>
       <c r="C16" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="119" t="s">
         <v>159</v>
@@ -13813,7 +13813,7 @@
         <v>188</v>
       </c>
       <c r="C18" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="119" t="s">
         <v>159</v>
@@ -13914,7 +13914,7 @@
         <v>227</v>
       </c>
       <c r="C19" s="119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="119" t="s">
         <v>159</v>
@@ -14002,91 +14002,22 @@
       </c>
     </row>
     <row r="20" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="119" t="s">
-        <v>396</v>
-      </c>
-      <c r="C20" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="119" t="s">
-        <v>397</v>
-      </c>
-      <c r="F20" s="119" t="s">
-        <v>194</v>
-      </c>
-      <c r="M20" s="119">
-        <v>0</v>
-      </c>
-      <c r="N20" s="119">
-        <v>0</v>
-      </c>
-      <c r="O20" s="119">
-        <v>2021</v>
-      </c>
-      <c r="P20" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="119">
-        <v>0.03</v>
-      </c>
-      <c r="R20" s="119">
-        <v>0</v>
-      </c>
-      <c r="S20" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="T20" s="119">
-        <v>6.6250000000000003E-2</v>
-      </c>
-      <c r="U20" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="V20" s="120">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="W20" s="120">
-        <v>2.3E-2</v>
-      </c>
-      <c r="X20" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="119">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="119">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="119">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>20</v>
-      </c>
-      <c r="AE20">
-        <v>64</v>
-      </c>
-      <c r="AF20">
-        <v>20</v>
-      </c>
-      <c r="AG20">
-        <v>100</v>
-      </c>
-      <c r="AH20">
-        <v>40</v>
-      </c>
-      <c r="AI20">
-        <v>65</v>
-      </c>
-      <c r="AJ20" s="119">
-        <v>2020</v>
-      </c>
+      <c r="F20" s="121"/>
+      <c r="G20" s="122"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
     </row>
     <row r="21" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="119" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C21" s="119" t="b">
         <v>0</v>
@@ -14094,26 +14025,8 @@
       <c r="E21" s="119" t="s">
         <v>397</v>
       </c>
-      <c r="F21" s="121" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="121">
-        <v>2021</v>
-      </c>
-      <c r="H21" s="121">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I21" s="121">
-        <v>0.75</v>
-      </c>
-      <c r="J21" s="121">
-        <v>3</v>
-      </c>
-      <c r="K21" s="121">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L21" s="121">
-        <v>0.02</v>
+      <c r="F21" s="119" t="s">
+        <v>194</v>
       </c>
       <c r="M21" s="119">
         <v>0</v>
@@ -14186,114 +14099,132 @@
       </c>
     </row>
     <row r="22" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
-      <c r="AG22"/>
-      <c r="AH22"/>
-      <c r="AI22"/>
+      <c r="A22" s="119" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" s="121" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="121">
+        <v>2021</v>
+      </c>
+      <c r="H22" s="121">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I22" s="121">
+        <v>0.75</v>
+      </c>
+      <c r="J22" s="121">
+        <v>3</v>
+      </c>
+      <c r="K22" s="121">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L22" s="121">
+        <v>0.02</v>
+      </c>
+      <c r="M22" s="119">
+        <v>0</v>
+      </c>
+      <c r="N22" s="119">
+        <v>0</v>
+      </c>
+      <c r="O22" s="119">
+        <v>2021</v>
+      </c>
+      <c r="P22" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="R22" s="119">
+        <v>0</v>
+      </c>
+      <c r="S22" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" s="119">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="U22" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" s="120">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="W22" s="120">
+        <v>2.3E-2</v>
+      </c>
+      <c r="X22" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="119">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="119">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="119">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="119">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>20</v>
+      </c>
+      <c r="AE22">
+        <v>64</v>
+      </c>
+      <c r="AF22">
+        <v>20</v>
+      </c>
+      <c r="AG22">
+        <v>100</v>
+      </c>
+      <c r="AH22">
+        <v>40</v>
+      </c>
+      <c r="AI22">
+        <v>65</v>
+      </c>
+      <c r="AJ22" s="119">
+        <v>2020</v>
+      </c>
     </row>
     <row r="23" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119" t="s">
-        <v>411</v>
-      </c>
-      <c r="C23" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="119" t="s">
-        <v>412</v>
-      </c>
-      <c r="F23" s="119" t="s">
-        <v>194</v>
-      </c>
-      <c r="M23" s="119">
-        <v>0</v>
-      </c>
-      <c r="N23" s="119">
-        <v>0</v>
-      </c>
-      <c r="O23" s="119">
-        <v>2021</v>
-      </c>
-      <c r="P23" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q23" s="119">
-        <v>0.03</v>
-      </c>
-      <c r="R23" s="119">
-        <v>0</v>
-      </c>
-      <c r="S23" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="T23" s="119">
-        <v>6.6250000000000003E-2</v>
-      </c>
-      <c r="U23" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="V23" s="120">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="W23" s="120">
-        <v>2.3E-2</v>
-      </c>
-      <c r="X23" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="119">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="119">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="119">
-        <v>1</v>
-      </c>
-      <c r="AD23">
-        <v>20</v>
-      </c>
-      <c r="AE23">
-        <v>64</v>
-      </c>
-      <c r="AF23">
-        <v>20</v>
-      </c>
-      <c r="AG23">
-        <v>100</v>
-      </c>
-      <c r="AH23">
-        <v>40</v>
-      </c>
-      <c r="AI23">
-        <v>65</v>
-      </c>
-      <c r="AJ23" s="119">
-        <v>2020</v>
-      </c>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
     </row>
     <row r="24" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="119" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C24" s="119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="119" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F24" s="119" t="s">
         <v>194</v>
@@ -14369,204 +14300,188 @@
       </c>
     </row>
     <row r="25" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-      <c r="AH25"/>
-      <c r="AI25"/>
-    </row>
-    <row r="26" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="227" t="s">
+      <c r="A25" s="119" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" s="119" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" s="119">
+        <v>0</v>
+      </c>
+      <c r="N25" s="119">
+        <v>0</v>
+      </c>
+      <c r="O25" s="119">
+        <v>2021</v>
+      </c>
+      <c r="P25" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="R25" s="119">
+        <v>0</v>
+      </c>
+      <c r="S25" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="119">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="U25" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" s="120">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="W25" s="120">
+        <v>2.3E-2</v>
+      </c>
+      <c r="X25" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="119">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="119">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="119">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="119">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>20</v>
+      </c>
+      <c r="AE25">
+        <v>64</v>
+      </c>
+      <c r="AF25">
+        <v>20</v>
+      </c>
+      <c r="AG25">
+        <v>100</v>
+      </c>
+      <c r="AH25">
+        <v>40</v>
+      </c>
+      <c r="AI25">
+        <v>65</v>
+      </c>
+      <c r="AJ25" s="119">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+    </row>
+    <row r="27" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="227" t="s">
         <v>297</v>
       </c>
-      <c r="C26" s="227" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="227" t="s">
+      <c r="C27" s="227" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="227" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="227" t="s">
+      <c r="F27" s="227" t="s">
         <v>194</v>
       </c>
-      <c r="M26" s="227">
-        <v>0</v>
-      </c>
-      <c r="N26" s="227">
-        <v>0</v>
-      </c>
-      <c r="O26" s="227">
+      <c r="M27" s="227">
+        <v>0</v>
+      </c>
+      <c r="N27" s="227">
+        <v>0</v>
+      </c>
+      <c r="O27" s="227">
         <v>2021</v>
       </c>
-      <c r="P26" s="227" t="s">
+      <c r="P27" s="227" t="s">
         <v>61</v>
       </c>
-      <c r="Q26" s="227">
+      <c r="Q27" s="227">
         <v>0.03</v>
       </c>
-      <c r="R26" s="227">
-        <v>0</v>
-      </c>
-      <c r="S26" s="227" t="b">
-        <v>1</v>
-      </c>
-      <c r="T26" s="227">
+      <c r="R27" s="227">
+        <v>0</v>
+      </c>
+      <c r="S27" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" s="227">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="U26" s="227" t="b">
-        <v>1</v>
-      </c>
-      <c r="V26" s="228">
+      <c r="U27" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" s="228">
         <v>0.24099999999999999</v>
       </c>
-      <c r="W26" s="228">
+      <c r="W27" s="228">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="X26" s="227">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="227">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="227">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="227">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="227">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="227">
+      <c r="X27" s="227">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="227">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="227">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="227">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="227">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="227">
         <v>20</v>
       </c>
-      <c r="AE26" s="227">
+      <c r="AE27" s="227">
         <v>69</v>
       </c>
-      <c r="AF26" s="227">
+      <c r="AF27" s="227">
         <v>20</v>
       </c>
-      <c r="AG26" s="227">
+      <c r="AG27" s="227">
         <v>100</v>
       </c>
-      <c r="AH26" s="227">
+      <c r="AH27" s="227">
         <v>50</v>
       </c>
-      <c r="AI26" s="227">
+      <c r="AI27" s="227">
         <v>70</v>
       </c>
-      <c r="AJ26" s="227">
+      <c r="AJ27" s="227">
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-    </row>
-    <row r="28" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="227" t="s">
-        <v>298</v>
-      </c>
-      <c r="C28" s="227" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="227" t="s">
-        <v>296</v>
-      </c>
-      <c r="F28" s="121" t="s">
-        <v>192</v>
-      </c>
-      <c r="G28" s="121">
-        <v>2021</v>
-      </c>
-      <c r="H28" s="229">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I28" s="229">
-        <v>0.75</v>
-      </c>
-      <c r="J28" s="229">
-        <v>3</v>
-      </c>
-      <c r="K28" s="229">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="L28" s="229"/>
-      <c r="M28" s="227">
-        <v>0</v>
-      </c>
-      <c r="N28" s="227">
-        <v>0</v>
-      </c>
-      <c r="O28" s="227">
-        <v>2021</v>
-      </c>
-      <c r="P28" s="227" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q28" s="227">
-        <v>0.03</v>
-      </c>
-      <c r="R28" s="227">
-        <v>0</v>
-      </c>
-      <c r="S28" s="227" t="b">
-        <v>1</v>
-      </c>
-      <c r="T28" s="227">
-        <v>6.6250000000000003E-2</v>
-      </c>
-      <c r="U28" s="227" t="b">
-        <v>1</v>
-      </c>
-      <c r="V28" s="228">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="W28" s="228">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="X28" s="227">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="227">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="227">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="227">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="227">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="227">
-        <v>20</v>
-      </c>
-      <c r="AE28" s="227">
-        <v>69</v>
-      </c>
-      <c r="AF28" s="227">
-        <v>20</v>
-      </c>
-      <c r="AG28" s="227">
-        <v>100</v>
-      </c>
-      <c r="AH28" s="227">
-        <v>50</v>
-      </c>
-      <c r="AI28" s="227">
-        <v>70</v>
-      </c>
-      <c r="AJ28" s="227">
-        <v>2020</v>
-      </c>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
     </row>
     <row r="29" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="227" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C29" s="227" t="b">
         <v>0</v>
@@ -14575,14 +14490,24 @@
         <v>296</v>
       </c>
       <c r="F29" s="121" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" s="122">
+        <v>192</v>
+      </c>
+      <c r="G29" s="121">
         <v>2021</v>
       </c>
-      <c r="K29" s="227">
-        <v>0.03</v>
-      </c>
+      <c r="H29" s="229">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I29" s="229">
+        <v>0.75</v>
+      </c>
+      <c r="J29" s="229">
+        <v>3</v>
+      </c>
+      <c r="K29" s="229">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="L29" s="229"/>
       <c r="M29" s="227">
         <v>0</v>
       </c>
@@ -14653,9 +14578,94 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
+    <row r="30" spans="1:36" s="227" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="227" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="227" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="227" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="121" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="122">
+        <v>2021</v>
+      </c>
+      <c r="K30" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="M30" s="227">
+        <v>0</v>
+      </c>
+      <c r="N30" s="227">
+        <v>0</v>
+      </c>
+      <c r="O30" s="227">
+        <v>2021</v>
+      </c>
+      <c r="P30" s="227" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q30" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="R30" s="227">
+        <v>0</v>
+      </c>
+      <c r="S30" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="227">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="U30" s="227" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" s="228">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="W30" s="228">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="X30" s="227">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="227">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="227">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="227">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="227">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="227">
+        <v>20</v>
+      </c>
+      <c r="AE30" s="227">
+        <v>69</v>
+      </c>
+      <c r="AF30" s="227">
+        <v>20</v>
+      </c>
+      <c r="AG30" s="227">
+        <v>100</v>
+      </c>
+      <c r="AH30" s="227">
+        <v>50</v>
+      </c>
+      <c r="AI30" s="227">
+        <v>70</v>
+      </c>
+      <c r="AJ30" s="227">
+        <v>2020</v>
+      </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V31" s="27"/>
@@ -14693,91 +14703,13 @@
       <c r="V39" s="27"/>
       <c r="W39" s="27"/>
     </row>
-    <row r="40" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="119" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" s="119" t="s">
-        <v>194</v>
-      </c>
-      <c r="G40" s="119">
-        <v>2021</v>
-      </c>
-      <c r="M40" s="119">
-        <v>0.5</v>
-      </c>
-      <c r="N40" s="119">
-        <v>0.5</v>
-      </c>
-      <c r="O40" s="119">
-        <v>2021</v>
-      </c>
-      <c r="P40" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q40" s="119">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="R40" s="119">
-        <v>0</v>
-      </c>
-      <c r="S40" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="T40" s="119">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="U40" s="119" t="b">
-        <v>0</v>
-      </c>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="119">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="119">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="119">
-        <v>1</v>
-      </c>
-      <c r="AD40">
-        <v>20</v>
-      </c>
-      <c r="AE40">
-        <v>64</v>
-      </c>
-      <c r="AF40">
-        <v>20</v>
-      </c>
-      <c r="AG40">
-        <v>100</v>
-      </c>
-      <c r="AH40">
-        <v>40</v>
-      </c>
-      <c r="AI40">
-        <v>65</v>
-      </c>
-      <c r="AJ40" s="119">
-        <v>2019</v>
-      </c>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
     </row>
     <row r="41" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="119" t="b">
         <v>0</v>
@@ -14791,17 +14723,11 @@
       <c r="G41" s="119">
         <v>2021</v>
       </c>
-      <c r="K41" s="119">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L41" s="119">
-        <v>0.02</v>
-      </c>
       <c r="M41" s="119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N41" s="119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O41" s="119">
         <v>2021</v>
@@ -14863,9 +14789,93 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
+    <row r="42" spans="1:36" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="119" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" s="119">
+        <v>2021</v>
+      </c>
+      <c r="K42" s="119">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L42" s="119">
+        <v>0.02</v>
+      </c>
+      <c r="M42" s="119">
+        <v>0</v>
+      </c>
+      <c r="N42" s="119">
+        <v>0</v>
+      </c>
+      <c r="O42" s="119">
+        <v>2021</v>
+      </c>
+      <c r="P42" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q42" s="119">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="R42" s="119">
+        <v>0</v>
+      </c>
+      <c r="S42" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" s="119">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="U42" s="119" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" s="120"/>
+      <c r="W42" s="120"/>
+      <c r="X42" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="119">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="119">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="119">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="119">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>20</v>
+      </c>
+      <c r="AE42">
+        <v>64</v>
+      </c>
+      <c r="AF42">
+        <v>20</v>
+      </c>
+      <c r="AG42">
+        <v>100</v>
+      </c>
+      <c r="AH42">
+        <v>40</v>
+      </c>
+      <c r="AI42">
+        <v>65</v>
+      </c>
+      <c r="AJ42" s="119">
+        <v>2019</v>
+      </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V43" s="27"/>
@@ -14887,12 +14897,16 @@
       <c r="V47" s="27"/>
       <c r="W47" s="27"/>
     </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C47" xr:uid="{CE4DB086-8939-4E0F-A217-D1528E507A37}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C48" xr:uid="{CE4DB086-8939-4E0F-A217-D1528E507A37}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D47" xr:uid="{B6635BCF-58EB-45FF-9851-3E5464D67D97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D48" xr:uid="{B6635BCF-58EB-45FF-9851-3E5464D67D97}">
       <formula1>"singleTier,multiTier"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14990,8 +15004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http:/